--- a/Documents/GameDesign/System_Design.xlsx
+++ b/Documents/GameDesign/System_Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin DIJOUX\Documents\Unity\Workshop_TowerDefense\STD_Workshop\Documents\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74950E5-677B-4267-8A0E-757ACA540770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278BB47F-6B6F-45A9-B616-212B21662E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EE4EEEAB-A39E-4793-9971-E358DB8AAF6E}"/>
   </bookViews>
@@ -350,10 +350,10 @@
     <t>arrondi #,##</t>
   </si>
   <si>
-    <t>Valeur Modifiable</t>
-  </si>
-  <si>
     <t>List</t>
+  </si>
+  <si>
+    <t>Valeur Ref</t>
   </si>
 </sst>
 </file>
@@ -845,47 +845,38 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -901,9 +892,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -936,9 +924,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -963,37 +948,52 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1679,31 +1679,31 @@
   <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:F25"/>
+      <selection activeCell="Q2" sqref="Q2:R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="65"/>
-    <col min="2" max="2" width="22.42578125" style="66" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="66" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="66" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="66"/>
-    <col min="6" max="6" width="5.7109375" style="66" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="66"/>
-    <col min="8" max="8" width="5.7109375" style="66" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="66"/>
-    <col min="10" max="10" width="5.7109375" style="66" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="66"/>
-    <col min="12" max="12" width="5.7109375" style="66" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="66"/>
-    <col min="14" max="14" width="5.7109375" style="66" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" style="66" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="70" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="66" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="70" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="66"/>
+    <col min="1" max="1" width="11.42578125" style="61"/>
+    <col min="2" max="2" width="22.42578125" style="62" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="62" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="62" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="62"/>
+    <col min="6" max="6" width="5.7109375" style="62" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="62"/>
+    <col min="8" max="8" width="5.7109375" style="62" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="62"/>
+    <col min="10" max="10" width="5.7109375" style="62" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="62"/>
+    <col min="12" max="12" width="5.7109375" style="62" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="62"/>
+    <col min="14" max="14" width="5.7109375" style="62" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="62" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" style="62" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="66" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="62" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="66" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1711,388 +1711,388 @@
         <v>15</v>
       </c>
       <c r="B1" s="41"/>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="60" t="s">
+      <c r="D1" s="58"/>
+      <c r="E1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="60" t="s">
+      <c r="F1" s="58"/>
+      <c r="G1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="60" t="s">
+      <c r="H1" s="58"/>
+      <c r="I1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="61"/>
-      <c r="K1" s="60" t="s">
+      <c r="J1" s="58"/>
+      <c r="K1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="61"/>
-      <c r="M1" s="60" t="s">
+      <c r="L1" s="58"/>
+      <c r="M1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="69"/>
-      <c r="O1" s="91" t="s">
+      <c r="N1" s="65"/>
+      <c r="O1" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="95" t="s">
-        <v>90</v>
-      </c>
-      <c r="R1" s="95"/>
+      <c r="Q1" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="85"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="58">
+      <c r="C2" s="55">
         <f>$D$16</f>
         <v>1</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="58" cm="1">
+      <c r="E2" s="55" cm="1">
         <f t="array" ref="E2">_xlfn.IFS(D2="+",ROUNDDOWN(C2*$O$2,2),D2="=",C2)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="58" cm="1">
+      <c r="G2" s="55" cm="1">
         <f t="array" ref="G2">_xlfn.IFS(F2="+",ROUNDDOWN(E2*$O$2,2),F2="=",E2)</f>
         <v>1.21</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="58" cm="1">
+      <c r="I2" s="55" cm="1">
         <f t="array" ref="I2">_xlfn.IFS(H2="+",ROUNDDOWN(G2*$O$2,2),H2="=",G2)</f>
         <v>1.33</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="58" cm="1">
+      <c r="K2" s="55" cm="1">
         <f t="array" ref="K2">_xlfn.IFS(J2="+",ROUNDDOWN(I2*$O$2,2),J2="=",I2)</f>
         <v>1.46</v>
       </c>
-      <c r="L2" s="58" t="s">
+      <c r="L2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="58" cm="1">
+      <c r="M2" s="55" cm="1">
         <f t="array" ref="M2">_xlfn.IFS(L2="+",ROUNDDOWN(K2*$O$2,2),L2="=",K2)</f>
         <v>1.6</v>
       </c>
-      <c r="O2" s="58">
+      <c r="O2" s="55">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q2" s="96" t="s">
-        <v>91</v>
-      </c>
-      <c r="R2" s="96"/>
-      <c r="S2" s="66"/>
+      <c r="Q2" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="R2" s="86"/>
+      <c r="S2" s="62"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
+      <c r="A3" s="95"/>
       <c r="B3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="56">
         <f>$F$16</f>
         <v>0.5</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="59" cm="1">
+      <c r="E3" s="56" cm="1">
         <f t="array" ref="E3">_xlfn.IFS(D3="+",ROUNDDOWN(C3*$O$3,2),D3="=",C3)</f>
         <v>0.45</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="59" cm="1">
+      <c r="G3" s="56" cm="1">
         <f t="array" ref="G3">_xlfn.IFS(F3="+",ROUNDDOWN(E3*$O$3,2),F3="=",E3)</f>
         <v>0.4</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="59" cm="1">
+      <c r="I3" s="56" cm="1">
         <f t="array" ref="I3">_xlfn.IFS(H3="+",ROUNDDOWN(G3*$O$3,2),H3="=",G3)</f>
         <v>0.36</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="59" cm="1">
+      <c r="K3" s="56" cm="1">
         <f t="array" ref="K3">_xlfn.IFS(J3="+",ROUNDDOWN(I3*$O$3,2),J3="=",I3)</f>
         <v>0.32</v>
       </c>
-      <c r="L3" s="59" t="s">
+      <c r="L3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="59" cm="1">
+      <c r="M3" s="56" cm="1">
         <f t="array" ref="M3">_xlfn.IFS(L3="+",ROUNDDOWN(K3*$O$3,2),L3="=",K3)</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="O3" s="59">
+      <c r="O3" s="56">
         <v>0.9</v>
       </c>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="95"/>
+      <c r="B4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="55">
         <f>$H$16</f>
         <v>3</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="58" cm="1">
+      <c r="E4" s="55" cm="1">
         <f t="array" ref="E4">_xlfn.IFS(D4="+",ROUNDDOWN(C4*$O$4,2),D4="=",C4)</f>
         <v>3.75</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="58" cm="1">
+      <c r="G4" s="55" cm="1">
         <f t="array" ref="G4">_xlfn.IFS(F4="+",ROUNDDOWN(E4*$O$4,2),F4="=",E4)</f>
         <v>4.68</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="58" cm="1">
+      <c r="I4" s="55" cm="1">
         <f t="array" ref="I4">_xlfn.IFS(H4="+",ROUNDDOWN(G4*$O$4,2),H4="=",G4)</f>
         <v>5.85</v>
       </c>
-      <c r="J4" s="58" t="s">
+      <c r="J4" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="58" cm="1">
+      <c r="K4" s="55" cm="1">
         <f t="array" ref="K4">_xlfn.IFS(J4="+",ROUNDDOWN(I4*$O$4,2),J4="=",I4)</f>
         <v>7.31</v>
       </c>
-      <c r="L4" s="58" t="s">
+      <c r="L4" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="58" cm="1">
+      <c r="M4" s="55" cm="1">
         <f t="array" ref="M4">_xlfn.IFS(L4="+",ROUNDDOWN(K4*$O$4,2),L4="=",K4)</f>
         <v>9.1300000000000008</v>
       </c>
-      <c r="O4" s="58">
+      <c r="O4" s="55">
         <v>1.25</v>
       </c>
-      <c r="S4" s="66"/>
+      <c r="S4" s="62"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="59">
+      <c r="C5" s="56">
         <f>$J$16</f>
         <v>15</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="59" cm="1">
+      <c r="E5" s="56" cm="1">
         <f t="array" ref="E5">_xlfn.IFS(D5="+",ROUNDUP(C5*$O$5,0),D5="=",C5)</f>
         <v>15</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="59" cm="1">
+      <c r="G5" s="56" cm="1">
         <f t="array" ref="G5">_xlfn.IFS(F5="+",ROUNDUP(E5*$O$5,0),F5="=",E5)</f>
         <v>15</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="59" cm="1">
+      <c r="I5" s="56" cm="1">
         <f t="array" ref="I5">_xlfn.IFS(H5="+",ROUNDUP(G5*$O$5,0),H5="=",G5)</f>
         <v>15</v>
       </c>
-      <c r="J5" s="59" t="s">
+      <c r="J5" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="59" cm="1">
+      <c r="K5" s="56" cm="1">
         <f t="array" ref="K5">_xlfn.IFS(J5="+",ROUNDUP(I5*$O$5,0),J5="=",I5)</f>
         <v>15</v>
       </c>
-      <c r="L5" s="59" t="s">
+      <c r="L5" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="59" cm="1">
+      <c r="M5" s="56" cm="1">
         <f t="array" ref="M5">_xlfn.IFS(L5="+",ROUNDUP(K5*$O$5,0),L5="=",K5)</f>
         <v>15</v>
       </c>
-      <c r="O5" s="59">
+      <c r="O5" s="56">
         <v>1.5</v>
       </c>
-      <c r="S5" s="66"/>
+      <c r="S5" s="62"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
-      <c r="B6" s="88" t="s">
+      <c r="A6" s="95"/>
+      <c r="B6" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60">
         <f>ROUNDDOWN((E2-C2)/C2,2)</f>
         <v>0.1</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64">
+      <c r="F6" s="60"/>
+      <c r="G6" s="60">
         <f>ROUNDDOWN((G2-E2)/E2,2)</f>
         <v>0.09</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64">
+      <c r="H6" s="60"/>
+      <c r="I6" s="60">
         <f>ROUNDDOWN((I2-G2)/G2,2)</f>
         <v>0.09</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64">
+      <c r="J6" s="60"/>
+      <c r="K6" s="60">
         <f>ROUNDDOWN((K2-I2)/I2,2)</f>
         <v>0.09</v>
       </c>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64">
+      <c r="L6" s="60"/>
+      <c r="M6" s="60">
         <f>ROUNDDOWN((M2-K2)/K2,2)</f>
         <v>0.09</v>
       </c>
-      <c r="N6" s="67"/>
-      <c r="O6" s="70"/>
-      <c r="Q6" s="67"/>
-      <c r="S6" s="66"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="66"/>
+      <c r="Q6" s="63"/>
+      <c r="S6" s="62"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63">
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59">
         <f t="shared" ref="E7:E8" si="0">ROUNDDOWN((E3-C3)/C3,2)</f>
         <v>-0.1</v>
       </c>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63">
+      <c r="F7" s="59"/>
+      <c r="G7" s="59">
         <f t="shared" ref="G7:G8" si="1">ROUNDDOWN((G3-E3)/E3,2)</f>
         <v>-0.11</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63">
+      <c r="H7" s="59"/>
+      <c r="I7" s="59">
         <f t="shared" ref="I7:I8" si="2">ROUNDDOWN((I3-G3)/G3,2)</f>
         <v>-0.1</v>
       </c>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63">
+      <c r="J7" s="59"/>
+      <c r="K7" s="59">
         <f>ROUNDDOWN((K3-I3)/I3,2)</f>
         <v>-0.11</v>
       </c>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63">
+      <c r="L7" s="59"/>
+      <c r="M7" s="59">
         <f>ROUNDDOWN((M3-K3)/K3,2)</f>
         <v>-0.12</v>
       </c>
-      <c r="N7" s="67"/>
-      <c r="O7" s="91" t="s">
+      <c r="N7" s="63"/>
+      <c r="O7" s="83" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
-      <c r="B8" s="88" t="s">
+      <c r="A8" s="95"/>
+      <c r="B8" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64">
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64">
+      <c r="F8" s="60"/>
+      <c r="G8" s="60">
         <f t="shared" si="1"/>
         <v>0.24</v>
       </c>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64">
+      <c r="H8" s="60"/>
+      <c r="I8" s="60">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64">
+      <c r="J8" s="60"/>
+      <c r="K8" s="60">
         <f>ROUNDDOWN((K4-I4)/I4,2)</f>
         <v>0.24</v>
       </c>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64">
+      <c r="L8" s="60"/>
+      <c r="M8" s="60">
         <f>ROUNDDOWN((M4-K4)/K4,2)</f>
         <v>0.24</v>
       </c>
-      <c r="O8" s="58">
+      <c r="O8" s="55">
         <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="S9" s="66"/>
+      <c r="A9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="S9" s="62"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="55">
         <f>ROUNDDOWN(C2/C3,2)</f>
         <v>2</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58">
+      <c r="D10" s="55"/>
+      <c r="E10" s="55">
         <f>ROUNDDOWN(E2/E3,2)</f>
         <v>2.44</v>
       </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58">
+      <c r="F10" s="55"/>
+      <c r="G10" s="55">
         <f>ROUNDDOWN(G2/G3,2)</f>
         <v>3.02</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58">
+      <c r="H10" s="55"/>
+      <c r="I10" s="55">
         <f>ROUNDDOWN(I2/I3,2)</f>
         <v>3.69</v>
       </c>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58">
+      <c r="J10" s="55"/>
+      <c r="K10" s="55">
         <f>ROUNDDOWN(K2/K3,2)</f>
         <v>4.5599999999999996</v>
       </c>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58">
+      <c r="L10" s="55"/>
+      <c r="M10" s="55">
         <f>ROUNDDOWN(M2/M3,2)</f>
         <v>5.71</v>
       </c>
-      <c r="O10" s="91" t="s">
+      <c r="O10" s="83" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2100,351 +2100,362 @@
       <c r="B11" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="67">
+      <c r="C11" s="63">
         <f>1/C3</f>
         <v>2</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="67">
+      <c r="D11" s="65"/>
+      <c r="E11" s="63">
         <f>1/E3</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="F11" s="69"/>
-      <c r="G11" s="67">
+      <c r="F11" s="65"/>
+      <c r="G11" s="63">
         <f>1/G3</f>
         <v>2.5</v>
       </c>
-      <c r="H11" s="69"/>
-      <c r="I11" s="67">
+      <c r="H11" s="65"/>
+      <c r="I11" s="63">
         <f>1/I3</f>
         <v>2.7777777777777777</v>
       </c>
-      <c r="J11" s="69"/>
-      <c r="K11" s="67">
+      <c r="J11" s="65"/>
+      <c r="K11" s="63">
         <f>1/K3</f>
         <v>3.125</v>
       </c>
-      <c r="L11" s="69"/>
-      <c r="M11" s="67">
+      <c r="L11" s="65"/>
+      <c r="M11" s="63">
         <f>1/M3</f>
         <v>3.5714285714285712</v>
       </c>
-      <c r="O11" s="58">
+      <c r="O11" s="55">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
-      <c r="S12" s="66"/>
+      <c r="A12" s="62"/>
+      <c r="S12" s="62"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
-      <c r="B13" s="73" t="s">
+      <c r="A13" s="62"/>
+      <c r="B13" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="S13" s="66"/>
+      <c r="E13" s="94"/>
+      <c r="S13" s="62"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
-      <c r="B14" s="57" t="s">
+      <c r="A14" s="62"/>
+      <c r="B14" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="58" t="str">
+      <c r="C14" s="55" t="str">
         <f>VLOOKUP($B$14,ENEMIES,3)</f>
         <v>Insect</v>
       </c>
-      <c r="D14" s="74">
+      <c r="D14" s="91">
         <f>VLOOKUP($B$14,ENEMIES,5)</f>
         <v>5</v>
       </c>
-      <c r="E14" s="74"/>
-      <c r="O14" s="70"/>
+      <c r="E14" s="91"/>
+      <c r="O14" s="66"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
-      <c r="B15" s="56" t="s">
+      <c r="A15" s="62"/>
+      <c r="B15" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42" t="s">
+      <c r="E15" s="94"/>
+      <c r="F15" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42" t="s">
+      <c r="G15" s="94"/>
+      <c r="H15" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42" t="s">
+      <c r="I15" s="94"/>
+      <c r="J15" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="42"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="70"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
-      <c r="T15" s="94"/>
-      <c r="U15" s="94"/>
-      <c r="V15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="66"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="84"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="84"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
-      <c r="B16" s="57" t="s">
+      <c r="A16" s="62"/>
+      <c r="B16" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="58" t="str">
+      <c r="C16" s="55" t="str">
         <f>VLOOKUP($B$16,TOWER,3)</f>
         <v>Traps</v>
       </c>
-      <c r="D16" s="74">
+      <c r="D16" s="91">
         <f>VLOOKUP($B$16,TOWER,4)</f>
         <v>1</v>
       </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74">
+      <c r="E16" s="91"/>
+      <c r="F16" s="91">
         <f>VLOOKUP($B$16,TOWER,5)</f>
         <v>0.5</v>
       </c>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74">
+      <c r="G16" s="91"/>
+      <c r="H16" s="91">
         <f>VLOOKUP($B$16,TOWER,6)</f>
         <v>3</v>
       </c>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74">
+      <c r="I16" s="91"/>
+      <c r="J16" s="91">
         <f>VLOOKUP($B$16,TOWER,7)</f>
         <v>15</v>
       </c>
-      <c r="K16" s="74"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="70"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
+      <c r="K16" s="91"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="66"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="70"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="67"/>
-      <c r="V17" s="67"/>
+      <c r="A17" s="62"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="66"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
+      <c r="A18" s="62"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="E19" s="86" t="s">
+      <c r="C19" s="89"/>
+      <c r="E19" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="K19" s="60" t="s">
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="K19" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="Q19" s="66"/>
-      <c r="S19" s="66"/>
+      <c r="Q19" s="62"/>
+      <c r="S19" s="62"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="74">
+      <c r="B20" s="91">
         <f>O11*K21</f>
         <v>24.4</v>
       </c>
-      <c r="C20" s="74"/>
-      <c r="E20" s="74" t="str">
+      <c r="C20" s="91"/>
+      <c r="E20" s="91" t="str">
         <f>C16</f>
         <v>Traps</v>
       </c>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74" t="str">
+      <c r="F20" s="91"/>
+      <c r="G20" s="91" t="str">
         <f>C14</f>
         <v>Insect</v>
       </c>
-      <c r="H20" s="74"/>
-      <c r="I20" s="58" t="s">
+      <c r="H20" s="91"/>
+      <c r="I20" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="K20" s="89" t="s">
+      <c r="K20" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="N20" s="71"/>
-      <c r="O20" s="68"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="64"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="86"/>
-      <c r="E21" s="90" t="str">
+      <c r="C21" s="89"/>
+      <c r="E21" s="92" t="str">
         <f>HLOOKUP(C16,TOWER_TYP,VLOOKUP(C14,ENEMY_TYP,5,FALSE)+1,FALSE)</f>
         <v>+</v>
       </c>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="87" cm="1">
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="93" cm="1">
         <f t="array" ref="I21">_xlfn.IFS(E21="-", 1-O8, E21="=",1,E21="+",1+O8)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="K21" s="87" cm="1">
+      <c r="K21" s="93" cm="1">
         <f t="array" ref="K21">_xlfn.IFS(K20="Upgrade 1",E10,K20="Upgrade 2",G10,K20="Upgrade 3",I10,K20="Upgrade 4",K10,K20="Upgrade 5",M10,K20="Upgrade 6",#REF!)</f>
         <v>2.44</v>
       </c>
-      <c r="O21" s="68"/>
-      <c r="Q21" s="66"/>
-      <c r="S21" s="66"/>
+      <c r="O21" s="64"/>
+      <c r="Q21" s="62"/>
+      <c r="S21" s="62"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B22" s="74">
+      <c r="B22" s="91">
         <f>O11*K21</f>
         <v>24.4</v>
       </c>
-      <c r="C22" s="74"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="O22" s="68"/>
-      <c r="Q22" s="66"/>
-      <c r="S22" s="66"/>
+      <c r="C22" s="91"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="O22" s="64"/>
+      <c r="Q22" s="62"/>
+      <c r="S22" s="62"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N23" s="67"/>
-      <c r="O23" s="68"/>
-      <c r="Q23" s="66"/>
-      <c r="S23" s="66"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="64"/>
+      <c r="Q23" s="62"/>
+      <c r="S23" s="62"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C24" s="92" t="s">
+      <c r="C24" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92" t="s">
+      <c r="D24" s="90"/>
+      <c r="E24" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="92"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="68"/>
-      <c r="Q24" s="68"/>
-      <c r="S24" s="66"/>
+      <c r="F24" s="90"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="S24" s="62"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="60" t="str">
+      <c r="B25" s="57" t="str">
         <f>K20</f>
         <v>Upgrade 1</v>
       </c>
-      <c r="C25" s="43">
+      <c r="C25" s="88">
         <f>ROUNDDOWN($D$14/(K21*$I$21),2)</f>
         <v>1.86</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="93">
+      <c r="D25" s="88"/>
+      <c r="E25" s="87">
         <f>ROUNDUP($D$14/(K21*$I$21),0)</f>
         <v>2</v>
       </c>
-      <c r="F25" s="93"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="68"/>
-      <c r="Q25" s="68"/>
-      <c r="S25" s="66"/>
+      <c r="F25" s="87"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="64"/>
+      <c r="Q25" s="64"/>
+      <c r="S25" s="62"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N26" s="69"/>
-      <c r="O26" s="68"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="64"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N27" s="71"/>
-      <c r="O27" s="68"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="64"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O28" s="68"/>
+      <c r="O28" s="64"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O29" s="68"/>
+      <c r="O29" s="64"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O30" s="68"/>
+      <c r="O30" s="64"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O31" s="68"/>
-      <c r="S31" s="66"/>
+      <c r="O31" s="64"/>
+      <c r="S31" s="62"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O32" s="68"/>
-      <c r="S32" s="66"/>
+      <c r="O32" s="64"/>
+      <c r="S32" s="62"/>
     </row>
     <row r="33" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="O33" s="68"/>
-      <c r="S33" s="66"/>
+      <c r="O33" s="64"/>
+      <c r="S33" s="62"/>
     </row>
     <row r="34" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="Q34" s="68"/>
+      <c r="Q34" s="64"/>
     </row>
     <row r="35" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="Q35" s="68"/>
+      <c r="Q35" s="64"/>
     </row>
     <row r="36" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="Q36" s="68"/>
+      <c r="Q36" s="64"/>
     </row>
     <row r="37" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="Q37" s="68"/>
+      <c r="Q37" s="64"/>
     </row>
     <row r="38" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="Q38" s="68"/>
+      <c r="Q38" s="64"/>
     </row>
     <row r="39" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="Q39" s="68"/>
+      <c r="Q39" s="64"/>
     </row>
     <row r="40" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="Q40" s="68"/>
+      <c r="Q40" s="64"/>
     </row>
     <row r="41" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="Q41" s="68"/>
+      <c r="Q41" s="64"/>
     </row>
     <row r="42" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="Q42" s="68"/>
+      <c r="Q42" s="64"/>
     </row>
     <row r="43" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="Q43" s="68"/>
+      <c r="Q43" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="Q2:R3"/>
     <mergeCell ref="E25:F25"/>
@@ -2461,17 +2472,6 @@
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F15:G15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="T17:T18 V17:V18">
@@ -2486,7 +2486,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25 Q18">
+  <conditionalFormatting sqref="Q18 C25">
     <cfRule type="colorScale" priority="145">
       <colorScale>
         <cfvo type="min"/>
@@ -2506,7 +2506,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25 Q18 S17:S18 U17:U18">
+  <conditionalFormatting sqref="Q18 C25 S17:S18 U17:U18">
     <cfRule type="colorScale" priority="151">
       <colorScale>
         <cfvo type="min"/>
@@ -2516,7 +2516,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25 R18">
+  <conditionalFormatting sqref="R18 E25">
     <cfRule type="colorScale" priority="157">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -2950,57 +2950,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76">
+      <c r="A1" s="71">
         <v>1</v>
       </c>
-      <c r="B1" s="76">
+      <c r="B1" s="71">
         <v>2</v>
       </c>
-      <c r="C1" s="76">
+      <c r="C1" s="71">
         <v>3</v>
       </c>
-      <c r="D1" s="76">
+      <c r="D1" s="71">
         <v>4</v>
       </c>
-      <c r="E1" s="76">
+      <c r="E1" s="71">
         <v>5</v>
       </c>
-      <c r="F1" s="76">
+      <c r="F1" s="71">
         <v>6</v>
       </c>
-      <c r="G1" s="76">
+      <c r="G1" s="71">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="75" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="str">
+      <c r="A3" s="76" t="str">
         <f>_xlfn.CONCAT(B3,"_",LEFT(C3,4),)</f>
         <v>1_Food</v>
       </c>
-      <c r="B3" s="82">
+      <c r="B3" s="77">
         <v>1</v>
       </c>
       <c r="C3" s="30" t="s">
@@ -3020,11 +3020,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="str">
+      <c r="A4" s="78" t="str">
         <f>_xlfn.CONCAT(B4,"_",LEFT(C4,4),)</f>
         <v>2_Trap</v>
       </c>
-      <c r="B4" s="75">
+      <c r="B4" s="70">
         <v>2</v>
       </c>
       <c r="C4" s="25" t="s">
@@ -3044,11 +3044,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="84" t="str">
+      <c r="A5" s="79" t="str">
         <f>_xlfn.CONCAT(B5,"_",LEFT(C5,4),)</f>
         <v>3_Ener</v>
       </c>
-      <c r="B5" s="85">
+      <c r="B5" s="80">
         <v>3</v>
       </c>
       <c r="C5" s="31" t="s">
@@ -3156,7 +3156,7 @@
       <c r="B1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="44" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="35" t="s">
@@ -3171,7 +3171,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="45" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="6"/>
@@ -3203,7 +3203,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="46" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="6"/>
@@ -3224,11 +3224,11 @@
       <c r="H5" s="24"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="44" t="s">
         <v>55</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="44"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="6"/>
       <c r="F6" s="5" t="s">
         <v>13</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="45"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="6"/>
       <c r="F7" s="8" t="s">
         <v>14</v>
@@ -3329,18 +3329,18 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="16"/>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="47" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="50" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="32" t="s">
@@ -3355,15 +3355,15 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="52" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="49" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="36" t="s">
@@ -3378,14 +3378,14 @@
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" s="55" t="str">
+      <c r="G4" s="96" t="str">
         <f>HLOOKUP(G3,C2:E5,VLOOKUP(H3,B3:F5,5,FALSE)+1,FALSE)</f>
         <v>+</v>
       </c>
-      <c r="H4" s="55"/>
+      <c r="H4" s="96"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="50" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="37" t="s">
@@ -3400,23 +3400,23 @@
       <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="16"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="47" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="50" t="s">
         <v>83</v>
       </c>
       <c r="C8" s="32" t="s">
@@ -3431,15 +3431,15 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="52" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="49" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="36" t="s">
@@ -3454,14 +3454,14 @@
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" s="55" t="str">
+      <c r="G9" s="96" t="str">
         <f>HLOOKUP(G8,C7:E10,VLOOKUP(H8,B8:F10,5,FALSE)+1,FALSE)</f>
         <v>=</v>
       </c>
-      <c r="H9" s="55"/>
+      <c r="H9" s="96"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="50" t="s">
         <v>84</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -3476,8 +3476,8 @@
       <c r="F10">
         <v>3</v>
       </c>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3663,12 +3663,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100841444F490B10C45A279B0383115D26D" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="91c543cf6706f2108a45fe2b21185738">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c3a97ae1-1078-4f52-97c7-e1e75f184270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6cf98f67490a83722a01f9dfd5fe46d6" ns3:_="">
     <xsd:import namespace="c3a97ae1-1078-4f52-97c7-e1e75f184270"/>
@@ -3800,6 +3794,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{382CAFBC-27A9-4D0E-A532-4CEEC1A7F497}">
   <ds:schemaRefs>
@@ -3809,22 +3809,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6866972C-7532-44BD-9DE5-958311035541}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c3a97ae1-1078-4f52-97c7-e1e75f184270"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02023A10-1816-44FB-8F7C-8B09E93BD20F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3840,4 +3824,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6866972C-7532-44BD-9DE5-958311035541}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c3a97ae1-1078-4f52-97c7-e1e75f184270"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documents/GameDesign/System_Design.xlsx
+++ b/Documents/GameDesign/System_Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin DIJOUX\Documents\Unity\Workshop_TowerDefense\STD_Workshop\Documents\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278BB47F-6B6F-45A9-B616-212B21662E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D1DF65-EA9C-4CAD-B974-936C00C58F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EE4EEEAB-A39E-4793-9971-E358DB8AAF6E}"/>
   </bookViews>
@@ -21,19 +21,21 @@
     <sheet name="Weak" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="CAT_ENEMIES">Data!$H$2:$H$4</definedName>
-    <definedName name="CAT_TOWER">Tower!$C$3:$C$5</definedName>
+    <definedName name="CAT_ENEMIES">Data!$H$8:$H$10</definedName>
+    <definedName name="CAT_TOWER">Data!$F$10:$F$12</definedName>
     <definedName name="CODE_ENEMIES">Enemies!$A$3:$A$11</definedName>
-    <definedName name="CODE_TOWER">Tower!$A$3:$A$5</definedName>
-    <definedName name="ENEMIES">Enemies!$A$3:$F$11</definedName>
-    <definedName name="ENEMY_TYP">Weak!$B$3:$F$5</definedName>
-    <definedName name="FUN_ENEMIES">Data!$H$7:$H$9</definedName>
+    <definedName name="CODE_TOWER">Tower!$A$3:$A$11</definedName>
+    <definedName name="ENEMY">Enemies!$A$3:$H$11</definedName>
+    <definedName name="LEVEL_ENEMY">Data!$B$15:$B$20</definedName>
     <definedName name="SIGN">Data!$D$2:$D$4</definedName>
-    <definedName name="STA_TOWER">Data!$F$2:$F$7</definedName>
-    <definedName name="STAT_ENEMY">Data!$H$12:$H$14</definedName>
-    <definedName name="TOWER">Tower!$A$3:$G$5</definedName>
-    <definedName name="TOWER_TYP">Weak!$C$2:$E$5</definedName>
+    <definedName name="STAT_ENEMY">Data!$H$2:$H$5</definedName>
+    <definedName name="STAT_TOWER">Data!$F$2:$F$7</definedName>
+    <definedName name="TOWER">Tower!$A$3:$H$11</definedName>
+    <definedName name="TYP_ENEMIES">Data!$H$13:$H$15</definedName>
+    <definedName name="TYP_TOWER">Data!$F$15:$F$17</definedName>
     <definedName name="UPGRADE">Data!$B$7:$B$12</definedName>
+    <definedName name="WEAK_ENEMY">Weak!$B$3:$F$5</definedName>
+    <definedName name="WEAK_TOWER">Weak!$C$2:$E$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -78,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="112">
   <si>
     <t>Upgrade 1</t>
   </si>
@@ -95,9 +97,6 @@
     <t>Upgrade 5</t>
   </si>
   <si>
-    <t>Stat Tourelle</t>
-  </si>
-  <si>
     <t>Attack</t>
   </si>
   <si>
@@ -125,30 +124,18 @@
     <t>Reach %</t>
   </si>
   <si>
-    <t>Stat</t>
-  </si>
-  <si>
     <t>Upgrade 0</t>
   </si>
   <si>
     <t>=</t>
   </si>
   <si>
-    <t>Damage per seconds</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>Upgrade 6</t>
-  </si>
-  <si>
-    <t>Multiplicateur</t>
-  </si>
-  <si>
     <t>Firerate</t>
   </si>
   <si>
@@ -194,9 +181,6 @@
     <t>FUNCTION</t>
   </si>
   <si>
-    <t>FUN_ENEMIES</t>
-  </si>
-  <si>
     <t>Saboteur</t>
   </si>
   <si>
@@ -218,15 +202,9 @@
     <t>Traps</t>
   </si>
   <si>
-    <t>Enemy type</t>
-  </si>
-  <si>
     <t>Weak / Resist</t>
   </si>
   <si>
-    <t>1_Inse_Norm</t>
-  </si>
-  <si>
     <t>Weak Mult</t>
   </si>
   <si>
@@ -245,9 +223,6 @@
     <t>DPS</t>
   </si>
   <si>
-    <t>Upgrades</t>
-  </si>
-  <si>
     <t xml:space="preserve">Upgrade Max </t>
   </si>
   <si>
@@ -323,27 +298,15 @@
     <t>Lv0</t>
   </si>
   <si>
-    <t>Proj Attack</t>
-  </si>
-  <si>
-    <t>Total Damage</t>
-  </si>
-  <si>
     <t>Resistance</t>
   </si>
   <si>
     <t>Speed</t>
   </si>
   <si>
-    <t>Stat_Enemy</t>
-  </si>
-  <si>
     <t>Tower Stat</t>
   </si>
   <si>
-    <t>2_Trap</t>
-  </si>
-  <si>
     <t>Projectil per seconds</t>
   </si>
   <si>
@@ -354,6 +317,105 @@
   </si>
   <si>
     <t>Valeur Ref</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>Snipe</t>
+  </si>
+  <si>
+    <t>Canon</t>
+  </si>
+  <si>
+    <t>Mortar</t>
+  </si>
+  <si>
+    <t>TYP_ENEMIES</t>
+  </si>
+  <si>
+    <t>TYP_TOWER</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>2_Food_Cano</t>
+  </si>
+  <si>
+    <t>7_Vege_Norm</t>
+  </si>
+  <si>
+    <t>Stats</t>
+  </si>
+  <si>
+    <t>UPGRADE</t>
+  </si>
+  <si>
+    <t>STA_TOWER</t>
+  </si>
+  <si>
+    <t>STAT_ENEMY</t>
+  </si>
+  <si>
+    <t>Proj Damage</t>
+  </si>
+  <si>
+    <t>bonus Damage per seconds</t>
+  </si>
+  <si>
+    <t>Total Damage per seconds</t>
+  </si>
+  <si>
+    <t>DAMAGE</t>
+  </si>
+  <si>
+    <t>Enemy Speed</t>
+  </si>
+  <si>
+    <t>Enemy Damage</t>
+  </si>
+  <si>
+    <t>Multiplicateur Tower</t>
+  </si>
+  <si>
+    <t>LVL 0</t>
+  </si>
+  <si>
+    <t>LVL 1</t>
+  </si>
+  <si>
+    <t>LVL 2</t>
+  </si>
+  <si>
+    <t>LVL 3</t>
+  </si>
+  <si>
+    <t>LVL 4</t>
+  </si>
+  <si>
+    <t>LVL 5</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>LEVEL_ENEMY</t>
+  </si>
+  <si>
+    <t>Number Of Hit</t>
+  </si>
+  <si>
+    <t>Money Drop</t>
+  </si>
+  <si>
+    <t>Multiplicateur Enemy</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -435,12 +497,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,8 +590,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -596,123 +658,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -740,9 +685,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -763,207 +708,143 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -972,28 +853,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1002,7 +902,7 @@
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
     <cellStyle name="Titre 3" xfId="2" builtinId="18"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="30">
     <dxf>
       <fill>
         <patternFill>
@@ -1104,6 +1004,97 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF5050"/>
         </patternFill>
       </fill>
@@ -1126,9 +1117,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD1B2E8"/>
+      <color rgb="FFFF66FF"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FFFF5050"/>
-      <color rgb="FFD1B2E8"/>
       <color rgb="FFFF3B3B"/>
     </mruColors>
   </colors>
@@ -1442,8 +1434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95530629-180E-4B47-B0E2-4A13C84E293F}">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C38" sqref="C37:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,147 +1445,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="38" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="G1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="N1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="O1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="P1" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="Q1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="R1" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="S1" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="O1" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="P1" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q1" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="R1" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="S1" s="38" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="38">
+      <c r="A2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="17">
         <f>B14</f>
         <v>1</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="17">
         <f>B2+$E$11</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="17">
         <f t="shared" ref="D2:H2" si="0">C2+$E$11</f>
         <v>6.333333333333333</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="17">
         <f t="shared" si="0"/>
         <v>11.666666666666666</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="17">
         <f t="shared" si="0"/>
         <v>14.333333333333332</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="17">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="38">
+      <c r="A3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="17">
         <f>B15</f>
         <v>3</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="39">
+      <c r="A11" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="18">
         <v>6</v>
       </c>
-      <c r="C11" s="40"/>
+      <c r="C11" s="19"/>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E11">
         <f>(B18-B14)/$B$11</f>
@@ -1601,72 +1593,72 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="40"/>
+      <c r="A13" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="19"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="39">
+      <c r="A14" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="18">
         <v>1</v>
       </c>
-      <c r="C14" s="40"/>
+      <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="39">
+      <c r="A15" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="18">
         <v>3</v>
       </c>
-      <c r="C15" s="40"/>
+      <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="40"/>
+      <c r="A17" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="39">
+      <c r="A18" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="18">
         <v>17</v>
       </c>
-      <c r="C18" s="40"/>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="39">
+      <c r="A19" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="18">
         <v>27</v>
       </c>
-      <c r="C19" s="40"/>
+      <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1676,818 +1668,993 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDA4FAA-0409-4E65-B5DA-46DD5A6F91E2}">
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:R3"/>
+      <selection activeCell="Q4" sqref="Q4:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="61"/>
-    <col min="2" max="2" width="22.42578125" style="62" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="62" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="62" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="62"/>
-    <col min="6" max="6" width="5.7109375" style="62" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="62"/>
-    <col min="8" max="8" width="5.7109375" style="62" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="62"/>
-    <col min="10" max="10" width="5.7109375" style="62" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="62"/>
-    <col min="12" max="12" width="5.7109375" style="62" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="62"/>
-    <col min="14" max="14" width="5.7109375" style="62" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="62" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" style="62" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="66" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="62" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="66" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="62"/>
+    <col min="1" max="1" width="11.42578125" style="39"/>
+    <col min="2" max="2" width="25.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="40" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="40"/>
+    <col min="6" max="6" width="5.7109375" style="40" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="40"/>
+    <col min="8" max="8" width="5.7109375" style="40" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="40"/>
+    <col min="10" max="10" width="5.7109375" style="40" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="40"/>
+    <col min="12" max="12" width="5.7109375" style="40" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="40"/>
+    <col min="14" max="14" width="5.7109375" style="40" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="40" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="44" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="40" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="44" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="36"/>
+      <c r="G1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="36"/>
+      <c r="I1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="36"/>
+      <c r="K1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="36"/>
+      <c r="M1" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="43"/>
+      <c r="O1" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" s="50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="33">
+        <f>$G$21</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="33" cm="1">
+        <f t="array" ref="E2">_xlfn.IFS(D2="+",ROUNDDOWN(C2*(1+$O$2),2),D2="=",C2)</f>
+        <v>1.3</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="54" cm="1">
+        <f t="array" ref="G2">_xlfn.IFS(F2="+",ROUNDDOWN(E2*(1+$O$2),2),F2="=",E2)</f>
+        <v>1.69</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="54" cm="1">
+        <f t="array" ref="I2">_xlfn.IFS(H2="+",ROUNDDOWN(G2*(1+$O$2),2),H2="=",G2)</f>
+        <v>2.19</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="54" cm="1">
+        <f t="array" ref="K2">_xlfn.IFS(J2="+",ROUNDDOWN(I2*(1+$O$2),2),J2="=",I2)</f>
+        <v>2.84</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="54" cm="1">
+        <f t="array" ref="M2">_xlfn.IFS(L2="+",ROUNDDOWN(K2*(1+$O$2),2),L2="=",K2)</f>
+        <v>3.69</v>
+      </c>
+      <c r="O2" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="Q2" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" s="40"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="59"/>
+      <c r="B3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="34">
+        <f>$I$21</f>
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="55" cm="1">
+        <f t="array" ref="E3">_xlfn.IFS(D3="+",ROUNDDOWN(C3*(1-$O$3),2),D3="=",C3)</f>
+        <v>0.45</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="55" cm="1">
+        <f t="array" ref="G3">_xlfn.IFS(F3="+",ROUNDDOWN(E3*(1-$O$3),2),F3="=",E3)</f>
+        <v>0.4</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="55" cm="1">
+        <f t="array" ref="I3">_xlfn.IFS(H3="+",ROUNDDOWN(G3*(1-$O$3),2),H3="=",G3)</f>
+        <v>0.36</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="55" cm="1">
+        <f t="array" ref="K3">_xlfn.IFS(J3="+",ROUNDDOWN(I3*(1-$O$3),2),J3="=",I3)</f>
+        <v>0.32</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="55" cm="1">
+        <f t="array" ref="M3">_xlfn.IFS(L3="+",ROUNDDOWN(K3*(1-$O$3),2),L3="=",K3)</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O3" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="Q3" s="60"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="59"/>
+      <c r="B4" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="33">
+        <f>$K$21</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="54" cm="1">
+        <f t="array" ref="E4">_xlfn.IFS(D4="+",ROUNDDOWN(C4*(1+$O$4),2),D4="=",C4)</f>
+        <v>3.3</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="54" cm="1">
+        <f t="array" ref="G4">_xlfn.IFS(F4="+",ROUNDDOWN(E4*(1+$O$4),2),F4="=",E4)</f>
+        <v>3.63</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="54" cm="1">
+        <f t="array" ref="I4">_xlfn.IFS(H4="+",ROUNDDOWN(G4*(1+$O$4),2),H4="=",G4)</f>
+        <v>3.99</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="54" cm="1">
+        <f t="array" ref="K4">_xlfn.IFS(J4="+",ROUNDDOWN(I4*(1+$O$4),2),J4="=",I4)</f>
+        <v>4.38</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="54" cm="1">
+        <f t="array" ref="M4">_xlfn.IFS(L4="+",ROUNDDOWN(K4*(1+$O$4),2),L4="=",K4)</f>
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="O4" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="S4" s="40"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="59"/>
+      <c r="B5" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="55">
+        <f>$M$21</f>
         <v>15</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="57" t="s">
+      <c r="D5" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="55" cm="1">
+        <f t="array" ref="E5">_xlfn.IFS(D5="+",ROUNDDOWN(C5*(1+$O$5),2),D5="=",C5)</f>
+        <v>15</v>
+      </c>
+      <c r="F5" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="58"/>
-      <c r="K1" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="58"/>
-      <c r="M1" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="65"/>
-      <c r="O1" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="85" t="s">
-        <v>91</v>
-      </c>
-      <c r="R1" s="85"/>
-    </row>
-    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="55">
-        <f>$D$16</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="55" cm="1">
-        <f t="array" ref="E2">_xlfn.IFS(D2="+",ROUNDDOWN(C2*$O$2,2),D2="=",C2)</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F2" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="55" cm="1">
-        <f t="array" ref="G2">_xlfn.IFS(F2="+",ROUNDDOWN(E2*$O$2,2),F2="=",E2)</f>
-        <v>1.21</v>
-      </c>
-      <c r="H2" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="55" cm="1">
-        <f t="array" ref="I2">_xlfn.IFS(H2="+",ROUNDDOWN(G2*$O$2,2),H2="=",G2)</f>
-        <v>1.33</v>
-      </c>
-      <c r="J2" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="55" cm="1">
-        <f t="array" ref="K2">_xlfn.IFS(J2="+",ROUNDDOWN(I2*$O$2,2),J2="=",I2)</f>
-        <v>1.46</v>
-      </c>
-      <c r="L2" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="55" cm="1">
-        <f t="array" ref="M2">_xlfn.IFS(L2="+",ROUNDDOWN(K2*$O$2,2),L2="=",K2)</f>
-        <v>1.6</v>
-      </c>
-      <c r="O2" s="55">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q2" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="R2" s="86"/>
-      <c r="S2" s="62"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="95"/>
-      <c r="B3" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="56">
-        <f>$F$16</f>
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="56" cm="1">
-        <f t="array" ref="E3">_xlfn.IFS(D3="+",ROUNDDOWN(C3*$O$3,2),D3="=",C3)</f>
-        <v>0.45</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="56" cm="1">
-        <f t="array" ref="G3">_xlfn.IFS(F3="+",ROUNDDOWN(E3*$O$3,2),F3="=",E3)</f>
-        <v>0.4</v>
-      </c>
-      <c r="H3" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="56" cm="1">
-        <f t="array" ref="I3">_xlfn.IFS(H3="+",ROUNDDOWN(G3*$O$3,2),H3="=",G3)</f>
-        <v>0.36</v>
-      </c>
-      <c r="J3" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="56" cm="1">
-        <f t="array" ref="K3">_xlfn.IFS(J3="+",ROUNDDOWN(I3*$O$3,2),J3="=",I3)</f>
-        <v>0.32</v>
-      </c>
-      <c r="L3" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="56" cm="1">
-        <f t="array" ref="M3">_xlfn.IFS(L3="+",ROUNDDOWN(K3*$O$3,2),L3="=",K3)</f>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="O3" s="56">
-        <v>0.9</v>
-      </c>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="95"/>
-      <c r="B4" s="81" t="s">
+      <c r="G5" s="55" cm="1">
+        <f t="array" ref="G5">_xlfn.IFS(F5="+",ROUNDDOWN(E5*(1+$O$5),2),F5="=",E5)</f>
+        <v>18</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="55" cm="1">
+        <f t="array" ref="I5">_xlfn.IFS(H5="+",ROUNDDOWN(G5*(1+$O$5),2),H5="=",G5)</f>
+        <v>18</v>
+      </c>
+      <c r="J5" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="55" cm="1">
+        <f t="array" ref="K5">_xlfn.IFS(J5="+",ROUNDDOWN(I5*(1+$O$5),0),J5="=",I5)</f>
+        <v>21</v>
+      </c>
+      <c r="L5" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="55" cm="1">
+        <f t="array" ref="M5">_xlfn.IFS(L5="+",ROUNDDOWN(K5*(1+$O$5),0),L5="=",K5)</f>
+        <v>21</v>
+      </c>
+      <c r="O5" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="S5" s="40"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="59"/>
+      <c r="B6" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="55">
-        <f>$H$16</f>
-        <v>3</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="55" cm="1">
-        <f t="array" ref="E4">_xlfn.IFS(D4="+",ROUNDDOWN(C4*$O$4,2),D4="=",C4)</f>
-        <v>3.75</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="55" cm="1">
-        <f t="array" ref="G4">_xlfn.IFS(F4="+",ROUNDDOWN(E4*$O$4,2),F4="=",E4)</f>
-        <v>4.68</v>
-      </c>
-      <c r="H4" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="55" cm="1">
-        <f t="array" ref="I4">_xlfn.IFS(H4="+",ROUNDDOWN(G4*$O$4,2),H4="=",G4)</f>
-        <v>5.85</v>
-      </c>
-      <c r="J4" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="55" cm="1">
-        <f t="array" ref="K4">_xlfn.IFS(J4="+",ROUNDDOWN(I4*$O$4,2),J4="=",I4)</f>
-        <v>7.31</v>
-      </c>
-      <c r="L4" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="55" cm="1">
-        <f t="array" ref="M4">_xlfn.IFS(L4="+",ROUNDDOWN(K4*$O$4,2),L4="=",K4)</f>
-        <v>9.1300000000000008</v>
-      </c>
-      <c r="O4" s="55">
-        <v>1.25</v>
-      </c>
-      <c r="S4" s="62"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
-      <c r="B5" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="56">
-        <f>$J$16</f>
-        <v>15</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="56" cm="1">
-        <f t="array" ref="E5">_xlfn.IFS(D5="+",ROUNDUP(C5*$O$5,0),D5="=",C5)</f>
-        <v>15</v>
-      </c>
-      <c r="F5" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="56" cm="1">
-        <f t="array" ref="G5">_xlfn.IFS(F5="+",ROUNDUP(E5*$O$5,0),F5="=",E5)</f>
-        <v>15</v>
-      </c>
-      <c r="H5" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="56" cm="1">
-        <f t="array" ref="I5">_xlfn.IFS(H5="+",ROUNDUP(G5*$O$5,0),H5="=",G5)</f>
-        <v>15</v>
-      </c>
-      <c r="J5" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="56" cm="1">
-        <f t="array" ref="K5">_xlfn.IFS(J5="+",ROUNDUP(I5*$O$5,0),J5="=",I5)</f>
-        <v>15</v>
-      </c>
-      <c r="L5" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="56" cm="1">
-        <f t="array" ref="M5">_xlfn.IFS(L5="+",ROUNDUP(K5*$O$5,0),L5="=",K5)</f>
-        <v>15</v>
-      </c>
-      <c r="O5" s="56">
-        <v>1.5</v>
-      </c>
-      <c r="S5" s="62"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="95"/>
-      <c r="B6" s="81" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38">
+        <f>ROUNDDOWN((E2-C2)/C2,2)</f>
+        <v>0.3</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38">
+        <f>ROUNDDOWN((G2-E2)/E2,2)</f>
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38">
+        <f>ROUNDDOWN((I2-G2)/G2,2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38">
+        <f>ROUNDDOWN((K2-I2)/I2,2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38">
+        <f>ROUNDDOWN((M2-K2)/K2,2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N6" s="41"/>
+      <c r="O6" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="41"/>
+      <c r="S6" s="40"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="59"/>
+      <c r="B7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60">
-        <f>ROUNDDOWN((E2-C2)/C2,2)</f>
-        <v>0.1</v>
-      </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60">
-        <f>ROUNDDOWN((G2-E2)/E2,2)</f>
-        <v>0.09</v>
-      </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60">
-        <f>ROUNDDOWN((I2-G2)/G2,2)</f>
-        <v>0.09</v>
-      </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60">
-        <f>ROUNDDOWN((K2-I2)/I2,2)</f>
-        <v>0.09</v>
-      </c>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60">
-        <f>ROUNDDOWN((M2-K2)/K2,2)</f>
-        <v>0.09</v>
-      </c>
-      <c r="N6" s="63"/>
-      <c r="O6" s="66"/>
-      <c r="Q6" s="63"/>
-      <c r="S6" s="62"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="95"/>
-      <c r="B7" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37">
         <f t="shared" ref="E7:E8" si="0">ROUNDDOWN((E3-C3)/C3,2)</f>
         <v>-0.1</v>
       </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59">
+      <c r="F7" s="37"/>
+      <c r="G7" s="37">
         <f t="shared" ref="G7:G8" si="1">ROUNDDOWN((G3-E3)/E3,2)</f>
         <v>-0.11</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59">
+      <c r="H7" s="37"/>
+      <c r="I7" s="37">
         <f t="shared" ref="I7:I8" si="2">ROUNDDOWN((I3-G3)/G3,2)</f>
         <v>-0.1</v>
       </c>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59">
+      <c r="J7" s="37"/>
+      <c r="K7" s="37">
         <f>ROUNDDOWN((K3-I3)/I3,2)</f>
         <v>-0.11</v>
       </c>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59">
+      <c r="L7" s="37"/>
+      <c r="M7" s="37">
         <f>ROUNDDOWN((M3-K3)/K3,2)</f>
         <v>-0.12</v>
       </c>
-      <c r="N7" s="63"/>
-      <c r="O7" s="83" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60">
+      <c r="N7" s="41"/>
+      <c r="O7" s="38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="59"/>
+      <c r="B8" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60">
+        <v>0.09</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38">
         <f t="shared" si="1"/>
-        <v>0.24</v>
-      </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60">
+        <v>0.09</v>
+      </c>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38">
         <f>ROUNDDOWN((K4-I4)/I4,2)</f>
-        <v>0.24</v>
-      </c>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60">
+        <v>0.09</v>
+      </c>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38">
         <f>ROUNDDOWN((M4-K4)/K4,2)</f>
-        <v>0.24</v>
-      </c>
-      <c r="O8" s="55">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="S9" s="62"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="68"/>
-      <c r="B10" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="55">
-        <f>ROUNDDOWN(C2/C3,2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="O8" s="49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40"/>
+      <c r="B9" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="55">
+        <f>ROUNDDOWN(C2*C10,2)</f>
         <v>2</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55">
-        <f>ROUNDDOWN(E2/E3,2)</f>
-        <v>2.44</v>
-      </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55">
-        <f>ROUNDDOWN(G2/G3,2)</f>
-        <v>3.02</v>
-      </c>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55">
-        <f>ROUNDDOWN(I2/I3,2)</f>
-        <v>3.69</v>
-      </c>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55">
-        <f>ROUNDDOWN(K2/K3,2)</f>
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55">
-        <f>ROUNDDOWN(M2/M3,2)</f>
-        <v>5.71</v>
-      </c>
-      <c r="O10" s="83" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="63">
+      <c r="D9" s="55"/>
+      <c r="E9" s="55">
+        <f>ROUNDDOWN(E2*E10,2)</f>
+        <v>2.88</v>
+      </c>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55">
+        <f>ROUNDDOWN(G2*G10,2)</f>
+        <v>4.22</v>
+      </c>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55">
+        <f>ROUNDDOWN(I2*I10,2)</f>
+        <v>6.08</v>
+      </c>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55">
+        <f>ROUNDDOWN(K2*K10,2)</f>
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55">
+        <f>ROUNDDOWN(M2*M10,2)</f>
+        <v>13.17</v>
+      </c>
+      <c r="O9" s="33">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="40"/>
+      <c r="S9" s="40"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="46"/>
+      <c r="B10" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="54">
         <f>1/C3</f>
         <v>2</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="63">
-        <f>1/E3</f>
-        <v>2.2222222222222223</v>
-      </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="63">
-        <f>1/G3</f>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54">
+        <f>ROUND(1/E3,2)</f>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54">
+        <f>ROUND(1/G3,2)</f>
         <v>2.5</v>
       </c>
-      <c r="H11" s="65"/>
-      <c r="I11" s="63">
-        <f>1/I3</f>
-        <v>2.7777777777777777</v>
-      </c>
-      <c r="J11" s="65"/>
-      <c r="K11" s="63">
-        <f>1/K3</f>
-        <v>3.125</v>
-      </c>
-      <c r="L11" s="65"/>
-      <c r="M11" s="63">
-        <f>1/M3</f>
-        <v>3.5714285714285712</v>
-      </c>
-      <c r="O11" s="55">
+      <c r="H10" s="54"/>
+      <c r="I10" s="54">
+        <f>ROUND(1/I3,2)</f>
+        <v>2.78</v>
+      </c>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54">
+        <f>ROUND(1/K3,2)</f>
+        <v>3.13</v>
+      </c>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54">
+        <f>ROUND(1/M3,2)</f>
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="52"/>
+    </row>
+    <row r="12" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="C12" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="36"/>
+      <c r="G12" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="36"/>
+      <c r="I12" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="36"/>
+      <c r="K12" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" s="36"/>
+      <c r="M12" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="O12" s="72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="40"/>
+      <c r="B13" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="68">
+        <f>G19</f>
+        <v>8</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="68" cm="1">
+        <f t="array" ref="E13">_xlfn.IFS(D13="+",ROUNDDOWN(C13*(1+$O$13),2),D13="=",C13)</f>
+        <v>8</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="68" cm="1">
+        <f t="array" ref="G13">_xlfn.IFS(F13="+",ROUNDDOWN(E13*(1+$O$13),2),F13="=",E13)</f>
+        <v>12</v>
+      </c>
+      <c r="H13" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="68" cm="1">
+        <f t="array" ref="I13">_xlfn.IFS(H13="+",ROUNDDOWN(G13*(1+$O$13),2),H13="=",G13)</f>
+        <v>12</v>
+      </c>
+      <c r="J13" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="68" cm="1">
+        <f t="array" ref="K13">_xlfn.IFS(J13="+",ROUNDDOWN(I13*(1+$O$13),2),J13="=",I13)</f>
+        <v>18</v>
+      </c>
+      <c r="L13" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="68" cm="1">
+        <f t="array" ref="M13">_xlfn.IFS(L13="+",ROUNDDOWN(K13*(1+$O$13),2),L13="=",K13)</f>
+        <v>27</v>
+      </c>
+      <c r="O13" s="38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="69">
+        <f>I19</f>
+        <v>3</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="69" cm="1">
+        <f t="array" ref="E14">_xlfn.IFS(D14="+",ROUNDDOWN(C14*(1+$O$14),2),D14="=",C14)</f>
+        <v>3.9</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="69" cm="1">
+        <f t="array" ref="G14">_xlfn.IFS(F14="+",ROUNDDOWN(E14*(1+$O$14),2),F14="=",E14)</f>
+        <v>3.9</v>
+      </c>
+      <c r="H14" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="69" cm="1">
+        <f t="array" ref="I14">_xlfn.IFS(H14="+",ROUNDDOWN(G14*(1+$O$14),2),H14="=",G14)</f>
+        <v>3.9</v>
+      </c>
+      <c r="J14" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="69" cm="1">
+        <f t="array" ref="K14">_xlfn.IFS(J14="+",ROUNDDOWN(I14*(1+$O$14),2),J14="=",I14)</f>
+        <v>5.07</v>
+      </c>
+      <c r="L14" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="69" cm="1">
+        <f t="array" ref="M14">_xlfn.IFS(L14="+",ROUNDDOWN(K14*(1+$O$14),2),L14="=",K14)</f>
+        <v>6.59</v>
+      </c>
+      <c r="O14" s="37">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="68">
+        <f>K19</f>
+        <v>3</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="68" cm="1">
+        <f t="array" ref="E15">_xlfn.IFS(D15="+",ROUNDUP(C15*(1+$O$15),0),D15="=",C15)</f>
+        <v>4</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="68" cm="1">
+        <f t="array" ref="G15">_xlfn.IFS(F15="+",ROUNDUP(E15*(1+$O$15),0),F15="=",E15)</f>
+        <v>5</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="68" cm="1">
+        <f t="array" ref="I15">_xlfn.IFS(H15="+",ROUNDUP(G15*(1+$O$15),0),H15="=",G15)</f>
+        <v>6</v>
+      </c>
+      <c r="J15" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="68" cm="1">
+        <f t="array" ref="K15">_xlfn.IFS(J15="+",ROUNDUP(I15*(1+$O$15),0),J15="=",I15)</f>
+        <v>8</v>
+      </c>
+      <c r="L15" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="68" cm="1">
+        <f t="array" ref="M15">_xlfn.IFS(L15="+",ROUNDUP(K15*(1+$O$15),0),L15="=",K15)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
-      <c r="S12" s="62"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="69" t="s">
+      <c r="O15" s="38">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="69">
+        <f>M19</f>
+        <v>10</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="69" cm="1">
+        <f t="array" ref="E16">_xlfn.IFS(D16="+",ROUNDUP(C16*(1+$O$16),0),D16="=",C16)</f>
+        <v>15</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="69" cm="1">
+        <f t="array" ref="G16">_xlfn.IFS(F16="+",ROUNDUP(E16*(1+$O$16),0),F16="=",E16)</f>
+        <v>23</v>
+      </c>
+      <c r="H16" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="69" cm="1">
+        <f t="array" ref="I16">_xlfn.IFS(H16="+",ROUNDUP(G16*(1+$O$16),0),H16="=",G16)</f>
+        <v>35</v>
+      </c>
+      <c r="J16" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="69" cm="1">
+        <f t="array" ref="K16">_xlfn.IFS(J16="+",ROUNDUP(I16*(1+$O$16),0),J16="=",I16)</f>
+        <v>53</v>
+      </c>
+      <c r="L16" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="69" cm="1">
+        <f t="array" ref="M16">_xlfn.IFS(L16="+",ROUNDUP(K16*(1+$O$16),0),L16="=",K16)</f>
+        <v>80</v>
+      </c>
+      <c r="O16" s="37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="N18" s="56"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="54" t="str">
+        <f>VLOOKUP($B$19,ENEMY,3)</f>
+        <v>Vegetable</v>
+      </c>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54" t="str">
+        <f>VLOOKUP($B$19,ENEMY,4)</f>
+        <v>Normal</v>
+      </c>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54">
+        <f>VLOOKUP($B$19,ENEMY,5)</f>
+        <v>8</v>
+      </c>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54">
+        <f>VLOOKUP($B$19,ENEMY,6)</f>
+        <v>3</v>
+      </c>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54">
+        <f>VLOOKUP($B$19,ENEMY,7)</f>
+        <v>3</v>
+      </c>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54">
+        <f>VLOOKUP($B$19,ENEMY,8)</f>
+        <v>10</v>
+      </c>
+      <c r="N19" s="54"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" s="56"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="54" t="str">
+        <f>VLOOKUP($B$21,TOWER,3)</f>
+        <v>Food</v>
+      </c>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54" t="str">
+        <f>VLOOKUP($B$21,TOWER,4)</f>
+        <v>Canon</v>
+      </c>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54">
+        <f>VLOOKUP($B$21,TOWER,5)</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54">
+        <f>VLOOKUP($B$21,TOWER,6)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54">
+        <f>VLOOKUP($B$21,TOWER,7)</f>
+        <v>3</v>
+      </c>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54">
+        <f>VLOOKUP($B$21,TOWER,8)</f>
+        <v>15</v>
+      </c>
+      <c r="N21" s="54"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N22" s="41"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="53"/>
+      <c r="E23" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="K23" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="M23" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="N23" s="41"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="58">
+        <f>ROUND(O9*K25*I25,2)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="E24" s="58" t="str">
+        <f>C21</f>
+        <v>Food</v>
+      </c>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58" t="str">
+        <f>C19</f>
+        <v>Vegetable</v>
+      </c>
+      <c r="H24" s="58"/>
+      <c r="I24" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="94" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="94"/>
-      <c r="S13" s="62"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="55" t="str">
-        <f>VLOOKUP($B$14,ENEMIES,3)</f>
-        <v>Insect</v>
-      </c>
-      <c r="D14" s="91">
-        <f>VLOOKUP($B$14,ENEMIES,5)</f>
-        <v>5</v>
-      </c>
-      <c r="E14" s="91"/>
-      <c r="O14" s="66"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" s="94"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="66"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="84"/>
-      <c r="T15" s="84"/>
-      <c r="U15" s="84"/>
-      <c r="V15" s="84"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="55" t="str">
-        <f>VLOOKUP($B$16,TOWER,3)</f>
-        <v>Traps</v>
-      </c>
-      <c r="D16" s="91">
-        <f>VLOOKUP($B$16,TOWER,4)</f>
-        <v>1</v>
-      </c>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91">
-        <f>VLOOKUP($B$16,TOWER,5)</f>
-        <v>0.5</v>
-      </c>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91">
-        <f>VLOOKUP($B$16,TOWER,6)</f>
-        <v>3</v>
-      </c>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91">
-        <f>VLOOKUP($B$16,TOWER,7)</f>
-        <v>15</v>
-      </c>
-      <c r="K16" s="91"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="66"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="63"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="66"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="63"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="63"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B19" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="89"/>
-      <c r="E19" s="89" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="K19" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q19" s="62"/>
-      <c r="S19" s="62"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="91">
-        <f>O11*K21</f>
-        <v>24.4</v>
-      </c>
-      <c r="C20" s="91"/>
-      <c r="E20" s="91" t="str">
-        <f>C16</f>
-        <v>Traps</v>
-      </c>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91" t="str">
-        <f>C14</f>
-        <v>Insect</v>
-      </c>
-      <c r="H20" s="91"/>
-      <c r="I20" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="K20" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="N20" s="67"/>
-      <c r="O20" s="64"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B21" s="89" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="89"/>
-      <c r="E21" s="92" t="str">
-        <f>HLOOKUP(C16,TOWER_TYP,VLOOKUP(C14,ENEMY_TYP,5,FALSE)+1,FALSE)</f>
+      <c r="K24" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="44"/>
+      <c r="M24" s="51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E25" s="63" t="str">
+        <f>HLOOKUP(C21,WEAK_TOWER,VLOOKUP(C19,WEAK_ENEMY,5,FALSE)+1,FALSE)</f>
         <v>+</v>
       </c>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="93" cm="1">
-        <f t="array" ref="I21">_xlfn.IFS(E21="-", 1-O8, E21="=",1,E21="+",1+O8)</f>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64" cm="1">
+        <f t="array" ref="I25">_xlfn.IFS(E25="-", 1-O7, E25="=",1,E25="+",1+O7)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="K21" s="93" cm="1">
-        <f t="array" ref="K21">_xlfn.IFS(K20="Upgrade 1",E10,K20="Upgrade 2",G10,K20="Upgrade 3",I10,K20="Upgrade 4",K10,K20="Upgrade 5",M10,K20="Upgrade 6",#REF!)</f>
-        <v>2.44</v>
-      </c>
-      <c r="O21" s="64"/>
-      <c r="Q21" s="62"/>
-      <c r="S21" s="62"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B22" s="91">
-        <f>O11*K21</f>
-        <v>24.4</v>
-      </c>
-      <c r="C22" s="91"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="O22" s="64"/>
-      <c r="Q22" s="62"/>
-      <c r="S22" s="62"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N23" s="63"/>
-      <c r="O23" s="64"/>
-      <c r="Q23" s="62"/>
-      <c r="S23" s="62"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C24" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="90"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="S24" s="62"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="57" t="str">
-        <f>K20</f>
-        <v>Upgrade 1</v>
-      </c>
-      <c r="C25" s="88">
-        <f>ROUNDDOWN($D$14/(K21*$I$21),2)</f>
-        <v>1.86</v>
-      </c>
-      <c r="D25" s="88"/>
-      <c r="E25" s="87">
-        <f>ROUNDUP($D$14/(K21*$I$21),0)</f>
+      <c r="K25" s="64" cm="1">
+        <f t="array" ref="K25">_xlfn.IFS(K24="Upgrade 0",C9,K24="Upgrade 1",E9,K24="Upgrade 2",G9,K24="Upgrade 3",I9,K24="Upgrade 4",K9,K24="Upgrade 5",M9)</f>
         <v>2</v>
       </c>
-      <c r="F25" s="87"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="64"/>
-      <c r="Q25" s="64"/>
-      <c r="S25" s="62"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N26" s="65"/>
-      <c r="O26" s="64"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N27" s="67"/>
-      <c r="O27" s="64"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O28" s="64"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O29" s="64"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O30" s="64"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O31" s="64"/>
-      <c r="S31" s="62"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O32" s="64"/>
-      <c r="S32" s="62"/>
-    </row>
-    <row r="33" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="O33" s="64"/>
-      <c r="S33" s="62"/>
-    </row>
-    <row r="34" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="Q34" s="64"/>
-    </row>
-    <row r="35" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="Q35" s="64"/>
-    </row>
-    <row r="36" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="Q36" s="64"/>
-    </row>
-    <row r="37" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="Q37" s="64"/>
-    </row>
-    <row r="38" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="Q38" s="64"/>
-    </row>
-    <row r="39" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="Q39" s="64"/>
-    </row>
-    <row r="40" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="Q40" s="64"/>
-    </row>
-    <row r="41" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="Q41" s="64"/>
-    </row>
-    <row r="42" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="Q42" s="64"/>
-    </row>
-    <row r="43" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="Q43" s="64"/>
+      <c r="M25" s="64" cm="1">
+        <f t="array" ref="M25">_xlfn.IFS(M24="LVL 0",C13,M24="LVL 1",E13,M24="LVL 2",G13,M24="LVL 3",I13,M24="LVL 4",K13,M24="LVL 5",M13)</f>
+        <v>8</v>
+      </c>
+      <c r="N25" s="45"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="M26" s="64"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C28" s="76" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="N28" s="41"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C29" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="57"/>
+      <c r="N29" s="41"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="53" t="str">
+        <f>_xlfn.CONCAT(K24," ",K23)</f>
+        <v>Upgrade 0 DPS</v>
+      </c>
+      <c r="C30" s="62">
+        <f>ROUNDDOWN($M$25/B24,2)</f>
+        <v>1.81</v>
+      </c>
+      <c r="D30" s="62"/>
+      <c r="E30" s="61">
+        <f>ROUNDUP($M$25/B24,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F30" s="61"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O32" s="42"/>
+      <c r="S32" s="40"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O33" s="42"/>
+      <c r="S33" s="40"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q34" s="42"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q35" s="42"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q36" s="42"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q37" s="42"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q38" s="42"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q39" s="42"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q40" s="42"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q41" s="42"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q42" s="42"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q43" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
+  <mergeCells count="16">
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="E25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="C28:F28"/>
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="T17:T18 V17:V18">
-    <cfRule type="colorScale" priority="134">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="10"/>
-        <color theme="9"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFFF3B3B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q18 C25">
-    <cfRule type="colorScale" priority="145">
+  <conditionalFormatting sqref="C30">
+    <cfRule type="colorScale" priority="155">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2496,8 +2663,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S17:S18">
-    <cfRule type="colorScale" priority="147">
+  <conditionalFormatting sqref="C30">
+    <cfRule type="colorScale" priority="161">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2506,18 +2673,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q18 C25 S17:S18 U17:U18">
-    <cfRule type="colorScale" priority="151">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R18 E25">
-    <cfRule type="colorScale" priority="157">
+  <conditionalFormatting sqref="E30">
+    <cfRule type="colorScale" priority="167">
       <colorScale>
         <cfvo type="num" val="1"/>
         <cfvo type="percent" val="50"/>
@@ -2528,31 +2685,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U17:U18">
-    <cfRule type="colorScale" priority="159">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8 B12:B13 B15" xr:uid="{B79DFF3F-F3F2-4D26-BF72-10F2B485B797}">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8" xr:uid="{B79DFF3F-F3F2-4D26-BF72-10F2B485B797}">
       <formula1>TowerStat</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J8 H2:H8 F12 D2:D8 F2:F8 L12:L17 H12 J12 D12 L2:L8" xr:uid="{44475DCD-E93B-4817-AA4F-5E6FBC088EBF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J8 H2:H8 D2:D8 F2:F8 L2:L8 D13:D16 F13:F16 H13:H16 J13:J16 L13:L16" xr:uid="{44475DCD-E93B-4817-AA4F-5E6FBC088EBF}">
       <formula1>SIGN</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14" xr:uid="{AFB5BA6A-BBB2-47F1-A8F2-92AD1BD90543}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{AFB5BA6A-BBB2-47F1-A8F2-92AD1BD90543}">
       <formula1>CODE_ENEMIES</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14" xr:uid="{AD1B0E1A-9992-4005-A59C-05195FE02FED}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B21" xr:uid="{AD1B0E1A-9992-4005-A59C-05195FE02FED}">
       <formula1>CODE_TOWER</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K20" xr:uid="{D777C75E-5123-4061-A4DA-FA2F950126E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K24" xr:uid="{D777C75E-5123-4061-A4DA-FA2F950126E5}">
       <formula1>UPGRADE</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B16" xr:uid="{AFA068F4-8100-422E-BD4E-A9DCC0E9320D}">
+      <formula1>STAT_ENEMY</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M24" xr:uid="{789A86CC-4BA2-4933-86AC-0C82CE5980EA}">
+      <formula1>LEVEL_ENEMY</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2561,8 +2714,8 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="131" operator="containsText" id="{F23044F8-4BE4-4A8E-9020-DF254427AB24}">
-            <xm:f>NOT(ISERROR(SEARCH("+",E21)))</xm:f>
+          <x14:cfRule type="containsText" priority="141" operator="containsText" id="{F23044F8-4BE4-4A8E-9020-DF254427AB24}">
+            <xm:f>NOT(ISERROR(SEARCH("+",E25)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <fill>
@@ -2572,8 +2725,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="132" operator="containsText" id="{C77DA782-581F-4D17-A692-70945A61EC64}">
-            <xm:f>NOT(ISERROR(SEARCH("=",E21)))</xm:f>
+          <x14:cfRule type="containsText" priority="142" operator="containsText" id="{C77DA782-581F-4D17-A692-70945A61EC64}">
+            <xm:f>NOT(ISERROR(SEARCH("=",E25)))</xm:f>
             <xm:f>"="</xm:f>
             <x14:dxf>
               <fill>
@@ -2583,8 +2736,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="133" operator="containsText" id="{1CADE51D-9651-4C17-992F-2F2A987E0A4C}">
-            <xm:f>NOT(ISERROR(SEARCH("-",E21)))</xm:f>
+          <x14:cfRule type="containsText" priority="143" operator="containsText" id="{1CADE51D-9651-4C17-992F-2F2A987E0A4C}">
+            <xm:f>NOT(ISERROR(SEARCH("-",E25)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <fill>
@@ -2594,10 +2747,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E21</xm:sqref>
+          <xm:sqref>E25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{2F31918E-2561-4BE9-A502-75C4B5D293E9}">
+          <x14:cfRule type="containsText" priority="31" operator="containsText" id="{2F31918E-2561-4BE9-A502-75C4B5D293E9}">
             <xm:f>NOT(ISERROR(SEARCH("=",D2)))</xm:f>
             <xm:f>"="</xm:f>
             <x14:dxf>
@@ -2608,10 +2761,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F10 D10 H10 J10 L10 D2:D8 F2:F8 H2:H8 J2:J8 L2:L8</xm:sqref>
+          <xm:sqref>D2:D10 F2:F10 H2:H10 J2:J10 L2:L10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{241F7492-010D-41DA-8A00-0A007798E9B4}">
+          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{241F7492-010D-41DA-8A00-0A007798E9B4}">
             <xm:f>NOT(ISERROR(SEARCH("+",D2)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
@@ -2622,19 +2775,149 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F10 D10 H10 J10 L10 D2:D8 F2:F8 H2:H8 J2:J8 L2:L8</xm:sqref>
+          <xm:sqref>D2:D10 F2:F10 H2:H10 J2:J10 L2:L10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{8B3F1571-5951-4242-8292-20FE5C102F51}">
+            <xm:f>NOT(ISERROR(SEARCH("=",D13)))</xm:f>
+            <xm:f>"="</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D13:D16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{60A51342-9333-47F9-B7F1-DD2C10483EC5}">
+            <xm:f>NOT(ISERROR(SEARCH("+",D13)))</xm:f>
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D13:D16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{F111F232-37AE-4C0C-830B-35F78A30E14D}">
+            <xm:f>NOT(ISERROR(SEARCH("=",F13)))</xm:f>
+            <xm:f>"="</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F13:F16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{4C16C5E4-43A1-4B74-94C6-C11BD28CD051}">
+            <xm:f>NOT(ISERROR(SEARCH("+",F13)))</xm:f>
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F13:F16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{2E1252A3-C99D-4F36-A89C-EA432A1B8CF7}">
+            <xm:f>NOT(ISERROR(SEARCH("=",H13)))</xm:f>
+            <xm:f>"="</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H13:H16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{C7C9590E-F4D8-4937-8DAA-3FB0B201B8D4}">
+            <xm:f>NOT(ISERROR(SEARCH("+",H13)))</xm:f>
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H13:H16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{13FC0E2F-C188-4EF0-8386-643FBFEB5E92}">
+            <xm:f>NOT(ISERROR(SEARCH("=",J13)))</xm:f>
+            <xm:f>"="</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J13:J16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{BBC8C582-FBF7-4CB8-9A73-25811AD9D1E2}">
+            <xm:f>NOT(ISERROR(SEARCH("+",J13)))</xm:f>
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J13:J16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{A7445E3F-3833-4014-8466-71A05643C3CE}">
+            <xm:f>NOT(ISERROR(SEARCH("=",L13)))</xm:f>
+            <xm:f>"="</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L13:L16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{D4E82E64-C481-45B0-AA7D-688B765F3F1B}">
+            <xm:f>NOT(ISERROR(SEARCH("+",L13)))</xm:f>
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L13:L16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C42F9D08-6973-4F62-B950-07ECF8573995}">
-          <x14:formula1>
-            <xm:f>Tower!$A$3:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>B16</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
     </ext>
   </extLst>
 </worksheet>
@@ -2642,10 +2925,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435E0B1E-C30D-4807-9C0B-B17E796108D4}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2654,7 +2937,7 @@
     <col min="2" max="2" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="9">
         <v>1</v>
       </c>
@@ -2667,258 +2950,354 @@
       <c r="D1" s="9">
         <v>4</v>
       </c>
-      <c r="E1" s="29">
+      <c r="E1" s="9">
         <v>5</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="F1" s="9">
+        <v>6</v>
+      </c>
+      <c r="G1" s="9">
+        <v>7</v>
+      </c>
+      <c r="H1" s="9">
+        <v>8</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="12"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="str">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="11"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="str">
         <f>_xlfn.CONCAT(B3,"_",LEFT(C3,4),"_",LEFT(D3,4))</f>
         <v>1_Inse_Norm</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="67">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="30">
-        <v>5</v>
-      </c>
-      <c r="F3" s="33">
+      <c r="C3" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="77">
+        <v>8</v>
+      </c>
+      <c r="F3" s="77">
         <v>3</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="str">
+      <c r="G3" s="77">
+        <v>3</v>
+      </c>
+      <c r="H3" s="77">
+        <v>10</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="str">
         <f t="shared" ref="A4:A11" si="0">_xlfn.CONCAT(B4,"_",LEFT(C4,4),"_",LEFT(D4,4))</f>
         <v>2_Inse_Inta</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="67">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="25">
-        <v>4</v>
-      </c>
-      <c r="F4" s="34">
+      <c r="C4" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="77">
+        <v>7</v>
+      </c>
+      <c r="F4" s="77">
         <v>5</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="str">
+      <c r="G4" s="77">
+        <v>1</v>
+      </c>
+      <c r="H4" s="77">
+        <v>10</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="str">
         <f t="shared" si="0"/>
         <v>3_Inse_Sabo</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="67">
         <v>3</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="25">
+      <c r="C5" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="77">
         <v>10</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="77">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="str">
+      <c r="G5" s="77">
+        <v>5</v>
+      </c>
+      <c r="H5" s="77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="str">
         <f t="shared" si="0"/>
         <v>4_Ghos_Norm</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="67">
         <v>4</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="25">
-        <v>5</v>
-      </c>
-      <c r="F6" s="19">
+      <c r="C6" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="69">
+        <f>E3</f>
+        <v>8</v>
+      </c>
+      <c r="F6" s="69">
+        <f t="shared" ref="F6:H6" si="1">F3</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="str">
+      <c r="G6" s="69">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H6" s="69">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="str">
         <f t="shared" si="0"/>
         <v>5_Ghos_Inta</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="67">
         <v>5</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="25">
-        <v>4</v>
-      </c>
-      <c r="F7" s="19">
+      <c r="C7" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="68">
+        <f>E4</f>
+        <v>7</v>
+      </c>
+      <c r="F7" s="68">
+        <f t="shared" ref="F7:H7" si="2">F4</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="str">
+      <c r="G7" s="68">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="68">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="str">
         <f t="shared" si="0"/>
         <v>6_Ghos_Sabo</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="67">
         <v>6</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="25">
+      <c r="C8" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="69">
+        <f>E5</f>
         <v>10</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="69">
+        <f t="shared" ref="F8:H8" si="3">F5</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="str">
+      <c r="G8" s="69">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="H8" s="69">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="str">
         <f t="shared" si="0"/>
         <v>7_Vege_Norm</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="67">
         <v>7</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="25">
-        <v>5</v>
-      </c>
-      <c r="F9" s="19">
+      <c r="C9" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="68">
+        <f>E6</f>
+        <v>8</v>
+      </c>
+      <c r="F9" s="68">
+        <f t="shared" ref="F9:H9" si="4">F6</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="str">
+      <c r="G9" s="68">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H9" s="68">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="str">
         <f t="shared" si="0"/>
         <v>8_Vege_Inta</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="67">
         <v>8</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="25">
-        <v>4</v>
-      </c>
-      <c r="F10" s="19">
+      <c r="C10" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="69">
+        <f>E7</f>
+        <v>7</v>
+      </c>
+      <c r="F10" s="69">
+        <f t="shared" ref="F10:H10" si="5">F7</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="str">
+      <c r="G10" s="69">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="69">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="str">
         <f t="shared" si="0"/>
         <v>9_Vege_Sabo</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="67">
         <v>9</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="31">
+      <c r="E11" s="68">
+        <f>E8</f>
         <v>10</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="68">
+        <f t="shared" ref="F11:H11" si="6">F8</f>
         <v>2</v>
       </c>
+      <c r="G11" s="68">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="H11" s="68">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="71"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -2926,205 +3305,333 @@
       <formula1>CAT_ENEMIES</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D11" xr:uid="{425E8E53-AC8E-422D-AE8E-D604EB9F6490}">
-      <formula1>FUN_ENEMIES</formula1>
+      <formula1>TYP_ENEMIES</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9045D55D-CDD5-4A2E-B7B4-999FBD02BF13}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="A3:G5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="47">
         <v>1</v>
       </c>
-      <c r="B1" s="71">
+      <c r="B1" s="47">
         <v>2</v>
       </c>
-      <c r="C1" s="71">
+      <c r="C1" s="47">
         <v>3</v>
       </c>
-      <c r="D1" s="71">
+      <c r="D1" s="47">
         <v>4</v>
       </c>
-      <c r="E1" s="71">
+      <c r="E1" s="47">
         <v>5</v>
       </c>
-      <c r="F1" s="71">
+      <c r="F1" s="47">
         <v>6</v>
       </c>
-      <c r="G1" s="71">
+      <c r="G1" s="47">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="74" t="s">
+      <c r="H1" s="66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="str">
+        <f>_xlfn.CONCAT(B3,"_",LEFT(C3,4),"_",(LEFT(D3,4)))</f>
+        <v>1_Food_Snip</v>
+      </c>
+      <c r="B3" s="67">
+        <v>1</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="68">
+        <v>2</v>
+      </c>
+      <c r="F3" s="68">
+        <v>1</v>
+      </c>
+      <c r="G3" s="68">
+        <v>3</v>
+      </c>
+      <c r="H3" s="68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="str">
+        <f t="shared" ref="A4:A11" si="0">_xlfn.CONCAT(B4,"_",LEFT(C4,4),"_",(LEFT(D4,4)))</f>
+        <v>2_Food_Cano</v>
+      </c>
+      <c r="B4" s="67">
+        <v>2</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="69">
+        <v>1</v>
+      </c>
+      <c r="F4" s="69">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="69">
+        <v>3</v>
+      </c>
+      <c r="H4" s="69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>3_Food_Mort</v>
+      </c>
+      <c r="B5" s="67">
+        <v>3</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="68">
+        <v>1</v>
+      </c>
+      <c r="F5" s="68">
+        <v>1</v>
+      </c>
+      <c r="G5" s="68">
+        <v>5</v>
+      </c>
+      <c r="H5" s="68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>4_Trap_Snip</v>
+      </c>
+      <c r="B6" s="67">
+        <v>4</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="69">
+        <v>2</v>
+      </c>
+      <c r="F6" s="69">
+        <v>1</v>
+      </c>
+      <c r="G6" s="69">
+        <v>3</v>
+      </c>
+      <c r="H6" s="69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>5_Trap_Mort</v>
+      </c>
+      <c r="B7" s="67">
+        <v>5</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="68">
+        <v>1</v>
+      </c>
+      <c r="F7" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="68">
+        <v>3</v>
+      </c>
+      <c r="H7" s="68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>6_Trap_Cano</v>
+      </c>
+      <c r="B8" s="67">
         <v>6</v>
       </c>
-      <c r="E2" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="75" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="str">
-        <f>_xlfn.CONCAT(B3,"_",LEFT(C3,4),)</f>
-        <v>1_Food</v>
-      </c>
-      <c r="B3" s="77">
+      <c r="C8" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="69">
         <v>1</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="F8" s="69">
+        <v>1</v>
+      </c>
+      <c r="G8" s="69">
+        <v>5</v>
+      </c>
+      <c r="H8" s="69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>7_Ener_Snip</v>
+      </c>
+      <c r="B9" s="67">
+        <v>7</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D9" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="68">
         <v>2</v>
       </c>
-      <c r="E3" s="30">
+      <c r="F9" s="68">
         <v>1</v>
       </c>
-      <c r="F3" s="30">
+      <c r="G9" s="68">
         <v>3</v>
       </c>
-      <c r="G3" s="18">
+      <c r="H9" s="68">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="str">
-        <f>_xlfn.CONCAT(B4,"_",LEFT(C4,4),)</f>
-        <v>2_Trap</v>
-      </c>
-      <c r="B4" s="70">
-        <v>2</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>8_Ener_Mort</v>
+      </c>
+      <c r="B10" s="67">
+        <v>8</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="69">
         <v>1</v>
       </c>
-      <c r="E4" s="25">
+      <c r="F10" s="69">
         <v>0.5</v>
       </c>
-      <c r="F4" s="25">
+      <c r="G10" s="69">
         <v>3</v>
       </c>
-      <c r="G4" s="19">
+      <c r="H10" s="69">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="79" t="str">
-        <f>_xlfn.CONCAT(B5,"_",LEFT(C5,4),)</f>
-        <v>3_Ener</v>
-      </c>
-      <c r="B5" s="80">
-        <v>3</v>
-      </c>
-      <c r="C5" s="31" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>9_Ener_Cano</v>
+      </c>
+      <c r="B11" s="67">
         <v>9</v>
       </c>
-      <c r="D5" s="31">
+      <c r="C11" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="68">
         <v>1</v>
       </c>
-      <c r="E5" s="31">
+      <c r="F11" s="68">
         <v>1</v>
       </c>
-      <c r="F5" s="31">
+      <c r="G11" s="68">
         <v>5</v>
       </c>
-      <c r="G5" s="20">
+      <c r="H11" s="68">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-    </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C11" xr:uid="{A0725771-D6FB-4BCA-A3AB-AFBEDB867F7D}">
       <formula1>CAT_TOWER</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D11" xr:uid="{D4ACF00F-8B37-485F-B591-1B056AFC903B}">
+      <formula1>TYP_TOWER</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3133,10 +3640,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B37B0DA-040C-4E1A-930F-48D7F5CF8BC3}">
-  <dimension ref="B1:H14"/>
+  <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H2" sqref="H2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3153,30 +3660,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>34</v>
+      <c r="B1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="45" t="s">
-        <v>19</v>
+      <c r="D2" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>31</v>
@@ -3184,34 +3691,34 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="46" t="s">
-        <v>20</v>
+      <c r="D4" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3219,95 +3726,142 @@
       <c r="C5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="24"/>
+        <v>11</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="44" t="s">
-        <v>55</v>
+      <c r="B6" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="42"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="6"/>
       <c r="F6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="43"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="6"/>
       <c r="F7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>41</v>
+        <v>13</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="3" t="s">
+      <c r="B14" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>84</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="75" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3322,162 +3876,162 @@
   <dimension ref="B2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="16"/>
-      <c r="C2" s="47" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>45</v>
+      <c r="E2" s="26" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="36" t="s">
+      <c r="B3" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>17</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>33</v>
+      <c r="G3" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>20</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" s="96" t="str">
+      <c r="G4" s="65" t="str">
         <f>HLOOKUP(G3,C2:E5,VLOOKUP(H3,B3:F5,5,FALSE)+1,FALSE)</f>
         <v>+</v>
       </c>
-      <c r="H4" s="96"/>
+      <c r="H4" s="65"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="36" t="s">
+      <c r="B5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="32" t="s">
-        <v>19</v>
+      <c r="D5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="47" t="s">
-        <v>32</v>
+      <c r="B7" s="12"/>
+      <c r="C7" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>19</v>
+      <c r="E8" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="52" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="37" t="s">
+      <c r="C9" s="15" t="s">
         <v>17</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" s="96" t="str">
+      <c r="G9" s="65" t="str">
         <f>HLOOKUP(G8,C7:E10,VLOOKUP(H8,B8:F10,5,FALSE)+1,FALSE)</f>
         <v>=</v>
       </c>
-      <c r="H9" s="96"/>
+      <c r="H9" s="65"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="36" t="s">
+      <c r="B10" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>20</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3663,6 +4217,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100841444F490B10C45A279B0383115D26D" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="91c543cf6706f2108a45fe2b21185738">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c3a97ae1-1078-4f52-97c7-e1e75f184270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6cf98f67490a83722a01f9dfd5fe46d6" ns3:_="">
     <xsd:import namespace="c3a97ae1-1078-4f52-97c7-e1e75f184270"/>
@@ -3794,12 +4354,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{382CAFBC-27A9-4D0E-A532-4CEEC1A7F497}">
   <ds:schemaRefs>
@@ -3809,6 +4363,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6866972C-7532-44BD-9DE5-958311035541}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c3a97ae1-1078-4f52-97c7-e1e75f184270"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02023A10-1816-44FB-8F7C-8B09E93BD20F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3824,20 +4394,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6866972C-7532-44BD-9DE5-958311035541}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c3a97ae1-1078-4f52-97c7-e1e75f184270"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documents/GameDesign/System_Design.xlsx
+++ b/Documents/GameDesign/System_Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin DIJOUX\Documents\Unity\Workshop_TowerDefense\STD_Workshop\Documents\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D1DF65-EA9C-4CAD-B974-936C00C58F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEEE1037-43C5-466D-8A41-5B02F66FE5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EE4EEEAB-A39E-4793-9971-E358DB8AAF6E}"/>
   </bookViews>
@@ -16,23 +16,24 @@
     <sheet name="Feuil1" sheetId="6" r:id="rId1"/>
     <sheet name="TowerStatsCalc" sheetId="1" r:id="rId2"/>
     <sheet name="Enemies" sheetId="3" r:id="rId3"/>
-    <sheet name="Tower" sheetId="4" r:id="rId4"/>
-    <sheet name="Data" sheetId="2" r:id="rId5"/>
+    <sheet name="Train" sheetId="7" r:id="rId4"/>
+    <sheet name="Tower" sheetId="4" r:id="rId5"/>
     <sheet name="Weak" sheetId="5" r:id="rId6"/>
+    <sheet name="Data" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="CAT_ENEMIES">Data!$H$8:$H$10</definedName>
-    <definedName name="CAT_TOWER">Data!$F$10:$F$12</definedName>
+    <definedName name="CAT_TOWER">Data!$F$11:$F$13</definedName>
     <definedName name="CODE_ENEMIES">Enemies!$A$3:$A$11</definedName>
-    <definedName name="CODE_TOWER">Tower!$A$3:$A$11</definedName>
+    <definedName name="CODE_TOWER">Tower!$A$4:$A$12</definedName>
     <definedName name="ENEMY">Enemies!$A$3:$H$11</definedName>
     <definedName name="LEVEL_ENEMY">Data!$B$15:$B$20</definedName>
     <definedName name="SIGN">Data!$D$2:$D$4</definedName>
     <definedName name="STAT_ENEMY">Data!$H$2:$H$5</definedName>
-    <definedName name="STAT_TOWER">Data!$F$2:$F$7</definedName>
-    <definedName name="TOWER">Tower!$A$3:$H$11</definedName>
+    <definedName name="STAT_TOWER">Data!$F$2:$F$8</definedName>
+    <definedName name="TOWER">Tower!$A$4:$H$12</definedName>
     <definedName name="TYP_ENEMIES">Data!$H$13:$H$15</definedName>
-    <definedName name="TYP_TOWER">Data!$F$15:$F$17</definedName>
+    <definedName name="TYP_TOWER">Data!$F$16:$F$18</definedName>
     <definedName name="UPGRADE">Data!$B$7:$B$12</definedName>
     <definedName name="WEAK_ENEMY">Weak!$B$3:$F$5</definedName>
     <definedName name="WEAK_TOWER">Weak!$C$2:$E$5</definedName>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="118">
   <si>
     <t>Upgrade 1</t>
   </si>
@@ -340,12 +341,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>2_Food_Cano</t>
-  </si>
-  <si>
-    <t>7_Vege_Norm</t>
-  </si>
-  <si>
     <t>Stats</t>
   </si>
   <si>
@@ -416,6 +411,30 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>4_Trap_Snip</t>
+  </si>
+  <si>
+    <t>UpgradeCost</t>
+  </si>
+  <si>
+    <t>Full to Empty</t>
+  </si>
+  <si>
+    <t>Upgarde Cost</t>
+  </si>
+  <si>
+    <t>$ Drop</t>
+  </si>
+  <si>
+    <t>Up cost</t>
+  </si>
+  <si>
+    <t>Nb mob to up</t>
+  </si>
+  <si>
+    <t>9_Vege_Sabo</t>
   </si>
 </sst>
 </file>
@@ -687,7 +706,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -835,33 +854,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -872,28 +864,76 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -902,7 +942,7 @@
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
     <cellStyle name="Titre 3" xfId="2" builtinId="18"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="27">
     <dxf>
       <fill>
         <patternFill>
@@ -1054,27 +1094,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1668,10 +1687,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDA4FAA-0409-4E65-B5DA-46DD5A6F91E2}">
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4:Q16"/>
+      <selection activeCell="M26" sqref="M26:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,16 +1712,16 @@
     <col min="15" max="15" width="13.5703125" style="40" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.7109375" style="40" customWidth="1"/>
     <col min="17" max="17" width="14.28515625" style="44" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="40" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" style="40" customWidth="1"/>
     <col min="19" max="19" width="11.42578125" style="44" customWidth="1"/>
     <col min="20" max="16384" width="11.42578125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="70"/>
+    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="75"/>
       <c r="C1" s="35" t="s">
         <v>14</v>
       </c>
@@ -1727,889 +1746,1034 @@
         <v>4</v>
       </c>
       <c r="N1" s="43"/>
-      <c r="O1" s="72" t="s">
-        <v>98</v>
+      <c r="O1" s="62" t="s">
+        <v>96</v>
       </c>
       <c r="Q1" s="50" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="79" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="33">
-        <f>$G$21</f>
-        <v>1</v>
+        <f>$G$22</f>
+        <v>6</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="33" cm="1">
         <f t="array" ref="E2">_xlfn.IFS(D2="+",ROUNDDOWN(C2*(1+$O$2),2),D2="=",C2)</f>
-        <v>1.3</v>
-      </c>
-      <c r="F2" s="33" t="s">
+        <v>7.8</v>
+      </c>
+      <c r="F2" s="69" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="54" cm="1">
         <f t="array" ref="G2">_xlfn.IFS(F2="+",ROUNDDOWN(E2*(1+$O$2),2),F2="=",E2)</f>
-        <v>1.69</v>
-      </c>
-      <c r="H2" s="33" t="s">
+        <v>10.14</v>
+      </c>
+      <c r="H2" s="69" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="54" cm="1">
         <f t="array" ref="I2">_xlfn.IFS(H2="+",ROUNDDOWN(G2*(1+$O$2),2),H2="=",G2)</f>
-        <v>2.19</v>
-      </c>
-      <c r="J2" s="33" t="s">
+        <v>13.18</v>
+      </c>
+      <c r="J2" s="69" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="54" cm="1">
         <f t="array" ref="K2">_xlfn.IFS(J2="+",ROUNDDOWN(I2*(1+$O$2),2),J2="=",I2)</f>
-        <v>2.84</v>
-      </c>
-      <c r="L2" s="33" t="s">
+        <v>17.13</v>
+      </c>
+      <c r="L2" s="69" t="s">
         <v>16</v>
       </c>
       <c r="M2" s="54" cm="1">
         <f t="array" ref="M2">_xlfn.IFS(L2="+",ROUNDDOWN(K2*(1+$O$2),2),L2="=",K2)</f>
-        <v>3.69</v>
+        <v>22.26</v>
       </c>
       <c r="O2" s="38">
         <v>0.3</v>
       </c>
-      <c r="Q2" s="60" t="s">
+      <c r="Q2" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="S2" s="40"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="79"/>
       <c r="B3" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="34">
-        <f>$I$21</f>
-        <v>0.5</v>
+        <f>$I$22</f>
+        <v>1.5</v>
       </c>
       <c r="D3" s="34" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="55" cm="1">
         <f t="array" ref="E3">_xlfn.IFS(D3="+",ROUNDDOWN(C3*(1-$O$3),2),D3="=",C3)</f>
-        <v>0.45</v>
-      </c>
-      <c r="F3" s="34" t="s">
+        <v>1.35</v>
+      </c>
+      <c r="F3" s="72" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="55" cm="1">
         <f t="array" ref="G3">_xlfn.IFS(F3="+",ROUNDDOWN(E3*(1-$O$3),2),F3="=",E3)</f>
-        <v>0.4</v>
-      </c>
-      <c r="H3" s="34" t="s">
+        <v>1.21</v>
+      </c>
+      <c r="H3" s="72" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="55" cm="1">
         <f t="array" ref="I3">_xlfn.IFS(H3="+",ROUNDDOWN(G3*(1-$O$3),2),H3="=",G3)</f>
-        <v>0.36</v>
-      </c>
-      <c r="J3" s="34" t="s">
+        <v>1.08</v>
+      </c>
+      <c r="J3" s="72" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="55" cm="1">
         <f t="array" ref="K3">_xlfn.IFS(J3="+",ROUNDDOWN(I3*(1-$O$3),2),J3="=",I3)</f>
-        <v>0.32</v>
-      </c>
-      <c r="L3" s="34" t="s">
+        <v>0.97</v>
+      </c>
+      <c r="L3" s="72" t="s">
         <v>16</v>
       </c>
       <c r="M3" s="55" cm="1">
         <f t="array" ref="M3">_xlfn.IFS(L3="+",ROUNDDOWN(K3*(1-$O$3),2),L3="=",K3)</f>
-        <v>0.28000000000000003</v>
+        <v>0.87</v>
       </c>
       <c r="O3" s="37">
         <v>0.1</v>
       </c>
-      <c r="Q3" s="60"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
+      <c r="Q3" s="80"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="79"/>
       <c r="B4" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="33">
-        <f>$K$21</f>
-        <v>3</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="54" cm="1">
+      <c r="C4" s="69">
+        <f>$K$22</f>
+        <v>5</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="69" cm="1">
         <f t="array" ref="E4">_xlfn.IFS(D4="+",ROUNDDOWN(C4*(1+$O$4),2),D4="=",C4)</f>
-        <v>3.3</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="54" cm="1">
+        <v>5.5</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="69" cm="1">
         <f t="array" ref="G4">_xlfn.IFS(F4="+",ROUNDDOWN(E4*(1+$O$4),2),F4="=",E4)</f>
-        <v>3.63</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="54" cm="1">
+        <v>6.05</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="69" cm="1">
         <f t="array" ref="I4">_xlfn.IFS(H4="+",ROUNDDOWN(G4*(1+$O$4),2),H4="=",G4)</f>
-        <v>3.99</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="54" cm="1">
+        <v>6.65</v>
+      </c>
+      <c r="J4" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="69" cm="1">
         <f t="array" ref="K4">_xlfn.IFS(J4="+",ROUNDDOWN(I4*(1+$O$4),2),J4="=",I4)</f>
-        <v>4.38</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="54" cm="1">
+        <v>7.31</v>
+      </c>
+      <c r="L4" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="69" cm="1">
         <f t="array" ref="M4">_xlfn.IFS(L4="+",ROUNDDOWN(K4*(1+$O$4),2),L4="=",K4)</f>
-        <v>4.8099999999999996</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="O4" s="38">
         <v>0.1</v>
       </c>
-      <c r="S4" s="40"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="20" t="s">
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="79"/>
+      <c r="B5" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="55">
-        <f>$M$21</f>
+      <c r="C5" s="72">
+        <f>$M$22</f>
+        <v>10</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="72" cm="1">
+        <f t="array" ref="E5">_xlfn.IFS(D5="+",ROUNDDOWN(C5*(1+$O$5),2),D5="=",C5)</f>
+        <v>12</v>
+      </c>
+      <c r="F5" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="55" cm="1">
-        <f t="array" ref="E5">_xlfn.IFS(D5="+",ROUNDDOWN(C5*(1+$O$5),2),D5="=",C5)</f>
-        <v>15</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="55" cm="1">
+      <c r="G5" s="72" cm="1">
         <f t="array" ref="G5">_xlfn.IFS(F5="+",ROUNDDOWN(E5*(1+$O$5),2),F5="=",E5)</f>
-        <v>18</v>
-      </c>
-      <c r="H5" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="55" cm="1">
+        <v>12</v>
+      </c>
+      <c r="H5" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="72" cm="1">
         <f t="array" ref="I5">_xlfn.IFS(H5="+",ROUNDDOWN(G5*(1+$O$5),2),H5="=",G5)</f>
-        <v>18</v>
-      </c>
-      <c r="J5" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="55" cm="1">
+        <v>14.4</v>
+      </c>
+      <c r="J5" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="72" cm="1">
         <f t="array" ref="K5">_xlfn.IFS(J5="+",ROUNDDOWN(I5*(1+$O$5),0),J5="=",I5)</f>
-        <v>21</v>
-      </c>
-      <c r="L5" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="55" cm="1">
+        <v>17</v>
+      </c>
+      <c r="L5" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="72" cm="1">
         <f t="array" ref="M5">_xlfn.IFS(L5="+",ROUNDDOWN(K5*(1+$O$5),0),L5="=",K5)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O5" s="37">
         <v>0.2</v>
       </c>
-      <c r="S5" s="40"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="79"/>
       <c r="B6" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="69">
+        <v>10</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="69" cm="1">
+        <f t="array" ref="E6">_xlfn.IFS(D6="+",ROUNDUP(C6*(1+$O$6),0),D6="=",C6)</f>
+        <v>30</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="69" cm="1">
+        <f t="array" ref="G6">_xlfn.IFS(F6="+",ROUNDUP(E6*(1+$O$6),0),F6="=",E6)</f>
+        <v>90</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="69" cm="1">
+        <f t="array" ref="I6">_xlfn.IFS(H6="+",ROUNDUP(G6*(1+$O$6),0),H6="=",G6)</f>
+        <v>270</v>
+      </c>
+      <c r="J6" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="69" cm="1">
+        <f t="array" ref="K6">_xlfn.IFS(J6="+",ROUNDUP(I6*(1+$O$6),0),J6="=",I6)</f>
+        <v>810</v>
+      </c>
+      <c r="L6" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="69" cm="1">
+        <f t="array" ref="M6">_xlfn.IFS(L6="+",ROUNDUP(K6*(1+$O$6),0),L6="=",K6)</f>
+        <v>2430</v>
+      </c>
+      <c r="O6" s="38">
+        <v>2</v>
+      </c>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="79"/>
+      <c r="B7" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38">
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="37">
         <f>ROUNDDOWN((E2-C2)/C2,2)</f>
         <v>0.3</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38">
+      <c r="F7" s="37"/>
+      <c r="G7" s="37">
         <f>ROUNDDOWN((G2-E2)/E2,2)</f>
         <v>0.3</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38">
+      <c r="H7" s="37"/>
+      <c r="I7" s="37">
         <f>ROUNDDOWN((I2-G2)/G2,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38">
+      <c r="J7" s="37"/>
+      <c r="K7" s="37">
         <f>ROUNDDOWN((K2-I2)/I2,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38">
+      <c r="L7" s="37"/>
+      <c r="M7" s="37">
         <f>ROUNDDOWN((M2-K2)/K2,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="N6" s="41"/>
-      <c r="O6" s="49" t="s">
+      <c r="N7" s="41"/>
+      <c r="O7" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="Q6" s="41"/>
-      <c r="S6" s="40"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="20" t="s">
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="79"/>
+      <c r="B8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37">
-        <f t="shared" ref="E7:E8" si="0">ROUNDDOWN((E3-C3)/C3,2)</f>
-        <v>-0.1</v>
-      </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37">
-        <f t="shared" ref="G7:G8" si="1">ROUNDDOWN((G3-E3)/E3,2)</f>
-        <v>-0.11</v>
-      </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37">
-        <f t="shared" ref="I7:I8" si="2">ROUNDDOWN((I3-G3)/G3,2)</f>
-        <v>-0.1</v>
-      </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37">
-        <f>ROUNDDOWN((K3-I3)/I3,2)</f>
-        <v>-0.11</v>
-      </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37">
-        <f>ROUNDDOWN((M3-K3)/K3,2)</f>
-        <v>-0.12</v>
-      </c>
-      <c r="N7" s="41"/>
-      <c r="O7" s="38">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
       <c r="E8" s="38">
-        <f t="shared" si="0"/>
-        <v>0.09</v>
+        <f t="shared" ref="E8:E9" si="0">ROUNDDOWN((E3-C3)/C3,2)</f>
+        <v>-0.09</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38">
+        <f t="shared" ref="G8:G9" si="1">ROUNDDOWN((G3-E3)/E3,2)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38">
+        <f t="shared" ref="I8:I9" si="2">ROUNDDOWN((I3-G3)/G3,2)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38">
+        <f>ROUNDDOWN((K3-I3)/I3,2)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38">
+        <f>ROUNDDOWN((M3-K3)/K3,2)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="N8" s="41"/>
+      <c r="O8" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="79"/>
+      <c r="B9" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="37">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38">
+      <c r="H9" s="37"/>
+      <c r="I9" s="37">
         <f t="shared" si="2"/>
         <v>0.09</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38">
+      <c r="J9" s="37"/>
+      <c r="K9" s="37">
         <f>ROUNDDOWN((K4-I4)/I4,2)</f>
         <v>0.09</v>
       </c>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38">
+      <c r="L9" s="37"/>
+      <c r="M9" s="37">
         <f>ROUNDDOWN((M4-K4)/K4,2)</f>
         <v>0.09</v>
       </c>
-      <c r="O8" s="49" t="s">
+      <c r="O9" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+    </row>
+    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
+      <c r="B10" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="69">
+        <f>ROUNDDOWN(C2*C11,2)</f>
+        <v>4</v>
+      </c>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69">
+        <f>ROUNDDOWN(E2*E11,2)</f>
+        <v>5.77</v>
+      </c>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69">
+        <f>ROUNDDOWN(G2*G11,2)</f>
+        <v>8.41</v>
+      </c>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69">
+        <f>ROUNDDOWN(I2*I11,2)</f>
+        <v>12.25</v>
+      </c>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69">
+        <f>ROUNDDOWN(K2*K11,2)</f>
+        <v>17.64</v>
+      </c>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69">
+        <f>ROUNDDOWN(M2*M11,2)</f>
+        <v>25.59</v>
+      </c>
+      <c r="O10" s="33">
+        <v>2</v>
+      </c>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+    </row>
+    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="46"/>
+      <c r="B11" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="72">
+        <f>1/C3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72">
+        <f>ROUND(1/E3,2)</f>
+        <v>0.74</v>
+      </c>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72">
+        <f>ROUND(1/G3,2)</f>
+        <v>0.83</v>
+      </c>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72">
+        <f>ROUND(1/I3,2)</f>
+        <v>0.93</v>
+      </c>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72">
+        <f>ROUND(1/K3,2)</f>
+        <v>1.03</v>
+      </c>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72">
+        <f>ROUND(1/M3,2)</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+    </row>
+    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="52"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+    </row>
+    <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40"/>
+      <c r="C13" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="36"/>
+      <c r="G13" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="36"/>
+      <c r="I13" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="36"/>
+      <c r="K13" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" s="36"/>
+      <c r="M13" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="O13" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="59">
+        <f>G20</f>
+        <v>15</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="59" cm="1">
+        <f t="array" ref="E14">_xlfn.IFS(D14="+",ROUNDDOWN(C14*(1+$O$14),2),D14="=",C14)</f>
+        <v>22.5</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="59" cm="1">
+        <f t="array" ref="G14">_xlfn.IFS(F14="+",ROUNDDOWN(E14*(1+$O$14),2),F14="=",E14)</f>
+        <v>33.75</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="59" cm="1">
+        <f t="array" ref="I14">_xlfn.IFS(H14="+",ROUNDDOWN(G14*(1+$O$14),2),H14="=",G14)</f>
+        <v>50.62</v>
+      </c>
+      <c r="J14" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="59" cm="1">
+        <f t="array" ref="K14">_xlfn.IFS(J14="+",ROUNDDOWN(I14*(1+$O$14),2),J14="=",I14)</f>
+        <v>75.930000000000007</v>
+      </c>
+      <c r="L14" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="59" cm="1">
+        <f t="array" ref="M14">_xlfn.IFS(L14="+",ROUNDDOWN(K14*(1+$O$14),2),L14="=",K14)</f>
+        <v>113.89</v>
+      </c>
+      <c r="O14" s="38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="60">
+        <f>I20</f>
+        <v>2</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="60" cm="1">
+        <f t="array" ref="E15">_xlfn.IFS(D15="+",ROUNDDOWN(C15*(1+$O$15),2),D15="=",C15)</f>
+        <v>2.6</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="60" cm="1">
+        <f t="array" ref="G15">_xlfn.IFS(F15="+",ROUNDDOWN(E15*(1+$O$15),2),F15="=",E15)</f>
+        <v>3.38</v>
+      </c>
+      <c r="H15" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="60" cm="1">
+        <f t="array" ref="I15">_xlfn.IFS(H15="+",ROUNDDOWN(G15*(1+$O$15),2),H15="=",G15)</f>
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="J15" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="60" cm="1">
+        <f t="array" ref="K15">_xlfn.IFS(J15="+",ROUNDDOWN(I15*(1+$O$15),2),J15="=",I15)</f>
+        <v>5.7</v>
+      </c>
+      <c r="L15" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="60" cm="1">
+        <f t="array" ref="M15">_xlfn.IFS(L15="+",ROUNDDOWN(K15*(1+$O$15),2),L15="=",K15)</f>
+        <v>7.41</v>
+      </c>
+      <c r="O15" s="37">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="59">
+        <f>K20</f>
+        <v>7.5</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="59" cm="1">
+        <f t="array" ref="E16">_xlfn.IFS(D16="+",ROUNDUP(C16*(1+$O$16),0),D16="=",C16)</f>
+        <v>9</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="59" cm="1">
+        <f t="array" ref="G16">_xlfn.IFS(F16="+",ROUNDUP(E16*(1+$O$16),0),F16="=",E16)</f>
+        <v>11</v>
+      </c>
+      <c r="H16" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="59" cm="1">
+        <f t="array" ref="I16">_xlfn.IFS(H16="+",ROUNDUP(G16*(1+$O$16),0),H16="=",G16)</f>
+        <v>14</v>
+      </c>
+      <c r="J16" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="59" cm="1">
+        <f t="array" ref="K16">_xlfn.IFS(J16="+",ROUNDUP(I16*(1+$O$16),0),J16="=",I16)</f>
+        <v>17</v>
+      </c>
+      <c r="L16" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="59" cm="1">
+        <f t="array" ref="M16">_xlfn.IFS(L16="+",ROUNDUP(K16*(1+$O$16),0),L16="=",K16)</f>
+        <v>21</v>
+      </c>
+      <c r="O16" s="38">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="60">
+        <f>M20</f>
+        <v>10</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="60" cm="1">
+        <f t="array" ref="E17">_xlfn.IFS(D17="+",ROUNDUP(C17*(1+$O$17),0),D17="=",C17)</f>
+        <v>15</v>
+      </c>
+      <c r="F17" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="60" cm="1">
+        <f t="array" ref="G17">_xlfn.IFS(F17="+",ROUNDUP(E17*(1+$O$17),0),F17="=",E17)</f>
+        <v>23</v>
+      </c>
+      <c r="H17" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="60" cm="1">
+        <f t="array" ref="I17">_xlfn.IFS(H17="+",ROUNDUP(G17*(1+$O$17),0),H17="=",G17)</f>
+        <v>35</v>
+      </c>
+      <c r="J17" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="60" cm="1">
+        <f t="array" ref="K17">_xlfn.IFS(J17="+",ROUNDUP(I17*(1+$O$17),0),J17="=",I17)</f>
+        <v>53</v>
+      </c>
+      <c r="L17" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="60" cm="1">
+        <f t="array" ref="M17">_xlfn.IFS(L17="+",ROUNDUP(K17*(1+$O$17),0),L17="=",K17)</f>
+        <v>80</v>
+      </c>
+      <c r="O17" s="37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
+      <c r="B19" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="54" t="str">
+        <f>VLOOKUP($B$20,ENEMY,3)</f>
+        <v>Vegetable</v>
+      </c>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54" t="str">
+        <f>VLOOKUP($B$20,ENEMY,4)</f>
+        <v>Saboteur</v>
+      </c>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54">
+        <f>VLOOKUP($B$20,ENEMY,5)</f>
+        <v>15</v>
+      </c>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54">
+        <f>VLOOKUP($B$20,ENEMY,6)</f>
+        <v>2</v>
+      </c>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54">
+        <f>VLOOKUP($B$20,ENEMY,7)</f>
+        <v>7.5</v>
+      </c>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54">
+        <f>VLOOKUP($B$20,ENEMY,8)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="54" t="str">
+        <f>VLOOKUP($B$22,TOWER,3)</f>
+        <v>Traps</v>
+      </c>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54" t="str">
+        <f>VLOOKUP($B$22,TOWER,4)</f>
+        <v>Snipe</v>
+      </c>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54">
+        <f>VLOOKUP($B$22,TOWER,5)</f>
+        <v>6</v>
+      </c>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54">
+        <f>VLOOKUP($B$22,TOWER,6)</f>
+        <v>1.5</v>
+      </c>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54">
+        <f>VLOOKUP($B$22,TOWER,7)</f>
+        <v>5</v>
+      </c>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54">
+        <f>VLOOKUP($B$22,TOWER,8)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N23" s="41"/>
+      <c r="T23" s="68"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="53" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="55">
-        <f>ROUNDDOWN(C2*C10,2)</f>
-        <v>2</v>
-      </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55">
-        <f>ROUNDDOWN(E2*E10,2)</f>
-        <v>2.88</v>
-      </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55">
-        <f>ROUNDDOWN(G2*G10,2)</f>
-        <v>4.22</v>
-      </c>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55">
-        <f>ROUNDDOWN(I2*I10,2)</f>
-        <v>6.08</v>
-      </c>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55">
-        <f>ROUNDDOWN(K2*K10,2)</f>
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55">
-        <f>ROUNDDOWN(M2*M10,2)</f>
-        <v>13.17</v>
-      </c>
-      <c r="O9" s="33">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="40"/>
-      <c r="S9" s="40"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="54">
-        <f>1/C3</f>
-        <v>2</v>
-      </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54">
-        <f>ROUND(1/E3,2)</f>
+      <c r="C24" s="53"/>
+      <c r="E24" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="K24" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="M24" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="N24" s="41"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="44"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="81">
+        <f>ROUND(O10*K26*I26,2)</f>
+        <v>51.18</v>
+      </c>
+      <c r="C25" s="81"/>
+      <c r="E25" s="76" t="str">
+        <f>C22</f>
+        <v>Traps</v>
+      </c>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76" t="str">
+        <f>C20</f>
+        <v>Vegetable</v>
+      </c>
+      <c r="H25" s="76"/>
+      <c r="I25" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="44"/>
+      <c r="M25" s="51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E26" s="77" t="str">
+        <f>HLOOKUP(C22,WEAK_TOWER,VLOOKUP(C20,WEAK_ENEMY,5,FALSE)+1,FALSE)</f>
+        <v>=</v>
+      </c>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="73" cm="1">
+        <f t="array" ref="I26">_xlfn.IFS(E26="-", 1-O8, E26="=",1,E26="+",1+O8)</f>
+        <v>1</v>
+      </c>
+      <c r="K26" s="73" cm="1">
+        <f t="array" ref="K26">_xlfn.IFS(K25="Upgrade 0",C10,K25="Upgrade 1",E10,K25="Upgrade 2",G10,K25="Upgrade 3",I10,K25="Upgrade 4",K10,K25="Upgrade 5",M10)</f>
+        <v>25.59</v>
+      </c>
+      <c r="M26" s="73" cm="1">
+        <f t="array" ref="M26">_xlfn.IFS(M25="LVL 0",C14,M25="LVL 1",E14,M25="LVL 2",G14,M25="LVL 3",I14,M25="LVL 4",K14,M25="LVL 5",M14)</f>
+        <v>113.89</v>
+      </c>
+      <c r="N26" s="45"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="M27" s="73"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K28" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="M28" s="71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C29" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="H29" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" s="74"/>
+      <c r="K29" s="72" cm="1">
+        <f t="array" ref="K29">_xlfn.IFS(K25="Upgrade 0",C5,K25="Upgrade 1",E5,K25="Upgrade 2",G5,K25="Upgrade 3",I5,K25="Upgrade 4",K5,K25="Upgrade 5",M5)</f>
+        <v>20</v>
+      </c>
+      <c r="M29" s="72" cm="1">
+        <f t="array" ref="M29">_xlfn.IFS(M25="LVL 0",C17,M25="LVL 1",E17,M25="LVL 2",G17,M25="LVL 3",I17,M25="LVL 4",K17,M25="LVL 5",M17)</f>
+        <v>80</v>
+      </c>
+      <c r="N29" s="41"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C30" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="74"/>
+      <c r="H30" s="73" t="str">
+        <f>_xlfn.CONCAT(K29*K31," s")</f>
+        <v>17,4 s</v>
+      </c>
+      <c r="I30" s="73"/>
+      <c r="K30" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="N30" s="41"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="53" t="str">
+        <f>_xlfn.CONCAT(K25," ",K24)</f>
+        <v>Upgrade 5 DPS</v>
+      </c>
+      <c r="C31" s="82">
+        <f>ROUNDDOWN($M$26/B25,2)</f>
         <v>2.2200000000000002</v>
       </c>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54">
-        <f>ROUND(1/G3,2)</f>
-        <v>2.5</v>
-      </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54">
-        <f>ROUND(1/I3,2)</f>
-        <v>2.78</v>
-      </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54">
-        <f>ROUND(1/K3,2)</f>
-        <v>3.13</v>
-      </c>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54">
-        <f>ROUND(1/M3,2)</f>
-        <v>3.57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="52"/>
-    </row>
-    <row r="12" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="C12" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="L12" s="36"/>
-      <c r="M12" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="O12" s="72" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="48" t="s">
+      <c r="D31" s="82"/>
+      <c r="E31" s="83">
+        <f>ROUNDUP($M$26/B25,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F31" s="83"/>
+      <c r="H31" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="I31" s="74"/>
+      <c r="K31" s="72" cm="1">
+        <f t="array" ref="K31">_xlfn.IFS(K25="Upgrade 0",C3,K25="Upgrade 1",E3,K25="Upgrade 2",G3,K25="Upgrade 3",I3,K25="Upgrade 4",K3,K25="Upgrade 5",M3)</f>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C32" s="73" t="str">
+        <f>_xlfn.CONCAT(E31*K31," s")</f>
+        <v>2,61 s</v>
+      </c>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="H32" s="73">
+        <f>ROUNDUP(K33/M29,0)</f>
         <v>31</v>
       </c>
-      <c r="C13" s="68">
-        <f>G19</f>
-        <v>8</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="68" cm="1">
-        <f t="array" ref="E13">_xlfn.IFS(D13="+",ROUNDDOWN(C13*(1+$O$13),2),D13="=",C13)</f>
-        <v>8</v>
-      </c>
-      <c r="F13" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="68" cm="1">
-        <f t="array" ref="G13">_xlfn.IFS(F13="+",ROUNDDOWN(E13*(1+$O$13),2),F13="=",E13)</f>
-        <v>12</v>
-      </c>
-      <c r="H13" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="68" cm="1">
-        <f t="array" ref="I13">_xlfn.IFS(H13="+",ROUNDDOWN(G13*(1+$O$13),2),H13="=",G13)</f>
-        <v>12</v>
-      </c>
-      <c r="J13" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="68" cm="1">
-        <f t="array" ref="K13">_xlfn.IFS(J13="+",ROUNDDOWN(I13*(1+$O$13),2),J13="=",I13)</f>
-        <v>18</v>
-      </c>
-      <c r="L13" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" s="68" cm="1">
-        <f t="array" ref="M13">_xlfn.IFS(L13="+",ROUNDDOWN(K13*(1+$O$13),2),L13="=",K13)</f>
-        <v>27</v>
-      </c>
-      <c r="O13" s="38">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="69">
-        <f>I19</f>
-        <v>3</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="69" cm="1">
-        <f t="array" ref="E14">_xlfn.IFS(D14="+",ROUNDDOWN(C14*(1+$O$14),2),D14="=",C14)</f>
-        <v>3.9</v>
-      </c>
-      <c r="F14" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="69" cm="1">
-        <f t="array" ref="G14">_xlfn.IFS(F14="+",ROUNDDOWN(E14*(1+$O$14),2),F14="=",E14)</f>
-        <v>3.9</v>
-      </c>
-      <c r="H14" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="69" cm="1">
-        <f t="array" ref="I14">_xlfn.IFS(H14="+",ROUNDDOWN(G14*(1+$O$14),2),H14="=",G14)</f>
-        <v>3.9</v>
-      </c>
-      <c r="J14" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="69" cm="1">
-        <f t="array" ref="K14">_xlfn.IFS(J14="+",ROUNDDOWN(I14*(1+$O$14),2),J14="=",I14)</f>
-        <v>5.07</v>
-      </c>
-      <c r="L14" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="69" cm="1">
-        <f t="array" ref="M14">_xlfn.IFS(L14="+",ROUNDDOWN(K14*(1+$O$14),2),L14="=",K14)</f>
-        <v>6.59</v>
-      </c>
-      <c r="O14" s="37">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="68">
-        <f>K19</f>
-        <v>3</v>
-      </c>
-      <c r="D15" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="68" cm="1">
-        <f t="array" ref="E15">_xlfn.IFS(D15="+",ROUNDUP(C15*(1+$O$15),0),D15="=",C15)</f>
-        <v>4</v>
-      </c>
-      <c r="F15" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="68" cm="1">
-        <f t="array" ref="G15">_xlfn.IFS(F15="+",ROUNDUP(E15*(1+$O$15),0),F15="=",E15)</f>
-        <v>5</v>
-      </c>
-      <c r="H15" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="68" cm="1">
-        <f t="array" ref="I15">_xlfn.IFS(H15="+",ROUNDUP(G15*(1+$O$15),0),H15="=",G15)</f>
-        <v>6</v>
-      </c>
-      <c r="J15" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="68" cm="1">
-        <f t="array" ref="K15">_xlfn.IFS(J15="+",ROUNDUP(I15*(1+$O$15),0),J15="=",I15)</f>
-        <v>8</v>
-      </c>
-      <c r="L15" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="68" cm="1">
-        <f t="array" ref="M15">_xlfn.IFS(L15="+",ROUNDUP(K15*(1+$O$15),0),L15="=",K15)</f>
-        <v>10</v>
-      </c>
-      <c r="O15" s="38">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="69">
-        <f>M19</f>
-        <v>10</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="69" cm="1">
-        <f t="array" ref="E16">_xlfn.IFS(D16="+",ROUNDUP(C16*(1+$O$16),0),D16="=",C16)</f>
-        <v>15</v>
-      </c>
-      <c r="F16" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="69" cm="1">
-        <f t="array" ref="G16">_xlfn.IFS(F16="+",ROUNDUP(E16*(1+$O$16),0),F16="=",E16)</f>
-        <v>23</v>
-      </c>
-      <c r="H16" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="69" cm="1">
-        <f t="array" ref="I16">_xlfn.IFS(H16="+",ROUNDUP(G16*(1+$O$16),0),H16="=",G16)</f>
-        <v>35</v>
-      </c>
-      <c r="J16" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="69" cm="1">
-        <f t="array" ref="K16">_xlfn.IFS(J16="+",ROUNDUP(I16*(1+$O$16),0),J16="=",I16)</f>
-        <v>53</v>
-      </c>
-      <c r="L16" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="M16" s="69" cm="1">
-        <f t="array" ref="M16">_xlfn.IFS(L16="+",ROUNDUP(K16*(1+$O$16),0),L16="=",K16)</f>
-        <v>80</v>
-      </c>
-      <c r="O16" s="37">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="N18" s="56"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="54" t="str">
-        <f>VLOOKUP($B$19,ENEMY,3)</f>
-        <v>Vegetable</v>
-      </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54" t="str">
-        <f>VLOOKUP($B$19,ENEMY,4)</f>
-        <v>Normal</v>
-      </c>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54">
-        <f>VLOOKUP($B$19,ENEMY,5)</f>
-        <v>8</v>
-      </c>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54">
-        <f>VLOOKUP($B$19,ENEMY,6)</f>
-        <v>3</v>
-      </c>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54">
-        <f>VLOOKUP($B$19,ENEMY,7)</f>
-        <v>3</v>
-      </c>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54">
-        <f>VLOOKUP($B$19,ENEMY,8)</f>
-        <v>10</v>
-      </c>
-      <c r="N19" s="54"/>
-    </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="N20" s="56"/>
-    </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="54" t="str">
-        <f>VLOOKUP($B$21,TOWER,3)</f>
-        <v>Food</v>
-      </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54" t="str">
-        <f>VLOOKUP($B$21,TOWER,4)</f>
-        <v>Canon</v>
-      </c>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54">
-        <f>VLOOKUP($B$21,TOWER,5)</f>
-        <v>1</v>
-      </c>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54">
-        <f>VLOOKUP($B$21,TOWER,6)</f>
-        <v>0.5</v>
-      </c>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54">
-        <f>VLOOKUP($B$21,TOWER,7)</f>
-        <v>3</v>
-      </c>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54">
-        <f>VLOOKUP($B$21,TOWER,8)</f>
-        <v>15</v>
-      </c>
-      <c r="N21" s="54"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N22" s="41"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="53"/>
-      <c r="E23" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="K23" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="M23" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="N23" s="41"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="58">
-        <f>ROUND(O9*K25*I25,2)</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C24" s="58"/>
-      <c r="E24" s="58" t="str">
-        <f>C21</f>
-        <v>Food</v>
-      </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58" t="str">
-        <f>C19</f>
-        <v>Vegetable</v>
-      </c>
-      <c r="H24" s="58"/>
-      <c r="I24" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="K24" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" s="44"/>
-      <c r="M24" s="51" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E25" s="63" t="str">
-        <f>HLOOKUP(C21,WEAK_TOWER,VLOOKUP(C19,WEAK_ENEMY,5,FALSE)+1,FALSE)</f>
-        <v>+</v>
-      </c>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="64" cm="1">
-        <f t="array" ref="I25">_xlfn.IFS(E25="-", 1-O7, E25="=",1,E25="+",1+O7)</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K25" s="64" cm="1">
-        <f t="array" ref="K25">_xlfn.IFS(K24="Upgrade 0",C9,K24="Upgrade 1",E9,K24="Upgrade 2",G9,K24="Upgrade 3",I9,K24="Upgrade 4",K9,K24="Upgrade 5",M9)</f>
-        <v>2</v>
-      </c>
-      <c r="M25" s="64" cm="1">
-        <f t="array" ref="M25">_xlfn.IFS(M24="LVL 0",C13,M24="LVL 1",E13,M24="LVL 2",G13,M24="LVL 3",I13,M24="LVL 4",K13,M24="LVL 5",M13)</f>
-        <v>8</v>
-      </c>
-      <c r="N25" s="45"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="M26" s="64"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C28" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="N28" s="41"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C29" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="57"/>
-      <c r="N29" s="41"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="53" t="str">
-        <f>_xlfn.CONCAT(K24," ",K23)</f>
-        <v>Upgrade 0 DPS</v>
-      </c>
-      <c r="C30" s="62">
-        <f>ROUNDDOWN($M$25/B24,2)</f>
-        <v>1.81</v>
-      </c>
-      <c r="D30" s="62"/>
-      <c r="E30" s="61">
-        <f>ROUNDUP($M$25/B24,0)</f>
-        <v>2</v>
-      </c>
-      <c r="F30" s="61"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O32" s="42"/>
-      <c r="S32" s="40"/>
+      <c r="I32" s="73"/>
+      <c r="K32" s="71" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K33" s="72" cm="1">
+        <f t="array" ref="K33">_xlfn.IFS(K25="Upgrade 0",C6,K25="Upgrade 1",E6,K25="Upgrade 2",G6,K25="Upgrade 3",I6,K25="Upgrade 4",K6,K25="Upgrade 5",M6)</f>
+        <v>2430</v>
+      </c>
       <c r="O33" s="42"/>
       <c r="S33" s="40"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="S34" s="40"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
-        <v>111</v>
-      </c>
       <c r="Q35" s="42"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="39" t="s">
+        <v>109</v>
+      </c>
       <c r="Q36" s="42"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -2633,27 +2797,35 @@
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q43" s="42"/>
     </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q44" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="E23:I23"/>
+  <mergeCells count="21">
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="E26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="A2:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C30">
+  <conditionalFormatting sqref="C31">
     <cfRule type="colorScale" priority="155">
       <colorScale>
         <cfvo type="min"/>
@@ -2663,7 +2835,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
+  <conditionalFormatting sqref="C31">
     <cfRule type="colorScale" priority="161">
       <colorScale>
         <cfvo type="min"/>
@@ -2673,39 +2845,42 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="E31">
     <cfRule type="colorScale" priority="167">
       <colorScale>
-        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
         <cfvo type="percent" val="50"/>
-        <cfvo type="num" val="10"/>
+        <cfvo type="num" val="5"/>
         <color theme="9"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8" xr:uid="{B79DFF3F-F3F2-4D26-BF72-10F2B485B797}">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T7" xr:uid="{B79DFF3F-F3F2-4D26-BF72-10F2B485B797}">
       <formula1>TowerStat</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J8 H2:H8 D2:D8 F2:F8 L2:L8 D13:D16 F13:F16 H13:H16 J13:J16 L13:L16" xr:uid="{44475DCD-E93B-4817-AA4F-5E6FBC088EBF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H9 F2:F9 L14:L17 D2:D9 J2:J9 D14:D17 F14:F17 H14:H17 J14:J17 L2:L9" xr:uid="{44475DCD-E93B-4817-AA4F-5E6FBC088EBF}">
       <formula1>SIGN</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{AFB5BA6A-BBB2-47F1-A8F2-92AD1BD90543}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{AFB5BA6A-BBB2-47F1-A8F2-92AD1BD90543}">
       <formula1>CODE_ENEMIES</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B21" xr:uid="{AD1B0E1A-9992-4005-A59C-05195FE02FED}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B22" xr:uid="{AD1B0E1A-9992-4005-A59C-05195FE02FED}">
       <formula1>CODE_TOWER</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K24" xr:uid="{D777C75E-5123-4061-A4DA-FA2F950126E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K25" xr:uid="{D777C75E-5123-4061-A4DA-FA2F950126E5}">
       <formula1>UPGRADE</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B16" xr:uid="{AFA068F4-8100-422E-BD4E-A9DCC0E9320D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B17 T9:T12" xr:uid="{AFA068F4-8100-422E-BD4E-A9DCC0E9320D}">
       <formula1>STAT_ENEMY</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M24" xr:uid="{789A86CC-4BA2-4933-86AC-0C82CE5980EA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M25" xr:uid="{789A86CC-4BA2-4933-86AC-0C82CE5980EA}">
       <formula1>LEVEL_ENEMY</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B9" xr:uid="{00B706EE-A9A5-4DA1-8C1A-A95B882FF070}">
+      <formula1>STAT_TOWER</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2715,7 +2890,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="141" operator="containsText" id="{F23044F8-4BE4-4A8E-9020-DF254427AB24}">
-            <xm:f>NOT(ISERROR(SEARCH("+",E25)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("+",E26)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <fill>
@@ -2726,7 +2901,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="142" operator="containsText" id="{C77DA782-581F-4D17-A692-70945A61EC64}">
-            <xm:f>NOT(ISERROR(SEARCH("=",E25)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("=",E26)))</xm:f>
             <xm:f>"="</xm:f>
             <x14:dxf>
               <fill>
@@ -2737,7 +2912,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="143" operator="containsText" id="{1CADE51D-9651-4C17-992F-2F2A987E0A4C}">
-            <xm:f>NOT(ISERROR(SEARCH("-",E25)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("-",E26)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <fill>
@@ -2747,7 +2922,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E25</xm:sqref>
+          <xm:sqref>E26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="31" operator="containsText" id="{2F31918E-2561-4BE9-A502-75C4B5D293E9}">
@@ -2761,7 +2936,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D2:D10 F2:F10 H2:H10 J2:J10 L2:L10</xm:sqref>
+          <xm:sqref>D2:D6 F2:F6 H2:H6 J2:J6 L2:L6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="21" operator="containsText" id="{241F7492-010D-41DA-8A00-0A007798E9B4}">
@@ -2775,11 +2950,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D2:D10 F2:F10 H2:H10 J2:J10 L2:L10</xm:sqref>
+          <xm:sqref>D2:D6 F2:F6 H2:H6 J2:J6 L2:L6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="10" operator="containsText" id="{8B3F1571-5951-4242-8292-20FE5C102F51}">
-            <xm:f>NOT(ISERROR(SEARCH("=",D13)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("=",D14)))</xm:f>
             <xm:f>"="</xm:f>
             <x14:dxf>
               <fill>
@@ -2789,11 +2964,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D13:D16</xm:sqref>
+          <xm:sqref>D14:D17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="9" operator="containsText" id="{60A51342-9333-47F9-B7F1-DD2C10483EC5}">
-            <xm:f>NOT(ISERROR(SEARCH("+",D13)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("+",D14)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <fill>
@@ -2803,11 +2978,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D13:D16</xm:sqref>
+          <xm:sqref>D14:D17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="8" operator="containsText" id="{F111F232-37AE-4C0C-830B-35F78A30E14D}">
-            <xm:f>NOT(ISERROR(SEARCH("=",F13)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("=",F14)))</xm:f>
             <xm:f>"="</xm:f>
             <x14:dxf>
               <fill>
@@ -2817,11 +2992,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F13:F16</xm:sqref>
+          <xm:sqref>F14:F17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="7" operator="containsText" id="{4C16C5E4-43A1-4B74-94C6-C11BD28CD051}">
-            <xm:f>NOT(ISERROR(SEARCH("+",F13)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("+",F14)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <fill>
@@ -2831,11 +3006,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F13:F16</xm:sqref>
+          <xm:sqref>F14:F17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="6" operator="containsText" id="{2E1252A3-C99D-4F36-A89C-EA432A1B8CF7}">
-            <xm:f>NOT(ISERROR(SEARCH("=",H13)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("=",H14)))</xm:f>
             <xm:f>"="</xm:f>
             <x14:dxf>
               <fill>
@@ -2845,11 +3020,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H13:H16</xm:sqref>
+          <xm:sqref>H14:H17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="5" operator="containsText" id="{C7C9590E-F4D8-4937-8DAA-3FB0B201B8D4}">
-            <xm:f>NOT(ISERROR(SEARCH("+",H13)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("+",H14)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <fill>
@@ -2859,11 +3034,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H13:H16</xm:sqref>
+          <xm:sqref>H14:H17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="4" operator="containsText" id="{13FC0E2F-C188-4EF0-8386-643FBFEB5E92}">
-            <xm:f>NOT(ISERROR(SEARCH("=",J13)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("=",J14)))</xm:f>
             <xm:f>"="</xm:f>
             <x14:dxf>
               <fill>
@@ -2873,11 +3048,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J13:J16</xm:sqref>
+          <xm:sqref>J14:J17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="3" operator="containsText" id="{BBC8C582-FBF7-4CB8-9A73-25811AD9D1E2}">
-            <xm:f>NOT(ISERROR(SEARCH("+",J13)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("+",J14)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <fill>
@@ -2887,11 +3062,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J13:J16</xm:sqref>
+          <xm:sqref>J14:J17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="2" operator="containsText" id="{A7445E3F-3833-4014-8466-71A05643C3CE}">
-            <xm:f>NOT(ISERROR(SEARCH("=",L13)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("=",L14)))</xm:f>
             <xm:f>"="</xm:f>
             <x14:dxf>
               <fill>
@@ -2901,11 +3076,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L13:L16</xm:sqref>
+          <xm:sqref>L14:L17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="1" operator="containsText" id="{D4E82E64-C481-45B0-AA7D-688B765F3F1B}">
-            <xm:f>NOT(ISERROR(SEARCH("+",L13)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("+",L14)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <fill>
@@ -2915,7 +3090,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L13:L16</xm:sqref>
+          <xm:sqref>L14:L17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2925,10 +3100,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435E0B1E-C30D-4807-9C0B-B17E796108D4}">
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2999,10 +3174,10 @@
         <v>30</v>
       </c>
       <c r="G2" s="53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H2" s="53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3018,7 +3193,7 @@
         <f>_xlfn.CONCAT(B3,"_",LEFT(C3,4),"_",LEFT(D3,4))</f>
         <v>1_Inse_Norm</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B3" s="58">
         <v>1</v>
       </c>
       <c r="C3" s="38" t="s">
@@ -3027,17 +3202,17 @@
       <c r="D3" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="77">
-        <v>8</v>
-      </c>
-      <c r="F3" s="77">
+      <c r="E3" s="66">
+        <v>10</v>
+      </c>
+      <c r="F3" s="66">
         <v>3</v>
       </c>
-      <c r="G3" s="77">
-        <v>3</v>
-      </c>
-      <c r="H3" s="77">
-        <v>10</v>
+      <c r="G3" s="66">
+        <v>5</v>
+      </c>
+      <c r="H3" s="66">
+        <v>5</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -3053,7 +3228,7 @@
         <f t="shared" ref="A4:A11" si="0">_xlfn.CONCAT(B4,"_",LEFT(C4,4),"_",LEFT(D4,4))</f>
         <v>2_Inse_Inta</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="58">
         <v>2</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -3062,17 +3237,17 @@
       <c r="D4" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="77">
-        <v>7</v>
-      </c>
-      <c r="F4" s="77">
+      <c r="E4" s="66">
+        <v>6</v>
+      </c>
+      <c r="F4" s="66">
         <v>5</v>
       </c>
-      <c r="G4" s="77">
-        <v>1</v>
-      </c>
-      <c r="H4" s="77">
-        <v>10</v>
+      <c r="G4" s="66">
+        <v>3</v>
+      </c>
+      <c r="H4" s="66">
+        <v>2</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -3088,7 +3263,7 @@
         <f t="shared" si="0"/>
         <v>3_Inse_Sabo</v>
       </c>
-      <c r="B5" s="67">
+      <c r="B5" s="58">
         <v>3</v>
       </c>
       <c r="C5" s="38" t="s">
@@ -3097,16 +3272,16 @@
       <c r="D5" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="77">
-        <v>10</v>
-      </c>
-      <c r="F5" s="77">
+      <c r="E5" s="66">
+        <v>15</v>
+      </c>
+      <c r="F5" s="66">
         <v>2</v>
       </c>
-      <c r="G5" s="77">
-        <v>5</v>
-      </c>
-      <c r="H5" s="77">
+      <c r="G5" s="66">
+        <v>7.5</v>
+      </c>
+      <c r="H5" s="66">
         <v>10</v>
       </c>
     </row>
@@ -3115,7 +3290,7 @@
         <f t="shared" si="0"/>
         <v>4_Ghos_Norm</v>
       </c>
-      <c r="B6" s="67">
+      <c r="B6" s="58">
         <v>4</v>
       </c>
       <c r="C6" s="37" t="s">
@@ -3124,21 +3299,21 @@
       <c r="D6" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="69">
-        <f>E3</f>
-        <v>8</v>
-      </c>
-      <c r="F6" s="69">
-        <f t="shared" ref="F6:H6" si="1">F3</f>
+      <c r="E6" s="60">
+        <f t="shared" ref="E6:E11" si="1">E3</f>
+        <v>10</v>
+      </c>
+      <c r="F6" s="60">
+        <f t="shared" ref="F6:H6" si="2">F3</f>
         <v>3</v>
       </c>
-      <c r="G6" s="69">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H6" s="69">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="G6" s="60">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H6" s="60">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -3146,7 +3321,7 @@
         <f t="shared" si="0"/>
         <v>5_Ghos_Inta</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="58">
         <v>5</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -3155,21 +3330,21 @@
       <c r="D7" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="68">
-        <f>E4</f>
-        <v>7</v>
-      </c>
-      <c r="F7" s="68">
-        <f t="shared" ref="F7:H7" si="2">F4</f>
+      <c r="E7" s="59">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F7" s="59">
+        <f t="shared" ref="F7:H7" si="3">F4</f>
         <v>5</v>
       </c>
-      <c r="G7" s="68">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H7" s="68">
-        <f t="shared" si="2"/>
-        <v>10</v>
+      <c r="G7" s="59">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="H7" s="59">
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -3177,7 +3352,7 @@
         <f t="shared" si="0"/>
         <v>6_Ghos_Sabo</v>
       </c>
-      <c r="B8" s="67">
+      <c r="B8" s="58">
         <v>6</v>
       </c>
       <c r="C8" s="37" t="s">
@@ -3186,20 +3361,20 @@
       <c r="D8" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="69">
-        <f>E5</f>
-        <v>10</v>
-      </c>
-      <c r="F8" s="69">
-        <f t="shared" ref="F8:H8" si="3">F5</f>
+      <c r="E8" s="60">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F8" s="60">
+        <f t="shared" ref="F8:H8" si="4">F5</f>
         <v>2</v>
       </c>
-      <c r="G8" s="69">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="H8" s="69">
-        <f t="shared" si="3"/>
+      <c r="G8" s="60">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="H8" s="60">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -3208,7 +3383,7 @@
         <f t="shared" si="0"/>
         <v>7_Vege_Norm</v>
       </c>
-      <c r="B9" s="67">
+      <c r="B9" s="58">
         <v>7</v>
       </c>
       <c r="C9" s="38" t="s">
@@ -3217,21 +3392,21 @@
       <c r="D9" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="68">
-        <f>E6</f>
-        <v>8</v>
-      </c>
-      <c r="F9" s="68">
-        <f t="shared" ref="F9:H9" si="4">F6</f>
+      <c r="E9" s="59">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F9" s="59">
+        <f t="shared" ref="F9:H9" si="5">F6</f>
         <v>3</v>
       </c>
-      <c r="G9" s="68">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="H9" s="68">
-        <f t="shared" si="4"/>
-        <v>10</v>
+      <c r="G9" s="59">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="H9" s="59">
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -3239,7 +3414,7 @@
         <f t="shared" si="0"/>
         <v>8_Vege_Inta</v>
       </c>
-      <c r="B10" s="67">
+      <c r="B10" s="58">
         <v>8</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -3248,21 +3423,21 @@
       <c r="D10" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="69">
-        <f>E7</f>
-        <v>7</v>
-      </c>
-      <c r="F10" s="69">
-        <f t="shared" ref="F10:H10" si="5">F7</f>
+      <c r="E10" s="60">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F10" s="60">
+        <f t="shared" ref="F10:H10" si="6">F7</f>
         <v>5</v>
       </c>
-      <c r="G10" s="69">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H10" s="69">
-        <f t="shared" si="5"/>
-        <v>10</v>
+      <c r="G10" s="60">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H10" s="60">
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -3270,7 +3445,7 @@
         <f t="shared" si="0"/>
         <v>9_Vege_Sabo</v>
       </c>
-      <c r="B11" s="67">
+      <c r="B11" s="58">
         <v>9</v>
       </c>
       <c r="C11" s="38" t="s">
@@ -3279,25 +3454,55 @@
       <c r="D11" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="68">
-        <f>E8</f>
+      <c r="E11" s="59">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F11" s="59">
+        <f t="shared" ref="F11:H11" si="7">F8</f>
+        <v>2</v>
+      </c>
+      <c r="G11" s="59">
+        <f t="shared" si="7"/>
+        <v>7.5</v>
+      </c>
+      <c r="H11" s="59">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="F11" s="68">
-        <f t="shared" ref="F11:H11" si="6">F8</f>
-        <v>2</v>
-      </c>
-      <c r="G11" s="68">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="H11" s="68">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="71"/>
+      <c r="B12" s="61"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f>E3*F3</f>
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <f>G3/E3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f t="shared" ref="E14:E15" si="8">E4*F4</f>
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:G15" si="9">G4/E4</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -3314,11 +3519,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768879D7-3D01-4A98-A323-932C5472C860}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9045D55D-CDD5-4A2E-B7B4-999FBD02BF13}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3330,7 +3547,7 @@
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="47">
         <v>1</v>
       </c>
@@ -3352,522 +3569,413 @@
       <c r="G1" s="47">
         <v>7</v>
       </c>
-      <c r="H1" s="66">
+      <c r="H1" s="57">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="I1" s="57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9">
+        <v>4</v>
+      </c>
+      <c r="E2" s="9">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9">
+        <v>6</v>
+      </c>
+      <c r="G2" s="9">
+        <v>7</v>
+      </c>
+      <c r="H2" s="9">
+        <v>8</v>
+      </c>
+      <c r="I2" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B3" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C3" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D3" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F3" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G3" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H3" s="53" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="str">
-        <f>_xlfn.CONCAT(B3,"_",LEFT(C3,4),"_",(LEFT(D3,4)))</f>
+      <c r="I3" s="71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="str">
+        <f>_xlfn.CONCAT(B4,"_",LEFT(C4,4),"_",(LEFT(D4,4)))</f>
         <v>1_Food_Snip</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B4" s="58">
         <v>1</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D4" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E4" s="66">
+        <v>6</v>
+      </c>
+      <c r="F4" s="66">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="66">
+        <v>5</v>
+      </c>
+      <c r="H4" s="66">
+        <v>10</v>
+      </c>
+      <c r="I4" s="66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="str">
+        <f t="shared" ref="A5:A12" si="0">_xlfn.CONCAT(B5,"_",LEFT(C5,4),"_",(LEFT(D5,4)))</f>
+        <v>2_Food_Mort</v>
+      </c>
+      <c r="B5" s="58">
         <v>2</v>
       </c>
-      <c r="F3" s="68">
+      <c r="C5" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="66">
+        <v>4</v>
+      </c>
+      <c r="F5" s="66">
         <v>1</v>
       </c>
-      <c r="G3" s="68">
+      <c r="G5" s="66">
+        <v>4</v>
+      </c>
+      <c r="H5" s="66">
+        <v>15</v>
+      </c>
+      <c r="I5" s="60">
+        <f>I4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>3_Food_Cano</v>
+      </c>
+      <c r="B6" s="58">
         <v>3</v>
       </c>
-      <c r="H3" s="68">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="str">
-        <f t="shared" ref="A4:A11" si="0">_xlfn.CONCAT(B4,"_",LEFT(C4,4),"_",(LEFT(D4,4)))</f>
-        <v>2_Food_Cano</v>
-      </c>
-      <c r="B4" s="67">
-        <v>2</v>
-      </c>
-      <c r="C4" s="37" t="s">
+      <c r="C6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D6" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="69">
-        <v>1</v>
-      </c>
-      <c r="F4" s="69">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="69">
+      <c r="E6" s="66">
         <v>3</v>
       </c>
-      <c r="H4" s="69">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>3_Food_Mort</v>
-      </c>
-      <c r="B5" s="67">
-        <v>3</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="68">
-        <v>1</v>
-      </c>
-      <c r="F5" s="68">
-        <v>1</v>
-      </c>
-      <c r="G5" s="68">
-        <v>5</v>
-      </c>
-      <c r="H5" s="68">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="str">
+      <c r="F6" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="G6" s="66">
+        <v>3.5</v>
+      </c>
+      <c r="H6" s="66">
+        <v>20</v>
+      </c>
+      <c r="I6" s="59">
+        <f>I4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="str">
         <f t="shared" si="0"/>
         <v>4_Trap_Snip</v>
       </c>
-      <c r="B6" s="67">
+      <c r="B7" s="58">
         <v>4</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C7" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D7" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="69">
-        <v>2</v>
-      </c>
-      <c r="F6" s="69">
-        <v>1</v>
-      </c>
-      <c r="G6" s="69">
-        <v>3</v>
-      </c>
-      <c r="H6" s="69">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="str">
+      <c r="E7" s="60">
+        <f>E4</f>
+        <v>6</v>
+      </c>
+      <c r="F7" s="60">
+        <f t="shared" ref="F7:G7" si="1">F4</f>
+        <v>1.5</v>
+      </c>
+      <c r="G7" s="60">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H7" s="60">
+        <f>H4</f>
+        <v>10</v>
+      </c>
+      <c r="I7" s="60">
+        <f>I4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="str">
         <f t="shared" si="0"/>
         <v>5_Trap_Mort</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B8" s="58">
         <v>5</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C8" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D8" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E8" s="59">
+        <f>E5</f>
+        <v>4</v>
+      </c>
+      <c r="F8" s="59">
+        <f t="shared" ref="F8:G8" si="2">F5</f>
         <v>1</v>
       </c>
-      <c r="F7" s="68">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="68">
-        <v>3</v>
-      </c>
-      <c r="H7" s="68">
+      <c r="G8" s="59">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H8" s="59">
+        <f>H5</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="str">
+      <c r="I8" s="59">
+        <f>I4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="str">
         <f t="shared" si="0"/>
         <v>6_Trap_Cano</v>
       </c>
-      <c r="B8" s="67">
+      <c r="B9" s="58">
         <v>6</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C9" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D9" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="69">
-        <v>1</v>
-      </c>
-      <c r="F8" s="69">
-        <v>1</v>
-      </c>
-      <c r="G8" s="69">
-        <v>5</v>
-      </c>
-      <c r="H8" s="69">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="str">
+      <c r="E9" s="60">
+        <f>E6</f>
+        <v>3</v>
+      </c>
+      <c r="F9" s="60">
+        <f t="shared" ref="F9:G9" si="3">F6</f>
+        <v>0.75</v>
+      </c>
+      <c r="G9" s="60">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="H9" s="60">
+        <f>H6</f>
+        <v>20</v>
+      </c>
+      <c r="I9" s="60">
+        <f>I4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="str">
         <f t="shared" si="0"/>
         <v>7_Ener_Snip</v>
       </c>
-      <c r="B9" s="67">
+      <c r="B10" s="58">
         <v>7</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C10" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D10" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="68">
-        <v>2</v>
-      </c>
-      <c r="F9" s="68">
-        <v>1</v>
-      </c>
-      <c r="G9" s="68">
-        <v>3</v>
-      </c>
-      <c r="H9" s="68">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="str">
+      <c r="E10" s="59">
+        <f>E4</f>
+        <v>6</v>
+      </c>
+      <c r="F10" s="59">
+        <f t="shared" ref="F10:G10" si="4">F4</f>
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="59">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H10" s="59">
+        <f>H4</f>
+        <v>10</v>
+      </c>
+      <c r="I10" s="59">
+        <f>I4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="str">
         <f t="shared" si="0"/>
         <v>8_Ener_Mort</v>
       </c>
-      <c r="B10" s="67">
+      <c r="B11" s="58">
         <v>8</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C11" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D11" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="69">
+      <c r="E11" s="60">
+        <f>E5</f>
+        <v>4</v>
+      </c>
+      <c r="F11" s="60">
+        <f t="shared" ref="F11:G11" si="5">F5</f>
         <v>1</v>
       </c>
-      <c r="F10" s="69">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="69">
-        <v>3</v>
-      </c>
-      <c r="H10" s="69">
+      <c r="G11" s="60">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="H11" s="60">
+        <f>H5</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="str">
+      <c r="I11" s="60">
+        <f>I4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="str">
         <f t="shared" si="0"/>
         <v>9_Ener_Cano</v>
       </c>
-      <c r="B11" s="67">
+      <c r="B12" s="58">
         <v>9</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C12" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="68">
-        <v>1</v>
-      </c>
-      <c r="F11" s="68">
-        <v>1</v>
-      </c>
-      <c r="G11" s="68">
-        <v>5</v>
-      </c>
-      <c r="H11" s="68">
+      <c r="E12" s="59">
+        <f>E6</f>
+        <v>3</v>
+      </c>
+      <c r="F12" s="59">
+        <f t="shared" ref="F12:G12" si="6">F6</f>
+        <v>0.75</v>
+      </c>
+      <c r="G12" s="59">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="H12" s="59">
+        <f>H6</f>
+        <v>20</v>
+      </c>
+      <c r="I12" s="59">
+        <f>I4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f>E4/F4</f>
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <f>H4*F4</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" ref="E16:E17" si="7">E5/F5</f>
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <f>H5*F5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <f>H6*F6</f>
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C11" xr:uid="{A0725771-D6FB-4BCA-A3AB-AFBEDB867F7D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C12" xr:uid="{A0725771-D6FB-4BCA-A3AB-AFBEDB867F7D}">
       <formula1>CAT_TOWER</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D11" xr:uid="{D4ACF00F-8B37-485F-B591-1B056AFC903B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12" xr:uid="{D4ACF00F-8B37-485F-B591-1B056AFC903B}">
       <formula1>TYP_TOWER</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B37B0DA-040C-4E1A-930F-48D7F5CF8BC3}">
-  <dimension ref="B1:H20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="2.85546875" customWidth="1"/>
-    <col min="5" max="5" width="2.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="2.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="2.85546875" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="74" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="74" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="75" t="s">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3876,7 +3984,7 @@
   <dimension ref="B2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3932,11 +4040,11 @@
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" s="65" t="str">
+      <c r="G4" s="84" t="str">
         <f>HLOOKUP(G3,C2:E5,VLOOKUP(H3,B3:F5,5,FALSE)+1,FALSE)</f>
         <v>+</v>
       </c>
-      <c r="H4" s="65"/>
+      <c r="H4" s="84"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="29" t="s">
@@ -3954,8 +4062,8 @@
       <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
@@ -4008,11 +4116,11 @@
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" s="65" t="str">
+      <c r="G9" s="84" t="str">
         <f>HLOOKUP(G8,C7:E10,VLOOKUP(H8,B8:F10,5,FALSE)+1,FALSE)</f>
         <v>=</v>
       </c>
-      <c r="H9" s="65"/>
+      <c r="H9" s="84"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
@@ -4030,8 +4138,8 @@
       <c r="F10">
         <v>3</v>
       </c>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4204,6 +4312,242 @@
       </x14:conditionalFormattings>
     </ext>
   </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B37B0DA-040C-4E1A-930F-48D7F5CF8BC3}">
+  <dimension ref="B1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documents/GameDesign/System_Design.xlsx
+++ b/Documents/GameDesign/System_Design.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin DIJOUX\Documents\Unity\Workshop_TowerDefense\STD_Workshop\Documents\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEEE1037-43C5-466D-8A41-5B02F66FE5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C605E1-8A21-44F5-A2A0-D7C0E0DAF051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EE4EEEAB-A39E-4793-9971-E358DB8AAF6E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EE4EEEAB-A39E-4793-9971-E358DB8AAF6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="6" r:id="rId1"/>
     <sheet name="TowerStatsCalc" sheetId="1" r:id="rId2"/>
     <sheet name="Enemies" sheetId="3" r:id="rId3"/>
-    <sheet name="Train" sheetId="7" r:id="rId4"/>
-    <sheet name="Tower" sheetId="4" r:id="rId5"/>
+    <sheet name="Tower" sheetId="4" r:id="rId4"/>
+    <sheet name="Train" sheetId="8" r:id="rId5"/>
     <sheet name="Weak" sheetId="5" r:id="rId6"/>
     <sheet name="Data" sheetId="2" r:id="rId7"/>
   </sheets>
@@ -25,13 +25,14 @@
     <definedName name="CAT_ENEMIES">Data!$H$8:$H$10</definedName>
     <definedName name="CAT_TOWER">Data!$F$11:$F$13</definedName>
     <definedName name="CODE_ENEMIES">Enemies!$A$3:$A$11</definedName>
-    <definedName name="CODE_TOWER">Tower!$A$4:$A$12</definedName>
+    <definedName name="CODE_TOWER">Tower!$A$3:$A$11</definedName>
     <definedName name="ENEMY">Enemies!$A$3:$H$11</definedName>
     <definedName name="LEVEL_ENEMY">Data!$B$15:$B$20</definedName>
     <definedName name="SIGN">Data!$D$2:$D$4</definedName>
     <definedName name="STAT_ENEMY">Data!$H$2:$H$5</definedName>
     <definedName name="STAT_TOWER">Data!$F$2:$F$8</definedName>
-    <definedName name="TOWER">Tower!$A$4:$H$12</definedName>
+    <definedName name="STAT_TRAIN">Data!$J$2:$J$4</definedName>
+    <definedName name="TOWER">Tower!$A$3:$H$11</definedName>
     <definedName name="TYP_ENEMIES">Data!$H$13:$H$15</definedName>
     <definedName name="TYP_TOWER">Data!$F$16:$F$18</definedName>
     <definedName name="UPGRADE">Data!$B$7:$B$12</definedName>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="130">
   <si>
     <t>Upgrade 1</t>
   </si>
@@ -347,9 +348,6 @@
     <t>UPGRADE</t>
   </si>
   <si>
-    <t>STA_TOWER</t>
-  </si>
-  <si>
     <t>STAT_ENEMY</t>
   </si>
   <si>
@@ -392,9 +390,6 @@
     <t>LVL 5</t>
   </si>
   <si>
-    <t>Money</t>
-  </si>
-  <si>
     <t>Damage</t>
   </si>
   <si>
@@ -413,9 +408,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>4_Trap_Snip</t>
-  </si>
-  <si>
     <t>UpgradeCost</t>
   </si>
   <si>
@@ -434,7 +426,52 @@
     <t>Nb mob to up</t>
   </si>
   <si>
-    <t>9_Vege_Sabo</t>
+    <t>Up lvl 0 to 5</t>
+  </si>
+  <si>
+    <t>STAT_TOWER</t>
+  </si>
+  <si>
+    <t>STAT_TRAIN</t>
+  </si>
+  <si>
+    <t>Wagon</t>
+  </si>
+  <si>
+    <t>MONEY</t>
+  </si>
+  <si>
+    <t>5_Trap_Mort</t>
+  </si>
+  <si>
+    <t>BALANCING</t>
+  </si>
+  <si>
+    <t>Firerate / Contain</t>
+  </si>
+  <si>
+    <t>Atk / firerate</t>
+  </si>
+  <si>
+    <t>Speed / HP</t>
+  </si>
+  <si>
+    <t>Lvl 1</t>
+  </si>
+  <si>
+    <t>Lvl 2</t>
+  </si>
+  <si>
+    <t>Lvl 3</t>
+  </si>
+  <si>
+    <t>Lvl 4</t>
+  </si>
+  <si>
+    <t>1_Inse_Norm</t>
+  </si>
+  <si>
+    <t>HP / Damage</t>
   </si>
 </sst>
 </file>
@@ -706,36 +743,9 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -751,21 +761,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -826,7 +821,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -854,7 +848,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -864,21 +857,9 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -912,6 +893,33 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -921,20 +929,63 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -942,7 +993,7 @@
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
     <cellStyle name="Titre 3" xfId="2" builtinId="18"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="37">
     <dxf>
       <fill>
         <patternFill>
@@ -1024,6 +1075,76 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1464,145 +1585,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="4">
         <f>B14</f>
         <v>1</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="4">
         <f>B2+$E$11</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="4">
         <f t="shared" ref="D2:H2" si="0">C2+$E$11</f>
         <v>6.333333333333333</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="4">
         <f t="shared" si="0"/>
         <v>11.666666666666666</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="4">
         <f t="shared" si="0"/>
         <v>14.333333333333332</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="4">
         <f>B15</f>
         <v>3</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="5">
         <v>6</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="6"/>
       <c r="D11" t="s">
         <v>53</v>
       </c>
@@ -1612,72 +1733,72 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="5">
         <v>1</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="5">
         <v>3</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="5">
         <v>17</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="5">
         <v>27</v>
       </c>
-      <c r="C19" s="19"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1689,1124 +1810,1126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDA4FAA-0409-4E65-B5DA-46DD5A6F91E2}">
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26:M27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="39"/>
-    <col min="2" max="2" width="25.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="40" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="40"/>
-    <col min="6" max="6" width="5.7109375" style="40" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="40"/>
-    <col min="8" max="8" width="5.7109375" style="40" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="40"/>
-    <col min="10" max="10" width="5.7109375" style="40" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="40"/>
-    <col min="12" max="12" width="5.7109375" style="40" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="40"/>
-    <col min="14" max="14" width="5.7109375" style="40" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" style="40" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="44" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" style="40" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="44" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="40"/>
+    <col min="1" max="1" width="11.42578125" style="21"/>
+    <col min="2" max="2" width="25.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="22"/>
+    <col min="6" max="6" width="5.7109375" style="22" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="22"/>
+    <col min="8" max="8" width="5.7109375" style="22" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="22"/>
+    <col min="10" max="10" width="5.7109375" style="22" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="22"/>
+    <col min="12" max="12" width="5.7109375" style="22" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="22"/>
+    <col min="14" max="14" width="5.7109375" style="22" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="22" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="26" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" style="22" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="26" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="35" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="35" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="35" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="43"/>
-      <c r="O1" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q1" s="50" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="15">
         <f>$G$22</f>
-        <v>6</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="33" cm="1">
+        <v>4</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="15" cm="1">
         <f t="array" ref="E2">_xlfn.IFS(D2="+",ROUNDDOWN(C2*(1+$O$2),2),D2="=",C2)</f>
-        <v>7.8</v>
-      </c>
-      <c r="F2" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="54" cm="1">
+        <v>5.2</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="35" cm="1">
         <f t="array" ref="G2">_xlfn.IFS(F2="+",ROUNDDOWN(E2*(1+$O$2),2),F2="=",E2)</f>
-        <v>10.14</v>
-      </c>
-      <c r="H2" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="54" cm="1">
+        <v>6.76</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="35" cm="1">
         <f t="array" ref="I2">_xlfn.IFS(H2="+",ROUNDDOWN(G2*(1+$O$2),2),H2="=",G2)</f>
-        <v>13.18</v>
-      </c>
-      <c r="J2" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="54" cm="1">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="35" cm="1">
         <f t="array" ref="K2">_xlfn.IFS(J2="+",ROUNDDOWN(I2*(1+$O$2),2),J2="=",I2)</f>
-        <v>17.13</v>
-      </c>
-      <c r="L2" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="54" cm="1">
+        <v>11.41</v>
+      </c>
+      <c r="L2" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="35" cm="1">
         <f t="array" ref="M2">_xlfn.IFS(L2="+",ROUNDDOWN(K2*(1+$O$2),2),L2="=",K2)</f>
-        <v>22.26</v>
-      </c>
-      <c r="O2" s="38">
+        <v>14.83</v>
+      </c>
+      <c r="O2" s="20">
         <v>0.3</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="Q2" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="16">
         <f>$I$22</f>
-        <v>1.5</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="55" cm="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="36" cm="1">
         <f t="array" ref="E3">_xlfn.IFS(D3="+",ROUNDDOWN(C3*(1-$O$3),2),D3="=",C3)</f>
-        <v>1.35</v>
-      </c>
-      <c r="F3" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="55" cm="1">
+        <v>0.9</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="36" cm="1">
         <f t="array" ref="G3">_xlfn.IFS(F3="+",ROUNDDOWN(E3*(1-$O$3),2),F3="=",E3)</f>
-        <v>1.21</v>
-      </c>
-      <c r="H3" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="55" cm="1">
+        <v>0.81</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="36" cm="1">
         <f t="array" ref="I3">_xlfn.IFS(H3="+",ROUNDDOWN(G3*(1-$O$3),2),H3="=",G3)</f>
-        <v>1.08</v>
-      </c>
-      <c r="J3" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="55" cm="1">
+        <v>0.72</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="36" cm="1">
         <f t="array" ref="K3">_xlfn.IFS(J3="+",ROUNDDOWN(I3*(1-$O$3),2),J3="=",I3)</f>
-        <v>0.97</v>
-      </c>
-      <c r="L3" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="55" cm="1">
+        <v>0.64</v>
+      </c>
+      <c r="L3" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="36" cm="1">
         <f t="array" ref="M3">_xlfn.IFS(L3="+",ROUNDDOWN(K3*(1-$O$3),2),L3="=",K3)</f>
-        <v>0.87</v>
-      </c>
-      <c r="O3" s="37">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="O3" s="19">
         <v>0.1</v>
       </c>
-      <c r="Q3" s="80"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
+      <c r="Q3" s="54"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
-      <c r="B4" s="48" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="69">
+      <c r="C4" s="45">
         <f>$K$22</f>
-        <v>5</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="69" cm="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="45" cm="1">
         <f t="array" ref="E4">_xlfn.IFS(D4="+",ROUNDDOWN(C4*(1+$O$4),2),D4="=",C4)</f>
-        <v>5.5</v>
-      </c>
-      <c r="F4" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="69" cm="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="45" cm="1">
         <f t="array" ref="G4">_xlfn.IFS(F4="+",ROUNDDOWN(E4*(1+$O$4),2),F4="=",E4)</f>
-        <v>6.05</v>
-      </c>
-      <c r="H4" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="69" cm="1">
+        <v>4.84</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="45" cm="1">
         <f t="array" ref="I4">_xlfn.IFS(H4="+",ROUNDDOWN(G4*(1+$O$4),2),H4="=",G4)</f>
-        <v>6.65</v>
-      </c>
-      <c r="J4" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="69" cm="1">
+        <v>5.32</v>
+      </c>
+      <c r="J4" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="45" cm="1">
         <f t="array" ref="K4">_xlfn.IFS(J4="+",ROUNDDOWN(I4*(1+$O$4),2),J4="=",I4)</f>
-        <v>7.31</v>
-      </c>
-      <c r="L4" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="69" cm="1">
+        <v>5.85</v>
+      </c>
+      <c r="L4" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="45" cm="1">
         <f t="array" ref="M4">_xlfn.IFS(L4="+",ROUNDDOWN(K4*(1+$O$4),2),L4="=",K4)</f>
-        <v>8.0399999999999991</v>
-      </c>
-      <c r="O4" s="38">
+        <v>6.43</v>
+      </c>
+      <c r="O4" s="20">
         <v>0.1</v>
       </c>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="70" t="s">
+      <c r="A5" s="64"/>
+      <c r="B5" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C5" s="48">
         <f>$M$22</f>
+        <v>15</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="48" cm="1">
+        <f t="array" ref="E5">_xlfn.IFS(D5="+",ROUNDDOWN(C5*(1+$O$5),2),D5="=",C5)</f>
+        <v>18</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="48" cm="1">
+        <f t="array" ref="G5">_xlfn.IFS(F5="+",ROUNDDOWN(E5*(1+$O$5),2),F5="=",E5)</f>
+        <v>18</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="48" cm="1">
+        <f t="array" ref="I5">_xlfn.IFS(H5="+",ROUNDDOWN(G5*(1+$O$5),2),H5="=",G5)</f>
+        <v>21.6</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="48" cm="1">
+        <f t="array" ref="K5">_xlfn.IFS(J5="+",ROUNDDOWN(I5*(1+$O$5),0),J5="=",I5)</f>
+        <v>25</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="48" cm="1">
+        <f t="array" ref="M5">_xlfn.IFS(L5="+",ROUNDDOWN(K5*(1+$O$5),0),L5="=",K5)</f>
+        <v>30</v>
+      </c>
+      <c r="O5" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="64"/>
+      <c r="B6" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="45">
         <v>10</v>
       </c>
-      <c r="D5" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="72" cm="1">
-        <f t="array" ref="E5">_xlfn.IFS(D5="+",ROUNDDOWN(C5*(1+$O$5),2),D5="=",C5)</f>
-        <v>12</v>
-      </c>
-      <c r="F5" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="72" cm="1">
-        <f t="array" ref="G5">_xlfn.IFS(F5="+",ROUNDDOWN(E5*(1+$O$5),2),F5="=",E5)</f>
-        <v>12</v>
-      </c>
-      <c r="H5" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="72" cm="1">
-        <f t="array" ref="I5">_xlfn.IFS(H5="+",ROUNDDOWN(G5*(1+$O$5),2),H5="=",G5)</f>
-        <v>14.4</v>
-      </c>
-      <c r="J5" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="72" cm="1">
-        <f t="array" ref="K5">_xlfn.IFS(J5="+",ROUNDDOWN(I5*(1+$O$5),0),J5="=",I5)</f>
-        <v>17</v>
-      </c>
-      <c r="L5" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="72" cm="1">
-        <f t="array" ref="M5">_xlfn.IFS(L5="+",ROUNDDOWN(K5*(1+$O$5),0),L5="=",K5)</f>
-        <v>20</v>
-      </c>
-      <c r="O5" s="37">
-        <v>0.2</v>
-      </c>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="69">
-        <v>10</v>
-      </c>
-      <c r="D6" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="69" cm="1">
+      <c r="D6" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="45" cm="1">
         <f t="array" ref="E6">_xlfn.IFS(D6="+",ROUNDUP(C6*(1+$O$6),0),D6="=",C6)</f>
         <v>30</v>
       </c>
-      <c r="F6" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="69" cm="1">
+      <c r="F6" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="45" cm="1">
         <f t="array" ref="G6">_xlfn.IFS(F6="+",ROUNDUP(E6*(1+$O$6),0),F6="=",E6)</f>
         <v>90</v>
       </c>
-      <c r="H6" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="69" cm="1">
+      <c r="H6" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="45" cm="1">
         <f t="array" ref="I6">_xlfn.IFS(H6="+",ROUNDUP(G6*(1+$O$6),0),H6="=",G6)</f>
         <v>270</v>
       </c>
-      <c r="J6" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="69" cm="1">
+      <c r="J6" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="45" cm="1">
         <f t="array" ref="K6">_xlfn.IFS(J6="+",ROUNDUP(I6*(1+$O$6),0),J6="=",I6)</f>
         <v>810</v>
       </c>
-      <c r="L6" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="69" cm="1">
+      <c r="L6" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="45" cm="1">
         <f t="array" ref="M6">_xlfn.IFS(L6="+",ROUNDUP(K6*(1+$O$6),0),L6="=",K6)</f>
         <v>2430</v>
       </c>
-      <c r="O6" s="38">
+      <c r="O6" s="20">
         <v>2</v>
       </c>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="70" t="s">
+      <c r="A7" s="64"/>
+      <c r="B7" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="37">
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="19">
         <f>ROUNDDOWN((E2-C2)/C2,2)</f>
         <v>0.3</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37">
+      <c r="F7" s="19"/>
+      <c r="G7" s="19">
         <f>ROUNDDOWN((G2-E2)/E2,2)</f>
         <v>0.3</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37">
+      <c r="H7" s="19"/>
+      <c r="I7" s="19">
         <f>ROUNDDOWN((I2-G2)/G2,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37">
+      <c r="J7" s="19"/>
+      <c r="K7" s="19">
         <f>ROUNDDOWN((K2-I2)/I2,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37">
+      <c r="L7" s="19"/>
+      <c r="M7" s="19">
         <f>ROUNDDOWN((M2-K2)/K2,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="N7" s="41"/>
-      <c r="O7" s="49" t="s">
+      <c r="N7" s="23"/>
+      <c r="O7" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="48" t="s">
+      <c r="A8" s="64"/>
+      <c r="B8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="38">
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="20">
         <f t="shared" ref="E8:E9" si="0">ROUNDDOWN((E3-C3)/C3,2)</f>
-        <v>-0.09</v>
-      </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38">
+        <v>-0.1</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20">
         <f t="shared" ref="G8:G9" si="1">ROUNDDOWN((G3-E3)/E3,2)</f>
         <v>-0.1</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38">
+      <c r="H8" s="20"/>
+      <c r="I8" s="20">
         <f t="shared" ref="I8:I9" si="2">ROUNDDOWN((I3-G3)/G3,2)</f>
-        <v>-0.1</v>
-      </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38">
+        <v>-0.11</v>
+      </c>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20">
         <f>ROUNDDOWN((K3-I3)/I3,2)</f>
-        <v>-0.1</v>
-      </c>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38">
+        <v>-0.11</v>
+      </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20">
         <f>ROUNDDOWN((M3-K3)/K3,2)</f>
         <v>-0.1</v>
       </c>
-      <c r="N8" s="41"/>
-      <c r="O8" s="38">
+      <c r="N8" s="23"/>
+      <c r="O8" s="20">
         <v>0.2</v>
       </c>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="79"/>
-      <c r="B9" s="70" t="s">
+      <c r="A9" s="64"/>
+      <c r="B9" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="37">
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="19">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37">
+      <c r="F9" s="19"/>
+      <c r="G9" s="19">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37">
+        <v>0.09</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19">
         <f t="shared" si="2"/>
         <v>0.09</v>
       </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37">
+      <c r="J9" s="19"/>
+      <c r="K9" s="19">
         <f>ROUNDDOWN((K4-I4)/I4,2)</f>
         <v>0.09</v>
       </c>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37">
+      <c r="L9" s="19"/>
+      <c r="M9" s="19">
         <f>ROUNDDOWN((M4-K4)/K4,2)</f>
         <v>0.09</v>
       </c>
-      <c r="O9" s="49" t="s">
+      <c r="O9" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+    </row>
+    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-    </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="69">
+      <c r="C10" s="45">
         <f>ROUNDDOWN(C2*C11,2)</f>
         <v>4</v>
       </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69">
+      <c r="D10" s="45"/>
+      <c r="E10" s="45">
         <f>ROUNDDOWN(E2*E11,2)</f>
         <v>5.77</v>
       </c>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69">
+      <c r="F10" s="45"/>
+      <c r="G10" s="45">
         <f>ROUNDDOWN(G2*G11,2)</f>
-        <v>8.41</v>
-      </c>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69">
+        <v>8.31</v>
+      </c>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45">
         <f>ROUNDDOWN(I2*I11,2)</f>
-        <v>12.25</v>
-      </c>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69">
+        <v>12.2</v>
+      </c>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45">
         <f>ROUNDDOWN(K2*K11,2)</f>
-        <v>17.64</v>
-      </c>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69">
+        <v>17.79</v>
+      </c>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45">
         <f>ROUNDDOWN(M2*M11,2)</f>
-        <v>25.59</v>
-      </c>
-      <c r="O10" s="33">
+        <v>25.95</v>
+      </c>
+      <c r="O10" s="15">
         <v>2</v>
       </c>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C11" s="48">
         <f>1/C3</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72">
+        <v>1</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48">
         <f>ROUND(1/E3,2)</f>
-        <v>0.74</v>
-      </c>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48">
         <f>ROUND(1/G3,2)</f>
-        <v>0.83</v>
-      </c>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72">
+        <v>1.23</v>
+      </c>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48">
         <f>ROUND(1/I3,2)</f>
-        <v>0.93</v>
-      </c>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72">
+        <v>1.39</v>
+      </c>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48">
         <f>ROUND(1/K3,2)</f>
-        <v>1.03</v>
-      </c>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72">
+        <v>1.56</v>
+      </c>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48">
         <f>ROUND(1/M3,2)</f>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
+        <v>1.75</v>
+      </c>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="52"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
+      <c r="B12" s="33"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
     </row>
     <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="C13" s="53" t="s">
+      <c r="A13" s="22"/>
+      <c r="C13" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="53" t="s">
+      <c r="F13" s="18"/>
+      <c r="G13" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="53" t="s">
+      <c r="H13" s="18"/>
+      <c r="I13" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="53" t="s">
+      <c r="J13" s="18"/>
+      <c r="K13" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="53" t="s">
+      <c r="L13" s="18"/>
+      <c r="M13" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="L13" s="36"/>
-      <c r="M13" s="53" t="s">
+      <c r="O13" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="39">
+        <f>G20</f>
+        <v>10</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="39" cm="1">
+        <f t="array" ref="E14">_xlfn.IFS(D14="+",ROUNDDOWN(C14*(1+$O$14),2),D14="=",C14)</f>
+        <v>15</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="39" cm="1">
+        <f t="array" ref="G14">_xlfn.IFS(F14="+",ROUNDDOWN(E14*(1+$O$14),2),F14="=",E14)</f>
+        <v>22.5</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="39" cm="1">
+        <f t="array" ref="I14">_xlfn.IFS(H14="+",ROUNDDOWN(G14*(1+$O$14),2),H14="=",G14)</f>
+        <v>33.75</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="39" cm="1">
+        <f t="array" ref="K14">_xlfn.IFS(J14="+",ROUNDDOWN(I14*(1+$O$14),2),J14="=",I14)</f>
+        <v>50.62</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="39" cm="1">
+        <f t="array" ref="M14">_xlfn.IFS(L14="+",ROUNDDOWN(K14*(1+$O$14),2),L14="=",K14)</f>
+        <v>75.930000000000007</v>
+      </c>
+      <c r="O14" s="20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="40">
+        <f>I20</f>
+        <v>3</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="40" cm="1">
+        <f t="array" ref="E15">_xlfn.IFS(D15="+",ROUNDDOWN(C15*(1+$O$15),2),D15="=",C15)</f>
+        <v>3.9</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="40" cm="1">
+        <f t="array" ref="G15">_xlfn.IFS(F15="+",ROUNDDOWN(E15*(1+$O$15),2),F15="=",E15)</f>
+        <v>5.07</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="40" cm="1">
+        <f t="array" ref="I15">_xlfn.IFS(H15="+",ROUNDDOWN(G15*(1+$O$15),2),H15="=",G15)</f>
+        <v>6.59</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="40" cm="1">
+        <f t="array" ref="K15">_xlfn.IFS(J15="+",ROUNDDOWN(I15*(1+$O$15),2),J15="=",I15)</f>
+        <v>8.56</v>
+      </c>
+      <c r="L15" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="40" cm="1">
+        <f t="array" ref="M15">_xlfn.IFS(L15="+",ROUNDDOWN(K15*(1+$O$15),2),L15="=",K15)</f>
+        <v>11.12</v>
+      </c>
+      <c r="O15" s="19">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="O13" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="59">
-        <f>G20</f>
+      <c r="C16" s="39">
+        <f>K20</f>
+        <v>5</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="39" cm="1">
+        <f t="array" ref="E16">_xlfn.IFS(D16="+",ROUNDUP(C16*(1+$O$16),0),D16="=",C16)</f>
+        <v>6</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="39" cm="1">
+        <f t="array" ref="G16">_xlfn.IFS(F16="+",ROUNDUP(E16*(1+$O$16),0),F16="=",E16)</f>
+        <v>8</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="39" cm="1">
+        <f t="array" ref="I16">_xlfn.IFS(H16="+",ROUNDUP(G16*(1+$O$16),0),H16="=",G16)</f>
+        <v>10</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="39" cm="1">
+        <f t="array" ref="K16">_xlfn.IFS(J16="+",ROUNDUP(I16*(1+$O$16),0),J16="=",I16)</f>
+        <v>12</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="39" cm="1">
+        <f t="array" ref="M16">_xlfn.IFS(L16="+",ROUNDUP(K16*(1+$O$16),0),L16="=",K16)</f>
         <v>15</v>
       </c>
-      <c r="D14" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="59" cm="1">
-        <f t="array" ref="E14">_xlfn.IFS(D14="+",ROUNDDOWN(C14*(1+$O$14),2),D14="=",C14)</f>
-        <v>22.5</v>
-      </c>
-      <c r="F14" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="59" cm="1">
-        <f t="array" ref="G14">_xlfn.IFS(F14="+",ROUNDDOWN(E14*(1+$O$14),2),F14="=",E14)</f>
-        <v>33.75</v>
-      </c>
-      <c r="H14" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="59" cm="1">
-        <f t="array" ref="I14">_xlfn.IFS(H14="+",ROUNDDOWN(G14*(1+$O$14),2),H14="=",G14)</f>
-        <v>50.62</v>
-      </c>
-      <c r="J14" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="59" cm="1">
-        <f t="array" ref="K14">_xlfn.IFS(J14="+",ROUNDDOWN(I14*(1+$O$14),2),J14="=",I14)</f>
-        <v>75.930000000000007</v>
-      </c>
-      <c r="L14" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="59" cm="1">
-        <f t="array" ref="M14">_xlfn.IFS(L14="+",ROUNDDOWN(K14*(1+$O$14),2),L14="=",K14)</f>
-        <v>113.89</v>
-      </c>
-      <c r="O14" s="38">
+      <c r="O16" s="20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="40">
+        <f>M20</f>
+        <v>5</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="40" cm="1">
+        <f t="array" ref="E17">_xlfn.IFS(D17="+",ROUNDUP(C17*(1+$O$17),0),D17="=",C17)</f>
+        <v>8</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="40" cm="1">
+        <f t="array" ref="G17">_xlfn.IFS(F17="+",ROUNDUP(E17*(1+$O$17),0),F17="=",E17)</f>
+        <v>12</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="40" cm="1">
+        <f t="array" ref="I17">_xlfn.IFS(H17="+",ROUNDUP(G17*(1+$O$17),0),H17="=",G17)</f>
+        <v>18</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="40" cm="1">
+        <f t="array" ref="K17">_xlfn.IFS(J17="+",ROUNDUP(I17*(1+$O$17),0),J17="=",I17)</f>
+        <v>27</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="40" cm="1">
+        <f t="array" ref="M17">_xlfn.IFS(L17="+",ROUNDUP(K17*(1+$O$17),0),L17="=",K17)</f>
+        <v>41</v>
+      </c>
+      <c r="O17" s="19">
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="60">
-        <f>I20</f>
-        <v>2</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="60" cm="1">
-        <f t="array" ref="E15">_xlfn.IFS(D15="+",ROUNDDOWN(C15*(1+$O$15),2),D15="=",C15)</f>
-        <v>2.6</v>
-      </c>
-      <c r="F15" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="60" cm="1">
-        <f t="array" ref="G15">_xlfn.IFS(F15="+",ROUNDDOWN(E15*(1+$O$15),2),F15="=",E15)</f>
-        <v>3.38</v>
-      </c>
-      <c r="H15" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="60" cm="1">
-        <f t="array" ref="I15">_xlfn.IFS(H15="+",ROUNDDOWN(G15*(1+$O$15),2),H15="=",G15)</f>
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="J15" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="60" cm="1">
-        <f t="array" ref="K15">_xlfn.IFS(J15="+",ROUNDDOWN(I15*(1+$O$15),2),J15="=",I15)</f>
-        <v>5.7</v>
-      </c>
-      <c r="L15" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="60" cm="1">
-        <f t="array" ref="M15">_xlfn.IFS(L15="+",ROUNDDOWN(K15*(1+$O$15),2),L15="=",K15)</f>
-        <v>7.41</v>
-      </c>
-      <c r="O15" s="37">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="59">
-        <f>K20</f>
-        <v>7.5</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="59" cm="1">
-        <f t="array" ref="E16">_xlfn.IFS(D16="+",ROUNDUP(C16*(1+$O$16),0),D16="=",C16)</f>
-        <v>9</v>
-      </c>
-      <c r="F16" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="59" cm="1">
-        <f t="array" ref="G16">_xlfn.IFS(F16="+",ROUNDUP(E16*(1+$O$16),0),F16="=",E16)</f>
-        <v>11</v>
-      </c>
-      <c r="H16" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="59" cm="1">
-        <f t="array" ref="I16">_xlfn.IFS(H16="+",ROUNDUP(G16*(1+$O$16),0),H16="=",G16)</f>
-        <v>14</v>
-      </c>
-      <c r="J16" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="59" cm="1">
-        <f t="array" ref="K16">_xlfn.IFS(J16="+",ROUNDUP(I16*(1+$O$16),0),J16="=",I16)</f>
-        <v>17</v>
-      </c>
-      <c r="L16" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="M16" s="59" cm="1">
-        <f t="array" ref="M16">_xlfn.IFS(L16="+",ROUNDUP(K16*(1+$O$16),0),L16="=",K16)</f>
-        <v>21</v>
-      </c>
-      <c r="O16" s="38">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="60">
-        <f>M20</f>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="35" t="str">
+        <f>VLOOKUP($B$20,ENEMY,3)</f>
+        <v>Insect</v>
+      </c>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35" t="str">
+        <f>VLOOKUP($B$20,ENEMY,4)</f>
+        <v>Normal</v>
+      </c>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35">
+        <f>VLOOKUP($B$20,ENEMY,5)</f>
         <v>10</v>
       </c>
-      <c r="D17" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="60" cm="1">
-        <f t="array" ref="E17">_xlfn.IFS(D17="+",ROUNDUP(C17*(1+$O$17),0),D17="=",C17)</f>
-        <v>15</v>
-      </c>
-      <c r="F17" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="60" cm="1">
-        <f t="array" ref="G17">_xlfn.IFS(F17="+",ROUNDUP(E17*(1+$O$17),0),F17="=",E17)</f>
-        <v>23</v>
-      </c>
-      <c r="H17" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="60" cm="1">
-        <f t="array" ref="I17">_xlfn.IFS(H17="+",ROUNDUP(G17*(1+$O$17),0),H17="=",G17)</f>
-        <v>35</v>
-      </c>
-      <c r="J17" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="60" cm="1">
-        <f t="array" ref="K17">_xlfn.IFS(J17="+",ROUNDUP(I17*(1+$O$17),0),J17="=",I17)</f>
-        <v>53</v>
-      </c>
-      <c r="L17" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="60" cm="1">
-        <f t="array" ref="M17">_xlfn.IFS(L17="+",ROUNDUP(K17*(1+$O$17),0),L17="=",K17)</f>
-        <v>80</v>
-      </c>
-      <c r="O17" s="37">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="56" t="s">
+      <c r="H20" s="35"/>
+      <c r="I20" s="35">
+        <f>VLOOKUP($B$20,ENEMY,6)</f>
+        <v>3</v>
+      </c>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35">
+        <f>VLOOKUP($B$20,ENEMY,7)</f>
+        <v>5</v>
+      </c>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35">
+        <f>VLOOKUP($B$20,ENEMY,8)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56" t="s">
+      <c r="D21" s="37"/>
+      <c r="E21" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="54" t="str">
-        <f>VLOOKUP($B$20,ENEMY,3)</f>
-        <v>Vegetable</v>
-      </c>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54" t="str">
-        <f>VLOOKUP($B$20,ENEMY,4)</f>
-        <v>Saboteur</v>
-      </c>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54">
-        <f>VLOOKUP($B$20,ENEMY,5)</f>
-        <v>15</v>
-      </c>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54">
-        <f>VLOOKUP($B$20,ENEMY,6)</f>
-        <v>2</v>
-      </c>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54">
-        <f>VLOOKUP($B$20,ENEMY,7)</f>
-        <v>7.5</v>
-      </c>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54">
-        <f>VLOOKUP($B$20,ENEMY,8)</f>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56" t="s">
+      <c r="L21" s="37"/>
+      <c r="M21" s="37" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" s="54" t="str">
+      <c r="B22" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="35" t="str">
         <f>VLOOKUP($B$22,TOWER,3)</f>
         <v>Traps</v>
       </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54" t="str">
+      <c r="D22" s="35"/>
+      <c r="E22" s="35" t="str">
         <f>VLOOKUP($B$22,TOWER,4)</f>
-        <v>Snipe</v>
-      </c>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54">
+        <v>Mortar</v>
+      </c>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35">
         <f>VLOOKUP($B$22,TOWER,5)</f>
-        <v>6</v>
-      </c>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54">
+        <v>4</v>
+      </c>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35">
         <f>VLOOKUP($B$22,TOWER,6)</f>
-        <v>1.5</v>
-      </c>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54">
+        <v>1</v>
+      </c>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35">
         <f>VLOOKUP($B$22,TOWER,7)</f>
-        <v>5</v>
-      </c>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54">
+        <v>4</v>
+      </c>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35">
         <f>VLOOKUP($B$22,TOWER,8)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N23" s="41"/>
-      <c r="T23" s="68"/>
+      <c r="N23" s="23"/>
+      <c r="T23" s="44"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="53"/>
-      <c r="E24" s="74" t="s">
+      <c r="B24" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="34"/>
+      <c r="E24" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="K24" s="53" t="s">
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="K24" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="M24" s="53" t="s">
+      <c r="M24" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="N24" s="41"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="44"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="26"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="81">
+      <c r="B25" s="55">
         <f>ROUND(O10*K26*I26,2)</f>
-        <v>51.18</v>
-      </c>
-      <c r="C25" s="81"/>
-      <c r="E25" s="76" t="str">
+        <v>62.28</v>
+      </c>
+      <c r="C25" s="55"/>
+      <c r="E25" s="61" t="str">
         <f>C22</f>
         <v>Traps</v>
       </c>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76" t="str">
+      <c r="F25" s="61"/>
+      <c r="G25" s="61" t="str">
         <f>C20</f>
-        <v>Vegetable</v>
-      </c>
-      <c r="H25" s="76"/>
-      <c r="I25" s="36" t="s">
+        <v>Insect</v>
+      </c>
+      <c r="H25" s="61"/>
+      <c r="I25" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="K25" s="51" t="s">
+      <c r="K25" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="44"/>
-      <c r="M25" s="51" t="s">
-        <v>102</v>
+      <c r="L25" s="26"/>
+      <c r="M25" s="32" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E26" s="77" t="str">
+      <c r="E26" s="62" t="str">
         <f>HLOOKUP(C22,WEAK_TOWER,VLOOKUP(C20,WEAK_ENEMY,5,FALSE)+1,FALSE)</f>
-        <v>=</v>
-      </c>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="73" cm="1">
+        <v>+</v>
+      </c>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="59" cm="1">
         <f t="array" ref="I26">_xlfn.IFS(E26="-", 1-O8, E26="=",1,E26="+",1+O8)</f>
-        <v>1</v>
-      </c>
-      <c r="K26" s="73" cm="1">
+        <v>1.2</v>
+      </c>
+      <c r="K26" s="59" cm="1">
         <f t="array" ref="K26">_xlfn.IFS(K25="Upgrade 0",C10,K25="Upgrade 1",E10,K25="Upgrade 2",G10,K25="Upgrade 3",I10,K25="Upgrade 4",K10,K25="Upgrade 5",M10)</f>
-        <v>25.59</v>
-      </c>
-      <c r="M26" s="73" cm="1">
+        <v>25.95</v>
+      </c>
+      <c r="M26" s="59" cm="1">
         <f t="array" ref="M26">_xlfn.IFS(M25="LVL 0",C14,M25="LVL 1",E14,M25="LVL 2",G14,M25="LVL 3",I14,M25="LVL 4",K14,M25="LVL 5",M14)</f>
-        <v>113.89</v>
-      </c>
-      <c r="N26" s="45"/>
+        <v>75.930000000000007</v>
+      </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="73"/>
-      <c r="K27" s="73"/>
-      <c r="M27" s="73"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="O27" s="23"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K28" s="71" t="s">
+      <c r="K28" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="M28" s="71" t="s">
-        <v>114</v>
+      <c r="M28" s="47" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C29" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="H29" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="I29" s="74"/>
-      <c r="K29" s="72" cm="1">
+      <c r="C29" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="H29" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="I29" s="58"/>
+      <c r="K29" s="48" cm="1">
         <f t="array" ref="K29">_xlfn.IFS(K25="Upgrade 0",C5,K25="Upgrade 1",E5,K25="Upgrade 2",G5,K25="Upgrade 3",I5,K25="Upgrade 4",K5,K25="Upgrade 5",M5)</f>
-        <v>20</v>
-      </c>
-      <c r="M29" s="72" cm="1">
+        <v>30</v>
+      </c>
+      <c r="M29" s="48" cm="1">
         <f t="array" ref="M29">_xlfn.IFS(M25="LVL 0",C17,M25="LVL 1",E17,M25="LVL 2",G17,M25="LVL 3",I17,M25="LVL 4",K17,M25="LVL 5",M17)</f>
-        <v>80</v>
-      </c>
-      <c r="N29" s="41"/>
+        <v>41</v>
+      </c>
+      <c r="N29" s="23"/>
+      <c r="O29" s="27"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C30" s="74" t="s">
+      <c r="C30" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74" t="s">
+      <c r="D30" s="58"/>
+      <c r="E30" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="74"/>
-      <c r="H30" s="73" t="str">
+      <c r="F30" s="58"/>
+      <c r="H30" s="59" t="str">
         <f>_xlfn.CONCAT(K29*K31," s")</f>
-        <v>17,4 s</v>
-      </c>
-      <c r="I30" s="73"/>
-      <c r="K30" s="71" t="s">
+        <v>17,1 s</v>
+      </c>
+      <c r="I30" s="59"/>
+      <c r="K30" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="N30" s="41"/>
+      <c r="N30" s="23"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B31" s="53" t="str">
+      <c r="B31" s="34" t="str">
         <f>_xlfn.CONCAT(K25," ",K24)</f>
         <v>Upgrade 5 DPS</v>
       </c>
-      <c r="C31" s="82">
+      <c r="C31" s="56">
         <f>ROUNDDOWN($M$26/B25,2)</f>
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="D31" s="82"/>
-      <c r="E31" s="83">
+        <v>1.21</v>
+      </c>
+      <c r="D31" s="56"/>
+      <c r="E31" s="57">
         <f>ROUNDUP($M$26/B25,0)</f>
-        <v>3</v>
-      </c>
-      <c r="F31" s="83"/>
-      <c r="H31" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="I31" s="74"/>
-      <c r="K31" s="72" cm="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="57"/>
+      <c r="G31" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" s="58"/>
+      <c r="K31" s="48" cm="1">
         <f t="array" ref="K31">_xlfn.IFS(K25="Upgrade 0",C3,K25="Upgrade 1",E3,K25="Upgrade 2",G3,K25="Upgrade 3",I3,K25="Upgrade 4",K3,K25="Upgrade 5",M3)</f>
-        <v>0.87</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C32" s="73" t="str">
+      <c r="C32" s="59" t="str">
         <f>_xlfn.CONCAT(E31*K31," s")</f>
-        <v>2,61 s</v>
-      </c>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="H32" s="73">
+        <v>1,14 s</v>
+      </c>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="49">
+        <f>E6+G6+I6+K6+M6</f>
+        <v>3630</v>
+      </c>
+      <c r="H32" s="59">
         <f>ROUNDUP(K33/M29,0)</f>
-        <v>31</v>
-      </c>
-      <c r="I32" s="73"/>
-      <c r="K32" s="71" t="s">
-        <v>115</v>
+        <v>60</v>
+      </c>
+      <c r="I32" s="59"/>
+      <c r="K32" s="47" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K33" s="72" cm="1">
+      <c r="K33" s="48" cm="1">
         <f t="array" ref="K33">_xlfn.IFS(K25="Upgrade 0",C6,K25="Upgrade 1",E6,K25="Upgrade 2",G6,K25="Upgrade 3",I6,K25="Upgrade 4",K6,K25="Upgrade 5",M6)</f>
         <v>2430</v>
       </c>
-      <c r="O33" s="42"/>
-      <c r="S33" s="40"/>
+      <c r="O33" s="24"/>
+      <c r="S33" s="22"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O34" s="42"/>
-      <c r="S34" s="40"/>
+      <c r="O34" s="24"/>
+      <c r="S34" s="22"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q35" s="42"/>
+      <c r="Q35" s="24"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q36" s="42"/>
+      <c r="A36" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q36" s="24"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q37" s="42"/>
+      <c r="Q37" s="24"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q38" s="42"/>
+      <c r="Q38" s="24"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q39" s="42"/>
+      <c r="Q39" s="24"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q40" s="42"/>
+      <c r="Q40" s="24"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q41" s="42"/>
+      <c r="Q41" s="24"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q42" s="42"/>
+      <c r="Q42" s="24"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q43" s="42"/>
+      <c r="Q43" s="24"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q44" s="42"/>
+      <c r="Q44" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E24:I24"/>
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="H32:I32"/>
@@ -2823,6 +2946,11 @@
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="A2:A9"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E24:I24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C31">
@@ -3100,417 +3228,1307 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435E0B1E-C30D-4807-9C0B-B17E796108D4}">
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="66" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="66" customWidth="1"/>
+    <col min="3" max="9" width="11.42578125" style="66"/>
+    <col min="10" max="10" width="14.28515625" style="66" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="66"/>
+    <col min="12" max="12" width="4.28515625" style="66" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="66"/>
+    <col min="14" max="14" width="4.28515625" style="66" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="66"/>
+    <col min="16" max="16" width="4.28515625" style="66" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="66"/>
+    <col min="18" max="18" width="4.28515625" style="66" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="66" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" style="66" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" style="66"/>
+    <col min="22" max="22" width="4.28515625" style="66" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="9">
+      <c r="A1" s="82">
         <v>1</v>
       </c>
-      <c r="B1" s="9">
+      <c r="B1" s="82">
         <v>2</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="82">
         <v>3</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="82">
         <v>4</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="82">
         <v>5</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="82">
         <v>6</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="82">
         <v>7</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="82">
         <v>8</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+    </row>
+    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="11"/>
+      <c r="G2" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="84"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="52"/>
+      <c r="M2" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="52"/>
+      <c r="O2" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="R2" s="52"/>
+      <c r="S2" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="T2" s="52"/>
+      <c r="U2" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="V2" s="22"/>
+      <c r="W2" s="41" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="str">
+      <c r="A3" s="20" t="str">
         <f>_xlfn.CONCAT(B3,"_",LEFT(C3,4),"_",LEFT(D3,4))</f>
         <v>1_Inse_Norm</v>
       </c>
-      <c r="B3" s="58">
+      <c r="B3" s="38">
         <v>1</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="42">
         <v>10</v>
       </c>
-      <c r="F3" s="66">
+      <c r="F3" s="42">
         <v>3</v>
       </c>
-      <c r="G3" s="66">
+      <c r="G3" s="42">
         <v>5</v>
       </c>
-      <c r="H3" s="66">
+      <c r="H3" s="42">
         <v>5</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="39">
+        <f>O9</f>
+        <v>10</v>
+      </c>
+      <c r="L3" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="39" cm="1">
+        <f t="array" ref="M3">_xlfn.IFS(L3="+",ROUNDDOWN($K$3 * (1 + W3) ^ 1,2),L3="=",K3)</f>
+        <v>15</v>
+      </c>
+      <c r="N3" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="39" cm="1">
+        <f t="array" ref="O3">_xlfn.IFS(N3="+",ROUNDDOWN($K$3 * (1 + W3) ^ 2,2),N3="=",K3)</f>
+        <v>22.5</v>
+      </c>
+      <c r="P3" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="39" cm="1">
+        <f t="array" ref="Q3">_xlfn.IFS(P3="+",ROUNDDOWN($K$3 * (1 + W3) ^ 3,2),P3="=",K3)</f>
+        <v>33.75</v>
+      </c>
+      <c r="R3" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="39" cm="1">
+        <f t="array" ref="S3">_xlfn.IFS(R3="+",ROUNDDOWN($K$3 * (1 + W3) ^ 4,2),R3="=",K3)</f>
+        <v>50.62</v>
+      </c>
+      <c r="T3" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" s="39" cm="1">
+        <f t="array" ref="U3">_xlfn.IFS(R3="+",ROUNDDOWN($K$3 * (1 + W3) ^ 5,2),R3="=",K3)</f>
+        <v>75.930000000000007</v>
+      </c>
+      <c r="V3" s="22"/>
+      <c r="W3" s="20">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="str">
+      <c r="A4" s="19" t="str">
         <f t="shared" ref="A4:A11" si="0">_xlfn.CONCAT(B4,"_",LEFT(C4,4),"_",LEFT(D4,4))</f>
         <v>2_Inse_Inta</v>
       </c>
-      <c r="B4" s="58">
+      <c r="B4" s="38">
         <v>2</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="66">
+      <c r="E4" s="42">
         <v>6</v>
       </c>
-      <c r="F4" s="66">
+      <c r="F4" s="42">
         <v>5</v>
       </c>
-      <c r="G4" s="66">
+      <c r="G4" s="42">
         <v>3</v>
       </c>
-      <c r="H4" s="66">
+      <c r="H4" s="42">
         <v>2</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="40">
+        <f>Q9</f>
+        <v>3</v>
+      </c>
+      <c r="L4" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="40" cm="1">
+        <f t="array" ref="M4">_xlfn.IFS(L4="+",ROUND($K$4 * (1 - W4) ^ 1,2),L4="=",K4)</f>
+        <v>2.1</v>
+      </c>
+      <c r="N4" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="40" cm="1">
+        <f t="array" ref="O4">_xlfn.IFS(L4="+",ROUND($K$4 * (1 - W4) ^ 2,2),L4="=",K4)</f>
+        <v>1.47</v>
+      </c>
+      <c r="P4" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="40" cm="1">
+        <f t="array" ref="Q4">_xlfn.IFS(L4="+",ROUND($K$4 * (1 - W4) ^ 3,2),L4="=",K4)</f>
+        <v>1.03</v>
+      </c>
+      <c r="R4" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="40" cm="1">
+        <f t="array" ref="S4">_xlfn.IFS(L4="+",ROUND($K$4 * (1 - W4) ^ 4,2),L4="=",K4)</f>
+        <v>0.72</v>
+      </c>
+      <c r="T4" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" s="40" cm="1">
+        <f t="array" ref="U4">_xlfn.IFS(L4="+",ROUND($K$4 * (1 - W4) ^ 5,2),L4="=",K4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="V4" s="22"/>
+      <c r="W4" s="19">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="str">
+      <c r="A5" s="20" t="str">
         <f t="shared" si="0"/>
         <v>3_Inse_Sabo</v>
       </c>
-      <c r="B5" s="58">
+      <c r="B5" s="38">
         <v>3</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="66">
+      <c r="E5" s="42">
         <v>15</v>
       </c>
-      <c r="F5" s="66">
+      <c r="F5" s="42">
         <v>2</v>
       </c>
-      <c r="G5" s="66">
+      <c r="G5" s="42">
         <v>7.5</v>
       </c>
-      <c r="H5" s="66">
+      <c r="H5" s="42">
         <v>10</v>
       </c>
+      <c r="J5" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" s="39">
+        <f>S9</f>
+        <v>5</v>
+      </c>
+      <c r="L5" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="39" cm="1">
+        <f t="array" ref="M5">_xlfn.IFS(L5="+",ROUNDDOWN($K$5 * (1 + W5) ^ 1,2),L5="=",K5)</f>
+        <v>6</v>
+      </c>
+      <c r="N5" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="39" cm="1">
+        <f t="array" ref="O5">_xlfn.IFS(N5="+",ROUNDDOWN($K$5 * (1 + W5) ^ 2,2),N5="=",K5)</f>
+        <v>7.2</v>
+      </c>
+      <c r="P5" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="39" cm="1">
+        <f t="array" ref="Q5">_xlfn.IFS(P5="+",ROUNDDOWN($K$5 * (1 + W5) ^ 3,2),P5="=",O5)</f>
+        <v>8.64</v>
+      </c>
+      <c r="R5" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" s="39" cm="1">
+        <f t="array" ref="S5">_xlfn.IFS(R5="+",ROUNDDOWN($K$5 * (1 + W5) ^ 4,2),R5="=",Q5)</f>
+        <v>10.36</v>
+      </c>
+      <c r="T5" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="U5" s="39" cm="1">
+        <f t="array" ref="U5">_xlfn.IFS(T5="+",ROUNDDOWN($K$5 * (1 + W5) ^ 5,2),T5="=",S5)</f>
+        <v>12.44</v>
+      </c>
+      <c r="V5" s="22"/>
+      <c r="W5" s="20">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="str">
+      <c r="A6" s="19" t="str">
         <f t="shared" si="0"/>
         <v>4_Ghos_Norm</v>
       </c>
-      <c r="B6" s="58">
+      <c r="B6" s="38">
         <v>4</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="40">
         <f t="shared" ref="E6:E11" si="1">E3</f>
         <v>10</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="40">
         <f t="shared" ref="F6:H6" si="2">F3</f>
         <v>3</v>
       </c>
-      <c r="G6" s="60">
+      <c r="G6" s="40">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H6" s="60">
+      <c r="H6" s="40">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
+      <c r="J6" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="40">
+        <f>U9</f>
+        <v>5</v>
+      </c>
+      <c r="L6" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="40" cm="1">
+        <f t="array" ref="M6">_xlfn.IFS(L6="+",ROUNDDOWN($K$6 * (1 + W6) ^ 1,2),L6="=",K6)</f>
+        <v>7.5</v>
+      </c>
+      <c r="N6" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="40" cm="1">
+        <f t="array" ref="O6">_xlfn.IFS(L6="+",ROUNDDOWN($K$6 * (1 + W6) ^ 2,2),L6="=",K6)</f>
+        <v>11.25</v>
+      </c>
+      <c r="P6" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="40" cm="1">
+        <f t="array" ref="Q6">_xlfn.IFS(L6="+",ROUNDDOWN($K$6 * (1 + W6) ^ 3,2),L6="=",K6)</f>
+        <v>16.87</v>
+      </c>
+      <c r="R6" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" s="40" cm="1">
+        <f t="array" ref="S6">_xlfn.IFS(L6="+",ROUNDDOWN($K$6 * (1 + W6) ^ 4,2),L6="=",K6)</f>
+        <v>25.31</v>
+      </c>
+      <c r="T6" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="U6" s="40" cm="1">
+        <f t="array" ref="U6">_xlfn.IFS(L6="+",ROUNDDOWN($K$6 * (1 + W6) ^ 5,2),L6="=",K6)</f>
+        <v>37.96</v>
+      </c>
+      <c r="V6" s="22"/>
+      <c r="W6" s="19">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="str">
+      <c r="A7" s="20" t="str">
         <f t="shared" si="0"/>
         <v>5_Ghos_Inta</v>
       </c>
-      <c r="B7" s="58">
+      <c r="B7" s="38">
         <v>5</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="59">
+      <c r="E7" s="39">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F7" s="59">
+      <c r="F7" s="39">
         <f t="shared" ref="F7:H7" si="3">F4</f>
         <v>5</v>
       </c>
-      <c r="G7" s="59">
+      <c r="G7" s="39">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H7" s="59">
+      <c r="H7" s="39">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="str">
+      <c r="A8" s="19" t="str">
         <f t="shared" si="0"/>
         <v>6_Ghos_Sabo</v>
       </c>
-      <c r="B8" s="58">
+      <c r="B8" s="38">
         <v>6</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="40">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="40">
         <f t="shared" ref="F8:H8" si="4">F5</f>
         <v>2</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="40">
         <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="40">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
+      <c r="J8" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="str">
+      <c r="A9" s="20" t="str">
         <f t="shared" si="0"/>
         <v>7_Vege_Norm</v>
       </c>
-      <c r="B9" s="58">
+      <c r="B9" s="38">
         <v>7</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="39">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F9" s="59">
+      <c r="F9" s="39">
         <f t="shared" ref="F9:H9" si="5">F6</f>
         <v>3</v>
       </c>
-      <c r="G9" s="59">
+      <c r="G9" s="39">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="H9" s="59">
+      <c r="H9" s="39">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
+      <c r="J9" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K9" s="53" t="str">
+        <f>VLOOKUP($J$9,ENEMY,3)</f>
+        <v>Insect</v>
+      </c>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53" t="str">
+        <f>VLOOKUP($J$9,ENEMY,4)</f>
+        <v>Normal</v>
+      </c>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53">
+        <f>VLOOKUP($J$9,ENEMY,5)</f>
+        <v>10</v>
+      </c>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53">
+        <f>VLOOKUP($J$9,ENEMY,6)</f>
+        <v>3</v>
+      </c>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53">
+        <f>VLOOKUP($J$9,ENEMY,7)</f>
+        <v>5</v>
+      </c>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53">
+        <f>VLOOKUP($J$9,ENEMY,8)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="str">
+      <c r="A10" s="19" t="str">
         <f t="shared" si="0"/>
         <v>8_Vege_Inta</v>
       </c>
-      <c r="B10" s="58">
+      <c r="B10" s="38">
         <v>8</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="40">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="40">
         <f t="shared" ref="F10:H10" si="6">F7</f>
         <v>5</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="40">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="H10" s="60">
+      <c r="H10" s="40">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="str">
+      <c r="A11" s="20" t="str">
         <f t="shared" si="0"/>
         <v>9_Vege_Sabo</v>
       </c>
-      <c r="B11" s="58">
+      <c r="B11" s="38">
         <v>9</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="39">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="39">
         <f t="shared" ref="F11:H11" si="7">F8</f>
         <v>2</v>
       </c>
-      <c r="G11" s="59">
+      <c r="G11" s="39">
         <f t="shared" si="7"/>
         <v>7.5</v>
       </c>
-      <c r="H11" s="59">
+      <c r="H11" s="39">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="61"/>
+      <c r="B12" s="83"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E13">
+      <c r="C13" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="58"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C14" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C16" s="39">
         <f>E3*F3</f>
         <v>30</v>
       </c>
-      <c r="G13">
+      <c r="D16" s="39">
         <f>G3/E3</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E14">
-        <f t="shared" ref="E14:E15" si="8">E4*F4</f>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="40">
+        <f>E4*F4</f>
         <v>30</v>
       </c>
-      <c r="G14">
-        <f t="shared" ref="G14:G15" si="9">G4/E4</f>
+      <c r="D17" s="40">
+        <f>G4/E4</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E15">
-        <f t="shared" si="8"/>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="39">
+        <f>E5*F5</f>
         <v>30</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="9"/>
+      <c r="D18" s="39">
+        <f>G5/E5</f>
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <mergeCells count="3">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+  </mergeCells>
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C11" xr:uid="{F0CFF0F4-7CFA-4B01-9C74-8489484BAAD3}">
       <formula1>CAT_ENEMIES</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D11" xr:uid="{425E8E53-AC8E-422D-AE8E-D604EB9F6490}">
       <formula1>TYP_ENEMIES</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J6" xr:uid="{B4AE7A1A-FD16-404C-A5D9-BB5D0F6C8E88}">
+      <formula1>STAT_ENEMY</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T6 L3:L6 N3:N6 P3:P6 R3:R6" xr:uid="{6DAA55C9-B8EB-4C00-8C56-104CDDC61579}">
+      <formula1>SIGN</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9" xr:uid="{A1612BDB-6C62-4CBA-956B-64B7B4954F20}">
+      <formula1>CODE_ENEMIES</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9" xr:uid="{277CD66C-1CF4-4515-9E8D-B39BB93AF8B7}">
+      <formula1>CODE_ENEMIES</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{6FCD8B1C-165A-4C57-BA57-04931B29562A}">
+            <xm:f>NOT(ISERROR(SEARCH("=",L3)))</xm:f>
+            <xm:f>"="</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L3:L6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{88DF42B1-C3DA-4AE4-9D2C-60B9C37D472B}">
+            <xm:f>NOT(ISERROR(SEARCH("+",L3)))</xm:f>
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L3:L6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{7CD67BAE-001C-4926-8BD1-D618BC567139}">
+            <xm:f>NOT(ISERROR(SEARCH("=",N3)))</xm:f>
+            <xm:f>"="</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N3:N6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{9A97B82A-C8FF-484D-A179-AFE50BF821AA}">
+            <xm:f>NOT(ISERROR(SEARCH("+",N3)))</xm:f>
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N3:N6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{6299027F-2EBC-47F3-B00F-34085291793F}">
+            <xm:f>NOT(ISERROR(SEARCH("=",P3)))</xm:f>
+            <xm:f>"="</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>P3:P6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{C2F37EE2-AA7B-49B2-B0DB-F2AF397699F7}">
+            <xm:f>NOT(ISERROR(SEARCH("+",P3)))</xm:f>
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>P3:P6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{9FBFD2B7-15F0-4025-ADFB-FCDBFDD48A62}">
+            <xm:f>NOT(ISERROR(SEARCH("=",R3)))</xm:f>
+            <xm:f>"="</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>R3:R6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{54B7A8A3-96F0-4469-B48D-56D75442D006}">
+            <xm:f>NOT(ISERROR(SEARCH("+",R3)))</xm:f>
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>R3:R6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{D0553422-FFDE-41E1-A882-6286AC95A0B6}">
+            <xm:f>NOT(ISERROR(SEARCH("=",T3)))</xm:f>
+            <xm:f>"="</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>T3:T6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{8C46250D-3C62-47E5-AA26-68AF7A92EDE0}">
+            <xm:f>NOT(ISERROR(SEARCH("+",T3)))</xm:f>
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>T3:T6</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9045D55D-CDD5-4A2E-B7B4-999FBD02BF13}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" style="66" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="66" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="66" customWidth="1"/>
+    <col min="4" max="6" width="11.42578125" style="66"/>
+    <col min="7" max="9" width="11.42578125" style="66" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="66"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="82">
+        <v>1</v>
+      </c>
+      <c r="B1" s="82">
+        <v>2</v>
+      </c>
+      <c r="C1" s="82">
+        <v>3</v>
+      </c>
+      <c r="D1" s="82">
+        <v>4</v>
+      </c>
+      <c r="E1" s="82">
+        <v>5</v>
+      </c>
+      <c r="F1" s="82">
+        <v>6</v>
+      </c>
+      <c r="G1" s="82">
+        <v>7</v>
+      </c>
+      <c r="H1" s="82">
+        <v>8</v>
+      </c>
+      <c r="I1" s="82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="86" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="str">
+        <f>_xlfn.CONCAT(B3,"_",LEFT(C3,4),"_",(LEFT(D3,4)))</f>
+        <v>1_Food_Snip</v>
+      </c>
+      <c r="B3" s="38">
+        <v>1</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="42">
+        <v>6</v>
+      </c>
+      <c r="F3" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="G3" s="42">
+        <v>5</v>
+      </c>
+      <c r="H3" s="42">
+        <v>10</v>
+      </c>
+      <c r="I3" s="42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="str">
+        <f t="shared" ref="A4:A11" si="0">_xlfn.CONCAT(B4,"_",LEFT(C4,4),"_",(LEFT(D4,4)))</f>
+        <v>2_Food_Mort</v>
+      </c>
+      <c r="B4" s="38">
+        <v>2</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="42">
+        <v>4</v>
+      </c>
+      <c r="F4" s="42">
+        <v>1</v>
+      </c>
+      <c r="G4" s="42">
+        <v>4</v>
+      </c>
+      <c r="H4" s="42">
+        <v>15</v>
+      </c>
+      <c r="I4" s="40">
+        <f>I3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>3_Food_Cano</v>
+      </c>
+      <c r="B5" s="38">
+        <v>3</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="42">
+        <v>3</v>
+      </c>
+      <c r="F5" s="42">
+        <v>0.75</v>
+      </c>
+      <c r="G5" s="42">
+        <v>3.5</v>
+      </c>
+      <c r="H5" s="42">
+        <v>20</v>
+      </c>
+      <c r="I5" s="39">
+        <f>I3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>4_Trap_Snip</v>
+      </c>
+      <c r="B6" s="38">
+        <v>4</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="40">
+        <f>E3</f>
+        <v>6</v>
+      </c>
+      <c r="F6" s="40">
+        <f t="shared" ref="F6:G6" si="1">F3</f>
+        <v>1.5</v>
+      </c>
+      <c r="G6" s="40">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H6" s="40">
+        <f>H3</f>
+        <v>10</v>
+      </c>
+      <c r="I6" s="40">
+        <f>I3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>5_Trap_Mort</v>
+      </c>
+      <c r="B7" s="38">
+        <v>5</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="39">
+        <f>E4</f>
+        <v>4</v>
+      </c>
+      <c r="F7" s="39">
+        <f t="shared" ref="F7:G7" si="2">F4</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="39">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H7" s="39">
+        <f>H4</f>
+        <v>15</v>
+      </c>
+      <c r="I7" s="39">
+        <f>I3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>6_Trap_Cano</v>
+      </c>
+      <c r="B8" s="38">
+        <v>6</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="40">
+        <f>E5</f>
+        <v>3</v>
+      </c>
+      <c r="F8" s="40">
+        <f t="shared" ref="F8:G8" si="3">F5</f>
+        <v>0.75</v>
+      </c>
+      <c r="G8" s="40">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="H8" s="40">
+        <f>H5</f>
+        <v>20</v>
+      </c>
+      <c r="I8" s="40">
+        <f>I3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>7_Ener_Snip</v>
+      </c>
+      <c r="B9" s="38">
+        <v>7</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="39">
+        <f>E3</f>
+        <v>6</v>
+      </c>
+      <c r="F9" s="39">
+        <f t="shared" ref="F9:G9" si="4">F3</f>
+        <v>1.5</v>
+      </c>
+      <c r="G9" s="39">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H9" s="39">
+        <f>H3</f>
+        <v>10</v>
+      </c>
+      <c r="I9" s="39">
+        <f>I3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>8_Ener_Mort</v>
+      </c>
+      <c r="B10" s="38">
+        <v>8</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="40">
+        <f>E4</f>
+        <v>4</v>
+      </c>
+      <c r="F10" s="40">
+        <f t="shared" ref="F10:G10" si="5">F4</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="40">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="H10" s="40">
+        <f>H4</f>
+        <v>15</v>
+      </c>
+      <c r="I10" s="40">
+        <f>I3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>9_Ener_Cano</v>
+      </c>
+      <c r="B11" s="38">
+        <v>9</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="39">
+        <f>E5</f>
+        <v>3</v>
+      </c>
+      <c r="F11" s="39">
+        <f t="shared" ref="F11:G11" si="6">F5</f>
+        <v>0.75</v>
+      </c>
+      <c r="G11" s="39">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="H11" s="39">
+        <f>H5</f>
+        <v>20</v>
+      </c>
+      <c r="I11" s="39">
+        <f>I3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="58"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="39">
+        <f>E3/F3</f>
+        <v>4</v>
+      </c>
+      <c r="D16" s="39">
+        <f>H3*F3</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="40">
+        <f>E4/F4</f>
+        <v>4</v>
+      </c>
+      <c r="D17" s="40">
+        <f>H4*F4</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="39">
+        <f>E5/F5</f>
+        <v>4</v>
+      </c>
+      <c r="D18" s="39">
+        <f>H5*F5</f>
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C11" xr:uid="{A0725771-D6FB-4BCA-A3AB-AFBEDB867F7D}">
+      <formula1>CAT_TOWER</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D11" xr:uid="{D4ACF00F-8B37-485F-B591-1B056AFC903B}">
+      <formula1>TYP_TOWER</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3518,463 +4536,42 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768879D7-3D01-4A98-A323-932C5472C860}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E209A4F-8D58-4AE9-8037-95CB3F80F4D1}">
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9045D55D-CDD5-4A2E-B7B4-999FBD02BF13}">
-  <dimension ref="A1:I17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" style="66" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="47">
-        <v>1</v>
-      </c>
-      <c r="B1" s="47">
-        <v>2</v>
-      </c>
-      <c r="C1" s="47">
-        <v>3</v>
-      </c>
-      <c r="D1" s="47">
-        <v>4</v>
-      </c>
-      <c r="E1" s="47">
-        <v>5</v>
-      </c>
-      <c r="F1" s="47">
-        <v>6</v>
-      </c>
-      <c r="G1" s="47">
-        <v>7</v>
-      </c>
-      <c r="H1" s="57">
-        <v>8</v>
-      </c>
-      <c r="I1" s="57">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9">
-        <v>2</v>
-      </c>
-      <c r="C2" s="9">
-        <v>3</v>
-      </c>
-      <c r="D2" s="9">
-        <v>4</v>
-      </c>
-      <c r="E2" s="9">
-        <v>5</v>
-      </c>
-      <c r="F2" s="9">
-        <v>6</v>
-      </c>
-      <c r="G2" s="9">
-        <v>7</v>
-      </c>
-      <c r="H2" s="9">
-        <v>8</v>
-      </c>
-      <c r="I2" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="71" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="str">
-        <f>_xlfn.CONCAT(B4,"_",LEFT(C4,4),"_",(LEFT(D4,4)))</f>
-        <v>1_Food_Snip</v>
-      </c>
-      <c r="B4" s="58">
-        <v>1</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="66">
-        <v>6</v>
-      </c>
-      <c r="F4" s="66">
-        <v>1.5</v>
-      </c>
-      <c r="G4" s="66">
-        <v>5</v>
-      </c>
-      <c r="H4" s="66">
-        <v>10</v>
-      </c>
-      <c r="I4" s="66">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="str">
-        <f t="shared" ref="A5:A12" si="0">_xlfn.CONCAT(B5,"_",LEFT(C5,4),"_",(LEFT(D5,4)))</f>
-        <v>2_Food_Mort</v>
-      </c>
-      <c r="B5" s="58">
-        <v>2</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="66">
-        <v>4</v>
-      </c>
-      <c r="F5" s="66">
-        <v>1</v>
-      </c>
-      <c r="G5" s="66">
-        <v>4</v>
-      </c>
-      <c r="H5" s="66">
-        <v>15</v>
-      </c>
-      <c r="I5" s="60">
-        <f>I4</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>3_Food_Cano</v>
-      </c>
-      <c r="B6" s="58">
-        <v>3</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="66">
-        <v>3</v>
-      </c>
-      <c r="F6" s="66">
-        <v>0.75</v>
-      </c>
-      <c r="G6" s="66">
-        <v>3.5</v>
-      </c>
-      <c r="H6" s="66">
-        <v>20</v>
-      </c>
-      <c r="I6" s="59">
-        <f>I4</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>4_Trap_Snip</v>
-      </c>
-      <c r="B7" s="58">
-        <v>4</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="60">
-        <f>E4</f>
-        <v>6</v>
-      </c>
-      <c r="F7" s="60">
-        <f t="shared" ref="F7:G7" si="1">F4</f>
-        <v>1.5</v>
-      </c>
-      <c r="G7" s="60">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H7" s="60">
-        <f>H4</f>
-        <v>10</v>
-      </c>
-      <c r="I7" s="60">
-        <f>I4</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>5_Trap_Mort</v>
-      </c>
-      <c r="B8" s="58">
-        <v>5</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="59">
-        <f>E5</f>
-        <v>4</v>
-      </c>
-      <c r="F8" s="59">
-        <f t="shared" ref="F8:G8" si="2">F5</f>
-        <v>1</v>
-      </c>
-      <c r="G8" s="59">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H8" s="59">
-        <f>H5</f>
-        <v>15</v>
-      </c>
-      <c r="I8" s="59">
-        <f>I4</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>6_Trap_Cano</v>
-      </c>
-      <c r="B9" s="58">
-        <v>6</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="60">
-        <f>E6</f>
-        <v>3</v>
-      </c>
-      <c r="F9" s="60">
-        <f t="shared" ref="F9:G9" si="3">F6</f>
-        <v>0.75</v>
-      </c>
-      <c r="G9" s="60">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="H9" s="60">
-        <f>H6</f>
-        <v>20</v>
-      </c>
-      <c r="I9" s="60">
-        <f>I4</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>7_Ener_Snip</v>
-      </c>
-      <c r="B10" s="58">
-        <v>7</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="59">
-        <f>E4</f>
-        <v>6</v>
-      </c>
-      <c r="F10" s="59">
-        <f t="shared" ref="F10:G10" si="4">F4</f>
-        <v>1.5</v>
-      </c>
-      <c r="G10" s="59">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="H10" s="59">
-        <f>H4</f>
-        <v>10</v>
-      </c>
-      <c r="I10" s="59">
-        <f>I4</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>8_Ener_Mort</v>
-      </c>
-      <c r="B11" s="58">
-        <v>8</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="60">
-        <f>E5</f>
-        <v>4</v>
-      </c>
-      <c r="F11" s="60">
-        <f t="shared" ref="F11:G11" si="5">F5</f>
-        <v>1</v>
-      </c>
-      <c r="G11" s="60">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="H11" s="60">
-        <f>H5</f>
-        <v>15</v>
-      </c>
-      <c r="I11" s="60">
-        <f>I4</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>9_Ener_Cano</v>
-      </c>
-      <c r="B12" s="58">
-        <v>9</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="59">
-        <f>E6</f>
-        <v>3</v>
-      </c>
-      <c r="F12" s="59">
-        <f t="shared" ref="F12:G12" si="6">F6</f>
-        <v>0.75</v>
-      </c>
-      <c r="G12" s="59">
-        <f t="shared" si="6"/>
-        <v>3.5</v>
-      </c>
-      <c r="H12" s="59">
-        <f>H6</f>
-        <v>20</v>
-      </c>
-      <c r="I12" s="59">
-        <f>I4</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E15">
-        <f>E4/F4</f>
-        <v>4</v>
-      </c>
-      <c r="H15">
-        <f>H4*F4</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E16">
-        <f t="shared" ref="E16:E17" si="7">E5/F5</f>
-        <v>4</v>
-      </c>
-      <c r="H16">
-        <f>H5*F5</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E17">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="H17">
-        <f>H6*F6</f>
-        <v>15</v>
-      </c>
+      <c r="A1" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="88" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C12" xr:uid="{A0725771-D6FB-4BCA-A3AB-AFBEDB867F7D}">
-      <formula1>CAT_TOWER</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12" xr:uid="{D4ACF00F-8B37-485F-B591-1B056AFC903B}">
-      <formula1>TYP_TOWER</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3984,162 +4581,165 @@
   <dimension ref="B2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="66"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="66">
         <v>1</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="66">
         <v>2</v>
       </c>
-      <c r="G4" s="84" t="str">
+      <c r="G4" s="65" t="str">
         <f>HLOOKUP(G3,C2:E5,VLOOKUP(H3,B3:F5,5,FALSE)+1,FALSE)</f>
         <v>+</v>
       </c>
-      <c r="H4" s="84"/>
+      <c r="H4" s="65"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="66">
         <v>3</v>
       </c>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="67"/>
+      <c r="C7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="66">
         <v>1</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="66">
         <v>2</v>
       </c>
-      <c r="G9" s="84" t="str">
+      <c r="G9" s="65" t="str">
         <f>HLOOKUP(G8,C7:E10,VLOOKUP(H8,B8:F10,5,FALSE)+1,FALSE)</f>
         <v>=</v>
       </c>
-      <c r="H9" s="84"/>
+      <c r="H9" s="65"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="66">
         <v>3</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4317,231 +4917,246 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B37B0DA-040C-4E1A-930F-48D7F5CF8BC3}">
-  <dimension ref="B1:H20"/>
+  <dimension ref="B1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="2.85546875" customWidth="1"/>
-    <col min="5" max="5" width="2.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="2.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="2.85546875" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="66" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" style="66" customWidth="1"/>
+    <col min="4" max="4" width="10" style="66" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" style="66" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="66" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" style="66" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="66" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" style="66" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" style="66" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="J1" s="68" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="71"/>
+      <c r="F2" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="74" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="J2" s="74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="71"/>
+      <c r="F3" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="J3" s="74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="25" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="71"/>
+      <c r="F4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
+      <c r="H4" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="78" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5" t="s">
+      <c r="C6" s="71"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="70" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5" t="s">
+      <c r="C7" s="71"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="68" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="74" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="74" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="78" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="74" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="68" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F13" s="3" t="s">
+    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="74" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="H14" s="2" t="s">
+    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="74" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="63" t="s">
+    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="78" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="64" t="s">
+      <c r="F16" s="81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="64" t="s">
+      <c r="F17" s="74" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="64" t="s">
+      <c r="F18" s="78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="64" t="s">
+    </row>
+    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="76" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="65" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4552,21 +5167,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100841444F490B10C45A279B0383115D26D" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="91c543cf6706f2108a45fe2b21185738">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c3a97ae1-1078-4f52-97c7-e1e75f184270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6cf98f67490a83722a01f9dfd5fe46d6" ns3:_="">
     <xsd:import namespace="c3a97ae1-1078-4f52-97c7-e1e75f184270"/>
@@ -4698,10 +5298,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{382CAFBC-27A9-4D0E-A532-4CEEC1A7F497}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02023A10-1816-44FB-8F7C-8B09E93BD20F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c3a97ae1-1078-4f52-97c7-e1e75f184270"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4723,19 +5348,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02023A10-1816-44FB-8F7C-8B09E93BD20F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{382CAFBC-27A9-4D0E-A532-4CEEC1A7F497}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c3a97ae1-1078-4f52-97c7-e1e75f184270"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documents/GameDesign/System_Design.xlsx
+++ b/Documents/GameDesign/System_Design.xlsx
@@ -8,33 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin DIJOUX\Documents\Unity\Workshop_TowerDefense\STD_Workshop\Documents\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C605E1-8A21-44F5-A2A0-D7C0E0DAF051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A98E60-262D-4350-BE83-37815DA60677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EE4EEEAB-A39E-4793-9971-E358DB8AAF6E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{EE4EEEAB-A39E-4793-9971-E358DB8AAF6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="6" r:id="rId1"/>
     <sheet name="TowerStatsCalc" sheetId="1" r:id="rId2"/>
     <sheet name="Enemies" sheetId="3" r:id="rId3"/>
     <sheet name="Tower" sheetId="4" r:id="rId4"/>
-    <sheet name="Train" sheetId="8" r:id="rId5"/>
-    <sheet name="Weak" sheetId="5" r:id="rId6"/>
-    <sheet name="Data" sheetId="2" r:id="rId7"/>
+    <sheet name="Weak" sheetId="5" r:id="rId5"/>
+    <sheet name="Data" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="CAT_ENEMIES">Data!$H$8:$H$10</definedName>
-    <definedName name="CAT_TOWER">Data!$F$11:$F$13</definedName>
+    <definedName name="CAT_TOWER">Data!$F$9:$F$11</definedName>
     <definedName name="CODE_ENEMIES">Enemies!$A$3:$A$11</definedName>
     <definedName name="CODE_TOWER">Tower!$A$3:$A$11</definedName>
     <definedName name="ENEMY">Enemies!$A$3:$H$11</definedName>
     <definedName name="LEVEL_ENEMY">Data!$B$15:$B$20</definedName>
     <definedName name="SIGN">Data!$D$2:$D$4</definedName>
     <definedName name="STAT_ENEMY">Data!$H$2:$H$5</definedName>
-    <definedName name="STAT_TOWER">Data!$F$2:$F$8</definedName>
+    <definedName name="STAT_TOWER">Data!$F$2:$F$6</definedName>
     <definedName name="STAT_TRAIN">Data!$J$2:$J$4</definedName>
-    <definedName name="TOWER">Tower!$A$3:$H$11</definedName>
+    <definedName name="TOWER">Tower!$A$3:$I$11</definedName>
     <definedName name="TYP_ENEMIES">Data!$H$13:$H$15</definedName>
-    <definedName name="TYP_TOWER">Data!$F$16:$F$18</definedName>
+    <definedName name="TYP_TOWER">Data!$F$14:$F$16</definedName>
     <definedName name="UPGRADE">Data!$B$7:$B$12</definedName>
     <definedName name="WEAK_ENEMY">Weak!$B$3:$F$5</definedName>
     <definedName name="WEAK_TOWER">Weak!$C$2:$E$5</definedName>
@@ -82,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="128">
   <si>
     <t>Upgrade 1</t>
   </si>
@@ -456,22 +455,16 @@
     <t>Speed / HP</t>
   </si>
   <si>
-    <t>Lvl 1</t>
-  </si>
-  <si>
-    <t>Lvl 2</t>
-  </si>
-  <si>
-    <t>Lvl 3</t>
-  </si>
-  <si>
-    <t>Lvl 4</t>
-  </si>
-  <si>
     <t>1_Inse_Norm</t>
   </si>
   <si>
     <t>HP / Damage</t>
+  </si>
+  <si>
+    <t>Upgrade Cost</t>
+  </si>
+  <si>
+    <t>1_Food_Snip</t>
   </si>
 </sst>
 </file>
@@ -743,7 +736,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -896,40 +889,16 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
@@ -981,11 +950,62 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -993,7 +1013,7 @@
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
     <cellStyle name="Titre 3" xfId="2" builtinId="18"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="39">
     <dxf>
       <fill>
         <patternFill>
@@ -1075,6 +1095,20 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1575,7 +1609,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C38" sqref="C37:C38"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1811,7 +1845,7 @@
   <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1839,10 +1873,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="60"/>
+      <c r="B1" s="81"/>
       <c r="C1" s="17" t="s">
         <v>14</v>
       </c>
@@ -1879,7 +1913,7 @@
       <c r="W1" s="26"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="85" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -1927,7 +1961,7 @@
       <c r="O2" s="20">
         <v>0.3</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="Q2" s="86" t="s">
         <v>77</v>
       </c>
       <c r="T2" s="26"/>
@@ -1936,7 +1970,7 @@
       <c r="W2" s="26"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
+      <c r="A3" s="85"/>
       <c r="B3" s="7" t="s">
         <v>18</v>
       </c>
@@ -1982,14 +2016,14 @@
       <c r="O3" s="19">
         <v>0.1</v>
       </c>
-      <c r="Q3" s="54"/>
+      <c r="Q3" s="86"/>
       <c r="T3" s="26"/>
       <c r="U3" s="26"/>
       <c r="V3" s="26"/>
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
+      <c r="A4" s="85"/>
       <c r="B4" s="29" t="s">
         <v>10</v>
       </c>
@@ -2041,7 +2075,7 @@
       <c r="W4" s="26"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="46" t="s">
         <v>44</v>
       </c>
@@ -2053,22 +2087,22 @@
         <v>16</v>
       </c>
       <c r="E5" s="48" cm="1">
-        <f t="array" ref="E5">_xlfn.IFS(D5="+",ROUNDDOWN(C5*(1+$O$5),2),D5="=",C5)</f>
+        <f t="array" ref="E5">_xlfn.IFS(D5="+",ROUNDDOWN(C5*(1+$O$5),0),D5="=",C5)</f>
         <v>18</v>
       </c>
       <c r="F5" s="48" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="48" cm="1">
-        <f t="array" ref="G5">_xlfn.IFS(F5="+",ROUNDDOWN(E5*(1+$O$5),2),F5="=",E5)</f>
+        <f t="array" ref="G5">_xlfn.IFS(F5="+",ROUNDDOWN(E5*(1+$O$5),0),F5="=",E5)</f>
         <v>18</v>
       </c>
       <c r="H5" s="48" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="48" cm="1">
-        <f t="array" ref="I5">_xlfn.IFS(H5="+",ROUNDDOWN(G5*(1+$O$5),2),H5="=",G5)</f>
-        <v>21.6</v>
+        <f t="array" ref="I5">_xlfn.IFS(H5="+",ROUNDDOWN(G5*(1+$O$5),0),H5="=",G5)</f>
+        <v>21</v>
       </c>
       <c r="J5" s="48" t="s">
         <v>16</v>
@@ -2093,7 +2127,7 @@
       <c r="W5" s="26"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
+      <c r="A6" s="85"/>
       <c r="B6" s="29" t="s">
         <v>108</v>
       </c>
@@ -2144,7 +2178,7 @@
       <c r="W6" s="26"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
+      <c r="A7" s="85"/>
       <c r="B7" s="46" t="s">
         <v>11</v>
       </c>
@@ -2184,7 +2218,7 @@
       <c r="W7" s="26"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="29" t="s">
         <v>12</v>
       </c>
@@ -2224,7 +2258,7 @@
       <c r="W8" s="26"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="46" t="s">
         <v>13</v>
       </c>
@@ -2609,7 +2643,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C20" s="35" t="str">
         <f>VLOOKUP($B$20,ENEMY,3)</f>
@@ -2712,13 +2746,13 @@
         <v>91</v>
       </c>
       <c r="C24" s="34"/>
-      <c r="E24" s="58" t="s">
+      <c r="E24" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
       <c r="K24" s="34" t="s">
         <v>46</v>
       </c>
@@ -2729,21 +2763,21 @@
       <c r="R24" s="26"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="55">
+      <c r="B25" s="87">
         <f>ROUND(O10*K26*I26,2)</f>
         <v>62.28</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="E25" s="61" t="str">
+      <c r="C25" s="87"/>
+      <c r="E25" s="82" t="str">
         <f>C22</f>
         <v>Traps</v>
       </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61" t="str">
+      <c r="F25" s="82"/>
+      <c r="G25" s="82" t="str">
         <f>C20</f>
         <v>Insect</v>
       </c>
-      <c r="H25" s="61"/>
+      <c r="H25" s="82"/>
       <c r="I25" s="18" t="s">
         <v>42</v>
       </c>
@@ -2756,34 +2790,34 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E26" s="62" t="str">
+      <c r="E26" s="83" t="str">
         <f>HLOOKUP(C22,WEAK_TOWER,VLOOKUP(C20,WEAK_ENEMY,5,FALSE)+1,FALSE)</f>
         <v>+</v>
       </c>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="59" cm="1">
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="79" cm="1">
         <f t="array" ref="I26">_xlfn.IFS(E26="-", 1-O8, E26="=",1,E26="+",1+O8)</f>
         <v>1.2</v>
       </c>
-      <c r="K26" s="59" cm="1">
+      <c r="K26" s="79" cm="1">
         <f t="array" ref="K26">_xlfn.IFS(K25="Upgrade 0",C10,K25="Upgrade 1",E10,K25="Upgrade 2",G10,K25="Upgrade 3",I10,K25="Upgrade 4",K10,K25="Upgrade 5",M10)</f>
         <v>25.95</v>
       </c>
-      <c r="M26" s="59" cm="1">
+      <c r="M26" s="79" cm="1">
         <f t="array" ref="M26">_xlfn.IFS(M25="LVL 0",C14,M25="LVL 1",E14,M25="LVL 2",G14,M25="LVL 3",I14,M25="LVL 4",K14,M25="LVL 5",M14)</f>
         <v>75.930000000000007</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="M27" s="59"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="M27" s="79"/>
       <c r="O27" s="23"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -2795,16 +2829,16 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="H29" s="58" t="s">
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="H29" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="I29" s="58"/>
+      <c r="I29" s="80"/>
       <c r="K29" s="48" cm="1">
         <f t="array" ref="K29">_xlfn.IFS(K25="Upgrade 0",C5,K25="Upgrade 1",E5,K25="Upgrade 2",G5,K25="Upgrade 3",I5,K25="Upgrade 4",K5,K25="Upgrade 5",M5)</f>
         <v>30</v>
@@ -2817,19 +2851,19 @@
       <c r="O29" s="27"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58" t="s">
+      <c r="D30" s="80"/>
+      <c r="E30" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="58"/>
-      <c r="H30" s="59" t="str">
+      <c r="F30" s="80"/>
+      <c r="H30" s="79" t="str">
         <f>_xlfn.CONCAT(K29*K31," s")</f>
         <v>17,1 s</v>
       </c>
-      <c r="I30" s="59"/>
+      <c r="I30" s="79"/>
       <c r="K30" s="47" t="s">
         <v>18</v>
       </c>
@@ -2840,45 +2874,45 @@
         <f>_xlfn.CONCAT(K25," ",K24)</f>
         <v>Upgrade 5 DPS</v>
       </c>
-      <c r="C31" s="56">
+      <c r="C31" s="88">
         <f>ROUNDDOWN($M$26/B25,2)</f>
         <v>1.21</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="57">
+      <c r="D31" s="88"/>
+      <c r="E31" s="89">
         <f>ROUNDUP($M$26/B25,0)</f>
         <v>2</v>
       </c>
-      <c r="F31" s="57"/>
+      <c r="F31" s="89"/>
       <c r="G31" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="H31" s="58" t="s">
+      <c r="H31" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="I31" s="58"/>
+      <c r="I31" s="80"/>
       <c r="K31" s="48" cm="1">
         <f t="array" ref="K31">_xlfn.IFS(K25="Upgrade 0",C3,K25="Upgrade 1",E3,K25="Upgrade 2",G3,K25="Upgrade 3",I3,K25="Upgrade 4",K3,K25="Upgrade 5",M3)</f>
         <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C32" s="59" t="str">
+      <c r="C32" s="79" t="str">
         <f>_xlfn.CONCAT(E31*K31," s")</f>
         <v>1,14 s</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
       <c r="G32" s="49">
         <f>E6+G6+I6+K6+M6</f>
         <v>3630</v>
       </c>
-      <c r="H32" s="59">
+      <c r="H32" s="79">
         <f>ROUNDUP(K33/M29,0)</f>
         <v>60</v>
       </c>
-      <c r="I32" s="59"/>
+      <c r="I32" s="79"/>
       <c r="K32" s="47" t="s">
         <v>112</v>
       </c>
@@ -2930,6 +2964,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E24:I24"/>
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="H32:I32"/>
@@ -2946,11 +2985,6 @@
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="A2:A9"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E24:I24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C31">
@@ -3230,72 +3264,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435E0B1E-C30D-4807-9C0B-B17E796108D4}">
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M30" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="66" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="66" customWidth="1"/>
-    <col min="3" max="9" width="11.42578125" style="66"/>
-    <col min="10" max="10" width="14.28515625" style="66" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="66"/>
-    <col min="12" max="12" width="4.28515625" style="66" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="66"/>
-    <col min="14" max="14" width="4.28515625" style="66" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="66"/>
-    <col min="16" max="16" width="4.28515625" style="66" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="66"/>
-    <col min="18" max="18" width="4.28515625" style="66" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="66" customWidth="1"/>
-    <col min="20" max="20" width="4.28515625" style="66" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" style="66"/>
-    <col min="22" max="22" width="4.28515625" style="66" customWidth="1"/>
-    <col min="23" max="16384" width="11.42578125" style="66"/>
+    <col min="1" max="1" width="14.28515625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="58" customWidth="1"/>
+    <col min="3" max="8" width="11.42578125" style="58"/>
+    <col min="9" max="9" width="4.28515625" style="58" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="58" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="58"/>
+    <col min="12" max="12" width="4.28515625" style="58" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="58"/>
+    <col min="14" max="14" width="4.28515625" style="58" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="58"/>
+    <col min="16" max="16" width="4.28515625" style="58" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="58"/>
+    <col min="18" max="18" width="4.28515625" style="58" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="58" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" style="58" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" style="58"/>
+    <col min="22" max="22" width="4.28515625" style="58" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="58"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="82">
+      <c r="A1" s="74">
         <v>1</v>
       </c>
-      <c r="B1" s="82">
+      <c r="B1" s="74">
         <v>2</v>
       </c>
-      <c r="C1" s="82">
+      <c r="C1" s="74">
         <v>3</v>
       </c>
-      <c r="D1" s="82">
+      <c r="D1" s="74">
         <v>4</v>
       </c>
-      <c r="E1" s="82">
+      <c r="E1" s="74">
         <v>5</v>
       </c>
-      <c r="F1" s="82">
+      <c r="F1" s="74">
         <v>6</v>
       </c>
-      <c r="G1" s="82">
+      <c r="G1" s="74">
         <v>7</v>
       </c>
-      <c r="H1" s="82">
+      <c r="H1" s="74">
         <v>8</v>
       </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74">
+        <v>1</v>
+      </c>
+      <c r="K1" s="74">
+        <v>2</v>
+      </c>
+      <c r="L1" s="74">
+        <v>3</v>
+      </c>
+      <c r="M1" s="74">
+        <v>4</v>
+      </c>
+      <c r="N1" s="74">
+        <v>5</v>
+      </c>
+      <c r="O1" s="74">
+        <v>6</v>
+      </c>
+      <c r="P1" s="74">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="74">
+        <v>8</v>
+      </c>
+      <c r="R1" s="74">
+        <v>9</v>
+      </c>
+      <c r="S1" s="74">
+        <v>10</v>
+      </c>
+      <c r="T1" s="74">
+        <v>11</v>
+      </c>
+      <c r="U1" s="74">
+        <v>12</v>
+      </c>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
     </row>
     <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -3322,7 +3381,7 @@
       <c r="H2" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="I2" s="84"/>
+      <c r="I2" s="76"/>
       <c r="J2" s="22"/>
       <c r="K2" s="50" t="s">
         <v>96</v>
@@ -3378,7 +3437,7 @@
       <c r="H3" s="42">
         <v>5</v>
       </c>
-      <c r="I3" s="85"/>
+      <c r="I3" s="77"/>
       <c r="J3" s="29" t="s">
         <v>31</v>
       </c>
@@ -3452,7 +3511,7 @@
       <c r="H4" s="42">
         <v>2</v>
       </c>
-      <c r="I4" s="85"/>
+      <c r="I4" s="77"/>
       <c r="J4" s="51" t="s">
         <v>73</v>
       </c>
@@ -3769,7 +3828,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K9" s="53" t="str">
         <f>VLOOKUP($J$9,ENEMY,3)</f>
@@ -3864,25 +3923,25 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="83"/>
+      <c r="B12" s="75"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="58"/>
+      <c r="D13" s="80"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="87" t="s">
-        <v>129</v>
+      <c r="D14" s="90" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C16" s="39">
@@ -3920,7 +3979,7 @@
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
   </mergeCells>
-  <dataValidations count="6">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C11" xr:uid="{F0CFF0F4-7CFA-4B01-9C74-8489484BAAD3}">
       <formula1>CAT_ENEMIES</formula1>
     </dataValidation>
@@ -3934,9 +3993,6 @@
       <formula1>SIGN</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9" xr:uid="{A1612BDB-6C62-4CBA-956B-64B7B4954F20}">
-      <formula1>CODE_ENEMIES</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9" xr:uid="{277CD66C-1CF4-4515-9E8D-B39BB93AF8B7}">
       <formula1>CODE_ENEMIES</formula1>
     </dataValidation>
   </dataValidations>
@@ -4093,52 +4149,69 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9045D55D-CDD5-4A2E-B7B4-999FBD02BF13}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="66" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="66" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="66" customWidth="1"/>
-    <col min="4" max="6" width="11.42578125" style="66"/>
-    <col min="7" max="9" width="11.42578125" style="66" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="66"/>
+    <col min="1" max="1" width="14.28515625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="58" customWidth="1"/>
+    <col min="4" max="6" width="11.42578125" style="58"/>
+    <col min="7" max="9" width="11.42578125" style="58" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="58" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="58"/>
+    <col min="12" max="12" width="11.42578125" style="58" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="58"/>
+    <col min="14" max="14" width="4.28515625" style="58" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="58" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" style="58" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="58"/>
+    <col min="18" max="18" width="4.28515625" style="58" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="58"/>
+    <col min="20" max="20" width="4.28515625" style="58" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" style="58"/>
+    <col min="22" max="22" width="4.28515625" style="58" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" style="58"/>
+    <col min="24" max="24" width="4.28515625" style="58" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" style="58"/>
+    <col min="26" max="26" width="4.28515625" style="58" customWidth="1"/>
+    <col min="27" max="16384" width="11.42578125" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="82">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="74">
         <v>1</v>
       </c>
-      <c r="B1" s="82">
+      <c r="B1" s="74">
         <v>2</v>
       </c>
-      <c r="C1" s="82">
+      <c r="C1" s="74">
         <v>3</v>
       </c>
-      <c r="D1" s="82">
+      <c r="D1" s="74">
         <v>4</v>
       </c>
-      <c r="E1" s="82">
+      <c r="E1" s="74">
         <v>5</v>
       </c>
-      <c r="F1" s="82">
+      <c r="F1" s="74">
         <v>6</v>
       </c>
-      <c r="G1" s="82">
+      <c r="G1" s="74">
         <v>7</v>
       </c>
-      <c r="H1" s="82">
+      <c r="H1" s="74">
         <v>8</v>
       </c>
-      <c r="I1" s="82">
+      <c r="I1" s="74">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>21</v>
       </c>
@@ -4160,14 +4233,44 @@
       <c r="G2" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="78" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="81"/>
+      <c r="M2" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="57"/>
+      <c r="O2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="57"/>
+      <c r="S2" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="57"/>
+      <c r="U2" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="57"/>
+      <c r="W2" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="str">
         <f>_xlfn.CONCAT(B3,"_",LEFT(C3,4),"_",(LEFT(D3,4)))</f>
         <v>1_Food_Snip</v>
@@ -4196,8 +4299,56 @@
       <c r="I3" s="42">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="97">
+        <f>$Q$12</f>
+        <v>6</v>
+      </c>
+      <c r="N3" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="54" cm="1">
+        <f t="array" ref="O3">_xlfn.IFS(N3="+",ROUNDDOWN(M3*(1+$Y$3),2),N3="=",M3)</f>
+        <v>7.8</v>
+      </c>
+      <c r="P3" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="54" cm="1">
+        <f t="array" ref="Q3">_xlfn.IFS(P3="+",ROUNDDOWN(O3*(1+$Y$3),2),P3="=",O3)</f>
+        <v>10.14</v>
+      </c>
+      <c r="R3" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="54" cm="1">
+        <f t="array" ref="S3">_xlfn.IFS(R3="+",ROUNDDOWN(Q3*(1+$Y$3),2),R3="=",Q3)</f>
+        <v>13.18</v>
+      </c>
+      <c r="T3" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" s="54" cm="1">
+        <f t="array" ref="U3">_xlfn.IFS(T3="+",ROUNDDOWN(S3*(1+$Y$3),2),T3="=",S3)</f>
+        <v>17.13</v>
+      </c>
+      <c r="V3" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" s="54" cm="1">
+        <f t="array" ref="W3">_xlfn.IFS(V3="+",ROUNDDOWN(U3*(1+$Y$3),2),V3="=",U3)</f>
+        <v>22.26</v>
+      </c>
+      <c r="Y3" s="20">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="str">
         <f t="shared" ref="A4:A11" si="0">_xlfn.CONCAT(B4,"_",LEFT(C4,4),"_",(LEFT(D4,4)))</f>
         <v>2_Food_Mort</v>
@@ -4227,8 +4378,54 @@
         <f>I3</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4" s="85"/>
+      <c r="L4" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="56">
+        <f>$S$12</f>
+        <v>1.5</v>
+      </c>
+      <c r="N4" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="56" cm="1">
+        <f t="array" ref="O4">_xlfn.IFS(N4="+",ROUNDDOWN(M4*(1-$Y$4),2),N4="=",M4)</f>
+        <v>1.2</v>
+      </c>
+      <c r="P4" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="56" cm="1">
+        <f t="array" ref="Q4">_xlfn.IFS(P4="+",ROUNDDOWN(O4*(1-$Y$4),2),P4="=",O4)</f>
+        <v>0.96</v>
+      </c>
+      <c r="R4" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="56" cm="1">
+        <f t="array" ref="S4">_xlfn.IFS(R4="+",ROUNDDOWN(Q4*(1-$Y$4),2),R4="=",Q4)</f>
+        <v>0.76</v>
+      </c>
+      <c r="T4" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" s="56" cm="1">
+        <f t="array" ref="U4">_xlfn.IFS(T4="+",ROUNDDOWN(S4*(1-$Y$4),2),T4="=",S4)</f>
+        <v>0.6</v>
+      </c>
+      <c r="V4" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="W4" s="56" cm="1">
+        <f t="array" ref="W4">_xlfn.IFS(V4="+",ROUNDDOWN(U4*(1-$Y$4),2),V4="=",U4)</f>
+        <v>0.48</v>
+      </c>
+      <c r="Y4" s="19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="str">
         <f t="shared" si="0"/>
         <v>3_Food_Cano</v>
@@ -4258,8 +4455,54 @@
         <f>I3</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5" s="85"/>
+      <c r="L5" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="54">
+        <f>$U$12</f>
+        <v>5</v>
+      </c>
+      <c r="N5" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="54" cm="1">
+        <f t="array" ref="O5">_xlfn.IFS(N5="+",ROUNDDOWN(M5*(1+$Y$5),2),N5="=",M5)</f>
+        <v>5.5</v>
+      </c>
+      <c r="P5" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="54" cm="1">
+        <f t="array" ref="Q5">_xlfn.IFS(P5="+",ROUNDDOWN(O5*(1+$Y$5),2),P5="=",O5)</f>
+        <v>6.05</v>
+      </c>
+      <c r="R5" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" s="54" cm="1">
+        <f t="array" ref="S5">_xlfn.IFS(R5="+",ROUNDDOWN(Q5*(1+$Y$5),2),R5="=",Q5)</f>
+        <v>6.65</v>
+      </c>
+      <c r="T5" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="U5" s="54" cm="1">
+        <f t="array" ref="U5">_xlfn.IFS(T5="+",ROUNDDOWN(S5*(1+$Y$5),2),T5="=",S5)</f>
+        <v>7.31</v>
+      </c>
+      <c r="V5" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="W5" s="54" cm="1">
+        <f t="array" ref="W5">_xlfn.IFS(V5="+",ROUNDDOWN(U5*(1+$Y$5),2),V5="=",U5)</f>
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="Y5" s="20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="str">
         <f t="shared" si="0"/>
         <v>4_Trap_Snip</v>
@@ -4293,8 +4536,54 @@
         <f>I3</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="85"/>
+      <c r="L6" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="56">
+        <f>$W$12</f>
+        <v>10</v>
+      </c>
+      <c r="N6" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="56" cm="1">
+        <f t="array" ref="O6">_xlfn.IFS(N6="+",ROUNDDOWN(M6*(1+$Y$6),0),N6="=",M6)</f>
+        <v>12</v>
+      </c>
+      <c r="P6" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="56" cm="1">
+        <f t="array" ref="Q6">_xlfn.IFS(P6="+",ROUNDDOWN(O6*(1+$Y$6),0),P6="=",O6)</f>
+        <v>12</v>
+      </c>
+      <c r="R6" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" s="56" cm="1">
+        <f t="array" ref="S6">_xlfn.IFS(R6="+",ROUNDDOWN(Q6*(1+$Y$6),0),R6="=",Q6)</f>
+        <v>14</v>
+      </c>
+      <c r="T6" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="U6" s="56" cm="1">
+        <f t="array" ref="U6">_xlfn.IFS(T6="+",ROUNDDOWN(S6*(1+$Y$6),0),T6="=",S6)</f>
+        <v>16</v>
+      </c>
+      <c r="V6" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="W6" s="56" cm="1">
+        <f t="array" ref="W6">_xlfn.IFS(V6="+",ROUNDDOWN(U6*(1+$Y$6),0),V6="=",U6)</f>
+        <v>19</v>
+      </c>
+      <c r="Y6" s="19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="str">
         <f t="shared" si="0"/>
         <v>5_Trap_Mort</v>
@@ -4328,8 +4617,53 @@
         <f>I3</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7" s="85"/>
+      <c r="L7" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="M7" s="54">
+        <v>10</v>
+      </c>
+      <c r="N7" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="54" cm="1">
+        <f t="array" ref="O7">_xlfn.IFS(N7="+",ROUNDUP(M7*(1+$Y$7),0),N7="=",M7)</f>
+        <v>30</v>
+      </c>
+      <c r="P7" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="54" cm="1">
+        <f t="array" ref="Q7">_xlfn.IFS(P7="+",ROUNDUP(O7*(1+$Y$7),0),P7="=",O7)</f>
+        <v>90</v>
+      </c>
+      <c r="R7" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" s="54" cm="1">
+        <f t="array" ref="S7">_xlfn.IFS(R7="+",ROUNDUP(Q7*(1+$Y$7),0),R7="=",Q7)</f>
+        <v>270</v>
+      </c>
+      <c r="T7" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="U7" s="54" cm="1">
+        <f t="array" ref="U7">_xlfn.IFS(T7="+",ROUNDUP(S7*(1+$Y$7),0),T7="=",S7)</f>
+        <v>810</v>
+      </c>
+      <c r="V7" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="W7" s="54" cm="1">
+        <f t="array" ref="W7">_xlfn.IFS(V7="+",ROUNDUP(U7*(1+$Y$7),0),V7="=",U7)</f>
+        <v>2430</v>
+      </c>
+      <c r="Y7" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="str">
         <f t="shared" si="0"/>
         <v>6_Trap_Cano</v>
@@ -4363,8 +4697,41 @@
         <f>I3</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="92"/>
+      <c r="M8" s="54">
+        <f>ROUNDDOWN(M3*M9,2)</f>
+        <v>3.96</v>
+      </c>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54">
+        <f>ROUNDDOWN(O3*O9,2)</f>
+        <v>6.47</v>
+      </c>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54">
+        <f>ROUNDDOWN(Q3*Q9,2)</f>
+        <v>10.54</v>
+      </c>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54">
+        <f>ROUNDDOWN(S3*S9,2)</f>
+        <v>17.39</v>
+      </c>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54">
+        <f>ROUNDDOWN(U3*U9,2)</f>
+        <v>28.6</v>
+      </c>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54">
+        <f>ROUNDDOWN(W3*W9,2)</f>
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="str">
         <f t="shared" si="0"/>
         <v>7_Ener_Snip</v>
@@ -4398,8 +4765,41 @@
         <f>I3</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="93"/>
+      <c r="M9" s="56">
+        <f>ROUNDDOWN(1/M4,2)</f>
+        <v>0.66</v>
+      </c>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56">
+        <f>ROUND(1/O4,2)</f>
+        <v>0.83</v>
+      </c>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56">
+        <f>ROUND(1/Q4,2)</f>
+        <v>1.04</v>
+      </c>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56">
+        <f>ROUND(1/S4,2)</f>
+        <v>1.32</v>
+      </c>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56">
+        <f>ROUND(1/U4,2)</f>
+        <v>1.67</v>
+      </c>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56">
+        <f>ROUND(1/W4,2)</f>
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="str">
         <f t="shared" si="0"/>
         <v>8_Ener_Mort</v>
@@ -4434,7 +4834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="str">
         <f t="shared" si="0"/>
         <v>9_Ener_Cano</v>
@@ -4468,26 +4868,99 @@
         <f>I3</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="58" t="s">
+      <c r="K11" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="R11" s="96"/>
+      <c r="S11" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="V11" s="96"/>
+      <c r="W11" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="96" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z11" s="96"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K12" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" s="86"/>
+      <c r="M12" s="87" t="str">
+        <f>VLOOKUP($K$12,TOWER,3)</f>
+        <v>Food</v>
+      </c>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87" t="str">
+        <f>VLOOKUP($K$12,TOWER,4)</f>
+        <v>Snipe</v>
+      </c>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87">
+        <f>VLOOKUP($K$12,TOWER,5)</f>
+        <v>6</v>
+      </c>
+      <c r="R12" s="87"/>
+      <c r="S12" s="87">
+        <f>VLOOKUP($K$12,TOWER,6)</f>
+        <v>1.5</v>
+      </c>
+      <c r="T12" s="87"/>
+      <c r="U12" s="87">
+        <f>VLOOKUP($K$12,TOWER,7)</f>
+        <v>5</v>
+      </c>
+      <c r="V12" s="87"/>
+      <c r="W12" s="87">
+        <f>VLOOKUP($K$12,TOWER,8)</f>
+        <v>10</v>
+      </c>
+      <c r="X12" s="87"/>
+      <c r="Y12" s="87">
+        <f>VLOOKUP($K$12,TOWER,9)</f>
+        <v>10</v>
+      </c>
+      <c r="Z12" s="87"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C13" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="58"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="87" t="s">
+      <c r="D13" s="80"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C14" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="90" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C16" s="39">
         <f>E3/F3</f>
         <v>4</v>
@@ -4518,65 +4991,88 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="23">
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C11" xr:uid="{A0725771-D6FB-4BCA-A3AB-AFBEDB867F7D}">
       <formula1>CAT_TOWER</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D11" xr:uid="{D4ACF00F-8B37-485F-B591-1B056AFC903B}">
       <formula1>TYP_TOWER</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L10" xr:uid="{E6E8CE4E-28A1-4DB8-B138-1D7059EC2372}">
+      <formula1>STAT_TOWER</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R10 P3:P10 N3:N10 T3:T10 V3:V10" xr:uid="{C77BBF24-DFCE-4151-AAA2-8695D03BF95B}">
+      <formula1>SIGN</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12" xr:uid="{A91C467D-D990-41FA-81A0-203403B29185}">
+      <formula1>CODE_TOWER</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{F8D8D796-901C-4557-8C65-FC421FB83580}">
+            <xm:f>NOT(ISERROR(SEARCH("=",N3)))</xm:f>
+            <xm:f>"="</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N3:N7 P3:P7 R3:R7 T3:T7 V3:V7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{5A627A3F-8B8B-4B82-9DE7-0E87BD6E5ED1}">
+            <xm:f>NOT(ISERROR(SEARCH("+",N3)))</xm:f>
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N3:N7 P3:P7 R3:R7 T3:T7 V3:V7</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E209A4F-8D58-4AE9-8037-95CB3F80F4D1}">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="11.42578125" style="66" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="66"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="88" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="88" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="88" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483C23BD-B808-464E-B86B-8B4FE0CBBEE3}">
   <dimension ref="B2:H10"/>
   <sheetViews>
@@ -4586,11 +5082,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="66"/>
+    <col min="1" max="16384" width="11.42578125" style="58"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="67"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
@@ -4614,7 +5110,7 @@
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="66">
+      <c r="F3" s="58">
         <v>1</v>
       </c>
       <c r="G3" s="12" t="s">
@@ -4637,14 +5133,14 @@
       <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="66">
+      <c r="F4" s="58">
         <v>2</v>
       </c>
-      <c r="G4" s="65" t="str">
+      <c r="G4" s="91" t="str">
         <f>HLOOKUP(G3,C2:E5,VLOOKUP(H3,B3:F5,5,FALSE)+1,FALSE)</f>
         <v>+</v>
       </c>
-      <c r="H4" s="65"/>
+      <c r="H4" s="91"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
@@ -4659,14 +5155,14 @@
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="66">
+      <c r="F5" s="58">
         <v>3</v>
       </c>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="67"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="8" t="s">
         <v>26</v>
       </c>
@@ -4690,7 +5186,7 @@
       <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="58">
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
@@ -4713,14 +5209,14 @@
       <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="66">
+      <c r="F9" s="58">
         <v>2</v>
       </c>
-      <c r="G9" s="65" t="str">
+      <c r="G9" s="91" t="str">
         <f>HLOOKUP(G8,C7:E10,VLOOKUP(H8,B8:F10,5,FALSE)+1,FALSE)</f>
         <v>=</v>
       </c>
-      <c r="H9" s="65"/>
+      <c r="H9" s="91"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
@@ -4735,11 +5231,11 @@
       <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="66">
+      <c r="F10" s="58">
         <v>3</v>
       </c>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4915,247 +5411,241 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B37B0DA-040C-4E1A-930F-48D7F5CF8BC3}">
   <dimension ref="B1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="66" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.85546875" style="66" customWidth="1"/>
-    <col min="4" max="4" width="10" style="66" customWidth="1"/>
-    <col min="5" max="5" width="2.85546875" style="66" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="66" customWidth="1"/>
-    <col min="7" max="7" width="2.85546875" style="66" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="66" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.85546875" style="66" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" style="66" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="66"/>
+    <col min="1" max="1" width="2.85546875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" style="58" customWidth="1"/>
+    <col min="4" max="4" width="10" style="58" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" style="58" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="58" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" style="58" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="58" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" style="58" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" style="58" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="58"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="60" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="73" t="s">
+      <c r="C2" s="63"/>
+      <c r="D2" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="63"/>
+      <c r="F2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="74" t="s">
+      <c r="J2" s="66" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="75" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="71"/>
-      <c r="F3" s="70" t="s">
+      <c r="E3" s="63"/>
+      <c r="F3" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="66" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="77" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="71"/>
-      <c r="F4" s="70" t="s">
+      <c r="E4" s="63"/>
+      <c r="F4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="74" t="s">
+      <c r="H4" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="J4" s="78" t="s">
+      <c r="J4" s="70" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="70" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="H5" s="78" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="70" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="68" t="s">
+      <c r="C7" s="63"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="63"/>
+      <c r="H7" s="60" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="74" t="s">
+      <c r="F8" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="66" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="70" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="74" t="s">
+      <c r="F9" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="66" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="78" t="s">
+      <c r="F10" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="70" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="74" t="s">
-        <v>7</v>
+      <c r="F11" s="70" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="68" t="s">
+      <c r="H12" s="60" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F13" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="74" t="s">
+      <c r="F13" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="66" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="74" t="s">
+      <c r="F14" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="66" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="78" t="s">
+      <c r="F15" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="70" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="70" t="s">
+    <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="70" t="s">
+      <c r="F16" s="70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="74" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="70" t="s">
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="78" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="70" t="s">
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="62" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="76" t="s">
+    <row r="20" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="68" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5167,6 +5657,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100841444F490B10C45A279B0383115D26D" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="91c543cf6706f2108a45fe2b21185738">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c3a97ae1-1078-4f52-97c7-e1e75f184270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6cf98f67490a83722a01f9dfd5fe46d6" ns3:_="">
     <xsd:import namespace="c3a97ae1-1078-4f52-97c7-e1e75f184270"/>
@@ -5298,35 +5803,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02023A10-1816-44FB-8F7C-8B09E93BD20F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{382CAFBC-27A9-4D0E-A532-4CEEC1A7F497}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c3a97ae1-1078-4f52-97c7-e1e75f184270"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5348,9 +5828,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{382CAFBC-27A9-4D0E-A532-4CEEC1A7F497}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02023A10-1816-44FB-8F7C-8B09E93BD20F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c3a97ae1-1078-4f52-97c7-e1e75f184270"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documents/GameDesign/System_Design.xlsx
+++ b/Documents/GameDesign/System_Design.xlsx
@@ -8,35 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin DIJOUX\Documents\Unity\Workshop_TowerDefense\STD_Workshop\Documents\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A5071B-57D3-42ED-B211-DBCBD7407770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354E58EA-8334-4259-9C22-D8986E8D1229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EE4EEEAB-A39E-4793-9971-E358DB8AAF6E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EE4EEEAB-A39E-4793-9971-E358DB8AAF6E}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerStatsCalc" sheetId="1" r:id="rId1"/>
-    <sheet name="Factory" sheetId="8" r:id="rId2"/>
-    <sheet name="Enemies" sheetId="3" r:id="rId3"/>
-    <sheet name="Tower" sheetId="4" r:id="rId4"/>
-    <sheet name="TowerUpdate" sheetId="7" r:id="rId5"/>
-    <sheet name="Weak" sheetId="5" r:id="rId6"/>
-    <sheet name="Data" sheetId="2" r:id="rId7"/>
+    <sheet name="Train" sheetId="9" r:id="rId2"/>
+    <sheet name="Factory" sheetId="8" r:id="rId3"/>
+    <sheet name="Enemies" sheetId="3" r:id="rId4"/>
+    <sheet name="Tower" sheetId="4" r:id="rId5"/>
+    <sheet name="TowerUpdate" sheetId="7" r:id="rId6"/>
+    <sheet name="Weak" sheetId="5" r:id="rId7"/>
+    <sheet name="Data" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="CAT_ENEMIES">Data!$H$9:$H$11</definedName>
     <definedName name="CAT_TOWER">Data!$F$10:$F$12</definedName>
     <definedName name="CODE_ENEMIES">Enemies!$A$3:$A$11</definedName>
+    <definedName name="CODE_FACTORY">Factory!$A$3:$A$5</definedName>
     <definedName name="CODE_TOWER">Tower!$A$3:$A$11</definedName>
+    <definedName name="CODE_TRAIN">Train!$A$3:$A$5</definedName>
     <definedName name="CODE_UPGRADE">TowerUpdate!$A$3:$A$11</definedName>
     <definedName name="ENEMY">Enemies!$A$3:$H$11</definedName>
+    <definedName name="FACTORY">Factory!$A$3:$F$5</definedName>
     <definedName name="LEVEL_ENEMY">Data!$B$16:$B$21</definedName>
     <definedName name="SIGN">Data!$D$3:$D$6</definedName>
     <definedName name="STAT_ENEMY">Data!$H$3:$H$6</definedName>
+    <definedName name="STAT_FACTORY">Data!$L$3:$L$5</definedName>
     <definedName name="STAT_TOWER">Data!$F$3:$F$7</definedName>
     <definedName name="STAT_TRAIN">Data!$J$3:$J$5</definedName>
     <definedName name="STATS_TYPTOWER">Data!$B$24:$B$26</definedName>
     <definedName name="TOWER">Tower!$A$3:$I$11</definedName>
     <definedName name="TOWER_LVL2">Tower!$M$3:$Q$9</definedName>
     <definedName name="TOWER_UPGRADE">TowerUpdate!$A$3:$I$11</definedName>
+    <definedName name="TRAIN">Train!$A$3:$F$5</definedName>
     <definedName name="TYP_ENEMIES">Data!$H$14:$H$16</definedName>
     <definedName name="TYP_TOWER">Data!$F$15:$F$17</definedName>
     <definedName name="TYPE_TOWERELEMENT">Weak!$B$14:$B$22</definedName>
@@ -68,7 +74,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -90,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="162">
   <si>
     <t>Upgrade 1</t>
   </si>
@@ -534,6 +540,48 @@
   </si>
   <si>
     <t>Tower name</t>
+  </si>
+  <si>
+    <t>Bubblegum</t>
+  </si>
+  <si>
+    <t>Stars</t>
+  </si>
+  <si>
+    <t>STORAGE</t>
+  </si>
+  <si>
+    <t>SECONDS</t>
+  </si>
+  <si>
+    <t>Production / seconds</t>
+  </si>
+  <si>
+    <t>UNLOAD</t>
+  </si>
+  <si>
+    <t>Unload full to empty</t>
+  </si>
+  <si>
+    <t>²</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Seconds</t>
+  </si>
+  <si>
+    <t>Unload</t>
+  </si>
+  <si>
+    <t>Multiplicateur Factory</t>
+  </si>
+  <si>
+    <t>1_Piz</t>
+  </si>
+  <si>
+    <t>1_Car_Piz</t>
   </si>
 </sst>
 </file>
@@ -859,7 +907,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1056,161 +1104,199 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1219,7 +1305,7 @@
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
     <cellStyle name="Titre 3" xfId="2" builtinId="18"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="91">
     <dxf>
       <fill>
         <patternFill>
@@ -1363,14 +1449,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFF9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1384,55 +1463,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1441,6 +1471,258 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1984,8 +2266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDA4FAA-0409-4E65-B5DA-46DD5A6F91E2}">
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10:P10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,41 +2298,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="115" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="98" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="13"/>
-      <c r="E1" s="115" t="s">
+      <c r="E1" s="98" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="13"/>
-      <c r="G1" s="115" t="s">
+      <c r="G1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="101" t="s">
+      <c r="I1" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="101"/>
-      <c r="K1" s="103" t="s">
+      <c r="J1" s="110"/>
+      <c r="K1" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="103"/>
-      <c r="M1" s="101" t="s">
+      <c r="L1" s="107"/>
+      <c r="M1" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="101"/>
-      <c r="O1" s="103" t="s">
+      <c r="N1" s="110"/>
+      <c r="O1" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="103"/>
-      <c r="S1" s="103" t="s">
+      <c r="P1" s="107"/>
+      <c r="S1" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="103"/>
+      <c r="T1" s="107"/>
       <c r="U1" s="20"/>
       <c r="V1" s="20"/>
       <c r="W1" s="20"/>
@@ -2059,7 +2341,7 @@
       <c r="A2" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="99" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="11">
@@ -2080,33 +2362,33 @@
         <f t="array" ref="G2">_xlfn.IFS(F2="+",ROUNDDOWN(E2*(1+$I$2),2),F2="=",E2)</f>
         <v>6.76</v>
       </c>
-      <c r="I2" s="90">
+      <c r="I2" s="109">
         <v>0.3</v>
       </c>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90">
+      <c r="J2" s="109"/>
+      <c r="K2" s="109">
         <v>0.2</v>
       </c>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90">
+      <c r="L2" s="109"/>
+      <c r="M2" s="109">
         <v>0.5</v>
       </c>
-      <c r="N2" s="90"/>
-      <c r="O2" s="73">
+      <c r="N2" s="109"/>
+      <c r="O2" s="108">
         <v>2</v>
       </c>
-      <c r="P2" s="73"/>
-      <c r="S2" s="72" t="s">
+      <c r="P2" s="108"/>
+      <c r="S2" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="T2" s="72"/>
+      <c r="T2" s="105"/>
       <c r="U2" s="20"/>
       <c r="V2" s="20"/>
       <c r="W2" s="20"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="119"/>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="100" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="12">
@@ -2127,23 +2409,23 @@
         <f t="array" ref="G3">_xlfn.IFS(F3="+",ROUNDDOWN(E3*(1-$I$3),2),F3="=",E3)</f>
         <v>0.81</v>
       </c>
-      <c r="I3" s="102">
+      <c r="I3" s="111">
         <v>0.1</v>
       </c>
-      <c r="J3" s="102"/>
-      <c r="M3" s="102">
+      <c r="J3" s="111"/>
+      <c r="M3" s="111">
         <v>0.3</v>
       </c>
-      <c r="N3" s="102"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
+      <c r="N3" s="111"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
       <c r="U3" s="20"/>
       <c r="V3" s="20"/>
       <c r="W3" s="20"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="119"/>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="99" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="34">
@@ -2164,14 +2446,14 @@
         <f t="array" ref="G4">_xlfn.IFS(F4="+",ROUNDDOWN(E4*(1+$I$4),2),F4="=",E4)</f>
         <v>4.84</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="109">
         <v>0.1</v>
       </c>
-      <c r="J4" s="90"/>
-      <c r="M4" s="90">
+      <c r="J4" s="109"/>
+      <c r="M4" s="109">
         <v>0.2</v>
       </c>
-      <c r="N4" s="90"/>
+      <c r="N4" s="109"/>
       <c r="T4" s="20"/>
       <c r="U4" s="20"/>
       <c r="V4" s="20"/>
@@ -2179,7 +2461,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="119"/>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="100" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="35">
@@ -2200,14 +2482,14 @@
         <f t="array" ref="G5">_xlfn.IFS(F5="+",ROUNDDOWN(E5*(1+$I$5),0),F5="=",E5)</f>
         <v>28</v>
       </c>
-      <c r="I5" s="102">
+      <c r="I5" s="111">
         <v>0.2</v>
       </c>
-      <c r="J5" s="102"/>
-      <c r="M5" s="102">
+      <c r="J5" s="111"/>
+      <c r="M5" s="111">
         <v>0.5</v>
       </c>
-      <c r="N5" s="102"/>
+      <c r="N5" s="111"/>
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
       <c r="V5" s="20"/>
@@ -2215,7 +2497,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="119"/>
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="99" t="s">
         <v>80</v>
       </c>
       <c r="C6" s="34">
@@ -2235,20 +2517,20 @@
         <f t="array" ref="G6">_xlfn.IFS(F6="+",ROUNDUP(E6*(1+$I$6),0),F6="=",E6)</f>
         <v>123</v>
       </c>
-      <c r="I6" s="90">
+      <c r="I6" s="109">
         <v>2.5</v>
       </c>
-      <c r="J6" s="90"/>
+      <c r="J6" s="109"/>
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
       <c r="V6" s="20"/>
       <c r="W6" s="20"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="118"/>
+      <c r="B7" s="113"/>
       <c r="C7" s="64">
         <f>ROUNDDOWN(C2*C8,2)</f>
         <v>4</v>
@@ -2270,10 +2552,10 @@
       <c r="W7" s="20"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="122"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="68">
         <f>1/C3</f>
         <v>1</v>
@@ -2296,74 +2578,74 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
-      <c r="O9" s="83" t="s">
+      <c r="O9" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83" t="s">
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="R9" s="83"/>
-      <c r="S9" s="83" t="s">
+      <c r="R9" s="104"/>
+      <c r="S9" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="T9" s="83"/>
-      <c r="U9" s="83" t="s">
+      <c r="T9" s="104"/>
+      <c r="U9" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="V9" s="83"/>
+      <c r="V9" s="104"/>
       <c r="W9" s="20"/>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="98" t="s">
         <v>68</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="115" t="s">
+      <c r="E10" s="98" t="s">
         <v>69</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="115" t="s">
+      <c r="G10" s="98" t="s">
         <v>70</v>
       </c>
       <c r="H10" s="13"/>
-      <c r="I10" s="115" t="s">
+      <c r="I10" s="98" t="s">
         <v>71</v>
       </c>
       <c r="J10" s="13"/>
-      <c r="K10" s="115" t="s">
+      <c r="K10" s="98" t="s">
         <v>72</v>
       </c>
       <c r="L10" s="13"/>
-      <c r="M10" s="115" t="s">
+      <c r="M10" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="O10" s="72">
+      <c r="O10" s="105">
         <v>1</v>
       </c>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="107" t="str" cm="1">
+      <c r="P10" s="105"/>
+      <c r="Q10" s="106" t="str" cm="1">
         <f t="array" ref="Q10">_xlfn.IFS(O10=0, "=", O10&lt;&gt;0,HLOOKUP(Q9,UPGRADE_STAT,VLOOKUP(O14,UPGRADE_LVL,5,FALSE)+1,FALSE))</f>
         <v>+</v>
       </c>
-      <c r="R10" s="107"/>
-      <c r="S10" s="107" t="str" cm="1">
+      <c r="R10" s="106"/>
+      <c r="S10" s="106" t="str" cm="1">
         <f t="array" ref="S10">_xlfn.IFS(O10=0, "=", Q10&lt;&gt;0,HLOOKUP(S9,UPGRADE_STAT,VLOOKUP(O14,UPGRADE_LVL,5,FALSE)+1,FALSE))</f>
         <v>=</v>
       </c>
-      <c r="T10" s="107"/>
-      <c r="U10" s="107" t="str" cm="1">
+      <c r="T10" s="106"/>
+      <c r="U10" s="106" t="str" cm="1">
         <f t="array" ref="U10">_xlfn.IFS(O10=0, "=", S10&lt;&gt;0,HLOOKUP(U9,UPGRADE_STAT,VLOOKUP(O14,UPGRADE_LVL,5,FALSE)+1,FALSE))</f>
         <v>=</v>
       </c>
-      <c r="V10" s="107"/>
+      <c r="V10" s="106"/>
       <c r="W10" s="20"/>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="122"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="28">
         <f>G17</f>
         <v>6</v>
@@ -2403,8 +2685,8 @@
         <f t="array" ref="M11">_xlfn.IFS(L11="+",ROUNDDOWN(K11*(1+$M$2),2),L11="=",K11)</f>
         <v>45.55</v>
       </c>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="103"/>
       <c r="Q11" s="64"/>
       <c r="R11" s="64"/>
       <c r="S11" s="64"/>
@@ -2414,10 +2696,10 @@
       <c r="W11" s="20"/>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="118" t="s">
+      <c r="A12" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="118"/>
+      <c r="B12" s="113"/>
       <c r="C12" s="29">
         <f>I17</f>
         <v>5</v>
@@ -2463,10 +2745,10 @@
       <c r="W12" s="20"/>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="122"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="28">
         <f>K17</f>
         <v>3</v>
@@ -2506,20 +2788,20 @@
         <f t="array" ref="M13">_xlfn.IFS(L13="+",ROUNDUP(K13*(1+$M$4),0),L13="=",K13)</f>
         <v>10</v>
       </c>
-      <c r="O13" s="116" t="s">
+      <c r="O13" s="102" t="s">
         <v>144</v>
       </c>
-      <c r="P13" s="116"/>
+      <c r="P13" s="102"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="118" t="s">
+      <c r="A14" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="118"/>
+      <c r="B14" s="113"/>
       <c r="C14" s="64">
         <f>M17</f>
         <v>2</v>
@@ -2559,11 +2841,11 @@
         <f t="array" ref="M14">_xlfn.IFS(L14="+",ROUNDUP(K14*(1+$M$5),0),L14="=",K14)</f>
         <v>18</v>
       </c>
-      <c r="O14" s="77" t="str">
+      <c r="O14" s="103" t="str">
         <f>_xlfn.CONCAT(C19," ",O10)</f>
         <v>Pizza 1</v>
       </c>
-      <c r="P14" s="77"/>
+      <c r="P14" s="103"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
@@ -2596,11 +2878,11 @@
       <c r="M16" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="O16" s="116" t="s">
+      <c r="O16" s="102" t="s">
         <v>147</v>
       </c>
-      <c r="P16" s="116"/>
-      <c r="Q16" s="116"/>
+      <c r="P16" s="102"/>
+      <c r="Q16" s="102"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
@@ -2636,12 +2918,12 @@
         <f>VLOOKUP($B$17,ENEMY,8)</f>
         <v>2</v>
       </c>
-      <c r="O17" s="124" t="str">
+      <c r="O17" s="101" t="str">
         <f>_xlfn.CONCAT(C19," ",E19," lvl ",O10)</f>
         <v>Pizza Mortar lvl 1</v>
       </c>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="124"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="101"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
@@ -2671,9 +2953,9 @@
       <c r="M18" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="O18" s="124"/>
-      <c r="P18" s="124"/>
-      <c r="Q18" s="124"/>
+      <c r="O18" s="101"/>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="101"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
@@ -2711,40 +2993,40 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="116" t="s">
+      <c r="B21" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="116"/>
-      <c r="E21" s="116" t="s">
+      <c r="C21" s="102"/>
+      <c r="E21" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="K21" s="115" t="s">
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="K21" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="M21" s="115" t="s">
+      <c r="M21" s="98" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="73">
+      <c r="B22" s="108">
         <f>ROUND(O2*K23*I23,2)</f>
         <v>8</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="E22" s="79" t="str">
+      <c r="C22" s="108"/>
+      <c r="E22" s="114" t="str">
         <f>C19</f>
         <v>Pizza</v>
       </c>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79" t="str">
+      <c r="F22" s="114"/>
+      <c r="G22" s="114" t="str">
         <f>C17</f>
         <v>Ghost</v>
       </c>
-      <c r="H22" s="79"/>
+      <c r="H22" s="114"/>
       <c r="I22" s="66" t="s">
         <v>39</v>
       </c>
@@ -2757,13 +3039,13 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="80" t="str">
+      <c r="E23" s="118" t="str">
         <f>HLOOKUP(C19,WEAK_TOWER,VLOOKUP(C17,WEAK_ENEMY,5,FALSE)+1,FALSE)</f>
         <v>=</v>
       </c>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
       <c r="I23" s="64" cm="1">
         <f t="array" ref="I23">_xlfn.IFS(E23="-", 1-K2, E23="=",1,E23="+",1+K2)</f>
         <v>1</v>
@@ -2781,27 +3063,27 @@
       <c r="T23" s="33"/>
     </row>
     <row r="24" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K24" s="115" t="s">
+      <c r="K24" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="M24" s="115" t="s">
+      <c r="M24" s="98" t="s">
         <v>83</v>
       </c>
       <c r="Q24" s="32"/>
       <c r="R24" s="20"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C25" s="117" t="s">
+      <c r="C25" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="116" t="s">
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
       <c r="K25" s="64" cm="1">
         <f t="array" ref="K25">_xlfn.IFS(K22="Upgrade 0",C5,K22="Upgrade 1",E5,K22="Upgrade 2",G5)</f>
         <v>20</v>
@@ -2812,46 +3094,46 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="116" t="s">
+      <c r="C26" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116" t="s">
+      <c r="D26" s="102"/>
+      <c r="E26" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="116"/>
-      <c r="G26" s="77" t="str">
+      <c r="F26" s="102"/>
+      <c r="G26" s="103" t="str">
         <f>_xlfn.CONCAT(K25*K27," s")</f>
         <v>20 s</v>
       </c>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="K26" s="115" t="s">
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="K26" s="98" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="116" t="str">
+      <c r="B27" s="102" t="str">
         <f>_xlfn.CONCAT(K22," ",K21)</f>
         <v>Upgrade 0 DPS</v>
       </c>
-      <c r="C27" s="74">
+      <c r="C27" s="117">
         <f>ROUNDDOWN($M$23/B22,2)</f>
         <v>5.69</v>
       </c>
-      <c r="D27" s="74"/>
-      <c r="E27" s="75">
+      <c r="D27" s="117"/>
+      <c r="E27" s="116">
         <f>ROUNDUP($M$23/B22,0)</f>
         <v>6</v>
       </c>
-      <c r="F27" s="75"/>
-      <c r="G27" s="115" t="s">
+      <c r="F27" s="116"/>
+      <c r="G27" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="H27" s="116" t="s">
+      <c r="H27" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="I27" s="116"/>
+      <c r="I27" s="102"/>
       <c r="K27" s="64" cm="1">
         <f t="array" ref="K27">_xlfn.IFS(K22="Upgrade 0",C3,K22="Upgrade 1",E3,K22="Upgrade 2",G3)</f>
         <v>1</v>
@@ -2859,24 +3141,24 @@
       <c r="O27" s="18"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="116"/>
-      <c r="C28" s="77" t="str">
+      <c r="B28" s="102"/>
+      <c r="C28" s="103" t="str">
         <f>_xlfn.CONCAT(E27*K27," s")</f>
         <v>6 s</v>
       </c>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
       <c r="G28" s="64">
         <f>E6+G6</f>
         <v>158</v>
       </c>
-      <c r="H28" s="77">
+      <c r="H28" s="103">
         <f>ROUNDUP(K29/M25,0)</f>
         <v>1</v>
       </c>
-      <c r="I28" s="77"/>
-      <c r="K28" s="115" t="s">
+      <c r="I28" s="103"/>
+      <c r="K28" s="98" t="s">
         <v>84</v>
       </c>
       <c r="N28" s="18"/>
@@ -2932,19 +3214,32 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="O17:Q18"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="E23:H23"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="S1:T1"/>
@@ -2961,32 +3256,19 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="O17:Q18"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C27">
@@ -3313,29 +3595,1043 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB692A4-AAE4-4AF5-8118-7C6BC2CF5B66}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D270C2D2-755B-49F6-BA6F-2E6401CF8C91}">
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="123" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="123"/>
+    <col min="1" max="1" width="14.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="45" customWidth="1"/>
+    <col min="3" max="6" width="11.42578125" style="45"/>
+    <col min="7" max="7" width="5.7109375" style="45" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" style="45"/>
+    <col min="10" max="10" width="5.7109375" style="45" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="45"/>
+    <col min="12" max="12" width="5.7109375" style="45" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="45"/>
+    <col min="14" max="14" width="5.7109375" style="45" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="45"/>
+    <col min="16" max="16" width="5.7109375" style="45" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="45"/>
+    <col min="18" max="18" width="5.7109375" style="45" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="45"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="59">
+        <v>1</v>
+      </c>
+      <c r="B1" s="59">
+        <v>2</v>
+      </c>
+      <c r="C1" s="59">
+        <v>3</v>
+      </c>
+      <c r="D1" s="59">
+        <v>4</v>
+      </c>
+      <c r="E1" s="59">
+        <v>5</v>
+      </c>
+      <c r="F1" s="59">
+        <v>6</v>
+      </c>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59">
+        <v>1</v>
+      </c>
+      <c r="I1" s="59">
+        <v>2</v>
+      </c>
+      <c r="J1" s="59">
+        <v>3</v>
+      </c>
+      <c r="K1" s="59">
+        <v>4</v>
+      </c>
+      <c r="L1" s="59">
+        <v>5</v>
+      </c>
+      <c r="M1" s="59">
+        <v>6</v>
+      </c>
+      <c r="N1" s="59">
+        <v>7</v>
+      </c>
+      <c r="O1" s="59">
+        <v>8</v>
+      </c>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+    </row>
+    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="73" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="76"/>
+      <c r="K2" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="76"/>
+      <c r="M2" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="76"/>
+      <c r="O2" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="89" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="str">
+        <f>_xlfn.CONCAT(B3,"_Car_",LEFT(C3,3))</f>
+        <v>1_Car_Piz</v>
+      </c>
+      <c r="B3" s="27">
+        <v>1</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="31">
+        <v>50</v>
+      </c>
+      <c r="E3" s="31">
+        <v>2</v>
+      </c>
+      <c r="F3" s="31">
+        <v>5</v>
+      </c>
+      <c r="H3" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" s="28">
+        <f>D3</f>
+        <v>50</v>
+      </c>
+      <c r="J3" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="28" cm="1">
+        <f t="array" ref="K3">_xlfn.IFS(J3="+",ROUNDUP($I$3 * (1 + Q3) ^ 1,0),J3="=",I3)</f>
+        <v>65</v>
+      </c>
+      <c r="L3" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="28" cm="1">
+        <f t="array" ref="M3">_xlfn.IFS(L3="+",ROUNDUP($I$3 * (1 + Q3) ^ 2,0),L3="=",K3)</f>
+        <v>65</v>
+      </c>
+      <c r="N3" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="28" cm="1">
+        <f t="array" ref="O3">_xlfn.IFS(N3="+",ROUNDUP($I$3 * (1 + Q3) ^ 3,0),N3="=",M3)</f>
+        <v>65</v>
+      </c>
+      <c r="Q3" s="83">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="90" t="str">
+        <f t="shared" ref="A4:A5" si="0">_xlfn.CONCAT(B4,"_Car_",LEFT(C4,3))</f>
+        <v>2_Car_Bub</v>
+      </c>
+      <c r="B4" s="27">
+        <v>2</v>
+      </c>
+      <c r="C4" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="29">
+        <f>D3</f>
+        <v>50</v>
+      </c>
+      <c r="E4" s="29">
+        <f t="shared" ref="E4" si="1">E3</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="29">
+        <f>F3</f>
+        <v>5</v>
+      </c>
+      <c r="H4" s="79" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="29">
+        <f>E3</f>
+        <v>2</v>
+      </c>
+      <c r="J4" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="29" cm="1">
+        <f t="array" ref="K4">_xlfn.IFS(J4="+",ROUNDDOWN($I$4 * (1 + Q4) ^ 1,2),J4="=",I4)</f>
+        <v>2</v>
+      </c>
+      <c r="L4" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="29" cm="1">
+        <f t="array" ref="M4">_xlfn.IFS(L4="+",ROUNDDOWN($I$4 * (1 + Q4) ^ 1,2),L4="=",I4)</f>
+        <v>2.6</v>
+      </c>
+      <c r="N4" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="29" cm="1">
+        <f t="array" ref="O4">_xlfn.IFS(N4="+",ROUNDDOWN($I$4 * (1 + Q4) ^ 3,2),N4="=",M4)</f>
+        <v>2.6</v>
+      </c>
+      <c r="Q4" s="90">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>3_Car_Sta</v>
+      </c>
+      <c r="B5" s="27">
+        <v>3</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="28">
+        <f>D3</f>
+        <v>50</v>
+      </c>
+      <c r="E5" s="28">
+        <f t="shared" ref="E5" si="2">E3</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="28">
+        <f>F3</f>
+        <v>5</v>
+      </c>
+      <c r="H5" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="28">
+        <f>F3</f>
+        <v>5</v>
+      </c>
+      <c r="J5" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="28" cm="1">
+        <f t="array" ref="K5">_xlfn.IFS(J5="+",ROUNDDOWN($I$5 * (1 + Q5) ^ 1,2),J5="=",I5)</f>
+        <v>5</v>
+      </c>
+      <c r="L5" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="28" cm="1">
+        <f t="array" ref="M5">_xlfn.IFS(L5="+",ROUNDDOWN($I$5 * (1 + Q5) ^ 2,2),L5="=",K5)</f>
+        <v>5</v>
+      </c>
+      <c r="N5" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="28" cm="1">
+        <f t="array" ref="O5">_xlfn.IFS(N5="+",ROUNDUP($I$5 * (1 + Q5) ^ 1,0),N5="=",M5)</f>
+        <v>8</v>
+      </c>
+      <c r="Q5" s="83">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H6" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="29">
+        <v>10</v>
+      </c>
+      <c r="J6" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="29" cm="1">
+        <f t="array" ref="K6">_xlfn.IFS(J6="+",ROUNDUP($I$6 * (1 + Q6) ^ 1,2),J6="=",I6)</f>
+        <v>15</v>
+      </c>
+      <c r="L6" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="29" cm="1">
+        <f t="array" ref="M6">_xlfn.IFS(L6="+",ROUNDUP($I$6 * (1 + Q6) ^ 2,0),L6="=",I6)</f>
+        <v>23</v>
+      </c>
+      <c r="N6" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="29" cm="1">
+        <f t="array" ref="O6">_xlfn.IFS(N6="+",ROUNDUP($I$6 * (1 + Q6) ^ 3,0),N6="=",I6)</f>
+        <v>34</v>
+      </c>
+      <c r="Q6" s="90">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C7" s="120" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="120"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="121" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="121"/>
+      <c r="H8" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="82"/>
+      <c r="O8" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="77"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="H9" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="I9" s="81" t="str">
+        <f>VLOOKUP($H$9,TRAIN,3)</f>
+        <v>Pizza</v>
+      </c>
+      <c r="J9" s="81"/>
+      <c r="K9" s="135">
+        <f>VLOOKUP($H$9,TRAIN,4)</f>
+        <v>50</v>
+      </c>
+      <c r="L9" s="81"/>
+      <c r="M9" s="135">
+        <f>VLOOKUP($H$9,TRAIN,5)</f>
+        <v>2</v>
+      </c>
+      <c r="N9" s="72"/>
+      <c r="O9" s="135">
+        <f>VLOOKUP($H$9,TRAIN,6)</f>
+        <v>5</v>
+      </c>
+      <c r="P9" s="72"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C10" s="136">
+        <f>D3/F3</f>
+        <v>10</v>
+      </c>
+      <c r="D10" s="136"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C10:D10"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9" xr:uid="{4E0730DA-A975-4D36-89B9-EDD70882FA4F}">
+      <formula1>CODE_TRAIN</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J6 L3:L6 N3:N6 P3:P6 R3:R6" xr:uid="{3FA26D1C-C9BA-4446-AEF5-6139752B602A}">
+      <formula1>SIGN</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C5" xr:uid="{4BAA8DF3-38D8-473B-A9C1-B557BB4BC682}">
+      <formula1>STAT_FACTORY</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{2BC1FD63-8679-480D-8AFA-71B7EA976BD4}">
+            <xm:f>NOT(ISERROR(SEARCH("=",J3)))</xm:f>
+            <xm:f>"="</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J3:J6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{C4D66130-71E0-4188-9B0B-409EE70A7518}">
+            <xm:f>NOT(ISERROR(SEARCH("+",J3)))</xm:f>
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J3:J6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{172BB7CD-0792-4F79-95C9-2E47075AE0F8}">
+            <xm:f>NOT(ISERROR(SEARCH("=",L3)))</xm:f>
+            <xm:f>"="</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L3:L5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{214D66B2-1BE9-4903-96BA-A9F7040BC237}">
+            <xm:f>NOT(ISERROR(SEARCH("+",L3)))</xm:f>
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L3:L5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{E81E8F0D-C981-41E7-B507-33740C613E3B}">
+            <xm:f>NOT(ISERROR(SEARCH("=",N3)))</xm:f>
+            <xm:f>"="</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N3:N6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{EBC75F20-CF4A-4420-9B7B-B741E6F9218B}">
+            <xm:f>NOT(ISERROR(SEARCH("+",N3)))</xm:f>
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N3:N6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{BE721188-9C5A-4452-9BD3-D58EC020D450}">
+            <xm:f>NOT(ISERROR(SEARCH("=",L6)))</xm:f>
+            <xm:f>"="</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{D82E6B1C-3F48-4CE0-9B70-26B264E01C2C}">
+            <xm:f>NOT(ISERROR(SEARCH("+",L6)))</xm:f>
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L6</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB692A4-AAE4-4AF5-8118-7C6BC2CF5B66}">
+  <dimension ref="A1:Q10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="45" customWidth="1"/>
+    <col min="3" max="6" width="11.42578125" style="45"/>
+    <col min="7" max="7" width="5.7109375" style="45" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" style="45"/>
+    <col min="10" max="10" width="5.7109375" style="45" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="45"/>
+    <col min="12" max="12" width="5.7109375" style="45" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="45"/>
+    <col min="14" max="14" width="5.7109375" style="45" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="45"/>
+    <col min="16" max="16" width="5.7109375" style="45" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="45"/>
+    <col min="18" max="18" width="5.7109375" style="45" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="59">
+        <v>1</v>
+      </c>
+      <c r="B1" s="59">
+        <v>2</v>
+      </c>
+      <c r="C1" s="59">
+        <v>3</v>
+      </c>
+      <c r="D1" s="59">
+        <v>4</v>
+      </c>
+      <c r="E1" s="59">
+        <v>5</v>
+      </c>
+      <c r="F1" s="59">
+        <v>6</v>
+      </c>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59">
+        <v>1</v>
+      </c>
+      <c r="I1" s="59">
+        <v>2</v>
+      </c>
+      <c r="J1" s="59">
+        <v>3</v>
+      </c>
+      <c r="K1" s="59">
+        <v>4</v>
+      </c>
+      <c r="L1" s="59">
+        <v>5</v>
+      </c>
+      <c r="M1" s="59">
+        <v>6</v>
+      </c>
+      <c r="N1" s="59">
+        <v>7</v>
+      </c>
+      <c r="O1" s="59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="73" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="76"/>
+      <c r="K2" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="76"/>
+      <c r="M2" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="76"/>
+      <c r="O2" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="89" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="str">
+        <f>_xlfn.CONCAT(B3,"_",LEFT(C3,3))</f>
+        <v>1_Piz</v>
+      </c>
+      <c r="B3" s="27">
+        <v>1</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="31">
+        <v>100</v>
+      </c>
+      <c r="E3" s="31">
+        <v>2</v>
+      </c>
+      <c r="F3" s="31">
+        <v>10</v>
+      </c>
+      <c r="H3" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" s="28">
+        <f>D3</f>
+        <v>100</v>
+      </c>
+      <c r="J3" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="28" cm="1">
+        <f t="array" aca="1" ref="K3" ca="1">_xlfn.IFS(J3="+",ROUNDDOWN($K$3 * (1 + Q3) ^ 1,2),J3="=",I3)</f>
+        <v>15</v>
+      </c>
+      <c r="L3" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="28" cm="1">
+        <f t="array" ref="M3">_xlfn.IFS(L3="+",ROUNDDOWN($I$3 * (1 + Q3) ^ 2,2),L3="=",I3)</f>
+        <v>169</v>
+      </c>
+      <c r="N3" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="28" cm="1">
+        <f t="array" ref="O3">_xlfn.IFS(N3="+",ROUNDDOWN($I$3 * (1 + Q3) ^ 3,2),N3="=",I3)</f>
+        <v>219.7</v>
+      </c>
+      <c r="Q3" s="83">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="90" t="str">
+        <f t="shared" ref="A4:A5" si="0">_xlfn.CONCAT(B4,"_",LEFT(C4,3))</f>
+        <v>2_Bub</v>
+      </c>
+      <c r="B4" s="27">
+        <v>2</v>
+      </c>
+      <c r="C4" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="29">
+        <f>D3</f>
+        <v>100</v>
+      </c>
+      <c r="E4" s="29">
+        <f t="shared" ref="E4:G4" si="1">E3</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="29">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H4" s="79" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="29">
+        <f>E3</f>
+        <v>2</v>
+      </c>
+      <c r="J4" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="29" cm="1">
+        <f t="array" ref="K4">_xlfn.IFS(J4="+",ROUNDDOWN($I$4 * (1 + Q4) ^ 1,2),J4="=",I4)</f>
+        <v>2.6</v>
+      </c>
+      <c r="L4" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="29" cm="1">
+        <f t="array" ref="M4">_xlfn.IFS(L4="+",ROUNDDOWN($I$4 * (1 + Q4) ^ 2,2),L4="=",I4)</f>
+        <v>3.38</v>
+      </c>
+      <c r="N4" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="29" cm="1">
+        <f t="array" ref="O4">_xlfn.IFS(N4="+",ROUNDDOWN($I$4 * (1 + Q4) ^ 3,2),N4="=",I4)</f>
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="Q4" s="90">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>3_Sta</v>
+      </c>
+      <c r="B5" s="27">
+        <v>3</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="28">
+        <f>D3</f>
+        <v>100</v>
+      </c>
+      <c r="E5" s="28">
+        <f t="shared" ref="E5:G5" si="2">E3</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="28">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H5" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="28">
+        <f>F3</f>
+        <v>10</v>
+      </c>
+      <c r="J5" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="28" cm="1">
+        <f t="array" aca="1" ref="K5" ca="1">_xlfn.IFS(J5="+",ROUNDDOWN($K$5 * (1 + Q5) ^ 1,2),J5="=",I5)</f>
+        <v>6</v>
+      </c>
+      <c r="L5" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="28" cm="1">
+        <f t="array" aca="1" ref="M5" ca="1">_xlfn.IFS(L5="+",ROUNDDOWN($K$5 * (1 + Q5) ^ 2,2),L5="=",I5)</f>
+        <v>7.2</v>
+      </c>
+      <c r="N5" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="28" cm="1">
+        <f t="array" aca="1" ref="O5" ca="1">_xlfn.IFS(N5="+",ROUNDDOWN($K$5 * (1 + Q5) ^ 3,2),N5="=",M5)</f>
+        <v>8.64</v>
+      </c>
+      <c r="Q5" s="83">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H6" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="29">
+        <v>10</v>
+      </c>
+      <c r="J6" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="29" cm="1">
+        <f t="array" ref="K6">_xlfn.IFS(J6="+",ROUNDUP($I$6 * (1 + Q6) ^ 1,2),J6="=",I6)</f>
+        <v>12</v>
+      </c>
+      <c r="L6" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="29" cm="1">
+        <f t="array" ref="M6">_xlfn.IFS(L6="+",ROUNDUP($I$6 * (1 + Q6) ^ 2,0),L6="=",I6)</f>
+        <v>15</v>
+      </c>
+      <c r="N6" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="29" cm="1">
+        <f t="array" ref="O6">_xlfn.IFS(N6="+",ROUNDUP($I$6 * (1 + Q6) ^ 3,0),N6="=",I6)</f>
+        <v>18</v>
+      </c>
+      <c r="Q6" s="90">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C7" s="120" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="120"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C8" s="121" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="121" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="82"/>
+      <c r="O8" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="77"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="H9" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" s="81" t="str">
+        <f>VLOOKUP($H$9,FACTORY,3)</f>
+        <v>Pizza</v>
+      </c>
+      <c r="J9" s="81"/>
+      <c r="K9" s="135">
+        <f>VLOOKUP($H$9,FACTORY,4)</f>
+        <v>100</v>
+      </c>
+      <c r="L9" s="81"/>
+      <c r="M9" s="135">
+        <f>VLOOKUP($H$9,FACTORY,5)</f>
+        <v>2</v>
+      </c>
+      <c r="N9" s="72"/>
+      <c r="O9" s="135">
+        <f>VLOOKUP($H$9,FACTORY,6)</f>
+        <v>10</v>
+      </c>
+      <c r="P9" s="72"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C10" s="28">
+        <f>ROUND(D3/E3,0)</f>
+        <v>50</v>
+      </c>
+      <c r="D10" s="28">
+        <f>D3/F3</f>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C5" xr:uid="{3B253C10-CDF1-4648-9DF4-6FC7222F90C3}">
+      <formula1>STAT_FACTORY</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J6 L3:L6 N3:N6 P3:P6 R3:R6" xr:uid="{521F7D0B-1CF3-43FC-9A6E-F52C923543F8}">
+      <formula1>SIGN</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9" xr:uid="{9822A667-ACA7-493D-8165-DFF96FA1B1AB}">
+      <formula1>CODE_FACTORY</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{2D7A5AC1-382C-4771-8D93-F63BA34D21A2}">
+            <xm:f>NOT(ISERROR(SEARCH("=",J3)))</xm:f>
+            <xm:f>"="</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J3:J6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{C62C2A07-5155-4334-93D2-0CA1FCC4355B}">
+            <xm:f>NOT(ISERROR(SEARCH("+",J3)))</xm:f>
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J3:J6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{D958A33F-9591-40E5-842E-45D140BCC588}">
+            <xm:f>NOT(ISERROR(SEARCH("=",L3)))</xm:f>
+            <xm:f>"="</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L3:L5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{00BC4EF5-3EDE-4EB2-99D8-E9171F2F5450}">
+            <xm:f>NOT(ISERROR(SEARCH("+",L3)))</xm:f>
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L3:L5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{70B003B0-A6DC-4880-82ED-30CFCAC64AD7}">
+            <xm:f>NOT(ISERROR(SEARCH("=",N3)))</xm:f>
+            <xm:f>"="</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N3:N6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{2D85DD62-DA29-4E5D-B4A6-EE0061934C18}">
+            <xm:f>NOT(ISERROR(SEARCH("+",N3)))</xm:f>
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N3:N6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{6A02CAD9-45B3-40E7-BD15-DB6C51024814}">
+            <xm:f>NOT(ISERROR(SEARCH("=",L6)))</xm:f>
+            <xm:f>"="</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{36AA0D63-ED68-478E-82B0-15A6C2683F1A}">
+            <xm:f>NOT(ISERROR(SEARCH("+",L6)))</xm:f>
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L6</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435E0B1E-C30D-4807-9C0B-B17E796108D4}">
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3595,36 +4891,36 @@
         <v>13</v>
       </c>
       <c r="M4" s="29" cm="1">
-        <f t="array" ref="M4">_xlfn.IFS(L4="+",ROUND($K$4 * (1 - W4) ^ 1,2),L4="=",K4)</f>
-        <v>2.1</v>
+        <f t="array" ref="M4">_xlfn.IFS(L4="+",ROUNDDOWN($K$4 * (1 + W4) ^ 1,2),L4="=",K4)</f>
+        <v>3.9</v>
       </c>
       <c r="N4" s="36" t="s">
         <v>13</v>
       </c>
       <c r="O4" s="29" cm="1">
-        <f t="array" ref="O4">_xlfn.IFS(L4="+",ROUND($K$4 * (1 - W4) ^ 2,2),L4="=",K4)</f>
-        <v>1.47</v>
+        <f t="array" ref="O4">_xlfn.IFS(N4="+",ROUNDDOWN($K$4 * (1 + W4) ^ 1,2),N4="=",M4)</f>
+        <v>3.9</v>
       </c>
       <c r="P4" s="36" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="29" cm="1">
-        <f t="array" ref="Q4">_xlfn.IFS(L4="+",ROUND($K$4 * (1 - W4) ^ 3,2),L4="=",K4)</f>
-        <v>1.03</v>
+        <f t="array" ref="Q4">_xlfn.IFS(P4="+",ROUNDDOWN($K$4 * (1 + W4) ^ 1,2),P4="=",O4)</f>
+        <v>3.9</v>
       </c>
       <c r="R4" s="36" t="s">
         <v>13</v>
       </c>
       <c r="S4" s="29" cm="1">
-        <f t="array" ref="S4">_xlfn.IFS(L4="+",ROUND($K$4 * (1 - W4) ^ 4,2),L4="=",K4)</f>
-        <v>0.72</v>
+        <f t="array" ref="S4">_xlfn.IFS(R4="+",ROUNDDOWN($K$4 * (1 + W4) ^ 1,2),R4="=",Q4)</f>
+        <v>3.9</v>
       </c>
       <c r="T4" s="36" t="s">
         <v>13</v>
       </c>
       <c r="U4" s="29" cm="1">
-        <f t="array" ref="U4">_xlfn.IFS(L4="+",ROUND($K$4 * (1 - W4) ^ 5,2),L4="=",K4)</f>
-        <v>0.5</v>
+        <f t="array" ref="U4">_xlfn.IFS(T4="+",ROUNDDOWN($K$4 * (1 + W4) ^ 1,2),T4="=",S4)</f>
+        <v>3.9</v>
       </c>
       <c r="V4" s="17"/>
       <c r="W4" s="14">
@@ -3845,18 +5141,18 @@
       <c r="J8" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="89" t="s">
+      <c r="K8" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89" t="s">
+      <c r="L8" s="82"/>
+      <c r="M8" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89" t="s">
+      <c r="N8" s="82"/>
+      <c r="O8" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="P8" s="89"/>
+      <c r="P8" s="82"/>
       <c r="Q8" s="26" t="s">
         <v>65</v>
       </c>
@@ -3902,16 +5198,16 @@
       <c r="J9" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="K9" s="88" t="str">
+      <c r="K9" s="81" t="str">
         <f>VLOOKUP($J$9,ENEMY,3)</f>
         <v>Insect</v>
       </c>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88" t="str">
+      <c r="L9" s="81"/>
+      <c r="M9" s="81" t="str">
         <f>VLOOKUP($J$9,ENEMY,4)</f>
         <v>Normal</v>
       </c>
-      <c r="N9" s="88"/>
+      <c r="N9" s="81"/>
       <c r="O9" s="68">
         <f>VLOOKUP($J$9,ENEMY,5)</f>
         <v>10</v>
@@ -3998,22 +5294,22 @@
       <c r="B12" s="60"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="120" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="76"/>
+      <c r="D13" s="120"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="121" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="121" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C16" s="28">
@@ -4024,7 +5320,7 @@
         <f>G3/E3</f>
         <v>0.5</v>
       </c>
-      <c r="J16" s="87"/>
+      <c r="J16" s="80"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="29">
@@ -4220,12 +5516,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9045D55D-CDD5-4A2E-B7B4-999FBD02BF13}">
   <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4351,10 +5647,10 @@
       <c r="I2" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="78" t="s">
+      <c r="K2" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="78"/>
+      <c r="L2" s="122"/>
       <c r="M2" s="42" t="s">
         <v>11</v>
       </c>
@@ -4384,7 +5680,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
-        <f>_xlfn.CONCAT(B3,"_",LEFT(C3,4),"_",(LEFT(D3,4)))</f>
+        <f t="shared" ref="A3:A11" si="0">_xlfn.CONCAT(B3,"_",LEFT(C3,4),"_",(LEFT(D3,4)))</f>
         <v>1_Pizz_Snip</v>
       </c>
       <c r="B3" s="27">
@@ -4411,7 +5707,7 @@
       <c r="I3" s="31">
         <v>20</v>
       </c>
-      <c r="K3" s="81" t="s">
+      <c r="K3" s="125" t="s">
         <v>46</v>
       </c>
       <c r="L3" s="69" t="s">
@@ -4462,7 +5758,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="str">
-        <f>_xlfn.CONCAT(B4,"_",LEFT(C4,4),"_",(LEFT(D4,4)))</f>
+        <f t="shared" si="0"/>
         <v>2_Pizz_Mort</v>
       </c>
       <c r="B4" s="27">
@@ -4490,7 +5786,7 @@
         <f>I3</f>
         <v>20</v>
       </c>
-      <c r="K4" s="81"/>
+      <c r="K4" s="125"/>
       <c r="L4" s="70" t="s">
         <v>15</v>
       </c>
@@ -4539,7 +5835,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="str">
-        <f>_xlfn.CONCAT(B5,"_",LEFT(C5,4),"_",(LEFT(D5,4)))</f>
+        <f t="shared" si="0"/>
         <v>3_Pizz_Cano</v>
       </c>
       <c r="B5" s="27">
@@ -4567,7 +5863,7 @@
         <f>I3</f>
         <v>20</v>
       </c>
-      <c r="K5" s="81"/>
+      <c r="K5" s="125"/>
       <c r="L5" s="69" t="s">
         <v>10</v>
       </c>
@@ -4616,7 +5912,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="str">
-        <f>_xlfn.CONCAT(B6,"_",LEFT(C6,4),"_",(LEFT(D6,4)))</f>
+        <f t="shared" si="0"/>
         <v>4_Trap_Snip</v>
       </c>
       <c r="B6" s="27">
@@ -4648,7 +5944,7 @@
         <f>I3</f>
         <v>20</v>
       </c>
-      <c r="K6" s="81"/>
+      <c r="K6" s="125"/>
       <c r="L6" s="70" t="s">
         <v>41</v>
       </c>
@@ -4697,7 +5993,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="str">
-        <f>_xlfn.CONCAT(B7,"_",LEFT(C7,4),"_",(LEFT(D7,4)))</f>
+        <f t="shared" si="0"/>
         <v>5_Trap_Mort</v>
       </c>
       <c r="B7" s="27">
@@ -4710,26 +6006,26 @@
         <v>54</v>
       </c>
       <c r="E7" s="28">
-        <f>E4</f>
+        <f t="shared" ref="E7:H8" si="1">E4</f>
         <v>4</v>
       </c>
       <c r="F7" s="28">
-        <f>F4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G7" s="28">
-        <f>G4</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H7" s="28">
-        <f>H4</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I7" s="28">
         <f>I3</f>
         <v>20</v>
       </c>
-      <c r="K7" s="81"/>
+      <c r="K7" s="125"/>
       <c r="L7" s="69" t="s">
         <v>80</v>
       </c>
@@ -4777,7 +6073,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="str">
-        <f>_xlfn.CONCAT(B8,"_",LEFT(C8,4),"_",(LEFT(D8,4)))</f>
+        <f t="shared" si="0"/>
         <v>6_Trap_Cano</v>
       </c>
       <c r="B8" s="27">
@@ -4790,29 +6086,29 @@
         <v>53</v>
       </c>
       <c r="E8" s="29">
-        <f>E5</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F8" s="29">
-        <f>F5</f>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
       <c r="G8" s="29">
-        <f>G5</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="H8" s="29">
-        <f>H5</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I8" s="29">
         <f>I3</f>
         <v>20</v>
       </c>
-      <c r="K8" s="84" t="s">
+      <c r="K8" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="L8" s="84"/>
+      <c r="L8" s="123"/>
       <c r="M8" s="41">
         <f>ROUNDDOWN(M3*M9,2)</f>
         <v>3.96</v>
@@ -4845,7 +6141,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="str">
-        <f>_xlfn.CONCAT(B9,"_",LEFT(C9,4),"_",(LEFT(D9,4)))</f>
+        <f t="shared" si="0"/>
         <v>7_Ener_Snip</v>
       </c>
       <c r="B9" s="27">
@@ -4877,10 +6173,10 @@
         <f>I3</f>
         <v>20</v>
       </c>
-      <c r="K9" s="85" t="s">
+      <c r="K9" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="85"/>
+      <c r="L9" s="124"/>
       <c r="M9" s="43">
         <f>ROUNDDOWN(1/M4,2)</f>
         <v>0.66</v>
@@ -4913,7 +6209,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="str">
-        <f>_xlfn.CONCAT(B10,"_",LEFT(C10,4),"_",(LEFT(D10,4)))</f>
+        <f t="shared" si="0"/>
         <v>8_Ener_Mort</v>
       </c>
       <c r="B10" s="27">
@@ -4926,19 +6222,19 @@
         <v>54</v>
       </c>
       <c r="E10" s="29">
-        <f>E4</f>
+        <f t="shared" ref="E10:H11" si="2">E4</f>
         <v>4</v>
       </c>
       <c r="F10" s="29">
-        <f>F4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G10" s="29">
-        <f>G4</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H10" s="29">
-        <f>H4</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I10" s="29">
@@ -4948,7 +6244,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="str">
-        <f>_xlfn.CONCAT(B11,"_",LEFT(C11,4),"_",(LEFT(D11,4)))</f>
+        <f t="shared" si="0"/>
         <v>9_Ener_Cano</v>
       </c>
       <c r="B11" s="27">
@@ -4961,116 +6257,116 @@
         <v>53</v>
       </c>
       <c r="E11" s="28">
-        <f>E5</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F11" s="28">
-        <f>F5</f>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="G11" s="28">
-        <f>G5</f>
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
       <c r="H11" s="28">
-        <f>H5</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I11" s="28">
         <f>I3</f>
         <v>20</v>
       </c>
-      <c r="K11" s="83" t="s">
+      <c r="K11" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83" t="s">
+      <c r="L11" s="104"/>
+      <c r="M11" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83" t="s">
+      <c r="N11" s="104"/>
+      <c r="O11" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="83" t="s">
+      <c r="P11" s="104"/>
+      <c r="Q11" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="R11" s="83"/>
-      <c r="S11" s="83" t="s">
+      <c r="R11" s="104"/>
+      <c r="S11" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="T11" s="83"/>
-      <c r="U11" s="83" t="s">
+      <c r="T11" s="104"/>
+      <c r="U11" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="V11" s="83"/>
-      <c r="W11" s="83" t="s">
+      <c r="V11" s="104"/>
+      <c r="W11" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="83" t="s">
+      <c r="X11" s="104"/>
+      <c r="Y11" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="Z11" s="83"/>
+      <c r="Z11" s="104"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K12" s="72" t="s">
+      <c r="K12" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="L12" s="72"/>
-      <c r="M12" s="73" t="str">
+      <c r="L12" s="105"/>
+      <c r="M12" s="108" t="str">
         <f>VLOOKUP($K$12,TOWER,3)</f>
         <v>Pizza</v>
       </c>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73" t="str">
+      <c r="N12" s="108"/>
+      <c r="O12" s="108" t="str">
         <f>VLOOKUP($K$12,TOWER,4)</f>
         <v>Snipe</v>
       </c>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73">
+      <c r="P12" s="108"/>
+      <c r="Q12" s="108">
         <f>VLOOKUP($K$12,TOWER,5)</f>
         <v>6</v>
       </c>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73">
+      <c r="R12" s="108"/>
+      <c r="S12" s="108">
         <f>VLOOKUP($K$12,TOWER,6)</f>
         <v>1.5</v>
       </c>
-      <c r="T12" s="73"/>
-      <c r="U12" s="73">
+      <c r="T12" s="108"/>
+      <c r="U12" s="108">
         <f>VLOOKUP($K$12,TOWER,7)</f>
         <v>5</v>
       </c>
-      <c r="V12" s="73"/>
-      <c r="W12" s="73">
+      <c r="V12" s="108"/>
+      <c r="W12" s="108">
         <f>VLOOKUP($K$12,TOWER,8)</f>
         <v>10</v>
       </c>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="73">
+      <c r="X12" s="108"/>
+      <c r="Y12" s="108">
         <f>VLOOKUP($K$12,TOWER,9)</f>
         <v>20</v>
       </c>
-      <c r="Z12" s="73"/>
+      <c r="Z12" s="108"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="120" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="76"/>
+      <c r="D13" s="120"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="121" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C16" s="28">
@@ -5104,13 +6400,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
     <mergeCell ref="W11:X11"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="Y11:Z11"/>
@@ -5127,6 +6416,13 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C11" xr:uid="{A0725771-D6FB-4BCA-A3AB-AFBEDB867F7D}">
@@ -5184,7 +6480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356586D7-B694-445B-B036-FD29D6ACFCF6}">
   <dimension ref="A1:L15"/>
   <sheetViews>
@@ -5203,58 +6499,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="130" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="130" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="126" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="93"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="95" t="s">
+      <c r="H1" s="127"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="96" t="s">
+      <c r="A2" s="130"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="I2" s="96" t="s">
+      <c r="I2" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="J2" s="96" t="s">
+      <c r="J2" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="K2" s="96" t="s">
+      <c r="K2" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="L2" s="96" t="s">
+      <c r="L2" s="84" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5275,16 +6571,16 @@
       <c r="E3" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="99" t="s">
+      <c r="F3" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="97" t="s">
+      <c r="G3" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="97" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="97" t="s">
+      <c r="H3" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="85" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="29"/>
@@ -5293,7 +6589,7 @@
     </row>
     <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="str">
-        <f t="shared" ref="A4:A11" si="0">_xlfn.CONCAT(B4,"_",LEFT(C4,3), "_",D4)</f>
+        <f t="shared" ref="A4:A10" si="0">_xlfn.CONCAT(B4,"_",LEFT(C4,3), "_",D4)</f>
         <v>2_Tra_2a</v>
       </c>
       <c r="B4" s="28">
@@ -5308,16 +6604,16 @@
       <c r="E4" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="98" t="s">
+      <c r="G4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="111" t="s">
+      <c r="H4" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="98" t="s">
+      <c r="I4" s="86" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="28"/>
@@ -5341,16 +6637,16 @@
       <c r="E5" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="99" t="s">
+      <c r="F5" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="97" t="s">
+      <c r="G5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="97" t="s">
+      <c r="H5" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="112" t="s">
+      <c r="I5" s="96" t="s">
         <v>114</v>
       </c>
       <c r="J5" s="29"/>
@@ -5374,16 +6670,16 @@
       <c r="E6" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="F6" s="100" t="s">
+      <c r="F6" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="98" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="98" t="s">
+      <c r="G6" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="98" t="s">
+      <c r="I6" s="86" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="28"/>
@@ -5407,16 +6703,16 @@
       <c r="E7" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="F7" s="99" t="s">
+      <c r="F7" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="G7" s="97" t="s">
+      <c r="G7" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="97" t="s">
+      <c r="H7" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="112" t="s">
+      <c r="I7" s="96" t="s">
         <v>114</v>
       </c>
       <c r="J7" s="29"/>
@@ -5440,16 +6736,16 @@
       <c r="E8" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="100" t="s">
+      <c r="F8" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="G8" s="111" t="s">
+      <c r="G8" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="H8" s="98" t="s">
+      <c r="H8" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="98" t="s">
+      <c r="I8" s="86" t="s">
         <v>12</v>
       </c>
       <c r="J8" s="28"/>
@@ -5473,16 +6769,16 @@
       <c r="E9" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="F9" s="99" t="s">
+      <c r="F9" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="97" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="97" t="s">
+      <c r="G9" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="97" t="s">
+      <c r="I9" s="85" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="29"/>
@@ -5506,16 +6802,16 @@
       <c r="E10" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="F10" s="100" t="s">
+      <c r="F10" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="98" t="s">
+      <c r="G10" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="98" t="s">
+      <c r="H10" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="98" t="s">
+      <c r="I10" s="86" t="s">
         <v>12</v>
       </c>
       <c r="J10" s="28"/>
@@ -5539,16 +6835,16 @@
       <c r="E11" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F11" s="99" t="s">
+      <c r="F11" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="G11" s="97" t="s">
+      <c r="G11" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="97" t="s">
+      <c r="H11" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="I11" s="97" t="s">
+      <c r="I11" s="85" t="s">
         <v>14</v>
       </c>
       <c r="J11" s="29"/>
@@ -5556,46 +6852,41 @@
       <c r="L11" s="29"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G13" s="89" t="s">
+      <c r="G13" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="89" t="s">
+      <c r="H13" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="I13" s="89" t="s">
+      <c r="I13" s="82" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F14" s="72" t="s">
+      <c r="F14" s="105" t="s">
         <v>129</v>
       </c>
-      <c r="G14" s="73" t="str">
+      <c r="G14" s="108" t="str">
         <f>VLOOKUP($F$14,TOWER_UPGRADE,7)</f>
         <v>-</v>
       </c>
-      <c r="H14" s="73" t="str">
+      <c r="H14" s="108" t="str">
         <f>VLOOKUP($F$14,TOWER_UPGRADE,8)</f>
         <v>++</v>
       </c>
-      <c r="I14" s="73" t="str">
+      <c r="I14" s="108" t="str">
         <f>VLOOKUP($F$14,TOWER_UPGRADE,9)</f>
         <v>=</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F15" s="72"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -5603,6 +6894,11 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13 F14" xr:uid="{5DD3618D-C4BE-491F-B770-27363DACB01A}">
@@ -5667,7 +6963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483C23BD-B808-464E-B86B-8B4FE0CBBEE3}">
   <dimension ref="B2:P38"/>
   <sheetViews>
@@ -5732,11 +7028,11 @@
       <c r="F4" s="45">
         <v>2</v>
       </c>
-      <c r="G4" s="86" t="str">
+      <c r="G4" s="133" t="str">
         <f>HLOOKUP(G3,C2:E5,VLOOKUP(H3,B3:F5,5,FALSE)+1,FALSE)</f>
         <v>+</v>
       </c>
-      <c r="H4" s="86"/>
+      <c r="H4" s="133"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
@@ -5754,8 +7050,8 @@
       <c r="F5" s="45">
         <v>3</v>
       </c>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="46"/>
@@ -5808,11 +7104,11 @@
       <c r="F9" s="45">
         <v>2</v>
       </c>
-      <c r="G9" s="86" t="str">
+      <c r="G9" s="133" t="str">
         <f>HLOOKUP(G8,C7:E10,VLOOKUP(H8,B8:F10,5,FALSE)+1,FALSE)</f>
         <v>=</v>
       </c>
-      <c r="H9" s="86"/>
+      <c r="H9" s="133"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
@@ -5830,8 +7126,8 @@
       <c r="F10" s="45">
         <v>3</v>
       </c>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
       <c r="J10" s="4">
         <v>1</v>
       </c>
@@ -5846,11 +7142,11 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C12" s="106" t="s">
+      <c r="C12" s="132" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
       <c r="J12" s="6">
         <f>COUNTIF(C14:E22,"=-")</f>
         <v>6</v>
@@ -5890,13 +7186,13 @@
       <c r="M13" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="O13" s="106" t="s">
+      <c r="O13" s="132" t="s">
         <v>141</v>
       </c>
-      <c r="P13" s="106"/>
+      <c r="P13" s="132"/>
     </row>
     <row r="14" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="91" t="s">
         <v>131</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -5917,19 +7213,19 @@
       <c r="H14" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="J14" s="87">
+      <c r="J14" s="80">
         <f>COUNTIF(C14:E14,"=-")</f>
         <v>0</v>
       </c>
-      <c r="K14" s="87">
+      <c r="K14" s="80">
         <f>COUNTIF(C14:E14,"==")</f>
         <v>2</v>
       </c>
-      <c r="L14" s="87">
+      <c r="L14" s="80">
         <f>COUNTIF(C14:E14,"=+")</f>
         <v>1</v>
       </c>
-      <c r="M14" s="87">
+      <c r="M14" s="80">
         <f>COUNTIF(C14:E14,"=++")</f>
         <v>0</v>
       </c>
@@ -5937,13 +7233,13 @@
         <f>$J$10*J14+$K$10*K14+$L$10*L14+$M$10*M14</f>
         <v>7</v>
       </c>
-      <c r="P14" s="114">
+      <c r="P14" s="131">
         <f>ROUND(AVERAGE(O14:O22),0)</f>
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="92" t="s">
         <v>132</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -5958,24 +7254,24 @@
       <c r="F15" s="45">
         <v>2</v>
       </c>
-      <c r="G15" s="108" t="str">
+      <c r="G15" s="134" t="str">
         <f>HLOOKUP(G14,C13:E22,VLOOKUP(H14,B14:F22,5,FALSE)+1,FALSE)</f>
         <v>+</v>
       </c>
-      <c r="H15" s="108"/>
-      <c r="J15" s="87">
+      <c r="H15" s="134"/>
+      <c r="J15" s="80">
         <f t="shared" ref="J15:J22" si="0">COUNTIF(C15:E15,"=-")</f>
         <v>1</v>
       </c>
-      <c r="K15" s="87">
+      <c r="K15" s="80">
         <f t="shared" ref="K15:K22" si="1">COUNTIF(C15:E15,"==")</f>
         <v>1</v>
       </c>
-      <c r="L15" s="87">
+      <c r="L15" s="80">
         <f t="shared" ref="L15:L22" si="2">COUNTIF(C15:E15,"=+")</f>
         <v>0</v>
       </c>
-      <c r="M15" s="87">
+      <c r="M15" s="80">
         <f t="shared" ref="M15:M22" si="3">COUNTIF(C15:E15,"=++")</f>
         <v>1</v>
       </c>
@@ -5983,10 +7279,10 @@
         <f t="shared" ref="O15:O22" si="4">$J$10*J15+$K$10*K15+$L$10*L15+$M$10*M15</f>
         <v>7</v>
       </c>
-      <c r="P15" s="114"/>
+      <c r="P15" s="131"/>
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="91" t="s">
         <v>133</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -6001,21 +7297,21 @@
       <c r="F16" s="45">
         <v>3</v>
       </c>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="J16" s="87">
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="J16" s="80">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K16" s="87">
+      <c r="K16" s="80">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L16" s="87">
+      <c r="L16" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M16" s="87">
+      <c r="M16" s="80">
         <f>COUNTIF(C16:E16,"=++")</f>
         <v>1</v>
       </c>
@@ -6023,10 +7319,10 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="P16" s="114"/>
+      <c r="P16" s="131"/>
     </row>
     <row r="17" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="92" t="s">
         <v>134</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -6041,19 +7337,19 @@
       <c r="F17" s="45">
         <v>4</v>
       </c>
-      <c r="J17" s="87">
+      <c r="J17" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K17" s="87">
+      <c r="K17" s="80">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L17" s="87">
+      <c r="L17" s="80">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M17" s="87">
+      <c r="M17" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6061,10 +7357,10 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="P17" s="114"/>
+      <c r="P17" s="131"/>
     </row>
     <row r="18" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="91" t="s">
         <v>135</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -6079,19 +7375,19 @@
       <c r="F18" s="45">
         <v>5</v>
       </c>
-      <c r="J18" s="87">
+      <c r="J18" s="80">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K18" s="87">
+      <c r="K18" s="80">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L18" s="87">
+      <c r="L18" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M18" s="87">
+      <c r="M18" s="80">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6099,13 +7395,13 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="P18" s="114"/>
+      <c r="P18" s="131"/>
     </row>
     <row r="19" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="105" t="s">
+      <c r="B19" s="92" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="93" t="s">
         <v>114</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -6117,19 +7413,19 @@
       <c r="F19" s="45">
         <v>6</v>
       </c>
-      <c r="J19" s="87">
+      <c r="J19" s="80">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K19" s="87">
+      <c r="K19" s="80">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L19" s="87">
+      <c r="L19" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M19" s="87">
+      <c r="M19" s="80">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6137,10 +7433,10 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="P19" s="114"/>
+      <c r="P19" s="131"/>
     </row>
     <row r="20" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="91" t="s">
         <v>137</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -6155,19 +7451,19 @@
       <c r="F20" s="45">
         <v>7</v>
       </c>
-      <c r="J20" s="87">
+      <c r="J20" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K20" s="87">
+      <c r="K20" s="80">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L20" s="87">
+      <c r="L20" s="80">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M20" s="87">
+      <c r="M20" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6175,10 +7471,10 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="P20" s="114"/>
+      <c r="P20" s="131"/>
     </row>
     <row r="21" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="105" t="s">
+      <c r="B21" s="92" t="s">
         <v>138</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -6193,19 +7489,19 @@
       <c r="F21" s="45">
         <v>8</v>
       </c>
-      <c r="J21" s="87">
+      <c r="J21" s="80">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K21" s="87">
+      <c r="K21" s="80">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L21" s="87">
+      <c r="L21" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M21" s="87">
+      <c r="M21" s="80">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6213,10 +7509,10 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="P21" s="114"/>
+      <c r="P21" s="131"/>
     </row>
     <row r="22" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="91" t="s">
         <v>139</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -6231,19 +7527,19 @@
       <c r="F22" s="45">
         <v>9</v>
       </c>
-      <c r="J22" s="87">
+      <c r="J22" s="80">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K22" s="87">
+      <c r="K22" s="80">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L22" s="87">
+      <c r="L22" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M22" s="87">
+      <c r="M22" s="80">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6251,72 +7547,72 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="P22" s="114"/>
+      <c r="P22" s="131"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="87">
+      <c r="C24" s="80">
         <f>COUNTIF(C14:C22,"=-")</f>
         <v>3</v>
       </c>
-      <c r="D24" s="87">
+      <c r="D24" s="80">
         <f t="shared" ref="D24:E24" si="5">COUNTIF(D14:D22,"=-")</f>
         <v>2</v>
       </c>
-      <c r="E24" s="87">
+      <c r="E24" s="80">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="105" t="s">
+      <c r="B25" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="87">
+      <c r="C25" s="80">
         <f>COUNTIF(C14:C22,"==")</f>
         <v>2</v>
       </c>
-      <c r="D25" s="87">
+      <c r="D25" s="80">
         <f t="shared" ref="D25:E25" si="6">COUNTIF(D14:D22,"==")</f>
         <v>4</v>
       </c>
-      <c r="E25" s="87">
+      <c r="E25" s="80">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="87">
+      <c r="B26" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="80">
         <f>COUNTIF(C14:C22,"=+")</f>
         <v>2</v>
       </c>
-      <c r="D26" s="87">
+      <c r="D26" s="80">
         <f t="shared" ref="D26:E26" si="7">COUNTIF(D14:D22,"=+")</f>
         <v>1</v>
       </c>
-      <c r="E26" s="87">
+      <c r="E26" s="80">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="105" t="s">
+      <c r="B27" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="87">
+      <c r="C27" s="80">
         <f>COUNTIF(C14:C22,"=++")</f>
         <v>2</v>
       </c>
-      <c r="D27" s="87">
+      <c r="D27" s="80">
         <f t="shared" ref="D27:E27" si="8">COUNTIF(D14:D22,"=++")</f>
         <v>2</v>
       </c>
-      <c r="E27" s="87">
+      <c r="E27" s="80">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
@@ -6336,51 +7632,51 @@
       </c>
     </row>
     <row r="30" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="114">
+      <c r="C30" s="131">
         <f>ROUND(AVERAGE(C29:E29),0)</f>
         <v>21</v>
       </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="106" t="s">
+      <c r="C31" s="132" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="132"/>
     </row>
     <row r="32" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="113"/>
+      <c r="C32" s="97"/>
     </row>
     <row r="33" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="113"/>
+      <c r="C33" s="97"/>
     </row>
     <row r="34" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="113"/>
+      <c r="C34" s="97"/>
     </row>
     <row r="35" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="113"/>
+      <c r="C35" s="97"/>
     </row>
     <row r="36" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="113"/>
+      <c r="C36" s="97"/>
     </row>
     <row r="37" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="113"/>
+      <c r="C37" s="97"/>
     </row>
     <row r="38" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="113"/>
+      <c r="C38" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="P14:P22"/>
+    <mergeCell ref="O13:P13"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="G4:H5"/>
     <mergeCell ref="G9:H10"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="G15:H16"/>
-    <mergeCell ref="P14:P22"/>
-    <mergeCell ref="O13:P13"/>
   </mergeCells>
   <conditionalFormatting sqref="J14:M22">
     <cfRule type="colorScale" priority="5">
@@ -6691,12 +7987,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B37B0DA-040C-4E1A-930F-48D7F5CF8BC3}">
-  <dimension ref="B1:J32"/>
+  <dimension ref="B1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6712,11 +8008,12 @@
     <col min="9" max="9" width="2.85546875" style="45" customWidth="1"/>
     <col min="10" max="10" width="21.42578125" style="45" customWidth="1"/>
     <col min="11" max="11" width="2.85546875" style="45" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="45"/>
+    <col min="12" max="12" width="21.42578125" style="45" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="47" t="s">
         <v>9</v>
       </c>
@@ -6732,13 +8029,16 @@
       <c r="J2" s="47" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L2" s="47" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="49" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="50"/>
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="94" t="s">
         <v>114</v>
       </c>
       <c r="E3" s="50"/>
@@ -6751,8 +8051,11 @@
       <c r="J3" s="52" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L3" s="52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="49" t="s">
         <v>7</v>
       </c>
@@ -6770,8 +8073,11 @@
       <c r="J4" s="52" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="52" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="54" t="s">
         <v>8</v>
       </c>
@@ -6789,8 +8095,11 @@
       <c r="J5" s="56" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="56" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="50"/>
       <c r="C6" s="50"/>
       <c r="D6" s="55" t="s">
@@ -6804,7 +8113,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="48" t="s">
         <v>59</v>
       </c>
@@ -6814,7 +8123,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="51" t="s">
         <v>11</v>
       </c>
@@ -6825,7 +8134,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="49" t="s">
         <v>0</v>
       </c>
@@ -6836,7 +8145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="49" t="s">
         <v>2</v>
       </c>
@@ -6847,7 +8156,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="49" t="s">
         <v>1</v>
       </c>
@@ -6858,7 +8167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="49" t="s">
         <v>3</v>
       </c>
@@ -6866,7 +8175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="54" t="s">
         <v>4</v>
       </c>
@@ -6874,7 +8183,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F14" s="47" t="s">
         <v>56</v>
       </c>
@@ -6882,7 +8191,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="48" t="s">
         <v>75</v>
       </c>
@@ -6893,7 +8202,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="51" t="s">
         <v>68</v>
       </c>
@@ -6987,6 +8296,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100841444F490B10C45A279B0383115D26D" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="91c543cf6706f2108a45fe2b21185738">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c3a97ae1-1078-4f52-97c7-e1e75f184270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6cf98f67490a83722a01f9dfd5fe46d6" ns3:_="">
     <xsd:import namespace="c3a97ae1-1078-4f52-97c7-e1e75f184270"/>
@@ -7118,35 +8442,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02023A10-1816-44FB-8F7C-8B09E93BD20F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{382CAFBC-27A9-4D0E-A532-4CEEC1A7F497}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c3a97ae1-1078-4f52-97c7-e1e75f184270"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7168,9 +8467,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{382CAFBC-27A9-4D0E-A532-4CEEC1A7F497}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02023A10-1816-44FB-8F7C-8B09E93BD20F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c3a97ae1-1078-4f52-97c7-e1e75f184270"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documents/GameDesign/System_Design.xlsx
+++ b/Documents/GameDesign/System_Design.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin DIJOUX\Documents\Unity\Workshop_TowerDefense\STD_Workshop\Documents\GameDesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\GameSup_GD1\Workshop\Tower_Defense\STD_Workshop\Documents\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E984DD9C-B78D-4998-B1FF-B940A795EB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486EE41F-4496-498D-9922-67C464538300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EE4EEEAB-A39E-4793-9971-E358DB8AAF6E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{EE4EEEAB-A39E-4793-9971-E358DB8AAF6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Wave" sheetId="10" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Weak" sheetId="5" r:id="rId7"/>
     <sheet name="TowerUpdate" sheetId="7" r:id="rId8"/>
     <sheet name="Data" sheetId="2" r:id="rId9"/>
+    <sheet name="Level_01" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="CAT_ENEMIES">Data!$H$9:$H$11</definedName>
@@ -33,6 +34,7 @@
     <definedName name="CODE_UPGRADE">TowerUpdate!$A$3:$A$11</definedName>
     <definedName name="ENEMY">Enemies!$A$3:$H$11</definedName>
     <definedName name="FACTORY">Factory!$A$3:$F$5</definedName>
+    <definedName name="FSTATS">StatsCalc!$C$15:$I$19</definedName>
     <definedName name="LEVEL_ENEMY">Data!$B$16:$B$21</definedName>
     <definedName name="SIGN">Data!$D$3:$D$6</definedName>
     <definedName name="STAT_ENEMY">Data!$H$3:$H$6</definedName>
@@ -75,7 +77,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -97,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="214">
   <si>
     <t>Upgrade 1</t>
   </si>
@@ -579,9 +581,6 @@
     <t>STAT_FACTORY</t>
   </si>
   <si>
-    <t>3_Car_Sta</t>
-  </si>
-  <si>
     <t>Factory Type</t>
   </si>
   <si>
@@ -721,6 +720,27 @@
   </si>
   <si>
     <t>Tower Dmg</t>
+  </si>
+  <si>
+    <t>Wave #6</t>
+  </si>
+  <si>
+    <t>Wave #7</t>
+  </si>
+  <si>
+    <t>Wave #8</t>
+  </si>
+  <si>
+    <t>Factory</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Factory Cost</t>
+  </si>
+  <si>
+    <t>2_Car_Bub</t>
   </si>
 </sst>
 </file>
@@ -826,7 +846,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -950,6 +970,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,7 +1162,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1400,103 +1432,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1507,9 +1449,6 @@
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1517,44 +1456,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
@@ -1582,12 +1491,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1607,6 +1510,177 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1614,7 +1688,28 @@
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
     <cellStyle name="Titre 3" xfId="2" builtinId="18"/>
   </cellStyles>
-  <dxfs count="134">
+  <dxfs count="137">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE45E5E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDA2020"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2557,6 +2652,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFDA2020"/>
+      <color rgb="FFE45E5E"/>
+      <color rgb="FFFF9393"/>
       <color rgb="FFFF7C80"/>
       <color rgb="FFFFCC99"/>
       <color rgb="FFFF9999"/>
@@ -2564,7 +2662,6 @@
       <color rgb="FFD1B2E8"/>
       <color rgb="FFFF66FF"/>
       <color rgb="FF66FFFF"/>
-      <color rgb="FFFF5050"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2877,1968 +2974,2068 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5160C2D8-E41F-4A96-A2A4-F551656CF858}">
   <dimension ref="A1:AV36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13:U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="143" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="109" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="31" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="128" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="143" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="98" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="109" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="128" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="143"/>
+    <col min="6" max="6" width="9.140625" style="98" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="109"/>
     <col min="8" max="8" width="9.140625" style="31"/>
-    <col min="9" max="9" width="9.140625" style="128"/>
-    <col min="10" max="10" width="9.140625" style="143"/>
+    <col min="9" max="9" width="9.140625" style="98"/>
+    <col min="10" max="10" width="9.140625" style="109"/>
     <col min="11" max="11" width="9.140625" style="31"/>
-    <col min="12" max="12" width="9.140625" style="128"/>
-    <col min="13" max="13" width="9.140625" style="143"/>
+    <col min="12" max="12" width="9.140625" style="98"/>
+    <col min="13" max="13" width="9.140625" style="109"/>
     <col min="14" max="14" width="9.140625" style="31"/>
-    <col min="15" max="15" width="9.140625" style="128"/>
-    <col min="16" max="16" width="9.140625" style="143"/>
+    <col min="15" max="15" width="9.140625" style="98"/>
+    <col min="16" max="16" width="9.140625" style="109"/>
     <col min="17" max="17" width="9.140625" style="31"/>
-    <col min="18" max="18" width="9.140625" style="128"/>
-    <col min="19" max="19" width="9.140625" style="143"/>
+    <col min="18" max="18" width="9.140625" style="98"/>
+    <col min="19" max="19" width="9.140625" style="109"/>
     <col min="20" max="20" width="9.140625" style="31"/>
-    <col min="21" max="21" width="9.140625" style="128"/>
-    <col min="22" max="22" width="9.140625" style="143" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="98"/>
+    <col min="22" max="22" width="9.140625" style="109" customWidth="1"/>
     <col min="23" max="23" width="9.140625" style="31"/>
-    <col min="24" max="24" width="9.140625" style="128"/>
-    <col min="25" max="25" width="9.140625" style="143"/>
+    <col min="24" max="24" width="9.140625" style="98"/>
+    <col min="25" max="25" width="9.140625" style="109"/>
     <col min="26" max="26" width="9.140625" style="31"/>
-    <col min="27" max="27" width="9.140625" style="128"/>
-    <col min="28" max="28" width="9.140625" style="143"/>
+    <col min="27" max="27" width="9.140625" style="98"/>
+    <col min="28" max="28" width="9.140625" style="109"/>
     <col min="29" max="29" width="9.140625" style="31"/>
-    <col min="30" max="30" width="9.140625" style="128"/>
-    <col min="31" max="31" width="9.140625" style="143"/>
+    <col min="30" max="30" width="9.140625" style="98"/>
+    <col min="31" max="31" width="9.140625" style="109"/>
     <col min="32" max="32" width="9.140625" style="31"/>
-    <col min="33" max="33" width="9.140625" style="128"/>
-    <col min="34" max="34" width="9.140625" style="143"/>
+    <col min="33" max="33" width="9.140625" style="98"/>
+    <col min="34" max="34" width="9.140625" style="109"/>
     <col min="35" max="35" width="9.140625" style="31"/>
-    <col min="36" max="36" width="9.140625" style="128"/>
-    <col min="37" max="37" width="9.140625" style="143"/>
+    <col min="36" max="36" width="9.140625" style="98"/>
+    <col min="37" max="37" width="9.140625" style="109"/>
     <col min="38" max="38" width="9.140625" style="31"/>
-    <col min="39" max="39" width="9.140625" style="128"/>
+    <col min="39" max="39" width="9.140625" style="98"/>
     <col min="40" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="152" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="140"/>
-      <c r="B1" s="141" t="s">
+    <row r="1" spans="1:48" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="108"/>
+      <c r="B1" s="148" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="140" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="142" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="149" t="s">
+      <c r="E1" s="143"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="142" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="150"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="149" t="s">
+      <c r="H1" s="143"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="142" t="s">
         <v>176</v>
       </c>
-      <c r="H1" s="150"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="149" t="s">
+      <c r="K1" s="143"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="K1" s="150"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="149" t="s">
+      <c r="N1" s="143"/>
+      <c r="O1" s="144"/>
+      <c r="P1" s="142" t="s">
         <v>178</v>
       </c>
-      <c r="N1" s="150"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="149" t="s">
+      <c r="Q1" s="143"/>
+      <c r="R1" s="144"/>
+      <c r="S1" s="142" t="s">
         <v>179</v>
       </c>
-      <c r="Q1" s="150"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="149" t="s">
+      <c r="T1" s="143"/>
+      <c r="U1" s="144"/>
+      <c r="V1" s="142" t="s">
+        <v>207</v>
+      </c>
+      <c r="W1" s="143"/>
+      <c r="X1" s="144"/>
+      <c r="Y1" s="142" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z1" s="143"/>
+      <c r="AA1" s="144"/>
+      <c r="AB1" s="142" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC1" s="143"/>
+      <c r="AD1" s="144"/>
+      <c r="AE1" s="142"/>
+      <c r="AF1" s="143"/>
+      <c r="AG1" s="144"/>
+      <c r="AH1" s="142"/>
+      <c r="AI1" s="143"/>
+      <c r="AJ1" s="144"/>
+      <c r="AK1" s="142"/>
+      <c r="AL1" s="143"/>
+      <c r="AM1" s="144"/>
+      <c r="AN1" s="123"/>
+      <c r="AO1" s="123"/>
+      <c r="AP1" s="123"/>
+      <c r="AQ1" s="123"/>
+      <c r="AR1" s="123"/>
+      <c r="AS1" s="123"/>
+      <c r="AT1" s="123"/>
+      <c r="AU1" s="123"/>
+      <c r="AV1" s="123"/>
+    </row>
+    <row r="2" spans="1:48" s="127" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="109"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="124" t="s">
         <v>180</v>
       </c>
-      <c r="T1" s="150"/>
-      <c r="U1" s="151"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="150"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="149"/>
-      <c r="Z1" s="150"/>
-      <c r="AA1" s="151"/>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="150"/>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="150"/>
-      <c r="AG1" s="151"/>
-      <c r="AH1" s="149"/>
-      <c r="AI1" s="150"/>
-      <c r="AJ1" s="151"/>
-      <c r="AK1" s="149"/>
-      <c r="AL1" s="150"/>
-      <c r="AM1" s="151"/>
-      <c r="AN1" s="166"/>
-      <c r="AO1" s="166"/>
-      <c r="AP1" s="166"/>
-      <c r="AQ1" s="166"/>
-      <c r="AR1" s="166"/>
-      <c r="AS1" s="166"/>
-      <c r="AT1" s="166"/>
-      <c r="AU1" s="166"/>
-      <c r="AV1" s="166"/>
-    </row>
-    <row r="2" spans="1:48" s="170" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="167" t="s">
+      <c r="E2" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" s="126" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="168" t="s">
-        <v>206</v>
-      </c>
-      <c r="F2" s="169" t="s">
-        <v>182</v>
-      </c>
-      <c r="G2" s="167" t="s">
+      <c r="G2" s="124" t="s">
+        <v>180</v>
+      </c>
+      <c r="H2" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="I2" s="126" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="168" t="s">
-        <v>206</v>
-      </c>
-      <c r="I2" s="169" t="s">
-        <v>182</v>
-      </c>
-      <c r="J2" s="167" t="s">
+      <c r="J2" s="124" t="s">
+        <v>180</v>
+      </c>
+      <c r="K2" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" s="126" t="s">
         <v>181</v>
       </c>
-      <c r="K2" s="168" t="s">
-        <v>206</v>
-      </c>
-      <c r="L2" s="169" t="s">
-        <v>182</v>
-      </c>
-      <c r="M2" s="167" t="s">
+      <c r="M2" s="124" t="s">
+        <v>180</v>
+      </c>
+      <c r="N2" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="O2" s="126" t="s">
         <v>181</v>
       </c>
-      <c r="N2" s="168" t="s">
-        <v>206</v>
-      </c>
-      <c r="O2" s="169" t="s">
-        <v>182</v>
-      </c>
-      <c r="P2" s="167" t="s">
+      <c r="P2" s="124" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q2" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="R2" s="126" t="s">
         <v>181</v>
       </c>
-      <c r="Q2" s="168" t="s">
-        <v>206</v>
-      </c>
-      <c r="R2" s="169" t="s">
-        <v>182</v>
-      </c>
-      <c r="S2" s="167" t="s">
+      <c r="S2" s="124" t="s">
+        <v>180</v>
+      </c>
+      <c r="T2" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="U2" s="126" t="s">
         <v>181</v>
       </c>
-      <c r="T2" s="168" t="s">
-        <v>206</v>
-      </c>
-      <c r="U2" s="169" t="s">
-        <v>182</v>
-      </c>
-      <c r="V2" s="167"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="169"/>
-      <c r="Y2" s="167"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="169"/>
-      <c r="AB2" s="167"/>
-      <c r="AC2" s="168"/>
-      <c r="AD2" s="169"/>
-      <c r="AE2" s="167"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="169"/>
-      <c r="AH2" s="167"/>
-      <c r="AI2" s="168"/>
-      <c r="AJ2" s="169"/>
-      <c r="AK2" s="167"/>
-      <c r="AL2" s="168"/>
-      <c r="AM2" s="169"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="124"/>
+      <c r="Z2" s="125"/>
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="125"/>
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="124"/>
+      <c r="AF2" s="125"/>
+      <c r="AG2" s="126"/>
+      <c r="AH2" s="124"/>
+      <c r="AI2" s="125"/>
+      <c r="AJ2" s="126"/>
+      <c r="AK2" s="124"/>
+      <c r="AL2" s="125"/>
+      <c r="AM2" s="126"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="135" t="str">
-        <f>VLOOKUP(B3,ENEMY,4)</f>
+      <c r="C3" s="104" t="str">
+        <f t="shared" ref="C3:C11" si="0">VLOOKUP(B3,ENEMY,4)</f>
         <v>Normal</v>
       </c>
-      <c r="D3" s="153"/>
+      <c r="D3" s="112"/>
       <c r="E3" s="81"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="153">
+      <c r="F3" s="113"/>
+      <c r="G3" s="112">
         <v>6</v>
       </c>
       <c r="H3" s="81">
         <v>3</v>
       </c>
-      <c r="I3" s="154">
+      <c r="I3" s="113">
         <v>2</v>
       </c>
-      <c r="J3" s="153"/>
+      <c r="J3" s="112"/>
       <c r="K3" s="81"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="153"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="112"/>
       <c r="N3" s="81"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="153">
+      <c r="O3" s="113"/>
+      <c r="P3" s="112">
         <v>30</v>
       </c>
       <c r="Q3" s="81">
         <v>2</v>
       </c>
-      <c r="R3" s="154">
+      <c r="R3" s="113">
         <v>2</v>
       </c>
-      <c r="S3" s="153">
+      <c r="S3" s="112">
         <v>50</v>
       </c>
       <c r="T3" s="81">
         <v>6</v>
       </c>
-      <c r="U3" s="154">
+      <c r="U3" s="113">
         <v>5</v>
       </c>
-      <c r="V3" s="153"/>
+      <c r="V3" s="112"/>
       <c r="W3" s="81"/>
-      <c r="X3" s="154"/>
-      <c r="Y3" s="153"/>
+      <c r="X3" s="113"/>
+      <c r="Y3" s="112"/>
       <c r="Z3" s="81"/>
-      <c r="AA3" s="154"/>
-      <c r="AB3" s="153"/>
+      <c r="AA3" s="113"/>
+      <c r="AB3" s="112"/>
       <c r="AC3" s="81"/>
-      <c r="AD3" s="154"/>
-      <c r="AE3" s="153"/>
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="112"/>
       <c r="AF3" s="81"/>
-      <c r="AG3" s="154"/>
-      <c r="AH3" s="153"/>
+      <c r="AG3" s="113"/>
+      <c r="AH3" s="112"/>
       <c r="AI3" s="81"/>
-      <c r="AJ3" s="154"/>
-      <c r="AK3" s="153"/>
+      <c r="AJ3" s="113"/>
+      <c r="AK3" s="112"/>
       <c r="AL3" s="81"/>
-      <c r="AM3" s="154"/>
+      <c r="AM3" s="113"/>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B4" s="129" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="135" t="str">
-        <f>VLOOKUP(B4,ENEMY,4)</f>
+      <c r="B4" s="99" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="104" t="str">
+        <f t="shared" si="0"/>
         <v>Intangible</v>
       </c>
-      <c r="D4" s="155"/>
+      <c r="D4" s="114"/>
       <c r="E4" s="80"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="155"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="114"/>
       <c r="H4" s="80"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="155">
+      <c r="I4" s="115"/>
+      <c r="J4" s="114">
         <v>10</v>
       </c>
       <c r="K4" s="80">
         <v>5</v>
       </c>
-      <c r="L4" s="156">
+      <c r="L4" s="115">
         <v>1</v>
       </c>
-      <c r="M4" s="155"/>
+      <c r="M4" s="114"/>
       <c r="N4" s="80"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="155">
+      <c r="O4" s="115"/>
+      <c r="P4" s="114">
         <v>60</v>
       </c>
       <c r="Q4" s="80">
         <v>3</v>
       </c>
-      <c r="R4" s="156">
+      <c r="R4" s="115">
         <v>0.25</v>
       </c>
-      <c r="S4" s="155">
+      <c r="S4" s="114">
         <v>75</v>
       </c>
       <c r="T4" s="80">
         <v>10</v>
       </c>
-      <c r="U4" s="156">
+      <c r="U4" s="115">
         <v>3</v>
       </c>
-      <c r="V4" s="155"/>
+      <c r="V4" s="114"/>
       <c r="W4" s="80"/>
-      <c r="X4" s="156"/>
-      <c r="Y4" s="155"/>
+      <c r="X4" s="115"/>
+      <c r="Y4" s="114"/>
       <c r="Z4" s="80"/>
-      <c r="AA4" s="156"/>
-      <c r="AB4" s="155"/>
+      <c r="AA4" s="115"/>
+      <c r="AB4" s="114"/>
       <c r="AC4" s="80"/>
-      <c r="AD4" s="156"/>
-      <c r="AE4" s="155"/>
+      <c r="AD4" s="115"/>
+      <c r="AE4" s="114"/>
       <c r="AF4" s="80"/>
-      <c r="AG4" s="156"/>
-      <c r="AH4" s="155"/>
+      <c r="AG4" s="115"/>
+      <c r="AH4" s="114"/>
       <c r="AI4" s="80"/>
-      <c r="AJ4" s="156"/>
-      <c r="AK4" s="155"/>
+      <c r="AJ4" s="115"/>
+      <c r="AK4" s="114"/>
       <c r="AL4" s="80"/>
-      <c r="AM4" s="156"/>
+      <c r="AM4" s="115"/>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B5" s="129" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" s="135" t="str">
-        <f>VLOOKUP(B5,ENEMY,4)</f>
+      <c r="B5" s="99" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="104" t="str">
+        <f t="shared" si="0"/>
         <v>Saboteur</v>
       </c>
-      <c r="D5" s="153"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="81"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="153"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="112"/>
       <c r="H5" s="81"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="153"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="112"/>
       <c r="K5" s="81"/>
-      <c r="L5" s="154"/>
-      <c r="M5" s="153">
+      <c r="L5" s="113"/>
+      <c r="M5" s="112">
         <v>3</v>
       </c>
       <c r="N5" s="81">
         <v>2</v>
       </c>
-      <c r="O5" s="154">
+      <c r="O5" s="113">
         <v>4</v>
       </c>
-      <c r="P5" s="153"/>
+      <c r="P5" s="112"/>
       <c r="Q5" s="81"/>
-      <c r="R5" s="154"/>
-      <c r="S5" s="153">
+      <c r="R5" s="113"/>
+      <c r="S5" s="112">
         <v>20</v>
       </c>
       <c r="T5" s="81">
         <v>5</v>
       </c>
-      <c r="U5" s="154">
+      <c r="U5" s="113">
         <v>10</v>
       </c>
-      <c r="V5" s="153"/>
+      <c r="V5" s="112"/>
       <c r="W5" s="81"/>
-      <c r="X5" s="154"/>
-      <c r="Y5" s="153"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="112"/>
       <c r="Z5" s="81"/>
-      <c r="AA5" s="154"/>
-      <c r="AB5" s="153"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="112"/>
       <c r="AC5" s="81"/>
-      <c r="AD5" s="154"/>
-      <c r="AE5" s="153"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="112"/>
       <c r="AF5" s="81"/>
-      <c r="AG5" s="154"/>
-      <c r="AH5" s="153"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="112"/>
       <c r="AI5" s="81"/>
-      <c r="AJ5" s="154"/>
-      <c r="AK5" s="153"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="112"/>
       <c r="AL5" s="81"/>
-      <c r="AM5" s="154"/>
+      <c r="AM5" s="113"/>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B6" s="129" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" s="135" t="str">
-        <f>VLOOKUP(B6,ENEMY,4)</f>
+      <c r="B6" s="99" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="104" t="str">
+        <f t="shared" si="0"/>
         <v>Normal</v>
       </c>
-      <c r="D6" s="155"/>
+      <c r="D6" s="114"/>
       <c r="E6" s="80"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="155">
+      <c r="F6" s="115"/>
+      <c r="G6" s="114">
         <v>6</v>
       </c>
       <c r="H6" s="80">
         <v>3</v>
       </c>
-      <c r="I6" s="156">
+      <c r="I6" s="115">
         <v>2</v>
       </c>
-      <c r="J6" s="155"/>
+      <c r="J6" s="114"/>
       <c r="K6" s="80"/>
-      <c r="L6" s="156"/>
-      <c r="M6" s="155"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="114"/>
       <c r="N6" s="80"/>
-      <c r="O6" s="156"/>
-      <c r="P6" s="155">
+      <c r="O6" s="115"/>
+      <c r="P6" s="114">
         <v>30</v>
       </c>
       <c r="Q6" s="80">
         <v>2</v>
       </c>
-      <c r="R6" s="156">
+      <c r="R6" s="115">
         <v>0.5</v>
       </c>
-      <c r="S6" s="155">
+      <c r="S6" s="114">
         <v>50</v>
       </c>
       <c r="T6" s="80">
         <v>6</v>
       </c>
-      <c r="U6" s="156">
+      <c r="U6" s="115">
         <v>5</v>
       </c>
-      <c r="V6" s="155"/>
+      <c r="V6" s="114"/>
       <c r="W6" s="80"/>
-      <c r="X6" s="156"/>
-      <c r="Y6" s="155"/>
+      <c r="X6" s="115"/>
+      <c r="Y6" s="114"/>
       <c r="Z6" s="80"/>
-      <c r="AA6" s="156"/>
-      <c r="AB6" s="155"/>
+      <c r="AA6" s="115"/>
+      <c r="AB6" s="114"/>
       <c r="AC6" s="80"/>
-      <c r="AD6" s="156"/>
-      <c r="AE6" s="155"/>
+      <c r="AD6" s="115"/>
+      <c r="AE6" s="114"/>
       <c r="AF6" s="80"/>
-      <c r="AG6" s="156"/>
-      <c r="AH6" s="155"/>
+      <c r="AG6" s="115"/>
+      <c r="AH6" s="114"/>
       <c r="AI6" s="80"/>
-      <c r="AJ6" s="156"/>
-      <c r="AK6" s="155"/>
+      <c r="AJ6" s="115"/>
+      <c r="AK6" s="114"/>
       <c r="AL6" s="80"/>
-      <c r="AM6" s="156"/>
+      <c r="AM6" s="115"/>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B7" s="129" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="135" t="str">
-        <f>VLOOKUP(B7,ENEMY,4)</f>
+      <c r="B7" s="99" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="104" t="str">
+        <f t="shared" si="0"/>
         <v>Intangible</v>
       </c>
-      <c r="D7" s="153"/>
+      <c r="D7" s="112"/>
       <c r="E7" s="81"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="153"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="81"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="153">
+      <c r="I7" s="113"/>
+      <c r="J7" s="112">
         <v>10</v>
       </c>
       <c r="K7" s="81">
         <v>5</v>
       </c>
-      <c r="L7" s="154">
+      <c r="L7" s="113">
         <v>1</v>
       </c>
-      <c r="M7" s="153"/>
+      <c r="M7" s="112"/>
       <c r="N7" s="81"/>
-      <c r="O7" s="154"/>
-      <c r="P7" s="153">
+      <c r="O7" s="113"/>
+      <c r="P7" s="112">
         <v>60</v>
       </c>
       <c r="Q7" s="81">
         <v>3</v>
       </c>
-      <c r="R7" s="154">
+      <c r="R7" s="113">
         <v>0.25</v>
       </c>
-      <c r="S7" s="153">
+      <c r="S7" s="112">
         <v>75</v>
       </c>
       <c r="T7" s="81">
         <v>10</v>
       </c>
-      <c r="U7" s="154">
+      <c r="U7" s="113">
         <v>3</v>
       </c>
-      <c r="V7" s="153"/>
+      <c r="V7" s="112"/>
       <c r="W7" s="81"/>
-      <c r="X7" s="154"/>
-      <c r="Y7" s="153"/>
+      <c r="X7" s="113"/>
+      <c r="Y7" s="112"/>
       <c r="Z7" s="81"/>
-      <c r="AA7" s="154"/>
-      <c r="AB7" s="153"/>
+      <c r="AA7" s="113"/>
+      <c r="AB7" s="112"/>
       <c r="AC7" s="81"/>
-      <c r="AD7" s="154"/>
-      <c r="AE7" s="153"/>
+      <c r="AD7" s="113"/>
+      <c r="AE7" s="112"/>
       <c r="AF7" s="81"/>
-      <c r="AG7" s="154"/>
-      <c r="AH7" s="153"/>
+      <c r="AG7" s="113"/>
+      <c r="AH7" s="112"/>
       <c r="AI7" s="81"/>
-      <c r="AJ7" s="154"/>
-      <c r="AK7" s="153"/>
+      <c r="AJ7" s="113"/>
+      <c r="AK7" s="112"/>
       <c r="AL7" s="81"/>
-      <c r="AM7" s="154"/>
+      <c r="AM7" s="113"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B8" s="129" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" s="135" t="str">
-        <f>VLOOKUP(B8,ENEMY,4)</f>
+      <c r="B8" s="99" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="104" t="str">
+        <f t="shared" si="0"/>
         <v>Saboteur</v>
       </c>
-      <c r="D8" s="155"/>
+      <c r="D8" s="114"/>
       <c r="E8" s="80"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="155"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="114"/>
       <c r="H8" s="80"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="155"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="114"/>
       <c r="K8" s="80"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="155">
+      <c r="L8" s="115"/>
+      <c r="M8" s="114">
         <v>3</v>
       </c>
       <c r="N8" s="80">
         <v>2</v>
       </c>
-      <c r="O8" s="156">
+      <c r="O8" s="115">
         <v>4</v>
       </c>
-      <c r="P8" s="155"/>
+      <c r="P8" s="114"/>
       <c r="Q8" s="80"/>
-      <c r="R8" s="156"/>
-      <c r="S8" s="155">
+      <c r="R8" s="115"/>
+      <c r="S8" s="114">
         <v>20</v>
       </c>
       <c r="T8" s="80">
         <v>5</v>
       </c>
-      <c r="U8" s="156">
+      <c r="U8" s="115">
         <v>10</v>
       </c>
-      <c r="V8" s="155"/>
+      <c r="V8" s="114"/>
       <c r="W8" s="80"/>
-      <c r="X8" s="156"/>
-      <c r="Y8" s="155"/>
+      <c r="X8" s="115"/>
+      <c r="Y8" s="114"/>
       <c r="Z8" s="80"/>
-      <c r="AA8" s="156"/>
-      <c r="AB8" s="155"/>
+      <c r="AA8" s="115"/>
+      <c r="AB8" s="114"/>
       <c r="AC8" s="80"/>
-      <c r="AD8" s="156"/>
-      <c r="AE8" s="155"/>
+      <c r="AD8" s="115"/>
+      <c r="AE8" s="114"/>
       <c r="AF8" s="80"/>
-      <c r="AG8" s="156"/>
-      <c r="AH8" s="155"/>
+      <c r="AG8" s="115"/>
+      <c r="AH8" s="114"/>
       <c r="AI8" s="80"/>
-      <c r="AJ8" s="156"/>
-      <c r="AK8" s="155"/>
+      <c r="AJ8" s="115"/>
+      <c r="AK8" s="114"/>
       <c r="AL8" s="80"/>
-      <c r="AM8" s="156"/>
+      <c r="AM8" s="115"/>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B9" s="129" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9" s="135" t="str">
-        <f>VLOOKUP(B9,ENEMY,4)</f>
+      <c r="B9" s="99" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="104" t="str">
+        <f t="shared" si="0"/>
         <v>Normal</v>
       </c>
-      <c r="D9" s="153"/>
+      <c r="D9" s="112"/>
       <c r="E9" s="81"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="153">
+      <c r="F9" s="113"/>
+      <c r="G9" s="112">
         <v>6</v>
       </c>
       <c r="H9" s="81">
         <v>3</v>
       </c>
-      <c r="I9" s="154">
+      <c r="I9" s="113">
         <v>2</v>
       </c>
-      <c r="J9" s="153"/>
+      <c r="J9" s="112"/>
       <c r="K9" s="81"/>
-      <c r="L9" s="154"/>
-      <c r="M9" s="153"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="112"/>
       <c r="N9" s="81"/>
-      <c r="O9" s="154"/>
-      <c r="P9" s="153">
+      <c r="O9" s="113"/>
+      <c r="P9" s="112">
         <v>30</v>
       </c>
       <c r="Q9" s="81">
         <v>2</v>
       </c>
-      <c r="R9" s="154">
+      <c r="R9" s="113">
         <v>0.5</v>
       </c>
-      <c r="S9" s="153">
+      <c r="S9" s="112">
         <v>50</v>
       </c>
       <c r="T9" s="81">
         <v>6</v>
       </c>
-      <c r="U9" s="154">
+      <c r="U9" s="113">
         <v>5</v>
       </c>
-      <c r="V9" s="153"/>
+      <c r="V9" s="112"/>
       <c r="W9" s="81"/>
-      <c r="X9" s="154"/>
-      <c r="Y9" s="153"/>
+      <c r="X9" s="113"/>
+      <c r="Y9" s="112"/>
       <c r="Z9" s="81"/>
-      <c r="AA9" s="154"/>
-      <c r="AB9" s="153"/>
+      <c r="AA9" s="113"/>
+      <c r="AB9" s="112"/>
       <c r="AC9" s="81"/>
-      <c r="AD9" s="154"/>
-      <c r="AE9" s="153"/>
+      <c r="AD9" s="113"/>
+      <c r="AE9" s="112"/>
       <c r="AF9" s="81"/>
-      <c r="AG9" s="154"/>
-      <c r="AH9" s="153"/>
+      <c r="AG9" s="113"/>
+      <c r="AH9" s="112"/>
       <c r="AI9" s="81"/>
-      <c r="AJ9" s="154"/>
-      <c r="AK9" s="153"/>
+      <c r="AJ9" s="113"/>
+      <c r="AK9" s="112"/>
       <c r="AL9" s="81"/>
-      <c r="AM9" s="154"/>
+      <c r="AM9" s="113"/>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B10" s="129" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" s="135" t="str">
-        <f>VLOOKUP(B10,ENEMY,4)</f>
+      <c r="B10" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="104" t="str">
+        <f t="shared" si="0"/>
         <v>Intangible</v>
       </c>
-      <c r="D10" s="155"/>
+      <c r="D10" s="114"/>
       <c r="E10" s="80"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="155"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="114"/>
       <c r="H10" s="80"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="155">
+      <c r="I10" s="115"/>
+      <c r="J10" s="114">
         <v>10</v>
       </c>
       <c r="K10" s="80">
         <v>5</v>
       </c>
-      <c r="L10" s="156">
+      <c r="L10" s="115">
         <v>1</v>
       </c>
-      <c r="M10" s="155"/>
+      <c r="M10" s="114"/>
       <c r="N10" s="80"/>
-      <c r="O10" s="156"/>
-      <c r="P10" s="155">
+      <c r="O10" s="115"/>
+      <c r="P10" s="114">
         <v>60</v>
       </c>
       <c r="Q10" s="80">
         <v>3</v>
       </c>
-      <c r="R10" s="156">
+      <c r="R10" s="115">
         <v>0.25</v>
       </c>
-      <c r="S10" s="155">
+      <c r="S10" s="114">
         <v>75</v>
       </c>
       <c r="T10" s="80">
         <v>10</v>
       </c>
-      <c r="U10" s="156">
+      <c r="U10" s="115">
         <v>3</v>
       </c>
-      <c r="V10" s="155"/>
+      <c r="V10" s="114"/>
       <c r="W10" s="80"/>
-      <c r="X10" s="156"/>
-      <c r="Y10" s="155"/>
+      <c r="X10" s="115"/>
+      <c r="Y10" s="114"/>
       <c r="Z10" s="80"/>
-      <c r="AA10" s="156"/>
-      <c r="AB10" s="155"/>
+      <c r="AA10" s="115"/>
+      <c r="AB10" s="114"/>
       <c r="AC10" s="80"/>
-      <c r="AD10" s="156"/>
-      <c r="AE10" s="155"/>
+      <c r="AD10" s="115"/>
+      <c r="AE10" s="114"/>
       <c r="AF10" s="80"/>
-      <c r="AG10" s="156"/>
-      <c r="AH10" s="155"/>
+      <c r="AG10" s="115"/>
+      <c r="AH10" s="114"/>
       <c r="AI10" s="80"/>
-      <c r="AJ10" s="156"/>
-      <c r="AK10" s="155"/>
+      <c r="AJ10" s="115"/>
+      <c r="AK10" s="114"/>
       <c r="AL10" s="80"/>
-      <c r="AM10" s="156"/>
+      <c r="AM10" s="115"/>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B11" s="129" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="135" t="str">
-        <f>VLOOKUP(B11,ENEMY,4)</f>
+      <c r="B11" s="99" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="104" t="str">
+        <f t="shared" si="0"/>
         <v>Saboteur</v>
       </c>
-      <c r="D11" s="153"/>
+      <c r="D11" s="112"/>
       <c r="E11" s="81"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="153"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="112"/>
       <c r="H11" s="81"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="153"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="112"/>
       <c r="K11" s="81"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="153">
+      <c r="L11" s="113"/>
+      <c r="M11" s="112">
         <v>3</v>
       </c>
       <c r="N11" s="81">
         <v>2</v>
       </c>
-      <c r="O11" s="154">
+      <c r="O11" s="113">
         <v>4</v>
       </c>
-      <c r="P11" s="153"/>
+      <c r="P11" s="112"/>
       <c r="Q11" s="81"/>
-      <c r="R11" s="154"/>
-      <c r="S11" s="153">
+      <c r="R11" s="113"/>
+      <c r="S11" s="112">
         <v>20</v>
       </c>
       <c r="T11" s="81">
         <v>5</v>
       </c>
-      <c r="U11" s="154">
+      <c r="U11" s="113">
         <v>10</v>
       </c>
-      <c r="V11" s="153"/>
+      <c r="V11" s="112"/>
       <c r="W11" s="81"/>
-      <c r="X11" s="154"/>
-      <c r="Y11" s="153"/>
+      <c r="X11" s="113"/>
+      <c r="Y11" s="112"/>
       <c r="Z11" s="81"/>
-      <c r="AA11" s="154"/>
-      <c r="AB11" s="153"/>
+      <c r="AA11" s="113"/>
+      <c r="AB11" s="112"/>
       <c r="AC11" s="81"/>
-      <c r="AD11" s="154"/>
-      <c r="AE11" s="153"/>
+      <c r="AD11" s="113"/>
+      <c r="AE11" s="112"/>
       <c r="AF11" s="81"/>
-      <c r="AG11" s="154"/>
-      <c r="AH11" s="153"/>
+      <c r="AG11" s="113"/>
+      <c r="AH11" s="112"/>
       <c r="AI11" s="81"/>
-      <c r="AJ11" s="154"/>
-      <c r="AK11" s="153"/>
+      <c r="AJ11" s="113"/>
+      <c r="AK11" s="112"/>
       <c r="AL11" s="81"/>
-      <c r="AM11" s="154"/>
+      <c r="AM11" s="113"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="D12" s="147"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="134"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="133"/>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B13" s="82" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" s="161">
+        <v>182</v>
+      </c>
+      <c r="D13" s="145">
         <v>100</v>
       </c>
-      <c r="E13" s="110"/>
-      <c r="F13" s="162"/>
-      <c r="G13" s="144">
+      <c r="E13" s="146"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="137">
         <f>D16</f>
         <v>100</v>
       </c>
-      <c r="H13" s="145"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="144">
+      <c r="H13" s="138"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="137">
         <f>G16</f>
         <v>94</v>
       </c>
-      <c r="K13" s="145"/>
-      <c r="L13" s="146"/>
-      <c r="M13" s="144">
+      <c r="K13" s="138"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="137">
         <f>J16</f>
         <v>84</v>
       </c>
-      <c r="N13" s="145"/>
-      <c r="O13" s="146"/>
-      <c r="P13" s="144">
+      <c r="N13" s="138"/>
+      <c r="O13" s="139"/>
+      <c r="P13" s="137">
         <f>M16</f>
         <v>78</v>
       </c>
-      <c r="Q13" s="145"/>
-      <c r="R13" s="146"/>
-      <c r="S13" s="144">
+      <c r="Q13" s="138"/>
+      <c r="R13" s="139"/>
+      <c r="S13" s="137">
         <f>P16</f>
         <v>69</v>
       </c>
-      <c r="T13" s="145"/>
-      <c r="U13" s="146"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="145"/>
-      <c r="X13" s="146"/>
-      <c r="Y13" s="144"/>
-      <c r="Z13" s="145"/>
-      <c r="AA13" s="146"/>
-      <c r="AB13" s="144"/>
-      <c r="AC13" s="145"/>
-      <c r="AD13" s="146"/>
-      <c r="AE13" s="144"/>
-      <c r="AF13" s="145"/>
-      <c r="AG13" s="146"/>
-      <c r="AH13" s="144"/>
-      <c r="AI13" s="145"/>
-      <c r="AJ13" s="146"/>
-      <c r="AK13" s="144"/>
-      <c r="AL13" s="145"/>
-      <c r="AM13" s="146"/>
+      <c r="T13" s="138"/>
+      <c r="U13" s="139"/>
+      <c r="V13" s="137"/>
+      <c r="W13" s="138"/>
+      <c r="X13" s="139"/>
+      <c r="Y13" s="137"/>
+      <c r="Z13" s="138"/>
+      <c r="AA13" s="139"/>
+      <c r="AB13" s="137"/>
+      <c r="AC13" s="138"/>
+      <c r="AD13" s="139"/>
+      <c r="AE13" s="137"/>
+      <c r="AF13" s="138"/>
+      <c r="AG13" s="139"/>
+      <c r="AH13" s="137"/>
+      <c r="AI13" s="138"/>
+      <c r="AJ13" s="139"/>
+      <c r="AK13" s="137"/>
+      <c r="AL13" s="138"/>
+      <c r="AM13" s="139"/>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B14" s="86" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="147">
+        <v>183</v>
+      </c>
+      <c r="D14" s="131">
         <f>D3*VLOOKUP($B$3,ENEMY,7)+D4*VLOOKUP($B$4,ENEMY,7)+D5*VLOOKUP($B$5,ENEMY,7)+D6*VLOOKUP($B$6,ENEMY,7)+D7*VLOOKUP($B$7,ENEMY,7)+D8*VLOOKUP($B$8,ENEMY,7)+D9*VLOOKUP($B$9,ENEMY,7)+D10*VLOOKUP($B$10,ENEMY,7)+D11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="148"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="147">
+      <c r="E14" s="132"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="131">
         <f>G3*H3*VLOOKUP($B$3,ENEMY,7)+G4*H4*VLOOKUP($B$4,ENEMY,7)+G5*H5*VLOOKUP($B$5,ENEMY,7)+G6*H6*VLOOKUP($B$6,ENEMY,7)+G7*H7*VLOOKUP($B$7,ENEMY,7)+G8*H8*VLOOKUP($B$8,ENEMY,7)+G9*H9*VLOOKUP($B$9,ENEMY,7)+G10*H10*VLOOKUP($B$10,ENEMY,7)+G11*H11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>270</v>
       </c>
-      <c r="H14" s="148"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="147">
+      <c r="H14" s="132"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="131">
         <f>J3*K3*VLOOKUP($B$3,ENEMY,7)+J4*K4*VLOOKUP($B$4,ENEMY,7)+J5*K5*VLOOKUP($B$5,ENEMY,7)+J6*K6*VLOOKUP($B$6,ENEMY,7)+J7*K7*VLOOKUP($B$7,ENEMY,7)+J8*K8*VLOOKUP($B$8,ENEMY,7)+J9*K9*VLOOKUP($B$9,ENEMY,7)+J10*K10*VLOOKUP($B$10,ENEMY,7)+J11*K11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>450</v>
       </c>
-      <c r="K14" s="148"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="147">
+      <c r="K14" s="132"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="131">
         <f>M3*N3*VLOOKUP($B$3,ENEMY,7)+M4*N4*VLOOKUP($B$4,ENEMY,7)+M5*N5*VLOOKUP($B$5,ENEMY,7)+M6*N6*VLOOKUP($B$6,ENEMY,7)+M7*N7*VLOOKUP($B$7,ENEMY,7)+M8*N8*VLOOKUP($B$8,ENEMY,7)+M9*N9*VLOOKUP($B$9,ENEMY,7)+M10*N10*VLOOKUP($B$10,ENEMY,7)+M11*N11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>135</v>
       </c>
-      <c r="N14" s="148"/>
-      <c r="O14" s="134"/>
-      <c r="P14" s="147">
+      <c r="N14" s="132"/>
+      <c r="O14" s="133"/>
+      <c r="P14" s="131">
         <f>P3*Q3*VLOOKUP($B$3,ENEMY,7)+P4*Q4*VLOOKUP($B$4,ENEMY,7)+P5*Q5*VLOOKUP($B$5,ENEMY,7)+P6*Q6*VLOOKUP($B$6,ENEMY,7)+P7*Q7*VLOOKUP($B$7,ENEMY,7)+P8*Q8*VLOOKUP($B$8,ENEMY,7)+P9*Q9*VLOOKUP($B$9,ENEMY,7)+P10*Q10*VLOOKUP($B$10,ENEMY,7)+P11*Q11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>2520</v>
       </c>
-      <c r="Q14" s="148"/>
-      <c r="R14" s="134"/>
-      <c r="S14" s="147">
+      <c r="Q14" s="132"/>
+      <c r="R14" s="133"/>
+      <c r="S14" s="131">
         <f>S3*T3*VLOOKUP($B$3,ENEMY,7)+S4*T4*VLOOKUP($B$4,ENEMY,7)+S5*T5*VLOOKUP($B$5,ENEMY,7)+S6*T6*VLOOKUP($B$6,ENEMY,7)+S7*T7*VLOOKUP($B$7,ENEMY,7)+S8*T8*VLOOKUP($B$8,ENEMY,7)+S9*T9*VLOOKUP($B$9,ENEMY,7)+S10*T10*VLOOKUP($B$10,ENEMY,7)+S11*T11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>13500</v>
       </c>
-      <c r="T14" s="148"/>
-      <c r="U14" s="134"/>
-      <c r="V14" s="147"/>
-      <c r="W14" s="148"/>
-      <c r="X14" s="134"/>
-      <c r="Y14" s="147"/>
-      <c r="Z14" s="148"/>
-      <c r="AA14" s="134"/>
-      <c r="AB14" s="147"/>
-      <c r="AC14" s="148"/>
-      <c r="AD14" s="134"/>
-      <c r="AE14" s="147"/>
-      <c r="AF14" s="148"/>
-      <c r="AG14" s="134"/>
-      <c r="AH14" s="147"/>
-      <c r="AI14" s="148"/>
-      <c r="AJ14" s="134"/>
-      <c r="AK14" s="147"/>
-      <c r="AL14" s="148"/>
-      <c r="AM14" s="134"/>
+      <c r="T14" s="132"/>
+      <c r="U14" s="133"/>
+      <c r="V14" s="131"/>
+      <c r="W14" s="132"/>
+      <c r="X14" s="133"/>
+      <c r="Y14" s="131"/>
+      <c r="Z14" s="132"/>
+      <c r="AA14" s="133"/>
+      <c r="AB14" s="131"/>
+      <c r="AC14" s="132"/>
+      <c r="AD14" s="133"/>
+      <c r="AE14" s="131"/>
+      <c r="AF14" s="132"/>
+      <c r="AG14" s="133"/>
+      <c r="AH14" s="131"/>
+      <c r="AI14" s="132"/>
+      <c r="AJ14" s="133"/>
+      <c r="AK14" s="131"/>
+      <c r="AL14" s="132"/>
+      <c r="AM14" s="133"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B15" s="86" t="s">
-        <v>207</v>
-      </c>
-      <c r="D15" s="147">
+        <v>206</v>
+      </c>
+      <c r="D15" s="131">
         <f>D25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+D26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+D27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+D28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+D29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+D30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+D31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+D32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+D33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
         <v>4.5</v>
       </c>
-      <c r="E15" s="148"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="147">
+      <c r="E15" s="132"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="131">
         <f>G25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+G26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+G27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+G28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+G29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+G30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+G31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+G32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+G33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
         <v>43.5</v>
       </c>
-      <c r="H15" s="148"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="147">
+      <c r="H15" s="132"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="131">
         <f>J25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+J26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+J27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+J28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+J29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+J30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+J31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+J32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+J33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
         <v>43.5</v>
       </c>
-      <c r="K15" s="148"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="147">
+      <c r="K15" s="132"/>
+      <c r="L15" s="133"/>
+      <c r="M15" s="131">
         <f>M25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+M26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+M27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+M28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+M29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+M30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+M31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+M32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+M33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
         <v>24.25</v>
       </c>
-      <c r="N15" s="148"/>
-      <c r="O15" s="134"/>
-      <c r="P15" s="147">
+      <c r="N15" s="132"/>
+      <c r="O15" s="133"/>
+      <c r="P15" s="131">
         <f>P25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+P26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+P27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+P28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+P29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+P30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+P31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+P32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+P33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
         <v>274.5</v>
       </c>
-      <c r="Q15" s="148"/>
-      <c r="R15" s="134"/>
-      <c r="S15" s="147">
+      <c r="Q15" s="132"/>
+      <c r="R15" s="133"/>
+      <c r="S15" s="131">
         <f>S25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+S26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+S27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+S28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+S29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+S30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+S31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+S32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+S33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
         <v>1439.75</v>
       </c>
-      <c r="T15" s="148"/>
-      <c r="U15" s="134"/>
-      <c r="V15" s="147"/>
-      <c r="W15" s="148"/>
-      <c r="X15" s="134"/>
-      <c r="Y15" s="147"/>
-      <c r="Z15" s="148"/>
-      <c r="AA15" s="134"/>
-      <c r="AB15" s="147"/>
-      <c r="AC15" s="148"/>
-      <c r="AD15" s="134"/>
-      <c r="AE15" s="147"/>
-      <c r="AF15" s="148"/>
-      <c r="AG15" s="134"/>
-      <c r="AH15" s="147"/>
-      <c r="AI15" s="148"/>
-      <c r="AJ15" s="134"/>
-      <c r="AK15" s="147"/>
-      <c r="AL15" s="148"/>
-      <c r="AM15" s="134"/>
+      <c r="T15" s="132"/>
+      <c r="U15" s="133"/>
+      <c r="V15" s="131"/>
+      <c r="W15" s="132"/>
+      <c r="X15" s="133"/>
+      <c r="Y15" s="131"/>
+      <c r="Z15" s="132"/>
+      <c r="AA15" s="133"/>
+      <c r="AB15" s="131"/>
+      <c r="AC15" s="132"/>
+      <c r="AD15" s="133"/>
+      <c r="AE15" s="131"/>
+      <c r="AF15" s="132"/>
+      <c r="AG15" s="133"/>
+      <c r="AH15" s="131"/>
+      <c r="AI15" s="132"/>
+      <c r="AJ15" s="133"/>
+      <c r="AK15" s="131"/>
+      <c r="AL15" s="132"/>
+      <c r="AM15" s="133"/>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B16" s="86" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16" s="144">
+        <v>184</v>
+      </c>
+      <c r="D16" s="137">
         <f>D13-D14</f>
         <v>100</v>
       </c>
-      <c r="E16" s="145"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="144">
+      <c r="E16" s="138"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="137">
         <f>ROUND(G13-(G14/G15),0)</f>
         <v>94</v>
       </c>
-      <c r="H16" s="145"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="144">
-        <f t="shared" ref="J16" si="0">ROUND(J13-(J14/J15),0)</f>
+      <c r="H16" s="138"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="137">
+        <f t="shared" ref="J16" si="1">ROUND(J13-(J14/J15),0)</f>
         <v>84</v>
       </c>
-      <c r="K16" s="145"/>
-      <c r="L16" s="146"/>
-      <c r="M16" s="144">
-        <f t="shared" ref="M16" si="1">ROUND(M13-(M14/M15),0)</f>
+      <c r="K16" s="138"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="137">
+        <f t="shared" ref="M16" si="2">ROUND(M13-(M14/M15),0)</f>
         <v>78</v>
       </c>
-      <c r="N16" s="145"/>
-      <c r="O16" s="146"/>
-      <c r="P16" s="144">
-        <f t="shared" ref="P16" si="2">ROUND(P13-(P14/P15),0)</f>
+      <c r="N16" s="138"/>
+      <c r="O16" s="139"/>
+      <c r="P16" s="137">
+        <f t="shared" ref="P16" si="3">ROUND(P13-(P14/P15),0)</f>
         <v>69</v>
       </c>
-      <c r="Q16" s="145"/>
-      <c r="R16" s="146"/>
-      <c r="S16" s="144">
-        <f t="shared" ref="S16" si="3">ROUND(S13-(S14/S15),0)</f>
+      <c r="Q16" s="138"/>
+      <c r="R16" s="139"/>
+      <c r="S16" s="137">
+        <f t="shared" ref="S16" si="4">ROUND(S13-(S14/S15),0)</f>
         <v>60</v>
       </c>
-      <c r="T16" s="145"/>
-      <c r="U16" s="146"/>
-      <c r="V16" s="144"/>
-      <c r="W16" s="145"/>
-      <c r="X16" s="146"/>
-      <c r="Y16" s="144"/>
-      <c r="Z16" s="145"/>
-      <c r="AA16" s="146"/>
-      <c r="AB16" s="144"/>
-      <c r="AC16" s="145"/>
-      <c r="AD16" s="146"/>
-      <c r="AE16" s="144"/>
-      <c r="AF16" s="145"/>
-      <c r="AG16" s="146"/>
-      <c r="AH16" s="144"/>
-      <c r="AI16" s="145"/>
-      <c r="AJ16" s="146"/>
-      <c r="AK16" s="144"/>
-      <c r="AL16" s="145"/>
-      <c r="AM16" s="146"/>
+      <c r="T16" s="138"/>
+      <c r="U16" s="139"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="138"/>
+      <c r="X16" s="139"/>
+      <c r="Y16" s="137"/>
+      <c r="Z16" s="138"/>
+      <c r="AA16" s="139"/>
+      <c r="AB16" s="137"/>
+      <c r="AC16" s="138"/>
+      <c r="AD16" s="139"/>
+      <c r="AE16" s="137"/>
+      <c r="AF16" s="138"/>
+      <c r="AG16" s="139"/>
+      <c r="AH16" s="137"/>
+      <c r="AI16" s="138"/>
+      <c r="AJ16" s="139"/>
+      <c r="AK16" s="137"/>
+      <c r="AL16" s="138"/>
+      <c r="AM16" s="139"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C17" s="31"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="148"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="148"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="147"/>
-      <c r="N17" s="148"/>
-      <c r="O17" s="134"/>
-      <c r="P17" s="147"/>
-      <c r="Q17" s="148"/>
-      <c r="R17" s="134"/>
-      <c r="S17" s="147"/>
-      <c r="T17" s="148"/>
-      <c r="U17" s="134"/>
-      <c r="V17" s="147"/>
-      <c r="W17" s="148"/>
-      <c r="X17" s="134"/>
-      <c r="Y17" s="147"/>
-      <c r="Z17" s="148"/>
-      <c r="AA17" s="134"/>
-      <c r="AB17" s="147"/>
-      <c r="AC17" s="148"/>
-      <c r="AD17" s="134"/>
-      <c r="AE17" s="147"/>
-      <c r="AF17" s="148"/>
-      <c r="AG17" s="134"/>
-      <c r="AH17" s="147"/>
-      <c r="AI17" s="148"/>
-      <c r="AJ17" s="134"/>
-      <c r="AK17" s="147"/>
-      <c r="AL17" s="148"/>
-      <c r="AM17" s="134"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="133"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="132"/>
+      <c r="R17" s="133"/>
+      <c r="S17" s="131"/>
+      <c r="T17" s="132"/>
+      <c r="U17" s="133"/>
+      <c r="V17" s="131"/>
+      <c r="W17" s="132"/>
+      <c r="X17" s="133"/>
+      <c r="Y17" s="131"/>
+      <c r="Z17" s="132"/>
+      <c r="AA17" s="133"/>
+      <c r="AB17" s="131"/>
+      <c r="AC17" s="132"/>
+      <c r="AD17" s="133"/>
+      <c r="AE17" s="131"/>
+      <c r="AF17" s="132"/>
+      <c r="AG17" s="133"/>
+      <c r="AH17" s="131"/>
+      <c r="AI17" s="132"/>
+      <c r="AJ17" s="133"/>
+      <c r="AK17" s="131"/>
+      <c r="AL17" s="132"/>
+      <c r="AM17" s="133"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B18" s="82" t="s">
-        <v>186</v>
-      </c>
-      <c r="D18" s="157">
+        <v>185</v>
+      </c>
+      <c r="D18" s="128">
         <f>Tower!I3*2+Tower!I3/2</f>
         <v>50</v>
       </c>
-      <c r="E18" s="94"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="157">
+      <c r="E18" s="129"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="128">
         <f>D21</f>
         <v>10</v>
       </c>
-      <c r="H18" s="94"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="157">
-        <f t="shared" ref="J18" si="4">G21</f>
+      <c r="H18" s="129"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="128">
+        <f t="shared" ref="J18" si="5">G21</f>
         <v>12</v>
       </c>
-      <c r="K18" s="94"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="157">
-        <f t="shared" ref="M18" si="5">J21</f>
+      <c r="K18" s="129"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="128">
+        <f t="shared" ref="M18" si="6">J21</f>
         <v>2</v>
       </c>
-      <c r="N18" s="94"/>
-      <c r="O18" s="158"/>
-      <c r="P18" s="157">
-        <f t="shared" ref="P18" si="6">M21</f>
+      <c r="N18" s="129"/>
+      <c r="O18" s="130"/>
+      <c r="P18" s="128">
+        <f t="shared" ref="P18" si="7">M21</f>
         <v>12</v>
       </c>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="158"/>
-      <c r="S18" s="157">
-        <f t="shared" ref="S18" si="7">P21</f>
+      <c r="Q18" s="129"/>
+      <c r="R18" s="130"/>
+      <c r="S18" s="128">
+        <f t="shared" ref="S18" si="8">P21</f>
         <v>12</v>
       </c>
-      <c r="T18" s="94"/>
-      <c r="U18" s="158"/>
-      <c r="V18" s="157"/>
-      <c r="W18" s="94"/>
-      <c r="X18" s="158"/>
-      <c r="Y18" s="157"/>
-      <c r="Z18" s="94"/>
-      <c r="AA18" s="158"/>
-      <c r="AB18" s="157"/>
-      <c r="AC18" s="94"/>
-      <c r="AD18" s="158"/>
-      <c r="AE18" s="157"/>
-      <c r="AF18" s="94"/>
-      <c r="AG18" s="158"/>
-      <c r="AH18" s="157"/>
-      <c r="AI18" s="94"/>
-      <c r="AJ18" s="158"/>
-      <c r="AK18" s="157"/>
-      <c r="AL18" s="94"/>
-      <c r="AM18" s="158"/>
+      <c r="T18" s="129"/>
+      <c r="U18" s="130"/>
+      <c r="V18" s="128"/>
+      <c r="W18" s="129"/>
+      <c r="X18" s="130"/>
+      <c r="Y18" s="128"/>
+      <c r="Z18" s="129"/>
+      <c r="AA18" s="130"/>
+      <c r="AB18" s="128"/>
+      <c r="AC18" s="129"/>
+      <c r="AD18" s="130"/>
+      <c r="AE18" s="128"/>
+      <c r="AF18" s="129"/>
+      <c r="AG18" s="130"/>
+      <c r="AH18" s="128"/>
+      <c r="AI18" s="129"/>
+      <c r="AJ18" s="130"/>
+      <c r="AK18" s="128"/>
+      <c r="AL18" s="129"/>
+      <c r="AM18" s="130"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B19" s="86" t="s">
-        <v>187</v>
-      </c>
-      <c r="D19" s="159">
+        <v>186</v>
+      </c>
+      <c r="D19" s="134">
         <f>D25*VLOOKUP($B$25,TOWER,9)+D26*VLOOKUP($B$26,TOWER,9)+D27*VLOOKUP($B$27,TOWER,9)+D28*VLOOKUP($B$28,TOWER,9)+D29*VLOOKUP($B$29,TOWER,9)+D30*VLOOKUP($B$30,TOWER,9)+D31*VLOOKUP($B$31,TOWER,9)+D32*VLOOKUP($B$32,TOWER,9)+D33*VLOOKUP($B$33,TOWER,9)</f>
         <v>40</v>
       </c>
-      <c r="E19" s="104"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="159">
+      <c r="E19" s="135"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="134">
         <f>G25*VLOOKUP($B$25,TOWER,9)+G26*VLOOKUP($B$26,TOWER,9)+G27*VLOOKUP($B$27,TOWER,9)+G28*VLOOKUP($B$28,TOWER,9)+G29*VLOOKUP($B$29,TOWER,9)+G30*VLOOKUP($B$30,TOWER,9)+G31*VLOOKUP($B$31,TOWER,9)+G32*VLOOKUP($B$32,TOWER,9)+G33*VLOOKUP($B$33,TOWER,9)</f>
         <v>160</v>
       </c>
-      <c r="H19" s="104"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="159">
+      <c r="H19" s="135"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="134">
         <f>J25*VLOOKUP($B$25,TOWER,9)+J26*VLOOKUP($B$26,TOWER,9)+J27*VLOOKUP($B$27,TOWER,9)+J28*VLOOKUP($B$28,TOWER,9)+J29*VLOOKUP($B$29,TOWER,9)+J30*VLOOKUP($B$30,TOWER,9)+J31*VLOOKUP($B$31,TOWER,9)+J32*VLOOKUP($B$32,TOWER,9)+J33*VLOOKUP($B$33,TOWER,9)</f>
         <v>160</v>
       </c>
-      <c r="K19" s="104"/>
-      <c r="L19" s="160"/>
-      <c r="M19" s="159">
+      <c r="K19" s="135"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="134">
         <f>M25*VLOOKUP($B$25,TOWER,9)+M26*VLOOKUP($B$26,TOWER,9)+M27*VLOOKUP($B$27,TOWER,9)+M28*VLOOKUP($B$28,TOWER,9)+M29*VLOOKUP($B$29,TOWER,9)+M30*VLOOKUP($B$30,TOWER,9)+M31*VLOOKUP($B$31,TOWER,9)+M32*VLOOKUP($B$32,TOWER,9)+M33*VLOOKUP($B$33,TOWER,9)</f>
         <v>80</v>
       </c>
-      <c r="N19" s="104"/>
-      <c r="O19" s="160"/>
-      <c r="P19" s="159">
+      <c r="N19" s="135"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="134">
         <f>P25*VLOOKUP($B$25,TOWER,9)+P26*VLOOKUP($B$26,TOWER,9)+P27*VLOOKUP($B$27,TOWER,9)+P28*VLOOKUP($B$28,TOWER,9)+P29*VLOOKUP($B$29,TOWER,9)+P30*VLOOKUP($B$30,TOWER,9)+P31*VLOOKUP($B$31,TOWER,9)+P32*VLOOKUP($B$32,TOWER,9)+P33*VLOOKUP($B$33,TOWER,9)</f>
         <v>1080</v>
       </c>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="160"/>
-      <c r="S19" s="159">
+      <c r="Q19" s="135"/>
+      <c r="R19" s="136"/>
+      <c r="S19" s="134">
         <f>S25*VLOOKUP($B$25,TOWER,9)+S26*VLOOKUP($B$26,TOWER,9)+S27*VLOOKUP($B$27,TOWER,9)+S28*VLOOKUP($B$28,TOWER,9)+S29*VLOOKUP($B$29,TOWER,9)+S30*VLOOKUP($B$30,TOWER,9)+S31*VLOOKUP($B$31,TOWER,9)+S32*VLOOKUP($B$32,TOWER,9)+S33*VLOOKUP($B$33,TOWER,9)</f>
         <v>5680</v>
       </c>
-      <c r="T19" s="104"/>
-      <c r="U19" s="160"/>
-      <c r="V19" s="159"/>
-      <c r="W19" s="104"/>
-      <c r="X19" s="160"/>
-      <c r="Y19" s="159"/>
-      <c r="Z19" s="104"/>
-      <c r="AA19" s="160"/>
-      <c r="AB19" s="159"/>
-      <c r="AC19" s="104"/>
-      <c r="AD19" s="160"/>
-      <c r="AE19" s="159"/>
-      <c r="AF19" s="104"/>
-      <c r="AG19" s="160"/>
-      <c r="AH19" s="159"/>
-      <c r="AI19" s="104"/>
-      <c r="AJ19" s="160"/>
-      <c r="AK19" s="159"/>
-      <c r="AL19" s="104"/>
-      <c r="AM19" s="160"/>
+      <c r="T19" s="135"/>
+      <c r="U19" s="136"/>
+      <c r="V19" s="134"/>
+      <c r="W19" s="135"/>
+      <c r="X19" s="136"/>
+      <c r="Y19" s="134"/>
+      <c r="Z19" s="135"/>
+      <c r="AA19" s="136"/>
+      <c r="AB19" s="134"/>
+      <c r="AC19" s="135"/>
+      <c r="AD19" s="136"/>
+      <c r="AE19" s="134"/>
+      <c r="AF19" s="135"/>
+      <c r="AG19" s="136"/>
+      <c r="AH19" s="134"/>
+      <c r="AI19" s="135"/>
+      <c r="AJ19" s="136"/>
+      <c r="AK19" s="134"/>
+      <c r="AL19" s="135"/>
+      <c r="AM19" s="136"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B20" s="86" t="s">
-        <v>188</v>
-      </c>
-      <c r="D20" s="157">
+        <v>187</v>
+      </c>
+      <c r="D20" s="128">
         <f>D3*VLOOKUP($B$3,ENEMY,8)+D4*VLOOKUP($B$4,ENEMY,8)+D5*VLOOKUP($B$5,ENEMY,8)+D6*VLOOKUP($B$6,ENEMY,8)+D7*VLOOKUP($B$7,ENEMY,8)+D8*VLOOKUP($B$8,ENEMY,8)+D9*VLOOKUP($B$9,ENEMY,8)+D10*VLOOKUP($B$10,ENEMY,8)+D11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="94"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="157">
+      <c r="E20" s="129"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="128">
         <f>G3*H3*VLOOKUP($B$3,ENEMY,8)+G4*H4*VLOOKUP($B$4,ENEMY,8)+G5*H5*VLOOKUP($B$5,ENEMY,8)+G6*H6*VLOOKUP($B$6,ENEMY,8)+G7*H7*VLOOKUP($B$7,ENEMY,8)+G8*H8*VLOOKUP($B$8,ENEMY,8)+G9*H9*VLOOKUP($B$9,ENEMY,8)+G10*H10*VLOOKUP($B$10,ENEMY,8)+G11*H11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>162</v>
       </c>
-      <c r="H20" s="94"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="157">
+      <c r="H20" s="129"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="128">
         <f>J3*K3*VLOOKUP($B$3,ENEMY,8)+J4*K4*VLOOKUP($B$4,ENEMY,8)+J5*K5*VLOOKUP($B$5,ENEMY,8)+J6*K6*VLOOKUP($B$6,ENEMY,8)+J7*K7*VLOOKUP($B$7,ENEMY,8)+J8*K8*VLOOKUP($B$8,ENEMY,8)+J9*K9*VLOOKUP($B$9,ENEMY,8)+J10*K10*VLOOKUP($B$10,ENEMY,8)+J11*K11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>150</v>
       </c>
-      <c r="K20" s="94"/>
-      <c r="L20" s="158"/>
-      <c r="M20" s="157">
+      <c r="K20" s="129"/>
+      <c r="L20" s="130"/>
+      <c r="M20" s="128">
         <f>M3*N3*VLOOKUP($B$3,ENEMY,8)+M4*N4*VLOOKUP($B$4,ENEMY,8)+M5*N5*VLOOKUP($B$5,ENEMY,8)+M6*N6*VLOOKUP($B$6,ENEMY,8)+M7*N7*VLOOKUP($B$7,ENEMY,8)+M8*N8*VLOOKUP($B$8,ENEMY,8)+M9*N9*VLOOKUP($B$9,ENEMY,8)+M10*N10*VLOOKUP($B$10,ENEMY,8)+M11*N11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>90</v>
       </c>
-      <c r="N20" s="94"/>
-      <c r="O20" s="158"/>
-      <c r="P20" s="157">
+      <c r="N20" s="129"/>
+      <c r="O20" s="130"/>
+      <c r="P20" s="128">
         <f>P3*Q3*VLOOKUP($B$3,ENEMY,8)+P4*Q4*VLOOKUP($B$4,ENEMY,8)+P5*Q5*VLOOKUP($B$5,ENEMY,8)+P6*Q6*VLOOKUP($B$6,ENEMY,8)+P7*Q7*VLOOKUP($B$7,ENEMY,8)+P8*Q8*VLOOKUP($B$8,ENEMY,8)+P9*Q9*VLOOKUP($B$9,ENEMY,8)+P10*Q10*VLOOKUP($B$10,ENEMY,8)+P11*Q11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>1080</v>
       </c>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="158"/>
-      <c r="S20" s="157">
+      <c r="Q20" s="129"/>
+      <c r="R20" s="130"/>
+      <c r="S20" s="128">
         <f>S3*T3*VLOOKUP($B$3,ENEMY,8)+S4*T4*VLOOKUP($B$4,ENEMY,8)+S5*T5*VLOOKUP($B$5,ENEMY,8)+S6*T6*VLOOKUP($B$6,ENEMY,8)+S7*T7*VLOOKUP($B$7,ENEMY,8)+S8*T8*VLOOKUP($B$8,ENEMY,8)+S9*T9*VLOOKUP($B$9,ENEMY,8)+S10*T10*VLOOKUP($B$10,ENEMY,8)+S11*T11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>6450</v>
       </c>
-      <c r="T20" s="94"/>
-      <c r="U20" s="158"/>
-      <c r="V20" s="157"/>
-      <c r="W20" s="94"/>
-      <c r="X20" s="158"/>
-      <c r="Y20" s="157"/>
-      <c r="Z20" s="94"/>
-      <c r="AA20" s="158"/>
-      <c r="AB20" s="157"/>
-      <c r="AC20" s="94"/>
-      <c r="AD20" s="158"/>
-      <c r="AE20" s="157"/>
-      <c r="AF20" s="94"/>
-      <c r="AG20" s="158"/>
-      <c r="AH20" s="157"/>
-      <c r="AI20" s="94"/>
-      <c r="AJ20" s="158"/>
-      <c r="AK20" s="157"/>
-      <c r="AL20" s="94"/>
-      <c r="AM20" s="158"/>
+      <c r="T20" s="129"/>
+      <c r="U20" s="130"/>
+      <c r="V20" s="128"/>
+      <c r="W20" s="129"/>
+      <c r="X20" s="130"/>
+      <c r="Y20" s="128"/>
+      <c r="Z20" s="129"/>
+      <c r="AA20" s="130"/>
+      <c r="AB20" s="128"/>
+      <c r="AC20" s="129"/>
+      <c r="AD20" s="130"/>
+      <c r="AE20" s="128"/>
+      <c r="AF20" s="129"/>
+      <c r="AG20" s="130"/>
+      <c r="AH20" s="128"/>
+      <c r="AI20" s="129"/>
+      <c r="AJ20" s="130"/>
+      <c r="AK20" s="128"/>
+      <c r="AL20" s="129"/>
+      <c r="AM20" s="130"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B21" s="86" t="s">
-        <v>189</v>
-      </c>
-      <c r="D21" s="159">
+        <v>188</v>
+      </c>
+      <c r="D21" s="134">
         <f>D18-D19+D20</f>
         <v>10</v>
       </c>
-      <c r="E21" s="104"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="159">
+      <c r="E21" s="135"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="134">
         <f>G18-G19+G20</f>
         <v>12</v>
       </c>
-      <c r="H21" s="104"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="159">
-        <f t="shared" ref="J21" si="8">J18-J19+J20</f>
+      <c r="H21" s="135"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="134">
+        <f t="shared" ref="J21" si="9">J18-J19+J20</f>
         <v>2</v>
       </c>
-      <c r="K21" s="104"/>
-      <c r="L21" s="160"/>
-      <c r="M21" s="159">
-        <f t="shared" ref="M21" si="9">M18-M19+M20</f>
+      <c r="K21" s="135"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="134">
+        <f t="shared" ref="M21" si="10">M18-M19+M20</f>
         <v>12</v>
       </c>
-      <c r="N21" s="104"/>
-      <c r="O21" s="160"/>
-      <c r="P21" s="159">
-        <f t="shared" ref="P21" si="10">P18-P19+P20</f>
+      <c r="N21" s="135"/>
+      <c r="O21" s="136"/>
+      <c r="P21" s="134">
+        <f t="shared" ref="P21" si="11">P18-P19+P20</f>
         <v>12</v>
       </c>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="160"/>
-      <c r="S21" s="159">
-        <f t="shared" ref="S21" si="11">S18-S19+S20</f>
+      <c r="Q21" s="135"/>
+      <c r="R21" s="136"/>
+      <c r="S21" s="134">
+        <f t="shared" ref="S21" si="12">S18-S19+S20</f>
         <v>782</v>
       </c>
-      <c r="T21" s="104"/>
-      <c r="U21" s="160"/>
-      <c r="V21" s="159"/>
-      <c r="W21" s="104"/>
-      <c r="X21" s="160"/>
-      <c r="Y21" s="159"/>
-      <c r="Z21" s="104"/>
-      <c r="AA21" s="160"/>
-      <c r="AB21" s="159"/>
-      <c r="AC21" s="104"/>
-      <c r="AD21" s="160"/>
-      <c r="AE21" s="159"/>
-      <c r="AF21" s="104"/>
-      <c r="AG21" s="160"/>
-      <c r="AH21" s="159"/>
-      <c r="AI21" s="104"/>
-      <c r="AJ21" s="160"/>
-      <c r="AK21" s="159"/>
-      <c r="AL21" s="104"/>
-      <c r="AM21" s="160"/>
+      <c r="T21" s="135"/>
+      <c r="U21" s="136"/>
+      <c r="V21" s="134"/>
+      <c r="W21" s="135"/>
+      <c r="X21" s="136"/>
+      <c r="Y21" s="134"/>
+      <c r="Z21" s="135"/>
+      <c r="AA21" s="136"/>
+      <c r="AB21" s="134"/>
+      <c r="AC21" s="135"/>
+      <c r="AD21" s="136"/>
+      <c r="AE21" s="134"/>
+      <c r="AF21" s="135"/>
+      <c r="AG21" s="136"/>
+      <c r="AH21" s="134"/>
+      <c r="AI21" s="135"/>
+      <c r="AJ21" s="136"/>
+      <c r="AK21" s="134"/>
+      <c r="AL21" s="135"/>
+      <c r="AM21" s="136"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B24" s="136" t="s">
-        <v>190</v>
-      </c>
-      <c r="C24" s="138" t="s">
-        <v>205</v>
+      <c r="B24" s="105" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="106" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A25" s="143">
+      <c r="A25" s="109">
         <f>SUM(D25:AA25)</f>
         <v>40</v>
       </c>
-      <c r="B25" s="129" t="s">
+      <c r="B25" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="130" t="str">
-        <f>VLOOKUP(B3,ENEMY,4)</f>
+      <c r="C25" s="100" t="str">
+        <f t="shared" ref="C25:C33" si="13">VLOOKUP(B3,ENEMY,4)</f>
         <v>Normal</v>
       </c>
-      <c r="D25" s="157"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="157">
+      <c r="D25" s="128"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="128">
         <v>1</v>
       </c>
-      <c r="H25" s="94"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="157">
+      <c r="H25" s="129"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="128">
         <v>1</v>
       </c>
-      <c r="K25" s="94"/>
-      <c r="L25" s="158"/>
-      <c r="M25" s="157">
+      <c r="K25" s="129"/>
+      <c r="L25" s="130"/>
+      <c r="M25" s="128">
         <v>1</v>
       </c>
-      <c r="N25" s="94"/>
-      <c r="O25" s="158"/>
-      <c r="P25" s="157">
+      <c r="N25" s="129"/>
+      <c r="O25" s="130"/>
+      <c r="P25" s="128">
         <v>6</v>
       </c>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="158"/>
-      <c r="S25" s="157">
+      <c r="Q25" s="129"/>
+      <c r="R25" s="130"/>
+      <c r="S25" s="128">
         <v>31</v>
       </c>
-      <c r="T25" s="94"/>
-      <c r="U25" s="158"/>
-      <c r="V25" s="157"/>
-      <c r="W25" s="94"/>
-      <c r="X25" s="158"/>
-      <c r="Y25" s="157"/>
-      <c r="Z25" s="94"/>
-      <c r="AA25" s="158"/>
-      <c r="AB25" s="157"/>
-      <c r="AC25" s="94"/>
-      <c r="AD25" s="158"/>
-      <c r="AE25" s="157"/>
-      <c r="AF25" s="94"/>
-      <c r="AG25" s="158"/>
-      <c r="AH25" s="157"/>
-      <c r="AI25" s="94"/>
-      <c r="AJ25" s="158"/>
-      <c r="AK25" s="157"/>
-      <c r="AL25" s="94"/>
-      <c r="AM25" s="158"/>
+      <c r="T25" s="129"/>
+      <c r="U25" s="130"/>
+      <c r="V25" s="128"/>
+      <c r="W25" s="129"/>
+      <c r="X25" s="130"/>
+      <c r="Y25" s="128"/>
+      <c r="Z25" s="129"/>
+      <c r="AA25" s="130"/>
+      <c r="AB25" s="128"/>
+      <c r="AC25" s="129"/>
+      <c r="AD25" s="130"/>
+      <c r="AE25" s="128"/>
+      <c r="AF25" s="129"/>
+      <c r="AG25" s="130"/>
+      <c r="AH25" s="128"/>
+      <c r="AI25" s="129"/>
+      <c r="AJ25" s="130"/>
+      <c r="AK25" s="128"/>
+      <c r="AL25" s="129"/>
+      <c r="AM25" s="130"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A26" s="143">
-        <f t="shared" ref="A26:A33" si="12">SUM(D26:AA26)</f>
+      <c r="A26" s="109">
+        <f t="shared" ref="A26:A33" si="14">SUM(D26:AA26)</f>
         <v>40</v>
       </c>
-      <c r="B26" s="139" t="s">
+      <c r="B26" s="107" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26" s="100" t="str">
+        <f t="shared" si="13"/>
+        <v>Intangible</v>
+      </c>
+      <c r="D26" s="134"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="136"/>
+      <c r="G26" s="134">
+        <v>1</v>
+      </c>
+      <c r="H26" s="135"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="134">
+        <v>1</v>
+      </c>
+      <c r="K26" s="135"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="134">
+        <v>1</v>
+      </c>
+      <c r="N26" s="135"/>
+      <c r="O26" s="136"/>
+      <c r="P26" s="134">
+        <v>6</v>
+      </c>
+      <c r="Q26" s="135"/>
+      <c r="R26" s="136"/>
+      <c r="S26" s="134">
+        <v>31</v>
+      </c>
+      <c r="T26" s="135"/>
+      <c r="U26" s="136"/>
+      <c r="V26" s="134"/>
+      <c r="W26" s="135"/>
+      <c r="X26" s="136"/>
+      <c r="Y26" s="134"/>
+      <c r="Z26" s="135"/>
+      <c r="AA26" s="136"/>
+      <c r="AB26" s="134"/>
+      <c r="AC26" s="135"/>
+      <c r="AD26" s="136"/>
+      <c r="AE26" s="134"/>
+      <c r="AF26" s="135"/>
+      <c r="AG26" s="136"/>
+      <c r="AH26" s="134"/>
+      <c r="AI26" s="135"/>
+      <c r="AJ26" s="136"/>
+      <c r="AK26" s="134"/>
+      <c r="AL26" s="135"/>
+      <c r="AM26" s="136"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A27" s="109">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="B27" s="107" t="s">
         <v>197</v>
       </c>
-      <c r="C26" s="130" t="str">
-        <f>VLOOKUP(B4,ENEMY,4)</f>
+      <c r="C27" s="100" t="str">
+        <f t="shared" si="13"/>
+        <v>Saboteur</v>
+      </c>
+      <c r="D27" s="128">
+        <v>1</v>
+      </c>
+      <c r="E27" s="129"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="128">
+        <v>1</v>
+      </c>
+      <c r="K27" s="129"/>
+      <c r="L27" s="130"/>
+      <c r="M27" s="128">
+        <v>1</v>
+      </c>
+      <c r="N27" s="129"/>
+      <c r="O27" s="130"/>
+      <c r="P27" s="128">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="129"/>
+      <c r="R27" s="130"/>
+      <c r="S27" s="128">
+        <v>31</v>
+      </c>
+      <c r="T27" s="129"/>
+      <c r="U27" s="130"/>
+      <c r="V27" s="128"/>
+      <c r="W27" s="129"/>
+      <c r="X27" s="130"/>
+      <c r="Y27" s="128"/>
+      <c r="Z27" s="129"/>
+      <c r="AA27" s="130"/>
+      <c r="AB27" s="128"/>
+      <c r="AC27" s="129"/>
+      <c r="AD27" s="130"/>
+      <c r="AE27" s="128"/>
+      <c r="AF27" s="129"/>
+      <c r="AG27" s="130"/>
+      <c r="AH27" s="128"/>
+      <c r="AI27" s="129"/>
+      <c r="AJ27" s="130"/>
+      <c r="AK27" s="128"/>
+      <c r="AL27" s="129"/>
+      <c r="AM27" s="130"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A28" s="109">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="B28" s="99" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="100" t="str">
+        <f t="shared" si="13"/>
+        <v>Normal</v>
+      </c>
+      <c r="D28" s="134"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="134">
+        <v>1</v>
+      </c>
+      <c r="H28" s="135"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="134">
+        <v>1</v>
+      </c>
+      <c r="K28" s="135"/>
+      <c r="L28" s="136"/>
+      <c r="M28" s="134">
+        <v>1</v>
+      </c>
+      <c r="N28" s="135"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="134">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="135"/>
+      <c r="R28" s="136"/>
+      <c r="S28" s="134">
+        <v>31</v>
+      </c>
+      <c r="T28" s="135"/>
+      <c r="U28" s="136"/>
+      <c r="V28" s="134"/>
+      <c r="W28" s="135"/>
+      <c r="X28" s="136"/>
+      <c r="Y28" s="134"/>
+      <c r="Z28" s="135"/>
+      <c r="AA28" s="136"/>
+      <c r="AB28" s="134"/>
+      <c r="AC28" s="135"/>
+      <c r="AD28" s="136"/>
+      <c r="AE28" s="134"/>
+      <c r="AF28" s="135"/>
+      <c r="AG28" s="136"/>
+      <c r="AH28" s="134"/>
+      <c r="AI28" s="135"/>
+      <c r="AJ28" s="136"/>
+      <c r="AK28" s="134"/>
+      <c r="AL28" s="135"/>
+      <c r="AM28" s="136"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A29" s="109">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="B29" s="107" t="s">
+        <v>199</v>
+      </c>
+      <c r="C29" s="100" t="str">
+        <f t="shared" si="13"/>
         <v>Intangible</v>
       </c>
-      <c r="D26" s="159"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="159">
+      <c r="D29" s="128"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="128">
         <v>1</v>
       </c>
-      <c r="H26" s="104"/>
-      <c r="I26" s="160"/>
-      <c r="J26" s="159">
+      <c r="H29" s="129"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="128">
         <v>1</v>
       </c>
-      <c r="K26" s="104"/>
-      <c r="L26" s="160"/>
-      <c r="M26" s="159">
+      <c r="K29" s="129"/>
+      <c r="L29" s="130"/>
+      <c r="M29" s="128"/>
+      <c r="N29" s="129"/>
+      <c r="O29" s="130"/>
+      <c r="P29" s="128">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="129"/>
+      <c r="R29" s="130"/>
+      <c r="S29" s="128">
+        <v>32</v>
+      </c>
+      <c r="T29" s="129"/>
+      <c r="U29" s="130"/>
+      <c r="V29" s="128"/>
+      <c r="W29" s="129"/>
+      <c r="X29" s="130"/>
+      <c r="Y29" s="128"/>
+      <c r="Z29" s="129"/>
+      <c r="AA29" s="130"/>
+      <c r="AB29" s="128"/>
+      <c r="AC29" s="129"/>
+      <c r="AD29" s="130"/>
+      <c r="AE29" s="128"/>
+      <c r="AF29" s="129"/>
+      <c r="AG29" s="130"/>
+      <c r="AH29" s="128"/>
+      <c r="AI29" s="129"/>
+      <c r="AJ29" s="130"/>
+      <c r="AK29" s="128"/>
+      <c r="AL29" s="129"/>
+      <c r="AM29" s="130"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A30" s="109">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="B30" s="107" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" s="100" t="str">
+        <f t="shared" si="13"/>
+        <v>Saboteur</v>
+      </c>
+      <c r="D30" s="134">
         <v>1</v>
       </c>
-      <c r="N26" s="104"/>
-      <c r="O26" s="160"/>
-      <c r="P26" s="159">
+      <c r="E30" s="135"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="134">
+        <v>1</v>
+      </c>
+      <c r="H30" s="135"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="134"/>
+      <c r="K30" s="135"/>
+      <c r="L30" s="136"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="135"/>
+      <c r="O30" s="136"/>
+      <c r="P30" s="134">
         <v>6</v>
       </c>
-      <c r="Q26" s="104"/>
-      <c r="R26" s="160"/>
-      <c r="S26" s="159">
-        <v>31</v>
-      </c>
-      <c r="T26" s="104"/>
-      <c r="U26" s="160"/>
-      <c r="V26" s="159"/>
-      <c r="W26" s="104"/>
-      <c r="X26" s="160"/>
-      <c r="Y26" s="159"/>
-      <c r="Z26" s="104"/>
-      <c r="AA26" s="160"/>
-      <c r="AB26" s="159"/>
-      <c r="AC26" s="104"/>
-      <c r="AD26" s="160"/>
-      <c r="AE26" s="159"/>
-      <c r="AF26" s="104"/>
-      <c r="AG26" s="160"/>
-      <c r="AH26" s="159"/>
-      <c r="AI26" s="104"/>
-      <c r="AJ26" s="160"/>
-      <c r="AK26" s="159"/>
-      <c r="AL26" s="104"/>
-      <c r="AM26" s="160"/>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A27" s="143">
-        <f t="shared" si="12"/>
+      <c r="Q30" s="135"/>
+      <c r="R30" s="136"/>
+      <c r="S30" s="134">
+        <v>32</v>
+      </c>
+      <c r="T30" s="135"/>
+      <c r="U30" s="136"/>
+      <c r="V30" s="134"/>
+      <c r="W30" s="135"/>
+      <c r="X30" s="136"/>
+      <c r="Y30" s="134"/>
+      <c r="Z30" s="135"/>
+      <c r="AA30" s="136"/>
+      <c r="AB30" s="134"/>
+      <c r="AC30" s="135"/>
+      <c r="AD30" s="136"/>
+      <c r="AE30" s="134"/>
+      <c r="AF30" s="135"/>
+      <c r="AG30" s="136"/>
+      <c r="AH30" s="134"/>
+      <c r="AI30" s="135"/>
+      <c r="AJ30" s="136"/>
+      <c r="AK30" s="134"/>
+      <c r="AL30" s="135"/>
+      <c r="AM30" s="136"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A31" s="109">
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
-      <c r="B27" s="139" t="s">
-        <v>198</v>
-      </c>
-      <c r="C27" s="130" t="str">
-        <f>VLOOKUP(B5,ENEMY,4)</f>
+      <c r="B31" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="100" t="str">
+        <f t="shared" si="13"/>
+        <v>Normal</v>
+      </c>
+      <c r="D31" s="128"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="128">
+        <v>1</v>
+      </c>
+      <c r="H31" s="129"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="128">
+        <v>1</v>
+      </c>
+      <c r="K31" s="129"/>
+      <c r="L31" s="130"/>
+      <c r="M31" s="128"/>
+      <c r="N31" s="129"/>
+      <c r="O31" s="130"/>
+      <c r="P31" s="128">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="129"/>
+      <c r="R31" s="130"/>
+      <c r="S31" s="128">
+        <v>32</v>
+      </c>
+      <c r="T31" s="129"/>
+      <c r="U31" s="130"/>
+      <c r="V31" s="128"/>
+      <c r="W31" s="129"/>
+      <c r="X31" s="130"/>
+      <c r="Y31" s="128"/>
+      <c r="Z31" s="129"/>
+      <c r="AA31" s="130"/>
+      <c r="AB31" s="128"/>
+      <c r="AC31" s="129"/>
+      <c r="AD31" s="130"/>
+      <c r="AE31" s="128"/>
+      <c r="AF31" s="129"/>
+      <c r="AG31" s="130"/>
+      <c r="AH31" s="128"/>
+      <c r="AI31" s="129"/>
+      <c r="AJ31" s="130"/>
+      <c r="AK31" s="128"/>
+      <c r="AL31" s="129"/>
+      <c r="AM31" s="130"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A32" s="109">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="B32" s="107" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32" s="100" t="str">
+        <f t="shared" si="13"/>
+        <v>Intangible</v>
+      </c>
+      <c r="D32" s="134"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="134">
+        <v>1</v>
+      </c>
+      <c r="H32" s="135"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="134">
+        <v>1</v>
+      </c>
+      <c r="K32" s="135"/>
+      <c r="L32" s="136"/>
+      <c r="M32" s="134"/>
+      <c r="N32" s="135"/>
+      <c r="O32" s="136"/>
+      <c r="P32" s="134">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="135"/>
+      <c r="R32" s="136"/>
+      <c r="S32" s="134">
+        <v>32</v>
+      </c>
+      <c r="T32" s="135"/>
+      <c r="U32" s="136"/>
+      <c r="V32" s="134"/>
+      <c r="W32" s="135"/>
+      <c r="X32" s="136"/>
+      <c r="Y32" s="134"/>
+      <c r="Z32" s="135"/>
+      <c r="AA32" s="136"/>
+      <c r="AB32" s="134"/>
+      <c r="AC32" s="135"/>
+      <c r="AD32" s="136"/>
+      <c r="AE32" s="134"/>
+      <c r="AF32" s="135"/>
+      <c r="AG32" s="136"/>
+      <c r="AH32" s="134"/>
+      <c r="AI32" s="135"/>
+      <c r="AJ32" s="136"/>
+      <c r="AK32" s="134"/>
+      <c r="AL32" s="135"/>
+      <c r="AM32" s="136"/>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A33" s="109">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="B33" s="107" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="100" t="str">
+        <f t="shared" si="13"/>
         <v>Saboteur</v>
       </c>
-      <c r="D27" s="157">
+      <c r="D33" s="128"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="128">
         <v>1</v>
       </c>
-      <c r="E27" s="94"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="158"/>
-      <c r="J27" s="157">
+      <c r="H33" s="129"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="128">
         <v>1</v>
       </c>
-      <c r="K27" s="94"/>
-      <c r="L27" s="158"/>
-      <c r="M27" s="157">
-        <v>1</v>
-      </c>
-      <c r="N27" s="94"/>
-      <c r="O27" s="158"/>
-      <c r="P27" s="157">
+      <c r="K33" s="129"/>
+      <c r="L33" s="130"/>
+      <c r="M33" s="128"/>
+      <c r="N33" s="129"/>
+      <c r="O33" s="130"/>
+      <c r="P33" s="128">
         <v>6</v>
       </c>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="158"/>
-      <c r="S27" s="157">
-        <v>31</v>
-      </c>
-      <c r="T27" s="94"/>
-      <c r="U27" s="158"/>
-      <c r="V27" s="157"/>
-      <c r="W27" s="94"/>
-      <c r="X27" s="158"/>
-      <c r="Y27" s="157"/>
-      <c r="Z27" s="94"/>
-      <c r="AA27" s="158"/>
-      <c r="AB27" s="157"/>
-      <c r="AC27" s="94"/>
-      <c r="AD27" s="158"/>
-      <c r="AE27" s="157"/>
-      <c r="AF27" s="94"/>
-      <c r="AG27" s="158"/>
-      <c r="AH27" s="157"/>
-      <c r="AI27" s="94"/>
-      <c r="AJ27" s="158"/>
-      <c r="AK27" s="157"/>
-      <c r="AL27" s="94"/>
-      <c r="AM27" s="158"/>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A28" s="143">
-        <f t="shared" si="12"/>
-        <v>40</v>
-      </c>
-      <c r="B28" s="129" t="s">
-        <v>199</v>
-      </c>
-      <c r="C28" s="130" t="str">
-        <f>VLOOKUP(B6,ENEMY,4)</f>
-        <v>Normal</v>
-      </c>
-      <c r="D28" s="159"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="159">
-        <v>1</v>
-      </c>
-      <c r="H28" s="104"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="159">
-        <v>1</v>
-      </c>
-      <c r="K28" s="104"/>
-      <c r="L28" s="160"/>
-      <c r="M28" s="159">
-        <v>1</v>
-      </c>
-      <c r="N28" s="104"/>
-      <c r="O28" s="160"/>
-      <c r="P28" s="159">
-        <v>6</v>
-      </c>
-      <c r="Q28" s="104"/>
-      <c r="R28" s="160"/>
-      <c r="S28" s="159">
-        <v>31</v>
-      </c>
-      <c r="T28" s="104"/>
-      <c r="U28" s="160"/>
-      <c r="V28" s="159"/>
-      <c r="W28" s="104"/>
-      <c r="X28" s="160"/>
-      <c r="Y28" s="159"/>
-      <c r="Z28" s="104"/>
-      <c r="AA28" s="160"/>
-      <c r="AB28" s="159"/>
-      <c r="AC28" s="104"/>
-      <c r="AD28" s="160"/>
-      <c r="AE28" s="159"/>
-      <c r="AF28" s="104"/>
-      <c r="AG28" s="160"/>
-      <c r="AH28" s="159"/>
-      <c r="AI28" s="104"/>
-      <c r="AJ28" s="160"/>
-      <c r="AK28" s="159"/>
-      <c r="AL28" s="104"/>
-      <c r="AM28" s="160"/>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A29" s="143">
-        <f t="shared" si="12"/>
-        <v>40</v>
-      </c>
-      <c r="B29" s="139" t="s">
-        <v>200</v>
-      </c>
-      <c r="C29" s="130" t="str">
-        <f>VLOOKUP(B7,ENEMY,4)</f>
-        <v>Intangible</v>
-      </c>
-      <c r="D29" s="157"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="157">
-        <v>1</v>
-      </c>
-      <c r="H29" s="94"/>
-      <c r="I29" s="158"/>
-      <c r="J29" s="157">
-        <v>1</v>
-      </c>
-      <c r="K29" s="94"/>
-      <c r="L29" s="158"/>
-      <c r="M29" s="157"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="158"/>
-      <c r="P29" s="157">
-        <v>6</v>
-      </c>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="158"/>
-      <c r="S29" s="157">
+      <c r="Q33" s="129"/>
+      <c r="R33" s="130"/>
+      <c r="S33" s="128">
         <v>32</v>
       </c>
-      <c r="T29" s="94"/>
-      <c r="U29" s="158"/>
-      <c r="V29" s="157"/>
-      <c r="W29" s="94"/>
-      <c r="X29" s="158"/>
-      <c r="Y29" s="157"/>
-      <c r="Z29" s="94"/>
-      <c r="AA29" s="158"/>
-      <c r="AB29" s="157"/>
-      <c r="AC29" s="94"/>
-      <c r="AD29" s="158"/>
-      <c r="AE29" s="157"/>
-      <c r="AF29" s="94"/>
-      <c r="AG29" s="158"/>
-      <c r="AH29" s="157"/>
-      <c r="AI29" s="94"/>
-      <c r="AJ29" s="158"/>
-      <c r="AK29" s="157"/>
-      <c r="AL29" s="94"/>
-      <c r="AM29" s="158"/>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A30" s="143">
-        <f t="shared" si="12"/>
-        <v>40</v>
-      </c>
-      <c r="B30" s="139" t="s">
-        <v>201</v>
-      </c>
-      <c r="C30" s="130" t="str">
-        <f>VLOOKUP(B8,ENEMY,4)</f>
-        <v>Saboteur</v>
-      </c>
-      <c r="D30" s="159">
-        <v>1</v>
-      </c>
-      <c r="E30" s="104"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="159">
-        <v>1</v>
-      </c>
-      <c r="H30" s="104"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="159"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="160"/>
-      <c r="M30" s="159"/>
-      <c r="N30" s="104"/>
-      <c r="O30" s="160"/>
-      <c r="P30" s="159">
-        <v>6</v>
-      </c>
-      <c r="Q30" s="104"/>
-      <c r="R30" s="160"/>
-      <c r="S30" s="159">
-        <v>32</v>
-      </c>
-      <c r="T30" s="104"/>
-      <c r="U30" s="160"/>
-      <c r="V30" s="159"/>
-      <c r="W30" s="104"/>
-      <c r="X30" s="160"/>
-      <c r="Y30" s="159"/>
-      <c r="Z30" s="104"/>
-      <c r="AA30" s="160"/>
-      <c r="AB30" s="159"/>
-      <c r="AC30" s="104"/>
-      <c r="AD30" s="160"/>
-      <c r="AE30" s="159"/>
-      <c r="AF30" s="104"/>
-      <c r="AG30" s="160"/>
-      <c r="AH30" s="159"/>
-      <c r="AI30" s="104"/>
-      <c r="AJ30" s="160"/>
-      <c r="AK30" s="159"/>
-      <c r="AL30" s="104"/>
-      <c r="AM30" s="160"/>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A31" s="143">
-        <f t="shared" si="12"/>
-        <v>40</v>
-      </c>
-      <c r="B31" s="129" t="s">
-        <v>166</v>
-      </c>
-      <c r="C31" s="130" t="str">
-        <f>VLOOKUP(B9,ENEMY,4)</f>
-        <v>Normal</v>
-      </c>
-      <c r="D31" s="157"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="157">
-        <v>1</v>
-      </c>
-      <c r="H31" s="94"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="157">
-        <v>1</v>
-      </c>
-      <c r="K31" s="94"/>
-      <c r="L31" s="158"/>
-      <c r="M31" s="157"/>
-      <c r="N31" s="94"/>
-      <c r="O31" s="158"/>
-      <c r="P31" s="157">
-        <v>6</v>
-      </c>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="158"/>
-      <c r="S31" s="157">
-        <v>32</v>
-      </c>
-      <c r="T31" s="94"/>
-      <c r="U31" s="158"/>
-      <c r="V31" s="157"/>
-      <c r="W31" s="94"/>
-      <c r="X31" s="158"/>
-      <c r="Y31" s="157"/>
-      <c r="Z31" s="94"/>
-      <c r="AA31" s="158"/>
-      <c r="AB31" s="157"/>
-      <c r="AC31" s="94"/>
-      <c r="AD31" s="158"/>
-      <c r="AE31" s="157"/>
-      <c r="AF31" s="94"/>
-      <c r="AG31" s="158"/>
-      <c r="AH31" s="157"/>
-      <c r="AI31" s="94"/>
-      <c r="AJ31" s="158"/>
-      <c r="AK31" s="157"/>
-      <c r="AL31" s="94"/>
-      <c r="AM31" s="158"/>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A32" s="143">
-        <f t="shared" si="12"/>
-        <v>40</v>
-      </c>
-      <c r="B32" s="139" t="s">
-        <v>204</v>
-      </c>
-      <c r="C32" s="130" t="str">
-        <f>VLOOKUP(B10,ENEMY,4)</f>
-        <v>Intangible</v>
-      </c>
-      <c r="D32" s="159"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="159">
-        <v>1</v>
-      </c>
-      <c r="H32" s="104"/>
-      <c r="I32" s="160"/>
-      <c r="J32" s="159">
-        <v>1</v>
-      </c>
-      <c r="K32" s="104"/>
-      <c r="L32" s="160"/>
-      <c r="M32" s="159"/>
-      <c r="N32" s="104"/>
-      <c r="O32" s="160"/>
-      <c r="P32" s="159">
-        <v>6</v>
-      </c>
-      <c r="Q32" s="104"/>
-      <c r="R32" s="160"/>
-      <c r="S32" s="159">
-        <v>32</v>
-      </c>
-      <c r="T32" s="104"/>
-      <c r="U32" s="160"/>
-      <c r="V32" s="159"/>
-      <c r="W32" s="104"/>
-      <c r="X32" s="160"/>
-      <c r="Y32" s="159"/>
-      <c r="Z32" s="104"/>
-      <c r="AA32" s="160"/>
-      <c r="AB32" s="159"/>
-      <c r="AC32" s="104"/>
-      <c r="AD32" s="160"/>
-      <c r="AE32" s="159"/>
-      <c r="AF32" s="104"/>
-      <c r="AG32" s="160"/>
-      <c r="AH32" s="159"/>
-      <c r="AI32" s="104"/>
-      <c r="AJ32" s="160"/>
-      <c r="AK32" s="159"/>
-      <c r="AL32" s="104"/>
-      <c r="AM32" s="160"/>
-    </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A33" s="143">
-        <f t="shared" si="12"/>
-        <v>40</v>
-      </c>
-      <c r="B33" s="139" t="s">
-        <v>202</v>
-      </c>
-      <c r="C33" s="130" t="str">
-        <f>VLOOKUP(B11,ENEMY,4)</f>
-        <v>Saboteur</v>
-      </c>
-      <c r="D33" s="157"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="157">
-        <v>1</v>
-      </c>
-      <c r="H33" s="94"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="157">
-        <v>1</v>
-      </c>
-      <c r="K33" s="94"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="157"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="158"/>
-      <c r="P33" s="157">
-        <v>6</v>
-      </c>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="158"/>
-      <c r="S33" s="157">
-        <v>32</v>
-      </c>
-      <c r="T33" s="94"/>
-      <c r="U33" s="158"/>
-      <c r="V33" s="157"/>
-      <c r="W33" s="94"/>
-      <c r="X33" s="158"/>
-      <c r="Y33" s="157"/>
-      <c r="Z33" s="94"/>
-      <c r="AA33" s="158"/>
-      <c r="AB33" s="157"/>
-      <c r="AC33" s="94"/>
-      <c r="AD33" s="158"/>
-      <c r="AE33" s="157"/>
-      <c r="AF33" s="94"/>
-      <c r="AG33" s="158"/>
-      <c r="AH33" s="157"/>
-      <c r="AI33" s="94"/>
-      <c r="AJ33" s="158"/>
-      <c r="AK33" s="157"/>
-      <c r="AL33" s="94"/>
-      <c r="AM33" s="158"/>
+      <c r="T33" s="129"/>
+      <c r="U33" s="130"/>
+      <c r="V33" s="128"/>
+      <c r="W33" s="129"/>
+      <c r="X33" s="130"/>
+      <c r="Y33" s="128"/>
+      <c r="Z33" s="129"/>
+      <c r="AA33" s="130"/>
+      <c r="AB33" s="128"/>
+      <c r="AC33" s="129"/>
+      <c r="AD33" s="130"/>
+      <c r="AE33" s="128"/>
+      <c r="AF33" s="129"/>
+      <c r="AG33" s="130"/>
+      <c r="AH33" s="128"/>
+      <c r="AI33" s="129"/>
+      <c r="AJ33" s="130"/>
+      <c r="AK33" s="128"/>
+      <c r="AL33" s="129"/>
+      <c r="AM33" s="130"/>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B34" s="131"/>
-      <c r="C34" s="132"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="148"/>
-      <c r="F34" s="134"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="134"/>
-      <c r="J34" s="147"/>
-      <c r="K34" s="148"/>
-      <c r="L34" s="134"/>
-      <c r="M34" s="147"/>
-      <c r="N34" s="148"/>
-      <c r="O34" s="134"/>
-      <c r="P34" s="147"/>
-      <c r="Q34" s="148"/>
-      <c r="R34" s="134"/>
-      <c r="S34" s="147"/>
-      <c r="T34" s="148"/>
-      <c r="U34" s="134"/>
-      <c r="V34" s="147"/>
-      <c r="W34" s="148"/>
-      <c r="X34" s="134"/>
-      <c r="Y34" s="147"/>
-      <c r="Z34" s="148"/>
-      <c r="AA34" s="134"/>
-      <c r="AB34" s="147"/>
-      <c r="AC34" s="148"/>
-      <c r="AD34" s="134"/>
-      <c r="AE34" s="147"/>
-      <c r="AF34" s="148"/>
-      <c r="AG34" s="134"/>
-      <c r="AH34" s="147"/>
-      <c r="AI34" s="148"/>
-      <c r="AJ34" s="134"/>
-      <c r="AK34" s="147"/>
-      <c r="AL34" s="148"/>
-      <c r="AM34" s="134"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="133"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="132"/>
+      <c r="I34" s="133"/>
+      <c r="J34" s="131"/>
+      <c r="K34" s="132"/>
+      <c r="L34" s="133"/>
+      <c r="M34" s="131"/>
+      <c r="N34" s="132"/>
+      <c r="O34" s="133"/>
+      <c r="P34" s="131"/>
+      <c r="Q34" s="132"/>
+      <c r="R34" s="133"/>
+      <c r="S34" s="131"/>
+      <c r="T34" s="132"/>
+      <c r="U34" s="133"/>
+      <c r="V34" s="131"/>
+      <c r="W34" s="132"/>
+      <c r="X34" s="133"/>
+      <c r="Y34" s="131"/>
+      <c r="Z34" s="132"/>
+      <c r="AA34" s="133"/>
+      <c r="AB34" s="131"/>
+      <c r="AC34" s="132"/>
+      <c r="AD34" s="133"/>
+      <c r="AE34" s="131"/>
+      <c r="AF34" s="132"/>
+      <c r="AG34" s="133"/>
+      <c r="AH34" s="131"/>
+      <c r="AI34" s="132"/>
+      <c r="AJ34" s="133"/>
+      <c r="AK34" s="131"/>
+      <c r="AL34" s="132"/>
+      <c r="AM34" s="133"/>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B35" s="133"/>
-      <c r="C35" s="132"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="148"/>
-      <c r="F35" s="134"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="148"/>
-      <c r="I35" s="134"/>
-      <c r="J35" s="147"/>
-      <c r="K35" s="148"/>
-      <c r="L35" s="134"/>
-      <c r="M35" s="147"/>
-      <c r="N35" s="148"/>
-      <c r="O35" s="134"/>
-      <c r="P35" s="147"/>
-      <c r="Q35" s="148"/>
-      <c r="R35" s="134"/>
-      <c r="S35" s="147"/>
-      <c r="T35" s="148"/>
-      <c r="U35" s="134"/>
-      <c r="V35" s="147"/>
-      <c r="W35" s="148"/>
-      <c r="X35" s="134"/>
-      <c r="Y35" s="147"/>
-      <c r="Z35" s="148"/>
-      <c r="AA35" s="134"/>
-      <c r="AB35" s="147"/>
-      <c r="AC35" s="148"/>
-      <c r="AD35" s="134"/>
-      <c r="AE35" s="147"/>
-      <c r="AF35" s="148"/>
-      <c r="AG35" s="134"/>
-      <c r="AH35" s="147"/>
-      <c r="AI35" s="148"/>
-      <c r="AJ35" s="134"/>
-      <c r="AK35" s="147"/>
-      <c r="AL35" s="148"/>
-      <c r="AM35" s="134"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="133"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="133"/>
+      <c r="J35" s="131"/>
+      <c r="K35" s="132"/>
+      <c r="L35" s="133"/>
+      <c r="M35" s="131"/>
+      <c r="N35" s="132"/>
+      <c r="O35" s="133"/>
+      <c r="P35" s="131"/>
+      <c r="Q35" s="132"/>
+      <c r="R35" s="133"/>
+      <c r="S35" s="131"/>
+      <c r="T35" s="132"/>
+      <c r="U35" s="133"/>
+      <c r="V35" s="131"/>
+      <c r="W35" s="132"/>
+      <c r="X35" s="133"/>
+      <c r="Y35" s="131"/>
+      <c r="Z35" s="132"/>
+      <c r="AA35" s="133"/>
+      <c r="AB35" s="131"/>
+      <c r="AC35" s="132"/>
+      <c r="AD35" s="133"/>
+      <c r="AE35" s="131"/>
+      <c r="AF35" s="132"/>
+      <c r="AG35" s="133"/>
+      <c r="AH35" s="131"/>
+      <c r="AI35" s="132"/>
+      <c r="AJ35" s="133"/>
+      <c r="AK35" s="131"/>
+      <c r="AL35" s="132"/>
+      <c r="AM35" s="133"/>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B36" s="133"/>
-      <c r="C36" s="132"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="148"/>
-      <c r="F36" s="134"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="148"/>
-      <c r="I36" s="134"/>
-      <c r="J36" s="147"/>
-      <c r="K36" s="148"/>
-      <c r="L36" s="134"/>
-      <c r="M36" s="147"/>
-      <c r="N36" s="148"/>
-      <c r="O36" s="134"/>
-      <c r="P36" s="147"/>
-      <c r="Q36" s="148"/>
-      <c r="R36" s="134"/>
-      <c r="S36" s="147"/>
-      <c r="T36" s="148"/>
-      <c r="U36" s="134"/>
-      <c r="V36" s="147"/>
-      <c r="W36" s="148"/>
-      <c r="X36" s="134"/>
-      <c r="Y36" s="147"/>
-      <c r="Z36" s="148"/>
-      <c r="AA36" s="134"/>
-      <c r="AB36" s="147"/>
-      <c r="AC36" s="148"/>
-      <c r="AD36" s="134"/>
-      <c r="AE36" s="147"/>
-      <c r="AF36" s="148"/>
-      <c r="AG36" s="134"/>
-      <c r="AH36" s="147"/>
-      <c r="AI36" s="148"/>
-      <c r="AJ36" s="134"/>
-      <c r="AK36" s="147"/>
-      <c r="AL36" s="148"/>
-      <c r="AM36" s="134"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="131"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="133"/>
+      <c r="G36" s="131"/>
+      <c r="H36" s="132"/>
+      <c r="I36" s="133"/>
+      <c r="J36" s="131"/>
+      <c r="K36" s="132"/>
+      <c r="L36" s="133"/>
+      <c r="M36" s="131"/>
+      <c r="N36" s="132"/>
+      <c r="O36" s="133"/>
+      <c r="P36" s="131"/>
+      <c r="Q36" s="132"/>
+      <c r="R36" s="133"/>
+      <c r="S36" s="131"/>
+      <c r="T36" s="132"/>
+      <c r="U36" s="133"/>
+      <c r="V36" s="131"/>
+      <c r="W36" s="132"/>
+      <c r="X36" s="133"/>
+      <c r="Y36" s="131"/>
+      <c r="Z36" s="132"/>
+      <c r="AA36" s="133"/>
+      <c r="AB36" s="131"/>
+      <c r="AC36" s="132"/>
+      <c r="AD36" s="133"/>
+      <c r="AE36" s="131"/>
+      <c r="AF36" s="132"/>
+      <c r="AG36" s="133"/>
+      <c r="AH36" s="131"/>
+      <c r="AI36" s="132"/>
+      <c r="AJ36" s="133"/>
+      <c r="AK36" s="131"/>
+      <c r="AL36" s="132"/>
+      <c r="AM36" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="267">
-    <mergeCell ref="AK33:AM33"/>
-    <mergeCell ref="AK34:AM34"/>
-    <mergeCell ref="AK35:AM35"/>
-    <mergeCell ref="AK36:AM36"/>
-    <mergeCell ref="AK27:AM27"/>
-    <mergeCell ref="AK28:AM28"/>
-    <mergeCell ref="AK29:AM29"/>
-    <mergeCell ref="AK30:AM30"/>
-    <mergeCell ref="AK31:AM31"/>
-    <mergeCell ref="AK32:AM32"/>
-    <mergeCell ref="AK18:AM18"/>
-    <mergeCell ref="AK19:AM19"/>
-    <mergeCell ref="AK20:AM20"/>
-    <mergeCell ref="AK21:AM21"/>
-    <mergeCell ref="AK25:AM25"/>
-    <mergeCell ref="AK26:AM26"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AK13:AM13"/>
-    <mergeCell ref="AK14:AM14"/>
-    <mergeCell ref="AK15:AM15"/>
-    <mergeCell ref="AK16:AM16"/>
-    <mergeCell ref="AK17:AM17"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="AB36:AD36"/>
-    <mergeCell ref="AE36:AG36"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AD19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AE25:AG25"/>
+    <mergeCell ref="AH25:AJ25"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="AE27:AG27"/>
+    <mergeCell ref="AH27:AJ27"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AE26:AG26"/>
+    <mergeCell ref="AH26:AJ26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="AB29:AD29"/>
+    <mergeCell ref="AE29:AG29"/>
+    <mergeCell ref="AH29:AJ29"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB28:AD28"/>
+    <mergeCell ref="AE28:AG28"/>
+    <mergeCell ref="AH28:AJ28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="AE31:AG31"/>
+    <mergeCell ref="AH31:AJ31"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="AE30:AG30"/>
+    <mergeCell ref="AH30:AJ30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="AH33:AJ33"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="AB32:AD32"/>
+    <mergeCell ref="AE32:AG32"/>
+    <mergeCell ref="AH32:AJ32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:U32"/>
     <mergeCell ref="AH36:AJ36"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D36:F36"/>
@@ -4863,6 +5060,15 @@
     <mergeCell ref="J35:L35"/>
     <mergeCell ref="M35:O35"/>
     <mergeCell ref="P35:R35"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="AB36:AD36"/>
+    <mergeCell ref="AE36:AG36"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="G34:I34"/>
     <mergeCell ref="J34:L34"/>
@@ -4874,100 +5080,23 @@
     <mergeCell ref="Y33:AA33"/>
     <mergeCell ref="AB33:AD33"/>
     <mergeCell ref="AE33:AG33"/>
-    <mergeCell ref="AH33:AJ33"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="AB32:AD32"/>
-    <mergeCell ref="AE32:AG32"/>
-    <mergeCell ref="AH32:AJ32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
     <mergeCell ref="S31:U31"/>
     <mergeCell ref="V31:X31"/>
     <mergeCell ref="Y31:AA31"/>
     <mergeCell ref="AB31:AD31"/>
-    <mergeCell ref="AE31:AG31"/>
-    <mergeCell ref="AH31:AJ31"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="AE30:AG30"/>
-    <mergeCell ref="AH30:AJ30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="AB29:AD29"/>
-    <mergeCell ref="AE29:AG29"/>
-    <mergeCell ref="AH29:AJ29"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="AB28:AD28"/>
-    <mergeCell ref="AE28:AG28"/>
-    <mergeCell ref="AH28:AJ28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="AE27:AG27"/>
-    <mergeCell ref="AH27:AJ27"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AE26:AG26"/>
-    <mergeCell ref="AH26:AJ26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D25:F25"/>
     <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AE25:AG25"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="J21:L21"/>
@@ -4975,46 +5104,24 @@
     <mergeCell ref="P21:R21"/>
     <mergeCell ref="S21:U21"/>
     <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AB19:AD19"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="J20:L20"/>
     <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="AK13:AM13"/>
+    <mergeCell ref="AK14:AM14"/>
+    <mergeCell ref="AK15:AM15"/>
+    <mergeCell ref="AK16:AM16"/>
+    <mergeCell ref="AK17:AM17"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
     <mergeCell ref="S14:U14"/>
     <mergeCell ref="V14:X14"/>
     <mergeCell ref="Y14:AA14"/>
@@ -5025,32 +5132,29 @@
     <mergeCell ref="Y13:AA13"/>
     <mergeCell ref="AB13:AD13"/>
     <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="AK18:AM18"/>
+    <mergeCell ref="AK19:AM19"/>
+    <mergeCell ref="AK20:AM20"/>
+    <mergeCell ref="AK21:AM21"/>
+    <mergeCell ref="AK25:AM25"/>
+    <mergeCell ref="AK26:AM26"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="AK35:AM35"/>
+    <mergeCell ref="AK36:AM36"/>
+    <mergeCell ref="AK27:AM27"/>
+    <mergeCell ref="AK28:AM28"/>
+    <mergeCell ref="AK29:AM29"/>
+    <mergeCell ref="AK30:AM30"/>
+    <mergeCell ref="AK31:AM31"/>
+    <mergeCell ref="AK32:AM32"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D16:AM16">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -5076,7 +5180,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:AM21">
-    <cfRule type="cellIs" dxfId="133" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5093,12 +5197,2381 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECF5610-AFF3-4403-B872-F795309595A3}">
+  <dimension ref="A1:AV39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19:AM19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="109" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="31" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="98" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="109" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="98" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="109"/>
+    <col min="8" max="8" width="9.140625" style="31"/>
+    <col min="9" max="9" width="9.140625" style="98"/>
+    <col min="10" max="10" width="9.140625" style="109"/>
+    <col min="11" max="11" width="9.140625" style="31"/>
+    <col min="12" max="12" width="9.140625" style="98"/>
+    <col min="13" max="13" width="9.140625" style="109"/>
+    <col min="14" max="14" width="9.140625" style="31"/>
+    <col min="15" max="15" width="9.140625" style="98"/>
+    <col min="16" max="16" width="9.140625" style="109"/>
+    <col min="17" max="17" width="9.140625" style="31"/>
+    <col min="18" max="18" width="9.140625" style="98"/>
+    <col min="19" max="19" width="9.140625" style="109"/>
+    <col min="20" max="20" width="9.140625" style="31"/>
+    <col min="21" max="21" width="9.140625" style="98"/>
+    <col min="22" max="22" width="9.140625" style="109" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="31"/>
+    <col min="24" max="24" width="9.140625" style="98"/>
+    <col min="25" max="25" width="9.140625" style="109"/>
+    <col min="26" max="26" width="9.140625" style="31"/>
+    <col min="27" max="27" width="9.140625" style="98"/>
+    <col min="28" max="28" width="9.140625" style="109"/>
+    <col min="29" max="29" width="9.140625" style="31"/>
+    <col min="30" max="30" width="9.140625" style="98"/>
+    <col min="31" max="31" width="9.140625" style="109"/>
+    <col min="32" max="32" width="9.140625" style="31"/>
+    <col min="33" max="33" width="9.140625" style="98"/>
+    <col min="34" max="34" width="9.140625" style="109"/>
+    <col min="35" max="35" width="9.140625" style="31"/>
+    <col min="36" max="36" width="9.140625" style="98"/>
+    <col min="37" max="37" width="9.140625" style="109"/>
+    <col min="38" max="38" width="9.140625" style="31"/>
+    <col min="39" max="39" width="9.140625" style="98"/>
+    <col min="40" max="16384" width="9.140625" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="108"/>
+      <c r="B1" s="148" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="140" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="142" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="143"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="142" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="143"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="142" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="143"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="142" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="143"/>
+      <c r="O1" s="144"/>
+      <c r="P1" s="142" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q1" s="143"/>
+      <c r="R1" s="144"/>
+      <c r="S1" s="142" t="s">
+        <v>179</v>
+      </c>
+      <c r="T1" s="143"/>
+      <c r="U1" s="144"/>
+      <c r="V1" s="142" t="s">
+        <v>207</v>
+      </c>
+      <c r="W1" s="143"/>
+      <c r="X1" s="144"/>
+      <c r="Y1" s="142" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z1" s="143"/>
+      <c r="AA1" s="144"/>
+      <c r="AB1" s="142" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC1" s="143"/>
+      <c r="AD1" s="144"/>
+      <c r="AE1" s="142"/>
+      <c r="AF1" s="143"/>
+      <c r="AG1" s="144"/>
+      <c r="AH1" s="142"/>
+      <c r="AI1" s="143"/>
+      <c r="AJ1" s="144"/>
+      <c r="AK1" s="142"/>
+      <c r="AL1" s="143"/>
+      <c r="AM1" s="144"/>
+      <c r="AN1" s="123"/>
+      <c r="AO1" s="123"/>
+      <c r="AP1" s="123"/>
+      <c r="AQ1" s="123"/>
+      <c r="AR1" s="123"/>
+      <c r="AS1" s="123"/>
+      <c r="AT1" s="123"/>
+      <c r="AU1" s="123"/>
+      <c r="AV1" s="123"/>
+    </row>
+    <row r="2" spans="1:48" s="127" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="109"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="124" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" s="126" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="124" t="s">
+        <v>180</v>
+      </c>
+      <c r="H2" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="I2" s="126" t="s">
+        <v>181</v>
+      </c>
+      <c r="J2" s="124" t="s">
+        <v>180</v>
+      </c>
+      <c r="K2" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" s="126" t="s">
+        <v>181</v>
+      </c>
+      <c r="M2" s="124" t="s">
+        <v>180</v>
+      </c>
+      <c r="N2" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="O2" s="126" t="s">
+        <v>181</v>
+      </c>
+      <c r="P2" s="124" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q2" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="R2" s="126" t="s">
+        <v>181</v>
+      </c>
+      <c r="S2" s="124" t="s">
+        <v>180</v>
+      </c>
+      <c r="T2" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="U2" s="126" t="s">
+        <v>181</v>
+      </c>
+      <c r="V2" s="124" t="s">
+        <v>180</v>
+      </c>
+      <c r="W2" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="X2" s="126" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y2" s="124" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z2" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA2" s="126" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB2" s="124" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC2" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD2" s="126" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE2" s="124"/>
+      <c r="AF2" s="125"/>
+      <c r="AG2" s="126"/>
+      <c r="AH2" s="124"/>
+      <c r="AI2" s="125"/>
+      <c r="AJ2" s="126"/>
+      <c r="AK2" s="124"/>
+      <c r="AL2" s="125"/>
+      <c r="AM2" s="126"/>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B3" s="180" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="104" t="str">
+        <f t="shared" ref="C3:C11" si="0">VLOOKUP(B3,ENEMY,4)</f>
+        <v>Normal</v>
+      </c>
+      <c r="D3" s="116"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="117"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="117"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="117"/>
+      <c r="AH3" s="116"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="117"/>
+      <c r="AK3" s="116"/>
+      <c r="AL3" s="94"/>
+      <c r="AM3" s="117"/>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B4" s="99" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="104" t="str">
+        <f t="shared" si="0"/>
+        <v>Intangible</v>
+      </c>
+      <c r="D4" s="118"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="96"/>
+      <c r="X4" s="119"/>
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="118"/>
+      <c r="AC4" s="96"/>
+      <c r="AD4" s="119"/>
+      <c r="AE4" s="118"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="119"/>
+      <c r="AH4" s="118"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="119"/>
+      <c r="AK4" s="118"/>
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="119"/>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B5" s="181" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="104" t="str">
+        <f t="shared" si="0"/>
+        <v>Saboteur</v>
+      </c>
+      <c r="D5" s="116"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="117"/>
+      <c r="Y5" s="116"/>
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="117"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="117"/>
+      <c r="AE5" s="116"/>
+      <c r="AF5" s="94"/>
+      <c r="AG5" s="117"/>
+      <c r="AH5" s="116"/>
+      <c r="AI5" s="94"/>
+      <c r="AJ5" s="117"/>
+      <c r="AK5" s="116"/>
+      <c r="AL5" s="94"/>
+      <c r="AM5" s="117"/>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B6" s="99" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="104" t="str">
+        <f t="shared" si="0"/>
+        <v>Normal</v>
+      </c>
+      <c r="D6" s="118"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="96"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="118"/>
+      <c r="W6" s="96"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="118"/>
+      <c r="Z6" s="96"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="118"/>
+      <c r="AC6" s="96"/>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="118"/>
+      <c r="AF6" s="96"/>
+      <c r="AG6" s="119"/>
+      <c r="AH6" s="118"/>
+      <c r="AI6" s="96"/>
+      <c r="AJ6" s="119"/>
+      <c r="AK6" s="118"/>
+      <c r="AL6" s="96"/>
+      <c r="AM6" s="119"/>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B7" s="99" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="104" t="str">
+        <f t="shared" si="0"/>
+        <v>Intangible</v>
+      </c>
+      <c r="D7" s="116"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="94"/>
+      <c r="X7" s="117"/>
+      <c r="Y7" s="116"/>
+      <c r="Z7" s="94"/>
+      <c r="AA7" s="117"/>
+      <c r="AB7" s="116"/>
+      <c r="AC7" s="94"/>
+      <c r="AD7" s="117"/>
+      <c r="AE7" s="116"/>
+      <c r="AF7" s="94"/>
+      <c r="AG7" s="117"/>
+      <c r="AH7" s="116"/>
+      <c r="AI7" s="94"/>
+      <c r="AJ7" s="117"/>
+      <c r="AK7" s="116"/>
+      <c r="AL7" s="94"/>
+      <c r="AM7" s="117"/>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B8" s="99" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="104" t="str">
+        <f t="shared" si="0"/>
+        <v>Saboteur</v>
+      </c>
+      <c r="D8" s="118"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="118"/>
+      <c r="Q8" s="96"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="118"/>
+      <c r="T8" s="96"/>
+      <c r="U8" s="119"/>
+      <c r="V8" s="118"/>
+      <c r="W8" s="96"/>
+      <c r="X8" s="119"/>
+      <c r="Y8" s="118"/>
+      <c r="Z8" s="96"/>
+      <c r="AA8" s="119"/>
+      <c r="AB8" s="118"/>
+      <c r="AC8" s="96"/>
+      <c r="AD8" s="119"/>
+      <c r="AE8" s="118"/>
+      <c r="AF8" s="96"/>
+      <c r="AG8" s="119"/>
+      <c r="AH8" s="118"/>
+      <c r="AI8" s="96"/>
+      <c r="AJ8" s="119"/>
+      <c r="AK8" s="118"/>
+      <c r="AL8" s="96"/>
+      <c r="AM8" s="119"/>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B9" s="180" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="104" t="str">
+        <f t="shared" si="0"/>
+        <v>Normal</v>
+      </c>
+      <c r="D9" s="116"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="116">
+        <v>3</v>
+      </c>
+      <c r="H9" s="94">
+        <v>2</v>
+      </c>
+      <c r="I9" s="117">
+        <v>2</v>
+      </c>
+      <c r="J9" s="116"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="117"/>
+      <c r="V9" s="116"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="117"/>
+      <c r="Y9" s="116"/>
+      <c r="Z9" s="94"/>
+      <c r="AA9" s="117"/>
+      <c r="AB9" s="116"/>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="117"/>
+      <c r="AE9" s="116"/>
+      <c r="AF9" s="94"/>
+      <c r="AG9" s="117"/>
+      <c r="AH9" s="116"/>
+      <c r="AI9" s="94"/>
+      <c r="AJ9" s="117"/>
+      <c r="AK9" s="116"/>
+      <c r="AL9" s="94"/>
+      <c r="AM9" s="117"/>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B10" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="104" t="str">
+        <f t="shared" si="0"/>
+        <v>Intangible</v>
+      </c>
+      <c r="D10" s="118"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="96"/>
+      <c r="U10" s="119"/>
+      <c r="V10" s="118"/>
+      <c r="W10" s="96"/>
+      <c r="X10" s="119"/>
+      <c r="Y10" s="118"/>
+      <c r="Z10" s="96"/>
+      <c r="AA10" s="119"/>
+      <c r="AB10" s="118"/>
+      <c r="AC10" s="96"/>
+      <c r="AD10" s="119"/>
+      <c r="AE10" s="118"/>
+      <c r="AF10" s="96"/>
+      <c r="AG10" s="119"/>
+      <c r="AH10" s="118"/>
+      <c r="AI10" s="96"/>
+      <c r="AJ10" s="119"/>
+      <c r="AK10" s="118"/>
+      <c r="AL10" s="96"/>
+      <c r="AM10" s="119"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B11" s="181" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="104" t="str">
+        <f t="shared" si="0"/>
+        <v>Saboteur</v>
+      </c>
+      <c r="D11" s="116"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="116"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="117"/>
+      <c r="S11" s="116"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="117"/>
+      <c r="V11" s="116"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="117"/>
+      <c r="Y11" s="116"/>
+      <c r="Z11" s="94"/>
+      <c r="AA11" s="117"/>
+      <c r="AB11" s="116"/>
+      <c r="AC11" s="94"/>
+      <c r="AD11" s="117"/>
+      <c r="AE11" s="116"/>
+      <c r="AF11" s="94"/>
+      <c r="AG11" s="117"/>
+      <c r="AH11" s="116"/>
+      <c r="AI11" s="94"/>
+      <c r="AJ11" s="117"/>
+      <c r="AK11" s="116"/>
+      <c r="AL11" s="94"/>
+      <c r="AM11" s="117"/>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="D12" s="131"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="133"/>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B13" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="145">
+        <v>100</v>
+      </c>
+      <c r="E13" s="146"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="137">
+        <f>D16</f>
+        <v>100</v>
+      </c>
+      <c r="H13" s="138"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="137" t="e">
+        <f>G16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="138"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="137" t="e">
+        <f>J16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N13" s="138"/>
+      <c r="O13" s="139"/>
+      <c r="P13" s="137" t="e">
+        <f>M16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q13" s="138"/>
+      <c r="R13" s="139"/>
+      <c r="S13" s="137" t="e">
+        <f>P16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T13" s="138"/>
+      <c r="U13" s="139"/>
+      <c r="V13" s="137"/>
+      <c r="W13" s="138"/>
+      <c r="X13" s="139"/>
+      <c r="Y13" s="137"/>
+      <c r="Z13" s="138"/>
+      <c r="AA13" s="139"/>
+      <c r="AB13" s="137"/>
+      <c r="AC13" s="138"/>
+      <c r="AD13" s="139"/>
+      <c r="AE13" s="137"/>
+      <c r="AF13" s="138"/>
+      <c r="AG13" s="139"/>
+      <c r="AH13" s="137"/>
+      <c r="AI13" s="138"/>
+      <c r="AJ13" s="139"/>
+      <c r="AK13" s="137"/>
+      <c r="AL13" s="138"/>
+      <c r="AM13" s="139"/>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B14" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="131">
+        <f>D3*VLOOKUP($B$3,ENEMY,7)+D4*VLOOKUP($B$4,ENEMY,7)+D5*VLOOKUP($B$5,ENEMY,7)+D6*VLOOKUP($B$6,ENEMY,7)+D7*VLOOKUP($B$7,ENEMY,7)+D8*VLOOKUP($B$8,ENEMY,7)+D9*VLOOKUP($B$9,ENEMY,7)+D10*VLOOKUP($B$10,ENEMY,7)+D11*VLOOKUP($B$11,ENEMY,7)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="132"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="131">
+        <f>G3*H3*VLOOKUP($B$3,ENEMY,7)+G4*H4*VLOOKUP($B$4,ENEMY,7)+G5*H5*VLOOKUP($B$5,ENEMY,7)+G6*H6*VLOOKUP($B$6,ENEMY,7)+G7*H7*VLOOKUP($B$7,ENEMY,7)+G8*H8*VLOOKUP($B$8,ENEMY,7)+G9*H9*VLOOKUP($B$9,ENEMY,7)+G10*H10*VLOOKUP($B$10,ENEMY,7)+G11*H11*VLOOKUP($B$11,ENEMY,7)</f>
+        <v>30</v>
+      </c>
+      <c r="H14" s="132"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="131">
+        <f>J3*K3*VLOOKUP($B$3,ENEMY,7)+J4*K4*VLOOKUP($B$4,ENEMY,7)+J5*K5*VLOOKUP($B$5,ENEMY,7)+J6*K6*VLOOKUP($B$6,ENEMY,7)+J7*K7*VLOOKUP($B$7,ENEMY,7)+J8*K8*VLOOKUP($B$8,ENEMY,7)+J9*K9*VLOOKUP($B$9,ENEMY,7)+J10*K10*VLOOKUP($B$10,ENEMY,7)+J11*K11*VLOOKUP($B$11,ENEMY,7)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="132"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="131">
+        <f>M3*N3*VLOOKUP($B$3,ENEMY,7)+M4*N4*VLOOKUP($B$4,ENEMY,7)+M5*N5*VLOOKUP($B$5,ENEMY,7)+M6*N6*VLOOKUP($B$6,ENEMY,7)+M7*N7*VLOOKUP($B$7,ENEMY,7)+M8*N8*VLOOKUP($B$8,ENEMY,7)+M9*N9*VLOOKUP($B$9,ENEMY,7)+M10*N10*VLOOKUP($B$10,ENEMY,7)+M11*N11*VLOOKUP($B$11,ENEMY,7)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="132"/>
+      <c r="O14" s="133"/>
+      <c r="P14" s="131">
+        <f>P3*Q3*VLOOKUP($B$3,ENEMY,7)+P4*Q4*VLOOKUP($B$4,ENEMY,7)+P5*Q5*VLOOKUP($B$5,ENEMY,7)+P6*Q6*VLOOKUP($B$6,ENEMY,7)+P7*Q7*VLOOKUP($B$7,ENEMY,7)+P8*Q8*VLOOKUP($B$8,ENEMY,7)+P9*Q9*VLOOKUP($B$9,ENEMY,7)+P10*Q10*VLOOKUP($B$10,ENEMY,7)+P11*Q11*VLOOKUP($B$11,ENEMY,7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="132"/>
+      <c r="R14" s="133"/>
+      <c r="S14" s="131">
+        <f>S3*T3*VLOOKUP($B$3,ENEMY,7)+S4*T4*VLOOKUP($B$4,ENEMY,7)+S5*T5*VLOOKUP($B$5,ENEMY,7)+S6*T6*VLOOKUP($B$6,ENEMY,7)+S7*T7*VLOOKUP($B$7,ENEMY,7)+S8*T8*VLOOKUP($B$8,ENEMY,7)+S9*T9*VLOOKUP($B$9,ENEMY,7)+S10*T10*VLOOKUP($B$10,ENEMY,7)+S11*T11*VLOOKUP($B$11,ENEMY,7)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="132"/>
+      <c r="U14" s="133"/>
+      <c r="V14" s="131"/>
+      <c r="W14" s="132"/>
+      <c r="X14" s="133"/>
+      <c r="Y14" s="131"/>
+      <c r="Z14" s="132"/>
+      <c r="AA14" s="133"/>
+      <c r="AB14" s="131"/>
+      <c r="AC14" s="132"/>
+      <c r="AD14" s="133"/>
+      <c r="AE14" s="131"/>
+      <c r="AF14" s="132"/>
+      <c r="AG14" s="133"/>
+      <c r="AH14" s="131"/>
+      <c r="AI14" s="132"/>
+      <c r="AJ14" s="133"/>
+      <c r="AK14" s="131"/>
+      <c r="AL14" s="132"/>
+      <c r="AM14" s="133"/>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B15" s="97" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="131">
+        <f>D26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+D27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+D28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+D29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+D30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+D31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+D32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+D33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+D34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
+        <v>2.25</v>
+      </c>
+      <c r="E15" s="132"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="131">
+        <f>G26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+G27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+G28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+G29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+G30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+G31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+G32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+G33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+G34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="132"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="131">
+        <f>J26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+J27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+J28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+J29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+J30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+J31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+J32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+J33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+J34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="132"/>
+      <c r="L15" s="133"/>
+      <c r="M15" s="131">
+        <f>M26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+M27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+M28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+M29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+M30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+M31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+M32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+M33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+M34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="132"/>
+      <c r="O15" s="133"/>
+      <c r="P15" s="131">
+        <f>P26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+P27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+P28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+P29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+P30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+P31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+P32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+P33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+P34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="133"/>
+      <c r="S15" s="131">
+        <f>S26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+S27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+S28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+S29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+S30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+S31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+S32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+S33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+S34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="132"/>
+      <c r="U15" s="133"/>
+      <c r="V15" s="131"/>
+      <c r="W15" s="132"/>
+      <c r="X15" s="133"/>
+      <c r="Y15" s="131"/>
+      <c r="Z15" s="132"/>
+      <c r="AA15" s="133"/>
+      <c r="AB15" s="131"/>
+      <c r="AC15" s="132"/>
+      <c r="AD15" s="133"/>
+      <c r="AE15" s="131"/>
+      <c r="AF15" s="132"/>
+      <c r="AG15" s="133"/>
+      <c r="AH15" s="131"/>
+      <c r="AI15" s="132"/>
+      <c r="AJ15" s="133"/>
+      <c r="AK15" s="131"/>
+      <c r="AL15" s="132"/>
+      <c r="AM15" s="133"/>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B16" s="97" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="137">
+        <f>D13-D14</f>
+        <v>100</v>
+      </c>
+      <c r="E16" s="138"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="137" t="e">
+        <f>ROUND(G13-(G14/G15),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" s="138"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="137" t="e">
+        <f t="shared" ref="J16" si="1">ROUND(J13-(J14/J15),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K16" s="138"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="137" t="e">
+        <f t="shared" ref="M16" si="2">ROUND(M13-(M14/M15),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" s="138"/>
+      <c r="O16" s="139"/>
+      <c r="P16" s="137" t="e">
+        <f t="shared" ref="P16" si="3">ROUND(P13-(P14/P15),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q16" s="138"/>
+      <c r="R16" s="139"/>
+      <c r="S16" s="137" t="e">
+        <f t="shared" ref="S16" si="4">ROUND(S13-(S14/S15),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T16" s="138"/>
+      <c r="U16" s="139"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="138"/>
+      <c r="X16" s="139"/>
+      <c r="Y16" s="137"/>
+      <c r="Z16" s="138"/>
+      <c r="AA16" s="139"/>
+      <c r="AB16" s="137"/>
+      <c r="AC16" s="138"/>
+      <c r="AD16" s="139"/>
+      <c r="AE16" s="137"/>
+      <c r="AF16" s="138"/>
+      <c r="AG16" s="139"/>
+      <c r="AH16" s="137"/>
+      <c r="AI16" s="138"/>
+      <c r="AJ16" s="139"/>
+      <c r="AK16" s="137"/>
+      <c r="AL16" s="138"/>
+      <c r="AM16" s="139"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="C17" s="31"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="133"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="132"/>
+      <c r="R17" s="133"/>
+      <c r="S17" s="131"/>
+      <c r="T17" s="132"/>
+      <c r="U17" s="133"/>
+      <c r="V17" s="131"/>
+      <c r="W17" s="132"/>
+      <c r="X17" s="133"/>
+      <c r="Y17" s="131"/>
+      <c r="Z17" s="132"/>
+      <c r="AA17" s="133"/>
+      <c r="AB17" s="131"/>
+      <c r="AC17" s="132"/>
+      <c r="AD17" s="133"/>
+      <c r="AE17" s="131"/>
+      <c r="AF17" s="132"/>
+      <c r="AG17" s="133"/>
+      <c r="AH17" s="131"/>
+      <c r="AI17" s="132"/>
+      <c r="AJ17" s="133"/>
+      <c r="AK17" s="131"/>
+      <c r="AL17" s="132"/>
+      <c r="AM17" s="133"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B18" s="95" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" s="128">
+        <f>Tower!I3*2+Tower!I3/2</f>
+        <v>50</v>
+      </c>
+      <c r="E18" s="129"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="128">
+        <f>D22</f>
+        <v>10</v>
+      </c>
+      <c r="H18" s="129"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="128">
+        <f t="shared" ref="J18" si="5">G22</f>
+        <v>-10</v>
+      </c>
+      <c r="K18" s="129"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="128">
+        <f t="shared" ref="M18" si="6">J22</f>
+        <v>-10</v>
+      </c>
+      <c r="N18" s="129"/>
+      <c r="O18" s="130"/>
+      <c r="P18" s="128">
+        <f t="shared" ref="P18" si="7">M22</f>
+        <v>-10</v>
+      </c>
+      <c r="Q18" s="129"/>
+      <c r="R18" s="130"/>
+      <c r="S18" s="128">
+        <f t="shared" ref="S18" si="8">P22</f>
+        <v>-10</v>
+      </c>
+      <c r="T18" s="129"/>
+      <c r="U18" s="130"/>
+      <c r="V18" s="128">
+        <f t="shared" ref="V18" si="9">S22</f>
+        <v>-10</v>
+      </c>
+      <c r="W18" s="129"/>
+      <c r="X18" s="130"/>
+      <c r="Y18" s="128">
+        <f t="shared" ref="Y18" si="10">V22</f>
+        <v>-10</v>
+      </c>
+      <c r="Z18" s="129"/>
+      <c r="AA18" s="130"/>
+      <c r="AB18" s="128">
+        <f t="shared" ref="AB18" si="11">Y22</f>
+        <v>-10</v>
+      </c>
+      <c r="AC18" s="129"/>
+      <c r="AD18" s="130"/>
+      <c r="AE18" s="128">
+        <f t="shared" ref="AE18" si="12">AB22</f>
+        <v>-10</v>
+      </c>
+      <c r="AF18" s="129"/>
+      <c r="AG18" s="130"/>
+      <c r="AH18" s="128">
+        <f t="shared" ref="AH18" si="13">AE22</f>
+        <v>-10</v>
+      </c>
+      <c r="AI18" s="129"/>
+      <c r="AJ18" s="130"/>
+      <c r="AK18" s="128">
+        <f t="shared" ref="AK18" si="14">AH22</f>
+        <v>-10</v>
+      </c>
+      <c r="AL18" s="129"/>
+      <c r="AM18" s="130"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B19" s="97" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="134">
+        <f>D26*VLOOKUP($B$26,TOWER,9)+D27*VLOOKUP($B$27,TOWER,9)+D28*VLOOKUP($B$28,TOWER,9)+D29*VLOOKUP($B$29,TOWER,9)+D30*VLOOKUP($B$30,TOWER,9)+D31*VLOOKUP($B$31,TOWER,9)+D32*VLOOKUP($B$32,TOWER,9)+D33*VLOOKUP($B$33,TOWER,9)+D34*VLOOKUP($B$34,TOWER,9)</f>
+        <v>20</v>
+      </c>
+      <c r="E19" s="135"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="134">
+        <f>G26*VLOOKUP($B$26,TOWER,9)+G27*VLOOKUP($B$27,TOWER,9)+G28*VLOOKUP($B$28,TOWER,9)+G29*VLOOKUP($B$29,TOWER,9)+G30*VLOOKUP($B$30,TOWER,9)+G31*VLOOKUP($B$31,TOWER,9)+G32*VLOOKUP($B$32,TOWER,9)+G33*VLOOKUP($B$33,TOWER,9)+G34*VLOOKUP($B$34,TOWER,9)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="135"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="134">
+        <f>J26*VLOOKUP($B$26,TOWER,9)+J27*VLOOKUP($B$27,TOWER,9)+J28*VLOOKUP($B$28,TOWER,9)+J29*VLOOKUP($B$29,TOWER,9)+J30*VLOOKUP($B$30,TOWER,9)+J31*VLOOKUP($B$31,TOWER,9)+J32*VLOOKUP($B$32,TOWER,9)+J33*VLOOKUP($B$33,TOWER,9)+J34*VLOOKUP($B$34,TOWER,9)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="135"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="134">
+        <f>M26*VLOOKUP($B$26,TOWER,9)+M27*VLOOKUP($B$27,TOWER,9)+M28*VLOOKUP($B$28,TOWER,9)+M29*VLOOKUP($B$29,TOWER,9)+M30*VLOOKUP($B$30,TOWER,9)+M31*VLOOKUP($B$31,TOWER,9)+M32*VLOOKUP($B$32,TOWER,9)+M33*VLOOKUP($B$33,TOWER,9)+M34*VLOOKUP($B$34,TOWER,9)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="135"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="134">
+        <f>P26*VLOOKUP($B$26,TOWER,9)+P27*VLOOKUP($B$27,TOWER,9)+P28*VLOOKUP($B$28,TOWER,9)+P29*VLOOKUP($B$29,TOWER,9)+P30*VLOOKUP($B$30,TOWER,9)+P31*VLOOKUP($B$31,TOWER,9)+P32*VLOOKUP($B$32,TOWER,9)+P33*VLOOKUP($B$33,TOWER,9)+P34*VLOOKUP($B$34,TOWER,9)</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="135"/>
+      <c r="R19" s="136"/>
+      <c r="S19" s="134">
+        <f>S26*VLOOKUP($B$26,TOWER,9)+S27*VLOOKUP($B$27,TOWER,9)+S28*VLOOKUP($B$28,TOWER,9)+S29*VLOOKUP($B$29,TOWER,9)+S30*VLOOKUP($B$30,TOWER,9)+S31*VLOOKUP($B$31,TOWER,9)+S32*VLOOKUP($B$32,TOWER,9)+S33*VLOOKUP($B$33,TOWER,9)+S34*VLOOKUP($B$34,TOWER,9)</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="135"/>
+      <c r="U19" s="136"/>
+      <c r="V19" s="134">
+        <f>V26*VLOOKUP($B$26,TOWER,9)+V27*VLOOKUP($B$27,TOWER,9)+V28*VLOOKUP($B$28,TOWER,9)+V29*VLOOKUP($B$29,TOWER,9)+V30*VLOOKUP($B$30,TOWER,9)+V31*VLOOKUP($B$31,TOWER,9)+V32*VLOOKUP($B$32,TOWER,9)+V33*VLOOKUP($B$33,TOWER,9)+V34*VLOOKUP($B$34,TOWER,9)</f>
+        <v>0</v>
+      </c>
+      <c r="W19" s="135"/>
+      <c r="X19" s="136"/>
+      <c r="Y19" s="134">
+        <f>Y26*VLOOKUP($B$26,TOWER,9)+Y27*VLOOKUP($B$27,TOWER,9)+Y28*VLOOKUP($B$28,TOWER,9)+Y29*VLOOKUP($B$29,TOWER,9)+Y30*VLOOKUP($B$30,TOWER,9)+Y31*VLOOKUP($B$31,TOWER,9)+Y32*VLOOKUP($B$32,TOWER,9)+Y33*VLOOKUP($B$33,TOWER,9)+Y34*VLOOKUP($B$34,TOWER,9)</f>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="135"/>
+      <c r="AA19" s="136"/>
+      <c r="AB19" s="134">
+        <f>AB26*VLOOKUP($B$26,TOWER,9)+AB27*VLOOKUP($B$27,TOWER,9)+AB28*VLOOKUP($B$28,TOWER,9)+AB29*VLOOKUP($B$29,TOWER,9)+AB30*VLOOKUP($B$30,TOWER,9)+AB31*VLOOKUP($B$31,TOWER,9)+AB32*VLOOKUP($B$32,TOWER,9)+AB33*VLOOKUP($B$33,TOWER,9)+AB34*VLOOKUP($B$34,TOWER,9)</f>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="135"/>
+      <c r="AD19" s="136"/>
+      <c r="AE19" s="134">
+        <f>AE26*VLOOKUP($B$26,TOWER,9)+AE27*VLOOKUP($B$27,TOWER,9)+AE28*VLOOKUP($B$28,TOWER,9)+AE29*VLOOKUP($B$29,TOWER,9)+AE30*VLOOKUP($B$30,TOWER,9)+AE31*VLOOKUP($B$31,TOWER,9)+AE32*VLOOKUP($B$32,TOWER,9)+AE33*VLOOKUP($B$33,TOWER,9)+AE34*VLOOKUP($B$34,TOWER,9)</f>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="135"/>
+      <c r="AG19" s="136"/>
+      <c r="AH19" s="134">
+        <f>AH26*VLOOKUP($B$26,TOWER,9)+AH27*VLOOKUP($B$27,TOWER,9)+AH28*VLOOKUP($B$28,TOWER,9)+AH29*VLOOKUP($B$29,TOWER,9)+AH30*VLOOKUP($B$30,TOWER,9)+AH31*VLOOKUP($B$31,TOWER,9)+AH32*VLOOKUP($B$32,TOWER,9)+AH33*VLOOKUP($B$33,TOWER,9)+AH34*VLOOKUP($B$34,TOWER,9)</f>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="135"/>
+      <c r="AJ19" s="136"/>
+      <c r="AK19" s="134">
+        <f>AK26*VLOOKUP($B$26,TOWER,9)+AK27*VLOOKUP($B$27,TOWER,9)+AK28*VLOOKUP($B$28,TOWER,9)+AK29*VLOOKUP($B$29,TOWER,9)+AK30*VLOOKUP($B$30,TOWER,9)+AK31*VLOOKUP($B$31,TOWER,9)+AK32*VLOOKUP($B$32,TOWER,9)+AK33*VLOOKUP($B$33,TOWER,9)+AK34*VLOOKUP($B$34,TOWER,9)</f>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="135"/>
+      <c r="AM19" s="136"/>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B20" s="97" t="s">
+        <v>212</v>
+      </c>
+      <c r="D20" s="128">
+        <f>SUM(HLOOKUP(E37,FSTATS,5,FALSE)*D37,HLOOKUP(E38,FSTATS,5,FALSE)*D38,HLOOKUP(E39,FSTATS,5,FALSE)*D39)</f>
+        <v>20</v>
+      </c>
+      <c r="E20" s="129"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="128">
+        <f>SUM(HLOOKUP(H37,FSTATS,5,FALSE)*G37,HLOOKUP(H38,FSTATS,5,FALSE)*G38,HLOOKUP(H39,FSTATS,5,FALSE)*G39)</f>
+        <v>20</v>
+      </c>
+      <c r="H20" s="129"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="128">
+        <f>SUM(HLOOKUP(K37,FSTATS,5,FALSE)*J37,HLOOKUP(K38,FSTATS,5,FALSE)*J38,HLOOKUP(K39,FSTATS,5,FALSE)*J39)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="129"/>
+      <c r="L20" s="130"/>
+      <c r="M20" s="128">
+        <f>SUM(HLOOKUP(N37,FSTATS,5,FALSE)*M37,HLOOKUP(N38,FSTATS,5,FALSE)*M38,HLOOKUP(N39,FSTATS,5,FALSE)*M39)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="129"/>
+      <c r="O20" s="130"/>
+      <c r="P20" s="128">
+        <f>SUM(HLOOKUP(Q37,FSTATS,5,FALSE)*P37,HLOOKUP(Q38,FSTATS,5,FALSE)*P38,HLOOKUP(Q39,FSTATS,5,FALSE)*P39)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="129"/>
+      <c r="R20" s="130"/>
+      <c r="S20" s="128">
+        <f>SUM(HLOOKUP(T37,FSTATS,5,FALSE)*S37,HLOOKUP(T38,FSTATS,5,FALSE)*S38,HLOOKUP(T39,FSTATS,5,FALSE)*S39)</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="129"/>
+      <c r="U20" s="130"/>
+      <c r="V20" s="128">
+        <f>SUM(HLOOKUP(W37,FSTATS,5,FALSE)*V37,HLOOKUP(W38,FSTATS,5,FALSE)*V38,HLOOKUP(W39,FSTATS,5,FALSE)*V39)</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="129"/>
+      <c r="X20" s="130"/>
+      <c r="Y20" s="128">
+        <f>SUM(HLOOKUP(Z37,FSTATS,5,FALSE)*Y37,HLOOKUP(Z38,FSTATS,5,FALSE)*Y38,HLOOKUP(Z39,FSTATS,5,FALSE)*Y39)</f>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="129"/>
+      <c r="AA20" s="130"/>
+      <c r="AB20" s="128">
+        <f>SUM(HLOOKUP(AC37,FSTATS,5,FALSE)*AB37,HLOOKUP(AC38,FSTATS,5,FALSE)*AB38,HLOOKUP(AC39,FSTATS,5,FALSE)*AB39)</f>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="129"/>
+      <c r="AD20" s="130"/>
+      <c r="AE20" s="128">
+        <f>SUM(HLOOKUP(AF37,FSTATS,5,FALSE)*AE37,HLOOKUP(AF38,FSTATS,5,FALSE)*AE38,HLOOKUP(AF39,FSTATS,5,FALSE)*AE39)</f>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="129"/>
+      <c r="AG20" s="130"/>
+      <c r="AH20" s="128">
+        <f>SUM(HLOOKUP(AI37,FSTATS,5,FALSE)*AH37,HLOOKUP(AI38,FSTATS,5,FALSE)*AH38,HLOOKUP(AI39,FSTATS,5,FALSE)*AH39)</f>
+        <v>0</v>
+      </c>
+      <c r="AI20" s="129"/>
+      <c r="AJ20" s="130"/>
+      <c r="AK20" s="128">
+        <f>SUM(HLOOKUP(AL37,FSTATS,5,FALSE)*AK37,HLOOKUP(AL38,FSTATS,5,FALSE)*AK38,HLOOKUP(AL39,FSTATS,5,FALSE)*AK39)</f>
+        <v>0</v>
+      </c>
+      <c r="AL20" s="129"/>
+      <c r="AM20" s="130"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B21" s="97" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="134">
+        <f>D3*VLOOKUP($B$3,ENEMY,8)+D4*VLOOKUP($B$4,ENEMY,8)+D5*VLOOKUP($B$5,ENEMY,8)+D6*VLOOKUP($B$6,ENEMY,8)+D7*VLOOKUP($B$7,ENEMY,8)+D8*VLOOKUP($B$8,ENEMY,8)+D9*VLOOKUP($B$9,ENEMY,8)+D10*VLOOKUP($B$10,ENEMY,8)+D11*VLOOKUP($B$11,ENEMY,8)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="135"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="134">
+        <f>G3*H3*VLOOKUP($B$3,ENEMY,8)+G4*H4*VLOOKUP($B$4,ENEMY,8)+G5*H5*VLOOKUP($B$5,ENEMY,8)+G6*H6*VLOOKUP($B$6,ENEMY,8)+G7*H7*VLOOKUP($B$7,ENEMY,8)+G8*H8*VLOOKUP($B$8,ENEMY,8)+G9*H9*VLOOKUP($B$9,ENEMY,8)+G10*H10*VLOOKUP($B$10,ENEMY,8)+G11*H11*VLOOKUP($B$11,ENEMY,8)</f>
+        <v>18</v>
+      </c>
+      <c r="H21" s="135"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="134">
+        <f>J3*K3*VLOOKUP($B$3,ENEMY,8)+J4*K4*VLOOKUP($B$4,ENEMY,8)+J5*K5*VLOOKUP($B$5,ENEMY,8)+J6*K6*VLOOKUP($B$6,ENEMY,8)+J7*K7*VLOOKUP($B$7,ENEMY,8)+J8*K8*VLOOKUP($B$8,ENEMY,8)+J9*K9*VLOOKUP($B$9,ENEMY,8)+J10*K10*VLOOKUP($B$10,ENEMY,8)+J11*K11*VLOOKUP($B$11,ENEMY,8)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="135"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="134">
+        <f>M3*N3*VLOOKUP($B$3,ENEMY,8)+M4*N4*VLOOKUP($B$4,ENEMY,8)+M5*N5*VLOOKUP($B$5,ENEMY,8)+M6*N6*VLOOKUP($B$6,ENEMY,8)+M7*N7*VLOOKUP($B$7,ENEMY,8)+M8*N8*VLOOKUP($B$8,ENEMY,8)+M9*N9*VLOOKUP($B$9,ENEMY,8)+M10*N10*VLOOKUP($B$10,ENEMY,8)+M11*N11*VLOOKUP($B$11,ENEMY,8)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="135"/>
+      <c r="O21" s="136"/>
+      <c r="P21" s="134">
+        <f>P3*Q3*VLOOKUP($B$3,ENEMY,8)+P4*Q4*VLOOKUP($B$4,ENEMY,8)+P5*Q5*VLOOKUP($B$5,ENEMY,8)+P6*Q6*VLOOKUP($B$6,ENEMY,8)+P7*Q7*VLOOKUP($B$7,ENEMY,8)+P8*Q8*VLOOKUP($B$8,ENEMY,8)+P9*Q9*VLOOKUP($B$9,ENEMY,8)+P10*Q10*VLOOKUP($B$10,ENEMY,8)+P11*Q11*VLOOKUP($B$11,ENEMY,8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="135"/>
+      <c r="R21" s="136"/>
+      <c r="S21" s="134">
+        <f>S3*T3*VLOOKUP($B$3,ENEMY,8)+S4*T4*VLOOKUP($B$4,ENEMY,8)+S5*T5*VLOOKUP($B$5,ENEMY,8)+S6*T6*VLOOKUP($B$6,ENEMY,8)+S7*T7*VLOOKUP($B$7,ENEMY,8)+S8*T8*VLOOKUP($B$8,ENEMY,8)+S9*T9*VLOOKUP($B$9,ENEMY,8)+S10*T10*VLOOKUP($B$10,ENEMY,8)+S11*T11*VLOOKUP($B$11,ENEMY,8)</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="135"/>
+      <c r="U21" s="136"/>
+      <c r="V21" s="134">
+        <f>V3*W3*VLOOKUP($B$3,ENEMY,8)+V4*W4*VLOOKUP($B$4,ENEMY,8)+V5*W5*VLOOKUP($B$5,ENEMY,8)+V6*W6*VLOOKUP($B$6,ENEMY,8)+V7*W7*VLOOKUP($B$7,ENEMY,8)+V8*W8*VLOOKUP($B$8,ENEMY,8)+V9*W9*VLOOKUP($B$9,ENEMY,8)+V10*W10*VLOOKUP($B$10,ENEMY,8)+V11*W11*VLOOKUP($B$11,ENEMY,8)</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="135"/>
+      <c r="X21" s="136"/>
+      <c r="Y21" s="134">
+        <f>Y3*Z3*VLOOKUP($B$3,ENEMY,8)+Y4*Z4*VLOOKUP($B$4,ENEMY,8)+Y5*Z5*VLOOKUP($B$5,ENEMY,8)+Y6*Z6*VLOOKUP($B$6,ENEMY,8)+Y7*Z7*VLOOKUP($B$7,ENEMY,8)+Y8*Z8*VLOOKUP($B$8,ENEMY,8)+Y9*Z9*VLOOKUP($B$9,ENEMY,8)+Y10*Z10*VLOOKUP($B$10,ENEMY,8)+Y11*Z11*VLOOKUP($B$11,ENEMY,8)</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="135"/>
+      <c r="AA21" s="136"/>
+      <c r="AB21" s="134">
+        <f>AB3*AC3*VLOOKUP($B$3,ENEMY,8)+AB4*AC4*VLOOKUP($B$4,ENEMY,8)+AB5*AC5*VLOOKUP($B$5,ENEMY,8)+AB6*AC6*VLOOKUP($B$6,ENEMY,8)+AB7*AC7*VLOOKUP($B$7,ENEMY,8)+AB8*AC8*VLOOKUP($B$8,ENEMY,8)+AB9*AC9*VLOOKUP($B$9,ENEMY,8)+AB10*AC10*VLOOKUP($B$10,ENEMY,8)+AB11*AC11*VLOOKUP($B$11,ENEMY,8)</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="135"/>
+      <c r="AD21" s="136"/>
+      <c r="AE21" s="134">
+        <f>AE3*AF3*VLOOKUP($B$3,ENEMY,8)+AE4*AF4*VLOOKUP($B$4,ENEMY,8)+AE5*AF5*VLOOKUP($B$5,ENEMY,8)+AE6*AF6*VLOOKUP($B$6,ENEMY,8)+AE7*AF7*VLOOKUP($B$7,ENEMY,8)+AE8*AF8*VLOOKUP($B$8,ENEMY,8)+AE9*AF9*VLOOKUP($B$9,ENEMY,8)+AE10*AF10*VLOOKUP($B$10,ENEMY,8)+AE11*AF11*VLOOKUP($B$11,ENEMY,8)</f>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="135"/>
+      <c r="AG21" s="136"/>
+      <c r="AH21" s="134">
+        <f>AH3*AI3*VLOOKUP($B$3,ENEMY,8)+AH4*AI4*VLOOKUP($B$4,ENEMY,8)+AH5*AI5*VLOOKUP($B$5,ENEMY,8)+AH6*AI6*VLOOKUP($B$6,ENEMY,8)+AH7*AI7*VLOOKUP($B$7,ENEMY,8)+AH8*AI8*VLOOKUP($B$8,ENEMY,8)+AH9*AI9*VLOOKUP($B$9,ENEMY,8)+AH10*AI10*VLOOKUP($B$10,ENEMY,8)+AH11*AI11*VLOOKUP($B$11,ENEMY,8)</f>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="135"/>
+      <c r="AJ21" s="136"/>
+      <c r="AK21" s="134">
+        <f>AK3*AL3*VLOOKUP($B$3,ENEMY,8)+AK4*AL4*VLOOKUP($B$4,ENEMY,8)+AK5*AL5*VLOOKUP($B$5,ENEMY,8)+AK6*AL6*VLOOKUP($B$6,ENEMY,8)+AK7*AL7*VLOOKUP($B$7,ENEMY,8)+AK8*AL8*VLOOKUP($B$8,ENEMY,8)+AK9*AL9*VLOOKUP($B$9,ENEMY,8)+AK10*AL10*VLOOKUP($B$10,ENEMY,8)+AK11*AL11*VLOOKUP($B$11,ENEMY,8)</f>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="135"/>
+      <c r="AM21" s="136"/>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B22" s="97" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="128">
+        <f>D18-(D19+D20)+D21</f>
+        <v>10</v>
+      </c>
+      <c r="E22" s="129"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="128">
+        <f>G18-(G19+G20)</f>
+        <v>-10</v>
+      </c>
+      <c r="H22" s="129"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="128">
+        <f t="shared" ref="J22:AM22" si="15">J18-(J19+J20)</f>
+        <v>-10</v>
+      </c>
+      <c r="K22" s="129"/>
+      <c r="L22" s="130"/>
+      <c r="M22" s="128">
+        <f t="shared" ref="M22:AM22" si="16">M18-(M19+M20)</f>
+        <v>-10</v>
+      </c>
+      <c r="N22" s="129"/>
+      <c r="O22" s="130"/>
+      <c r="P22" s="128">
+        <f t="shared" ref="P22:AM22" si="17">P18-(P19+P20)</f>
+        <v>-10</v>
+      </c>
+      <c r="Q22" s="129"/>
+      <c r="R22" s="130"/>
+      <c r="S22" s="128">
+        <f t="shared" ref="S22:AM22" si="18">S18-(S19+S20)</f>
+        <v>-10</v>
+      </c>
+      <c r="T22" s="129"/>
+      <c r="U22" s="130"/>
+      <c r="V22" s="128">
+        <f t="shared" ref="V22:AM22" si="19">V18-(V19+V20)</f>
+        <v>-10</v>
+      </c>
+      <c r="W22" s="129"/>
+      <c r="X22" s="130"/>
+      <c r="Y22" s="128">
+        <f t="shared" ref="Y22:AM22" si="20">Y18-(Y19+Y20)</f>
+        <v>-10</v>
+      </c>
+      <c r="Z22" s="129"/>
+      <c r="AA22" s="130"/>
+      <c r="AB22" s="128">
+        <f t="shared" ref="AB22:AM22" si="21">AB18-(AB19+AB20)</f>
+        <v>-10</v>
+      </c>
+      <c r="AC22" s="129"/>
+      <c r="AD22" s="130"/>
+      <c r="AE22" s="128">
+        <f t="shared" ref="AE22:AM22" si="22">AE18-(AE19+AE20)</f>
+        <v>-10</v>
+      </c>
+      <c r="AF22" s="129"/>
+      <c r="AG22" s="130"/>
+      <c r="AH22" s="128">
+        <f t="shared" ref="AH22:AM22" si="23">AH18-(AH19+AH20)</f>
+        <v>-10</v>
+      </c>
+      <c r="AI22" s="129"/>
+      <c r="AJ22" s="130"/>
+      <c r="AK22" s="128">
+        <f t="shared" ref="AK22:AM22" si="24">AK18-(AK19+AK20)</f>
+        <v>-10</v>
+      </c>
+      <c r="AL22" s="129"/>
+      <c r="AM22" s="130"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B25" s="105" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="106" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A26" s="109">
+        <f>SUM(D26:BA26)</f>
+        <v>0</v>
+      </c>
+      <c r="B26" s="99" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="100" t="str">
+        <f>VLOOKUP(B3,ENEMY,4)</f>
+        <v>Normal</v>
+      </c>
+      <c r="D26" s="116"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="184"/>
+      <c r="K26" s="129"/>
+      <c r="L26" s="130"/>
+      <c r="M26" s="184"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="130"/>
+      <c r="P26" s="184"/>
+      <c r="Q26" s="129"/>
+      <c r="R26" s="130"/>
+      <c r="S26" s="184"/>
+      <c r="T26" s="129"/>
+      <c r="U26" s="130"/>
+      <c r="V26" s="184"/>
+      <c r="W26" s="129"/>
+      <c r="X26" s="130"/>
+      <c r="Y26" s="184"/>
+      <c r="Z26" s="129"/>
+      <c r="AA26" s="130"/>
+      <c r="AB26" s="184"/>
+      <c r="AC26" s="129"/>
+      <c r="AD26" s="130"/>
+      <c r="AE26" s="184"/>
+      <c r="AF26" s="129"/>
+      <c r="AG26" s="130"/>
+      <c r="AH26" s="184"/>
+      <c r="AI26" s="129"/>
+      <c r="AJ26" s="130"/>
+      <c r="AK26" s="184"/>
+      <c r="AL26" s="129"/>
+      <c r="AM26" s="130"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A27" s="109">
+        <f t="shared" ref="A27:A39" si="25">SUM(D27:BA27)</f>
+        <v>0</v>
+      </c>
+      <c r="B27" s="107" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" s="100" t="str">
+        <f>VLOOKUP(B4,ENEMY,4)</f>
+        <v>Intangible</v>
+      </c>
+      <c r="D27" s="118"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="183"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="183"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="136"/>
+      <c r="M27" s="183"/>
+      <c r="N27" s="135"/>
+      <c r="O27" s="136"/>
+      <c r="P27" s="183"/>
+      <c r="Q27" s="135"/>
+      <c r="R27" s="136"/>
+      <c r="S27" s="183"/>
+      <c r="T27" s="135"/>
+      <c r="U27" s="136"/>
+      <c r="V27" s="183"/>
+      <c r="W27" s="135"/>
+      <c r="X27" s="136"/>
+      <c r="Y27" s="183"/>
+      <c r="Z27" s="135"/>
+      <c r="AA27" s="136"/>
+      <c r="AB27" s="183"/>
+      <c r="AC27" s="135"/>
+      <c r="AD27" s="136"/>
+      <c r="AE27" s="183"/>
+      <c r="AF27" s="135"/>
+      <c r="AG27" s="136"/>
+      <c r="AH27" s="183"/>
+      <c r="AI27" s="135"/>
+      <c r="AJ27" s="136"/>
+      <c r="AK27" s="183"/>
+      <c r="AL27" s="135"/>
+      <c r="AM27" s="136"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A28" s="109">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="B28" s="107" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" s="100" t="str">
+        <f>VLOOKUP(B5,ENEMY,4)</f>
+        <v>Saboteur</v>
+      </c>
+      <c r="D28" s="116">
+        <v>1</v>
+      </c>
+      <c r="E28" s="129" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="130"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="184"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="130"/>
+      <c r="M28" s="184"/>
+      <c r="N28" s="129"/>
+      <c r="O28" s="130"/>
+      <c r="P28" s="184"/>
+      <c r="Q28" s="129"/>
+      <c r="R28" s="130"/>
+      <c r="S28" s="184"/>
+      <c r="T28" s="129"/>
+      <c r="U28" s="130"/>
+      <c r="V28" s="184"/>
+      <c r="W28" s="129"/>
+      <c r="X28" s="130"/>
+      <c r="Y28" s="184"/>
+      <c r="Z28" s="129"/>
+      <c r="AA28" s="130"/>
+      <c r="AB28" s="184"/>
+      <c r="AC28" s="129"/>
+      <c r="AD28" s="130"/>
+      <c r="AE28" s="184"/>
+      <c r="AF28" s="129"/>
+      <c r="AG28" s="130"/>
+      <c r="AH28" s="184"/>
+      <c r="AI28" s="129"/>
+      <c r="AJ28" s="130"/>
+      <c r="AK28" s="184"/>
+      <c r="AL28" s="129"/>
+      <c r="AM28" s="130"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A29" s="109">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="B29" s="99" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" s="100" t="str">
+        <f>VLOOKUP(B6,ENEMY,4)</f>
+        <v>Normal</v>
+      </c>
+      <c r="D29" s="118"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="183"/>
+      <c r="K29" s="135"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="183"/>
+      <c r="N29" s="135"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="183"/>
+      <c r="Q29" s="135"/>
+      <c r="R29" s="136"/>
+      <c r="S29" s="183"/>
+      <c r="T29" s="135"/>
+      <c r="U29" s="136"/>
+      <c r="V29" s="183"/>
+      <c r="W29" s="135"/>
+      <c r="X29" s="136"/>
+      <c r="Y29" s="183"/>
+      <c r="Z29" s="135"/>
+      <c r="AA29" s="136"/>
+      <c r="AB29" s="183"/>
+      <c r="AC29" s="135"/>
+      <c r="AD29" s="136"/>
+      <c r="AE29" s="183"/>
+      <c r="AF29" s="135"/>
+      <c r="AG29" s="136"/>
+      <c r="AH29" s="183"/>
+      <c r="AI29" s="135"/>
+      <c r="AJ29" s="136"/>
+      <c r="AK29" s="183"/>
+      <c r="AL29" s="135"/>
+      <c r="AM29" s="136"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A30" s="109">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="B30" s="107" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" s="100" t="str">
+        <f>VLOOKUP(B7,ENEMY,4)</f>
+        <v>Intangible</v>
+      </c>
+      <c r="D30" s="116"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="184"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="184"/>
+      <c r="K30" s="129"/>
+      <c r="L30" s="130"/>
+      <c r="M30" s="184"/>
+      <c r="N30" s="129"/>
+      <c r="O30" s="130"/>
+      <c r="P30" s="184"/>
+      <c r="Q30" s="129"/>
+      <c r="R30" s="130"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="129"/>
+      <c r="U30" s="130"/>
+      <c r="V30" s="184"/>
+      <c r="W30" s="129"/>
+      <c r="X30" s="130"/>
+      <c r="Y30" s="184"/>
+      <c r="Z30" s="129"/>
+      <c r="AA30" s="130"/>
+      <c r="AB30" s="184"/>
+      <c r="AC30" s="129"/>
+      <c r="AD30" s="130"/>
+      <c r="AE30" s="184"/>
+      <c r="AF30" s="129"/>
+      <c r="AG30" s="130"/>
+      <c r="AH30" s="184"/>
+      <c r="AI30" s="129"/>
+      <c r="AJ30" s="130"/>
+      <c r="AK30" s="184"/>
+      <c r="AL30" s="129"/>
+      <c r="AM30" s="130"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A31" s="109">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="B31" s="107" t="s">
+        <v>200</v>
+      </c>
+      <c r="C31" s="100" t="str">
+        <f>VLOOKUP(B8,ENEMY,4)</f>
+        <v>Saboteur</v>
+      </c>
+      <c r="D31" s="118"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="183"/>
+      <c r="K31" s="135"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="183"/>
+      <c r="N31" s="135"/>
+      <c r="O31" s="136"/>
+      <c r="P31" s="183"/>
+      <c r="Q31" s="135"/>
+      <c r="R31" s="136"/>
+      <c r="S31" s="183"/>
+      <c r="T31" s="135"/>
+      <c r="U31" s="136"/>
+      <c r="V31" s="183"/>
+      <c r="W31" s="135"/>
+      <c r="X31" s="136"/>
+      <c r="Y31" s="183"/>
+      <c r="Z31" s="135"/>
+      <c r="AA31" s="136"/>
+      <c r="AB31" s="183"/>
+      <c r="AC31" s="135"/>
+      <c r="AD31" s="136"/>
+      <c r="AE31" s="183"/>
+      <c r="AF31" s="135"/>
+      <c r="AG31" s="136"/>
+      <c r="AH31" s="183"/>
+      <c r="AI31" s="135"/>
+      <c r="AJ31" s="136"/>
+      <c r="AK31" s="183"/>
+      <c r="AL31" s="135"/>
+      <c r="AM31" s="136"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A32" s="109">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="B32" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="100" t="str">
+        <f>VLOOKUP(B9,ENEMY,4)</f>
+        <v>Normal</v>
+      </c>
+      <c r="D32" s="116"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="184"/>
+      <c r="K32" s="129"/>
+      <c r="L32" s="130"/>
+      <c r="M32" s="184"/>
+      <c r="N32" s="129"/>
+      <c r="O32" s="130"/>
+      <c r="P32" s="184"/>
+      <c r="Q32" s="129"/>
+      <c r="R32" s="130"/>
+      <c r="S32" s="184"/>
+      <c r="T32" s="129"/>
+      <c r="U32" s="130"/>
+      <c r="V32" s="184"/>
+      <c r="W32" s="129"/>
+      <c r="X32" s="130"/>
+      <c r="Y32" s="184"/>
+      <c r="Z32" s="129"/>
+      <c r="AA32" s="130"/>
+      <c r="AB32" s="184"/>
+      <c r="AC32" s="129"/>
+      <c r="AD32" s="130"/>
+      <c r="AE32" s="184"/>
+      <c r="AF32" s="129"/>
+      <c r="AG32" s="130"/>
+      <c r="AH32" s="184"/>
+      <c r="AI32" s="129"/>
+      <c r="AJ32" s="130"/>
+      <c r="AK32" s="184"/>
+      <c r="AL32" s="129"/>
+      <c r="AM32" s="130"/>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A33" s="109">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="B33" s="107" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="100" t="str">
+        <f>VLOOKUP(B10,ENEMY,4)</f>
+        <v>Intangible</v>
+      </c>
+      <c r="D33" s="118"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="183"/>
+      <c r="H33" s="135"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="183"/>
+      <c r="K33" s="135"/>
+      <c r="L33" s="136"/>
+      <c r="M33" s="183"/>
+      <c r="N33" s="135"/>
+      <c r="O33" s="136"/>
+      <c r="P33" s="183"/>
+      <c r="Q33" s="135"/>
+      <c r="R33" s="136"/>
+      <c r="S33" s="183"/>
+      <c r="T33" s="135"/>
+      <c r="U33" s="136"/>
+      <c r="V33" s="183"/>
+      <c r="W33" s="135"/>
+      <c r="X33" s="136"/>
+      <c r="Y33" s="183"/>
+      <c r="Z33" s="135"/>
+      <c r="AA33" s="136"/>
+      <c r="AB33" s="183"/>
+      <c r="AC33" s="135"/>
+      <c r="AD33" s="136"/>
+      <c r="AE33" s="183"/>
+      <c r="AF33" s="135"/>
+      <c r="AG33" s="136"/>
+      <c r="AH33" s="183"/>
+      <c r="AI33" s="135"/>
+      <c r="AJ33" s="136"/>
+      <c r="AK33" s="183"/>
+      <c r="AL33" s="135"/>
+      <c r="AM33" s="136"/>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A34" s="109">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="B34" s="107" t="s">
+        <v>201</v>
+      </c>
+      <c r="C34" s="100" t="str">
+        <f>VLOOKUP(B11,ENEMY,4)</f>
+        <v>Saboteur</v>
+      </c>
+      <c r="D34" s="116"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="130"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="129"/>
+      <c r="I34" s="130"/>
+      <c r="J34" s="184"/>
+      <c r="K34" s="129"/>
+      <c r="L34" s="130"/>
+      <c r="M34" s="184"/>
+      <c r="N34" s="129"/>
+      <c r="O34" s="130"/>
+      <c r="P34" s="184"/>
+      <c r="Q34" s="129"/>
+      <c r="R34" s="130"/>
+      <c r="S34" s="184"/>
+      <c r="T34" s="129"/>
+      <c r="U34" s="130"/>
+      <c r="V34" s="184"/>
+      <c r="W34" s="129"/>
+      <c r="X34" s="130"/>
+      <c r="Y34" s="184"/>
+      <c r="Z34" s="129"/>
+      <c r="AA34" s="130"/>
+      <c r="AB34" s="184"/>
+      <c r="AC34" s="129"/>
+      <c r="AD34" s="130"/>
+      <c r="AE34" s="184"/>
+      <c r="AF34" s="129"/>
+      <c r="AG34" s="130"/>
+      <c r="AH34" s="184"/>
+      <c r="AI34" s="129"/>
+      <c r="AJ34" s="130"/>
+      <c r="AK34" s="184"/>
+      <c r="AL34" s="129"/>
+      <c r="AM34" s="130"/>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B35" s="101"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="110"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+      <c r="AA35" s="31"/>
+      <c r="AB35" s="31"/>
+      <c r="AD35" s="31"/>
+      <c r="AE35" s="31"/>
+      <c r="AG35" s="31"/>
+      <c r="AH35" s="31"/>
+      <c r="AJ35" s="31"/>
+      <c r="AK35" s="31"/>
+      <c r="AM35" s="31"/>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B36" s="105" t="s">
+        <v>210</v>
+      </c>
+      <c r="C36" s="105" t="s">
+        <v>211</v>
+      </c>
+      <c r="D36" s="110"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="31"/>
+      <c r="X36" s="31"/>
+      <c r="Y36" s="31"/>
+      <c r="AA36" s="31"/>
+      <c r="AB36" s="31"/>
+      <c r="AD36" s="31"/>
+      <c r="AE36" s="31"/>
+      <c r="AG36" s="31"/>
+      <c r="AH36" s="31"/>
+      <c r="AJ36" s="31"/>
+      <c r="AK36" s="31"/>
+      <c r="AM36" s="31"/>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A37" s="109">
+        <f>SUM(D37:BA37)</f>
+        <v>1</v>
+      </c>
+      <c r="B37" s="182" t="str">
+        <f>Factory!A3</f>
+        <v>1_Piz</v>
+      </c>
+      <c r="C37" s="100" t="str">
+        <f>VLOOKUP(B37,FACTORY,3,FALSE)</f>
+        <v>Pizza</v>
+      </c>
+      <c r="D37" s="118">
+        <v>1</v>
+      </c>
+      <c r="E37" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="136"/>
+      <c r="G37" s="183"/>
+      <c r="H37" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="I37" s="136"/>
+      <c r="J37" s="183"/>
+      <c r="K37" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="L37" s="136"/>
+      <c r="M37" s="183"/>
+      <c r="N37" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="O37" s="136"/>
+      <c r="P37" s="183"/>
+      <c r="Q37" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="R37" s="136"/>
+      <c r="S37" s="183"/>
+      <c r="T37" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="U37" s="136"/>
+      <c r="V37" s="183"/>
+      <c r="W37" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="X37" s="136"/>
+      <c r="Y37" s="183"/>
+      <c r="Z37" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA37" s="136"/>
+      <c r="AB37" s="183"/>
+      <c r="AC37" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD37" s="136"/>
+      <c r="AE37" s="183"/>
+      <c r="AF37" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG37" s="136"/>
+      <c r="AH37" s="183"/>
+      <c r="AI37" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ37" s="136"/>
+      <c r="AK37" s="183"/>
+      <c r="AL37" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM37" s="136"/>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A38" s="109">
+        <f>SUM(D38:BA38)</f>
+        <v>1</v>
+      </c>
+      <c r="B38" s="182" t="str">
+        <f>Factory!A4</f>
+        <v>2_Bub</v>
+      </c>
+      <c r="C38" s="100" t="str">
+        <f>VLOOKUP(B38,FACTORY,3,FALSE)</f>
+        <v>Bubblegum</v>
+      </c>
+      <c r="D38" s="116"/>
+      <c r="E38" s="129" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="130"/>
+      <c r="G38" s="184">
+        <v>1</v>
+      </c>
+      <c r="H38" s="129" t="s">
+        <v>66</v>
+      </c>
+      <c r="I38" s="130"/>
+      <c r="J38" s="184"/>
+      <c r="K38" s="129" t="s">
+        <v>66</v>
+      </c>
+      <c r="L38" s="130"/>
+      <c r="M38" s="184"/>
+      <c r="N38" s="129" t="s">
+        <v>66</v>
+      </c>
+      <c r="O38" s="130"/>
+      <c r="P38" s="184"/>
+      <c r="Q38" s="129" t="s">
+        <v>66</v>
+      </c>
+      <c r="R38" s="130"/>
+      <c r="S38" s="184"/>
+      <c r="T38" s="129" t="s">
+        <v>66</v>
+      </c>
+      <c r="U38" s="130"/>
+      <c r="V38" s="184"/>
+      <c r="W38" s="129" t="s">
+        <v>66</v>
+      </c>
+      <c r="X38" s="130"/>
+      <c r="Y38" s="184"/>
+      <c r="Z38" s="129" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA38" s="130"/>
+      <c r="AB38" s="184"/>
+      <c r="AC38" s="129" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD38" s="130"/>
+      <c r="AE38" s="184"/>
+      <c r="AF38" s="129" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG38" s="130"/>
+      <c r="AH38" s="184"/>
+      <c r="AI38" s="129" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ38" s="130"/>
+      <c r="AK38" s="184"/>
+      <c r="AL38" s="129" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM38" s="130"/>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A39" s="109">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="B39" s="182" t="str">
+        <f>Factory!A5</f>
+        <v>3_Sta</v>
+      </c>
+      <c r="C39" s="100" t="str">
+        <f>VLOOKUP(B39,FACTORY,3,FALSE)</f>
+        <v>Stars</v>
+      </c>
+      <c r="D39" s="118"/>
+      <c r="E39" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="136"/>
+      <c r="G39" s="183"/>
+      <c r="H39" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="I39" s="136"/>
+      <c r="J39" s="183"/>
+      <c r="K39" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="L39" s="136"/>
+      <c r="M39" s="183"/>
+      <c r="N39" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="O39" s="136"/>
+      <c r="P39" s="183"/>
+      <c r="Q39" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="R39" s="136"/>
+      <c r="S39" s="183"/>
+      <c r="T39" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="U39" s="136"/>
+      <c r="V39" s="183"/>
+      <c r="W39" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="X39" s="136"/>
+      <c r="Y39" s="183"/>
+      <c r="Z39" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA39" s="136"/>
+      <c r="AB39" s="183"/>
+      <c r="AC39" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD39" s="136"/>
+      <c r="AE39" s="183"/>
+      <c r="AF39" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG39" s="136"/>
+      <c r="AH39" s="183"/>
+      <c r="AI39" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ39" s="136"/>
+      <c r="AK39" s="183"/>
+      <c r="AL39" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM39" s="136"/>
+    </row>
+  </sheetData>
+  <mergeCells count="279">
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="AF39:AG39"/>
+    <mergeCell ref="AI39:AJ39"/>
+    <mergeCell ref="AL39:AM39"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AL38:AM38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="AL37:AM37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AL34:AM34"/>
+    <mergeCell ref="AL33:AM33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="AF34:AG34"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AL32:AM32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AL31:AM31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="AL30:AM30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="AF31:AG31"/>
+    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AL29:AM29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AL28:AM28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="AC29:AD29"/>
+    <mergeCell ref="AL27:AM27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="AL26:AM26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AK20:AM20"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AD20"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="AK22:AM22"/>
+    <mergeCell ref="AK21:AM21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AD19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AK19:AM19"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AK18:AM18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="AK17:AM17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AK16:AM16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:AM15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="AK14:AM14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AK13:AM13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D16:AM16">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="100"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:AM13">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="100"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:AM22">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26:B34" xr:uid="{6DDFE7D8-B2A4-40DF-9C3B-CF03CF5149DC}">
+      <formula1>CODE_TOWER</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B11" xr:uid="{D72B5E8F-0C67-484F-9BD3-7E2B0218455E}">
+      <formula1>CODE_ENEMIES</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B8A5E084-D293-4C8C-953F-DF38AE681B64}">
+          <x14:formula1>
+            <xm:f>Data!$B$16:$B$19</xm:f>
+          </x14:formula1>
+          <xm:sqref>E26 E27:F27 H26 K26 N26 Q26 T26 W26 Z26 AC26 AF26 AI26 AL26 Q27:R27 H27:I27 K27:L27 N27:O27 T27:U27 W27:X27 Z27:AA27 AC27:AD27 AF27:AG27 AI27:AJ27 AL27:AM27 E28 E30 E32 E34 AC29:AD29 E38 E29:F29 E31:F31 E33:F33 AC31:AD31 E37:F37 E39:F39 H28 H30 H32 H34 AC33:AD33 H38 K28 K30 K32 K34 AL33:AM33 AL31:AM31 N28 N30 N32 N34 Z38 K38 Q28 Q30 Q32 Q34 Z37:AA37 Q38 T28 T30 T32 T34 AF29:AG29 N38 W28 W30 W32 W34 AF31:AG31 T38 Z28 Z30 Z32 Z34 AF33:AG33 W38 AC28 AC30 AC32 AC34 AI38 Z39:AA39 AF28 AF30 AF32 AF34 AC38 AC37:AD37 AI28 AI30 AI32 AI34 AC39:AD39 AF38 AL28 AL30 AL32 AL34 AI29:AJ29 AI37:AJ37 Q29:R29 Q31:R31 Q33:R33 AI31:AJ31 Q37:R37 Q39:R39 H29:I29 H31:I31 H33:I33 AI33:AJ33 H37:I37 H39:I39 K29:L29 K31:L31 K33:L33 AI39:AJ39 W37:X37 W39:X39 N29:O29 N31:O31 N33:O33 AF37:AG37 K37:L37 K39:L39 T29:U29 T31:U31 T33:U33 AF39:AG39 N37:O37 N39:O39 W29:X29 W31:X31 W33:X33 AL29:AM29 T37:U37 T39:U39 Z29:AA29 Z31:AA31 Z33:AA33 AL38 AL37:AM37 AL39:AM39</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDA4FAA-0409-4E65-B5DA-46DD5A6F91E2}">
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="C15:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5131,10 +7604,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="111"/>
+      <c r="B1" s="151"/>
       <c r="C1" s="70" t="s">
         <v>11</v>
       </c>
@@ -5146,39 +7619,39 @@
       <c r="G1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="98" t="s">
+      <c r="I1" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="98"/>
-      <c r="K1" s="110" t="s">
+      <c r="J1" s="159"/>
+      <c r="K1" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="110"/>
-      <c r="M1" s="98" t="s">
+      <c r="L1" s="146"/>
+      <c r="M1" s="159" t="s">
         <v>76</v>
       </c>
-      <c r="N1" s="98"/>
-      <c r="O1" s="110" t="s">
+      <c r="N1" s="159"/>
+      <c r="O1" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="98" t="s">
-        <v>171</v>
-      </c>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98" t="s">
+      <c r="P1" s="146"/>
+      <c r="Q1" s="159" t="s">
+        <v>170</v>
+      </c>
+      <c r="R1" s="159"/>
+      <c r="S1" s="159" t="s">
         <v>154</v>
       </c>
-      <c r="T1" s="98"/>
+      <c r="T1" s="159"/>
       <c r="U1" s="16"/>
       <c r="V1" s="16"/>
-      <c r="W1" s="110" t="s">
-        <v>165</v>
-      </c>
-      <c r="X1" s="110"/>
+      <c r="W1" s="146" t="s">
+        <v>164</v>
+      </c>
+      <c r="X1" s="146"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="150" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="71" t="s">
@@ -5204,39 +7677,39 @@
         <f t="array" ref="G2">_xlfn.IFS(F2="+",ROUNDDOWN(E2*(1+$I$2),2),F2="=",E2,F2="++",ROUNDDOWN(E2*(1+$I$2)*1.5,2),F2="-",ROUNDDOWN(E2*(1+$I$2)*0.75,2))</f>
         <v>3</v>
       </c>
-      <c r="I2" s="97">
+      <c r="I2" s="158">
         <v>0.3</v>
       </c>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97">
+      <c r="J2" s="158"/>
+      <c r="K2" s="158">
         <v>0.2</v>
       </c>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97">
+      <c r="L2" s="158"/>
+      <c r="M2" s="158">
         <v>0.5</v>
       </c>
-      <c r="N2" s="97"/>
-      <c r="O2" s="94">
+      <c r="N2" s="158"/>
+      <c r="O2" s="129">
         <v>2</v>
       </c>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="97">
+      <c r="P2" s="129"/>
+      <c r="Q2" s="158">
         <v>0.25</v>
       </c>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97">
+      <c r="R2" s="158"/>
+      <c r="S2" s="158">
         <v>0.3</v>
       </c>
-      <c r="T2" s="97"/>
+      <c r="T2" s="158"/>
       <c r="U2" s="16"/>
       <c r="V2" s="16"/>
-      <c r="W2" s="108" t="s">
+      <c r="W2" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="108"/>
+      <c r="X2" s="156"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="99"/>
+      <c r="A3" s="150"/>
       <c r="B3" s="72" t="s">
         <v>15</v>
       </c>
@@ -5254,35 +7727,35 @@
       </c>
       <c r="F3" s="75" t="str" cm="1">
         <f t="array" ref="F3">_xlfn.IFS($O$10=0,"=",$O$10=1,"=",$O$10="2a",$S$10,$O$10="2b",$S$10)</f>
-        <v>++</v>
+        <v>=</v>
       </c>
       <c r="G3" s="18" cm="1">
         <f t="array" ref="G3">_xlfn.IFS(F3="+",ROUNDDOWN(C3*(1-$I$3),2),F3="=",C3,F3="++",ROUNDDOWN(C3*(1-$I$3)*0.75,2),F3="-",ROUNDDOWN(C3*(1-$I$3)*1.25,2))</f>
-        <v>0.5</v>
-      </c>
-      <c r="I3" s="96">
+        <v>0.75</v>
+      </c>
+      <c r="I3" s="153">
         <v>0.1</v>
       </c>
-      <c r="J3" s="96"/>
-      <c r="M3" s="96">
+      <c r="J3" s="153"/>
+      <c r="M3" s="153">
         <v>0.3</v>
       </c>
-      <c r="N3" s="96"/>
-      <c r="Q3" s="96">
+      <c r="N3" s="153"/>
+      <c r="Q3" s="153">
         <v>0.3</v>
       </c>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96">
+      <c r="R3" s="153"/>
+      <c r="S3" s="153">
         <v>0.3</v>
       </c>
-      <c r="T3" s="96"/>
+      <c r="T3" s="153"/>
       <c r="U3" s="16"/>
       <c r="V3" s="16"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
+      <c r="W3" s="156"/>
+      <c r="X3" s="156"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
+      <c r="A4" s="150"/>
       <c r="B4" s="71" t="s">
         <v>10</v>
       </c>
@@ -5300,34 +7773,34 @@
       </c>
       <c r="F4" s="75" t="str" cm="1">
         <f t="array" ref="F4">_xlfn.IFS($O$10=0,"=",$O$10=1,"=",$O$10="2a",$U$10,$O$10="2b",$U$10)</f>
-        <v>-</v>
+        <v>=</v>
       </c>
       <c r="G4" s="75" cm="1">
         <f t="array" ref="G4">_xlfn.IFS(F4="+",ROUNDDOWN(E4*(1+$I$4),2),F4="=",E4,F4="++",ROUNDDOWN(E4*(1+$I$4)*1.5,2),F4="-",ROUNDDOWN(E4*(1+$I$4)*0.75,2))</f>
-        <v>3.15</v>
-      </c>
-      <c r="I4" s="97">
+        <v>3.5</v>
+      </c>
+      <c r="I4" s="158">
         <v>0.2</v>
       </c>
-      <c r="J4" s="97"/>
-      <c r="M4" s="97">
+      <c r="J4" s="158"/>
+      <c r="M4" s="158">
         <v>0.2</v>
       </c>
-      <c r="N4" s="97"/>
-      <c r="Q4" s="97">
+      <c r="N4" s="158"/>
+      <c r="Q4" s="158">
         <v>0.25</v>
       </c>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97">
+      <c r="R4" s="158"/>
+      <c r="S4" s="158">
         <v>0.1</v>
       </c>
-      <c r="T4" s="97"/>
+      <c r="T4" s="158"/>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="99"/>
+      <c r="A5" s="150"/>
       <c r="B5" s="72" t="s">
         <v>40</v>
       </c>
@@ -5349,28 +7822,28 @@
         <f t="array" ref="G5">_xlfn.IFS(F5="+",ROUNDDOWN(E5*(1+$I$5),0),F5="=",E5)</f>
         <v>28</v>
       </c>
-      <c r="I5" s="96">
+      <c r="I5" s="153">
         <v>0.2</v>
       </c>
-      <c r="J5" s="96"/>
-      <c r="M5" s="96">
+      <c r="J5" s="153"/>
+      <c r="M5" s="153">
         <v>0.5</v>
       </c>
-      <c r="N5" s="96"/>
-      <c r="Q5" s="96">
+      <c r="N5" s="153"/>
+      <c r="Q5" s="153">
         <v>0.5</v>
       </c>
-      <c r="R5" s="96"/>
-      <c r="S5" s="96">
+      <c r="R5" s="153"/>
+      <c r="S5" s="153">
         <v>0.2</v>
       </c>
-      <c r="T5" s="96"/>
+      <c r="T5" s="153"/>
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="99"/>
+      <c r="A6" s="150"/>
       <c r="B6" s="71" t="s">
         <v>78</v>
       </c>
@@ -5391,20 +7864,20 @@
         <f t="array" ref="G6">_xlfn.IFS(F6="+",ROUNDUP(E6*(1+$I$6),0),F6="=",E6)</f>
         <v>123</v>
       </c>
-      <c r="I6" s="97">
+      <c r="I6" s="158">
         <v>2.5</v>
       </c>
-      <c r="J6" s="97"/>
+      <c r="J6" s="158"/>
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="111"/>
+      <c r="B7" s="151"/>
       <c r="C7" s="48">
         <f>ROUNDDOWN(C2/C3,2)</f>
         <v>4</v>
@@ -5417,7 +7890,7 @@
       <c r="F7" s="48"/>
       <c r="G7" s="74">
         <f>ROUNDDOWN(G2/G3,2)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N7" s="15"/>
       <c r="T7" s="16"/>
@@ -5426,10 +7899,10 @@
       <c r="W7" s="16"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="112"/>
+      <c r="B8" s="152"/>
       <c r="C8" s="50">
         <f>ROUND(1/C3,2)</f>
         <v>1.33</v>
@@ -5442,7 +7915,7 @@
       <c r="F8" s="50"/>
       <c r="G8" s="50">
         <f>ROUND(1/G3,2)</f>
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="N8" s="15"/>
       <c r="T8" s="16"/>
@@ -5452,128 +7925,128 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="149" t="s">
         <v>66</v>
       </c>
       <c r="D9" s="78"/>
-      <c r="E9" s="100" t="s">
+      <c r="E9" s="149" t="s">
         <v>67</v>
       </c>
       <c r="F9" s="78"/>
-      <c r="G9" s="100" t="s">
+      <c r="G9" s="149" t="s">
         <v>68</v>
       </c>
       <c r="H9" s="78"/>
-      <c r="I9" s="100" t="s">
+      <c r="I9" s="149" t="s">
         <v>69</v>
       </c>
       <c r="J9" s="78"/>
-      <c r="K9" s="100" t="s">
+      <c r="K9" s="149" t="s">
         <v>70</v>
       </c>
       <c r="L9" s="78"/>
-      <c r="M9" s="100" t="s">
+      <c r="M9" s="149" t="s">
         <v>71</v>
       </c>
-      <c r="O9" s="107" t="s">
+      <c r="O9" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107" t="s">
+      <c r="P9" s="155"/>
+      <c r="Q9" s="155" t="s">
         <v>72</v>
       </c>
-      <c r="R9" s="107"/>
-      <c r="S9" s="107" t="s">
+      <c r="R9" s="155"/>
+      <c r="S9" s="155" t="s">
         <v>102</v>
       </c>
-      <c r="T9" s="107"/>
-      <c r="U9" s="107" t="s">
+      <c r="T9" s="155"/>
+      <c r="U9" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="V9" s="107"/>
+      <c r="V9" s="155"/>
       <c r="W9" s="16"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="100"/>
+      <c r="C10" s="149"/>
       <c r="D10" s="78"/>
-      <c r="E10" s="100"/>
+      <c r="E10" s="149"/>
       <c r="F10" s="78"/>
-      <c r="G10" s="100"/>
+      <c r="G10" s="149"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="100"/>
+      <c r="I10" s="149"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="100"/>
+      <c r="K10" s="149"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="100"/>
-      <c r="O10" s="108" t="s">
-        <v>113</v>
-      </c>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="109" t="str" cm="1">
+      <c r="M10" s="149"/>
+      <c r="O10" s="156">
+        <v>0</v>
+      </c>
+      <c r="P10" s="156"/>
+      <c r="Q10" s="157" t="str" cm="1">
         <f t="array" ref="Q10">_xlfn.IFS(O10=0, "=", O10&lt;&gt;0,HLOOKUP(Q9,UPGRADE_STAT,VLOOKUP(M22,UPGRADE_LVL,5,FALSE)+1,FALSE))</f>
         <v>=</v>
       </c>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109" t="str" cm="1">
+      <c r="R10" s="157"/>
+      <c r="S10" s="157" t="str" cm="1">
         <f t="array" ref="S10">_xlfn.IFS(O10=0, "=", Q10&lt;&gt;0,HLOOKUP(S9,UPGRADE_STAT,VLOOKUP(M22,UPGRADE_LVL,5,FALSE)+1,FALSE))</f>
-        <v>++</v>
-      </c>
-      <c r="T10" s="109"/>
-      <c r="U10" s="109" t="str" cm="1">
+        <v>=</v>
+      </c>
+      <c r="T10" s="157"/>
+      <c r="U10" s="157" t="str" cm="1">
         <f t="array" ref="U10">_xlfn.IFS(O10=0, "=", S10&lt;&gt;0,HLOOKUP(U9,UPGRADE_STAT,VLOOKUP(M22,UPGRADE_LVL,5,FALSE)+1,FALSE))</f>
-        <v>-</v>
-      </c>
-      <c r="V10" s="109"/>
+        <v>=</v>
+      </c>
+      <c r="V10" s="157"/>
       <c r="W10" s="16"/>
     </row>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="99" t="s">
-        <v>168</v>
+      <c r="A11" s="150" t="s">
+        <v>167</v>
       </c>
       <c r="B11" s="76" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="20">
         <f>T27</f>
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="D11" s="75" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="20" cm="1">
         <f t="array" ref="E11">_xlfn.IFS(D11="+",ROUNDDOWN(C11*(1+$M$2),2),D11="=",C11)</f>
-        <v>13.5</v>
+        <v>33.75</v>
       </c>
       <c r="F11" s="75" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="20" cm="1">
         <f t="array" ref="G11">_xlfn.IFS(F11="+",ROUNDDOWN(E11*(1+$M$2),2),F11="=",E11)</f>
-        <v>20.25</v>
+        <v>50.62</v>
       </c>
       <c r="H11" s="75" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="20" cm="1">
         <f t="array" ref="I11">_xlfn.IFS(H11="+",ROUNDDOWN(G11*(1+$M$2),2),H11="=",G11)</f>
-        <v>30.37</v>
+        <v>75.930000000000007</v>
       </c>
       <c r="J11" s="75" t="s">
         <v>13</v>
       </c>
       <c r="K11" s="20" cm="1">
         <f t="array" ref="K11">_xlfn.IFS(J11="+",ROUNDDOWN(I11*(1+$M$2),2),J11="=",I11)</f>
-        <v>45.55</v>
+        <v>113.89</v>
       </c>
       <c r="L11" s="75" t="s">
         <v>13</v>
       </c>
       <c r="M11" s="20" cm="1">
         <f t="array" ref="M11">_xlfn.IFS(L11="+",ROUNDDOWN(K11*(1+$M$2),2),L11="=",K11)</f>
-        <v>68.319999999999993</v>
-      </c>
-      <c r="O11" s="104"/>
-      <c r="P11" s="104"/>
+        <v>170.83</v>
+      </c>
+      <c r="O11" s="135"/>
+      <c r="P11" s="135"/>
       <c r="Q11" s="48"/>
       <c r="R11" s="48"/>
       <c r="S11" s="48"/>
@@ -5583,48 +8056,48 @@
       <c r="W11" s="16"/>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="99"/>
+      <c r="A12" s="150"/>
       <c r="B12" s="77" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21">
         <f>V27</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" s="75" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="21" cm="1">
         <f t="array" ref="E12">_xlfn.IFS(D12="+",ROUNDDOWN(C12*(1+$M$3),2),D12="=",C12)</f>
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="F12" s="75" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="21" cm="1">
         <f t="array" ref="G12">_xlfn.IFS(F12="+",ROUNDDOWN(E12*(1+$M$3),2),F12="=",E12)</f>
-        <v>8.4499999999999993</v>
+        <v>3.38</v>
       </c>
       <c r="H12" s="75" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="21" cm="1">
         <f t="array" ref="I12">_xlfn.IFS(H12="+",ROUNDDOWN(G12*(1+$M$3),2),H12="=",G12)</f>
-        <v>10.98</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="J12" s="75" t="s">
         <v>13</v>
       </c>
       <c r="K12" s="21" cm="1">
         <f t="array" ref="K12">_xlfn.IFS(J12="+",ROUNDDOWN(I12*(1+$M$3),2),J12="=",I12)</f>
-        <v>14.27</v>
+        <v>5.7</v>
       </c>
       <c r="L12" s="75" t="s">
         <v>13</v>
       </c>
       <c r="M12" s="21" cm="1">
         <f t="array" ref="M12">_xlfn.IFS(L12="+",ROUNDDOWN(K12*(1+$M$3),2),L12="=",K12)</f>
-        <v>18.55</v>
+        <v>7.41</v>
       </c>
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
@@ -5632,48 +8105,48 @@
       <c r="W12" s="16"/>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="99"/>
+      <c r="A13" s="150"/>
       <c r="B13" s="76" t="s">
         <v>72</v>
       </c>
       <c r="C13" s="20">
         <f>X27</f>
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="D13" s="75" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="20" cm="1">
         <f t="array" ref="E13">_xlfn.IFS(D13="+",ROUNDUP(C13*(1+$M$4),0),D13="=",C13)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F13" s="75" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="20" cm="1">
         <f t="array" ref="G13">_xlfn.IFS(F13="+",ROUNDUP(E13*(1+$M$4),0),F13="=",E13)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H13" s="75" t="s">
         <v>13</v>
       </c>
       <c r="I13" s="20" cm="1">
         <f t="array" ref="I13">_xlfn.IFS(H13="+",ROUNDUP(G13*(1+$M$4),0),H13="=",G13)</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J13" s="75" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="20" cm="1">
         <f t="array" ref="K13">_xlfn.IFS(J13="+",ROUNDUP(I13*(1+$M$4),0),J13="=",I13)</f>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="L13" s="75" t="s">
         <v>13</v>
       </c>
       <c r="M13" s="20" cm="1">
         <f t="array" ref="M13">_xlfn.IFS(L13="+",ROUNDUP(K13*(1+$M$4),0),L13="=",K13)</f>
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
@@ -5681,57 +8154,69 @@
       <c r="W13" s="16"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="99"/>
+      <c r="A14" s="150"/>
       <c r="B14" s="77" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="48">
         <f>X31</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14" s="75" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="21" cm="1">
         <f t="array" ref="E14">_xlfn.IFS(D14="+",ROUNDUP(C14*(1+$M$5),0),D14="=",C14)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F14" s="75" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="21" cm="1">
         <f t="array" ref="G14">_xlfn.IFS(F14="+",ROUNDUP(E14*(1+$M$5),0),F14="=",E14)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H14" s="75" t="s">
         <v>13</v>
       </c>
       <c r="I14" s="21" cm="1">
         <f t="array" ref="I14">_xlfn.IFS(H14="+",ROUNDUP(G14*(1+$M$5),0),H14="=",G14)</f>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J14" s="75" t="s">
         <v>13</v>
       </c>
       <c r="K14" s="21" cm="1">
         <f t="array" ref="K14">_xlfn.IFS(J14="+",ROUNDUP(I14*(1+$M$5),0),J14="=",I14)</f>
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="L14" s="75" t="s">
         <v>13</v>
       </c>
       <c r="M14" s="21" cm="1">
         <f t="array" ref="M14">_xlfn.IFS(L14="+",ROUNDUP(K14*(1+$M$5),0),L14="=",K14)</f>
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="16"/>
+      <c r="C15" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="95" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="95" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="99" t="s">
-        <v>169</v>
+      <c r="A16" s="150" t="s">
+        <v>168</v>
       </c>
       <c r="B16" s="90" t="s">
         <v>151</v>
@@ -5767,16 +8252,16 @@
       <c r="M16" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="O16" s="100" t="s">
+      <c r="O16" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="100"/>
-      <c r="R16" s="100"/>
-      <c r="S16" s="100"/>
+      <c r="P16" s="149"/>
+      <c r="Q16" s="149"/>
+      <c r="R16" s="149"/>
+      <c r="S16" s="149"/>
     </row>
     <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="99"/>
+      <c r="A17" s="150"/>
       <c r="B17" s="91" t="s">
         <v>152</v>
       </c>
@@ -5811,29 +8296,29 @@
       <c r="M17" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="O17" s="100" t="s">
+      <c r="O17" s="149" t="s">
         <v>143</v>
       </c>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="100"/>
-      <c r="R17" s="101" t="str">
+      <c r="P17" s="149"/>
+      <c r="Q17" s="149"/>
+      <c r="R17" s="162" t="str">
         <f>HLOOKUP(P29,WEAK_TOWER,VLOOKUP(P27,WEAK_ENEMY,5,FALSE)+1,FALSE)</f>
-        <v>+</v>
-      </c>
-      <c r="S17" s="101"/>
-      <c r="T17" s="100" t="s">
-        <v>161</v>
-      </c>
-      <c r="U17" s="100"/>
-      <c r="V17" s="100"/>
-      <c r="W17" s="101" t="str" cm="1">
+        <v>-</v>
+      </c>
+      <c r="S17" s="162"/>
+      <c r="T17" s="149" t="s">
+        <v>160</v>
+      </c>
+      <c r="U17" s="149"/>
+      <c r="V17" s="149"/>
+      <c r="W17" s="162" t="str" cm="1">
         <f t="array" ref="W17">_xlfn.IFS(P31=P33, "+",P31&lt;&gt;P33,"-")</f>
-        <v>+</v>
-      </c>
-      <c r="X17" s="101"/>
+        <v>-</v>
+      </c>
+      <c r="X17" s="162"/>
     </row>
     <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="99"/>
+      <c r="A18" s="150"/>
       <c r="B18" s="90" t="s">
         <v>153</v>
       </c>
@@ -5864,31 +8349,31 @@
       </c>
       <c r="K18" s="48" cm="1">
         <f t="array" ref="K18">_xlfn.IFS(K17="Upgrade 0",C7,K17="Upgrade 1",E7,K17="Upgrade 2",G7)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M18" s="48" cm="1">
         <f t="array" ref="M18">_xlfn.IFS(M17="LVL 0",C11,M17="LVL 1",E11,M17="LVL 2",G11,M17="LVL 3",I11,M17="LVL 4",K11,M17="LVL 5",M11)</f>
-        <v>68.319999999999993</v>
-      </c>
-      <c r="O18" s="103" t="str">
+        <v>170.83</v>
+      </c>
+      <c r="O18" s="164" t="str">
         <f>_xlfn.CONCAT(P29," ",R29," lvl ",O10)</f>
-        <v>Pizza Canon lvl 2b</v>
-      </c>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="103"/>
-      <c r="R18" s="101"/>
-      <c r="S18" s="101"/>
-      <c r="T18" s="102" t="str">
+        <v>Pizza Canon lvl 0</v>
+      </c>
+      <c r="P18" s="164"/>
+      <c r="Q18" s="164"/>
+      <c r="R18" s="162"/>
+      <c r="S18" s="162"/>
+      <c r="T18" s="163" t="str">
         <f>_xlfn.CONCAT(P33," Factory")</f>
         <v>Stars Factory</v>
       </c>
-      <c r="U18" s="102"/>
-      <c r="V18" s="102"/>
-      <c r="W18" s="101"/>
-      <c r="X18" s="101"/>
+      <c r="U18" s="163"/>
+      <c r="V18" s="163"/>
+      <c r="W18" s="162"/>
+      <c r="X18" s="162"/>
     </row>
     <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="99"/>
+      <c r="A19" s="150"/>
       <c r="B19" s="91" t="s">
         <v>78</v>
       </c>
@@ -5923,16 +8408,16 @@
       <c r="M19" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="O19" s="103"/>
-      <c r="P19" s="103"/>
-      <c r="Q19" s="103"/>
-      <c r="R19" s="101"/>
-      <c r="S19" s="101"/>
-      <c r="T19" s="102"/>
-      <c r="U19" s="102"/>
-      <c r="V19" s="102"/>
-      <c r="W19" s="101"/>
-      <c r="X19" s="101"/>
+      <c r="O19" s="164"/>
+      <c r="P19" s="164"/>
+      <c r="Q19" s="164"/>
+      <c r="R19" s="162"/>
+      <c r="S19" s="162"/>
+      <c r="T19" s="163"/>
+      <c r="U19" s="163"/>
+      <c r="V19" s="163"/>
+      <c r="W19" s="162"/>
+      <c r="X19" s="162"/>
     </row>
     <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16"/>
@@ -5942,26 +8427,26 @@
       </c>
       <c r="M20" s="74" cm="1">
         <f t="array" ref="M20">_xlfn.IFS(M17="LVL 0",C14,M17="LVL 1",E14,M17="LVL 2",G14,M17="LVL 3",I14,M17="LVL 4",K14,M17="LVL 5",M14)</f>
-        <v>12</v>
-      </c>
-      <c r="O20" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20" s="149" t="s">
         <v>143</v>
       </c>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="101"/>
-      <c r="S20" s="101"/>
-      <c r="T20" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="U20" s="100"/>
-      <c r="V20" s="100"/>
-      <c r="W20" s="101"/>
-      <c r="X20" s="101"/>
+      <c r="P20" s="149"/>
+      <c r="Q20" s="149"/>
+      <c r="R20" s="162"/>
+      <c r="S20" s="162"/>
+      <c r="T20" s="149" t="s">
+        <v>161</v>
+      </c>
+      <c r="U20" s="149"/>
+      <c r="V20" s="149"/>
+      <c r="W20" s="162"/>
+      <c r="X20" s="162"/>
     </row>
     <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="99" t="s">
-        <v>170</v>
+      <c r="A21" s="150" t="s">
+        <v>169</v>
       </c>
       <c r="B21" s="90" t="s">
         <v>151</v>
@@ -5997,25 +8482,25 @@
       <c r="M21" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="O21" s="103" t="str">
+      <c r="O21" s="164" t="str">
         <f>_xlfn.CONCAT(P27," ",R27," lvl ",_xlfn.CONCAT(RIGHT(M17,1)))</f>
-        <v>Vegetable Intangible lvl 5</v>
-      </c>
-      <c r="P21" s="103"/>
-      <c r="Q21" s="103"/>
-      <c r="R21" s="101"/>
-      <c r="S21" s="101"/>
-      <c r="T21" s="102" t="str">
+        <v>Insect Saboteur lvl 5</v>
+      </c>
+      <c r="P21" s="164"/>
+      <c r="Q21" s="164"/>
+      <c r="R21" s="162"/>
+      <c r="S21" s="162"/>
+      <c r="T21" s="163" t="str">
         <f>_xlfn.CONCAT(P31," Car")</f>
-        <v>Stars Car</v>
-      </c>
-      <c r="U21" s="102"/>
-      <c r="V21" s="102"/>
-      <c r="W21" s="101"/>
-      <c r="X21" s="101"/>
+        <v>Bubblegum Car</v>
+      </c>
+      <c r="U21" s="163"/>
+      <c r="V21" s="163"/>
+      <c r="W21" s="162"/>
+      <c r="X21" s="162"/>
     </row>
     <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="99"/>
+      <c r="A22" s="150"/>
       <c r="B22" s="91" t="s">
         <v>152</v>
       </c>
@@ -6046,25 +8531,25 @@
       </c>
       <c r="K22" s="74" cm="1">
         <f t="array" ref="K22">_xlfn.IFS(K17="Upgrade 0",C3,K17="Upgrade 1",E3,K17="Upgrade 2",G3)</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="M22" s="74" t="str">
         <f>_xlfn.CONCAT(P29," ",O10)</f>
-        <v>Pizza 2b</v>
-      </c>
-      <c r="O22" s="103"/>
-      <c r="P22" s="103"/>
-      <c r="Q22" s="103"/>
-      <c r="R22" s="101"/>
-      <c r="S22" s="101"/>
-      <c r="T22" s="102"/>
-      <c r="U22" s="102"/>
-      <c r="V22" s="102"/>
-      <c r="W22" s="101"/>
-      <c r="X22" s="101"/>
+        <v>Pizza 0</v>
+      </c>
+      <c r="O22" s="164"/>
+      <c r="P22" s="164"/>
+      <c r="Q22" s="164"/>
+      <c r="R22" s="162"/>
+      <c r="S22" s="162"/>
+      <c r="T22" s="163"/>
+      <c r="U22" s="163"/>
+      <c r="V22" s="163"/>
+      <c r="W22" s="162"/>
+      <c r="X22" s="162"/>
     </row>
     <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="99"/>
+      <c r="A23" s="150"/>
       <c r="B23" s="90" t="s">
         <v>153</v>
       </c>
@@ -6097,29 +8582,29 @@
         <v>82</v>
       </c>
       <c r="N23" s="15"/>
-      <c r="O23" s="100" t="s">
-        <v>164</v>
-      </c>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="100"/>
-      <c r="R23" s="100"/>
-      <c r="S23" s="100"/>
+      <c r="O23" s="149" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" s="149"/>
+      <c r="Q23" s="149"/>
+      <c r="R23" s="149"/>
+      <c r="S23" s="149"/>
     </row>
     <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="99"/>
+      <c r="A24" s="150"/>
       <c r="B24" s="91" t="s">
         <v>78</v>
       </c>
       <c r="C24" s="79">
         <f>X31</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D24" s="75" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="79" cm="1">
         <f t="array" ref="E24">_xlfn.IFS(D24="+",ROUNDUP($C$24 * (1 +S5) ^ 1,0),D24="=",C24)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F24" s="75" t="s">
         <v>13</v>
@@ -6139,314 +8624,314 @@
         <f t="array" ref="K24">_xlfn.IFS(K17="Upgrade 0",C6,K17="Upgrade 1",E6,K17="Upgrade 2",G6,K17="Upgrade 3",#REF!,K17="Upgrade 4",K6,K17="Upgrade 5",M6)</f>
         <v>123</v>
       </c>
-      <c r="O24" s="104" cm="1">
+      <c r="O24" s="135" cm="1">
         <f t="array" ref="O24">_xlfn.IFS(R17="-", 1-K2, R17="=",1,R17="+",1+K2)</f>
-        <v>1.2</v>
-      </c>
-      <c r="P24" s="104"/>
-      <c r="Q24" s="104"/>
-      <c r="R24" s="104"/>
-      <c r="S24" s="104"/>
+        <v>0.8</v>
+      </c>
+      <c r="P24" s="135"/>
+      <c r="Q24" s="135"/>
+      <c r="R24" s="135"/>
+      <c r="S24" s="135"/>
     </row>
     <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="113" t="s">
+      <c r="C26" s="154" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="100" t="s">
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="149" t="s">
         <v>79</v>
       </c>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="N26" s="95" t="s">
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="N26" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="O26" s="95"/>
-      <c r="P26" s="95" t="s">
+      <c r="O26" s="165"/>
+      <c r="P26" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="95" t="s">
+      <c r="Q26" s="165"/>
+      <c r="R26" s="165" t="s">
         <v>55</v>
       </c>
-      <c r="S26" s="95"/>
-      <c r="T26" s="95" t="s">
+      <c r="S26" s="165"/>
+      <c r="T26" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="U26" s="95"/>
-      <c r="V26" s="95" t="s">
+      <c r="U26" s="165"/>
+      <c r="V26" s="165" t="s">
         <v>63</v>
       </c>
-      <c r="W26" s="95"/>
-      <c r="X26" s="95" t="s">
+      <c r="W26" s="165"/>
+      <c r="X26" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="Y26" s="95"/>
+      <c r="Y26" s="165"/>
     </row>
     <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="100" t="s">
+      <c r="C27" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100" t="s">
+      <c r="D27" s="149"/>
+      <c r="E27" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="100"/>
-      <c r="G27" s="104" t="str">
+      <c r="F27" s="149"/>
+      <c r="G27" s="135" t="str">
         <f>_xlfn.CONCAT(K20*K22," s")</f>
-        <v>14 s</v>
-      </c>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
-      <c r="N27" s="108" t="s">
-        <v>172</v>
-      </c>
-      <c r="O27" s="108"/>
-      <c r="P27" s="94" t="str">
+        <v>21 s</v>
+      </c>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
+      <c r="N27" s="156" t="s">
+        <v>191</v>
+      </c>
+      <c r="O27" s="156"/>
+      <c r="P27" s="129" t="str">
         <f>VLOOKUP($N$27,ENEMY,3)</f>
-        <v>Vegetable</v>
-      </c>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="94" t="str">
+        <v>Insect</v>
+      </c>
+      <c r="Q27" s="129"/>
+      <c r="R27" s="129" t="str">
         <f>VLOOKUP($N$27,ENEMY,4)</f>
-        <v>Intangible</v>
-      </c>
-      <c r="S27" s="94"/>
-      <c r="T27" s="94">
+        <v>Saboteur</v>
+      </c>
+      <c r="S27" s="129"/>
+      <c r="T27" s="129">
         <f>VLOOKUP($N$27,ENEMY,5)</f>
-        <v>9</v>
-      </c>
-      <c r="U27" s="94"/>
-      <c r="V27" s="94">
+        <v>22.5</v>
+      </c>
+      <c r="U27" s="129"/>
+      <c r="V27" s="129">
         <f>VLOOKUP($N$27,ENEMY,6)</f>
-        <v>5</v>
-      </c>
-      <c r="W27" s="94"/>
-      <c r="X27" s="94">
+        <v>2</v>
+      </c>
+      <c r="W27" s="129"/>
+      <c r="X27" s="129">
         <f>VLOOKUP($N$27,ENEMY,7)</f>
-        <v>3</v>
-      </c>
-      <c r="Y27" s="94"/>
+        <v>7.5</v>
+      </c>
+      <c r="Y27" s="129"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" s="73" t="str">
         <f>_xlfn.CONCAT(K17," ",K16)</f>
         <v>Upgrade 2 DPS</v>
       </c>
-      <c r="C28" s="106">
+      <c r="C28" s="161">
         <f>ROUNDDOWN($M$18/B32,2)</f>
-        <v>4.74</v>
-      </c>
-      <c r="D28" s="106"/>
-      <c r="E28" s="105">
+        <v>26.69</v>
+      </c>
+      <c r="D28" s="161"/>
+      <c r="E28" s="160">
         <f>ROUNDUP($M$18/B32,0)</f>
-        <v>5</v>
-      </c>
-      <c r="F28" s="105"/>
+        <v>27</v>
+      </c>
+      <c r="F28" s="160"/>
       <c r="G28" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="H28" s="100" t="s">
+      <c r="H28" s="149" t="s">
         <v>83</v>
       </c>
-      <c r="I28" s="100"/>
-      <c r="N28" s="95" t="s">
+      <c r="I28" s="149"/>
+      <c r="N28" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="O28" s="95"/>
-      <c r="P28" s="95" t="s">
+      <c r="O28" s="165"/>
+      <c r="P28" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="95" t="s">
+      <c r="Q28" s="165"/>
+      <c r="R28" s="165" t="s">
         <v>55</v>
       </c>
-      <c r="S28" s="95"/>
-      <c r="T28" s="95" t="s">
+      <c r="S28" s="165"/>
+      <c r="T28" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="U28" s="95"/>
-      <c r="V28" s="95" t="s">
+      <c r="U28" s="165"/>
+      <c r="V28" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="W28" s="95"/>
-      <c r="X28" s="95" t="s">
+      <c r="W28" s="165"/>
+      <c r="X28" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="Y28" s="95"/>
+      <c r="Y28" s="165"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B29" s="73"/>
-      <c r="C29" s="104" t="str">
+      <c r="C29" s="135" t="str">
         <f>_xlfn.CONCAT(E28*K22," s")</f>
-        <v>2,5 s</v>
-      </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
+        <v>20,25 s</v>
+      </c>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="135"/>
       <c r="G29" s="74">
         <f>E6+G6</f>
         <v>158</v>
       </c>
-      <c r="H29" s="104">
+      <c r="H29" s="135">
         <f>ROUNDUP(K24/M20,0)</f>
-        <v>11</v>
-      </c>
-      <c r="I29" s="104"/>
-      <c r="N29" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="O29" s="108"/>
-      <c r="P29" s="94" t="str">
+        <v>3</v>
+      </c>
+      <c r="I29" s="135"/>
+      <c r="N29" s="156" t="s">
+        <v>197</v>
+      </c>
+      <c r="O29" s="156"/>
+      <c r="P29" s="129" t="str">
         <f>VLOOKUP($N$29,TOWER,3)</f>
         <v>Pizza</v>
       </c>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="94" t="str">
+      <c r="Q29" s="129"/>
+      <c r="R29" s="129" t="str">
         <f>VLOOKUP($N$29,TOWER,4)</f>
         <v>Canon</v>
       </c>
-      <c r="S29" s="94"/>
-      <c r="T29" s="94">
+      <c r="S29" s="129"/>
+      <c r="T29" s="129">
         <f>VLOOKUP($N$29,TOWER,5)</f>
         <v>3</v>
       </c>
-      <c r="U29" s="94"/>
-      <c r="V29" s="94">
+      <c r="U29" s="129"/>
+      <c r="V29" s="129">
         <f>VLOOKUP($N$29,TOWER,6)</f>
         <v>0.75</v>
       </c>
-      <c r="W29" s="94"/>
-      <c r="X29" s="94">
+      <c r="W29" s="129"/>
+      <c r="X29" s="129">
         <f>VLOOKUP($N$29,TOWER,7)</f>
         <v>3.5</v>
       </c>
-      <c r="Y29" s="94"/>
+      <c r="Y29" s="129"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="N30" s="95" t="s">
-        <v>163</v>
-      </c>
-      <c r="O30" s="95"/>
-      <c r="P30" s="95" t="s">
+      <c r="N30" s="165" t="s">
+        <v>162</v>
+      </c>
+      <c r="O30" s="165"/>
+      <c r="P30" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="95" t="s">
+      <c r="Q30" s="165"/>
+      <c r="R30" s="165" t="s">
         <v>151</v>
       </c>
-      <c r="S30" s="95"/>
-      <c r="T30" s="95" t="s">
+      <c r="S30" s="165"/>
+      <c r="T30" s="165" t="s">
         <v>44</v>
       </c>
-      <c r="U30" s="95"/>
-      <c r="V30" s="95" t="s">
+      <c r="U30" s="165"/>
+      <c r="V30" s="165" t="s">
         <v>158</v>
       </c>
-      <c r="W30" s="95"/>
-      <c r="X30" s="95" t="s">
+      <c r="W30" s="165"/>
+      <c r="X30" s="165" t="s">
         <v>75</v>
       </c>
-      <c r="Y30" s="95"/>
+      <c r="Y30" s="165"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B31" s="100" t="s">
+      <c r="B31" s="149" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="100"/>
-      <c r="N31" s="108" t="s">
-        <v>160</v>
-      </c>
-      <c r="O31" s="108"/>
-      <c r="P31" s="94" t="str">
+      <c r="C31" s="149"/>
+      <c r="N31" s="156" t="s">
+        <v>213</v>
+      </c>
+      <c r="O31" s="156"/>
+      <c r="P31" s="129" t="str">
         <f>VLOOKUP($N$31,TRAIN,3)</f>
-        <v>Stars</v>
-      </c>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="94">
+        <v>Bubblegum</v>
+      </c>
+      <c r="Q31" s="129"/>
+      <c r="R31" s="129">
         <f>VLOOKUP($N$31,TRAIN,4)</f>
         <v>50</v>
       </c>
-      <c r="S31" s="94"/>
-      <c r="T31" s="94">
+      <c r="S31" s="129"/>
+      <c r="T31" s="129">
         <f>VLOOKUP($N$31,TRAIN,5)</f>
         <v>2</v>
       </c>
-      <c r="U31" s="94"/>
-      <c r="V31" s="94">
+      <c r="U31" s="129"/>
+      <c r="V31" s="129">
         <f>VLOOKUP($N$31,TRAIN,6)</f>
         <v>5</v>
       </c>
-      <c r="W31" s="94"/>
-      <c r="X31" s="94">
+      <c r="W31" s="129"/>
+      <c r="X31" s="129">
         <f>VLOOKUP($N$27,ENEMY,8)</f>
-        <v>1</v>
-      </c>
-      <c r="Y31" s="94"/>
+        <v>5</v>
+      </c>
+      <c r="Y31" s="129"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B32" s="94">
+      <c r="B32" s="129">
         <f>ROUND(O2*K18*O24,2)</f>
-        <v>14.4</v>
-      </c>
-      <c r="C32" s="94"/>
-      <c r="N32" s="95" t="s">
-        <v>161</v>
-      </c>
-      <c r="O32" s="95"/>
-      <c r="P32" s="95" t="s">
+        <v>6.4</v>
+      </c>
+      <c r="C32" s="129"/>
+      <c r="N32" s="165" t="s">
+        <v>160</v>
+      </c>
+      <c r="O32" s="165"/>
+      <c r="P32" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="95" t="s">
+      <c r="Q32" s="165"/>
+      <c r="R32" s="165" t="s">
         <v>151</v>
       </c>
-      <c r="S32" s="95"/>
-      <c r="T32" s="95" t="s">
+      <c r="S32" s="165"/>
+      <c r="T32" s="165" t="s">
         <v>157</v>
       </c>
-      <c r="U32" s="95"/>
-      <c r="V32" s="95" t="s">
+      <c r="U32" s="165"/>
+      <c r="V32" s="165" t="s">
         <v>158</v>
       </c>
-      <c r="W32" s="95"/>
-      <c r="X32" s="95" t="s">
+      <c r="W32" s="165"/>
+      <c r="X32" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="Y32" s="95"/>
+      <c r="Y32" s="165"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="N33" s="108" t="s">
-        <v>173</v>
-      </c>
-      <c r="O33" s="108"/>
-      <c r="P33" s="94" t="str">
+      <c r="N33" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="O33" s="156"/>
+      <c r="P33" s="129" t="str">
         <f>VLOOKUP($N$33,FACTORY,3)</f>
         <v>Stars</v>
       </c>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="94">
+      <c r="Q33" s="129"/>
+      <c r="R33" s="129">
         <f>VLOOKUP($N$33,FACTORY,4)</f>
         <v>100</v>
       </c>
-      <c r="S33" s="94"/>
-      <c r="T33" s="94">
+      <c r="S33" s="129"/>
+      <c r="T33" s="129">
         <f>VLOOKUP($N$33,FACTORY,5)</f>
         <v>2</v>
       </c>
-      <c r="U33" s="94"/>
-      <c r="V33" s="94">
+      <c r="U33" s="129"/>
+      <c r="V33" s="129">
         <f>VLOOKUP($N$33,FACTORY,6)</f>
         <v>10</v>
       </c>
-      <c r="W33" s="94"/>
-      <c r="X33" s="94">
+      <c r="W33" s="129"/>
+      <c r="X33" s="129">
         <f>VLOOKUP($N$29,TOWER,9)</f>
         <v>20</v>
       </c>
-      <c r="Y33" s="94"/>
+      <c r="Y33" s="129"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
@@ -6455,74 +8940,36 @@
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X3"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="W17:X22"/>
-    <mergeCell ref="R17:S22"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="T18:V19"/>
-    <mergeCell ref="T21:V22"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="O21:Q22"/>
-    <mergeCell ref="O16:S16"/>
-    <mergeCell ref="O18:Q19"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="O23:S23"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="R30:S30"/>
     <mergeCell ref="O24:S24"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
@@ -6547,36 +8994,74 @@
     <mergeCell ref="N30:O30"/>
     <mergeCell ref="R31:S31"/>
     <mergeCell ref="R32:S32"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="O23:S23"/>
+    <mergeCell ref="W17:X22"/>
+    <mergeCell ref="R17:S22"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="T18:V19"/>
+    <mergeCell ref="T21:V22"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O21:Q22"/>
+    <mergeCell ref="O16:S16"/>
+    <mergeCell ref="O18:Q19"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X3"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="A21:A24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C28">
@@ -7520,7 +10005,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7614,7 +10099,7 @@
         <v>149</v>
       </c>
       <c r="G2" s="93" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I2" s="77" t="s">
         <v>56</v>
@@ -7844,16 +10329,16 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="149" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="100"/>
+      <c r="D7" s="149"/>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="114" t="s">
+      <c r="C8" s="166" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="114"/>
+      <c r="D8" s="166"/>
       <c r="I8" s="88" t="s">
         <v>33</v>
       </c>
@@ -7875,8 +10360,8 @@
       <c r="Q8" s="85"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
       <c r="I9" s="83" t="s">
         <v>156</v>
       </c>
@@ -7902,11 +10387,11 @@
       <c r="Q9" s="75"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C10" s="115">
+      <c r="C10" s="167">
         <f>D3/F3</f>
         <v>10</v>
       </c>
-      <c r="D10" s="115"/>
+      <c r="D10" s="167"/>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" s="54"/>
@@ -8205,7 +10690,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8508,16 +10993,16 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="149" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="100"/>
+      <c r="D7" s="149"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C8" s="114" t="s">
+      <c r="C8" s="166" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="114" t="s">
+      <c r="D8" s="166" t="s">
         <v>150</v>
       </c>
       <c r="H8" s="88" t="s">
@@ -8541,8 +11026,8 @@
       <c r="P8" s="88"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
       <c r="H9" s="83" t="s">
         <v>155</v>
       </c>
@@ -8722,7 +11207,7 @@
   <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F11"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8827,10 +11312,10 @@
       <c r="I2" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="111" t="s">
+      <c r="K2" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="111"/>
+      <c r="L2" s="151"/>
       <c r="M2" s="73" t="s">
         <v>11</v>
       </c>
@@ -8843,10 +11328,10 @@
         <v>2</v>
       </c>
       <c r="R2" s="89"/>
-      <c r="T2" s="98" t="s">
+      <c r="T2" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="98"/>
+      <c r="U2" s="159"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
@@ -8877,7 +11362,7 @@
       <c r="I3" s="23">
         <v>20</v>
       </c>
-      <c r="K3" s="99" t="s">
+      <c r="K3" s="150" t="s">
         <v>45</v>
       </c>
       <c r="L3" s="90" t="s">
@@ -8885,29 +11370,29 @@
       </c>
       <c r="M3" s="51">
         <f>$Q$12</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N3" s="28" t="s">
         <v>13</v>
       </c>
       <c r="O3" s="28" cm="1">
         <f t="array" ref="O3">_xlfn.IFS(N3="+",ROUNDDOWN(M3*(1+$T$3),2),N3="=",M3)</f>
-        <v>7.8</v>
+        <v>3.9</v>
       </c>
       <c r="P3" s="28" t="s">
         <v>13</v>
       </c>
       <c r="Q3" s="28" cm="1">
         <f t="array" ref="Q3">_xlfn.IFS(P3="+",ROUNDDOWN(O3*(1+$T$3),2),P3="=",O3)</f>
-        <v>10.14</v>
+        <v>5.07</v>
       </c>
       <c r="R3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="97">
+      <c r="T3" s="158">
         <v>0.3</v>
       </c>
-      <c r="U3" s="97"/>
+      <c r="U3" s="158"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="str">
@@ -8939,35 +11424,35 @@
         <f>I3</f>
         <v>20</v>
       </c>
-      <c r="K4" s="99"/>
+      <c r="K4" s="150"/>
       <c r="L4" s="91" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="29">
         <f>$S$12</f>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="N4" s="29" t="s">
         <v>13</v>
       </c>
       <c r="O4" s="29" cm="1">
         <f t="array" ref="O4">_xlfn.IFS(N4="+",ROUNDDOWN(M4*(1-$T$4),2),N4="=",M4)</f>
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="P4" s="29" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="29" cm="1">
         <f t="array" ref="Q4">_xlfn.IFS(P4="+",ROUNDDOWN(O4*(1-$T$4),2),P4="=",O4)</f>
-        <v>0.96</v>
+        <v>0.48</v>
       </c>
       <c r="R4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="96">
+      <c r="T4" s="153">
         <v>0.2</v>
       </c>
-      <c r="U4" s="96"/>
+      <c r="U4" s="153"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="str">
@@ -8999,35 +11484,35 @@
         <f>I3</f>
         <v>20</v>
       </c>
-      <c r="K5" s="99"/>
+      <c r="K5" s="150"/>
       <c r="L5" s="90" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="28">
         <f>$U$12</f>
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N5" s="28" t="s">
         <v>13</v>
       </c>
       <c r="O5" s="28" cm="1">
         <f t="array" ref="O5">_xlfn.IFS(N5="+",ROUNDDOWN(M5*(1+$T$5),2),N5="=",M5)</f>
-        <v>5.5</v>
+        <v>3.85</v>
       </c>
       <c r="P5" s="28" t="s">
         <v>13</v>
       </c>
       <c r="Q5" s="28" cm="1">
         <f t="array" ref="Q5">_xlfn.IFS(P5="+",ROUNDDOWN(O5*(1+$T$5),2),P5="=",O5)</f>
-        <v>6.05</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="R5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="97">
+      <c r="T5" s="158">
         <v>0.1</v>
       </c>
-      <c r="U5" s="97"/>
+      <c r="U5" s="158"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="str">
@@ -9063,35 +11548,35 @@
         <f>I3</f>
         <v>20</v>
       </c>
-      <c r="K6" s="99"/>
+      <c r="K6" s="150"/>
       <c r="L6" s="91" t="s">
         <v>40</v>
       </c>
       <c r="M6" s="29">
         <f>$W$12</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N6" s="29" t="s">
         <v>13</v>
       </c>
       <c r="O6" s="29" cm="1">
         <f t="array" ref="O6">_xlfn.IFS(N6="+",ROUNDDOWN(M6*(1+$T$6),0),N6="=",M6)</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="P6" s="29" t="s">
         <v>13</v>
       </c>
       <c r="Q6" s="29" cm="1">
         <f t="array" ref="Q6">_xlfn.IFS(P6="+",ROUNDDOWN(O6*(1+$T$6),0),P6="=",O6)</f>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="R6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="96">
+      <c r="T6" s="153">
         <v>0.2</v>
       </c>
-      <c r="U6" s="96"/>
+      <c r="U6" s="153"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="str">
@@ -9127,7 +11612,7 @@
         <f>I3</f>
         <v>20</v>
       </c>
-      <c r="K7" s="99"/>
+      <c r="K7" s="150"/>
       <c r="L7" s="90" t="s">
         <v>78</v>
       </c>
@@ -9151,10 +11636,10 @@
       <c r="R7" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="T7" s="97">
+      <c r="T7" s="158">
         <v>2</v>
       </c>
-      <c r="U7" s="97"/>
+      <c r="U7" s="158"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="str">
@@ -9190,18 +11675,18 @@
         <f>I3</f>
         <v>20</v>
       </c>
-      <c r="K8" s="117" t="s">
+      <c r="K8" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="117"/>
+      <c r="L8" s="169"/>
       <c r="M8" s="28">
         <f>ROUNDDOWN(M3*M9,2)</f>
-        <v>3.96</v>
+        <v>3.99</v>
       </c>
       <c r="N8" s="28"/>
       <c r="O8" s="28">
         <f>ROUNDDOWN(O3*O9,2)</f>
-        <v>6.47</v>
+        <v>6.51</v>
       </c>
       <c r="P8" s="28"/>
       <c r="Q8" s="28">
@@ -9244,23 +11729,23 @@
         <f>I3</f>
         <v>20</v>
       </c>
-      <c r="K9" s="118" t="s">
+      <c r="K9" s="170" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="118"/>
+      <c r="L9" s="170"/>
       <c r="M9" s="29">
         <f>ROUNDDOWN(1/M4,2)</f>
-        <v>0.66</v>
+        <v>1.33</v>
       </c>
       <c r="N9" s="29"/>
       <c r="O9" s="29">
         <f>ROUND(1/O4,2)</f>
-        <v>0.83</v>
+        <v>1.67</v>
       </c>
       <c r="P9" s="29"/>
       <c r="Q9" s="29">
         <f>ROUND(1/Q4,2)</f>
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="R9" s="29"/>
     </row>
@@ -9333,97 +11818,97 @@
         <f>I3</f>
         <v>20</v>
       </c>
-      <c r="K11" s="95" t="s">
+      <c r="K11" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95" t="s">
+      <c r="L11" s="165"/>
+      <c r="M11" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95" t="s">
+      <c r="N11" s="165"/>
+      <c r="O11" s="165" t="s">
         <v>55</v>
       </c>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="95" t="s">
+      <c r="P11" s="165"/>
+      <c r="Q11" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="R11" s="95"/>
-      <c r="S11" s="95" t="s">
+      <c r="R11" s="165"/>
+      <c r="S11" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="T11" s="95"/>
-      <c r="U11" s="95" t="s">
+      <c r="T11" s="165"/>
+      <c r="U11" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="V11" s="95"/>
-      <c r="W11" s="95" t="s">
+      <c r="V11" s="165"/>
+      <c r="W11" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="95" t="s">
+      <c r="X11" s="165"/>
+      <c r="Y11" s="165" t="s">
         <v>94</v>
       </c>
-      <c r="Z11" s="95"/>
+      <c r="Z11" s="165"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K12" s="108" t="s">
-        <v>141</v>
-      </c>
-      <c r="L12" s="108"/>
-      <c r="M12" s="94" t="str">
+      <c r="K12" s="156" t="s">
+        <v>200</v>
+      </c>
+      <c r="L12" s="156"/>
+      <c r="M12" s="129" t="str">
         <f>VLOOKUP($K$12,TOWER,3)</f>
-        <v>Pizza</v>
-      </c>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94" t="str">
+        <v>Traps</v>
+      </c>
+      <c r="N12" s="129"/>
+      <c r="O12" s="129" t="str">
         <f>VLOOKUP($K$12,TOWER,4)</f>
-        <v>Snipe</v>
-      </c>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94">
+        <v>Canon</v>
+      </c>
+      <c r="P12" s="129"/>
+      <c r="Q12" s="129">
         <f>VLOOKUP($K$12,TOWER,5)</f>
-        <v>6</v>
-      </c>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94">
+        <v>3</v>
+      </c>
+      <c r="R12" s="129"/>
+      <c r="S12" s="129">
         <f>VLOOKUP($K$12,TOWER,6)</f>
-        <v>1.5</v>
-      </c>
-      <c r="T12" s="94"/>
-      <c r="U12" s="94">
+        <v>0.75</v>
+      </c>
+      <c r="T12" s="129"/>
+      <c r="U12" s="129">
         <f>VLOOKUP($K$12,TOWER,7)</f>
-        <v>5</v>
-      </c>
-      <c r="V12" s="94"/>
-      <c r="W12" s="94">
+        <v>3.5</v>
+      </c>
+      <c r="V12" s="129"/>
+      <c r="W12" s="129">
         <f>VLOOKUP($K$12,TOWER,8)</f>
-        <v>10</v>
-      </c>
-      <c r="X12" s="94"/>
-      <c r="Y12" s="94">
+        <v>20</v>
+      </c>
+      <c r="X12" s="129"/>
+      <c r="Y12" s="129">
         <f>VLOOKUP($K$12,TOWER,9)</f>
         <v>20</v>
       </c>
-      <c r="Z12" s="94"/>
+      <c r="Z12" s="129"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="168" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="116"/>
+      <c r="D13" s="168"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C14" s="114" t="s">
+      <c r="C14" s="166" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="114" t="s">
+      <c r="D14" s="166" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C16" s="20">
@@ -9457,6 +11942,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="W11:X11"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="Y11:Z11"/>
@@ -9473,19 +11971,6 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="T6:U6"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C11" xr:uid="{A0725771-D6FB-4BCA-A3AB-AFBEDB867F7D}">
@@ -10211,22 +12696,22 @@
       <c r="B12" s="45"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C13" s="100" t="s">
+      <c r="C13" s="149" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="100"/>
+      <c r="D13" s="149"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C14" s="114" t="s">
+      <c r="C14" s="166" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="114" t="s">
+      <c r="D14" s="166" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C16" s="20">
@@ -10475,10 +12960,10 @@
       <c r="F3" s="30">
         <v>1</v>
       </c>
-      <c r="G3" s="164" t="s">
+      <c r="G3" s="121" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="165" t="s">
+      <c r="H3" s="122" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10498,11 +12983,11 @@
       <c r="F4" s="30">
         <v>2</v>
       </c>
-      <c r="G4" s="121" t="str">
+      <c r="G4" s="173" t="str">
         <f>HLOOKUP(G3,C2:E5,VLOOKUP(H3,B3:F5,5,FALSE)+1,FALSE)</f>
         <v>+</v>
       </c>
-      <c r="H4" s="121"/>
+      <c r="H4" s="173"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
@@ -10520,8 +13005,8 @@
       <c r="F5" s="30">
         <v>3</v>
       </c>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="173"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="31"/>
@@ -10554,7 +13039,7 @@
       <c r="G8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="163" t="s">
+      <c r="H8" s="120" t="s">
         <v>43</v>
       </c>
     </row>
@@ -10574,11 +13059,11 @@
       <c r="F9" s="30">
         <v>2</v>
       </c>
-      <c r="G9" s="121" t="str">
+      <c r="G9" s="173" t="str">
         <f>HLOOKUP(G8,C7:E10,VLOOKUP(H8,B8:F10,5,FALSE)+1,FALSE)</f>
         <v>=</v>
       </c>
-      <c r="H9" s="121"/>
+      <c r="H9" s="173"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
@@ -10596,8 +13081,8 @@
       <c r="F10" s="30">
         <v>3</v>
       </c>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="173"/>
       <c r="J10" s="4">
         <v>1</v>
       </c>
@@ -10612,11 +13097,11 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C12" s="120" t="s">
+      <c r="C12" s="172" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="172"/>
       <c r="J12" s="6">
         <f>COUNTIF(C14:E22,"=-")</f>
         <v>6</v>
@@ -10656,10 +13141,10 @@
       <c r="M13" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="O13" s="120" t="s">
+      <c r="O13" s="172" t="s">
         <v>139</v>
       </c>
-      <c r="P13" s="120"/>
+      <c r="P13" s="172"/>
     </row>
     <row r="14" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="63" t="s">
@@ -10703,7 +13188,7 @@
         <f>$J$10*J14+$K$10*K14+$L$10*L14+$M$10*M14</f>
         <v>7</v>
       </c>
-      <c r="P14" s="119">
+      <c r="P14" s="171">
         <f>ROUND(AVERAGE(O14:O22),0)</f>
         <v>7</v>
       </c>
@@ -10724,11 +13209,11 @@
       <c r="F15" s="30">
         <v>2</v>
       </c>
-      <c r="G15" s="122" t="str">
+      <c r="G15" s="174" t="str">
         <f>HLOOKUP(G14,C13:E22,VLOOKUP(H14,B14:F22,5,FALSE)+1,FALSE)</f>
         <v>++</v>
       </c>
-      <c r="H15" s="122"/>
+      <c r="H15" s="174"/>
       <c r="J15" s="54">
         <f t="shared" ref="J15:J22" si="0">COUNTIF(C15:E15,"=-")</f>
         <v>1</v>
@@ -10749,7 +13234,7 @@
         <f t="shared" ref="O15:O22" si="4">$J$10*J15+$K$10*K15+$L$10*L15+$M$10*M15</f>
         <v>7</v>
       </c>
-      <c r="P15" s="119"/>
+      <c r="P15" s="171"/>
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="63" t="s">
@@ -10767,8 +13252,8 @@
       <c r="F16" s="30">
         <v>3</v>
       </c>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
       <c r="J16" s="54">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -10789,7 +13274,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="P16" s="119"/>
+      <c r="P16" s="171"/>
     </row>
     <row r="17" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="64" t="s">
@@ -10827,7 +13312,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="P17" s="119"/>
+      <c r="P17" s="171"/>
     </row>
     <row r="18" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="63" t="s">
@@ -10865,7 +13350,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="P18" s="119"/>
+      <c r="P18" s="171"/>
     </row>
     <row r="19" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="64" t="s">
@@ -10903,7 +13388,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="P19" s="119"/>
+      <c r="P19" s="171"/>
     </row>
     <row r="20" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="63" t="s">
@@ -10941,7 +13426,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="P20" s="119"/>
+      <c r="P20" s="171"/>
     </row>
     <row r="21" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="64" t="s">
@@ -10979,7 +13464,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="P21" s="119"/>
+      <c r="P21" s="171"/>
     </row>
     <row r="22" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="63" t="s">
@@ -11017,7 +13502,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="P22" s="119"/>
+      <c r="P22" s="171"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="63" t="s">
@@ -11102,19 +13587,19 @@
       </c>
     </row>
     <row r="30" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="119">
+      <c r="C30" s="171">
         <f>ROUND(AVERAGE(C29:E29),0)</f>
         <v>21</v>
       </c>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="120" t="s">
+      <c r="C31" s="172" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="120"/>
-      <c r="E31" s="120"/>
+      <c r="D31" s="172"/>
+      <c r="E31" s="172"/>
     </row>
     <row r="32" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="69"/>
@@ -11462,7 +13947,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11476,42 +13961,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="176" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127" t="s">
+      <c r="C1" s="176" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="127" t="s">
+      <c r="D1" s="176" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="127" t="s">
+      <c r="E1" s="176" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="127" t="s">
+      <c r="F1" s="176" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="123" t="s">
+      <c r="G1" s="177" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="124"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="126" t="s">
+      <c r="H1" s="178"/>
+      <c r="I1" s="179"/>
+      <c r="J1" s="175" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="127"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
+      <c r="A2" s="176"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
       <c r="G2" s="92" t="s">
         <v>72</v>
       </c>
@@ -11840,30 +14325,35 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F14" s="108" t="s">
+      <c r="F14" s="156" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="94" t="str">
+      <c r="G14" s="129" t="str">
         <f>VLOOKUP($F$14,TOWER_UPGRADE,7)</f>
         <v>-</v>
       </c>
-      <c r="H14" s="94" t="str">
+      <c r="H14" s="129" t="str">
         <f>VLOOKUP($F$14,TOWER_UPGRADE,8)</f>
         <v>++</v>
       </c>
-      <c r="I14" s="94" t="str">
+      <c r="I14" s="129" t="str">
         <f>VLOOKUP($F$14,TOWER_UPGRADE,9)</f>
         <v>=</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F15" s="108"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -11871,11 +14361,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13 F14" xr:uid="{5DD3618D-C4BE-491F-B770-27363DACB01A}">
@@ -11945,7 +14430,7 @@
   <dimension ref="B1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="B16" sqref="B16:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12249,12 +14734,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100841444F490B10C45A279B0383115D26D" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="91c543cf6706f2108a45fe2b21185738">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c3a97ae1-1078-4f52-97c7-e1e75f184270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6cf98f67490a83722a01f9dfd5fe46d6" ns3:_="">
     <xsd:import namespace="c3a97ae1-1078-4f52-97c7-e1e75f184270"/>
@@ -12386,6 +14865,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12396,22 +14881,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6866972C-7532-44BD-9DE5-958311035541}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c3a97ae1-1078-4f52-97c7-e1e75f184270"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02023A10-1816-44FB-8F7C-8B09E93BD20F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12429,6 +14898,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6866972C-7532-44BD-9DE5-958311035541}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c3a97ae1-1078-4f52-97c7-e1e75f184270"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{382CAFBC-27A9-4D0E-A532-4CEEC1A7F497}">
   <ds:schemaRefs>

--- a/Documents/GameDesign/System_Design.xlsx
+++ b/Documents/GameDesign/System_Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\GameSup_GD1\Workshop\Tower_Defense\STD_Workshop\Documents\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486EE41F-4496-498D-9922-67C464538300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE107A02-1301-4EF3-99DE-7B97B78D6295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{EE4EEEAB-A39E-4793-9971-E358DB8AAF6E}"/>
   </bookViews>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="214">
   <si>
     <t>Upgrade 1</t>
   </si>
@@ -341,9 +341,6 @@
     <t>Full to Empty</t>
   </si>
   <si>
-    <t>Upgarde Cost</t>
-  </si>
-  <si>
     <t>$ Drop</t>
   </si>
   <si>
@@ -741,6 +738,9 @@
   </si>
   <si>
     <t>2_Car_Bub</t>
+  </si>
+  <si>
+    <t>Initial price</t>
   </si>
 </sst>
 </file>
@@ -1688,7 +1688,28 @@
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
     <cellStyle name="Titre 3" xfId="2" builtinId="18"/>
   </cellStyles>
-  <dxfs count="137">
+  <dxfs count="139">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDA2020"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDA2020"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1700,13 +1721,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDA2020"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3025,53 +3039,53 @@
     <row r="1" spans="1:48" s="111" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="108"/>
       <c r="B1" s="148" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C1" s="140" t="s">
         <v>55</v>
       </c>
       <c r="D1" s="142" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E1" s="143"/>
       <c r="F1" s="144"/>
       <c r="G1" s="142" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H1" s="143"/>
       <c r="I1" s="144"/>
       <c r="J1" s="142" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K1" s="143"/>
       <c r="L1" s="144"/>
       <c r="M1" s="142" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N1" s="143"/>
       <c r="O1" s="144"/>
       <c r="P1" s="142" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q1" s="143"/>
       <c r="R1" s="144"/>
       <c r="S1" s="142" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T1" s="143"/>
       <c r="U1" s="144"/>
       <c r="V1" s="142" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W1" s="143"/>
       <c r="X1" s="144"/>
       <c r="Y1" s="142" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z1" s="143"/>
       <c r="AA1" s="144"/>
       <c r="AB1" s="142" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AC1" s="143"/>
       <c r="AD1" s="144"/>
@@ -3099,58 +3113,58 @@
       <c r="B2" s="149"/>
       <c r="C2" s="141"/>
       <c r="D2" s="124" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="125" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="126" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="125" t="s">
-        <v>205</v>
-      </c>
-      <c r="F2" s="126" t="s">
-        <v>181</v>
-      </c>
       <c r="G2" s="124" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="125" t="s">
+        <v>204</v>
+      </c>
+      <c r="I2" s="126" t="s">
         <v>180</v>
       </c>
-      <c r="H2" s="125" t="s">
-        <v>205</v>
-      </c>
-      <c r="I2" s="126" t="s">
-        <v>181</v>
-      </c>
       <c r="J2" s="124" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" s="125" t="s">
+        <v>204</v>
+      </c>
+      <c r="L2" s="126" t="s">
         <v>180</v>
       </c>
-      <c r="K2" s="125" t="s">
-        <v>205</v>
-      </c>
-      <c r="L2" s="126" t="s">
-        <v>181</v>
-      </c>
       <c r="M2" s="124" t="s">
+        <v>179</v>
+      </c>
+      <c r="N2" s="125" t="s">
+        <v>204</v>
+      </c>
+      <c r="O2" s="126" t="s">
         <v>180</v>
       </c>
-      <c r="N2" s="125" t="s">
-        <v>205</v>
-      </c>
-      <c r="O2" s="126" t="s">
-        <v>181</v>
-      </c>
       <c r="P2" s="124" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q2" s="125" t="s">
+        <v>204</v>
+      </c>
+      <c r="R2" s="126" t="s">
         <v>180</v>
       </c>
-      <c r="Q2" s="125" t="s">
-        <v>205</v>
-      </c>
-      <c r="R2" s="126" t="s">
-        <v>181</v>
-      </c>
       <c r="S2" s="124" t="s">
+        <v>179</v>
+      </c>
+      <c r="T2" s="125" t="s">
+        <v>204</v>
+      </c>
+      <c r="U2" s="126" t="s">
         <v>180</v>
-      </c>
-      <c r="T2" s="125" t="s">
-        <v>205</v>
-      </c>
-      <c r="U2" s="126" t="s">
-        <v>181</v>
       </c>
       <c r="V2" s="124"/>
       <c r="W2" s="125"/>
@@ -3173,7 +3187,7 @@
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B3" s="99" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="104" t="str">
         <f t="shared" ref="C3:C11" si="0">VLOOKUP(B3,ENEMY,4)</f>
@@ -3236,7 +3250,7 @@
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B4" s="99" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" s="104" t="str">
         <f t="shared" si="0"/>
@@ -3299,7 +3313,7 @@
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B5" s="99" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="104" t="str">
         <f t="shared" si="0"/>
@@ -3356,7 +3370,7 @@
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B6" s="99" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="104" t="str">
         <f t="shared" si="0"/>
@@ -3419,7 +3433,7 @@
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B7" s="99" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="104" t="str">
         <f t="shared" si="0"/>
@@ -3482,7 +3496,7 @@
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B8" s="99" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="104" t="str">
         <f t="shared" si="0"/>
@@ -3539,7 +3553,7 @@
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B9" s="99" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C9" s="104" t="str">
         <f t="shared" si="0"/>
@@ -3602,7 +3616,7 @@
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B10" s="99" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C10" s="104" t="str">
         <f t="shared" si="0"/>
@@ -3665,7 +3679,7 @@
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B11" s="99" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" s="104" t="str">
         <f t="shared" si="0"/>
@@ -3727,7 +3741,7 @@
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B13" s="82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D13" s="145">
         <v>100</v>
@@ -3785,7 +3799,7 @@
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B14" s="86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D14" s="131">
         <f>D3*VLOOKUP($B$3,ENEMY,7)+D4*VLOOKUP($B$4,ENEMY,7)+D5*VLOOKUP($B$5,ENEMY,7)+D6*VLOOKUP($B$6,ENEMY,7)+D7*VLOOKUP($B$7,ENEMY,7)+D8*VLOOKUP($B$8,ENEMY,7)+D9*VLOOKUP($B$9,ENEMY,7)+D10*VLOOKUP($B$10,ENEMY,7)+D11*VLOOKUP($B$11,ENEMY,7)</f>
@@ -3844,7 +3858,7 @@
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B15" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D15" s="131">
         <f>D25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+D26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+D27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+D28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+D29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+D30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+D31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+D32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+D33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
@@ -3903,7 +3917,7 @@
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B16" s="86" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D16" s="137">
         <f>D13-D14</f>
@@ -4001,41 +4015,41 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B18" s="82" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D18" s="128">
         <f>Tower!I3*2+Tower!I3/2</f>
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="E18" s="129"/>
       <c r="F18" s="130"/>
       <c r="G18" s="128">
         <f>D21</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H18" s="129"/>
       <c r="I18" s="130"/>
       <c r="J18" s="128">
         <f t="shared" ref="J18" si="5">G21</f>
-        <v>12</v>
+        <v>-253</v>
       </c>
       <c r="K18" s="129"/>
       <c r="L18" s="130"/>
       <c r="M18" s="128">
         <f t="shared" ref="M18" si="6">J21</f>
-        <v>2</v>
+        <v>537</v>
       </c>
       <c r="N18" s="129"/>
       <c r="O18" s="130"/>
       <c r="P18" s="128">
         <f t="shared" ref="P18" si="7">M21</f>
-        <v>12</v>
+        <v>537</v>
       </c>
       <c r="Q18" s="129"/>
       <c r="R18" s="130"/>
       <c r="S18" s="128">
         <f t="shared" ref="S18" si="8">P21</f>
-        <v>12</v>
+        <v>2517</v>
       </c>
       <c r="T18" s="129"/>
       <c r="U18" s="130"/>
@@ -4060,41 +4074,41 @@
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B19" s="86" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D19" s="134">
         <f>D25*VLOOKUP($B$25,TOWER,9)+D26*VLOOKUP($B$26,TOWER,9)+D27*VLOOKUP($B$27,TOWER,9)+D28*VLOOKUP($B$28,TOWER,9)+D29*VLOOKUP($B$29,TOWER,9)+D30*VLOOKUP($B$30,TOWER,9)+D31*VLOOKUP($B$31,TOWER,9)+D32*VLOOKUP($B$32,TOWER,9)+D33*VLOOKUP($B$33,TOWER,9)</f>
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E19" s="135"/>
       <c r="F19" s="136"/>
       <c r="G19" s="134">
         <f>G25*VLOOKUP($B$25,TOWER,9)+G26*VLOOKUP($B$26,TOWER,9)+G27*VLOOKUP($B$27,TOWER,9)+G28*VLOOKUP($B$28,TOWER,9)+G29*VLOOKUP($B$29,TOWER,9)+G30*VLOOKUP($B$30,TOWER,9)+G31*VLOOKUP($B$31,TOWER,9)+G32*VLOOKUP($B$32,TOWER,9)+G33*VLOOKUP($B$33,TOWER,9)</f>
-        <v>160</v>
+        <v>710</v>
       </c>
       <c r="H19" s="135"/>
       <c r="I19" s="136"/>
       <c r="J19" s="134">
         <f>J25*VLOOKUP($B$25,TOWER,9)+J26*VLOOKUP($B$26,TOWER,9)+J27*VLOOKUP($B$27,TOWER,9)+J28*VLOOKUP($B$28,TOWER,9)+J29*VLOOKUP($B$29,TOWER,9)+J30*VLOOKUP($B$30,TOWER,9)+J31*VLOOKUP($B$31,TOWER,9)+J32*VLOOKUP($B$32,TOWER,9)+J33*VLOOKUP($B$33,TOWER,9)</f>
-        <v>160</v>
+        <v>710</v>
       </c>
       <c r="K19" s="135"/>
       <c r="L19" s="136"/>
       <c r="M19" s="134">
         <f>M25*VLOOKUP($B$25,TOWER,9)+M26*VLOOKUP($B$26,TOWER,9)+M27*VLOOKUP($B$27,TOWER,9)+M28*VLOOKUP($B$28,TOWER,9)+M29*VLOOKUP($B$29,TOWER,9)+M30*VLOOKUP($B$30,TOWER,9)+M31*VLOOKUP($B$31,TOWER,9)+M32*VLOOKUP($B$32,TOWER,9)+M33*VLOOKUP($B$33,TOWER,9)</f>
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="N19" s="135"/>
       <c r="O19" s="136"/>
       <c r="P19" s="134">
         <f>P25*VLOOKUP($B$25,TOWER,9)+P26*VLOOKUP($B$26,TOWER,9)+P27*VLOOKUP($B$27,TOWER,9)+P28*VLOOKUP($B$28,TOWER,9)+P29*VLOOKUP($B$29,TOWER,9)+P30*VLOOKUP($B$30,TOWER,9)+P31*VLOOKUP($B$31,TOWER,9)+P32*VLOOKUP($B$32,TOWER,9)+P33*VLOOKUP($B$33,TOWER,9)</f>
-        <v>1080</v>
+        <v>4860</v>
       </c>
       <c r="Q19" s="135"/>
       <c r="R19" s="136"/>
       <c r="S19" s="134">
         <f>S25*VLOOKUP($B$25,TOWER,9)+S26*VLOOKUP($B$26,TOWER,9)+S27*VLOOKUP($B$27,TOWER,9)+S28*VLOOKUP($B$28,TOWER,9)+S29*VLOOKUP($B$29,TOWER,9)+S30*VLOOKUP($B$30,TOWER,9)+S31*VLOOKUP($B$31,TOWER,9)+S32*VLOOKUP($B$32,TOWER,9)+S33*VLOOKUP($B$33,TOWER,9)</f>
-        <v>5680</v>
+        <v>25560</v>
       </c>
       <c r="T19" s="135"/>
       <c r="U19" s="136"/>
@@ -4119,7 +4133,7 @@
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B20" s="86" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D20" s="128">
         <f>D3*VLOOKUP($B$3,ENEMY,8)+D4*VLOOKUP($B$4,ENEMY,8)+D5*VLOOKUP($B$5,ENEMY,8)+D6*VLOOKUP($B$6,ENEMY,8)+D7*VLOOKUP($B$7,ENEMY,8)+D8*VLOOKUP($B$8,ENEMY,8)+D9*VLOOKUP($B$9,ENEMY,8)+D10*VLOOKUP($B$10,ENEMY,8)+D11*VLOOKUP($B$11,ENEMY,8)</f>
@@ -4129,31 +4143,31 @@
       <c r="F20" s="130"/>
       <c r="G20" s="128">
         <f>G3*H3*VLOOKUP($B$3,ENEMY,8)+G4*H4*VLOOKUP($B$4,ENEMY,8)+G5*H5*VLOOKUP($B$5,ENEMY,8)+G6*H6*VLOOKUP($B$6,ENEMY,8)+G7*H7*VLOOKUP($B$7,ENEMY,8)+G8*H8*VLOOKUP($B$8,ENEMY,8)+G9*H9*VLOOKUP($B$9,ENEMY,8)+G10*H10*VLOOKUP($B$10,ENEMY,8)+G11*H11*VLOOKUP($B$11,ENEMY,8)</f>
-        <v>162</v>
+        <v>432</v>
       </c>
       <c r="H20" s="129"/>
       <c r="I20" s="130"/>
       <c r="J20" s="128">
         <f>J3*K3*VLOOKUP($B$3,ENEMY,8)+J4*K4*VLOOKUP($B$4,ENEMY,8)+J5*K5*VLOOKUP($B$5,ENEMY,8)+J6*K6*VLOOKUP($B$6,ENEMY,8)+J7*K7*VLOOKUP($B$7,ENEMY,8)+J8*K8*VLOOKUP($B$8,ENEMY,8)+J9*K9*VLOOKUP($B$9,ENEMY,8)+J10*K10*VLOOKUP($B$10,ENEMY,8)+J11*K11*VLOOKUP($B$11,ENEMY,8)</f>
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="K20" s="129"/>
       <c r="L20" s="130"/>
       <c r="M20" s="128">
         <f>M3*N3*VLOOKUP($B$3,ENEMY,8)+M4*N4*VLOOKUP($B$4,ENEMY,8)+M5*N5*VLOOKUP($B$5,ENEMY,8)+M6*N6*VLOOKUP($B$6,ENEMY,8)+M7*N7*VLOOKUP($B$7,ENEMY,8)+M8*N8*VLOOKUP($B$8,ENEMY,8)+M9*N9*VLOOKUP($B$9,ENEMY,8)+M10*N10*VLOOKUP($B$10,ENEMY,8)+M11*N11*VLOOKUP($B$11,ENEMY,8)</f>
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="N20" s="129"/>
       <c r="O20" s="130"/>
       <c r="P20" s="128">
         <f>P3*Q3*VLOOKUP($B$3,ENEMY,8)+P4*Q4*VLOOKUP($B$4,ENEMY,8)+P5*Q5*VLOOKUP($B$5,ENEMY,8)+P6*Q6*VLOOKUP($B$6,ENEMY,8)+P7*Q7*VLOOKUP($B$7,ENEMY,8)+P8*Q8*VLOOKUP($B$8,ENEMY,8)+P9*Q9*VLOOKUP($B$9,ENEMY,8)+P10*Q10*VLOOKUP($B$10,ENEMY,8)+P11*Q11*VLOOKUP($B$11,ENEMY,8)</f>
-        <v>1080</v>
+        <v>6840</v>
       </c>
       <c r="Q20" s="129"/>
       <c r="R20" s="130"/>
       <c r="S20" s="128">
         <f>S3*T3*VLOOKUP($B$3,ENEMY,8)+S4*T4*VLOOKUP($B$4,ENEMY,8)+S5*T5*VLOOKUP($B$5,ENEMY,8)+S6*T6*VLOOKUP($B$6,ENEMY,8)+S7*T7*VLOOKUP($B$7,ENEMY,8)+S8*T8*VLOOKUP($B$8,ENEMY,8)+S9*T9*VLOOKUP($B$9,ENEMY,8)+S10*T10*VLOOKUP($B$10,ENEMY,8)+S11*T11*VLOOKUP($B$11,ENEMY,8)</f>
-        <v>6450</v>
+        <v>35700</v>
       </c>
       <c r="T20" s="129"/>
       <c r="U20" s="130"/>
@@ -4178,41 +4192,41 @@
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B21" s="86" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D21" s="134">
         <f>D18-D19+D20</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E21" s="135"/>
       <c r="F21" s="136"/>
       <c r="G21" s="134">
         <f>G18-G19+G20</f>
-        <v>12</v>
+        <v>-253</v>
       </c>
       <c r="H21" s="135"/>
       <c r="I21" s="136"/>
       <c r="J21" s="134">
         <f t="shared" ref="J21" si="9">J18-J19+J20</f>
-        <v>2</v>
+        <v>537</v>
       </c>
       <c r="K21" s="135"/>
       <c r="L21" s="136"/>
       <c r="M21" s="134">
         <f t="shared" ref="M21" si="10">M18-M19+M20</f>
-        <v>12</v>
+        <v>537</v>
       </c>
       <c r="N21" s="135"/>
       <c r="O21" s="136"/>
       <c r="P21" s="134">
         <f t="shared" ref="P21" si="11">P18-P19+P20</f>
-        <v>12</v>
+        <v>2517</v>
       </c>
       <c r="Q21" s="135"/>
       <c r="R21" s="136"/>
       <c r="S21" s="134">
         <f t="shared" ref="S21" si="12">S18-S19+S20</f>
-        <v>782</v>
+        <v>12657</v>
       </c>
       <c r="T21" s="135"/>
       <c r="U21" s="136"/>
@@ -4237,10 +4251,10 @@
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B24" s="105" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C24" s="106" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
@@ -4249,7 +4263,7 @@
         <v>40</v>
       </c>
       <c r="B25" s="99" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C25" s="100" t="str">
         <f t="shared" ref="C25:C33" si="13">VLOOKUP(B3,ENEMY,4)</f>
@@ -4308,7 +4322,7 @@
         <v>40</v>
       </c>
       <c r="B26" s="107" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C26" s="100" t="str">
         <f t="shared" si="13"/>
@@ -4367,7 +4381,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="107" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C27" s="100" t="str">
         <f t="shared" si="13"/>
@@ -4426,7 +4440,7 @@
         <v>40</v>
       </c>
       <c r="B28" s="99" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C28" s="100" t="str">
         <f t="shared" si="13"/>
@@ -4485,7 +4499,7 @@
         <v>40</v>
       </c>
       <c r="B29" s="107" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C29" s="100" t="str">
         <f t="shared" si="13"/>
@@ -4542,7 +4556,7 @@
         <v>40</v>
       </c>
       <c r="B30" s="107" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C30" s="100" t="str">
         <f t="shared" si="13"/>
@@ -4599,7 +4613,7 @@
         <v>40</v>
       </c>
       <c r="B31" s="99" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C31" s="100" t="str">
         <f t="shared" si="13"/>
@@ -4656,7 +4670,7 @@
         <v>40</v>
       </c>
       <c r="B32" s="107" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C32" s="100" t="str">
         <f t="shared" si="13"/>
@@ -4713,7 +4727,7 @@
         <v>40</v>
       </c>
       <c r="B33" s="107" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C33" s="100" t="str">
         <f t="shared" si="13"/>
@@ -5180,7 +5194,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:AM21">
-    <cfRule type="cellIs" dxfId="136" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5201,8 +5215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECF5610-AFF3-4403-B872-F795309595A3}">
   <dimension ref="A1:AV39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19:AM19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5252,53 +5266,53 @@
     <row r="1" spans="1:48" s="111" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="108"/>
       <c r="B1" s="148" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C1" s="140" t="s">
         <v>55</v>
       </c>
       <c r="D1" s="142" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E1" s="143"/>
       <c r="F1" s="144"/>
       <c r="G1" s="142" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H1" s="143"/>
       <c r="I1" s="144"/>
       <c r="J1" s="142" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K1" s="143"/>
       <c r="L1" s="144"/>
       <c r="M1" s="142" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N1" s="143"/>
       <c r="O1" s="144"/>
       <c r="P1" s="142" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q1" s="143"/>
       <c r="R1" s="144"/>
       <c r="S1" s="142" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T1" s="143"/>
       <c r="U1" s="144"/>
       <c r="V1" s="142" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W1" s="143"/>
       <c r="X1" s="144"/>
       <c r="Y1" s="142" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z1" s="143"/>
       <c r="AA1" s="144"/>
       <c r="AB1" s="142" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AC1" s="143"/>
       <c r="AD1" s="144"/>
@@ -5326,85 +5340,85 @@
       <c r="B2" s="149"/>
       <c r="C2" s="141"/>
       <c r="D2" s="124" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="125" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="126" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="125" t="s">
-        <v>205</v>
-      </c>
-      <c r="F2" s="126" t="s">
-        <v>181</v>
-      </c>
       <c r="G2" s="124" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="125" t="s">
+        <v>204</v>
+      </c>
+      <c r="I2" s="126" t="s">
         <v>180</v>
       </c>
-      <c r="H2" s="125" t="s">
-        <v>205</v>
-      </c>
-      <c r="I2" s="126" t="s">
-        <v>181</v>
-      </c>
       <c r="J2" s="124" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" s="125" t="s">
+        <v>204</v>
+      </c>
+      <c r="L2" s="126" t="s">
         <v>180</v>
       </c>
-      <c r="K2" s="125" t="s">
-        <v>205</v>
-      </c>
-      <c r="L2" s="126" t="s">
-        <v>181</v>
-      </c>
       <c r="M2" s="124" t="s">
+        <v>179</v>
+      </c>
+      <c r="N2" s="125" t="s">
+        <v>204</v>
+      </c>
+      <c r="O2" s="126" t="s">
         <v>180</v>
       </c>
-      <c r="N2" s="125" t="s">
-        <v>205</v>
-      </c>
-      <c r="O2" s="126" t="s">
-        <v>181</v>
-      </c>
       <c r="P2" s="124" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q2" s="125" t="s">
+        <v>204</v>
+      </c>
+      <c r="R2" s="126" t="s">
         <v>180</v>
       </c>
-      <c r="Q2" s="125" t="s">
-        <v>205</v>
-      </c>
-      <c r="R2" s="126" t="s">
-        <v>181</v>
-      </c>
       <c r="S2" s="124" t="s">
+        <v>179</v>
+      </c>
+      <c r="T2" s="125" t="s">
+        <v>204</v>
+      </c>
+      <c r="U2" s="126" t="s">
         <v>180</v>
       </c>
-      <c r="T2" s="125" t="s">
-        <v>205</v>
-      </c>
-      <c r="U2" s="126" t="s">
-        <v>181</v>
-      </c>
       <c r="V2" s="124" t="s">
+        <v>179</v>
+      </c>
+      <c r="W2" s="125" t="s">
+        <v>204</v>
+      </c>
+      <c r="X2" s="126" t="s">
         <v>180</v>
       </c>
-      <c r="W2" s="125" t="s">
-        <v>205</v>
-      </c>
-      <c r="X2" s="126" t="s">
-        <v>181</v>
-      </c>
       <c r="Y2" s="124" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z2" s="125" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA2" s="126" t="s">
         <v>180</v>
       </c>
-      <c r="Z2" s="125" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA2" s="126" t="s">
-        <v>181</v>
-      </c>
       <c r="AB2" s="124" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC2" s="125" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD2" s="126" t="s">
         <v>180</v>
-      </c>
-      <c r="AC2" s="125" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD2" s="126" t="s">
-        <v>181</v>
       </c>
       <c r="AE2" s="124"/>
       <c r="AF2" s="125"/>
@@ -5418,7 +5432,7 @@
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B3" s="180" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="104" t="str">
         <f t="shared" ref="C3:C11" si="0">VLOOKUP(B3,ENEMY,4)</f>
@@ -5430,15 +5444,33 @@
       <c r="G3" s="116"/>
       <c r="H3" s="94"/>
       <c r="I3" s="117"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="117"/>
+      <c r="J3" s="116">
+        <v>4</v>
+      </c>
+      <c r="K3" s="94">
+        <v>3</v>
+      </c>
+      <c r="L3" s="117">
+        <v>2</v>
+      </c>
+      <c r="M3" s="116">
+        <v>5</v>
+      </c>
+      <c r="N3" s="94">
+        <v>3</v>
+      </c>
+      <c r="O3" s="117">
+        <v>3</v>
+      </c>
+      <c r="P3" s="116">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="94">
+        <v>2</v>
+      </c>
+      <c r="R3" s="117">
+        <v>2</v>
+      </c>
       <c r="S3" s="116"/>
       <c r="T3" s="94"/>
       <c r="U3" s="117"/>
@@ -5463,7 +5495,7 @@
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B4" s="99" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" s="104" t="str">
         <f t="shared" si="0"/>
@@ -5508,7 +5540,7 @@
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B5" s="181" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="104" t="str">
         <f t="shared" si="0"/>
@@ -5553,7 +5585,7 @@
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B6" s="99" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="104" t="str">
         <f t="shared" si="0"/>
@@ -5598,7 +5630,7 @@
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B7" s="99" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="104" t="str">
         <f t="shared" si="0"/>
@@ -5643,7 +5675,7 @@
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B8" s="99" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="104" t="str">
         <f t="shared" si="0"/>
@@ -5688,7 +5720,7 @@
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B9" s="180" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C9" s="104" t="str">
         <f t="shared" si="0"/>
@@ -5701,20 +5733,32 @@
         <v>3</v>
       </c>
       <c r="H9" s="94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9" s="117">
         <v>2</v>
       </c>
-      <c r="J9" s="116"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="117"/>
+      <c r="J9" s="116">
+        <v>4</v>
+      </c>
+      <c r="K9" s="94">
+        <v>2</v>
+      </c>
+      <c r="L9" s="117">
+        <v>2</v>
+      </c>
       <c r="M9" s="116"/>
       <c r="N9" s="94"/>
       <c r="O9" s="117"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="117"/>
+      <c r="P9" s="116">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="94">
+        <v>1</v>
+      </c>
+      <c r="R9" s="117">
+        <v>2</v>
+      </c>
       <c r="S9" s="116"/>
       <c r="T9" s="94"/>
       <c r="U9" s="117"/>
@@ -5739,7 +5783,7 @@
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B10" s="99" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C10" s="104" t="str">
         <f t="shared" si="0"/>
@@ -5784,7 +5828,7 @@
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B11" s="181" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" s="104" t="str">
         <f t="shared" si="0"/>
@@ -5834,7 +5878,7 @@
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B13" s="95" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D13" s="145">
         <v>100</v>
@@ -5892,7 +5936,7 @@
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B14" s="97" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D14" s="131">
         <f>D3*VLOOKUP($B$3,ENEMY,7)+D4*VLOOKUP($B$4,ENEMY,7)+D5*VLOOKUP($B$5,ENEMY,7)+D6*VLOOKUP($B$6,ENEMY,7)+D7*VLOOKUP($B$7,ENEMY,7)+D8*VLOOKUP($B$8,ENEMY,7)+D9*VLOOKUP($B$9,ENEMY,7)+D10*VLOOKUP($B$10,ENEMY,7)+D11*VLOOKUP($B$11,ENEMY,7)</f>
@@ -5902,25 +5946,25 @@
       <c r="F14" s="133"/>
       <c r="G14" s="131">
         <f>G3*H3*VLOOKUP($B$3,ENEMY,7)+G4*H4*VLOOKUP($B$4,ENEMY,7)+G5*H5*VLOOKUP($B$5,ENEMY,7)+G6*H6*VLOOKUP($B$6,ENEMY,7)+G7*H7*VLOOKUP($B$7,ENEMY,7)+G8*H8*VLOOKUP($B$8,ENEMY,7)+G9*H9*VLOOKUP($B$9,ENEMY,7)+G10*H10*VLOOKUP($B$10,ENEMY,7)+G11*H11*VLOOKUP($B$11,ENEMY,7)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H14" s="132"/>
       <c r="I14" s="133"/>
       <c r="J14" s="131">
         <f>J3*K3*VLOOKUP($B$3,ENEMY,7)+J4*K4*VLOOKUP($B$4,ENEMY,7)+J5*K5*VLOOKUP($B$5,ENEMY,7)+J6*K6*VLOOKUP($B$6,ENEMY,7)+J7*K7*VLOOKUP($B$7,ENEMY,7)+J8*K8*VLOOKUP($B$8,ENEMY,7)+J9*K9*VLOOKUP($B$9,ENEMY,7)+J10*K10*VLOOKUP($B$10,ENEMY,7)+J11*K11*VLOOKUP($B$11,ENEMY,7)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K14" s="132"/>
       <c r="L14" s="133"/>
       <c r="M14" s="131">
         <f>M3*N3*VLOOKUP($B$3,ENEMY,7)+M4*N4*VLOOKUP($B$4,ENEMY,7)+M5*N5*VLOOKUP($B$5,ENEMY,7)+M6*N6*VLOOKUP($B$6,ENEMY,7)+M7*N7*VLOOKUP($B$7,ENEMY,7)+M8*N8*VLOOKUP($B$8,ENEMY,7)+M9*N9*VLOOKUP($B$9,ENEMY,7)+M10*N10*VLOOKUP($B$10,ENEMY,7)+M11*N11*VLOOKUP($B$11,ENEMY,7)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="N14" s="132"/>
       <c r="O14" s="133"/>
       <c r="P14" s="131">
         <f>P3*Q3*VLOOKUP($B$3,ENEMY,7)+P4*Q4*VLOOKUP($B$4,ENEMY,7)+P5*Q5*VLOOKUP($B$5,ENEMY,7)+P6*Q6*VLOOKUP($B$6,ENEMY,7)+P7*Q7*VLOOKUP($B$7,ENEMY,7)+P8*Q8*VLOOKUP($B$8,ENEMY,7)+P9*Q9*VLOOKUP($B$9,ENEMY,7)+P10*Q10*VLOOKUP($B$10,ENEMY,7)+P11*Q11*VLOOKUP($B$11,ENEMY,7)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="132"/>
       <c r="R14" s="133"/>
@@ -5951,7 +5995,7 @@
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B15" s="97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D15" s="131">
         <f>D26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+D27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+D28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+D29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+D30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+D31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+D32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+D33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+D34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
@@ -5967,19 +6011,19 @@
       <c r="I15" s="133"/>
       <c r="J15" s="131">
         <f>J26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+J27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+J28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+J29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+J30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+J31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+J32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+J33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+J34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="K15" s="132"/>
       <c r="L15" s="133"/>
       <c r="M15" s="131">
         <f>M26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+M27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+M28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+M29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+M30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+M31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+M32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+M33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+M34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N15" s="132"/>
       <c r="O15" s="133"/>
       <c r="P15" s="131">
         <f>P26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+P27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+P28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+P29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+P30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+P31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+P32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+P33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+P34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Q15" s="132"/>
       <c r="R15" s="133"/>
@@ -6010,7 +6054,7 @@
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B16" s="97" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D16" s="137">
         <f>D13-D14</f>
@@ -6108,88 +6152,88 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B18" s="95" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D18" s="128">
         <f>Tower!I3*2+Tower!I3/2</f>
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="E18" s="129"/>
       <c r="F18" s="130"/>
       <c r="G18" s="128">
         <f>D22</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H18" s="129"/>
       <c r="I18" s="130"/>
       <c r="J18" s="128">
         <f t="shared" ref="J18" si="5">G22</f>
-        <v>-10</v>
+        <v>21</v>
       </c>
       <c r="K18" s="129"/>
       <c r="L18" s="130"/>
       <c r="M18" s="128">
         <f t="shared" ref="M18" si="6">J22</f>
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="N18" s="129"/>
       <c r="O18" s="130"/>
       <c r="P18" s="128">
         <f t="shared" ref="P18" si="7">M22</f>
-        <v>-10</v>
+        <v>-109</v>
       </c>
       <c r="Q18" s="129"/>
       <c r="R18" s="130"/>
       <c r="S18" s="128">
         <f t="shared" ref="S18" si="8">P22</f>
-        <v>-10</v>
+        <v>-89</v>
       </c>
       <c r="T18" s="129"/>
       <c r="U18" s="130"/>
       <c r="V18" s="128">
         <f t="shared" ref="V18" si="9">S22</f>
-        <v>-10</v>
+        <v>-89</v>
       </c>
       <c r="W18" s="129"/>
       <c r="X18" s="130"/>
       <c r="Y18" s="128">
         <f t="shared" ref="Y18" si="10">V22</f>
-        <v>-10</v>
+        <v>-89</v>
       </c>
       <c r="Z18" s="129"/>
       <c r="AA18" s="130"/>
       <c r="AB18" s="128">
         <f t="shared" ref="AB18" si="11">Y22</f>
-        <v>-10</v>
+        <v>-89</v>
       </c>
       <c r="AC18" s="129"/>
       <c r="AD18" s="130"/>
       <c r="AE18" s="128">
         <f t="shared" ref="AE18" si="12">AB22</f>
-        <v>-10</v>
+        <v>-89</v>
       </c>
       <c r="AF18" s="129"/>
       <c r="AG18" s="130"/>
       <c r="AH18" s="128">
         <f t="shared" ref="AH18" si="13">AE22</f>
-        <v>-10</v>
+        <v>-89</v>
       </c>
       <c r="AI18" s="129"/>
       <c r="AJ18" s="130"/>
       <c r="AK18" s="128">
         <f t="shared" ref="AK18" si="14">AH22</f>
-        <v>-10</v>
+        <v>-89</v>
       </c>
       <c r="AL18" s="129"/>
       <c r="AM18" s="130"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B19" s="97" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D19" s="134">
         <f>D26*VLOOKUP($B$26,TOWER,9)+D27*VLOOKUP($B$27,TOWER,9)+D28*VLOOKUP($B$28,TOWER,9)+D29*VLOOKUP($B$29,TOWER,9)+D30*VLOOKUP($B$30,TOWER,9)+D31*VLOOKUP($B$31,TOWER,9)+D32*VLOOKUP($B$32,TOWER,9)+D33*VLOOKUP($B$33,TOWER,9)+D34*VLOOKUP($B$34,TOWER,9)</f>
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E19" s="135"/>
       <c r="F19" s="136"/>
@@ -6201,19 +6245,19 @@
       <c r="I19" s="136"/>
       <c r="J19" s="134">
         <f>J26*VLOOKUP($B$26,TOWER,9)+J27*VLOOKUP($B$27,TOWER,9)+J28*VLOOKUP($B$28,TOWER,9)+J29*VLOOKUP($B$29,TOWER,9)+J30*VLOOKUP($B$30,TOWER,9)+J31*VLOOKUP($B$31,TOWER,9)+J32*VLOOKUP($B$32,TOWER,9)+J33*VLOOKUP($B$33,TOWER,9)+J34*VLOOKUP($B$34,TOWER,9)</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K19" s="135"/>
       <c r="L19" s="136"/>
       <c r="M19" s="134">
         <f>M26*VLOOKUP($B$26,TOWER,9)+M27*VLOOKUP($B$27,TOWER,9)+M28*VLOOKUP($B$28,TOWER,9)+M29*VLOOKUP($B$29,TOWER,9)+M30*VLOOKUP($B$30,TOWER,9)+M31*VLOOKUP($B$31,TOWER,9)+M32*VLOOKUP($B$32,TOWER,9)+M33*VLOOKUP($B$33,TOWER,9)+M34*VLOOKUP($B$34,TOWER,9)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N19" s="135"/>
       <c r="O19" s="136"/>
       <c r="P19" s="134">
         <f>P26*VLOOKUP($B$26,TOWER,9)+P27*VLOOKUP($B$27,TOWER,9)+P28*VLOOKUP($B$28,TOWER,9)+P29*VLOOKUP($B$29,TOWER,9)+P30*VLOOKUP($B$30,TOWER,9)+P31*VLOOKUP($B$31,TOWER,9)+P32*VLOOKUP($B$32,TOWER,9)+P33*VLOOKUP($B$33,TOWER,9)+P34*VLOOKUP($B$34,TOWER,9)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q19" s="135"/>
       <c r="R19" s="136"/>
@@ -6262,17 +6306,17 @@
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B20" s="97" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D20" s="128">
         <f>SUM(HLOOKUP(E37,FSTATS,5,FALSE)*D37,HLOOKUP(E38,FSTATS,5,FALSE)*D38,HLOOKUP(E39,FSTATS,5,FALSE)*D39)</f>
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E20" s="129"/>
       <c r="F20" s="130"/>
       <c r="G20" s="128">
         <f>SUM(HLOOKUP(H37,FSTATS,5,FALSE)*G37,HLOOKUP(H38,FSTATS,5,FALSE)*G38,HLOOKUP(H39,FSTATS,5,FALSE)*G39)</f>
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H20" s="129"/>
       <c r="I20" s="130"/>
@@ -6284,7 +6328,7 @@
       <c r="L20" s="130"/>
       <c r="M20" s="128">
         <f>SUM(HLOOKUP(N37,FSTATS,5,FALSE)*M37,HLOOKUP(N38,FSTATS,5,FALSE)*M38,HLOOKUP(N39,FSTATS,5,FALSE)*M39)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="N20" s="129"/>
       <c r="O20" s="130"/>
@@ -6339,7 +6383,7 @@
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B21" s="97" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D21" s="134">
         <f>D3*VLOOKUP($B$3,ENEMY,8)+D4*VLOOKUP($B$4,ENEMY,8)+D5*VLOOKUP($B$5,ENEMY,8)+D6*VLOOKUP($B$6,ENEMY,8)+D7*VLOOKUP($B$7,ENEMY,8)+D8*VLOOKUP($B$8,ENEMY,8)+D9*VLOOKUP($B$9,ENEMY,8)+D10*VLOOKUP($B$10,ENEMY,8)+D11*VLOOKUP($B$11,ENEMY,8)</f>
@@ -6349,25 +6393,25 @@
       <c r="F21" s="136"/>
       <c r="G21" s="134">
         <f>G3*H3*VLOOKUP($B$3,ENEMY,8)+G4*H4*VLOOKUP($B$4,ENEMY,8)+G5*H5*VLOOKUP($B$5,ENEMY,8)+G6*H6*VLOOKUP($B$6,ENEMY,8)+G7*H7*VLOOKUP($B$7,ENEMY,8)+G8*H8*VLOOKUP($B$8,ENEMY,8)+G9*H9*VLOOKUP($B$9,ENEMY,8)+G10*H10*VLOOKUP($B$10,ENEMY,8)+G11*H11*VLOOKUP($B$11,ENEMY,8)</f>
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="H21" s="135"/>
       <c r="I21" s="136"/>
       <c r="J21" s="134">
         <f>J3*K3*VLOOKUP($B$3,ENEMY,8)+J4*K4*VLOOKUP($B$4,ENEMY,8)+J5*K5*VLOOKUP($B$5,ENEMY,8)+J6*K6*VLOOKUP($B$6,ENEMY,8)+J7*K7*VLOOKUP($B$7,ENEMY,8)+J8*K8*VLOOKUP($B$8,ENEMY,8)+J9*K9*VLOOKUP($B$9,ENEMY,8)+J10*K10*VLOOKUP($B$10,ENEMY,8)+J11*K11*VLOOKUP($B$11,ENEMY,8)</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="K21" s="135"/>
       <c r="L21" s="136"/>
       <c r="M21" s="134">
         <f>M3*N3*VLOOKUP($B$3,ENEMY,8)+M4*N4*VLOOKUP($B$4,ENEMY,8)+M5*N5*VLOOKUP($B$5,ENEMY,8)+M6*N6*VLOOKUP($B$6,ENEMY,8)+M7*N7*VLOOKUP($B$7,ENEMY,8)+M8*N8*VLOOKUP($B$8,ENEMY,8)+M9*N9*VLOOKUP($B$9,ENEMY,8)+M10*N10*VLOOKUP($B$10,ENEMY,8)+M11*N11*VLOOKUP($B$11,ENEMY,8)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="N21" s="135"/>
       <c r="O21" s="136"/>
       <c r="P21" s="134">
         <f>P3*Q3*VLOOKUP($B$3,ENEMY,8)+P4*Q4*VLOOKUP($B$4,ENEMY,8)+P5*Q5*VLOOKUP($B$5,ENEMY,8)+P6*Q6*VLOOKUP($B$6,ENEMY,8)+P7*Q7*VLOOKUP($B$7,ENEMY,8)+P8*Q8*VLOOKUP($B$8,ENEMY,8)+P9*Q9*VLOOKUP($B$9,ENEMY,8)+P10*Q10*VLOOKUP($B$10,ENEMY,8)+P11*Q11*VLOOKUP($B$11,ENEMY,8)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="Q21" s="135"/>
       <c r="R21" s="136"/>
@@ -6416,87 +6460,87 @@
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B22" s="97" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D22" s="128">
         <f>D18-(D19+D20)+D21</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E22" s="129"/>
       <c r="F22" s="130"/>
       <c r="G22" s="128">
-        <f>G18-(G19+G20)</f>
-        <v>-10</v>
+        <f>G18-(G19+G20)+G21</f>
+        <v>21</v>
       </c>
       <c r="H22" s="129"/>
       <c r="I22" s="130"/>
       <c r="J22" s="128">
-        <f t="shared" ref="J22:AM22" si="15">J18-(J19+J20)</f>
-        <v>-10</v>
+        <f t="shared" ref="J22" si="15">J18-(J19+J20)+J21</f>
+        <v>1</v>
       </c>
       <c r="K22" s="129"/>
       <c r="L22" s="130"/>
       <c r="M22" s="128">
-        <f t="shared" ref="M22:AM22" si="16">M18-(M19+M20)</f>
-        <v>-10</v>
+        <f t="shared" ref="M22" si="16">M18-(M19+M20)+M21</f>
+        <v>-109</v>
       </c>
       <c r="N22" s="129"/>
       <c r="O22" s="130"/>
       <c r="P22" s="128">
-        <f t="shared" ref="P22:AM22" si="17">P18-(P19+P20)</f>
-        <v>-10</v>
+        <f t="shared" ref="P22" si="17">P18-(P19+P20)+P21</f>
+        <v>-89</v>
       </c>
       <c r="Q22" s="129"/>
       <c r="R22" s="130"/>
       <c r="S22" s="128">
-        <f t="shared" ref="S22:AM22" si="18">S18-(S19+S20)</f>
-        <v>-10</v>
+        <f t="shared" ref="S22" si="18">S18-(S19+S20)+S21</f>
+        <v>-89</v>
       </c>
       <c r="T22" s="129"/>
       <c r="U22" s="130"/>
       <c r="V22" s="128">
-        <f t="shared" ref="V22:AM22" si="19">V18-(V19+V20)</f>
-        <v>-10</v>
+        <f t="shared" ref="V22" si="19">V18-(V19+V20)+V21</f>
+        <v>-89</v>
       </c>
       <c r="W22" s="129"/>
       <c r="X22" s="130"/>
       <c r="Y22" s="128">
-        <f t="shared" ref="Y22:AM22" si="20">Y18-(Y19+Y20)</f>
-        <v>-10</v>
+        <f t="shared" ref="Y22" si="20">Y18-(Y19+Y20)+Y21</f>
+        <v>-89</v>
       </c>
       <c r="Z22" s="129"/>
       <c r="AA22" s="130"/>
       <c r="AB22" s="128">
-        <f t="shared" ref="AB22:AM22" si="21">AB18-(AB19+AB20)</f>
-        <v>-10</v>
+        <f t="shared" ref="AB22" si="21">AB18-(AB19+AB20)+AB21</f>
+        <v>-89</v>
       </c>
       <c r="AC22" s="129"/>
       <c r="AD22" s="130"/>
       <c r="AE22" s="128">
-        <f t="shared" ref="AE22:AM22" si="22">AE18-(AE19+AE20)</f>
-        <v>-10</v>
+        <f t="shared" ref="AE22" si="22">AE18-(AE19+AE20)+AE21</f>
+        <v>-89</v>
       </c>
       <c r="AF22" s="129"/>
       <c r="AG22" s="130"/>
       <c r="AH22" s="128">
-        <f t="shared" ref="AH22:AM22" si="23">AH18-(AH19+AH20)</f>
-        <v>-10</v>
+        <f t="shared" ref="AH22" si="23">AH18-(AH19+AH20)+AH21</f>
+        <v>-89</v>
       </c>
       <c r="AI22" s="129"/>
       <c r="AJ22" s="130"/>
       <c r="AK22" s="128">
-        <f t="shared" ref="AK22:AM22" si="24">AK18-(AK19+AK20)</f>
-        <v>-10</v>
+        <f t="shared" ref="AK22" si="24">AK18-(AK19+AK20)+AK21</f>
+        <v>-89</v>
       </c>
       <c r="AL22" s="129"/>
       <c r="AM22" s="130"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B25" s="105" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C25" s="106" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
@@ -6505,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="99" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C26" s="100" t="str">
         <f>VLOOKUP(B3,ENEMY,4)</f>
@@ -6554,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="107" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C27" s="100" t="str">
         <f>VLOOKUP(B4,ENEMY,4)</f>
@@ -6600,10 +6644,10 @@
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="109">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B28" s="107" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C28" s="100" t="str">
         <f>VLOOKUP(B5,ENEMY,4)</f>
@@ -6619,13 +6663,19 @@
       <c r="G28" s="184"/>
       <c r="H28" s="129"/>
       <c r="I28" s="130"/>
-      <c r="J28" s="184"/>
-      <c r="K28" s="129"/>
+      <c r="J28" s="184">
+        <v>1</v>
+      </c>
+      <c r="K28" s="129" t="s">
+        <v>67</v>
+      </c>
       <c r="L28" s="130"/>
       <c r="M28" s="184"/>
       <c r="N28" s="129"/>
       <c r="O28" s="130"/>
-      <c r="P28" s="184"/>
+      <c r="P28" s="184">
+        <v>1</v>
+      </c>
       <c r="Q28" s="129"/>
       <c r="R28" s="130"/>
       <c r="S28" s="184"/>
@@ -6656,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="99" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C29" s="100" t="str">
         <f>VLOOKUP(B6,ENEMY,4)</f>
@@ -6702,10 +6752,10 @@
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="109">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B30" s="107" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C30" s="100" t="str">
         <f>VLOOKUP(B7,ENEMY,4)</f>
@@ -6717,11 +6767,19 @@
       <c r="G30" s="184"/>
       <c r="H30" s="129"/>
       <c r="I30" s="130"/>
-      <c r="J30" s="184"/>
-      <c r="K30" s="129"/>
+      <c r="J30" s="184">
+        <v>1</v>
+      </c>
+      <c r="K30" s="129" t="s">
+        <v>66</v>
+      </c>
       <c r="L30" s="130"/>
-      <c r="M30" s="184"/>
-      <c r="N30" s="129"/>
+      <c r="M30" s="184">
+        <v>1</v>
+      </c>
+      <c r="N30" s="129" t="s">
+        <v>67</v>
+      </c>
       <c r="O30" s="130"/>
       <c r="P30" s="184"/>
       <c r="Q30" s="129"/>
@@ -6754,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="107" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C31" s="100" t="str">
         <f>VLOOKUP(B8,ENEMY,4)</f>
@@ -6803,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="99" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C32" s="100" t="str">
         <f>VLOOKUP(B9,ENEMY,4)</f>
@@ -6852,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="107" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C33" s="100" t="str">
         <f>VLOOKUP(B10,ENEMY,4)</f>
@@ -6901,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="107" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C34" s="100" t="str">
         <f>VLOOKUP(B11,ENEMY,4)</f>
@@ -6974,10 +7032,10 @@
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B36" s="105" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36" s="105" t="s">
         <v>210</v>
-      </c>
-      <c r="C36" s="105" t="s">
-        <v>211</v>
       </c>
       <c r="D36" s="110"/>
       <c r="F36" s="31"/>
@@ -7083,7 +7141,7 @@
     <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="109">
         <f>SUM(D38:BA38)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38" s="182" t="str">
         <f>Factory!A4</f>
@@ -7110,9 +7168,11 @@
         <v>66</v>
       </c>
       <c r="L38" s="130"/>
-      <c r="M38" s="184"/>
+      <c r="M38" s="184">
+        <v>1</v>
+      </c>
       <c r="N38" s="129" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O38" s="130"/>
       <c r="P38" s="184"/>
@@ -7513,6 +7573,18 @@
     <mergeCell ref="M1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="D16:AM16">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="100"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:AM13">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -7524,20 +7596,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:AM13">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="100"/>
-        <color theme="5" tint="0.39997558519241921"/>
-        <color rgb="FFFFEB84"/>
-        <color theme="9" tint="0.39997558519241921"/>
-      </colorScale>
+  <conditionalFormatting sqref="G22:AM22">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22:AM22">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="D22:AM22">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7636,17 +7701,17 @@
       </c>
       <c r="P1" s="146"/>
       <c r="Q1" s="159" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R1" s="159"/>
       <c r="S1" s="159" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T1" s="159"/>
       <c r="U1" s="16"/>
       <c r="V1" s="16"/>
       <c r="W1" s="146" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X1" s="146"/>
     </row>
@@ -7806,21 +7871,21 @@
       </c>
       <c r="C5" s="25">
         <f>$X$33</f>
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D5" s="75" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="25" cm="1">
         <f t="array" ref="E5">_xlfn.IFS(D5="+",ROUNDDOWN(C5*(1+$I$5),0),D5="=",C5)</f>
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="F5" s="75" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="25" cm="1">
         <f t="array" ref="G5">_xlfn.IFS(F5="+",ROUNDDOWN(E5*(1+$I$5),0),F5="=",E5)</f>
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="I5" s="153">
         <v>0.2</v>
@@ -7949,7 +8014,7 @@
         <v>71</v>
       </c>
       <c r="O9" s="155" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P9" s="155"/>
       <c r="Q9" s="155" t="s">
@@ -7957,11 +8022,11 @@
       </c>
       <c r="R9" s="155"/>
       <c r="S9" s="155" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T9" s="155"/>
       <c r="U9" s="155" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V9" s="155"/>
       <c r="W9" s="16"/>
@@ -8001,7 +8066,7 @@
     </row>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="150" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B11" s="76" t="s">
         <v>28</v>
@@ -8160,42 +8225,42 @@
       </c>
       <c r="C14" s="48">
         <f>X31</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D14" s="75" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="21" cm="1">
         <f t="array" ref="E14">_xlfn.IFS(D14="+",ROUNDUP(C14*(1+$M$5),0),D14="=",C14)</f>
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F14" s="75" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="21" cm="1">
         <f t="array" ref="G14">_xlfn.IFS(F14="+",ROUNDUP(E14*(1+$M$5),0),F14="=",E14)</f>
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="H14" s="75" t="s">
         <v>13</v>
       </c>
       <c r="I14" s="21" cm="1">
         <f t="array" ref="I14">_xlfn.IFS(H14="+",ROUNDUP(G14*(1+$M$5),0),H14="=",G14)</f>
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="J14" s="75" t="s">
         <v>13</v>
       </c>
       <c r="K14" s="21" cm="1">
         <f t="array" ref="K14">_xlfn.IFS(J14="+",ROUNDUP(I14*(1+$M$5),0),J14="=",I14)</f>
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="L14" s="75" t="s">
         <v>13</v>
       </c>
       <c r="M14" s="21" cm="1">
         <f t="array" ref="M14">_xlfn.IFS(L14="+",ROUNDUP(K14*(1+$M$5),0),L14="=",K14)</f>
-        <v>41</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -8216,10 +8281,10 @@
     </row>
     <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="150" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B16" s="90" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="79">
         <f>R33</f>
@@ -8263,7 +8328,7 @@
     <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="150"/>
       <c r="B17" s="91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" s="79">
         <f>T33</f>
@@ -8297,7 +8362,7 @@
         <v>71</v>
       </c>
       <c r="O17" s="149" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P17" s="149"/>
       <c r="Q17" s="149"/>
@@ -8307,7 +8372,7 @@
       </c>
       <c r="S17" s="162"/>
       <c r="T17" s="149" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U17" s="149"/>
       <c r="V17" s="149"/>
@@ -8320,7 +8385,7 @@
     <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="150"/>
       <c r="B18" s="90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C18" s="79">
         <f>V33</f>
@@ -8379,34 +8444,34 @@
       </c>
       <c r="C19" s="79">
         <f>X33</f>
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D19" s="75" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="79" cm="1">
         <f t="array" ref="E19">_xlfn.IFS(D19="+",ROUNDUP($C$19 * (1 +Q5) ^ 1,0),D19="=",C19)</f>
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="F19" s="75" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="79" cm="1">
         <f t="array" ref="G19">_xlfn.IFS(F19="+",ROUNDUP($C$19 * (1 +S5) ^ 2,0),F19="=",E19)</f>
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="H19" s="75" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I19" s="79" cm="1">
         <f t="array" ref="I19">_xlfn.IFS(H19="+",ROUNDDOWN(G19*(1+$Q$5),0),H19="=",G19,H19="++",ROUNDDOWN(G19*(1+$Q$5)*1.5,0),H19="-",ROUNDDOWN(G19*(1+$Q$5)*0.75,0))</f>
-        <v>65</v>
+        <v>324</v>
       </c>
       <c r="K19" s="73" t="s">
         <v>40</v>
       </c>
       <c r="M19" s="73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O19" s="164"/>
       <c r="P19" s="164"/>
@@ -8423,21 +8488,21 @@
       <c r="B20" s="16"/>
       <c r="K20" s="74" cm="1">
         <f t="array" ref="K20">_xlfn.IFS(K17="Upgrade 0",C5,K17="Upgrade 1",E5,K17="Upgrade 2",G5)</f>
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="M20" s="74" cm="1">
         <f t="array" ref="M20">_xlfn.IFS(M17="LVL 0",C14,M17="LVL 1",E14,M17="LVL 2",G14,M17="LVL 3",I14,M17="LVL 4",K14,M17="LVL 5",M14)</f>
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="O20" s="149" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P20" s="149"/>
       <c r="Q20" s="149"/>
       <c r="R20" s="162"/>
       <c r="S20" s="162"/>
       <c r="T20" s="149" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U20" s="149"/>
       <c r="V20" s="149"/>
@@ -8446,10 +8511,10 @@
     </row>
     <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="150" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B21" s="90" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21" s="79">
         <f>R31</f>
@@ -8480,7 +8545,7 @@
         <v>15</v>
       </c>
       <c r="M21" s="73" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O21" s="164" t="str">
         <f>_xlfn.CONCAT(P27," ",R27," lvl ",_xlfn.CONCAT(RIGHT(M17,1)))</f>
@@ -8502,7 +8567,7 @@
     <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="150"/>
       <c r="B22" s="91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C22" s="79">
         <f>T31</f>
@@ -8551,7 +8616,7 @@
     <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="150"/>
       <c r="B23" s="90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C23" s="79">
         <f>V31</f>
@@ -8579,11 +8644,11 @@
         <v>10</v>
       </c>
       <c r="K23" s="73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N23" s="15"/>
       <c r="O23" s="149" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P23" s="149"/>
       <c r="Q23" s="149"/>
@@ -8597,28 +8662,28 @@
       </c>
       <c r="C24" s="79">
         <f>X31</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D24" s="75" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="79" cm="1">
         <f t="array" ref="E24">_xlfn.IFS(D24="+",ROUNDUP($C$24 * (1 +S5) ^ 1,0),D24="=",C24)</f>
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F24" s="75" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="79" cm="1">
         <f t="array" ref="G24">_xlfn.IFS(F24="+",ROUNDUP($C$19 * (1 +S5) ^ 2,0),F24="=",E24)</f>
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="H24" s="75" t="s">
         <v>13</v>
       </c>
       <c r="I24" s="79" cm="1">
         <f t="array" ref="I24">_xlfn.IFS(H24="+",ROUNDDOWN(G24*(1+$S$5),0),H24="=",G24,H24="++",ROUNDDOWN(G24*(1+$Q$5)*1.5,0),H24="-",ROUNDDOWN(G24*(1+$Q$5)*0.75,0))</f>
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="K24" s="74" cm="1">
         <f t="array" ref="K24">_xlfn.IFS(K17="Upgrade 0",C6,K17="Upgrade 1",E6,K17="Upgrade 2",G6,K17="Upgrade 3",#REF!,K17="Upgrade 4",K6,K17="Upgrade 5",M6)</f>
@@ -8681,12 +8746,12 @@
       <c r="F27" s="149"/>
       <c r="G27" s="135" t="str">
         <f>_xlfn.CONCAT(K20*K22," s")</f>
-        <v>21 s</v>
+        <v>108 s</v>
       </c>
       <c r="H27" s="135"/>
       <c r="I27" s="135"/>
       <c r="N27" s="156" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O27" s="156"/>
       <c r="P27" s="129" t="str">
@@ -8731,10 +8796,10 @@
       </c>
       <c r="F28" s="160"/>
       <c r="G28" s="73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H28" s="149" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I28" s="149"/>
       <c r="N28" s="165" t="s">
@@ -8777,11 +8842,11 @@
       </c>
       <c r="H29" s="135">
         <f>ROUNDUP(K24/M20,0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29" s="135"/>
       <c r="N29" s="156" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O29" s="156"/>
       <c r="P29" s="129" t="str">
@@ -8812,7 +8877,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="N30" s="165" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O30" s="165"/>
       <c r="P30" s="165" t="s">
@@ -8820,7 +8885,7 @@
       </c>
       <c r="Q30" s="165"/>
       <c r="R30" s="165" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S30" s="165"/>
       <c r="T30" s="165" t="s">
@@ -8828,7 +8893,7 @@
       </c>
       <c r="U30" s="165"/>
       <c r="V30" s="165" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W30" s="165"/>
       <c r="X30" s="165" t="s">
@@ -8842,7 +8907,7 @@
       </c>
       <c r="C31" s="149"/>
       <c r="N31" s="156" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O31" s="156"/>
       <c r="P31" s="129" t="str">
@@ -8867,7 +8932,7 @@
       <c r="W31" s="129"/>
       <c r="X31" s="129">
         <f>VLOOKUP($N$27,ENEMY,8)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Y31" s="129"/>
     </row>
@@ -8878,7 +8943,7 @@
       </c>
       <c r="C32" s="129"/>
       <c r="N32" s="165" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O32" s="165"/>
       <c r="P32" s="165" t="s">
@@ -8886,15 +8951,15 @@
       </c>
       <c r="Q32" s="165"/>
       <c r="R32" s="165" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S32" s="165"/>
       <c r="T32" s="165" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U32" s="165"/>
       <c r="V32" s="165" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W32" s="165"/>
       <c r="X32" s="165" t="s">
@@ -8904,7 +8969,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="N33" s="156" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O33" s="156"/>
       <c r="P33" s="129" t="str">
@@ -8929,7 +8994,7 @@
       <c r="W33" s="129"/>
       <c r="X33" s="129">
         <f>VLOOKUP($N$29,TOWER,9)</f>
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="Y33" s="129"/>
     </row>
@@ -10090,16 +10155,16 @@
         <v>20</v>
       </c>
       <c r="D2" s="87" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E2" s="73" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G2" s="93" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I2" s="77" t="s">
         <v>56</v>
@@ -10120,7 +10185,7 @@
         <v>69</v>
       </c>
       <c r="R2" s="61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -10132,7 +10197,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" s="23">
         <v>50</v>
@@ -10147,7 +10212,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="90" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J3" s="20">
         <f>D3</f>
@@ -10187,7 +10252,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="21">
         <f>D3</f>
@@ -10206,7 +10271,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J4" s="21">
         <f>E3</f>
@@ -10246,7 +10311,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="20">
         <f>D3</f>
@@ -10265,7 +10330,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J5" s="84">
         <f>P9</f>
@@ -10330,13 +10395,13 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="149" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="149"/>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="166" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" s="166"/>
       <c r="I8" s="88" t="s">
@@ -10347,7 +10412,7 @@
       </c>
       <c r="K8" s="88"/>
       <c r="L8" s="88" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M8" s="88"/>
       <c r="N8" s="88" t="s">
@@ -10355,7 +10420,7 @@
       </c>
       <c r="O8" s="88"/>
       <c r="P8" s="88" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="85"/>
     </row>
@@ -10363,7 +10428,7 @@
       <c r="C9" s="166"/>
       <c r="D9" s="166"/>
       <c r="I9" s="83" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J9" s="75" t="str">
         <f>VLOOKUP($I$9,TRAIN,3)</f>
@@ -10768,13 +10833,13 @@
         <v>20</v>
       </c>
       <c r="D2" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="73" t="s">
-        <v>147</v>
-      </c>
       <c r="F2" s="73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H2" s="77" t="s">
         <v>56</v>
@@ -10795,7 +10860,7 @@
         <v>69</v>
       </c>
       <c r="Q2" s="61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -10807,7 +10872,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" s="23">
         <v>100</v>
@@ -10819,7 +10884,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="90" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I3" s="20">
         <f>D3</f>
@@ -10859,7 +10924,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="21">
         <f>D3</f>
@@ -10874,7 +10939,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I4" s="21">
         <f>E3</f>
@@ -10914,7 +10979,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="20">
         <f>D3</f>
@@ -10929,7 +10994,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I5" s="20">
         <f>F3</f>
@@ -10994,16 +11059,16 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="149" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="149"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="166" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D8" s="166" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H8" s="88" t="s">
         <v>33</v>
@@ -11013,15 +11078,15 @@
       </c>
       <c r="J8" s="88"/>
       <c r="K8" s="88" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L8" s="88"/>
       <c r="M8" s="88" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N8" s="88"/>
       <c r="O8" s="88" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P8" s="88"/>
     </row>
@@ -11029,7 +11094,7 @@
       <c r="C9" s="166"/>
       <c r="D9" s="166"/>
       <c r="H9" s="83" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I9" s="75" t="str">
         <f>VLOOKUP($H$9,FACTORY,3)</f>
@@ -11207,7 +11272,7 @@
   <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="K12" sqref="K12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11310,7 +11375,7 @@
         <v>39</v>
       </c>
       <c r="I2" s="87" t="s">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="K2" s="151" t="s">
         <v>56</v>
@@ -11342,7 +11407,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>50</v>
@@ -11360,7 +11425,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="23">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K3" s="150" t="s">
         <v>45</v>
@@ -11370,21 +11435,21 @@
       </c>
       <c r="M3" s="51">
         <f>$Q$12</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N3" s="28" t="s">
         <v>13</v>
       </c>
       <c r="O3" s="28" cm="1">
         <f t="array" ref="O3">_xlfn.IFS(N3="+",ROUNDDOWN(M3*(1+$T$3),2),N3="=",M3)</f>
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="P3" s="28" t="s">
         <v>13</v>
       </c>
       <c r="Q3" s="28" cm="1">
         <f t="array" ref="Q3">_xlfn.IFS(P3="+",ROUNDDOWN(O3*(1+$T$3),2),P3="=",O3)</f>
-        <v>5.07</v>
+        <v>6.76</v>
       </c>
       <c r="R3" s="28" t="s">
         <v>13</v>
@@ -11403,7 +11468,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>52</v>
@@ -11421,8 +11486,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="21">
-        <f>I3</f>
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="K4" s="150"/>
       <c r="L4" s="91" t="s">
@@ -11430,21 +11494,21 @@
       </c>
       <c r="M4" s="29">
         <f>$S$12</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N4" s="29" t="s">
         <v>13</v>
       </c>
       <c r="O4" s="29" cm="1">
         <f t="array" ref="O4">_xlfn.IFS(N4="+",ROUNDDOWN(M4*(1-$T$4),2),N4="=",M4)</f>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="P4" s="29" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="29" cm="1">
         <f t="array" ref="Q4">_xlfn.IFS(P4="+",ROUNDDOWN(O4*(1-$T$4),2),P4="=",O4)</f>
-        <v>0.48</v>
+        <v>0.64</v>
       </c>
       <c r="R4" s="29" t="s">
         <v>13</v>
@@ -11463,7 +11527,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>51</v>
@@ -11481,8 +11545,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="20">
-        <f>I3</f>
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="K5" s="150"/>
       <c r="L5" s="90" t="s">
@@ -11490,21 +11553,21 @@
       </c>
       <c r="M5" s="28">
         <f>$U$12</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N5" s="28" t="s">
         <v>13</v>
       </c>
       <c r="O5" s="28" cm="1">
         <f t="array" ref="O5">_xlfn.IFS(N5="+",ROUNDDOWN(M5*(1+$T$5),2),N5="=",M5)</f>
-        <v>3.85</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="P5" s="28" t="s">
         <v>13</v>
       </c>
       <c r="Q5" s="28" cm="1">
         <f t="array" ref="Q5">_xlfn.IFS(P5="+",ROUNDDOWN(O5*(1+$T$5),2),P5="=",O5)</f>
-        <v>4.2300000000000004</v>
+        <v>4.84</v>
       </c>
       <c r="R5" s="28" t="s">
         <v>13</v>
@@ -11546,7 +11609,7 @@
       </c>
       <c r="I6" s="21">
         <f>I3</f>
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K6" s="150"/>
       <c r="L6" s="91" t="s">
@@ -11554,21 +11617,21 @@
       </c>
       <c r="M6" s="29">
         <f>$W$12</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N6" s="29" t="s">
         <v>13</v>
       </c>
       <c r="O6" s="29" cm="1">
         <f t="array" ref="O6">_xlfn.IFS(N6="+",ROUNDDOWN(M6*(1+$T$6),0),N6="=",M6)</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="P6" s="29" t="s">
         <v>13</v>
       </c>
       <c r="Q6" s="29" cm="1">
         <f t="array" ref="Q6">_xlfn.IFS(P6="+",ROUNDDOWN(O6*(1+$T$6),0),P6="=",O6)</f>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="R6" s="29" t="s">
         <v>13</v>
@@ -11609,28 +11672,29 @@
         <v>15</v>
       </c>
       <c r="I7" s="20">
-        <f>I3</f>
-        <v>20</v>
+        <f>I4</f>
+        <v>80</v>
       </c>
       <c r="K7" s="150"/>
       <c r="L7" s="90" t="s">
         <v>78</v>
       </c>
       <c r="M7" s="28">
-        <v>10</v>
+        <f>ROUNDUP(VLOOKUP(K12,TOWER,9,FALSE)/2,0)</f>
+        <v>40</v>
       </c>
       <c r="N7" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="28" cm="1">
-        <f t="array" ref="O7">_xlfn.IFS(N7="+",ROUNDUP(M7*(1+$T$7),0),N7="=",M7)</f>
-        <v>30</v>
-      </c>
-      <c r="P7" s="28" t="s">
+      <c r="O7" s="28">
+        <f>MROUND(M7+ROUNDUP(M7/2,0),5)</f>
+        <v>60</v>
+      </c>
+      <c r="P7" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="28" cm="1">
-        <f t="array" ref="Q7">_xlfn.IFS(P7="+",ROUNDUP(O7*(1+$T$7),0),P7="=",O7)</f>
+      <c r="Q7" s="94">
+        <f>MROUND(O7+ROUNDUP(O7/2,0),5)</f>
         <v>90</v>
       </c>
       <c r="R7" s="28" t="s">
@@ -11672,8 +11736,8 @@
         <v>20</v>
       </c>
       <c r="I8" s="21">
-        <f>I3</f>
-        <v>20</v>
+        <f>I5</f>
+        <v>100</v>
       </c>
       <c r="K8" s="169" t="s">
         <v>60</v>
@@ -11681,12 +11745,12 @@
       <c r="L8" s="169"/>
       <c r="M8" s="28">
         <f>ROUNDDOWN(M3*M9,2)</f>
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="N8" s="28"/>
       <c r="O8" s="28">
         <f>ROUNDDOWN(O3*O9,2)</f>
-        <v>6.51</v>
+        <v>6.5</v>
       </c>
       <c r="P8" s="28"/>
       <c r="Q8" s="28">
@@ -11727,7 +11791,7 @@
       </c>
       <c r="I9" s="20">
         <f>I3</f>
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K9" s="170" t="s">
         <v>46</v>
@@ -11735,17 +11799,17 @@
       <c r="L9" s="170"/>
       <c r="M9" s="29">
         <f>ROUNDDOWN(1/M4,2)</f>
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="N9" s="29"/>
       <c r="O9" s="29">
         <f>ROUND(1/O4,2)</f>
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="P9" s="29"/>
       <c r="Q9" s="29">
         <f>ROUND(1/Q4,2)</f>
-        <v>2.08</v>
+        <v>1.56</v>
       </c>
       <c r="R9" s="29"/>
     </row>
@@ -11780,8 +11844,8 @@
         <v>15</v>
       </c>
       <c r="I10" s="21">
-        <f>I3</f>
-        <v>20</v>
+        <f>I4</f>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -11815,8 +11879,8 @@
         <v>20</v>
       </c>
       <c r="I11" s="20">
-        <f>I3</f>
-        <v>20</v>
+        <f>I5</f>
+        <v>100</v>
       </c>
       <c r="K11" s="165" t="s">
         <v>41</v>
@@ -11847,63 +11911,63 @@
       </c>
       <c r="X11" s="165"/>
       <c r="Y11" s="165" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z11" s="165"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="K12" s="156" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L12" s="156"/>
       <c r="M12" s="129" t="str">
         <f>VLOOKUP($K$12,TOWER,3)</f>
-        <v>Traps</v>
+        <v>Pizza</v>
       </c>
       <c r="N12" s="129"/>
       <c r="O12" s="129" t="str">
         <f>VLOOKUP($K$12,TOWER,4)</f>
-        <v>Canon</v>
+        <v>Mortar</v>
       </c>
       <c r="P12" s="129"/>
       <c r="Q12" s="129">
         <f>VLOOKUP($K$12,TOWER,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R12" s="129"/>
       <c r="S12" s="129">
         <f>VLOOKUP($K$12,TOWER,6)</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T12" s="129"/>
       <c r="U12" s="129">
         <f>VLOOKUP($K$12,TOWER,7)</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="V12" s="129"/>
       <c r="W12" s="129">
         <f>VLOOKUP($K$12,TOWER,8)</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="X12" s="129"/>
       <c r="Y12" s="129">
         <f>VLOOKUP($K$12,TOWER,9)</f>
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="Z12" s="129"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C13" s="168" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="168"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C14" s="166" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="166" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -11982,7 +12046,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L10" xr:uid="{E6E8CE4E-28A1-4DB8-B138-1D7059EC2372}">
       <formula1>STAT_TOWER</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R10 P3:P10 N3:N10 T8:T10 V3:V10" xr:uid="{C77BBF24-DFCE-4151-AAA2-8695D03BF95B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R10 V3:V10 N3:N10 T8:T10 P3:P10" xr:uid="{C77BBF24-DFCE-4151-AAA2-8695D03BF95B}">
       <formula1>SIGN</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12" xr:uid="{A91C467D-D990-41FA-81A0-203403B29185}">
@@ -12006,7 +12070,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>N3:N7 P3:P7 R3:R7</xm:sqref>
+          <xm:sqref>N3:N7 R3:R7 P3:P7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="1" operator="containsText" id="{5A627A3F-8B8B-4B82-9DE7-0E87BD6E5ED1}">
@@ -12020,7 +12084,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>N3:N7 P3:P7 R3:R7</xm:sqref>
+          <xm:sqref>N3:N7 R3:R7 P3:P7</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -12033,7 +12097,7 @@
   <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:F22"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12147,7 +12211,7 @@
         <v>62</v>
       </c>
       <c r="H2" s="73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I2" s="46"/>
       <c r="J2" s="77" t="s">
@@ -12205,7 +12269,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="23">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I3" s="47"/>
       <c r="J3" s="76" t="s">
@@ -12279,7 +12343,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="23">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I4" s="47"/>
       <c r="J4" s="77" t="s">
@@ -12353,7 +12417,7 @@
         <v>7.5</v>
       </c>
       <c r="H5" s="23">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J5" s="76" t="s">
         <v>72</v>
@@ -12430,49 +12494,49 @@
       </c>
       <c r="H6" s="21">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J6" s="77" t="s">
         <v>75</v>
       </c>
       <c r="K6" s="21">
         <f>U9</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L6" s="26" t="s">
         <v>13</v>
       </c>
       <c r="M6" s="21" cm="1">
         <f t="array" ref="M6">_xlfn.IFS(L6="+",ROUNDDOWN($K$6 * (1 + W6) ^ 1,2),L6="=",K6)</f>
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="N6" s="26" t="s">
         <v>13</v>
       </c>
       <c r="O6" s="21" cm="1">
         <f t="array" ref="O6">_xlfn.IFS(L6="+",ROUNDDOWN($K$6 * (1 + W6) ^ 2,2),L6="=",K6)</f>
-        <v>6.75</v>
+        <v>18</v>
       </c>
       <c r="P6" s="26" t="s">
         <v>13</v>
       </c>
       <c r="Q6" s="21" cm="1">
         <f t="array" ref="Q6">_xlfn.IFS(L6="+",ROUNDDOWN($K$6 * (1 + W6) ^ 3,2),L6="=",K6)</f>
-        <v>10.119999999999999</v>
+        <v>27</v>
       </c>
       <c r="R6" s="26" t="s">
         <v>13</v>
       </c>
       <c r="S6" s="21" cm="1">
         <f t="array" ref="S6">_xlfn.IFS(L6="+",ROUNDDOWN($K$6 * (1 + W6) ^ 4,2),L6="=",K6)</f>
-        <v>15.18</v>
+        <v>40.5</v>
       </c>
       <c r="T6" s="26" t="s">
         <v>13</v>
       </c>
       <c r="U6" s="21" cm="1">
         <f t="array" ref="U6">_xlfn.IFS(L6="+",ROUNDDOWN($K$6 * (1 + W6) ^ 5,2),L6="=",K6)</f>
-        <v>22.78</v>
+        <v>60.75</v>
       </c>
       <c r="V6" s="14"/>
       <c r="W6" s="11">
@@ -12507,7 +12571,7 @@
       </c>
       <c r="H7" s="20">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -12538,7 +12602,7 @@
       </c>
       <c r="H8" s="21">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J8" s="88" t="s">
         <v>33</v>
@@ -12595,10 +12659,10 @@
       </c>
       <c r="H9" s="20">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J9" s="83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K9" s="75" t="str">
         <f>VLOOKUP($J$9,ENEMY,3)</f>
@@ -12627,7 +12691,7 @@
       <c r="T9" s="75"/>
       <c r="U9" s="75">
         <f>VLOOKUP($J$9,ENEMY,8)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -12658,7 +12722,7 @@
       </c>
       <c r="H10" s="21">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -12689,7 +12753,7 @@
       </c>
       <c r="H11" s="20">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -12697,16 +12761,16 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C13" s="149" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="149"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C14" s="166" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="166" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -12935,7 +12999,7 @@
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="31"/>
       <c r="C2" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -12961,7 +13025,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H3" s="122" t="s">
         <v>25</v>
@@ -13098,7 +13162,7 @@
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C12" s="172" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="172"/>
       <c r="E12" s="172"/>
@@ -13124,10 +13188,10 @@
         <v>72</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>14</v>
@@ -13139,16 +13203,16 @@
         <v>13</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O13" s="172" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P13" s="172"/>
     </row>
     <row r="14" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -13166,7 +13230,7 @@
         <v>72</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J14" s="54">
         <f>COUNTIF(C14:E14,"=-")</f>
@@ -13195,13 +13259,13 @@
     </row>
     <row r="15" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>12</v>
@@ -13238,7 +13302,7 @@
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>14</v>
@@ -13247,7 +13311,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F16" s="30">
         <v>3</v>
@@ -13278,7 +13342,7 @@
     </row>
     <row r="17" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
@@ -13316,7 +13380,7 @@
     </row>
     <row r="18" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="63" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
@@ -13325,7 +13389,7 @@
         <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F18" s="30">
         <v>5</v>
@@ -13354,10 +13418,10 @@
     </row>
     <row r="19" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>14</v>
@@ -13392,7 +13456,7 @@
     </row>
     <row r="20" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>13</v>
@@ -13430,10 +13494,10 @@
     </row>
     <row r="21" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -13468,13 +13532,13 @@
     </row>
     <row r="22" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>14</v>
@@ -13557,7 +13621,7 @@
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27" s="54">
         <f>COUNTIF(C14:C22,"=++")</f>
@@ -13596,7 +13660,7 @@
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="172" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D31" s="172"/>
       <c r="E31" s="172"/>
@@ -13962,30 +14026,30 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="176" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="176" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="176" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="176" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="176" t="s">
+      <c r="E1" s="176" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="176" t="s">
+      <c r="F1" s="176" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="176" t="s">
+      <c r="G1" s="177" t="s">
         <v>99</v>
-      </c>
-      <c r="G1" s="177" t="s">
-        <v>100</v>
       </c>
       <c r="H1" s="178"/>
       <c r="I1" s="179"/>
       <c r="J1" s="175" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K1" s="175"/>
       <c r="L1" s="175"/>
@@ -14001,19 +14065,19 @@
         <v>72</v>
       </c>
       <c r="H2" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="J2" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="92" t="s">
+      <c r="K2" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="92" t="s">
+      <c r="L2" s="92" t="s">
         <v>105</v>
-      </c>
-      <c r="L2" s="92" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -14031,10 +14095,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="59" t="s">
         <v>107</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>108</v>
       </c>
       <c r="G3" s="57" t="s">
         <v>12</v>
@@ -14061,19 +14125,19 @@
         <v>36</v>
       </c>
       <c r="D4" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="F4" s="60" t="s">
         <v>110</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>111</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I4" s="58" t="s">
         <v>12</v>
@@ -14094,13 +14158,13 @@
         <v>36</v>
       </c>
       <c r="D5" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="F5" s="59" t="s">
         <v>114</v>
-      </c>
-      <c r="F5" s="59" t="s">
-        <v>115</v>
       </c>
       <c r="G5" s="57" t="s">
         <v>14</v>
@@ -14109,7 +14173,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
@@ -14130,10 +14194,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>13</v>
@@ -14160,13 +14224,13 @@
         <v>8</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="59" t="s">
         <v>117</v>
-      </c>
-      <c r="F7" s="59" t="s">
-        <v>118</v>
       </c>
       <c r="G7" s="57" t="s">
         <v>14</v>
@@ -14175,7 +14239,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
@@ -14193,16 +14257,16 @@
         <v>8</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E8" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="60" t="s">
-        <v>120</v>
-      </c>
       <c r="G8" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H8" s="58" t="s">
         <v>14</v>
@@ -14223,16 +14287,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="21">
         <v>1</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G9" s="57" t="s">
         <v>13</v>
@@ -14256,19 +14320,19 @@
         <v>8</v>
       </c>
       <c r="C10" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="F10" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="60" t="s">
-        <v>123</v>
-      </c>
       <c r="G10" s="58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H10" s="58" t="s">
         <v>14</v>
@@ -14289,22 +14353,22 @@
         <v>9</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="59" t="s">
         <v>124</v>
-      </c>
-      <c r="F11" s="59" t="s">
-        <v>125</v>
       </c>
       <c r="G11" s="57" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I11" s="57" t="s">
         <v>14</v>
@@ -14318,15 +14382,15 @@
         <v>72</v>
       </c>
       <c r="H13" s="55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I13" s="55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F14" s="156" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G14" s="129" t="str">
         <f>VLOOKUP($F$14,TOWER_UPGRADE,7)</f>
@@ -14459,16 +14523,16 @@
         <v>17</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H2" s="32" t="s">
         <v>58</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L2" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -14477,7 +14541,7 @@
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E3" s="35"/>
       <c r="F3" s="36" t="s">
@@ -14490,7 +14554,7 @@
         <v>44</v>
       </c>
       <c r="L3" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -14509,10 +14573,10 @@
         <v>44</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L4" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14534,7 +14598,7 @@
         <v>40</v>
       </c>
       <c r="L5" s="41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14588,7 +14652,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>24</v>
@@ -14682,7 +14746,7 @@
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -14692,18 +14756,18 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -14718,12 +14782,12 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/GameDesign/System_Design.xlsx
+++ b/Documents/GameDesign/System_Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\GameSup_GD1\Workshop\Tower_Defense\STD_Workshop\Documents\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE107A02-1301-4EF3-99DE-7B97B78D6295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFBDED7-46BC-4A9C-B4C9-E3580CD99E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{EE4EEEAB-A39E-4793-9971-E358DB8AAF6E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{EE4EEEAB-A39E-4793-9971-E358DB8AAF6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Wave" sheetId="10" r:id="rId1"/>
@@ -5215,8 +5215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECF5610-AFF3-4403-B872-F795309595A3}">
   <dimension ref="A1:AV39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5849,9 +5849,15 @@
       <c r="P11" s="116"/>
       <c r="Q11" s="94"/>
       <c r="R11" s="117"/>
-      <c r="S11" s="116"/>
-      <c r="T11" s="94"/>
-      <c r="U11" s="117"/>
+      <c r="S11" s="116">
+        <v>1</v>
+      </c>
+      <c r="T11" s="94">
+        <v>1</v>
+      </c>
+      <c r="U11" s="117">
+        <v>1</v>
+      </c>
       <c r="V11" s="116"/>
       <c r="W11" s="94"/>
       <c r="X11" s="117"/>
@@ -5970,7 +5976,7 @@
       <c r="R14" s="133"/>
       <c r="S14" s="131">
         <f>S3*T3*VLOOKUP($B$3,ENEMY,7)+S4*T4*VLOOKUP($B$4,ENEMY,7)+S5*T5*VLOOKUP($B$5,ENEMY,7)+S6*T6*VLOOKUP($B$6,ENEMY,7)+S7*T7*VLOOKUP($B$7,ENEMY,7)+S8*T8*VLOOKUP($B$8,ENEMY,7)+S9*T9*VLOOKUP($B$9,ENEMY,7)+S10*T10*VLOOKUP($B$10,ENEMY,7)+S11*T11*VLOOKUP($B$11,ENEMY,7)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="T14" s="132"/>
       <c r="U14" s="133"/>
@@ -6192,37 +6198,37 @@
       <c r="U18" s="130"/>
       <c r="V18" s="128">
         <f t="shared" ref="V18" si="9">S22</f>
-        <v>-89</v>
+        <v>-69</v>
       </c>
       <c r="W18" s="129"/>
       <c r="X18" s="130"/>
       <c r="Y18" s="128">
         <f t="shared" ref="Y18" si="10">V22</f>
-        <v>-89</v>
+        <v>-69</v>
       </c>
       <c r="Z18" s="129"/>
       <c r="AA18" s="130"/>
       <c r="AB18" s="128">
         <f t="shared" ref="AB18" si="11">Y22</f>
-        <v>-89</v>
+        <v>-69</v>
       </c>
       <c r="AC18" s="129"/>
       <c r="AD18" s="130"/>
       <c r="AE18" s="128">
         <f t="shared" ref="AE18" si="12">AB22</f>
-        <v>-89</v>
+        <v>-69</v>
       </c>
       <c r="AF18" s="129"/>
       <c r="AG18" s="130"/>
       <c r="AH18" s="128">
         <f t="shared" ref="AH18" si="13">AE22</f>
-        <v>-89</v>
+        <v>-69</v>
       </c>
       <c r="AI18" s="129"/>
       <c r="AJ18" s="130"/>
       <c r="AK18" s="128">
         <f t="shared" ref="AK18" si="14">AH22</f>
-        <v>-89</v>
+        <v>-69</v>
       </c>
       <c r="AL18" s="129"/>
       <c r="AM18" s="130"/>
@@ -6417,7 +6423,7 @@
       <c r="R21" s="136"/>
       <c r="S21" s="134">
         <f>S3*T3*VLOOKUP($B$3,ENEMY,8)+S4*T4*VLOOKUP($B$4,ENEMY,8)+S5*T5*VLOOKUP($B$5,ENEMY,8)+S6*T6*VLOOKUP($B$6,ENEMY,8)+S7*T7*VLOOKUP($B$7,ENEMY,8)+S8*T8*VLOOKUP($B$8,ENEMY,8)+S9*T9*VLOOKUP($B$9,ENEMY,8)+S10*T10*VLOOKUP($B$10,ENEMY,8)+S11*T11*VLOOKUP($B$11,ENEMY,8)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T21" s="135"/>
       <c r="U21" s="136"/>
@@ -6494,43 +6500,43 @@
       <c r="R22" s="130"/>
       <c r="S22" s="128">
         <f t="shared" ref="S22" si="18">S18-(S19+S20)+S21</f>
-        <v>-89</v>
+        <v>-69</v>
       </c>
       <c r="T22" s="129"/>
       <c r="U22" s="130"/>
       <c r="V22" s="128">
         <f t="shared" ref="V22" si="19">V18-(V19+V20)+V21</f>
-        <v>-89</v>
+        <v>-69</v>
       </c>
       <c r="W22" s="129"/>
       <c r="X22" s="130"/>
       <c r="Y22" s="128">
         <f t="shared" ref="Y22" si="20">Y18-(Y19+Y20)+Y21</f>
-        <v>-89</v>
+        <v>-69</v>
       </c>
       <c r="Z22" s="129"/>
       <c r="AA22" s="130"/>
       <c r="AB22" s="128">
         <f t="shared" ref="AB22" si="21">AB18-(AB19+AB20)+AB21</f>
-        <v>-89</v>
+        <v>-69</v>
       </c>
       <c r="AC22" s="129"/>
       <c r="AD22" s="130"/>
       <c r="AE22" s="128">
         <f t="shared" ref="AE22" si="22">AE18-(AE19+AE20)+AE21</f>
-        <v>-89</v>
+        <v>-69</v>
       </c>
       <c r="AF22" s="129"/>
       <c r="AG22" s="130"/>
       <c r="AH22" s="128">
         <f t="shared" ref="AH22" si="23">AH18-(AH19+AH20)+AH21</f>
-        <v>-89</v>
+        <v>-69</v>
       </c>
       <c r="AI22" s="129"/>
       <c r="AJ22" s="130"/>
       <c r="AK22" s="128">
         <f t="shared" ref="AK22" si="24">AK18-(AK19+AK20)+AK21</f>
-        <v>-89</v>
+        <v>-69</v>
       </c>
       <c r="AL22" s="129"/>
       <c r="AM22" s="130"/>
@@ -10755,7 +10761,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11272,7 +11278,7 @@
   <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12:L12"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12097,7 +12103,7 @@
   <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12986,8 +12992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483C23BD-B808-464E-B86B-8B4FE0CBBEE3}">
   <dimension ref="B2:P38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/GameDesign/System_Design.xlsx
+++ b/Documents/GameDesign/System_Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\GameSup_GD1\Workshop\Tower_Defense\STD_Workshop\Documents\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFBDED7-46BC-4A9C-B4C9-E3580CD99E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F555A5-58B8-409E-9563-B04AA8AD988B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{EE4EEEAB-A39E-4793-9971-E358DB8AAF6E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{EE4EEEAB-A39E-4793-9971-E358DB8AAF6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Wave" sheetId="10" r:id="rId1"/>
@@ -1511,6 +1511,63 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1520,15 +1577,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1538,93 +1586,60 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1652,35 +1667,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1688,14 +1688,7 @@
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
     <cellStyle name="Titre 3" xfId="2" builtinId="18"/>
   </cellStyles>
-  <dxfs count="139">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDA2020"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="136">
     <dxf>
       <fill>
         <patternFill>
@@ -1707,20 +1700,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFDA2020"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE45E5E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3038,66 +3017,66 @@
   <sheetData>
     <row r="1" spans="1:48" s="111" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="108"/>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="140" t="s">
+      <c r="C1" s="153" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="142" t="s">
+      <c r="D1" s="135" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="143"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="142" t="s">
+      <c r="E1" s="136"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="135" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="143"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="142" t="s">
+      <c r="H1" s="136"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="135" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="143"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="142" t="s">
+      <c r="K1" s="136"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="135" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="143"/>
-      <c r="O1" s="144"/>
-      <c r="P1" s="142" t="s">
+      <c r="N1" s="136"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="135" t="s">
         <v>177</v>
       </c>
-      <c r="Q1" s="143"/>
-      <c r="R1" s="144"/>
-      <c r="S1" s="142" t="s">
+      <c r="Q1" s="136"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="135" t="s">
         <v>178</v>
       </c>
-      <c r="T1" s="143"/>
-      <c r="U1" s="144"/>
-      <c r="V1" s="142" t="s">
+      <c r="T1" s="136"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="135" t="s">
         <v>206</v>
       </c>
-      <c r="W1" s="143"/>
-      <c r="X1" s="144"/>
-      <c r="Y1" s="142" t="s">
+      <c r="W1" s="136"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="135" t="s">
         <v>207</v>
       </c>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="144"/>
-      <c r="AB1" s="142" t="s">
+      <c r="Z1" s="136"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="135" t="s">
         <v>208</v>
       </c>
-      <c r="AC1" s="143"/>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="142"/>
-      <c r="AF1" s="143"/>
-      <c r="AG1" s="144"/>
-      <c r="AH1" s="142"/>
-      <c r="AI1" s="143"/>
-      <c r="AJ1" s="144"/>
-      <c r="AK1" s="142"/>
-      <c r="AL1" s="143"/>
-      <c r="AM1" s="144"/>
+      <c r="AC1" s="136"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="137"/>
+      <c r="AH1" s="135"/>
+      <c r="AI1" s="136"/>
+      <c r="AJ1" s="137"/>
+      <c r="AK1" s="135"/>
+      <c r="AL1" s="136"/>
+      <c r="AM1" s="137"/>
       <c r="AN1" s="123"/>
       <c r="AO1" s="123"/>
       <c r="AP1" s="123"/>
@@ -3110,8 +3089,8 @@
     </row>
     <row r="2" spans="1:48" s="127" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="109"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="141"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="154"/>
       <c r="D2" s="124" t="s">
         <v>179</v>
       </c>
@@ -3735,519 +3714,519 @@
       <c r="AM11" s="113"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="D12" s="131"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="133"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="143"/>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B13" s="82" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="145">
+      <c r="D13" s="144">
         <v>100</v>
       </c>
-      <c r="E13" s="146"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="137">
+      <c r="E13" s="145"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="138">
         <f>D16</f>
         <v>100</v>
       </c>
-      <c r="H13" s="138"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="137">
+      <c r="H13" s="139"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="138">
         <f>G16</f>
         <v>94</v>
       </c>
-      <c r="K13" s="138"/>
-      <c r="L13" s="139"/>
-      <c r="M13" s="137">
+      <c r="K13" s="139"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="138">
         <f>J16</f>
         <v>84</v>
       </c>
-      <c r="N13" s="138"/>
-      <c r="O13" s="139"/>
-      <c r="P13" s="137">
+      <c r="N13" s="139"/>
+      <c r="O13" s="140"/>
+      <c r="P13" s="138">
         <f>M16</f>
         <v>78</v>
       </c>
-      <c r="Q13" s="138"/>
-      <c r="R13" s="139"/>
-      <c r="S13" s="137">
+      <c r="Q13" s="139"/>
+      <c r="R13" s="140"/>
+      <c r="S13" s="138">
         <f>P16</f>
         <v>69</v>
       </c>
-      <c r="T13" s="138"/>
-      <c r="U13" s="139"/>
-      <c r="V13" s="137"/>
-      <c r="W13" s="138"/>
-      <c r="X13" s="139"/>
-      <c r="Y13" s="137"/>
-      <c r="Z13" s="138"/>
-      <c r="AA13" s="139"/>
-      <c r="AB13" s="137"/>
-      <c r="AC13" s="138"/>
-      <c r="AD13" s="139"/>
-      <c r="AE13" s="137"/>
-      <c r="AF13" s="138"/>
-      <c r="AG13" s="139"/>
-      <c r="AH13" s="137"/>
-      <c r="AI13" s="138"/>
-      <c r="AJ13" s="139"/>
-      <c r="AK13" s="137"/>
-      <c r="AL13" s="138"/>
-      <c r="AM13" s="139"/>
+      <c r="T13" s="139"/>
+      <c r="U13" s="140"/>
+      <c r="V13" s="138"/>
+      <c r="W13" s="139"/>
+      <c r="X13" s="140"/>
+      <c r="Y13" s="138"/>
+      <c r="Z13" s="139"/>
+      <c r="AA13" s="140"/>
+      <c r="AB13" s="138"/>
+      <c r="AC13" s="139"/>
+      <c r="AD13" s="140"/>
+      <c r="AE13" s="138"/>
+      <c r="AF13" s="139"/>
+      <c r="AG13" s="140"/>
+      <c r="AH13" s="138"/>
+      <c r="AI13" s="139"/>
+      <c r="AJ13" s="140"/>
+      <c r="AK13" s="138"/>
+      <c r="AL13" s="139"/>
+      <c r="AM13" s="140"/>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B14" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="D14" s="131">
+      <c r="D14" s="141">
         <f>D3*VLOOKUP($B$3,ENEMY,7)+D4*VLOOKUP($B$4,ENEMY,7)+D5*VLOOKUP($B$5,ENEMY,7)+D6*VLOOKUP($B$6,ENEMY,7)+D7*VLOOKUP($B$7,ENEMY,7)+D8*VLOOKUP($B$8,ENEMY,7)+D9*VLOOKUP($B$9,ENEMY,7)+D10*VLOOKUP($B$10,ENEMY,7)+D11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="132"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="131">
+      <c r="E14" s="142"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="141">
         <f>G3*H3*VLOOKUP($B$3,ENEMY,7)+G4*H4*VLOOKUP($B$4,ENEMY,7)+G5*H5*VLOOKUP($B$5,ENEMY,7)+G6*H6*VLOOKUP($B$6,ENEMY,7)+G7*H7*VLOOKUP($B$7,ENEMY,7)+G8*H8*VLOOKUP($B$8,ENEMY,7)+G9*H9*VLOOKUP($B$9,ENEMY,7)+G10*H10*VLOOKUP($B$10,ENEMY,7)+G11*H11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>270</v>
       </c>
-      <c r="H14" s="132"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="131">
+      <c r="H14" s="142"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="141">
         <f>J3*K3*VLOOKUP($B$3,ENEMY,7)+J4*K4*VLOOKUP($B$4,ENEMY,7)+J5*K5*VLOOKUP($B$5,ENEMY,7)+J6*K6*VLOOKUP($B$6,ENEMY,7)+J7*K7*VLOOKUP($B$7,ENEMY,7)+J8*K8*VLOOKUP($B$8,ENEMY,7)+J9*K9*VLOOKUP($B$9,ENEMY,7)+J10*K10*VLOOKUP($B$10,ENEMY,7)+J11*K11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>450</v>
       </c>
-      <c r="K14" s="132"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="131">
+      <c r="K14" s="142"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="141">
         <f>M3*N3*VLOOKUP($B$3,ENEMY,7)+M4*N4*VLOOKUP($B$4,ENEMY,7)+M5*N5*VLOOKUP($B$5,ENEMY,7)+M6*N6*VLOOKUP($B$6,ENEMY,7)+M7*N7*VLOOKUP($B$7,ENEMY,7)+M8*N8*VLOOKUP($B$8,ENEMY,7)+M9*N9*VLOOKUP($B$9,ENEMY,7)+M10*N10*VLOOKUP($B$10,ENEMY,7)+M11*N11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>135</v>
       </c>
-      <c r="N14" s="132"/>
-      <c r="O14" s="133"/>
-      <c r="P14" s="131">
+      <c r="N14" s="142"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="141">
         <f>P3*Q3*VLOOKUP($B$3,ENEMY,7)+P4*Q4*VLOOKUP($B$4,ENEMY,7)+P5*Q5*VLOOKUP($B$5,ENEMY,7)+P6*Q6*VLOOKUP($B$6,ENEMY,7)+P7*Q7*VLOOKUP($B$7,ENEMY,7)+P8*Q8*VLOOKUP($B$8,ENEMY,7)+P9*Q9*VLOOKUP($B$9,ENEMY,7)+P10*Q10*VLOOKUP($B$10,ENEMY,7)+P11*Q11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>2520</v>
       </c>
-      <c r="Q14" s="132"/>
-      <c r="R14" s="133"/>
-      <c r="S14" s="131">
+      <c r="Q14" s="142"/>
+      <c r="R14" s="143"/>
+      <c r="S14" s="141">
         <f>S3*T3*VLOOKUP($B$3,ENEMY,7)+S4*T4*VLOOKUP($B$4,ENEMY,7)+S5*T5*VLOOKUP($B$5,ENEMY,7)+S6*T6*VLOOKUP($B$6,ENEMY,7)+S7*T7*VLOOKUP($B$7,ENEMY,7)+S8*T8*VLOOKUP($B$8,ENEMY,7)+S9*T9*VLOOKUP($B$9,ENEMY,7)+S10*T10*VLOOKUP($B$10,ENEMY,7)+S11*T11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>13500</v>
       </c>
-      <c r="T14" s="132"/>
-      <c r="U14" s="133"/>
-      <c r="V14" s="131"/>
-      <c r="W14" s="132"/>
-      <c r="X14" s="133"/>
-      <c r="Y14" s="131"/>
-      <c r="Z14" s="132"/>
-      <c r="AA14" s="133"/>
-      <c r="AB14" s="131"/>
-      <c r="AC14" s="132"/>
-      <c r="AD14" s="133"/>
-      <c r="AE14" s="131"/>
-      <c r="AF14" s="132"/>
-      <c r="AG14" s="133"/>
-      <c r="AH14" s="131"/>
-      <c r="AI14" s="132"/>
-      <c r="AJ14" s="133"/>
-      <c r="AK14" s="131"/>
-      <c r="AL14" s="132"/>
-      <c r="AM14" s="133"/>
+      <c r="T14" s="142"/>
+      <c r="U14" s="143"/>
+      <c r="V14" s="141"/>
+      <c r="W14" s="142"/>
+      <c r="X14" s="143"/>
+      <c r="Y14" s="141"/>
+      <c r="Z14" s="142"/>
+      <c r="AA14" s="143"/>
+      <c r="AB14" s="141"/>
+      <c r="AC14" s="142"/>
+      <c r="AD14" s="143"/>
+      <c r="AE14" s="141"/>
+      <c r="AF14" s="142"/>
+      <c r="AG14" s="143"/>
+      <c r="AH14" s="141"/>
+      <c r="AI14" s="142"/>
+      <c r="AJ14" s="143"/>
+      <c r="AK14" s="141"/>
+      <c r="AL14" s="142"/>
+      <c r="AM14" s="143"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B15" s="86" t="s">
         <v>205</v>
       </c>
-      <c r="D15" s="131">
+      <c r="D15" s="141">
         <f>D25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+D26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+D27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+D28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+D29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+D30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+D31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+D32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+D33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
         <v>4.5</v>
       </c>
-      <c r="E15" s="132"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="131">
+      <c r="E15" s="142"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="141">
         <f>G25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+G26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+G27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+G28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+G29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+G30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+G31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+G32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+G33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
         <v>43.5</v>
       </c>
-      <c r="H15" s="132"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="131">
+      <c r="H15" s="142"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="141">
         <f>J25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+J26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+J27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+J28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+J29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+J30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+J31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+J32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+J33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
         <v>43.5</v>
       </c>
-      <c r="K15" s="132"/>
-      <c r="L15" s="133"/>
-      <c r="M15" s="131">
+      <c r="K15" s="142"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="141">
         <f>M25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+M26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+M27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+M28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+M29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+M30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+M31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+M32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+M33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
         <v>24.25</v>
       </c>
-      <c r="N15" s="132"/>
-      <c r="O15" s="133"/>
-      <c r="P15" s="131">
+      <c r="N15" s="142"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="141">
         <f>P25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+P26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+P27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+P28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+P29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+P30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+P31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+P32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+P33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
         <v>274.5</v>
       </c>
-      <c r="Q15" s="132"/>
-      <c r="R15" s="133"/>
-      <c r="S15" s="131">
+      <c r="Q15" s="142"/>
+      <c r="R15" s="143"/>
+      <c r="S15" s="141">
         <f>S25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+S26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+S27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+S28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+S29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+S30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+S31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+S32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+S33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
         <v>1439.75</v>
       </c>
-      <c r="T15" s="132"/>
-      <c r="U15" s="133"/>
-      <c r="V15" s="131"/>
-      <c r="W15" s="132"/>
-      <c r="X15" s="133"/>
-      <c r="Y15" s="131"/>
-      <c r="Z15" s="132"/>
-      <c r="AA15" s="133"/>
-      <c r="AB15" s="131"/>
-      <c r="AC15" s="132"/>
-      <c r="AD15" s="133"/>
-      <c r="AE15" s="131"/>
-      <c r="AF15" s="132"/>
-      <c r="AG15" s="133"/>
-      <c r="AH15" s="131"/>
-      <c r="AI15" s="132"/>
-      <c r="AJ15" s="133"/>
-      <c r="AK15" s="131"/>
-      <c r="AL15" s="132"/>
-      <c r="AM15" s="133"/>
+      <c r="T15" s="142"/>
+      <c r="U15" s="143"/>
+      <c r="V15" s="141"/>
+      <c r="W15" s="142"/>
+      <c r="X15" s="143"/>
+      <c r="Y15" s="141"/>
+      <c r="Z15" s="142"/>
+      <c r="AA15" s="143"/>
+      <c r="AB15" s="141"/>
+      <c r="AC15" s="142"/>
+      <c r="AD15" s="143"/>
+      <c r="AE15" s="141"/>
+      <c r="AF15" s="142"/>
+      <c r="AG15" s="143"/>
+      <c r="AH15" s="141"/>
+      <c r="AI15" s="142"/>
+      <c r="AJ15" s="143"/>
+      <c r="AK15" s="141"/>
+      <c r="AL15" s="142"/>
+      <c r="AM15" s="143"/>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B16" s="86" t="s">
         <v>183</v>
       </c>
-      <c r="D16" s="137">
+      <c r="D16" s="138">
         <f>D13-D14</f>
         <v>100</v>
       </c>
-      <c r="E16" s="138"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="137">
+      <c r="E16" s="139"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="138">
         <f>ROUND(G13-(G14/G15),0)</f>
         <v>94</v>
       </c>
-      <c r="H16" s="138"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="137">
+      <c r="H16" s="139"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="138">
         <f t="shared" ref="J16" si="1">ROUND(J13-(J14/J15),0)</f>
         <v>84</v>
       </c>
-      <c r="K16" s="138"/>
-      <c r="L16" s="139"/>
-      <c r="M16" s="137">
+      <c r="K16" s="139"/>
+      <c r="L16" s="140"/>
+      <c r="M16" s="138">
         <f t="shared" ref="M16" si="2">ROUND(M13-(M14/M15),0)</f>
         <v>78</v>
       </c>
-      <c r="N16" s="138"/>
-      <c r="O16" s="139"/>
-      <c r="P16" s="137">
+      <c r="N16" s="139"/>
+      <c r="O16" s="140"/>
+      <c r="P16" s="138">
         <f t="shared" ref="P16" si="3">ROUND(P13-(P14/P15),0)</f>
         <v>69</v>
       </c>
-      <c r="Q16" s="138"/>
-      <c r="R16" s="139"/>
-      <c r="S16" s="137">
+      <c r="Q16" s="139"/>
+      <c r="R16" s="140"/>
+      <c r="S16" s="138">
         <f t="shared" ref="S16" si="4">ROUND(S13-(S14/S15),0)</f>
         <v>60</v>
       </c>
-      <c r="T16" s="138"/>
-      <c r="U16" s="139"/>
-      <c r="V16" s="137"/>
-      <c r="W16" s="138"/>
-      <c r="X16" s="139"/>
-      <c r="Y16" s="137"/>
-      <c r="Z16" s="138"/>
-      <c r="AA16" s="139"/>
-      <c r="AB16" s="137"/>
-      <c r="AC16" s="138"/>
-      <c r="AD16" s="139"/>
-      <c r="AE16" s="137"/>
-      <c r="AF16" s="138"/>
-      <c r="AG16" s="139"/>
-      <c r="AH16" s="137"/>
-      <c r="AI16" s="138"/>
-      <c r="AJ16" s="139"/>
-      <c r="AK16" s="137"/>
-      <c r="AL16" s="138"/>
-      <c r="AM16" s="139"/>
+      <c r="T16" s="139"/>
+      <c r="U16" s="140"/>
+      <c r="V16" s="138"/>
+      <c r="W16" s="139"/>
+      <c r="X16" s="140"/>
+      <c r="Y16" s="138"/>
+      <c r="Z16" s="139"/>
+      <c r="AA16" s="140"/>
+      <c r="AB16" s="138"/>
+      <c r="AC16" s="139"/>
+      <c r="AD16" s="140"/>
+      <c r="AE16" s="138"/>
+      <c r="AF16" s="139"/>
+      <c r="AG16" s="140"/>
+      <c r="AH16" s="138"/>
+      <c r="AI16" s="139"/>
+      <c r="AJ16" s="140"/>
+      <c r="AK16" s="138"/>
+      <c r="AL16" s="139"/>
+      <c r="AM16" s="140"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C17" s="31"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="131"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="133"/>
-      <c r="M17" s="131"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="133"/>
-      <c r="P17" s="131"/>
-      <c r="Q17" s="132"/>
-      <c r="R17" s="133"/>
-      <c r="S17" s="131"/>
-      <c r="T17" s="132"/>
-      <c r="U17" s="133"/>
-      <c r="V17" s="131"/>
-      <c r="W17" s="132"/>
-      <c r="X17" s="133"/>
-      <c r="Y17" s="131"/>
-      <c r="Z17" s="132"/>
-      <c r="AA17" s="133"/>
-      <c r="AB17" s="131"/>
-      <c r="AC17" s="132"/>
-      <c r="AD17" s="133"/>
-      <c r="AE17" s="131"/>
-      <c r="AF17" s="132"/>
-      <c r="AG17" s="133"/>
-      <c r="AH17" s="131"/>
-      <c r="AI17" s="132"/>
-      <c r="AJ17" s="133"/>
-      <c r="AK17" s="131"/>
-      <c r="AL17" s="132"/>
-      <c r="AM17" s="133"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="141"/>
+      <c r="N17" s="142"/>
+      <c r="O17" s="143"/>
+      <c r="P17" s="141"/>
+      <c r="Q17" s="142"/>
+      <c r="R17" s="143"/>
+      <c r="S17" s="141"/>
+      <c r="T17" s="142"/>
+      <c r="U17" s="143"/>
+      <c r="V17" s="141"/>
+      <c r="W17" s="142"/>
+      <c r="X17" s="143"/>
+      <c r="Y17" s="141"/>
+      <c r="Z17" s="142"/>
+      <c r="AA17" s="143"/>
+      <c r="AB17" s="141"/>
+      <c r="AC17" s="142"/>
+      <c r="AD17" s="143"/>
+      <c r="AE17" s="141"/>
+      <c r="AF17" s="142"/>
+      <c r="AG17" s="143"/>
+      <c r="AH17" s="141"/>
+      <c r="AI17" s="142"/>
+      <c r="AJ17" s="143"/>
+      <c r="AK17" s="141"/>
+      <c r="AL17" s="142"/>
+      <c r="AM17" s="143"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B18" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="128">
+      <c r="D18" s="147">
         <f>Tower!I3*2+Tower!I3/2</f>
         <v>225</v>
       </c>
-      <c r="E18" s="129"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="128">
+      <c r="E18" s="148"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="147">
         <f>D21</f>
         <v>25</v>
       </c>
-      <c r="H18" s="129"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="128">
+      <c r="H18" s="148"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="147">
         <f t="shared" ref="J18" si="5">G21</f>
         <v>-253</v>
       </c>
-      <c r="K18" s="129"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="128">
+      <c r="K18" s="148"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="147">
         <f t="shared" ref="M18" si="6">J21</f>
         <v>537</v>
       </c>
-      <c r="N18" s="129"/>
-      <c r="O18" s="130"/>
-      <c r="P18" s="128">
+      <c r="N18" s="148"/>
+      <c r="O18" s="149"/>
+      <c r="P18" s="147">
         <f t="shared" ref="P18" si="7">M21</f>
         <v>537</v>
       </c>
-      <c r="Q18" s="129"/>
-      <c r="R18" s="130"/>
-      <c r="S18" s="128">
+      <c r="Q18" s="148"/>
+      <c r="R18" s="149"/>
+      <c r="S18" s="147">
         <f t="shared" ref="S18" si="8">P21</f>
         <v>2517</v>
       </c>
-      <c r="T18" s="129"/>
-      <c r="U18" s="130"/>
-      <c r="V18" s="128"/>
-      <c r="W18" s="129"/>
-      <c r="X18" s="130"/>
-      <c r="Y18" s="128"/>
-      <c r="Z18" s="129"/>
-      <c r="AA18" s="130"/>
-      <c r="AB18" s="128"/>
-      <c r="AC18" s="129"/>
-      <c r="AD18" s="130"/>
-      <c r="AE18" s="128"/>
-      <c r="AF18" s="129"/>
-      <c r="AG18" s="130"/>
-      <c r="AH18" s="128"/>
-      <c r="AI18" s="129"/>
-      <c r="AJ18" s="130"/>
-      <c r="AK18" s="128"/>
-      <c r="AL18" s="129"/>
-      <c r="AM18" s="130"/>
+      <c r="T18" s="148"/>
+      <c r="U18" s="149"/>
+      <c r="V18" s="147"/>
+      <c r="W18" s="148"/>
+      <c r="X18" s="149"/>
+      <c r="Y18" s="147"/>
+      <c r="Z18" s="148"/>
+      <c r="AA18" s="149"/>
+      <c r="AB18" s="147"/>
+      <c r="AC18" s="148"/>
+      <c r="AD18" s="149"/>
+      <c r="AE18" s="147"/>
+      <c r="AF18" s="148"/>
+      <c r="AG18" s="149"/>
+      <c r="AH18" s="147"/>
+      <c r="AI18" s="148"/>
+      <c r="AJ18" s="149"/>
+      <c r="AK18" s="147"/>
+      <c r="AL18" s="148"/>
+      <c r="AM18" s="149"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B19" s="86" t="s">
         <v>185</v>
       </c>
-      <c r="D19" s="134">
+      <c r="D19" s="150">
         <f>D25*VLOOKUP($B$25,TOWER,9)+D26*VLOOKUP($B$26,TOWER,9)+D27*VLOOKUP($B$27,TOWER,9)+D28*VLOOKUP($B$28,TOWER,9)+D29*VLOOKUP($B$29,TOWER,9)+D30*VLOOKUP($B$30,TOWER,9)+D31*VLOOKUP($B$31,TOWER,9)+D32*VLOOKUP($B$32,TOWER,9)+D33*VLOOKUP($B$33,TOWER,9)</f>
         <v>200</v>
       </c>
-      <c r="E19" s="135"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="134">
+      <c r="E19" s="151"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="150">
         <f>G25*VLOOKUP($B$25,TOWER,9)+G26*VLOOKUP($B$26,TOWER,9)+G27*VLOOKUP($B$27,TOWER,9)+G28*VLOOKUP($B$28,TOWER,9)+G29*VLOOKUP($B$29,TOWER,9)+G30*VLOOKUP($B$30,TOWER,9)+G31*VLOOKUP($B$31,TOWER,9)+G32*VLOOKUP($B$32,TOWER,9)+G33*VLOOKUP($B$33,TOWER,9)</f>
         <v>710</v>
       </c>
-      <c r="H19" s="135"/>
-      <c r="I19" s="136"/>
-      <c r="J19" s="134">
+      <c r="H19" s="151"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="150">
         <f>J25*VLOOKUP($B$25,TOWER,9)+J26*VLOOKUP($B$26,TOWER,9)+J27*VLOOKUP($B$27,TOWER,9)+J28*VLOOKUP($B$28,TOWER,9)+J29*VLOOKUP($B$29,TOWER,9)+J30*VLOOKUP($B$30,TOWER,9)+J31*VLOOKUP($B$31,TOWER,9)+J32*VLOOKUP($B$32,TOWER,9)+J33*VLOOKUP($B$33,TOWER,9)</f>
         <v>710</v>
       </c>
-      <c r="K19" s="135"/>
-      <c r="L19" s="136"/>
-      <c r="M19" s="134">
+      <c r="K19" s="151"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="150">
         <f>M25*VLOOKUP($B$25,TOWER,9)+M26*VLOOKUP($B$26,TOWER,9)+M27*VLOOKUP($B$27,TOWER,9)+M28*VLOOKUP($B$28,TOWER,9)+M29*VLOOKUP($B$29,TOWER,9)+M30*VLOOKUP($B$30,TOWER,9)+M31*VLOOKUP($B$31,TOWER,9)+M32*VLOOKUP($B$32,TOWER,9)+M33*VLOOKUP($B$33,TOWER,9)</f>
         <v>360</v>
       </c>
-      <c r="N19" s="135"/>
-      <c r="O19" s="136"/>
-      <c r="P19" s="134">
+      <c r="N19" s="151"/>
+      <c r="O19" s="152"/>
+      <c r="P19" s="150">
         <f>P25*VLOOKUP($B$25,TOWER,9)+P26*VLOOKUP($B$26,TOWER,9)+P27*VLOOKUP($B$27,TOWER,9)+P28*VLOOKUP($B$28,TOWER,9)+P29*VLOOKUP($B$29,TOWER,9)+P30*VLOOKUP($B$30,TOWER,9)+P31*VLOOKUP($B$31,TOWER,9)+P32*VLOOKUP($B$32,TOWER,9)+P33*VLOOKUP($B$33,TOWER,9)</f>
         <v>4860</v>
       </c>
-      <c r="Q19" s="135"/>
-      <c r="R19" s="136"/>
-      <c r="S19" s="134">
+      <c r="Q19" s="151"/>
+      <c r="R19" s="152"/>
+      <c r="S19" s="150">
         <f>S25*VLOOKUP($B$25,TOWER,9)+S26*VLOOKUP($B$26,TOWER,9)+S27*VLOOKUP($B$27,TOWER,9)+S28*VLOOKUP($B$28,TOWER,9)+S29*VLOOKUP($B$29,TOWER,9)+S30*VLOOKUP($B$30,TOWER,9)+S31*VLOOKUP($B$31,TOWER,9)+S32*VLOOKUP($B$32,TOWER,9)+S33*VLOOKUP($B$33,TOWER,9)</f>
         <v>25560</v>
       </c>
-      <c r="T19" s="135"/>
-      <c r="U19" s="136"/>
-      <c r="V19" s="134"/>
-      <c r="W19" s="135"/>
-      <c r="X19" s="136"/>
-      <c r="Y19" s="134"/>
-      <c r="Z19" s="135"/>
-      <c r="AA19" s="136"/>
-      <c r="AB19" s="134"/>
-      <c r="AC19" s="135"/>
-      <c r="AD19" s="136"/>
-      <c r="AE19" s="134"/>
-      <c r="AF19" s="135"/>
-      <c r="AG19" s="136"/>
-      <c r="AH19" s="134"/>
-      <c r="AI19" s="135"/>
-      <c r="AJ19" s="136"/>
-      <c r="AK19" s="134"/>
-      <c r="AL19" s="135"/>
-      <c r="AM19" s="136"/>
+      <c r="T19" s="151"/>
+      <c r="U19" s="152"/>
+      <c r="V19" s="150"/>
+      <c r="W19" s="151"/>
+      <c r="X19" s="152"/>
+      <c r="Y19" s="150"/>
+      <c r="Z19" s="151"/>
+      <c r="AA19" s="152"/>
+      <c r="AB19" s="150"/>
+      <c r="AC19" s="151"/>
+      <c r="AD19" s="152"/>
+      <c r="AE19" s="150"/>
+      <c r="AF19" s="151"/>
+      <c r="AG19" s="152"/>
+      <c r="AH19" s="150"/>
+      <c r="AI19" s="151"/>
+      <c r="AJ19" s="152"/>
+      <c r="AK19" s="150"/>
+      <c r="AL19" s="151"/>
+      <c r="AM19" s="152"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B20" s="86" t="s">
         <v>186</v>
       </c>
-      <c r="D20" s="128">
+      <c r="D20" s="147">
         <f>D3*VLOOKUP($B$3,ENEMY,8)+D4*VLOOKUP($B$4,ENEMY,8)+D5*VLOOKUP($B$5,ENEMY,8)+D6*VLOOKUP($B$6,ENEMY,8)+D7*VLOOKUP($B$7,ENEMY,8)+D8*VLOOKUP($B$8,ENEMY,8)+D9*VLOOKUP($B$9,ENEMY,8)+D10*VLOOKUP($B$10,ENEMY,8)+D11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="129"/>
-      <c r="F20" s="130"/>
-      <c r="G20" s="128">
+      <c r="E20" s="148"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="147">
         <f>G3*H3*VLOOKUP($B$3,ENEMY,8)+G4*H4*VLOOKUP($B$4,ENEMY,8)+G5*H5*VLOOKUP($B$5,ENEMY,8)+G6*H6*VLOOKUP($B$6,ENEMY,8)+G7*H7*VLOOKUP($B$7,ENEMY,8)+G8*H8*VLOOKUP($B$8,ENEMY,8)+G9*H9*VLOOKUP($B$9,ENEMY,8)+G10*H10*VLOOKUP($B$10,ENEMY,8)+G11*H11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>432</v>
       </c>
-      <c r="H20" s="129"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="128">
+      <c r="H20" s="148"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="147">
         <f>J3*K3*VLOOKUP($B$3,ENEMY,8)+J4*K4*VLOOKUP($B$4,ENEMY,8)+J5*K5*VLOOKUP($B$5,ENEMY,8)+J6*K6*VLOOKUP($B$6,ENEMY,8)+J7*K7*VLOOKUP($B$7,ENEMY,8)+J8*K8*VLOOKUP($B$8,ENEMY,8)+J9*K9*VLOOKUP($B$9,ENEMY,8)+J10*K10*VLOOKUP($B$10,ENEMY,8)+J11*K11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>1500</v>
       </c>
-      <c r="K20" s="129"/>
-      <c r="L20" s="130"/>
-      <c r="M20" s="128">
+      <c r="K20" s="148"/>
+      <c r="L20" s="149"/>
+      <c r="M20" s="147">
         <f>M3*N3*VLOOKUP($B$3,ENEMY,8)+M4*N4*VLOOKUP($B$4,ENEMY,8)+M5*N5*VLOOKUP($B$5,ENEMY,8)+M6*N6*VLOOKUP($B$6,ENEMY,8)+M7*N7*VLOOKUP($B$7,ENEMY,8)+M8*N8*VLOOKUP($B$8,ENEMY,8)+M9*N9*VLOOKUP($B$9,ENEMY,8)+M10*N10*VLOOKUP($B$10,ENEMY,8)+M11*N11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>360</v>
       </c>
-      <c r="N20" s="129"/>
-      <c r="O20" s="130"/>
-      <c r="P20" s="128">
+      <c r="N20" s="148"/>
+      <c r="O20" s="149"/>
+      <c r="P20" s="147">
         <f>P3*Q3*VLOOKUP($B$3,ENEMY,8)+P4*Q4*VLOOKUP($B$4,ENEMY,8)+P5*Q5*VLOOKUP($B$5,ENEMY,8)+P6*Q6*VLOOKUP($B$6,ENEMY,8)+P7*Q7*VLOOKUP($B$7,ENEMY,8)+P8*Q8*VLOOKUP($B$8,ENEMY,8)+P9*Q9*VLOOKUP($B$9,ENEMY,8)+P10*Q10*VLOOKUP($B$10,ENEMY,8)+P11*Q11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>6840</v>
       </c>
-      <c r="Q20" s="129"/>
-      <c r="R20" s="130"/>
-      <c r="S20" s="128">
+      <c r="Q20" s="148"/>
+      <c r="R20" s="149"/>
+      <c r="S20" s="147">
         <f>S3*T3*VLOOKUP($B$3,ENEMY,8)+S4*T4*VLOOKUP($B$4,ENEMY,8)+S5*T5*VLOOKUP($B$5,ENEMY,8)+S6*T6*VLOOKUP($B$6,ENEMY,8)+S7*T7*VLOOKUP($B$7,ENEMY,8)+S8*T8*VLOOKUP($B$8,ENEMY,8)+S9*T9*VLOOKUP($B$9,ENEMY,8)+S10*T10*VLOOKUP($B$10,ENEMY,8)+S11*T11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>35700</v>
       </c>
-      <c r="T20" s="129"/>
-      <c r="U20" s="130"/>
-      <c r="V20" s="128"/>
-      <c r="W20" s="129"/>
-      <c r="X20" s="130"/>
-      <c r="Y20" s="128"/>
-      <c r="Z20" s="129"/>
-      <c r="AA20" s="130"/>
-      <c r="AB20" s="128"/>
-      <c r="AC20" s="129"/>
-      <c r="AD20" s="130"/>
-      <c r="AE20" s="128"/>
-      <c r="AF20" s="129"/>
-      <c r="AG20" s="130"/>
-      <c r="AH20" s="128"/>
-      <c r="AI20" s="129"/>
-      <c r="AJ20" s="130"/>
-      <c r="AK20" s="128"/>
-      <c r="AL20" s="129"/>
-      <c r="AM20" s="130"/>
+      <c r="T20" s="148"/>
+      <c r="U20" s="149"/>
+      <c r="V20" s="147"/>
+      <c r="W20" s="148"/>
+      <c r="X20" s="149"/>
+      <c r="Y20" s="147"/>
+      <c r="Z20" s="148"/>
+      <c r="AA20" s="149"/>
+      <c r="AB20" s="147"/>
+      <c r="AC20" s="148"/>
+      <c r="AD20" s="149"/>
+      <c r="AE20" s="147"/>
+      <c r="AF20" s="148"/>
+      <c r="AG20" s="149"/>
+      <c r="AH20" s="147"/>
+      <c r="AI20" s="148"/>
+      <c r="AJ20" s="149"/>
+      <c r="AK20" s="147"/>
+      <c r="AL20" s="148"/>
+      <c r="AM20" s="149"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B21" s="86" t="s">
         <v>187</v>
       </c>
-      <c r="D21" s="134">
+      <c r="D21" s="150">
         <f>D18-D19+D20</f>
         <v>25</v>
       </c>
-      <c r="E21" s="135"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="134">
+      <c r="E21" s="151"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="150">
         <f>G18-G19+G20</f>
         <v>-253</v>
       </c>
-      <c r="H21" s="135"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="134">
+      <c r="H21" s="151"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="150">
         <f t="shared" ref="J21" si="9">J18-J19+J20</f>
         <v>537</v>
       </c>
-      <c r="K21" s="135"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="134">
+      <c r="K21" s="151"/>
+      <c r="L21" s="152"/>
+      <c r="M21" s="150">
         <f t="shared" ref="M21" si="10">M18-M19+M20</f>
         <v>537</v>
       </c>
-      <c r="N21" s="135"/>
-      <c r="O21" s="136"/>
-      <c r="P21" s="134">
+      <c r="N21" s="151"/>
+      <c r="O21" s="152"/>
+      <c r="P21" s="150">
         <f t="shared" ref="P21" si="11">P18-P19+P20</f>
         <v>2517</v>
       </c>
-      <c r="Q21" s="135"/>
-      <c r="R21" s="136"/>
-      <c r="S21" s="134">
+      <c r="Q21" s="151"/>
+      <c r="R21" s="152"/>
+      <c r="S21" s="150">
         <f t="shared" ref="S21" si="12">S18-S19+S20</f>
         <v>12657</v>
       </c>
-      <c r="T21" s="135"/>
-      <c r="U21" s="136"/>
-      <c r="V21" s="134"/>
-      <c r="W21" s="135"/>
-      <c r="X21" s="136"/>
-      <c r="Y21" s="134"/>
-      <c r="Z21" s="135"/>
-      <c r="AA21" s="136"/>
-      <c r="AB21" s="134"/>
-      <c r="AC21" s="135"/>
-      <c r="AD21" s="136"/>
-      <c r="AE21" s="134"/>
-      <c r="AF21" s="135"/>
-      <c r="AG21" s="136"/>
-      <c r="AH21" s="134"/>
-      <c r="AI21" s="135"/>
-      <c r="AJ21" s="136"/>
-      <c r="AK21" s="134"/>
-      <c r="AL21" s="135"/>
-      <c r="AM21" s="136"/>
+      <c r="T21" s="151"/>
+      <c r="U21" s="152"/>
+      <c r="V21" s="150"/>
+      <c r="W21" s="151"/>
+      <c r="X21" s="152"/>
+      <c r="Y21" s="150"/>
+      <c r="Z21" s="151"/>
+      <c r="AA21" s="152"/>
+      <c r="AB21" s="150"/>
+      <c r="AC21" s="151"/>
+      <c r="AD21" s="152"/>
+      <c r="AE21" s="150"/>
+      <c r="AF21" s="151"/>
+      <c r="AG21" s="152"/>
+      <c r="AH21" s="150"/>
+      <c r="AI21" s="151"/>
+      <c r="AJ21" s="152"/>
+      <c r="AK21" s="150"/>
+      <c r="AL21" s="151"/>
+      <c r="AM21" s="152"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B24" s="105" t="s">
@@ -4269,52 +4248,52 @@
         <f t="shared" ref="C25:C33" si="13">VLOOKUP(B3,ENEMY,4)</f>
         <v>Normal</v>
       </c>
-      <c r="D25" s="128"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="128">
+      <c r="D25" s="147"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="147">
         <v>1</v>
       </c>
-      <c r="H25" s="129"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="128">
+      <c r="H25" s="148"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="147">
         <v>1</v>
       </c>
-      <c r="K25" s="129"/>
-      <c r="L25" s="130"/>
-      <c r="M25" s="128">
+      <c r="K25" s="148"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="147">
         <v>1</v>
       </c>
-      <c r="N25" s="129"/>
-      <c r="O25" s="130"/>
-      <c r="P25" s="128">
+      <c r="N25" s="148"/>
+      <c r="O25" s="149"/>
+      <c r="P25" s="147">
         <v>6</v>
       </c>
-      <c r="Q25" s="129"/>
-      <c r="R25" s="130"/>
-      <c r="S25" s="128">
+      <c r="Q25" s="148"/>
+      <c r="R25" s="149"/>
+      <c r="S25" s="147">
         <v>31</v>
       </c>
-      <c r="T25" s="129"/>
-      <c r="U25" s="130"/>
-      <c r="V25" s="128"/>
-      <c r="W25" s="129"/>
-      <c r="X25" s="130"/>
-      <c r="Y25" s="128"/>
-      <c r="Z25" s="129"/>
-      <c r="AA25" s="130"/>
-      <c r="AB25" s="128"/>
-      <c r="AC25" s="129"/>
-      <c r="AD25" s="130"/>
-      <c r="AE25" s="128"/>
-      <c r="AF25" s="129"/>
-      <c r="AG25" s="130"/>
-      <c r="AH25" s="128"/>
-      <c r="AI25" s="129"/>
-      <c r="AJ25" s="130"/>
-      <c r="AK25" s="128"/>
-      <c r="AL25" s="129"/>
-      <c r="AM25" s="130"/>
+      <c r="T25" s="148"/>
+      <c r="U25" s="149"/>
+      <c r="V25" s="147"/>
+      <c r="W25" s="148"/>
+      <c r="X25" s="149"/>
+      <c r="Y25" s="147"/>
+      <c r="Z25" s="148"/>
+      <c r="AA25" s="149"/>
+      <c r="AB25" s="147"/>
+      <c r="AC25" s="148"/>
+      <c r="AD25" s="149"/>
+      <c r="AE25" s="147"/>
+      <c r="AF25" s="148"/>
+      <c r="AG25" s="149"/>
+      <c r="AH25" s="147"/>
+      <c r="AI25" s="148"/>
+      <c r="AJ25" s="149"/>
+      <c r="AK25" s="147"/>
+      <c r="AL25" s="148"/>
+      <c r="AM25" s="149"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="109">
@@ -4328,52 +4307,52 @@
         <f t="shared" si="13"/>
         <v>Intangible</v>
       </c>
-      <c r="D26" s="134"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="136"/>
-      <c r="G26" s="134">
+      <c r="D26" s="150"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="150">
         <v>1</v>
       </c>
-      <c r="H26" s="135"/>
-      <c r="I26" s="136"/>
-      <c r="J26" s="134">
+      <c r="H26" s="151"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="150">
         <v>1</v>
       </c>
-      <c r="K26" s="135"/>
-      <c r="L26" s="136"/>
-      <c r="M26" s="134">
+      <c r="K26" s="151"/>
+      <c r="L26" s="152"/>
+      <c r="M26" s="150">
         <v>1</v>
       </c>
-      <c r="N26" s="135"/>
-      <c r="O26" s="136"/>
-      <c r="P26" s="134">
+      <c r="N26" s="151"/>
+      <c r="O26" s="152"/>
+      <c r="P26" s="150">
         <v>6</v>
       </c>
-      <c r="Q26" s="135"/>
-      <c r="R26" s="136"/>
-      <c r="S26" s="134">
+      <c r="Q26" s="151"/>
+      <c r="R26" s="152"/>
+      <c r="S26" s="150">
         <v>31</v>
       </c>
-      <c r="T26" s="135"/>
-      <c r="U26" s="136"/>
-      <c r="V26" s="134"/>
-      <c r="W26" s="135"/>
-      <c r="X26" s="136"/>
-      <c r="Y26" s="134"/>
-      <c r="Z26" s="135"/>
-      <c r="AA26" s="136"/>
-      <c r="AB26" s="134"/>
-      <c r="AC26" s="135"/>
-      <c r="AD26" s="136"/>
-      <c r="AE26" s="134"/>
-      <c r="AF26" s="135"/>
-      <c r="AG26" s="136"/>
-      <c r="AH26" s="134"/>
-      <c r="AI26" s="135"/>
-      <c r="AJ26" s="136"/>
-      <c r="AK26" s="134"/>
-      <c r="AL26" s="135"/>
-      <c r="AM26" s="136"/>
+      <c r="T26" s="151"/>
+      <c r="U26" s="152"/>
+      <c r="V26" s="150"/>
+      <c r="W26" s="151"/>
+      <c r="X26" s="152"/>
+      <c r="Y26" s="150"/>
+      <c r="Z26" s="151"/>
+      <c r="AA26" s="152"/>
+      <c r="AB26" s="150"/>
+      <c r="AC26" s="151"/>
+      <c r="AD26" s="152"/>
+      <c r="AE26" s="150"/>
+      <c r="AF26" s="151"/>
+      <c r="AG26" s="152"/>
+      <c r="AH26" s="150"/>
+      <c r="AI26" s="151"/>
+      <c r="AJ26" s="152"/>
+      <c r="AK26" s="150"/>
+      <c r="AL26" s="151"/>
+      <c r="AM26" s="152"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="109">
@@ -4387,52 +4366,52 @@
         <f t="shared" si="13"/>
         <v>Saboteur</v>
       </c>
-      <c r="D27" s="128">
+      <c r="D27" s="147">
         <v>1</v>
       </c>
-      <c r="E27" s="129"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="128">
+      <c r="E27" s="148"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="147">
         <v>1</v>
       </c>
-      <c r="K27" s="129"/>
-      <c r="L27" s="130"/>
-      <c r="M27" s="128">
+      <c r="K27" s="148"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="147">
         <v>1</v>
       </c>
-      <c r="N27" s="129"/>
-      <c r="O27" s="130"/>
-      <c r="P27" s="128">
+      <c r="N27" s="148"/>
+      <c r="O27" s="149"/>
+      <c r="P27" s="147">
         <v>6</v>
       </c>
-      <c r="Q27" s="129"/>
-      <c r="R27" s="130"/>
-      <c r="S27" s="128">
+      <c r="Q27" s="148"/>
+      <c r="R27" s="149"/>
+      <c r="S27" s="147">
         <v>31</v>
       </c>
-      <c r="T27" s="129"/>
-      <c r="U27" s="130"/>
-      <c r="V27" s="128"/>
-      <c r="W27" s="129"/>
-      <c r="X27" s="130"/>
-      <c r="Y27" s="128"/>
-      <c r="Z27" s="129"/>
-      <c r="AA27" s="130"/>
-      <c r="AB27" s="128"/>
-      <c r="AC27" s="129"/>
-      <c r="AD27" s="130"/>
-      <c r="AE27" s="128"/>
-      <c r="AF27" s="129"/>
-      <c r="AG27" s="130"/>
-      <c r="AH27" s="128"/>
-      <c r="AI27" s="129"/>
-      <c r="AJ27" s="130"/>
-      <c r="AK27" s="128"/>
-      <c r="AL27" s="129"/>
-      <c r="AM27" s="130"/>
+      <c r="T27" s="148"/>
+      <c r="U27" s="149"/>
+      <c r="V27" s="147"/>
+      <c r="W27" s="148"/>
+      <c r="X27" s="149"/>
+      <c r="Y27" s="147"/>
+      <c r="Z27" s="148"/>
+      <c r="AA27" s="149"/>
+      <c r="AB27" s="147"/>
+      <c r="AC27" s="148"/>
+      <c r="AD27" s="149"/>
+      <c r="AE27" s="147"/>
+      <c r="AF27" s="148"/>
+      <c r="AG27" s="149"/>
+      <c r="AH27" s="147"/>
+      <c r="AI27" s="148"/>
+      <c r="AJ27" s="149"/>
+      <c r="AK27" s="147"/>
+      <c r="AL27" s="148"/>
+      <c r="AM27" s="149"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="109">
@@ -4446,52 +4425,52 @@
         <f t="shared" si="13"/>
         <v>Normal</v>
       </c>
-      <c r="D28" s="134"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="134">
+      <c r="D28" s="150"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="150">
         <v>1</v>
       </c>
-      <c r="H28" s="135"/>
-      <c r="I28" s="136"/>
-      <c r="J28" s="134">
+      <c r="H28" s="151"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="150">
         <v>1</v>
       </c>
-      <c r="K28" s="135"/>
-      <c r="L28" s="136"/>
-      <c r="M28" s="134">
+      <c r="K28" s="151"/>
+      <c r="L28" s="152"/>
+      <c r="M28" s="150">
         <v>1</v>
       </c>
-      <c r="N28" s="135"/>
-      <c r="O28" s="136"/>
-      <c r="P28" s="134">
+      <c r="N28" s="151"/>
+      <c r="O28" s="152"/>
+      <c r="P28" s="150">
         <v>6</v>
       </c>
-      <c r="Q28" s="135"/>
-      <c r="R28" s="136"/>
-      <c r="S28" s="134">
+      <c r="Q28" s="151"/>
+      <c r="R28" s="152"/>
+      <c r="S28" s="150">
         <v>31</v>
       </c>
-      <c r="T28" s="135"/>
-      <c r="U28" s="136"/>
-      <c r="V28" s="134"/>
-      <c r="W28" s="135"/>
-      <c r="X28" s="136"/>
-      <c r="Y28" s="134"/>
-      <c r="Z28" s="135"/>
-      <c r="AA28" s="136"/>
-      <c r="AB28" s="134"/>
-      <c r="AC28" s="135"/>
-      <c r="AD28" s="136"/>
-      <c r="AE28" s="134"/>
-      <c r="AF28" s="135"/>
-      <c r="AG28" s="136"/>
-      <c r="AH28" s="134"/>
-      <c r="AI28" s="135"/>
-      <c r="AJ28" s="136"/>
-      <c r="AK28" s="134"/>
-      <c r="AL28" s="135"/>
-      <c r="AM28" s="136"/>
+      <c r="T28" s="151"/>
+      <c r="U28" s="152"/>
+      <c r="V28" s="150"/>
+      <c r="W28" s="151"/>
+      <c r="X28" s="152"/>
+      <c r="Y28" s="150"/>
+      <c r="Z28" s="151"/>
+      <c r="AA28" s="152"/>
+      <c r="AB28" s="150"/>
+      <c r="AC28" s="151"/>
+      <c r="AD28" s="152"/>
+      <c r="AE28" s="150"/>
+      <c r="AF28" s="151"/>
+      <c r="AG28" s="152"/>
+      <c r="AH28" s="150"/>
+      <c r="AI28" s="151"/>
+      <c r="AJ28" s="152"/>
+      <c r="AK28" s="150"/>
+      <c r="AL28" s="151"/>
+      <c r="AM28" s="152"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="109">
@@ -4505,50 +4484,50 @@
         <f t="shared" si="13"/>
         <v>Intangible</v>
       </c>
-      <c r="D29" s="128"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="128">
+      <c r="D29" s="147"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="147">
         <v>1</v>
       </c>
-      <c r="H29" s="129"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="128">
+      <c r="H29" s="148"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="147">
         <v>1</v>
       </c>
-      <c r="K29" s="129"/>
-      <c r="L29" s="130"/>
-      <c r="M29" s="128"/>
-      <c r="N29" s="129"/>
-      <c r="O29" s="130"/>
-      <c r="P29" s="128">
+      <c r="K29" s="148"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="147"/>
+      <c r="N29" s="148"/>
+      <c r="O29" s="149"/>
+      <c r="P29" s="147">
         <v>6</v>
       </c>
-      <c r="Q29" s="129"/>
-      <c r="R29" s="130"/>
-      <c r="S29" s="128">
+      <c r="Q29" s="148"/>
+      <c r="R29" s="149"/>
+      <c r="S29" s="147">
         <v>32</v>
       </c>
-      <c r="T29" s="129"/>
-      <c r="U29" s="130"/>
-      <c r="V29" s="128"/>
-      <c r="W29" s="129"/>
-      <c r="X29" s="130"/>
-      <c r="Y29" s="128"/>
-      <c r="Z29" s="129"/>
-      <c r="AA29" s="130"/>
-      <c r="AB29" s="128"/>
-      <c r="AC29" s="129"/>
-      <c r="AD29" s="130"/>
-      <c r="AE29" s="128"/>
-      <c r="AF29" s="129"/>
-      <c r="AG29" s="130"/>
-      <c r="AH29" s="128"/>
-      <c r="AI29" s="129"/>
-      <c r="AJ29" s="130"/>
-      <c r="AK29" s="128"/>
-      <c r="AL29" s="129"/>
-      <c r="AM29" s="130"/>
+      <c r="T29" s="148"/>
+      <c r="U29" s="149"/>
+      <c r="V29" s="147"/>
+      <c r="W29" s="148"/>
+      <c r="X29" s="149"/>
+      <c r="Y29" s="147"/>
+      <c r="Z29" s="148"/>
+      <c r="AA29" s="149"/>
+      <c r="AB29" s="147"/>
+      <c r="AC29" s="148"/>
+      <c r="AD29" s="149"/>
+      <c r="AE29" s="147"/>
+      <c r="AF29" s="148"/>
+      <c r="AG29" s="149"/>
+      <c r="AH29" s="147"/>
+      <c r="AI29" s="148"/>
+      <c r="AJ29" s="149"/>
+      <c r="AK29" s="147"/>
+      <c r="AL29" s="148"/>
+      <c r="AM29" s="149"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="109">
@@ -4562,50 +4541,50 @@
         <f t="shared" si="13"/>
         <v>Saboteur</v>
       </c>
-      <c r="D30" s="134">
+      <c r="D30" s="150">
         <v>1</v>
       </c>
-      <c r="E30" s="135"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="134">
+      <c r="E30" s="151"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="150">
         <v>1</v>
       </c>
-      <c r="H30" s="135"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="134"/>
-      <c r="K30" s="135"/>
-      <c r="L30" s="136"/>
-      <c r="M30" s="134"/>
-      <c r="N30" s="135"/>
-      <c r="O30" s="136"/>
-      <c r="P30" s="134">
+      <c r="H30" s="151"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="151"/>
+      <c r="L30" s="152"/>
+      <c r="M30" s="150"/>
+      <c r="N30" s="151"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="150">
         <v>6</v>
       </c>
-      <c r="Q30" s="135"/>
-      <c r="R30" s="136"/>
-      <c r="S30" s="134">
+      <c r="Q30" s="151"/>
+      <c r="R30" s="152"/>
+      <c r="S30" s="150">
         <v>32</v>
       </c>
-      <c r="T30" s="135"/>
-      <c r="U30" s="136"/>
-      <c r="V30" s="134"/>
-      <c r="W30" s="135"/>
-      <c r="X30" s="136"/>
-      <c r="Y30" s="134"/>
-      <c r="Z30" s="135"/>
-      <c r="AA30" s="136"/>
-      <c r="AB30" s="134"/>
-      <c r="AC30" s="135"/>
-      <c r="AD30" s="136"/>
-      <c r="AE30" s="134"/>
-      <c r="AF30" s="135"/>
-      <c r="AG30" s="136"/>
-      <c r="AH30" s="134"/>
-      <c r="AI30" s="135"/>
-      <c r="AJ30" s="136"/>
-      <c r="AK30" s="134"/>
-      <c r="AL30" s="135"/>
-      <c r="AM30" s="136"/>
+      <c r="T30" s="151"/>
+      <c r="U30" s="152"/>
+      <c r="V30" s="150"/>
+      <c r="W30" s="151"/>
+      <c r="X30" s="152"/>
+      <c r="Y30" s="150"/>
+      <c r="Z30" s="151"/>
+      <c r="AA30" s="152"/>
+      <c r="AB30" s="150"/>
+      <c r="AC30" s="151"/>
+      <c r="AD30" s="152"/>
+      <c r="AE30" s="150"/>
+      <c r="AF30" s="151"/>
+      <c r="AG30" s="152"/>
+      <c r="AH30" s="150"/>
+      <c r="AI30" s="151"/>
+      <c r="AJ30" s="152"/>
+      <c r="AK30" s="150"/>
+      <c r="AL30" s="151"/>
+      <c r="AM30" s="152"/>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="109">
@@ -4619,50 +4598,50 @@
         <f t="shared" si="13"/>
         <v>Normal</v>
       </c>
-      <c r="D31" s="128"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="128">
+      <c r="D31" s="147"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="147">
         <v>1</v>
       </c>
-      <c r="H31" s="129"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="128">
+      <c r="H31" s="148"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="147">
         <v>1</v>
       </c>
-      <c r="K31" s="129"/>
-      <c r="L31" s="130"/>
-      <c r="M31" s="128"/>
-      <c r="N31" s="129"/>
-      <c r="O31" s="130"/>
-      <c r="P31" s="128">
+      <c r="K31" s="148"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="147"/>
+      <c r="N31" s="148"/>
+      <c r="O31" s="149"/>
+      <c r="P31" s="147">
         <v>6</v>
       </c>
-      <c r="Q31" s="129"/>
-      <c r="R31" s="130"/>
-      <c r="S31" s="128">
+      <c r="Q31" s="148"/>
+      <c r="R31" s="149"/>
+      <c r="S31" s="147">
         <v>32</v>
       </c>
-      <c r="T31" s="129"/>
-      <c r="U31" s="130"/>
-      <c r="V31" s="128"/>
-      <c r="W31" s="129"/>
-      <c r="X31" s="130"/>
-      <c r="Y31" s="128"/>
-      <c r="Z31" s="129"/>
-      <c r="AA31" s="130"/>
-      <c r="AB31" s="128"/>
-      <c r="AC31" s="129"/>
-      <c r="AD31" s="130"/>
-      <c r="AE31" s="128"/>
-      <c r="AF31" s="129"/>
-      <c r="AG31" s="130"/>
-      <c r="AH31" s="128"/>
-      <c r="AI31" s="129"/>
-      <c r="AJ31" s="130"/>
-      <c r="AK31" s="128"/>
-      <c r="AL31" s="129"/>
-      <c r="AM31" s="130"/>
+      <c r="T31" s="148"/>
+      <c r="U31" s="149"/>
+      <c r="V31" s="147"/>
+      <c r="W31" s="148"/>
+      <c r="X31" s="149"/>
+      <c r="Y31" s="147"/>
+      <c r="Z31" s="148"/>
+      <c r="AA31" s="149"/>
+      <c r="AB31" s="147"/>
+      <c r="AC31" s="148"/>
+      <c r="AD31" s="149"/>
+      <c r="AE31" s="147"/>
+      <c r="AF31" s="148"/>
+      <c r="AG31" s="149"/>
+      <c r="AH31" s="147"/>
+      <c r="AI31" s="148"/>
+      <c r="AJ31" s="149"/>
+      <c r="AK31" s="147"/>
+      <c r="AL31" s="148"/>
+      <c r="AM31" s="149"/>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="109">
@@ -4676,50 +4655,50 @@
         <f t="shared" si="13"/>
         <v>Intangible</v>
       </c>
-      <c r="D32" s="134"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="136"/>
-      <c r="G32" s="134">
+      <c r="D32" s="150"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="150">
         <v>1</v>
       </c>
-      <c r="H32" s="135"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="134">
+      <c r="H32" s="151"/>
+      <c r="I32" s="152"/>
+      <c r="J32" s="150">
         <v>1</v>
       </c>
-      <c r="K32" s="135"/>
-      <c r="L32" s="136"/>
-      <c r="M32" s="134"/>
-      <c r="N32" s="135"/>
-      <c r="O32" s="136"/>
-      <c r="P32" s="134">
+      <c r="K32" s="151"/>
+      <c r="L32" s="152"/>
+      <c r="M32" s="150"/>
+      <c r="N32" s="151"/>
+      <c r="O32" s="152"/>
+      <c r="P32" s="150">
         <v>6</v>
       </c>
-      <c r="Q32" s="135"/>
-      <c r="R32" s="136"/>
-      <c r="S32" s="134">
+      <c r="Q32" s="151"/>
+      <c r="R32" s="152"/>
+      <c r="S32" s="150">
         <v>32</v>
       </c>
-      <c r="T32" s="135"/>
-      <c r="U32" s="136"/>
-      <c r="V32" s="134"/>
-      <c r="W32" s="135"/>
-      <c r="X32" s="136"/>
-      <c r="Y32" s="134"/>
-      <c r="Z32" s="135"/>
-      <c r="AA32" s="136"/>
-      <c r="AB32" s="134"/>
-      <c r="AC32" s="135"/>
-      <c r="AD32" s="136"/>
-      <c r="AE32" s="134"/>
-      <c r="AF32" s="135"/>
-      <c r="AG32" s="136"/>
-      <c r="AH32" s="134"/>
-      <c r="AI32" s="135"/>
-      <c r="AJ32" s="136"/>
-      <c r="AK32" s="134"/>
-      <c r="AL32" s="135"/>
-      <c r="AM32" s="136"/>
+      <c r="T32" s="151"/>
+      <c r="U32" s="152"/>
+      <c r="V32" s="150"/>
+      <c r="W32" s="151"/>
+      <c r="X32" s="152"/>
+      <c r="Y32" s="150"/>
+      <c r="Z32" s="151"/>
+      <c r="AA32" s="152"/>
+      <c r="AB32" s="150"/>
+      <c r="AC32" s="151"/>
+      <c r="AD32" s="152"/>
+      <c r="AE32" s="150"/>
+      <c r="AF32" s="151"/>
+      <c r="AG32" s="152"/>
+      <c r="AH32" s="150"/>
+      <c r="AI32" s="151"/>
+      <c r="AJ32" s="152"/>
+      <c r="AK32" s="150"/>
+      <c r="AL32" s="151"/>
+      <c r="AM32" s="152"/>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="109">
@@ -4733,323 +4712,249 @@
         <f t="shared" si="13"/>
         <v>Saboteur</v>
       </c>
-      <c r="D33" s="128"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="128">
+      <c r="D33" s="147"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="147">
         <v>1</v>
       </c>
-      <c r="H33" s="129"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="128">
+      <c r="H33" s="148"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="147">
         <v>1</v>
       </c>
-      <c r="K33" s="129"/>
-      <c r="L33" s="130"/>
-      <c r="M33" s="128"/>
-      <c r="N33" s="129"/>
-      <c r="O33" s="130"/>
-      <c r="P33" s="128">
+      <c r="K33" s="148"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="147"/>
+      <c r="N33" s="148"/>
+      <c r="O33" s="149"/>
+      <c r="P33" s="147">
         <v>6</v>
       </c>
-      <c r="Q33" s="129"/>
-      <c r="R33" s="130"/>
-      <c r="S33" s="128">
+      <c r="Q33" s="148"/>
+      <c r="R33" s="149"/>
+      <c r="S33" s="147">
         <v>32</v>
       </c>
-      <c r="T33" s="129"/>
-      <c r="U33" s="130"/>
-      <c r="V33" s="128"/>
-      <c r="W33" s="129"/>
-      <c r="X33" s="130"/>
-      <c r="Y33" s="128"/>
-      <c r="Z33" s="129"/>
-      <c r="AA33" s="130"/>
-      <c r="AB33" s="128"/>
-      <c r="AC33" s="129"/>
-      <c r="AD33" s="130"/>
-      <c r="AE33" s="128"/>
-      <c r="AF33" s="129"/>
-      <c r="AG33" s="130"/>
-      <c r="AH33" s="128"/>
-      <c r="AI33" s="129"/>
-      <c r="AJ33" s="130"/>
-      <c r="AK33" s="128"/>
-      <c r="AL33" s="129"/>
-      <c r="AM33" s="130"/>
+      <c r="T33" s="148"/>
+      <c r="U33" s="149"/>
+      <c r="V33" s="147"/>
+      <c r="W33" s="148"/>
+      <c r="X33" s="149"/>
+      <c r="Y33" s="147"/>
+      <c r="Z33" s="148"/>
+      <c r="AA33" s="149"/>
+      <c r="AB33" s="147"/>
+      <c r="AC33" s="148"/>
+      <c r="AD33" s="149"/>
+      <c r="AE33" s="147"/>
+      <c r="AF33" s="148"/>
+      <c r="AG33" s="149"/>
+      <c r="AH33" s="147"/>
+      <c r="AI33" s="148"/>
+      <c r="AJ33" s="149"/>
+      <c r="AK33" s="147"/>
+      <c r="AL33" s="148"/>
+      <c r="AM33" s="149"/>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B34" s="101"/>
       <c r="C34" s="102"/>
-      <c r="D34" s="131"/>
-      <c r="E34" s="132"/>
-      <c r="F34" s="133"/>
-      <c r="G34" s="131"/>
-      <c r="H34" s="132"/>
-      <c r="I34" s="133"/>
-      <c r="J34" s="131"/>
-      <c r="K34" s="132"/>
-      <c r="L34" s="133"/>
-      <c r="M34" s="131"/>
-      <c r="N34" s="132"/>
-      <c r="O34" s="133"/>
-      <c r="P34" s="131"/>
-      <c r="Q34" s="132"/>
-      <c r="R34" s="133"/>
-      <c r="S34" s="131"/>
-      <c r="T34" s="132"/>
-      <c r="U34" s="133"/>
-      <c r="V34" s="131"/>
-      <c r="W34" s="132"/>
-      <c r="X34" s="133"/>
-      <c r="Y34" s="131"/>
-      <c r="Z34" s="132"/>
-      <c r="AA34" s="133"/>
-      <c r="AB34" s="131"/>
-      <c r="AC34" s="132"/>
-      <c r="AD34" s="133"/>
-      <c r="AE34" s="131"/>
-      <c r="AF34" s="132"/>
-      <c r="AG34" s="133"/>
-      <c r="AH34" s="131"/>
-      <c r="AI34" s="132"/>
-      <c r="AJ34" s="133"/>
-      <c r="AK34" s="131"/>
-      <c r="AL34" s="132"/>
-      <c r="AM34" s="133"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="141"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="143"/>
+      <c r="J34" s="141"/>
+      <c r="K34" s="142"/>
+      <c r="L34" s="143"/>
+      <c r="M34" s="141"/>
+      <c r="N34" s="142"/>
+      <c r="O34" s="143"/>
+      <c r="P34" s="141"/>
+      <c r="Q34" s="142"/>
+      <c r="R34" s="143"/>
+      <c r="S34" s="141"/>
+      <c r="T34" s="142"/>
+      <c r="U34" s="143"/>
+      <c r="V34" s="141"/>
+      <c r="W34" s="142"/>
+      <c r="X34" s="143"/>
+      <c r="Y34" s="141"/>
+      <c r="Z34" s="142"/>
+      <c r="AA34" s="143"/>
+      <c r="AB34" s="141"/>
+      <c r="AC34" s="142"/>
+      <c r="AD34" s="143"/>
+      <c r="AE34" s="141"/>
+      <c r="AF34" s="142"/>
+      <c r="AG34" s="143"/>
+      <c r="AH34" s="141"/>
+      <c r="AI34" s="142"/>
+      <c r="AJ34" s="143"/>
+      <c r="AK34" s="141"/>
+      <c r="AL34" s="142"/>
+      <c r="AM34" s="143"/>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B35" s="103"/>
       <c r="C35" s="102"/>
-      <c r="D35" s="131"/>
-      <c r="E35" s="132"/>
-      <c r="F35" s="133"/>
-      <c r="G35" s="131"/>
-      <c r="H35" s="132"/>
-      <c r="I35" s="133"/>
-      <c r="J35" s="131"/>
-      <c r="K35" s="132"/>
-      <c r="L35" s="133"/>
-      <c r="M35" s="131"/>
-      <c r="N35" s="132"/>
-      <c r="O35" s="133"/>
-      <c r="P35" s="131"/>
-      <c r="Q35" s="132"/>
-      <c r="R35" s="133"/>
-      <c r="S35" s="131"/>
-      <c r="T35" s="132"/>
-      <c r="U35" s="133"/>
-      <c r="V35" s="131"/>
-      <c r="W35" s="132"/>
-      <c r="X35" s="133"/>
-      <c r="Y35" s="131"/>
-      <c r="Z35" s="132"/>
-      <c r="AA35" s="133"/>
-      <c r="AB35" s="131"/>
-      <c r="AC35" s="132"/>
-      <c r="AD35" s="133"/>
-      <c r="AE35" s="131"/>
-      <c r="AF35" s="132"/>
-      <c r="AG35" s="133"/>
-      <c r="AH35" s="131"/>
-      <c r="AI35" s="132"/>
-      <c r="AJ35" s="133"/>
-      <c r="AK35" s="131"/>
-      <c r="AL35" s="132"/>
-      <c r="AM35" s="133"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="141"/>
+      <c r="H35" s="142"/>
+      <c r="I35" s="143"/>
+      <c r="J35" s="141"/>
+      <c r="K35" s="142"/>
+      <c r="L35" s="143"/>
+      <c r="M35" s="141"/>
+      <c r="N35" s="142"/>
+      <c r="O35" s="143"/>
+      <c r="P35" s="141"/>
+      <c r="Q35" s="142"/>
+      <c r="R35" s="143"/>
+      <c r="S35" s="141"/>
+      <c r="T35" s="142"/>
+      <c r="U35" s="143"/>
+      <c r="V35" s="141"/>
+      <c r="W35" s="142"/>
+      <c r="X35" s="143"/>
+      <c r="Y35" s="141"/>
+      <c r="Z35" s="142"/>
+      <c r="AA35" s="143"/>
+      <c r="AB35" s="141"/>
+      <c r="AC35" s="142"/>
+      <c r="AD35" s="143"/>
+      <c r="AE35" s="141"/>
+      <c r="AF35" s="142"/>
+      <c r="AG35" s="143"/>
+      <c r="AH35" s="141"/>
+      <c r="AI35" s="142"/>
+      <c r="AJ35" s="143"/>
+      <c r="AK35" s="141"/>
+      <c r="AL35" s="142"/>
+      <c r="AM35" s="143"/>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B36" s="103"/>
       <c r="C36" s="102"/>
-      <c r="D36" s="131"/>
-      <c r="E36" s="132"/>
-      <c r="F36" s="133"/>
-      <c r="G36" s="131"/>
-      <c r="H36" s="132"/>
-      <c r="I36" s="133"/>
-      <c r="J36" s="131"/>
-      <c r="K36" s="132"/>
-      <c r="L36" s="133"/>
-      <c r="M36" s="131"/>
-      <c r="N36" s="132"/>
-      <c r="O36" s="133"/>
-      <c r="P36" s="131"/>
-      <c r="Q36" s="132"/>
-      <c r="R36" s="133"/>
-      <c r="S36" s="131"/>
-      <c r="T36" s="132"/>
-      <c r="U36" s="133"/>
-      <c r="V36" s="131"/>
-      <c r="W36" s="132"/>
-      <c r="X36" s="133"/>
-      <c r="Y36" s="131"/>
-      <c r="Z36" s="132"/>
-      <c r="AA36" s="133"/>
-      <c r="AB36" s="131"/>
-      <c r="AC36" s="132"/>
-      <c r="AD36" s="133"/>
-      <c r="AE36" s="131"/>
-      <c r="AF36" s="132"/>
-      <c r="AG36" s="133"/>
-      <c r="AH36" s="131"/>
-      <c r="AI36" s="132"/>
-      <c r="AJ36" s="133"/>
-      <c r="AK36" s="131"/>
-      <c r="AL36" s="132"/>
-      <c r="AM36" s="133"/>
+      <c r="D36" s="141"/>
+      <c r="E36" s="142"/>
+      <c r="F36" s="143"/>
+      <c r="G36" s="141"/>
+      <c r="H36" s="142"/>
+      <c r="I36" s="143"/>
+      <c r="J36" s="141"/>
+      <c r="K36" s="142"/>
+      <c r="L36" s="143"/>
+      <c r="M36" s="141"/>
+      <c r="N36" s="142"/>
+      <c r="O36" s="143"/>
+      <c r="P36" s="141"/>
+      <c r="Q36" s="142"/>
+      <c r="R36" s="143"/>
+      <c r="S36" s="141"/>
+      <c r="T36" s="142"/>
+      <c r="U36" s="143"/>
+      <c r="V36" s="141"/>
+      <c r="W36" s="142"/>
+      <c r="X36" s="143"/>
+      <c r="Y36" s="141"/>
+      <c r="Z36" s="142"/>
+      <c r="AA36" s="143"/>
+      <c r="AB36" s="141"/>
+      <c r="AC36" s="142"/>
+      <c r="AD36" s="143"/>
+      <c r="AE36" s="141"/>
+      <c r="AF36" s="142"/>
+      <c r="AG36" s="143"/>
+      <c r="AH36" s="141"/>
+      <c r="AI36" s="142"/>
+      <c r="AJ36" s="143"/>
+      <c r="AK36" s="141"/>
+      <c r="AL36" s="142"/>
+      <c r="AM36" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="267">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AB19:AD19"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AE25:AG25"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="AE27:AG27"/>
-    <mergeCell ref="AH27:AJ27"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AE26:AG26"/>
-    <mergeCell ref="AH26:AJ26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="AB29:AD29"/>
-    <mergeCell ref="AE29:AG29"/>
-    <mergeCell ref="AH29:AJ29"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="AB28:AD28"/>
-    <mergeCell ref="AE28:AG28"/>
-    <mergeCell ref="AH28:AJ28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="AE31:AG31"/>
-    <mergeCell ref="AH31:AJ31"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="AE30:AG30"/>
-    <mergeCell ref="AH30:AJ30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="AH33:AJ33"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="AB32:AD32"/>
-    <mergeCell ref="AE32:AG32"/>
-    <mergeCell ref="AH32:AJ32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="AK35:AM35"/>
+    <mergeCell ref="AK36:AM36"/>
+    <mergeCell ref="AK27:AM27"/>
+    <mergeCell ref="AK28:AM28"/>
+    <mergeCell ref="AK29:AM29"/>
+    <mergeCell ref="AK30:AM30"/>
+    <mergeCell ref="AK31:AM31"/>
+    <mergeCell ref="AK32:AM32"/>
+    <mergeCell ref="AK18:AM18"/>
+    <mergeCell ref="AK19:AM19"/>
+    <mergeCell ref="AK20:AM20"/>
+    <mergeCell ref="AK21:AM21"/>
+    <mergeCell ref="AK25:AM25"/>
+    <mergeCell ref="AK26:AM26"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AK14:AM14"/>
+    <mergeCell ref="AK15:AM15"/>
+    <mergeCell ref="AK16:AM16"/>
+    <mergeCell ref="AK17:AM17"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="AB36:AD36"/>
+    <mergeCell ref="AE36:AG36"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="AB33:AD33"/>
+    <mergeCell ref="AE33:AG33"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="AB31:AD31"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
     <mergeCell ref="AH36:AJ36"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D36:F36"/>
@@ -5074,99 +4979,173 @@
     <mergeCell ref="J35:L35"/>
     <mergeCell ref="M35:O35"/>
     <mergeCell ref="P35:R35"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="AB36:AD36"/>
-    <mergeCell ref="AE36:AG36"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="AB33:AD33"/>
-    <mergeCell ref="AE33:AG33"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="AB31:AD31"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="AH33:AJ33"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="AB32:AD32"/>
+    <mergeCell ref="AE32:AG32"/>
+    <mergeCell ref="AH32:AJ32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="AE31:AG31"/>
+    <mergeCell ref="AH31:AJ31"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="AE30:AG30"/>
+    <mergeCell ref="AH30:AJ30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="AB29:AD29"/>
+    <mergeCell ref="AE29:AG29"/>
+    <mergeCell ref="AH29:AJ29"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB28:AD28"/>
+    <mergeCell ref="AE28:AG28"/>
+    <mergeCell ref="AH28:AJ28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="AE27:AG27"/>
+    <mergeCell ref="AH27:AJ27"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AE26:AG26"/>
+    <mergeCell ref="AH26:AJ26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AE25:AG25"/>
+    <mergeCell ref="AH25:AJ25"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AD19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="V20:X20"/>
     <mergeCell ref="S20:U20"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="J20:L20"/>
     <mergeCell ref="M20:O20"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="AK13:AM13"/>
-    <mergeCell ref="AK14:AM14"/>
-    <mergeCell ref="AK15:AM15"/>
-    <mergeCell ref="AK16:AM16"/>
-    <mergeCell ref="AK17:AM17"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
     <mergeCell ref="V13:X13"/>
     <mergeCell ref="Y13:AA13"/>
     <mergeCell ref="AB13:AD13"/>
     <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="AK18:AM18"/>
-    <mergeCell ref="AK19:AM19"/>
-    <mergeCell ref="AK20:AM20"/>
-    <mergeCell ref="AK21:AM21"/>
-    <mergeCell ref="AK25:AM25"/>
-    <mergeCell ref="AK26:AM26"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AK33:AM33"/>
-    <mergeCell ref="AK34:AM34"/>
-    <mergeCell ref="AK35:AM35"/>
-    <mergeCell ref="AK36:AM36"/>
-    <mergeCell ref="AK27:AM27"/>
-    <mergeCell ref="AK28:AM28"/>
-    <mergeCell ref="AK29:AM29"/>
-    <mergeCell ref="AK30:AM30"/>
-    <mergeCell ref="AK31:AM31"/>
-    <mergeCell ref="AK32:AM32"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D16:AM16">
@@ -5194,7 +5173,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:AM21">
-    <cfRule type="cellIs" dxfId="138" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5265,66 +5244,66 @@
   <sheetData>
     <row r="1" spans="1:48" s="111" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="108"/>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="140" t="s">
+      <c r="C1" s="153" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="142" t="s">
+      <c r="D1" s="135" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="143"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="142" t="s">
+      <c r="E1" s="136"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="135" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="143"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="142" t="s">
+      <c r="H1" s="136"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="135" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="143"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="142" t="s">
+      <c r="K1" s="136"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="135" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="143"/>
-      <c r="O1" s="144"/>
-      <c r="P1" s="142" t="s">
+      <c r="N1" s="136"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="135" t="s">
         <v>177</v>
       </c>
-      <c r="Q1" s="143"/>
-      <c r="R1" s="144"/>
-      <c r="S1" s="142" t="s">
+      <c r="Q1" s="136"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="135" t="s">
         <v>178</v>
       </c>
-      <c r="T1" s="143"/>
-      <c r="U1" s="144"/>
-      <c r="V1" s="142" t="s">
+      <c r="T1" s="136"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="135" t="s">
         <v>206</v>
       </c>
-      <c r="W1" s="143"/>
-      <c r="X1" s="144"/>
-      <c r="Y1" s="142" t="s">
+      <c r="W1" s="136"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="135" t="s">
         <v>207</v>
       </c>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="144"/>
-      <c r="AB1" s="142" t="s">
+      <c r="Z1" s="136"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="135" t="s">
         <v>208</v>
       </c>
-      <c r="AC1" s="143"/>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="142"/>
-      <c r="AF1" s="143"/>
-      <c r="AG1" s="144"/>
-      <c r="AH1" s="142"/>
-      <c r="AI1" s="143"/>
-      <c r="AJ1" s="144"/>
-      <c r="AK1" s="142"/>
-      <c r="AL1" s="143"/>
-      <c r="AM1" s="144"/>
+      <c r="AC1" s="136"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="137"/>
+      <c r="AH1" s="135"/>
+      <c r="AI1" s="136"/>
+      <c r="AJ1" s="137"/>
+      <c r="AK1" s="135"/>
+      <c r="AL1" s="136"/>
+      <c r="AM1" s="137"/>
       <c r="AN1" s="123"/>
       <c r="AO1" s="123"/>
       <c r="AP1" s="123"/>
@@ -5337,8 +5316,8 @@
     </row>
     <row r="2" spans="1:48" s="127" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="109"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="141"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="154"/>
       <c r="D2" s="124" t="s">
         <v>179</v>
       </c>
@@ -5431,7 +5410,7 @@
       <c r="AM2" s="126"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B3" s="180" t="s">
+      <c r="B3" s="128" t="s">
         <v>91</v>
       </c>
       <c r="C3" s="104" t="str">
@@ -5539,7 +5518,7 @@
       <c r="AM4" s="119"/>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B5" s="181" t="s">
+      <c r="B5" s="129" t="s">
         <v>190</v>
       </c>
       <c r="C5" s="104" t="str">
@@ -5719,7 +5698,7 @@
       <c r="AM8" s="119"/>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B9" s="180" t="s">
+      <c r="B9" s="128" t="s">
         <v>193</v>
       </c>
       <c r="C9" s="104" t="str">
@@ -5827,7 +5806,7 @@
       <c r="AM10" s="119"/>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B11" s="181" t="s">
+      <c r="B11" s="129" t="s">
         <v>194</v>
       </c>
       <c r="C11" s="104" t="str">
@@ -5878,668 +5857,668 @@
       <c r="AM11" s="117"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="D12" s="131"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="133"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="143"/>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B13" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="145">
+      <c r="D13" s="144">
         <v>100</v>
       </c>
-      <c r="E13" s="146"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="137">
+      <c r="E13" s="145"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="138">
         <f>D16</f>
         <v>100</v>
       </c>
-      <c r="H13" s="138"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="137" t="e">
+      <c r="H13" s="139"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="138" t="e">
         <f>G16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="138"/>
-      <c r="L13" s="139"/>
-      <c r="M13" s="137" t="e">
+      <c r="K13" s="139"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="138" t="e">
         <f>J16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N13" s="138"/>
-      <c r="O13" s="139"/>
-      <c r="P13" s="137" t="e">
+      <c r="N13" s="139"/>
+      <c r="O13" s="140"/>
+      <c r="P13" s="138" t="e">
         <f>M16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q13" s="138"/>
-      <c r="R13" s="139"/>
-      <c r="S13" s="137" t="e">
+      <c r="Q13" s="139"/>
+      <c r="R13" s="140"/>
+      <c r="S13" s="138" t="e">
         <f>P16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T13" s="138"/>
-      <c r="U13" s="139"/>
-      <c r="V13" s="137"/>
-      <c r="W13" s="138"/>
-      <c r="X13" s="139"/>
-      <c r="Y13" s="137"/>
-      <c r="Z13" s="138"/>
-      <c r="AA13" s="139"/>
-      <c r="AB13" s="137"/>
-      <c r="AC13" s="138"/>
-      <c r="AD13" s="139"/>
-      <c r="AE13" s="137"/>
-      <c r="AF13" s="138"/>
-      <c r="AG13" s="139"/>
-      <c r="AH13" s="137"/>
-      <c r="AI13" s="138"/>
-      <c r="AJ13" s="139"/>
-      <c r="AK13" s="137"/>
-      <c r="AL13" s="138"/>
-      <c r="AM13" s="139"/>
+      <c r="T13" s="139"/>
+      <c r="U13" s="140"/>
+      <c r="V13" s="138"/>
+      <c r="W13" s="139"/>
+      <c r="X13" s="140"/>
+      <c r="Y13" s="138"/>
+      <c r="Z13" s="139"/>
+      <c r="AA13" s="140"/>
+      <c r="AB13" s="138"/>
+      <c r="AC13" s="139"/>
+      <c r="AD13" s="140"/>
+      <c r="AE13" s="138"/>
+      <c r="AF13" s="139"/>
+      <c r="AG13" s="140"/>
+      <c r="AH13" s="138"/>
+      <c r="AI13" s="139"/>
+      <c r="AJ13" s="140"/>
+      <c r="AK13" s="138"/>
+      <c r="AL13" s="139"/>
+      <c r="AM13" s="140"/>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B14" s="97" t="s">
         <v>182</v>
       </c>
-      <c r="D14" s="131">
+      <c r="D14" s="141">
         <f>D3*VLOOKUP($B$3,ENEMY,7)+D4*VLOOKUP($B$4,ENEMY,7)+D5*VLOOKUP($B$5,ENEMY,7)+D6*VLOOKUP($B$6,ENEMY,7)+D7*VLOOKUP($B$7,ENEMY,7)+D8*VLOOKUP($B$8,ENEMY,7)+D9*VLOOKUP($B$9,ENEMY,7)+D10*VLOOKUP($B$10,ENEMY,7)+D11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="132"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="131">
+      <c r="E14" s="142"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="141">
         <f>G3*H3*VLOOKUP($B$3,ENEMY,7)+G4*H4*VLOOKUP($B$4,ENEMY,7)+G5*H5*VLOOKUP($B$5,ENEMY,7)+G6*H6*VLOOKUP($B$6,ENEMY,7)+G7*H7*VLOOKUP($B$7,ENEMY,7)+G8*H8*VLOOKUP($B$8,ENEMY,7)+G9*H9*VLOOKUP($B$9,ENEMY,7)+G10*H10*VLOOKUP($B$10,ENEMY,7)+G11*H11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>60</v>
       </c>
-      <c r="H14" s="132"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="131">
+      <c r="H14" s="142"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="141">
         <f>J3*K3*VLOOKUP($B$3,ENEMY,7)+J4*K4*VLOOKUP($B$4,ENEMY,7)+J5*K5*VLOOKUP($B$5,ENEMY,7)+J6*K6*VLOOKUP($B$6,ENEMY,7)+J7*K7*VLOOKUP($B$7,ENEMY,7)+J8*K8*VLOOKUP($B$8,ENEMY,7)+J9*K9*VLOOKUP($B$9,ENEMY,7)+J10*K10*VLOOKUP($B$10,ENEMY,7)+J11*K11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>100</v>
       </c>
-      <c r="K14" s="132"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="131">
+      <c r="K14" s="142"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="141">
         <f>M3*N3*VLOOKUP($B$3,ENEMY,7)+M4*N4*VLOOKUP($B$4,ENEMY,7)+M5*N5*VLOOKUP($B$5,ENEMY,7)+M6*N6*VLOOKUP($B$6,ENEMY,7)+M7*N7*VLOOKUP($B$7,ENEMY,7)+M8*N8*VLOOKUP($B$8,ENEMY,7)+M9*N9*VLOOKUP($B$9,ENEMY,7)+M10*N10*VLOOKUP($B$10,ENEMY,7)+M11*N11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>75</v>
       </c>
-      <c r="N14" s="132"/>
-      <c r="O14" s="133"/>
-      <c r="P14" s="131">
+      <c r="N14" s="142"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="141">
         <f>P3*Q3*VLOOKUP($B$3,ENEMY,7)+P4*Q4*VLOOKUP($B$4,ENEMY,7)+P5*Q5*VLOOKUP($B$5,ENEMY,7)+P6*Q6*VLOOKUP($B$6,ENEMY,7)+P7*Q7*VLOOKUP($B$7,ENEMY,7)+P8*Q8*VLOOKUP($B$8,ENEMY,7)+P9*Q9*VLOOKUP($B$9,ENEMY,7)+P10*Q10*VLOOKUP($B$10,ENEMY,7)+P11*Q11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>75</v>
       </c>
-      <c r="Q14" s="132"/>
-      <c r="R14" s="133"/>
-      <c r="S14" s="131">
+      <c r="Q14" s="142"/>
+      <c r="R14" s="143"/>
+      <c r="S14" s="141">
         <f>S3*T3*VLOOKUP($B$3,ENEMY,7)+S4*T4*VLOOKUP($B$4,ENEMY,7)+S5*T5*VLOOKUP($B$5,ENEMY,7)+S6*T6*VLOOKUP($B$6,ENEMY,7)+S7*T7*VLOOKUP($B$7,ENEMY,7)+S8*T8*VLOOKUP($B$8,ENEMY,7)+S9*T9*VLOOKUP($B$9,ENEMY,7)+S10*T10*VLOOKUP($B$10,ENEMY,7)+S11*T11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>7.5</v>
       </c>
-      <c r="T14" s="132"/>
-      <c r="U14" s="133"/>
-      <c r="V14" s="131"/>
-      <c r="W14" s="132"/>
-      <c r="X14" s="133"/>
-      <c r="Y14" s="131"/>
-      <c r="Z14" s="132"/>
-      <c r="AA14" s="133"/>
-      <c r="AB14" s="131"/>
-      <c r="AC14" s="132"/>
-      <c r="AD14" s="133"/>
-      <c r="AE14" s="131"/>
-      <c r="AF14" s="132"/>
-      <c r="AG14" s="133"/>
-      <c r="AH14" s="131"/>
-      <c r="AI14" s="132"/>
-      <c r="AJ14" s="133"/>
-      <c r="AK14" s="131"/>
-      <c r="AL14" s="132"/>
-      <c r="AM14" s="133"/>
+      <c r="T14" s="142"/>
+      <c r="U14" s="143"/>
+      <c r="V14" s="141"/>
+      <c r="W14" s="142"/>
+      <c r="X14" s="143"/>
+      <c r="Y14" s="141"/>
+      <c r="Z14" s="142"/>
+      <c r="AA14" s="143"/>
+      <c r="AB14" s="141"/>
+      <c r="AC14" s="142"/>
+      <c r="AD14" s="143"/>
+      <c r="AE14" s="141"/>
+      <c r="AF14" s="142"/>
+      <c r="AG14" s="143"/>
+      <c r="AH14" s="141"/>
+      <c r="AI14" s="142"/>
+      <c r="AJ14" s="143"/>
+      <c r="AK14" s="141"/>
+      <c r="AL14" s="142"/>
+      <c r="AM14" s="143"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B15" s="97" t="s">
         <v>205</v>
       </c>
-      <c r="D15" s="131">
+      <c r="D15" s="141">
         <f>D26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+D27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+D28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+D29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+D30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+D31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+D32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+D33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+D34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
         <v>2.25</v>
       </c>
-      <c r="E15" s="132"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="131">
+      <c r="E15" s="142"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="141">
         <f>G26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+G27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+G28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+G29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+G30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+G31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+G32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+G33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+G34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="132"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="131">
+      <c r="H15" s="142"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="141">
         <f>J26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+J27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+J28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+J29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+J30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+J31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+J32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+J33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+J34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
         <v>6.25</v>
       </c>
-      <c r="K15" s="132"/>
-      <c r="L15" s="133"/>
-      <c r="M15" s="131">
+      <c r="K15" s="142"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="141">
         <f>M26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+M27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+M28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+M29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+M30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+M31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+M32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+M33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+M34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
         <v>4</v>
       </c>
-      <c r="N15" s="132"/>
-      <c r="O15" s="133"/>
-      <c r="P15" s="131">
+      <c r="N15" s="142"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="141">
         <f>P26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+P27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+P28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+P29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+P30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+P31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+P32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+P33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+P34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
         <v>2.25</v>
       </c>
-      <c r="Q15" s="132"/>
-      <c r="R15" s="133"/>
-      <c r="S15" s="131">
+      <c r="Q15" s="142"/>
+      <c r="R15" s="143"/>
+      <c r="S15" s="141">
         <f>S26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+S27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+S28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+S29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+S30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+S31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+S32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+S33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+S34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="132"/>
-      <c r="U15" s="133"/>
-      <c r="V15" s="131"/>
-      <c r="W15" s="132"/>
-      <c r="X15" s="133"/>
-      <c r="Y15" s="131"/>
-      <c r="Z15" s="132"/>
-      <c r="AA15" s="133"/>
-      <c r="AB15" s="131"/>
-      <c r="AC15" s="132"/>
-      <c r="AD15" s="133"/>
-      <c r="AE15" s="131"/>
-      <c r="AF15" s="132"/>
-      <c r="AG15" s="133"/>
-      <c r="AH15" s="131"/>
-      <c r="AI15" s="132"/>
-      <c r="AJ15" s="133"/>
-      <c r="AK15" s="131"/>
-      <c r="AL15" s="132"/>
-      <c r="AM15" s="133"/>
+      <c r="T15" s="142"/>
+      <c r="U15" s="143"/>
+      <c r="V15" s="141"/>
+      <c r="W15" s="142"/>
+      <c r="X15" s="143"/>
+      <c r="Y15" s="141"/>
+      <c r="Z15" s="142"/>
+      <c r="AA15" s="143"/>
+      <c r="AB15" s="141"/>
+      <c r="AC15" s="142"/>
+      <c r="AD15" s="143"/>
+      <c r="AE15" s="141"/>
+      <c r="AF15" s="142"/>
+      <c r="AG15" s="143"/>
+      <c r="AH15" s="141"/>
+      <c r="AI15" s="142"/>
+      <c r="AJ15" s="143"/>
+      <c r="AK15" s="141"/>
+      <c r="AL15" s="142"/>
+      <c r="AM15" s="143"/>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B16" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="D16" s="137">
+      <c r="D16" s="138">
         <f>D13-D14</f>
         <v>100</v>
       </c>
-      <c r="E16" s="138"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="137" t="e">
+      <c r="E16" s="139"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="138" t="e">
         <f>ROUND(G13-(G14/G15),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="138"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="137" t="e">
+      <c r="H16" s="139"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="138" t="e">
         <f t="shared" ref="J16" si="1">ROUND(J13-(J14/J15),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="138"/>
-      <c r="L16" s="139"/>
-      <c r="M16" s="137" t="e">
+      <c r="K16" s="139"/>
+      <c r="L16" s="140"/>
+      <c r="M16" s="138" t="e">
         <f t="shared" ref="M16" si="2">ROUND(M13-(M14/M15),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N16" s="138"/>
-      <c r="O16" s="139"/>
-      <c r="P16" s="137" t="e">
+      <c r="N16" s="139"/>
+      <c r="O16" s="140"/>
+      <c r="P16" s="138" t="e">
         <f t="shared" ref="P16" si="3">ROUND(P13-(P14/P15),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q16" s="138"/>
-      <c r="R16" s="139"/>
-      <c r="S16" s="137" t="e">
+      <c r="Q16" s="139"/>
+      <c r="R16" s="140"/>
+      <c r="S16" s="138" t="e">
         <f t="shared" ref="S16" si="4">ROUND(S13-(S14/S15),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T16" s="138"/>
-      <c r="U16" s="139"/>
-      <c r="V16" s="137"/>
-      <c r="W16" s="138"/>
-      <c r="X16" s="139"/>
-      <c r="Y16" s="137"/>
-      <c r="Z16" s="138"/>
-      <c r="AA16" s="139"/>
-      <c r="AB16" s="137"/>
-      <c r="AC16" s="138"/>
-      <c r="AD16" s="139"/>
-      <c r="AE16" s="137"/>
-      <c r="AF16" s="138"/>
-      <c r="AG16" s="139"/>
-      <c r="AH16" s="137"/>
-      <c r="AI16" s="138"/>
-      <c r="AJ16" s="139"/>
-      <c r="AK16" s="137"/>
-      <c r="AL16" s="138"/>
-      <c r="AM16" s="139"/>
+      <c r="T16" s="139"/>
+      <c r="U16" s="140"/>
+      <c r="V16" s="138"/>
+      <c r="W16" s="139"/>
+      <c r="X16" s="140"/>
+      <c r="Y16" s="138"/>
+      <c r="Z16" s="139"/>
+      <c r="AA16" s="140"/>
+      <c r="AB16" s="138"/>
+      <c r="AC16" s="139"/>
+      <c r="AD16" s="140"/>
+      <c r="AE16" s="138"/>
+      <c r="AF16" s="139"/>
+      <c r="AG16" s="140"/>
+      <c r="AH16" s="138"/>
+      <c r="AI16" s="139"/>
+      <c r="AJ16" s="140"/>
+      <c r="AK16" s="138"/>
+      <c r="AL16" s="139"/>
+      <c r="AM16" s="140"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C17" s="31"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="131"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="133"/>
-      <c r="M17" s="131"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="133"/>
-      <c r="P17" s="131"/>
-      <c r="Q17" s="132"/>
-      <c r="R17" s="133"/>
-      <c r="S17" s="131"/>
-      <c r="T17" s="132"/>
-      <c r="U17" s="133"/>
-      <c r="V17" s="131"/>
-      <c r="W17" s="132"/>
-      <c r="X17" s="133"/>
-      <c r="Y17" s="131"/>
-      <c r="Z17" s="132"/>
-      <c r="AA17" s="133"/>
-      <c r="AB17" s="131"/>
-      <c r="AC17" s="132"/>
-      <c r="AD17" s="133"/>
-      <c r="AE17" s="131"/>
-      <c r="AF17" s="132"/>
-      <c r="AG17" s="133"/>
-      <c r="AH17" s="131"/>
-      <c r="AI17" s="132"/>
-      <c r="AJ17" s="133"/>
-      <c r="AK17" s="131"/>
-      <c r="AL17" s="132"/>
-      <c r="AM17" s="133"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="141"/>
+      <c r="N17" s="142"/>
+      <c r="O17" s="143"/>
+      <c r="P17" s="141"/>
+      <c r="Q17" s="142"/>
+      <c r="R17" s="143"/>
+      <c r="S17" s="141"/>
+      <c r="T17" s="142"/>
+      <c r="U17" s="143"/>
+      <c r="V17" s="141"/>
+      <c r="W17" s="142"/>
+      <c r="X17" s="143"/>
+      <c r="Y17" s="141"/>
+      <c r="Z17" s="142"/>
+      <c r="AA17" s="143"/>
+      <c r="AB17" s="141"/>
+      <c r="AC17" s="142"/>
+      <c r="AD17" s="143"/>
+      <c r="AE17" s="141"/>
+      <c r="AF17" s="142"/>
+      <c r="AG17" s="143"/>
+      <c r="AH17" s="141"/>
+      <c r="AI17" s="142"/>
+      <c r="AJ17" s="143"/>
+      <c r="AK17" s="141"/>
+      <c r="AL17" s="142"/>
+      <c r="AM17" s="143"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B18" s="95" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="128">
+      <c r="D18" s="147">
         <f>Tower!I3*2+Tower!I3/2</f>
         <v>225</v>
       </c>
-      <c r="E18" s="129"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="128">
+      <c r="E18" s="148"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="147">
         <f>D22</f>
         <v>25</v>
       </c>
-      <c r="H18" s="129"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="128">
+      <c r="H18" s="148"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="147">
         <f t="shared" ref="J18" si="5">G22</f>
         <v>21</v>
       </c>
-      <c r="K18" s="129"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="128">
+      <c r="K18" s="148"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="147">
         <f t="shared" ref="M18" si="6">J22</f>
         <v>1</v>
       </c>
-      <c r="N18" s="129"/>
-      <c r="O18" s="130"/>
-      <c r="P18" s="128">
+      <c r="N18" s="148"/>
+      <c r="O18" s="149"/>
+      <c r="P18" s="147">
         <f t="shared" ref="P18" si="7">M22</f>
         <v>-109</v>
       </c>
-      <c r="Q18" s="129"/>
-      <c r="R18" s="130"/>
-      <c r="S18" s="128">
+      <c r="Q18" s="148"/>
+      <c r="R18" s="149"/>
+      <c r="S18" s="147">
         <f t="shared" ref="S18" si="8">P22</f>
         <v>-89</v>
       </c>
-      <c r="T18" s="129"/>
-      <c r="U18" s="130"/>
-      <c r="V18" s="128">
+      <c r="T18" s="148"/>
+      <c r="U18" s="149"/>
+      <c r="V18" s="147">
         <f t="shared" ref="V18" si="9">S22</f>
         <v>-69</v>
       </c>
-      <c r="W18" s="129"/>
-      <c r="X18" s="130"/>
-      <c r="Y18" s="128">
+      <c r="W18" s="148"/>
+      <c r="X18" s="149"/>
+      <c r="Y18" s="147">
         <f t="shared" ref="Y18" si="10">V22</f>
         <v>-69</v>
       </c>
-      <c r="Z18" s="129"/>
-      <c r="AA18" s="130"/>
-      <c r="AB18" s="128">
+      <c r="Z18" s="148"/>
+      <c r="AA18" s="149"/>
+      <c r="AB18" s="147">
         <f t="shared" ref="AB18" si="11">Y22</f>
         <v>-69</v>
       </c>
-      <c r="AC18" s="129"/>
-      <c r="AD18" s="130"/>
-      <c r="AE18" s="128">
+      <c r="AC18" s="148"/>
+      <c r="AD18" s="149"/>
+      <c r="AE18" s="147">
         <f t="shared" ref="AE18" si="12">AB22</f>
         <v>-69</v>
       </c>
-      <c r="AF18" s="129"/>
-      <c r="AG18" s="130"/>
-      <c r="AH18" s="128">
+      <c r="AF18" s="148"/>
+      <c r="AG18" s="149"/>
+      <c r="AH18" s="147">
         <f t="shared" ref="AH18" si="13">AE22</f>
         <v>-69</v>
       </c>
-      <c r="AI18" s="129"/>
-      <c r="AJ18" s="130"/>
-      <c r="AK18" s="128">
+      <c r="AI18" s="148"/>
+      <c r="AJ18" s="149"/>
+      <c r="AK18" s="147">
         <f t="shared" ref="AK18" si="14">AH22</f>
         <v>-69</v>
       </c>
-      <c r="AL18" s="129"/>
-      <c r="AM18" s="130"/>
+      <c r="AL18" s="148"/>
+      <c r="AM18" s="149"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B19" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="D19" s="134">
+      <c r="D19" s="150">
         <f>D26*VLOOKUP($B$26,TOWER,9)+D27*VLOOKUP($B$27,TOWER,9)+D28*VLOOKUP($B$28,TOWER,9)+D29*VLOOKUP($B$29,TOWER,9)+D30*VLOOKUP($B$30,TOWER,9)+D31*VLOOKUP($B$31,TOWER,9)+D32*VLOOKUP($B$32,TOWER,9)+D33*VLOOKUP($B$33,TOWER,9)+D34*VLOOKUP($B$34,TOWER,9)</f>
         <v>100</v>
       </c>
-      <c r="E19" s="135"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="134">
+      <c r="E19" s="151"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="150">
         <f>G26*VLOOKUP($B$26,TOWER,9)+G27*VLOOKUP($B$27,TOWER,9)+G28*VLOOKUP($B$28,TOWER,9)+G29*VLOOKUP($B$29,TOWER,9)+G30*VLOOKUP($B$30,TOWER,9)+G31*VLOOKUP($B$31,TOWER,9)+G32*VLOOKUP($B$32,TOWER,9)+G33*VLOOKUP($B$33,TOWER,9)+G34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="135"/>
-      <c r="I19" s="136"/>
-      <c r="J19" s="134">
+      <c r="H19" s="151"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="150">
         <f>J26*VLOOKUP($B$26,TOWER,9)+J27*VLOOKUP($B$27,TOWER,9)+J28*VLOOKUP($B$28,TOWER,9)+J29*VLOOKUP($B$29,TOWER,9)+J30*VLOOKUP($B$30,TOWER,9)+J31*VLOOKUP($B$31,TOWER,9)+J32*VLOOKUP($B$32,TOWER,9)+J33*VLOOKUP($B$33,TOWER,9)+J34*VLOOKUP($B$34,TOWER,9)</f>
         <v>180</v>
       </c>
-      <c r="K19" s="135"/>
-      <c r="L19" s="136"/>
-      <c r="M19" s="134">
+      <c r="K19" s="151"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="150">
         <f>M26*VLOOKUP($B$26,TOWER,9)+M27*VLOOKUP($B$27,TOWER,9)+M28*VLOOKUP($B$28,TOWER,9)+M29*VLOOKUP($B$29,TOWER,9)+M30*VLOOKUP($B$30,TOWER,9)+M31*VLOOKUP($B$31,TOWER,9)+M32*VLOOKUP($B$32,TOWER,9)+M33*VLOOKUP($B$33,TOWER,9)+M34*VLOOKUP($B$34,TOWER,9)</f>
         <v>80</v>
       </c>
-      <c r="N19" s="135"/>
-      <c r="O19" s="136"/>
-      <c r="P19" s="134">
+      <c r="N19" s="151"/>
+      <c r="O19" s="152"/>
+      <c r="P19" s="150">
         <f>P26*VLOOKUP($B$26,TOWER,9)+P27*VLOOKUP($B$27,TOWER,9)+P28*VLOOKUP($B$28,TOWER,9)+P29*VLOOKUP($B$29,TOWER,9)+P30*VLOOKUP($B$30,TOWER,9)+P31*VLOOKUP($B$31,TOWER,9)+P32*VLOOKUP($B$32,TOWER,9)+P33*VLOOKUP($B$33,TOWER,9)+P34*VLOOKUP($B$34,TOWER,9)</f>
         <v>100</v>
       </c>
-      <c r="Q19" s="135"/>
-      <c r="R19" s="136"/>
-      <c r="S19" s="134">
+      <c r="Q19" s="151"/>
+      <c r="R19" s="152"/>
+      <c r="S19" s="150">
         <f>S26*VLOOKUP($B$26,TOWER,9)+S27*VLOOKUP($B$27,TOWER,9)+S28*VLOOKUP($B$28,TOWER,9)+S29*VLOOKUP($B$29,TOWER,9)+S30*VLOOKUP($B$30,TOWER,9)+S31*VLOOKUP($B$31,TOWER,9)+S32*VLOOKUP($B$32,TOWER,9)+S33*VLOOKUP($B$33,TOWER,9)+S34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="T19" s="135"/>
-      <c r="U19" s="136"/>
-      <c r="V19" s="134">
+      <c r="T19" s="151"/>
+      <c r="U19" s="152"/>
+      <c r="V19" s="150">
         <f>V26*VLOOKUP($B$26,TOWER,9)+V27*VLOOKUP($B$27,TOWER,9)+V28*VLOOKUP($B$28,TOWER,9)+V29*VLOOKUP($B$29,TOWER,9)+V30*VLOOKUP($B$30,TOWER,9)+V31*VLOOKUP($B$31,TOWER,9)+V32*VLOOKUP($B$32,TOWER,9)+V33*VLOOKUP($B$33,TOWER,9)+V34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="W19" s="135"/>
-      <c r="X19" s="136"/>
-      <c r="Y19" s="134">
+      <c r="W19" s="151"/>
+      <c r="X19" s="152"/>
+      <c r="Y19" s="150">
         <f>Y26*VLOOKUP($B$26,TOWER,9)+Y27*VLOOKUP($B$27,TOWER,9)+Y28*VLOOKUP($B$28,TOWER,9)+Y29*VLOOKUP($B$29,TOWER,9)+Y30*VLOOKUP($B$30,TOWER,9)+Y31*VLOOKUP($B$31,TOWER,9)+Y32*VLOOKUP($B$32,TOWER,9)+Y33*VLOOKUP($B$33,TOWER,9)+Y34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="Z19" s="135"/>
-      <c r="AA19" s="136"/>
-      <c r="AB19" s="134">
+      <c r="Z19" s="151"/>
+      <c r="AA19" s="152"/>
+      <c r="AB19" s="150">
         <f>AB26*VLOOKUP($B$26,TOWER,9)+AB27*VLOOKUP($B$27,TOWER,9)+AB28*VLOOKUP($B$28,TOWER,9)+AB29*VLOOKUP($B$29,TOWER,9)+AB30*VLOOKUP($B$30,TOWER,9)+AB31*VLOOKUP($B$31,TOWER,9)+AB32*VLOOKUP($B$32,TOWER,9)+AB33*VLOOKUP($B$33,TOWER,9)+AB34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="AC19" s="135"/>
-      <c r="AD19" s="136"/>
-      <c r="AE19" s="134">
+      <c r="AC19" s="151"/>
+      <c r="AD19" s="152"/>
+      <c r="AE19" s="150">
         <f>AE26*VLOOKUP($B$26,TOWER,9)+AE27*VLOOKUP($B$27,TOWER,9)+AE28*VLOOKUP($B$28,TOWER,9)+AE29*VLOOKUP($B$29,TOWER,9)+AE30*VLOOKUP($B$30,TOWER,9)+AE31*VLOOKUP($B$31,TOWER,9)+AE32*VLOOKUP($B$32,TOWER,9)+AE33*VLOOKUP($B$33,TOWER,9)+AE34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="AF19" s="135"/>
-      <c r="AG19" s="136"/>
-      <c r="AH19" s="134">
+      <c r="AF19" s="151"/>
+      <c r="AG19" s="152"/>
+      <c r="AH19" s="150">
         <f>AH26*VLOOKUP($B$26,TOWER,9)+AH27*VLOOKUP($B$27,TOWER,9)+AH28*VLOOKUP($B$28,TOWER,9)+AH29*VLOOKUP($B$29,TOWER,9)+AH30*VLOOKUP($B$30,TOWER,9)+AH31*VLOOKUP($B$31,TOWER,9)+AH32*VLOOKUP($B$32,TOWER,9)+AH33*VLOOKUP($B$33,TOWER,9)+AH34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="AI19" s="135"/>
-      <c r="AJ19" s="136"/>
-      <c r="AK19" s="134">
+      <c r="AI19" s="151"/>
+      <c r="AJ19" s="152"/>
+      <c r="AK19" s="150">
         <f>AK26*VLOOKUP($B$26,TOWER,9)+AK27*VLOOKUP($B$27,TOWER,9)+AK28*VLOOKUP($B$28,TOWER,9)+AK29*VLOOKUP($B$29,TOWER,9)+AK30*VLOOKUP($B$30,TOWER,9)+AK31*VLOOKUP($B$31,TOWER,9)+AK32*VLOOKUP($B$32,TOWER,9)+AK33*VLOOKUP($B$33,TOWER,9)+AK34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="AL19" s="135"/>
-      <c r="AM19" s="136"/>
+      <c r="AL19" s="151"/>
+      <c r="AM19" s="152"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B20" s="97" t="s">
         <v>211</v>
       </c>
-      <c r="D20" s="128">
+      <c r="D20" s="147">
         <f>SUM(HLOOKUP(E37,FSTATS,5,FALSE)*D37,HLOOKUP(E38,FSTATS,5,FALSE)*D38,HLOOKUP(E39,FSTATS,5,FALSE)*D39)</f>
         <v>100</v>
       </c>
-      <c r="E20" s="129"/>
-      <c r="F20" s="130"/>
-      <c r="G20" s="128">
+      <c r="E20" s="148"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="147">
         <f>SUM(HLOOKUP(H37,FSTATS,5,FALSE)*G37,HLOOKUP(H38,FSTATS,5,FALSE)*G38,HLOOKUP(H39,FSTATS,5,FALSE)*G39)</f>
         <v>100</v>
       </c>
-      <c r="H20" s="129"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="128">
+      <c r="H20" s="148"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="147">
         <f>SUM(HLOOKUP(K37,FSTATS,5,FALSE)*J37,HLOOKUP(K38,FSTATS,5,FALSE)*J38,HLOOKUP(K39,FSTATS,5,FALSE)*J39)</f>
         <v>0</v>
       </c>
-      <c r="K20" s="129"/>
-      <c r="L20" s="130"/>
-      <c r="M20" s="128">
+      <c r="K20" s="148"/>
+      <c r="L20" s="149"/>
+      <c r="M20" s="147">
         <f>SUM(HLOOKUP(N37,FSTATS,5,FALSE)*M37,HLOOKUP(N38,FSTATS,5,FALSE)*M38,HLOOKUP(N39,FSTATS,5,FALSE)*M39)</f>
         <v>150</v>
       </c>
-      <c r="N20" s="129"/>
-      <c r="O20" s="130"/>
-      <c r="P20" s="128">
+      <c r="N20" s="148"/>
+      <c r="O20" s="149"/>
+      <c r="P20" s="147">
         <f>SUM(HLOOKUP(Q37,FSTATS,5,FALSE)*P37,HLOOKUP(Q38,FSTATS,5,FALSE)*P38,HLOOKUP(Q39,FSTATS,5,FALSE)*P39)</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="129"/>
-      <c r="R20" s="130"/>
-      <c r="S20" s="128">
+      <c r="Q20" s="148"/>
+      <c r="R20" s="149"/>
+      <c r="S20" s="147">
         <f>SUM(HLOOKUP(T37,FSTATS,5,FALSE)*S37,HLOOKUP(T38,FSTATS,5,FALSE)*S38,HLOOKUP(T39,FSTATS,5,FALSE)*S39)</f>
         <v>0</v>
       </c>
-      <c r="T20" s="129"/>
-      <c r="U20" s="130"/>
-      <c r="V20" s="128">
+      <c r="T20" s="148"/>
+      <c r="U20" s="149"/>
+      <c r="V20" s="147">
         <f>SUM(HLOOKUP(W37,FSTATS,5,FALSE)*V37,HLOOKUP(W38,FSTATS,5,FALSE)*V38,HLOOKUP(W39,FSTATS,5,FALSE)*V39)</f>
         <v>0</v>
       </c>
-      <c r="W20" s="129"/>
-      <c r="X20" s="130"/>
-      <c r="Y20" s="128">
+      <c r="W20" s="148"/>
+      <c r="X20" s="149"/>
+      <c r="Y20" s="147">
         <f>SUM(HLOOKUP(Z37,FSTATS,5,FALSE)*Y37,HLOOKUP(Z38,FSTATS,5,FALSE)*Y38,HLOOKUP(Z39,FSTATS,5,FALSE)*Y39)</f>
         <v>0</v>
       </c>
-      <c r="Z20" s="129"/>
-      <c r="AA20" s="130"/>
-      <c r="AB20" s="128">
+      <c r="Z20" s="148"/>
+      <c r="AA20" s="149"/>
+      <c r="AB20" s="147">
         <f>SUM(HLOOKUP(AC37,FSTATS,5,FALSE)*AB37,HLOOKUP(AC38,FSTATS,5,FALSE)*AB38,HLOOKUP(AC39,FSTATS,5,FALSE)*AB39)</f>
         <v>0</v>
       </c>
-      <c r="AC20" s="129"/>
-      <c r="AD20" s="130"/>
-      <c r="AE20" s="128">
+      <c r="AC20" s="148"/>
+      <c r="AD20" s="149"/>
+      <c r="AE20" s="147">
         <f>SUM(HLOOKUP(AF37,FSTATS,5,FALSE)*AE37,HLOOKUP(AF38,FSTATS,5,FALSE)*AE38,HLOOKUP(AF39,FSTATS,5,FALSE)*AE39)</f>
         <v>0</v>
       </c>
-      <c r="AF20" s="129"/>
-      <c r="AG20" s="130"/>
-      <c r="AH20" s="128">
+      <c r="AF20" s="148"/>
+      <c r="AG20" s="149"/>
+      <c r="AH20" s="147">
         <f>SUM(HLOOKUP(AI37,FSTATS,5,FALSE)*AH37,HLOOKUP(AI38,FSTATS,5,FALSE)*AH38,HLOOKUP(AI39,FSTATS,5,FALSE)*AH39)</f>
         <v>0</v>
       </c>
-      <c r="AI20" s="129"/>
-      <c r="AJ20" s="130"/>
-      <c r="AK20" s="128">
+      <c r="AI20" s="148"/>
+      <c r="AJ20" s="149"/>
+      <c r="AK20" s="147">
         <f>SUM(HLOOKUP(AL37,FSTATS,5,FALSE)*AK37,HLOOKUP(AL38,FSTATS,5,FALSE)*AK38,HLOOKUP(AL39,FSTATS,5,FALSE)*AK39)</f>
         <v>0</v>
       </c>
-      <c r="AL20" s="129"/>
-      <c r="AM20" s="130"/>
+      <c r="AL20" s="148"/>
+      <c r="AM20" s="149"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B21" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="D21" s="134">
+      <c r="D21" s="150">
         <f>D3*VLOOKUP($B$3,ENEMY,8)+D4*VLOOKUP($B$4,ENEMY,8)+D5*VLOOKUP($B$5,ENEMY,8)+D6*VLOOKUP($B$6,ENEMY,8)+D7*VLOOKUP($B$7,ENEMY,8)+D8*VLOOKUP($B$8,ENEMY,8)+D9*VLOOKUP($B$9,ENEMY,8)+D10*VLOOKUP($B$10,ENEMY,8)+D11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="135"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="134">
+      <c r="E21" s="151"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="150">
         <f>G3*H3*VLOOKUP($B$3,ENEMY,8)+G4*H4*VLOOKUP($B$4,ENEMY,8)+G5*H5*VLOOKUP($B$5,ENEMY,8)+G6*H6*VLOOKUP($B$6,ENEMY,8)+G7*H7*VLOOKUP($B$7,ENEMY,8)+G8*H8*VLOOKUP($B$8,ENEMY,8)+G9*H9*VLOOKUP($B$9,ENEMY,8)+G10*H10*VLOOKUP($B$10,ENEMY,8)+G11*H11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>96</v>
       </c>
-      <c r="H21" s="135"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="134">
+      <c r="H21" s="151"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="150">
         <f>J3*K3*VLOOKUP($B$3,ENEMY,8)+J4*K4*VLOOKUP($B$4,ENEMY,8)+J5*K5*VLOOKUP($B$5,ENEMY,8)+J6*K6*VLOOKUP($B$6,ENEMY,8)+J7*K7*VLOOKUP($B$7,ENEMY,8)+J8*K8*VLOOKUP($B$8,ENEMY,8)+J9*K9*VLOOKUP($B$9,ENEMY,8)+J10*K10*VLOOKUP($B$10,ENEMY,8)+J11*K11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>160</v>
       </c>
-      <c r="K21" s="135"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="134">
+      <c r="K21" s="151"/>
+      <c r="L21" s="152"/>
+      <c r="M21" s="150">
         <f>M3*N3*VLOOKUP($B$3,ENEMY,8)+M4*N4*VLOOKUP($B$4,ENEMY,8)+M5*N5*VLOOKUP($B$5,ENEMY,8)+M6*N6*VLOOKUP($B$6,ENEMY,8)+M7*N7*VLOOKUP($B$7,ENEMY,8)+M8*N8*VLOOKUP($B$8,ENEMY,8)+M9*N9*VLOOKUP($B$9,ENEMY,8)+M10*N10*VLOOKUP($B$10,ENEMY,8)+M11*N11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>120</v>
       </c>
-      <c r="N21" s="135"/>
-      <c r="O21" s="136"/>
-      <c r="P21" s="134">
+      <c r="N21" s="151"/>
+      <c r="O21" s="152"/>
+      <c r="P21" s="150">
         <f>P3*Q3*VLOOKUP($B$3,ENEMY,8)+P4*Q4*VLOOKUP($B$4,ENEMY,8)+P5*Q5*VLOOKUP($B$5,ENEMY,8)+P6*Q6*VLOOKUP($B$6,ENEMY,8)+P7*Q7*VLOOKUP($B$7,ENEMY,8)+P8*Q8*VLOOKUP($B$8,ENEMY,8)+P9*Q9*VLOOKUP($B$9,ENEMY,8)+P10*Q10*VLOOKUP($B$10,ENEMY,8)+P11*Q11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>120</v>
       </c>
-      <c r="Q21" s="135"/>
-      <c r="R21" s="136"/>
-      <c r="S21" s="134">
+      <c r="Q21" s="151"/>
+      <c r="R21" s="152"/>
+      <c r="S21" s="150">
         <f>S3*T3*VLOOKUP($B$3,ENEMY,8)+S4*T4*VLOOKUP($B$4,ENEMY,8)+S5*T5*VLOOKUP($B$5,ENEMY,8)+S6*T6*VLOOKUP($B$6,ENEMY,8)+S7*T7*VLOOKUP($B$7,ENEMY,8)+S8*T8*VLOOKUP($B$8,ENEMY,8)+S9*T9*VLOOKUP($B$9,ENEMY,8)+S10*T10*VLOOKUP($B$10,ENEMY,8)+S11*T11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>20</v>
       </c>
-      <c r="T21" s="135"/>
-      <c r="U21" s="136"/>
-      <c r="V21" s="134">
+      <c r="T21" s="151"/>
+      <c r="U21" s="152"/>
+      <c r="V21" s="150">
         <f>V3*W3*VLOOKUP($B$3,ENEMY,8)+V4*W4*VLOOKUP($B$4,ENEMY,8)+V5*W5*VLOOKUP($B$5,ENEMY,8)+V6*W6*VLOOKUP($B$6,ENEMY,8)+V7*W7*VLOOKUP($B$7,ENEMY,8)+V8*W8*VLOOKUP($B$8,ENEMY,8)+V9*W9*VLOOKUP($B$9,ENEMY,8)+V10*W10*VLOOKUP($B$10,ENEMY,8)+V11*W11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="W21" s="135"/>
-      <c r="X21" s="136"/>
-      <c r="Y21" s="134">
+      <c r="W21" s="151"/>
+      <c r="X21" s="152"/>
+      <c r="Y21" s="150">
         <f>Y3*Z3*VLOOKUP($B$3,ENEMY,8)+Y4*Z4*VLOOKUP($B$4,ENEMY,8)+Y5*Z5*VLOOKUP($B$5,ENEMY,8)+Y6*Z6*VLOOKUP($B$6,ENEMY,8)+Y7*Z7*VLOOKUP($B$7,ENEMY,8)+Y8*Z8*VLOOKUP($B$8,ENEMY,8)+Y9*Z9*VLOOKUP($B$9,ENEMY,8)+Y10*Z10*VLOOKUP($B$10,ENEMY,8)+Y11*Z11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="Z21" s="135"/>
-      <c r="AA21" s="136"/>
-      <c r="AB21" s="134">
+      <c r="Z21" s="151"/>
+      <c r="AA21" s="152"/>
+      <c r="AB21" s="150">
         <f>AB3*AC3*VLOOKUP($B$3,ENEMY,8)+AB4*AC4*VLOOKUP($B$4,ENEMY,8)+AB5*AC5*VLOOKUP($B$5,ENEMY,8)+AB6*AC6*VLOOKUP($B$6,ENEMY,8)+AB7*AC7*VLOOKUP($B$7,ENEMY,8)+AB8*AC8*VLOOKUP($B$8,ENEMY,8)+AB9*AC9*VLOOKUP($B$9,ENEMY,8)+AB10*AC10*VLOOKUP($B$10,ENEMY,8)+AB11*AC11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="AC21" s="135"/>
-      <c r="AD21" s="136"/>
-      <c r="AE21" s="134">
+      <c r="AC21" s="151"/>
+      <c r="AD21" s="152"/>
+      <c r="AE21" s="150">
         <f>AE3*AF3*VLOOKUP($B$3,ENEMY,8)+AE4*AF4*VLOOKUP($B$4,ENEMY,8)+AE5*AF5*VLOOKUP($B$5,ENEMY,8)+AE6*AF6*VLOOKUP($B$6,ENEMY,8)+AE7*AF7*VLOOKUP($B$7,ENEMY,8)+AE8*AF8*VLOOKUP($B$8,ENEMY,8)+AE9*AF9*VLOOKUP($B$9,ENEMY,8)+AE10*AF10*VLOOKUP($B$10,ENEMY,8)+AE11*AF11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="AF21" s="135"/>
-      <c r="AG21" s="136"/>
-      <c r="AH21" s="134">
+      <c r="AF21" s="151"/>
+      <c r="AG21" s="152"/>
+      <c r="AH21" s="150">
         <f>AH3*AI3*VLOOKUP($B$3,ENEMY,8)+AH4*AI4*VLOOKUP($B$4,ENEMY,8)+AH5*AI5*VLOOKUP($B$5,ENEMY,8)+AH6*AI6*VLOOKUP($B$6,ENEMY,8)+AH7*AI7*VLOOKUP($B$7,ENEMY,8)+AH8*AI8*VLOOKUP($B$8,ENEMY,8)+AH9*AI9*VLOOKUP($B$9,ENEMY,8)+AH10*AI10*VLOOKUP($B$10,ENEMY,8)+AH11*AI11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="AI21" s="135"/>
-      <c r="AJ21" s="136"/>
-      <c r="AK21" s="134">
+      <c r="AI21" s="151"/>
+      <c r="AJ21" s="152"/>
+      <c r="AK21" s="150">
         <f>AK3*AL3*VLOOKUP($B$3,ENEMY,8)+AK4*AL4*VLOOKUP($B$4,ENEMY,8)+AK5*AL5*VLOOKUP($B$5,ENEMY,8)+AK6*AL6*VLOOKUP($B$6,ENEMY,8)+AK7*AL7*VLOOKUP($B$7,ENEMY,8)+AK8*AL8*VLOOKUP($B$8,ENEMY,8)+AK9*AL9*VLOOKUP($B$9,ENEMY,8)+AK10*AL10*VLOOKUP($B$10,ENEMY,8)+AK11*AL11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="AL21" s="135"/>
-      <c r="AM21" s="136"/>
+      <c r="AL21" s="151"/>
+      <c r="AM21" s="152"/>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B22" s="97" t="s">
         <v>187</v>
       </c>
-      <c r="D22" s="128">
+      <c r="D22" s="147">
         <f>D18-(D19+D20)+D21</f>
         <v>25</v>
       </c>
-      <c r="E22" s="129"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="128">
+      <c r="E22" s="148"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="147">
         <f>G18-(G19+G20)+G21</f>
         <v>21</v>
       </c>
-      <c r="H22" s="129"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="128">
+      <c r="H22" s="148"/>
+      <c r="I22" s="149"/>
+      <c r="J22" s="147">
         <f t="shared" ref="J22" si="15">J18-(J19+J20)+J21</f>
         <v>1</v>
       </c>
-      <c r="K22" s="129"/>
-      <c r="L22" s="130"/>
-      <c r="M22" s="128">
+      <c r="K22" s="148"/>
+      <c r="L22" s="149"/>
+      <c r="M22" s="147">
         <f t="shared" ref="M22" si="16">M18-(M19+M20)+M21</f>
         <v>-109</v>
       </c>
-      <c r="N22" s="129"/>
-      <c r="O22" s="130"/>
-      <c r="P22" s="128">
+      <c r="N22" s="148"/>
+      <c r="O22" s="149"/>
+      <c r="P22" s="147">
         <f t="shared" ref="P22" si="17">P18-(P19+P20)+P21</f>
         <v>-89</v>
       </c>
-      <c r="Q22" s="129"/>
-      <c r="R22" s="130"/>
-      <c r="S22" s="128">
+      <c r="Q22" s="148"/>
+      <c r="R22" s="149"/>
+      <c r="S22" s="147">
         <f t="shared" ref="S22" si="18">S18-(S19+S20)+S21</f>
         <v>-69</v>
       </c>
-      <c r="T22" s="129"/>
-      <c r="U22" s="130"/>
-      <c r="V22" s="128">
+      <c r="T22" s="148"/>
+      <c r="U22" s="149"/>
+      <c r="V22" s="147">
         <f t="shared" ref="V22" si="19">V18-(V19+V20)+V21</f>
         <v>-69</v>
       </c>
-      <c r="W22" s="129"/>
-      <c r="X22" s="130"/>
-      <c r="Y22" s="128">
+      <c r="W22" s="148"/>
+      <c r="X22" s="149"/>
+      <c r="Y22" s="147">
         <f t="shared" ref="Y22" si="20">Y18-(Y19+Y20)+Y21</f>
         <v>-69</v>
       </c>
-      <c r="Z22" s="129"/>
-      <c r="AA22" s="130"/>
-      <c r="AB22" s="128">
+      <c r="Z22" s="148"/>
+      <c r="AA22" s="149"/>
+      <c r="AB22" s="147">
         <f t="shared" ref="AB22" si="21">AB18-(AB19+AB20)+AB21</f>
         <v>-69</v>
       </c>
-      <c r="AC22" s="129"/>
-      <c r="AD22" s="130"/>
-      <c r="AE22" s="128">
+      <c r="AC22" s="148"/>
+      <c r="AD22" s="149"/>
+      <c r="AE22" s="147">
         <f t="shared" ref="AE22" si="22">AE18-(AE19+AE20)+AE21</f>
         <v>-69</v>
       </c>
-      <c r="AF22" s="129"/>
-      <c r="AG22" s="130"/>
-      <c r="AH22" s="128">
+      <c r="AF22" s="148"/>
+      <c r="AG22" s="149"/>
+      <c r="AH22" s="147">
         <f t="shared" ref="AH22" si="23">AH18-(AH19+AH20)+AH21</f>
         <v>-69</v>
       </c>
-      <c r="AI22" s="129"/>
-      <c r="AJ22" s="130"/>
-      <c r="AK22" s="128">
+      <c r="AI22" s="148"/>
+      <c r="AJ22" s="149"/>
+      <c r="AK22" s="147">
         <f t="shared" ref="AK22" si="24">AK18-(AK19+AK20)+AK21</f>
         <v>-69</v>
       </c>
-      <c r="AL22" s="129"/>
-      <c r="AM22" s="130"/>
+      <c r="AL22" s="148"/>
+      <c r="AM22" s="149"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B25" s="105" t="s">
@@ -6558,455 +6537,455 @@
         <v>140</v>
       </c>
       <c r="C26" s="100" t="str">
-        <f>VLOOKUP(B3,ENEMY,4)</f>
+        <f t="shared" ref="C26:C34" si="25">VLOOKUP(B3,ENEMY,4)</f>
         <v>Normal</v>
       </c>
       <c r="D26" s="116"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="184"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="184"/>
-      <c r="K26" s="129"/>
-      <c r="L26" s="130"/>
-      <c r="M26" s="184"/>
-      <c r="N26" s="129"/>
-      <c r="O26" s="130"/>
-      <c r="P26" s="184"/>
-      <c r="Q26" s="129"/>
-      <c r="R26" s="130"/>
-      <c r="S26" s="184"/>
-      <c r="T26" s="129"/>
-      <c r="U26" s="130"/>
-      <c r="V26" s="184"/>
-      <c r="W26" s="129"/>
-      <c r="X26" s="130"/>
-      <c r="Y26" s="184"/>
-      <c r="Z26" s="129"/>
-      <c r="AA26" s="130"/>
-      <c r="AB26" s="184"/>
-      <c r="AC26" s="129"/>
-      <c r="AD26" s="130"/>
-      <c r="AE26" s="184"/>
-      <c r="AF26" s="129"/>
-      <c r="AG26" s="130"/>
-      <c r="AH26" s="184"/>
-      <c r="AI26" s="129"/>
-      <c r="AJ26" s="130"/>
-      <c r="AK26" s="184"/>
-      <c r="AL26" s="129"/>
-      <c r="AM26" s="130"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="148"/>
+      <c r="O26" s="149"/>
+      <c r="P26" s="132"/>
+      <c r="Q26" s="148"/>
+      <c r="R26" s="149"/>
+      <c r="S26" s="132"/>
+      <c r="T26" s="148"/>
+      <c r="U26" s="149"/>
+      <c r="V26" s="132"/>
+      <c r="W26" s="148"/>
+      <c r="X26" s="149"/>
+      <c r="Y26" s="132"/>
+      <c r="Z26" s="148"/>
+      <c r="AA26" s="149"/>
+      <c r="AB26" s="132"/>
+      <c r="AC26" s="148"/>
+      <c r="AD26" s="149"/>
+      <c r="AE26" s="132"/>
+      <c r="AF26" s="148"/>
+      <c r="AG26" s="149"/>
+      <c r="AH26" s="132"/>
+      <c r="AI26" s="148"/>
+      <c r="AJ26" s="149"/>
+      <c r="AK26" s="132"/>
+      <c r="AL26" s="148"/>
+      <c r="AM26" s="149"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="109">
-        <f t="shared" ref="A27:A39" si="25">SUM(D27:BA27)</f>
+        <f t="shared" ref="A27:A39" si="26">SUM(D27:BA27)</f>
         <v>0</v>
       </c>
       <c r="B27" s="107" t="s">
         <v>195</v>
       </c>
       <c r="C27" s="100" t="str">
-        <f>VLOOKUP(B4,ENEMY,4)</f>
+        <f t="shared" si="25"/>
         <v>Intangible</v>
       </c>
       <c r="D27" s="118"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="183"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="136"/>
-      <c r="J27" s="183"/>
-      <c r="K27" s="135"/>
-      <c r="L27" s="136"/>
-      <c r="M27" s="183"/>
-      <c r="N27" s="135"/>
-      <c r="O27" s="136"/>
-      <c r="P27" s="183"/>
-      <c r="Q27" s="135"/>
-      <c r="R27" s="136"/>
-      <c r="S27" s="183"/>
-      <c r="T27" s="135"/>
-      <c r="U27" s="136"/>
-      <c r="V27" s="183"/>
-      <c r="W27" s="135"/>
-      <c r="X27" s="136"/>
-      <c r="Y27" s="183"/>
-      <c r="Z27" s="135"/>
-      <c r="AA27" s="136"/>
-      <c r="AB27" s="183"/>
-      <c r="AC27" s="135"/>
-      <c r="AD27" s="136"/>
-      <c r="AE27" s="183"/>
-      <c r="AF27" s="135"/>
-      <c r="AG27" s="136"/>
-      <c r="AH27" s="183"/>
-      <c r="AI27" s="135"/>
-      <c r="AJ27" s="136"/>
-      <c r="AK27" s="183"/>
-      <c r="AL27" s="135"/>
-      <c r="AM27" s="136"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="151"/>
+      <c r="L27" s="152"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="151"/>
+      <c r="O27" s="152"/>
+      <c r="P27" s="131"/>
+      <c r="Q27" s="151"/>
+      <c r="R27" s="152"/>
+      <c r="S27" s="131"/>
+      <c r="T27" s="151"/>
+      <c r="U27" s="152"/>
+      <c r="V27" s="131"/>
+      <c r="W27" s="151"/>
+      <c r="X27" s="152"/>
+      <c r="Y27" s="131"/>
+      <c r="Z27" s="151"/>
+      <c r="AA27" s="152"/>
+      <c r="AB27" s="131"/>
+      <c r="AC27" s="151"/>
+      <c r="AD27" s="152"/>
+      <c r="AE27" s="131"/>
+      <c r="AF27" s="151"/>
+      <c r="AG27" s="152"/>
+      <c r="AH27" s="131"/>
+      <c r="AI27" s="151"/>
+      <c r="AJ27" s="152"/>
+      <c r="AK27" s="131"/>
+      <c r="AL27" s="151"/>
+      <c r="AM27" s="152"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="109">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="B28" s="107" t="s">
         <v>196</v>
       </c>
       <c r="C28" s="100" t="str">
-        <f>VLOOKUP(B5,ENEMY,4)</f>
+        <f t="shared" si="25"/>
         <v>Saboteur</v>
       </c>
       <c r="D28" s="116">
         <v>1</v>
       </c>
-      <c r="E28" s="129" t="s">
+      <c r="E28" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="130"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="184">
+      <c r="F28" s="149"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="132">
         <v>1</v>
       </c>
-      <c r="K28" s="129" t="s">
+      <c r="K28" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="L28" s="130"/>
-      <c r="M28" s="184"/>
-      <c r="N28" s="129"/>
-      <c r="O28" s="130"/>
-      <c r="P28" s="184">
+      <c r="L28" s="149"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="148"/>
+      <c r="O28" s="149"/>
+      <c r="P28" s="132">
         <v>1</v>
       </c>
-      <c r="Q28" s="129"/>
-      <c r="R28" s="130"/>
-      <c r="S28" s="184"/>
-      <c r="T28" s="129"/>
-      <c r="U28" s="130"/>
-      <c r="V28" s="184"/>
-      <c r="W28" s="129"/>
-      <c r="X28" s="130"/>
-      <c r="Y28" s="184"/>
-      <c r="Z28" s="129"/>
-      <c r="AA28" s="130"/>
-      <c r="AB28" s="184"/>
-      <c r="AC28" s="129"/>
-      <c r="AD28" s="130"/>
-      <c r="AE28" s="184"/>
-      <c r="AF28" s="129"/>
-      <c r="AG28" s="130"/>
-      <c r="AH28" s="184"/>
-      <c r="AI28" s="129"/>
-      <c r="AJ28" s="130"/>
-      <c r="AK28" s="184"/>
-      <c r="AL28" s="129"/>
-      <c r="AM28" s="130"/>
+      <c r="Q28" s="148"/>
+      <c r="R28" s="149"/>
+      <c r="S28" s="132"/>
+      <c r="T28" s="148"/>
+      <c r="U28" s="149"/>
+      <c r="V28" s="132"/>
+      <c r="W28" s="148"/>
+      <c r="X28" s="149"/>
+      <c r="Y28" s="132"/>
+      <c r="Z28" s="148"/>
+      <c r="AA28" s="149"/>
+      <c r="AB28" s="132"/>
+      <c r="AC28" s="148"/>
+      <c r="AD28" s="149"/>
+      <c r="AE28" s="132"/>
+      <c r="AF28" s="148"/>
+      <c r="AG28" s="149"/>
+      <c r="AH28" s="132"/>
+      <c r="AI28" s="148"/>
+      <c r="AJ28" s="149"/>
+      <c r="AK28" s="132"/>
+      <c r="AL28" s="148"/>
+      <c r="AM28" s="149"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="109">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B29" s="99" t="s">
         <v>197</v>
       </c>
       <c r="C29" s="100" t="str">
-        <f>VLOOKUP(B6,ENEMY,4)</f>
+        <f t="shared" si="25"/>
         <v>Normal</v>
       </c>
       <c r="D29" s="118"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="183"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="183"/>
-      <c r="K29" s="135"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="183"/>
-      <c r="N29" s="135"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="183"/>
-      <c r="Q29" s="135"/>
-      <c r="R29" s="136"/>
-      <c r="S29" s="183"/>
-      <c r="T29" s="135"/>
-      <c r="U29" s="136"/>
-      <c r="V29" s="183"/>
-      <c r="W29" s="135"/>
-      <c r="X29" s="136"/>
-      <c r="Y29" s="183"/>
-      <c r="Z29" s="135"/>
-      <c r="AA29" s="136"/>
-      <c r="AB29" s="183"/>
-      <c r="AC29" s="135"/>
-      <c r="AD29" s="136"/>
-      <c r="AE29" s="183"/>
-      <c r="AF29" s="135"/>
-      <c r="AG29" s="136"/>
-      <c r="AH29" s="183"/>
-      <c r="AI29" s="135"/>
-      <c r="AJ29" s="136"/>
-      <c r="AK29" s="183"/>
-      <c r="AL29" s="135"/>
-      <c r="AM29" s="136"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="131"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="152"/>
+      <c r="M29" s="131"/>
+      <c r="N29" s="151"/>
+      <c r="O29" s="152"/>
+      <c r="P29" s="131"/>
+      <c r="Q29" s="151"/>
+      <c r="R29" s="152"/>
+      <c r="S29" s="131"/>
+      <c r="T29" s="151"/>
+      <c r="U29" s="152"/>
+      <c r="V29" s="131"/>
+      <c r="W29" s="151"/>
+      <c r="X29" s="152"/>
+      <c r="Y29" s="131"/>
+      <c r="Z29" s="151"/>
+      <c r="AA29" s="152"/>
+      <c r="AB29" s="131"/>
+      <c r="AC29" s="151"/>
+      <c r="AD29" s="152"/>
+      <c r="AE29" s="131"/>
+      <c r="AF29" s="151"/>
+      <c r="AG29" s="152"/>
+      <c r="AH29" s="131"/>
+      <c r="AI29" s="151"/>
+      <c r="AJ29" s="152"/>
+      <c r="AK29" s="131"/>
+      <c r="AL29" s="151"/>
+      <c r="AM29" s="152"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="109">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="B30" s="107" t="s">
         <v>198</v>
       </c>
       <c r="C30" s="100" t="str">
-        <f>VLOOKUP(B7,ENEMY,4)</f>
+        <f t="shared" si="25"/>
         <v>Intangible</v>
       </c>
       <c r="D30" s="116"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="184"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="184">
+      <c r="E30" s="148"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="132">
         <v>1</v>
       </c>
-      <c r="K30" s="129" t="s">
+      <c r="K30" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="L30" s="130"/>
-      <c r="M30" s="184">
+      <c r="L30" s="149"/>
+      <c r="M30" s="132">
         <v>1</v>
       </c>
-      <c r="N30" s="129" t="s">
+      <c r="N30" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="O30" s="130"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="129"/>
-      <c r="R30" s="130"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="129"/>
-      <c r="U30" s="130"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="129"/>
-      <c r="X30" s="130"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="129"/>
-      <c r="AA30" s="130"/>
-      <c r="AB30" s="184"/>
-      <c r="AC30" s="129"/>
-      <c r="AD30" s="130"/>
-      <c r="AE30" s="184"/>
-      <c r="AF30" s="129"/>
-      <c r="AG30" s="130"/>
-      <c r="AH30" s="184"/>
-      <c r="AI30" s="129"/>
-      <c r="AJ30" s="130"/>
-      <c r="AK30" s="184"/>
-      <c r="AL30" s="129"/>
-      <c r="AM30" s="130"/>
+      <c r="O30" s="149"/>
+      <c r="P30" s="132"/>
+      <c r="Q30" s="148"/>
+      <c r="R30" s="149"/>
+      <c r="S30" s="132"/>
+      <c r="T30" s="148"/>
+      <c r="U30" s="149"/>
+      <c r="V30" s="132"/>
+      <c r="W30" s="148"/>
+      <c r="X30" s="149"/>
+      <c r="Y30" s="132"/>
+      <c r="Z30" s="148"/>
+      <c r="AA30" s="149"/>
+      <c r="AB30" s="132"/>
+      <c r="AC30" s="148"/>
+      <c r="AD30" s="149"/>
+      <c r="AE30" s="132"/>
+      <c r="AF30" s="148"/>
+      <c r="AG30" s="149"/>
+      <c r="AH30" s="132"/>
+      <c r="AI30" s="148"/>
+      <c r="AJ30" s="149"/>
+      <c r="AK30" s="132"/>
+      <c r="AL30" s="148"/>
+      <c r="AM30" s="149"/>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="109">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B31" s="107" t="s">
         <v>199</v>
       </c>
       <c r="C31" s="100" t="str">
-        <f>VLOOKUP(B8,ENEMY,4)</f>
+        <f t="shared" si="25"/>
         <v>Saboteur</v>
       </c>
       <c r="D31" s="118"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="135"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="183"/>
-      <c r="K31" s="135"/>
-      <c r="L31" s="136"/>
-      <c r="M31" s="183"/>
-      <c r="N31" s="135"/>
-      <c r="O31" s="136"/>
-      <c r="P31" s="183"/>
-      <c r="Q31" s="135"/>
-      <c r="R31" s="136"/>
-      <c r="S31" s="183"/>
-      <c r="T31" s="135"/>
-      <c r="U31" s="136"/>
-      <c r="V31" s="183"/>
-      <c r="W31" s="135"/>
-      <c r="X31" s="136"/>
-      <c r="Y31" s="183"/>
-      <c r="Z31" s="135"/>
-      <c r="AA31" s="136"/>
-      <c r="AB31" s="183"/>
-      <c r="AC31" s="135"/>
-      <c r="AD31" s="136"/>
-      <c r="AE31" s="183"/>
-      <c r="AF31" s="135"/>
-      <c r="AG31" s="136"/>
-      <c r="AH31" s="183"/>
-      <c r="AI31" s="135"/>
-      <c r="AJ31" s="136"/>
-      <c r="AK31" s="183"/>
-      <c r="AL31" s="135"/>
-      <c r="AM31" s="136"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="152"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="151"/>
+      <c r="L31" s="152"/>
+      <c r="M31" s="131"/>
+      <c r="N31" s="151"/>
+      <c r="O31" s="152"/>
+      <c r="P31" s="131"/>
+      <c r="Q31" s="151"/>
+      <c r="R31" s="152"/>
+      <c r="S31" s="131"/>
+      <c r="T31" s="151"/>
+      <c r="U31" s="152"/>
+      <c r="V31" s="131"/>
+      <c r="W31" s="151"/>
+      <c r="X31" s="152"/>
+      <c r="Y31" s="131"/>
+      <c r="Z31" s="151"/>
+      <c r="AA31" s="152"/>
+      <c r="AB31" s="131"/>
+      <c r="AC31" s="151"/>
+      <c r="AD31" s="152"/>
+      <c r="AE31" s="131"/>
+      <c r="AF31" s="151"/>
+      <c r="AG31" s="152"/>
+      <c r="AH31" s="131"/>
+      <c r="AI31" s="151"/>
+      <c r="AJ31" s="152"/>
+      <c r="AK31" s="131"/>
+      <c r="AL31" s="151"/>
+      <c r="AM31" s="152"/>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="109">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B32" s="99" t="s">
         <v>164</v>
       </c>
       <c r="C32" s="100" t="str">
-        <f>VLOOKUP(B9,ENEMY,4)</f>
+        <f t="shared" si="25"/>
         <v>Normal</v>
       </c>
       <c r="D32" s="116"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="130"/>
-      <c r="G32" s="184"/>
-      <c r="H32" s="129"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="184"/>
-      <c r="K32" s="129"/>
-      <c r="L32" s="130"/>
-      <c r="M32" s="184"/>
-      <c r="N32" s="129"/>
-      <c r="O32" s="130"/>
-      <c r="P32" s="184"/>
-      <c r="Q32" s="129"/>
-      <c r="R32" s="130"/>
-      <c r="S32" s="184"/>
-      <c r="T32" s="129"/>
-      <c r="U32" s="130"/>
-      <c r="V32" s="184"/>
-      <c r="W32" s="129"/>
-      <c r="X32" s="130"/>
-      <c r="Y32" s="184"/>
-      <c r="Z32" s="129"/>
-      <c r="AA32" s="130"/>
-      <c r="AB32" s="184"/>
-      <c r="AC32" s="129"/>
-      <c r="AD32" s="130"/>
-      <c r="AE32" s="184"/>
-      <c r="AF32" s="129"/>
-      <c r="AG32" s="130"/>
-      <c r="AH32" s="184"/>
-      <c r="AI32" s="129"/>
-      <c r="AJ32" s="130"/>
-      <c r="AK32" s="184"/>
-      <c r="AL32" s="129"/>
-      <c r="AM32" s="130"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="132"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="132"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="132"/>
+      <c r="N32" s="148"/>
+      <c r="O32" s="149"/>
+      <c r="P32" s="132"/>
+      <c r="Q32" s="148"/>
+      <c r="R32" s="149"/>
+      <c r="S32" s="132"/>
+      <c r="T32" s="148"/>
+      <c r="U32" s="149"/>
+      <c r="V32" s="132"/>
+      <c r="W32" s="148"/>
+      <c r="X32" s="149"/>
+      <c r="Y32" s="132"/>
+      <c r="Z32" s="148"/>
+      <c r="AA32" s="149"/>
+      <c r="AB32" s="132"/>
+      <c r="AC32" s="148"/>
+      <c r="AD32" s="149"/>
+      <c r="AE32" s="132"/>
+      <c r="AF32" s="148"/>
+      <c r="AG32" s="149"/>
+      <c r="AH32" s="132"/>
+      <c r="AI32" s="148"/>
+      <c r="AJ32" s="149"/>
+      <c r="AK32" s="132"/>
+      <c r="AL32" s="148"/>
+      <c r="AM32" s="149"/>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="109">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B33" s="107" t="s">
         <v>202</v>
       </c>
       <c r="C33" s="100" t="str">
-        <f>VLOOKUP(B10,ENEMY,4)</f>
+        <f t="shared" si="25"/>
         <v>Intangible</v>
       </c>
       <c r="D33" s="118"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="136"/>
-      <c r="G33" s="183"/>
-      <c r="H33" s="135"/>
-      <c r="I33" s="136"/>
-      <c r="J33" s="183"/>
-      <c r="K33" s="135"/>
-      <c r="L33" s="136"/>
-      <c r="M33" s="183"/>
-      <c r="N33" s="135"/>
-      <c r="O33" s="136"/>
-      <c r="P33" s="183"/>
-      <c r="Q33" s="135"/>
-      <c r="R33" s="136"/>
-      <c r="S33" s="183"/>
-      <c r="T33" s="135"/>
-      <c r="U33" s="136"/>
-      <c r="V33" s="183"/>
-      <c r="W33" s="135"/>
-      <c r="X33" s="136"/>
-      <c r="Y33" s="183"/>
-      <c r="Z33" s="135"/>
-      <c r="AA33" s="136"/>
-      <c r="AB33" s="183"/>
-      <c r="AC33" s="135"/>
-      <c r="AD33" s="136"/>
-      <c r="AE33" s="183"/>
-      <c r="AF33" s="135"/>
-      <c r="AG33" s="136"/>
-      <c r="AH33" s="183"/>
-      <c r="AI33" s="135"/>
-      <c r="AJ33" s="136"/>
-      <c r="AK33" s="183"/>
-      <c r="AL33" s="135"/>
-      <c r="AM33" s="136"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="152"/>
+      <c r="J33" s="131"/>
+      <c r="K33" s="151"/>
+      <c r="L33" s="152"/>
+      <c r="M33" s="131"/>
+      <c r="N33" s="151"/>
+      <c r="O33" s="152"/>
+      <c r="P33" s="131"/>
+      <c r="Q33" s="151"/>
+      <c r="R33" s="152"/>
+      <c r="S33" s="131"/>
+      <c r="T33" s="151"/>
+      <c r="U33" s="152"/>
+      <c r="V33" s="131"/>
+      <c r="W33" s="151"/>
+      <c r="X33" s="152"/>
+      <c r="Y33" s="131"/>
+      <c r="Z33" s="151"/>
+      <c r="AA33" s="152"/>
+      <c r="AB33" s="131"/>
+      <c r="AC33" s="151"/>
+      <c r="AD33" s="152"/>
+      <c r="AE33" s="131"/>
+      <c r="AF33" s="151"/>
+      <c r="AG33" s="152"/>
+      <c r="AH33" s="131"/>
+      <c r="AI33" s="151"/>
+      <c r="AJ33" s="152"/>
+      <c r="AK33" s="131"/>
+      <c r="AL33" s="151"/>
+      <c r="AM33" s="152"/>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="109">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B34" s="107" t="s">
         <v>200</v>
       </c>
       <c r="C34" s="100" t="str">
-        <f>VLOOKUP(B11,ENEMY,4)</f>
+        <f t="shared" si="25"/>
         <v>Saboteur</v>
       </c>
       <c r="D34" s="116"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="130"/>
-      <c r="G34" s="184"/>
-      <c r="H34" s="129"/>
-      <c r="I34" s="130"/>
-      <c r="J34" s="184"/>
-      <c r="K34" s="129"/>
-      <c r="L34" s="130"/>
-      <c r="M34" s="184"/>
-      <c r="N34" s="129"/>
-      <c r="O34" s="130"/>
-      <c r="P34" s="184"/>
-      <c r="Q34" s="129"/>
-      <c r="R34" s="130"/>
-      <c r="S34" s="184"/>
-      <c r="T34" s="129"/>
-      <c r="U34" s="130"/>
-      <c r="V34" s="184"/>
-      <c r="W34" s="129"/>
-      <c r="X34" s="130"/>
-      <c r="Y34" s="184"/>
-      <c r="Z34" s="129"/>
-      <c r="AA34" s="130"/>
-      <c r="AB34" s="184"/>
-      <c r="AC34" s="129"/>
-      <c r="AD34" s="130"/>
-      <c r="AE34" s="184"/>
-      <c r="AF34" s="129"/>
-      <c r="AG34" s="130"/>
-      <c r="AH34" s="184"/>
-      <c r="AI34" s="129"/>
-      <c r="AJ34" s="130"/>
-      <c r="AK34" s="184"/>
-      <c r="AL34" s="129"/>
-      <c r="AM34" s="130"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="132"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="132"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="132"/>
+      <c r="N34" s="148"/>
+      <c r="O34" s="149"/>
+      <c r="P34" s="132"/>
+      <c r="Q34" s="148"/>
+      <c r="R34" s="149"/>
+      <c r="S34" s="132"/>
+      <c r="T34" s="148"/>
+      <c r="U34" s="149"/>
+      <c r="V34" s="132"/>
+      <c r="W34" s="148"/>
+      <c r="X34" s="149"/>
+      <c r="Y34" s="132"/>
+      <c r="Z34" s="148"/>
+      <c r="AA34" s="149"/>
+      <c r="AB34" s="132"/>
+      <c r="AC34" s="148"/>
+      <c r="AD34" s="149"/>
+      <c r="AE34" s="132"/>
+      <c r="AF34" s="148"/>
+      <c r="AG34" s="149"/>
+      <c r="AH34" s="132"/>
+      <c r="AI34" s="148"/>
+      <c r="AJ34" s="149"/>
+      <c r="AK34" s="132"/>
+      <c r="AL34" s="148"/>
+      <c r="AM34" s="149"/>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B35" s="101"/>
@@ -7073,7 +7052,7 @@
         <f>SUM(D37:BA37)</f>
         <v>1</v>
       </c>
-      <c r="B37" s="182" t="str">
+      <c r="B37" s="130" t="str">
         <f>Factory!A3</f>
         <v>1_Piz</v>
       </c>
@@ -7084,72 +7063,72 @@
       <c r="D37" s="118">
         <v>1</v>
       </c>
-      <c r="E37" s="135" t="s">
+      <c r="E37" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="F37" s="136"/>
-      <c r="G37" s="183"/>
-      <c r="H37" s="135" t="s">
+      <c r="F37" s="152"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="I37" s="136"/>
-      <c r="J37" s="183"/>
-      <c r="K37" s="135" t="s">
+      <c r="I37" s="152"/>
+      <c r="J37" s="131"/>
+      <c r="K37" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="L37" s="136"/>
-      <c r="M37" s="183"/>
-      <c r="N37" s="135" t="s">
+      <c r="L37" s="152"/>
+      <c r="M37" s="131"/>
+      <c r="N37" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="O37" s="136"/>
-      <c r="P37" s="183"/>
-      <c r="Q37" s="135" t="s">
+      <c r="O37" s="152"/>
+      <c r="P37" s="131"/>
+      <c r="Q37" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="R37" s="136"/>
-      <c r="S37" s="183"/>
-      <c r="T37" s="135" t="s">
+      <c r="R37" s="152"/>
+      <c r="S37" s="131"/>
+      <c r="T37" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="U37" s="136"/>
-      <c r="V37" s="183"/>
-      <c r="W37" s="135" t="s">
+      <c r="U37" s="152"/>
+      <c r="V37" s="131"/>
+      <c r="W37" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="X37" s="136"/>
-      <c r="Y37" s="183"/>
-      <c r="Z37" s="135" t="s">
+      <c r="X37" s="152"/>
+      <c r="Y37" s="131"/>
+      <c r="Z37" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="AA37" s="136"/>
-      <c r="AB37" s="183"/>
-      <c r="AC37" s="135" t="s">
+      <c r="AA37" s="152"/>
+      <c r="AB37" s="131"/>
+      <c r="AC37" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="AD37" s="136"/>
-      <c r="AE37" s="183"/>
-      <c r="AF37" s="135" t="s">
+      <c r="AD37" s="152"/>
+      <c r="AE37" s="131"/>
+      <c r="AF37" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="AG37" s="136"/>
-      <c r="AH37" s="183"/>
-      <c r="AI37" s="135" t="s">
+      <c r="AG37" s="152"/>
+      <c r="AH37" s="131"/>
+      <c r="AI37" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="AJ37" s="136"/>
-      <c r="AK37" s="183"/>
-      <c r="AL37" s="135" t="s">
+      <c r="AJ37" s="152"/>
+      <c r="AK37" s="131"/>
+      <c r="AL37" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="AM37" s="136"/>
+      <c r="AM37" s="152"/>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="109">
         <f>SUM(D38:BA38)</f>
         <v>2</v>
       </c>
-      <c r="B38" s="182" t="str">
+      <c r="B38" s="130" t="str">
         <f>Factory!A4</f>
         <v>2_Bub</v>
       </c>
@@ -7158,76 +7137,76 @@
         <v>Bubblegum</v>
       </c>
       <c r="D38" s="116"/>
-      <c r="E38" s="129" t="s">
+      <c r="E38" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="130"/>
-      <c r="G38" s="184">
+      <c r="F38" s="149"/>
+      <c r="G38" s="132">
         <v>1</v>
       </c>
-      <c r="H38" s="129" t="s">
+      <c r="H38" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="I38" s="130"/>
-      <c r="J38" s="184"/>
-      <c r="K38" s="129" t="s">
+      <c r="I38" s="149"/>
+      <c r="J38" s="132"/>
+      <c r="K38" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="L38" s="130"/>
-      <c r="M38" s="184">
+      <c r="L38" s="149"/>
+      <c r="M38" s="132">
         <v>1</v>
       </c>
-      <c r="N38" s="129" t="s">
+      <c r="N38" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="O38" s="130"/>
-      <c r="P38" s="184"/>
-      <c r="Q38" s="129" t="s">
+      <c r="O38" s="149"/>
+      <c r="P38" s="132"/>
+      <c r="Q38" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="R38" s="130"/>
-      <c r="S38" s="184"/>
-      <c r="T38" s="129" t="s">
+      <c r="R38" s="149"/>
+      <c r="S38" s="132"/>
+      <c r="T38" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="U38" s="130"/>
-      <c r="V38" s="184"/>
-      <c r="W38" s="129" t="s">
+      <c r="U38" s="149"/>
+      <c r="V38" s="132"/>
+      <c r="W38" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="X38" s="130"/>
-      <c r="Y38" s="184"/>
-      <c r="Z38" s="129" t="s">
+      <c r="X38" s="149"/>
+      <c r="Y38" s="132"/>
+      <c r="Z38" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="AA38" s="130"/>
-      <c r="AB38" s="184"/>
-      <c r="AC38" s="129" t="s">
+      <c r="AA38" s="149"/>
+      <c r="AB38" s="132"/>
+      <c r="AC38" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="AD38" s="130"/>
-      <c r="AE38" s="184"/>
-      <c r="AF38" s="129" t="s">
+      <c r="AD38" s="149"/>
+      <c r="AE38" s="132"/>
+      <c r="AF38" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="AG38" s="130"/>
-      <c r="AH38" s="184"/>
-      <c r="AI38" s="129" t="s">
+      <c r="AG38" s="149"/>
+      <c r="AH38" s="132"/>
+      <c r="AI38" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="AJ38" s="130"/>
-      <c r="AK38" s="184"/>
-      <c r="AL38" s="129" t="s">
+      <c r="AJ38" s="149"/>
+      <c r="AK38" s="132"/>
+      <c r="AL38" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="AM38" s="130"/>
+      <c r="AM38" s="149"/>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="109">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="B39" s="182" t="str">
+      <c r="B39" s="130" t="str">
         <f>Factory!A5</f>
         <v>3_Sta</v>
       </c>
@@ -7236,82 +7215,314 @@
         <v>Stars</v>
       </c>
       <c r="D39" s="118"/>
-      <c r="E39" s="135" t="s">
+      <c r="E39" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="136"/>
-      <c r="G39" s="183"/>
-      <c r="H39" s="135" t="s">
+      <c r="F39" s="152"/>
+      <c r="G39" s="131"/>
+      <c r="H39" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="I39" s="136"/>
-      <c r="J39" s="183"/>
-      <c r="K39" s="135" t="s">
+      <c r="I39" s="152"/>
+      <c r="J39" s="131"/>
+      <c r="K39" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="L39" s="136"/>
-      <c r="M39" s="183"/>
-      <c r="N39" s="135" t="s">
+      <c r="L39" s="152"/>
+      <c r="M39" s="131"/>
+      <c r="N39" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="O39" s="136"/>
-      <c r="P39" s="183"/>
-      <c r="Q39" s="135" t="s">
+      <c r="O39" s="152"/>
+      <c r="P39" s="131"/>
+      <c r="Q39" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="R39" s="136"/>
-      <c r="S39" s="183"/>
-      <c r="T39" s="135" t="s">
+      <c r="R39" s="152"/>
+      <c r="S39" s="131"/>
+      <c r="T39" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="U39" s="136"/>
-      <c r="V39" s="183"/>
-      <c r="W39" s="135" t="s">
+      <c r="U39" s="152"/>
+      <c r="V39" s="131"/>
+      <c r="W39" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="X39" s="136"/>
-      <c r="Y39" s="183"/>
-      <c r="Z39" s="135" t="s">
+      <c r="X39" s="152"/>
+      <c r="Y39" s="131"/>
+      <c r="Z39" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="AA39" s="136"/>
-      <c r="AB39" s="183"/>
-      <c r="AC39" s="135" t="s">
+      <c r="AA39" s="152"/>
+      <c r="AB39" s="131"/>
+      <c r="AC39" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="AD39" s="136"/>
-      <c r="AE39" s="183"/>
-      <c r="AF39" s="135" t="s">
+      <c r="AD39" s="152"/>
+      <c r="AE39" s="131"/>
+      <c r="AF39" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="AG39" s="136"/>
-      <c r="AH39" s="183"/>
-      <c r="AI39" s="135" t="s">
+      <c r="AG39" s="152"/>
+      <c r="AH39" s="131"/>
+      <c r="AI39" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="AJ39" s="136"/>
-      <c r="AK39" s="183"/>
-      <c r="AL39" s="135" t="s">
+      <c r="AJ39" s="152"/>
+      <c r="AK39" s="131"/>
+      <c r="AL39" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="AM39" s="136"/>
+      <c r="AM39" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="279">
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="AF39:AG39"/>
-    <mergeCell ref="AI39:AJ39"/>
-    <mergeCell ref="AL39:AM39"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AL38:AM38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AK13:AM13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="AK14:AM14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:AM15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AK16:AM16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="AK17:AM17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AK19:AM19"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AK18:AM18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AD19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AK20:AM20"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AD20"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="AK22:AM22"/>
+    <mergeCell ref="AK21:AM21"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="AL26:AM26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AL27:AM27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AL28:AM28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="AC29:AD29"/>
+    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AL29:AM29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AL30:AM30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="AF31:AG31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AL31:AM31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AL32:AM32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AL34:AM34"/>
+    <mergeCell ref="AL33:AM33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="AF34:AG34"/>
     <mergeCell ref="AI37:AJ37"/>
     <mergeCell ref="AL37:AM37"/>
     <mergeCell ref="H38:I38"/>
@@ -7331,252 +7542,20 @@
     <mergeCell ref="Z37:AA37"/>
     <mergeCell ref="AC37:AD37"/>
     <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AL34:AM34"/>
-    <mergeCell ref="AL33:AM33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AL32:AM32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AL31:AM31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="AC32:AD32"/>
-    <mergeCell ref="AL30:AM30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="AF31:AG31"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AL29:AM29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AL28:AM28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="AC29:AD29"/>
-    <mergeCell ref="AL27:AM27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="AL26:AM26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AK20:AM20"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AD20"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AK22:AM22"/>
-    <mergeCell ref="AK21:AM21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AB19:AD19"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AK19:AM19"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AK18:AM18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="AK17:AM17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AK16:AM16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AK15:AM15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="AK14:AM14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK13:AM13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="AF39:AG39"/>
+    <mergeCell ref="AI39:AJ39"/>
+    <mergeCell ref="AL39:AM39"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AL38:AM38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="Z39:AA39"/>
   </mergeCells>
   <conditionalFormatting sqref="D16:AM16">
     <cfRule type="colorScale" priority="6">
@@ -7603,12 +7582,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:AM22">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:AM22">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7675,10 +7654,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="151"/>
+      <c r="B1" s="157"/>
       <c r="C1" s="70" t="s">
         <v>11</v>
       </c>
@@ -7690,39 +7669,39 @@
       <c r="G1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="159" t="s">
+      <c r="I1" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="159"/>
-      <c r="K1" s="146" t="s">
+      <c r="J1" s="164"/>
+      <c r="K1" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="146"/>
-      <c r="M1" s="159" t="s">
+      <c r="L1" s="145"/>
+      <c r="M1" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="N1" s="159"/>
-      <c r="O1" s="146" t="s">
+      <c r="N1" s="164"/>
+      <c r="O1" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="159" t="s">
+      <c r="P1" s="145"/>
+      <c r="Q1" s="164" t="s">
         <v>169</v>
       </c>
-      <c r="R1" s="159"/>
-      <c r="S1" s="159" t="s">
+      <c r="R1" s="164"/>
+      <c r="S1" s="164" t="s">
         <v>153</v>
       </c>
-      <c r="T1" s="159"/>
+      <c r="T1" s="164"/>
       <c r="U1" s="16"/>
       <c r="V1" s="16"/>
-      <c r="W1" s="146" t="s">
+      <c r="W1" s="145" t="s">
         <v>163</v>
       </c>
-      <c r="X1" s="146"/>
+      <c r="X1" s="145"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="159" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="71" t="s">
@@ -7748,39 +7727,39 @@
         <f t="array" ref="G2">_xlfn.IFS(F2="+",ROUNDDOWN(E2*(1+$I$2),2),F2="=",E2,F2="++",ROUNDDOWN(E2*(1+$I$2)*1.5,2),F2="-",ROUNDDOWN(E2*(1+$I$2)*0.75,2))</f>
         <v>3</v>
       </c>
-      <c r="I2" s="158">
+      <c r="I2" s="163">
         <v>0.3</v>
       </c>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158">
+      <c r="J2" s="163"/>
+      <c r="K2" s="163">
         <v>0.2</v>
       </c>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158">
+      <c r="L2" s="163"/>
+      <c r="M2" s="163">
         <v>0.5</v>
       </c>
-      <c r="N2" s="158"/>
-      <c r="O2" s="129">
+      <c r="N2" s="163"/>
+      <c r="O2" s="148">
         <v>2</v>
       </c>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="158">
+      <c r="P2" s="148"/>
+      <c r="Q2" s="163">
         <v>0.25</v>
       </c>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158">
+      <c r="R2" s="163"/>
+      <c r="S2" s="163">
         <v>0.3</v>
       </c>
-      <c r="T2" s="158"/>
+      <c r="T2" s="163"/>
       <c r="U2" s="16"/>
       <c r="V2" s="16"/>
-      <c r="W2" s="156" t="s">
+      <c r="W2" s="158" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="156"/>
+      <c r="X2" s="158"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="150"/>
+      <c r="A3" s="159"/>
       <c r="B3" s="72" t="s">
         <v>15</v>
       </c>
@@ -7804,35 +7783,35 @@
         <f t="array" ref="G3">_xlfn.IFS(F3="+",ROUNDDOWN(C3*(1-$I$3),2),F3="=",C3,F3="++",ROUNDDOWN(C3*(1-$I$3)*0.75,2),F3="-",ROUNDDOWN(C3*(1-$I$3)*1.25,2))</f>
         <v>0.75</v>
       </c>
-      <c r="I3" s="153">
+      <c r="I3" s="165">
         <v>0.1</v>
       </c>
-      <c r="J3" s="153"/>
-      <c r="M3" s="153">
+      <c r="J3" s="165"/>
+      <c r="M3" s="165">
         <v>0.3</v>
       </c>
-      <c r="N3" s="153"/>
-      <c r="Q3" s="153">
+      <c r="N3" s="165"/>
+      <c r="Q3" s="165">
         <v>0.3</v>
       </c>
-      <c r="R3" s="153"/>
-      <c r="S3" s="153">
+      <c r="R3" s="165"/>
+      <c r="S3" s="165">
         <v>0.3</v>
       </c>
-      <c r="T3" s="153"/>
+      <c r="T3" s="165"/>
       <c r="U3" s="16"/>
       <c r="V3" s="16"/>
-      <c r="W3" s="156"/>
-      <c r="X3" s="156"/>
+      <c r="W3" s="158"/>
+      <c r="X3" s="158"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="150"/>
+      <c r="A4" s="159"/>
       <c r="B4" s="71" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="75">
         <f>$X$29</f>
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="D4" s="75" t="str" cm="1">
         <f t="array" ref="D4">_xlfn.IFS($O$10=0,"=",$O$10=1,$U$10,$O$10="2a","=",$O$10="2b","=")</f>
@@ -7840,7 +7819,7 @@
       </c>
       <c r="E4" s="75" cm="1">
         <f t="array" ref="E4">_xlfn.IFS(D4="+",ROUNDDOWN(C4*(1+$I$4),2),D4="=",C4,D4="++",ROUNDDOWN(C4*(1+$I$2)*1.5,2),D4="-",ROUNDDOWN(C4*(1+$I$2)*0.75,2))</f>
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="F4" s="75" t="str" cm="1">
         <f t="array" ref="F4">_xlfn.IFS($O$10=0,"=",$O$10=1,"=",$O$10="2a",$U$10,$O$10="2b",$U$10)</f>
@@ -7848,30 +7827,30 @@
       </c>
       <c r="G4" s="75" cm="1">
         <f t="array" ref="G4">_xlfn.IFS(F4="+",ROUNDDOWN(E4*(1+$I$4),2),F4="=",E4,F4="++",ROUNDDOWN(E4*(1+$I$4)*1.5,2),F4="-",ROUNDDOWN(E4*(1+$I$4)*0.75,2))</f>
-        <v>3.5</v>
-      </c>
-      <c r="I4" s="158">
+        <v>9</v>
+      </c>
+      <c r="I4" s="163">
         <v>0.2</v>
       </c>
-      <c r="J4" s="158"/>
-      <c r="M4" s="158">
+      <c r="J4" s="163"/>
+      <c r="M4" s="163">
         <v>0.2</v>
       </c>
-      <c r="N4" s="158"/>
-      <c r="Q4" s="158">
+      <c r="N4" s="163"/>
+      <c r="Q4" s="163">
         <v>0.25</v>
       </c>
-      <c r="R4" s="158"/>
-      <c r="S4" s="158">
+      <c r="R4" s="163"/>
+      <c r="S4" s="163">
         <v>0.1</v>
       </c>
-      <c r="T4" s="158"/>
+      <c r="T4" s="163"/>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="150"/>
+      <c r="A5" s="159"/>
       <c r="B5" s="72" t="s">
         <v>40</v>
       </c>
@@ -7893,28 +7872,28 @@
         <f t="array" ref="G5">_xlfn.IFS(F5="+",ROUNDDOWN(E5*(1+$I$5),0),F5="=",E5)</f>
         <v>144</v>
       </c>
-      <c r="I5" s="153">
+      <c r="I5" s="165">
         <v>0.2</v>
       </c>
-      <c r="J5" s="153"/>
-      <c r="M5" s="153">
+      <c r="J5" s="165"/>
+      <c r="M5" s="165">
         <v>0.5</v>
       </c>
-      <c r="N5" s="153"/>
-      <c r="Q5" s="153">
+      <c r="N5" s="165"/>
+      <c r="Q5" s="165">
         <v>0.5</v>
       </c>
-      <c r="R5" s="153"/>
-      <c r="S5" s="153">
+      <c r="R5" s="165"/>
+      <c r="S5" s="165">
         <v>0.2</v>
       </c>
-      <c r="T5" s="153"/>
+      <c r="T5" s="165"/>
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="150"/>
+      <c r="A6" s="159"/>
       <c r="B6" s="71" t="s">
         <v>78</v>
       </c>
@@ -7935,20 +7914,20 @@
         <f t="array" ref="G6">_xlfn.IFS(F6="+",ROUNDUP(E6*(1+$I$6),0),F6="=",E6)</f>
         <v>123</v>
       </c>
-      <c r="I6" s="158">
+      <c r="I6" s="163">
         <v>2.5</v>
       </c>
-      <c r="J6" s="158"/>
+      <c r="J6" s="163"/>
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="151" t="s">
+      <c r="A7" s="157" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="151"/>
+      <c r="B7" s="157"/>
       <c r="C7" s="48">
         <f>ROUNDDOWN(C2/C3,2)</f>
         <v>4</v>
@@ -7970,10 +7949,10 @@
       <c r="W7" s="16"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="152" t="s">
+      <c r="A8" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="152"/>
+      <c r="B8" s="166"/>
       <c r="C8" s="50">
         <f>ROUND(1/C3,2)</f>
         <v>1.33</v>
@@ -7996,82 +7975,82 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
-      <c r="C9" s="149" t="s">
+      <c r="C9" s="134" t="s">
         <v>66</v>
       </c>
       <c r="D9" s="78"/>
-      <c r="E9" s="149" t="s">
+      <c r="E9" s="134" t="s">
         <v>67</v>
       </c>
       <c r="F9" s="78"/>
-      <c r="G9" s="149" t="s">
+      <c r="G9" s="134" t="s">
         <v>68</v>
       </c>
       <c r="H9" s="78"/>
-      <c r="I9" s="149" t="s">
+      <c r="I9" s="134" t="s">
         <v>69</v>
       </c>
       <c r="J9" s="78"/>
-      <c r="K9" s="149" t="s">
+      <c r="K9" s="134" t="s">
         <v>70</v>
       </c>
       <c r="L9" s="78"/>
-      <c r="M9" s="149" t="s">
+      <c r="M9" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="O9" s="155" t="s">
+      <c r="O9" s="156" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="155"/>
-      <c r="Q9" s="155" t="s">
+      <c r="P9" s="156"/>
+      <c r="Q9" s="156" t="s">
         <v>72</v>
       </c>
-      <c r="R9" s="155"/>
-      <c r="S9" s="155" t="s">
+      <c r="R9" s="156"/>
+      <c r="S9" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="T9" s="155"/>
-      <c r="U9" s="155" t="s">
+      <c r="T9" s="156"/>
+      <c r="U9" s="156" t="s">
         <v>102</v>
       </c>
-      <c r="V9" s="155"/>
+      <c r="V9" s="156"/>
       <c r="W9" s="16"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="149"/>
+      <c r="C10" s="134"/>
       <c r="D10" s="78"/>
-      <c r="E10" s="149"/>
+      <c r="E10" s="134"/>
       <c r="F10" s="78"/>
-      <c r="G10" s="149"/>
+      <c r="G10" s="134"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="149"/>
+      <c r="I10" s="134"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="149"/>
+      <c r="K10" s="134"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="149"/>
-      <c r="O10" s="156">
+      <c r="M10" s="134"/>
+      <c r="O10" s="158">
         <v>0</v>
       </c>
-      <c r="P10" s="156"/>
-      <c r="Q10" s="157" t="str" cm="1">
+      <c r="P10" s="158"/>
+      <c r="Q10" s="168" t="str" cm="1">
         <f t="array" ref="Q10">_xlfn.IFS(O10=0, "=", O10&lt;&gt;0,HLOOKUP(Q9,UPGRADE_STAT,VLOOKUP(M22,UPGRADE_LVL,5,FALSE)+1,FALSE))</f>
         <v>=</v>
       </c>
-      <c r="R10" s="157"/>
-      <c r="S10" s="157" t="str" cm="1">
+      <c r="R10" s="168"/>
+      <c r="S10" s="168" t="str" cm="1">
         <f t="array" ref="S10">_xlfn.IFS(O10=0, "=", Q10&lt;&gt;0,HLOOKUP(S9,UPGRADE_STAT,VLOOKUP(M22,UPGRADE_LVL,5,FALSE)+1,FALSE))</f>
         <v>=</v>
       </c>
-      <c r="T10" s="157"/>
-      <c r="U10" s="157" t="str" cm="1">
+      <c r="T10" s="168"/>
+      <c r="U10" s="168" t="str" cm="1">
         <f t="array" ref="U10">_xlfn.IFS(O10=0, "=", S10&lt;&gt;0,HLOOKUP(U9,UPGRADE_STAT,VLOOKUP(M22,UPGRADE_LVL,5,FALSE)+1,FALSE))</f>
         <v>=</v>
       </c>
-      <c r="V10" s="157"/>
+      <c r="V10" s="168"/>
       <c r="W10" s="16"/>
     </row>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="150" t="s">
+      <c r="A11" s="159" t="s">
         <v>166</v>
       </c>
       <c r="B11" s="76" t="s">
@@ -8116,8 +8095,8 @@
         <f t="array" ref="M11">_xlfn.IFS(L11="+",ROUNDDOWN(K11*(1+$M$2),2),L11="=",K11)</f>
         <v>170.83</v>
       </c>
-      <c r="O11" s="135"/>
-      <c r="P11" s="135"/>
+      <c r="O11" s="151"/>
+      <c r="P11" s="151"/>
       <c r="Q11" s="48"/>
       <c r="R11" s="48"/>
       <c r="S11" s="48"/>
@@ -8127,7 +8106,7 @@
       <c r="W11" s="16"/>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="150"/>
+      <c r="A12" s="159"/>
       <c r="B12" s="77" t="s">
         <v>44</v>
       </c>
@@ -8176,7 +8155,7 @@
       <c r="W12" s="16"/>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="150"/>
+      <c r="A13" s="159"/>
       <c r="B13" s="76" t="s">
         <v>72</v>
       </c>
@@ -8225,7 +8204,7 @@
       <c r="W13" s="16"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="150"/>
+      <c r="A14" s="159"/>
       <c r="B14" s="77" t="s">
         <v>75</v>
       </c>
@@ -8286,7 +8265,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="150" t="s">
+      <c r="A16" s="159" t="s">
         <v>167</v>
       </c>
       <c r="B16" s="90" t="s">
@@ -8323,16 +8302,16 @@
       <c r="M16" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="O16" s="149" t="s">
+      <c r="O16" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="P16" s="149"/>
-      <c r="Q16" s="149"/>
-      <c r="R16" s="149"/>
-      <c r="S16" s="149"/>
+      <c r="P16" s="134"/>
+      <c r="Q16" s="134"/>
+      <c r="R16" s="134"/>
+      <c r="S16" s="134"/>
     </row>
     <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="150"/>
+      <c r="A17" s="159"/>
       <c r="B17" s="91" t="s">
         <v>151</v>
       </c>
@@ -8367,29 +8346,29 @@
       <c r="M17" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="O17" s="149" t="s">
+      <c r="O17" s="134" t="s">
         <v>142</v>
       </c>
-      <c r="P17" s="149"/>
-      <c r="Q17" s="149"/>
-      <c r="R17" s="162" t="str">
+      <c r="P17" s="134"/>
+      <c r="Q17" s="134"/>
+      <c r="R17" s="160" t="str">
         <f>HLOOKUP(P29,WEAK_TOWER,VLOOKUP(P27,WEAK_ENEMY,5,FALSE)+1,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="S17" s="162"/>
-      <c r="T17" s="149" t="s">
+      <c r="S17" s="160"/>
+      <c r="T17" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="U17" s="149"/>
-      <c r="V17" s="149"/>
-      <c r="W17" s="162" t="str" cm="1">
+      <c r="U17" s="134"/>
+      <c r="V17" s="134"/>
+      <c r="W17" s="160" t="str" cm="1">
         <f t="array" ref="W17">_xlfn.IFS(P31=P33, "+",P31&lt;&gt;P33,"-")</f>
         <v>-</v>
       </c>
-      <c r="X17" s="162"/>
+      <c r="X17" s="160"/>
     </row>
     <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="150"/>
+      <c r="A18" s="159"/>
       <c r="B18" s="90" t="s">
         <v>152</v>
       </c>
@@ -8426,25 +8405,25 @@
         <f t="array" ref="M18">_xlfn.IFS(M17="LVL 0",C11,M17="LVL 1",E11,M17="LVL 2",G11,M17="LVL 3",I11,M17="LVL 4",K11,M17="LVL 5",M11)</f>
         <v>170.83</v>
       </c>
-      <c r="O18" s="164" t="str">
+      <c r="O18" s="162" t="str">
         <f>_xlfn.CONCAT(P29," ",R29," lvl ",O10)</f>
         <v>Pizza Canon lvl 0</v>
       </c>
-      <c r="P18" s="164"/>
-      <c r="Q18" s="164"/>
-      <c r="R18" s="162"/>
-      <c r="S18" s="162"/>
-      <c r="T18" s="163" t="str">
+      <c r="P18" s="162"/>
+      <c r="Q18" s="162"/>
+      <c r="R18" s="160"/>
+      <c r="S18" s="160"/>
+      <c r="T18" s="161" t="str">
         <f>_xlfn.CONCAT(P33," Factory")</f>
         <v>Stars Factory</v>
       </c>
-      <c r="U18" s="163"/>
-      <c r="V18" s="163"/>
-      <c r="W18" s="162"/>
-      <c r="X18" s="162"/>
+      <c r="U18" s="161"/>
+      <c r="V18" s="161"/>
+      <c r="W18" s="160"/>
+      <c r="X18" s="160"/>
     </row>
     <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="150"/>
+      <c r="A19" s="159"/>
       <c r="B19" s="91" t="s">
         <v>78</v>
       </c>
@@ -8479,16 +8458,16 @@
       <c r="M19" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="O19" s="164"/>
-      <c r="P19" s="164"/>
-      <c r="Q19" s="164"/>
-      <c r="R19" s="162"/>
-      <c r="S19" s="162"/>
-      <c r="T19" s="163"/>
-      <c r="U19" s="163"/>
-      <c r="V19" s="163"/>
-      <c r="W19" s="162"/>
-      <c r="X19" s="162"/>
+      <c r="O19" s="162"/>
+      <c r="P19" s="162"/>
+      <c r="Q19" s="162"/>
+      <c r="R19" s="160"/>
+      <c r="S19" s="160"/>
+      <c r="T19" s="161"/>
+      <c r="U19" s="161"/>
+      <c r="V19" s="161"/>
+      <c r="W19" s="160"/>
+      <c r="X19" s="160"/>
     </row>
     <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16"/>
@@ -8500,23 +8479,23 @@
         <f t="array" ref="M20">_xlfn.IFS(M17="LVL 0",C14,M17="LVL 1",E14,M17="LVL 2",G14,M17="LVL 3",I14,M17="LVL 4",K14,M17="LVL 5",M14)</f>
         <v>153</v>
       </c>
-      <c r="O20" s="149" t="s">
+      <c r="O20" s="134" t="s">
         <v>142</v>
       </c>
-      <c r="P20" s="149"/>
-      <c r="Q20" s="149"/>
-      <c r="R20" s="162"/>
-      <c r="S20" s="162"/>
-      <c r="T20" s="149" t="s">
+      <c r="P20" s="134"/>
+      <c r="Q20" s="134"/>
+      <c r="R20" s="160"/>
+      <c r="S20" s="160"/>
+      <c r="T20" s="134" t="s">
         <v>160</v>
       </c>
-      <c r="U20" s="149"/>
-      <c r="V20" s="149"/>
-      <c r="W20" s="162"/>
-      <c r="X20" s="162"/>
+      <c r="U20" s="134"/>
+      <c r="V20" s="134"/>
+      <c r="W20" s="160"/>
+      <c r="X20" s="160"/>
     </row>
     <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="150" t="s">
+      <c r="A21" s="159" t="s">
         <v>168</v>
       </c>
       <c r="B21" s="90" t="s">
@@ -8553,25 +8532,25 @@
       <c r="M21" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="O21" s="164" t="str">
+      <c r="O21" s="162" t="str">
         <f>_xlfn.CONCAT(P27," ",R27," lvl ",_xlfn.CONCAT(RIGHT(M17,1)))</f>
         <v>Insect Saboteur lvl 5</v>
       </c>
-      <c r="P21" s="164"/>
-      <c r="Q21" s="164"/>
-      <c r="R21" s="162"/>
-      <c r="S21" s="162"/>
-      <c r="T21" s="163" t="str">
+      <c r="P21" s="162"/>
+      <c r="Q21" s="162"/>
+      <c r="R21" s="160"/>
+      <c r="S21" s="160"/>
+      <c r="T21" s="161" t="str">
         <f>_xlfn.CONCAT(P31," Car")</f>
         <v>Bubblegum Car</v>
       </c>
-      <c r="U21" s="163"/>
-      <c r="V21" s="163"/>
-      <c r="W21" s="162"/>
-      <c r="X21" s="162"/>
+      <c r="U21" s="161"/>
+      <c r="V21" s="161"/>
+      <c r="W21" s="160"/>
+      <c r="X21" s="160"/>
     </row>
     <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="150"/>
+      <c r="A22" s="159"/>
       <c r="B22" s="91" t="s">
         <v>151</v>
       </c>
@@ -8608,19 +8587,19 @@
         <f>_xlfn.CONCAT(P29," ",O10)</f>
         <v>Pizza 0</v>
       </c>
-      <c r="O22" s="164"/>
-      <c r="P22" s="164"/>
-      <c r="Q22" s="164"/>
-      <c r="R22" s="162"/>
-      <c r="S22" s="162"/>
-      <c r="T22" s="163"/>
-      <c r="U22" s="163"/>
-      <c r="V22" s="163"/>
-      <c r="W22" s="162"/>
-      <c r="X22" s="162"/>
+      <c r="O22" s="162"/>
+      <c r="P22" s="162"/>
+      <c r="Q22" s="162"/>
+      <c r="R22" s="160"/>
+      <c r="S22" s="160"/>
+      <c r="T22" s="161"/>
+      <c r="U22" s="161"/>
+      <c r="V22" s="161"/>
+      <c r="W22" s="160"/>
+      <c r="X22" s="160"/>
     </row>
     <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="150"/>
+      <c r="A23" s="159"/>
       <c r="B23" s="90" t="s">
         <v>152</v>
       </c>
@@ -8653,16 +8632,16 @@
         <v>81</v>
       </c>
       <c r="N23" s="15"/>
-      <c r="O23" s="149" t="s">
+      <c r="O23" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="P23" s="149"/>
-      <c r="Q23" s="149"/>
-      <c r="R23" s="149"/>
-      <c r="S23" s="149"/>
+      <c r="P23" s="134"/>
+      <c r="Q23" s="134"/>
+      <c r="R23" s="134"/>
+      <c r="S23" s="134"/>
     </row>
     <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="150"/>
+      <c r="A24" s="159"/>
       <c r="B24" s="91" t="s">
         <v>78</v>
       </c>
@@ -8695,314 +8674,314 @@
         <f t="array" ref="K24">_xlfn.IFS(K17="Upgrade 0",C6,K17="Upgrade 1",E6,K17="Upgrade 2",G6,K17="Upgrade 3",#REF!,K17="Upgrade 4",K6,K17="Upgrade 5",M6)</f>
         <v>123</v>
       </c>
-      <c r="O24" s="135" cm="1">
+      <c r="O24" s="151" cm="1">
         <f t="array" ref="O24">_xlfn.IFS(R17="-", 1-K2, R17="=",1,R17="+",1+K2)</f>
         <v>0.8</v>
       </c>
-      <c r="P24" s="135"/>
-      <c r="Q24" s="135"/>
-      <c r="R24" s="135"/>
-      <c r="S24" s="135"/>
+      <c r="P24" s="151"/>
+      <c r="Q24" s="151"/>
+      <c r="R24" s="151"/>
+      <c r="S24" s="151"/>
     </row>
     <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="154" t="s">
+      <c r="C26" s="167" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="149" t="s">
+      <c r="D26" s="167"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="N26" s="165" t="s">
+      <c r="H26" s="134"/>
+      <c r="I26" s="134"/>
+      <c r="N26" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="O26" s="165"/>
-      <c r="P26" s="165" t="s">
+      <c r="O26" s="155"/>
+      <c r="P26" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="Q26" s="165"/>
-      <c r="R26" s="165" t="s">
+      <c r="Q26" s="155"/>
+      <c r="R26" s="155" t="s">
         <v>55</v>
       </c>
-      <c r="S26" s="165"/>
-      <c r="T26" s="165" t="s">
+      <c r="S26" s="155"/>
+      <c r="T26" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="U26" s="165"/>
-      <c r="V26" s="165" t="s">
+      <c r="U26" s="155"/>
+      <c r="V26" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="W26" s="165"/>
-      <c r="X26" s="165" t="s">
+      <c r="W26" s="155"/>
+      <c r="X26" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="Y26" s="165"/>
+      <c r="Y26" s="155"/>
     </row>
     <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="149" t="s">
+      <c r="C27" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="149"/>
-      <c r="E27" s="149" t="s">
+      <c r="D27" s="134"/>
+      <c r="E27" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="149"/>
-      <c r="G27" s="135" t="str">
+      <c r="F27" s="134"/>
+      <c r="G27" s="151" t="str">
         <f>_xlfn.CONCAT(K20*K22," s")</f>
         <v>108 s</v>
       </c>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="N27" s="156" t="s">
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="N27" s="158" t="s">
         <v>190</v>
       </c>
-      <c r="O27" s="156"/>
-      <c r="P27" s="129" t="str">
+      <c r="O27" s="158"/>
+      <c r="P27" s="148" t="str">
         <f>VLOOKUP($N$27,ENEMY,3)</f>
         <v>Insect</v>
       </c>
-      <c r="Q27" s="129"/>
-      <c r="R27" s="129" t="str">
+      <c r="Q27" s="148"/>
+      <c r="R27" s="148" t="str">
         <f>VLOOKUP($N$27,ENEMY,4)</f>
         <v>Saboteur</v>
       </c>
-      <c r="S27" s="129"/>
-      <c r="T27" s="129">
+      <c r="S27" s="148"/>
+      <c r="T27" s="148">
         <f>VLOOKUP($N$27,ENEMY,5)</f>
         <v>22.5</v>
       </c>
-      <c r="U27" s="129"/>
-      <c r="V27" s="129">
+      <c r="U27" s="148"/>
+      <c r="V27" s="148">
         <f>VLOOKUP($N$27,ENEMY,6)</f>
         <v>2</v>
       </c>
-      <c r="W27" s="129"/>
-      <c r="X27" s="129">
+      <c r="W27" s="148"/>
+      <c r="X27" s="148">
         <f>VLOOKUP($N$27,ENEMY,7)</f>
         <v>7.5</v>
       </c>
-      <c r="Y27" s="129"/>
+      <c r="Y27" s="148"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" s="73" t="str">
         <f>_xlfn.CONCAT(K17," ",K16)</f>
         <v>Upgrade 2 DPS</v>
       </c>
-      <c r="C28" s="161">
+      <c r="C28" s="170">
         <f>ROUNDDOWN($M$18/B32,2)</f>
         <v>26.69</v>
       </c>
-      <c r="D28" s="161"/>
-      <c r="E28" s="160">
+      <c r="D28" s="170"/>
+      <c r="E28" s="169">
         <f>ROUNDUP($M$18/B32,0)</f>
         <v>27</v>
       </c>
-      <c r="F28" s="160"/>
+      <c r="F28" s="169"/>
       <c r="G28" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="H28" s="149" t="s">
+      <c r="H28" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="I28" s="149"/>
-      <c r="N28" s="165" t="s">
+      <c r="I28" s="134"/>
+      <c r="N28" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="O28" s="165"/>
-      <c r="P28" s="165" t="s">
+      <c r="O28" s="155"/>
+      <c r="P28" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="Q28" s="165"/>
-      <c r="R28" s="165" t="s">
+      <c r="Q28" s="155"/>
+      <c r="R28" s="155" t="s">
         <v>55</v>
       </c>
-      <c r="S28" s="165"/>
-      <c r="T28" s="165" t="s">
+      <c r="S28" s="155"/>
+      <c r="T28" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="U28" s="165"/>
-      <c r="V28" s="165" t="s">
+      <c r="U28" s="155"/>
+      <c r="V28" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="W28" s="165"/>
-      <c r="X28" s="165" t="s">
+      <c r="W28" s="155"/>
+      <c r="X28" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="Y28" s="165"/>
+      <c r="Y28" s="155"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B29" s="73"/>
-      <c r="C29" s="135" t="str">
+      <c r="C29" s="151" t="str">
         <f>_xlfn.CONCAT(E28*K22," s")</f>
         <v>20,25 s</v>
       </c>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
       <c r="G29" s="74">
         <f>E6+G6</f>
         <v>158</v>
       </c>
-      <c r="H29" s="135">
+      <c r="H29" s="151">
         <f>ROUNDUP(K24/M20,0)</f>
         <v>1</v>
       </c>
-      <c r="I29" s="135"/>
-      <c r="N29" s="156" t="s">
+      <c r="I29" s="151"/>
+      <c r="N29" s="158" t="s">
         <v>196</v>
       </c>
-      <c r="O29" s="156"/>
-      <c r="P29" s="129" t="str">
+      <c r="O29" s="158"/>
+      <c r="P29" s="148" t="str">
         <f>VLOOKUP($N$29,TOWER,3)</f>
         <v>Pizza</v>
       </c>
-      <c r="Q29" s="129"/>
-      <c r="R29" s="129" t="str">
+      <c r="Q29" s="148"/>
+      <c r="R29" s="148" t="str">
         <f>VLOOKUP($N$29,TOWER,4)</f>
         <v>Canon</v>
       </c>
-      <c r="S29" s="129"/>
-      <c r="T29" s="129">
+      <c r="S29" s="148"/>
+      <c r="T29" s="148">
         <f>VLOOKUP($N$29,TOWER,5)</f>
         <v>3</v>
       </c>
-      <c r="U29" s="129"/>
-      <c r="V29" s="129">
+      <c r="U29" s="148"/>
+      <c r="V29" s="148">
         <f>VLOOKUP($N$29,TOWER,6)</f>
         <v>0.75</v>
       </c>
-      <c r="W29" s="129"/>
-      <c r="X29" s="129">
+      <c r="W29" s="148"/>
+      <c r="X29" s="148">
         <f>VLOOKUP($N$29,TOWER,7)</f>
-        <v>3.5</v>
-      </c>
-      <c r="Y29" s="129"/>
+        <v>9</v>
+      </c>
+      <c r="Y29" s="148"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="N30" s="165" t="s">
+      <c r="N30" s="155" t="s">
         <v>161</v>
       </c>
-      <c r="O30" s="165"/>
-      <c r="P30" s="165" t="s">
+      <c r="O30" s="155"/>
+      <c r="P30" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="Q30" s="165"/>
-      <c r="R30" s="165" t="s">
+      <c r="Q30" s="155"/>
+      <c r="R30" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="S30" s="165"/>
-      <c r="T30" s="165" t="s">
+      <c r="S30" s="155"/>
+      <c r="T30" s="155" t="s">
         <v>44</v>
       </c>
-      <c r="U30" s="165"/>
-      <c r="V30" s="165" t="s">
+      <c r="U30" s="155"/>
+      <c r="V30" s="155" t="s">
         <v>157</v>
       </c>
-      <c r="W30" s="165"/>
-      <c r="X30" s="165" t="s">
+      <c r="W30" s="155"/>
+      <c r="X30" s="155" t="s">
         <v>75</v>
       </c>
-      <c r="Y30" s="165"/>
+      <c r="Y30" s="155"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B31" s="149" t="s">
+      <c r="B31" s="134" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="149"/>
-      <c r="N31" s="156" t="s">
+      <c r="C31" s="134"/>
+      <c r="N31" s="158" t="s">
         <v>212</v>
       </c>
-      <c r="O31" s="156"/>
-      <c r="P31" s="129" t="str">
+      <c r="O31" s="158"/>
+      <c r="P31" s="148" t="str">
         <f>VLOOKUP($N$31,TRAIN,3)</f>
         <v>Bubblegum</v>
       </c>
-      <c r="Q31" s="129"/>
-      <c r="R31" s="129">
+      <c r="Q31" s="148"/>
+      <c r="R31" s="148">
         <f>VLOOKUP($N$31,TRAIN,4)</f>
         <v>50</v>
       </c>
-      <c r="S31" s="129"/>
-      <c r="T31" s="129">
+      <c r="S31" s="148"/>
+      <c r="T31" s="148">
         <f>VLOOKUP($N$31,TRAIN,5)</f>
         <v>2</v>
       </c>
-      <c r="U31" s="129"/>
-      <c r="V31" s="129">
+      <c r="U31" s="148"/>
+      <c r="V31" s="148">
         <f>VLOOKUP($N$31,TRAIN,6)</f>
         <v>5</v>
       </c>
-      <c r="W31" s="129"/>
-      <c r="X31" s="129">
+      <c r="W31" s="148"/>
+      <c r="X31" s="148">
         <f>VLOOKUP($N$27,ENEMY,8)</f>
         <v>20</v>
       </c>
-      <c r="Y31" s="129"/>
+      <c r="Y31" s="148"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B32" s="129">
+      <c r="B32" s="148">
         <f>ROUND(O2*K18*O24,2)</f>
         <v>6.4</v>
       </c>
-      <c r="C32" s="129"/>
-      <c r="N32" s="165" t="s">
+      <c r="C32" s="148"/>
+      <c r="N32" s="155" t="s">
         <v>159</v>
       </c>
-      <c r="O32" s="165"/>
-      <c r="P32" s="165" t="s">
+      <c r="O32" s="155"/>
+      <c r="P32" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="Q32" s="165"/>
-      <c r="R32" s="165" t="s">
+      <c r="Q32" s="155"/>
+      <c r="R32" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="S32" s="165"/>
-      <c r="T32" s="165" t="s">
+      <c r="S32" s="155"/>
+      <c r="T32" s="155" t="s">
         <v>156</v>
       </c>
-      <c r="U32" s="165"/>
-      <c r="V32" s="165" t="s">
+      <c r="U32" s="155"/>
+      <c r="V32" s="155" t="s">
         <v>157</v>
       </c>
-      <c r="W32" s="165"/>
-      <c r="X32" s="165" t="s">
+      <c r="W32" s="155"/>
+      <c r="X32" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="Y32" s="165"/>
+      <c r="Y32" s="155"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="N33" s="156" t="s">
+      <c r="N33" s="158" t="s">
         <v>171</v>
       </c>
-      <c r="O33" s="156"/>
-      <c r="P33" s="129" t="str">
+      <c r="O33" s="158"/>
+      <c r="P33" s="148" t="str">
         <f>VLOOKUP($N$33,FACTORY,3)</f>
         <v>Stars</v>
       </c>
-      <c r="Q33" s="129"/>
-      <c r="R33" s="129">
+      <c r="Q33" s="148"/>
+      <c r="R33" s="148">
         <f>VLOOKUP($N$33,FACTORY,4)</f>
         <v>100</v>
       </c>
-      <c r="S33" s="129"/>
-      <c r="T33" s="129">
+      <c r="S33" s="148"/>
+      <c r="T33" s="148">
         <f>VLOOKUP($N$33,FACTORY,5)</f>
         <v>2</v>
       </c>
-      <c r="U33" s="129"/>
-      <c r="V33" s="129">
+      <c r="U33" s="148"/>
+      <c r="V33" s="148">
         <f>VLOOKUP($N$33,FACTORY,6)</f>
         <v>10</v>
       </c>
-      <c r="W33" s="129"/>
-      <c r="X33" s="129">
+      <c r="W33" s="148"/>
+      <c r="X33" s="148">
         <f>VLOOKUP($N$29,TOWER,9)</f>
         <v>100</v>
       </c>
-      <c r="Y33" s="129"/>
+      <c r="Y33" s="148"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
@@ -9011,36 +8990,74 @@
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X3"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="W17:X22"/>
+    <mergeCell ref="R17:S22"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="T18:V19"/>
+    <mergeCell ref="T21:V22"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O21:Q22"/>
+    <mergeCell ref="O16:S16"/>
+    <mergeCell ref="O18:Q19"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="O23:S23"/>
     <mergeCell ref="O24:S24"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
@@ -9065,74 +9082,36 @@
     <mergeCell ref="N30:O30"/>
     <mergeCell ref="R31:S31"/>
     <mergeCell ref="R32:S32"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="O23:S23"/>
-    <mergeCell ref="W17:X22"/>
-    <mergeCell ref="R17:S22"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="T18:V19"/>
-    <mergeCell ref="T21:V22"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="O21:Q22"/>
-    <mergeCell ref="O16:S16"/>
-    <mergeCell ref="O18:Q19"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X3"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V30:W30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C28">
@@ -10400,16 +10379,16 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="134" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="149"/>
+      <c r="D7" s="134"/>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="166" t="s">
+      <c r="C8" s="171" t="s">
         <v>149</v>
       </c>
-      <c r="D8" s="166"/>
+      <c r="D8" s="171"/>
       <c r="I8" s="88" t="s">
         <v>33</v>
       </c>
@@ -10431,8 +10410,8 @@
       <c r="Q8" s="85"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C9" s="166"/>
-      <c r="D9" s="166"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="171"/>
       <c r="I9" s="83" t="s">
         <v>155</v>
       </c>
@@ -10458,11 +10437,11 @@
       <c r="Q9" s="75"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C10" s="167">
+      <c r="C10" s="172">
         <f>D3/F3</f>
         <v>10</v>
       </c>
-      <c r="D10" s="167"/>
+      <c r="D10" s="172"/>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" s="54"/>
@@ -11064,16 +11043,16 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="134" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="149"/>
+      <c r="D7" s="134"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C8" s="166" t="s">
+      <c r="C8" s="171" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="166" t="s">
+      <c r="D8" s="171" t="s">
         <v>149</v>
       </c>
       <c r="H8" s="88" t="s">
@@ -11097,8 +11076,8 @@
       <c r="P8" s="88"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C9" s="166"/>
-      <c r="D9" s="166"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="171"/>
       <c r="H9" s="83" t="s">
         <v>154</v>
       </c>
@@ -11277,8 +11256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9045D55D-CDD5-4A2E-B7B4-999FBD02BF13}">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12:R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11383,10 +11362,10 @@
       <c r="I2" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="K2" s="151" t="s">
+      <c r="K2" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="151"/>
+      <c r="L2" s="157"/>
       <c r="M2" s="73" t="s">
         <v>11</v>
       </c>
@@ -11399,10 +11378,10 @@
         <v>2</v>
       </c>
       <c r="R2" s="89"/>
-      <c r="T2" s="159" t="s">
+      <c r="T2" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="159"/>
+      <c r="U2" s="164"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
@@ -11425,7 +11404,7 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="23">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H3" s="23">
         <v>10</v>
@@ -11433,7 +11412,7 @@
       <c r="I3" s="23">
         <v>90</v>
       </c>
-      <c r="K3" s="150" t="s">
+      <c r="K3" s="159" t="s">
         <v>45</v>
       </c>
       <c r="L3" s="90" t="s">
@@ -11460,10 +11439,10 @@
       <c r="R3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="158">
+      <c r="T3" s="163">
         <v>0.3</v>
       </c>
-      <c r="U3" s="158"/>
+      <c r="U3" s="163"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="str">
@@ -11486,7 +11465,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="23">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H4" s="23">
         <v>15</v>
@@ -11494,7 +11473,7 @@
       <c r="I4" s="21">
         <v>80</v>
       </c>
-      <c r="K4" s="150"/>
+      <c r="K4" s="159"/>
       <c r="L4" s="91" t="s">
         <v>15</v>
       </c>
@@ -11519,10 +11498,10 @@
       <c r="R4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="153">
+      <c r="T4" s="165">
         <v>0.2</v>
       </c>
-      <c r="U4" s="153"/>
+      <c r="U4" s="165"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="str">
@@ -11545,7 +11524,7 @@
         <v>0.75</v>
       </c>
       <c r="G5" s="23">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="H5" s="23">
         <v>20</v>
@@ -11553,35 +11532,35 @@
       <c r="I5" s="20">
         <v>100</v>
       </c>
-      <c r="K5" s="150"/>
+      <c r="K5" s="159"/>
       <c r="L5" s="90" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="28">
         <f>$U$12</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N5" s="28" t="s">
         <v>13</v>
       </c>
       <c r="O5" s="28" cm="1">
         <f t="array" ref="O5">_xlfn.IFS(N5="+",ROUNDDOWN(M5*(1+$T$5),2),N5="=",M5)</f>
-        <v>4.4000000000000004</v>
+        <v>13.2</v>
       </c>
       <c r="P5" s="28" t="s">
         <v>13</v>
       </c>
       <c r="Q5" s="28" cm="1">
         <f t="array" ref="Q5">_xlfn.IFS(P5="+",ROUNDDOWN(O5*(1+$T$5),2),P5="=",O5)</f>
-        <v>4.84</v>
+        <v>14.52</v>
       </c>
       <c r="R5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="158">
+      <c r="T5" s="163">
         <v>0.1</v>
       </c>
-      <c r="U5" s="158"/>
+      <c r="U5" s="163"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="str">
@@ -11607,7 +11586,7 @@
       </c>
       <c r="G6" s="21">
         <f>G3</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H6" s="21">
         <f>H3</f>
@@ -11617,7 +11596,7 @@
         <f>I3</f>
         <v>90</v>
       </c>
-      <c r="K6" s="150"/>
+      <c r="K6" s="159"/>
       <c r="L6" s="91" t="s">
         <v>40</v>
       </c>
@@ -11642,10 +11621,10 @@
       <c r="R6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="153">
+      <c r="T6" s="165">
         <v>0.2</v>
       </c>
-      <c r="U6" s="153"/>
+      <c r="U6" s="165"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="str">
@@ -11671,7 +11650,7 @@
       </c>
       <c r="G7" s="20">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H7" s="20">
         <f t="shared" si="1"/>
@@ -11681,7 +11660,7 @@
         <f>I4</f>
         <v>80</v>
       </c>
-      <c r="K7" s="150"/>
+      <c r="K7" s="159"/>
       <c r="L7" s="90" t="s">
         <v>78</v>
       </c>
@@ -11706,10 +11685,10 @@
       <c r="R7" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="T7" s="158">
+      <c r="T7" s="163">
         <v>2</v>
       </c>
-      <c r="U7" s="158"/>
+      <c r="U7" s="163"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="str">
@@ -11735,7 +11714,7 @@
       </c>
       <c r="G8" s="21">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="H8" s="21">
         <f t="shared" si="1"/>
@@ -11745,10 +11724,10 @@
         <f>I5</f>
         <v>100</v>
       </c>
-      <c r="K8" s="169" t="s">
+      <c r="K8" s="174" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="169"/>
+      <c r="L8" s="174"/>
       <c r="M8" s="28">
         <f>ROUNDDOWN(M3*M9,2)</f>
         <v>4</v>
@@ -11789,7 +11768,7 @@
       </c>
       <c r="G9" s="20">
         <f>G3</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H9" s="20">
         <f>H3</f>
@@ -11799,10 +11778,10 @@
         <f>I3</f>
         <v>90</v>
       </c>
-      <c r="K9" s="170" t="s">
+      <c r="K9" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="170"/>
+      <c r="L9" s="175"/>
       <c r="M9" s="29">
         <f>ROUNDDOWN(1/M4,2)</f>
         <v>1</v>
@@ -11843,7 +11822,7 @@
       </c>
       <c r="G10" s="21">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H10" s="21">
         <f t="shared" si="2"/>
@@ -11878,7 +11857,7 @@
       </c>
       <c r="G11" s="20">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="H11" s="20">
         <f t="shared" si="2"/>
@@ -11888,97 +11867,97 @@
         <f>I5</f>
         <v>100</v>
       </c>
-      <c r="K11" s="165" t="s">
+      <c r="K11" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="165"/>
-      <c r="M11" s="165" t="s">
+      <c r="L11" s="155"/>
+      <c r="M11" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="165"/>
-      <c r="O11" s="165" t="s">
+      <c r="N11" s="155"/>
+      <c r="O11" s="155" t="s">
         <v>55</v>
       </c>
-      <c r="P11" s="165"/>
-      <c r="Q11" s="165" t="s">
+      <c r="P11" s="155"/>
+      <c r="Q11" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="R11" s="165"/>
-      <c r="S11" s="165" t="s">
+      <c r="R11" s="155"/>
+      <c r="S11" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="T11" s="165"/>
-      <c r="U11" s="165" t="s">
+      <c r="T11" s="155"/>
+      <c r="U11" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="V11" s="165"/>
-      <c r="W11" s="165" t="s">
+      <c r="V11" s="155"/>
+      <c r="W11" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="X11" s="165"/>
-      <c r="Y11" s="165" t="s">
+      <c r="X11" s="155"/>
+      <c r="Y11" s="155" t="s">
         <v>93</v>
       </c>
-      <c r="Z11" s="165"/>
+      <c r="Z11" s="155"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K12" s="156" t="s">
+      <c r="K12" s="158" t="s">
         <v>195</v>
       </c>
-      <c r="L12" s="156"/>
-      <c r="M12" s="129" t="str">
+      <c r="L12" s="158"/>
+      <c r="M12" s="148" t="str">
         <f>VLOOKUP($K$12,TOWER,3)</f>
         <v>Pizza</v>
       </c>
-      <c r="N12" s="129"/>
-      <c r="O12" s="129" t="str">
+      <c r="N12" s="148"/>
+      <c r="O12" s="148" t="str">
         <f>VLOOKUP($K$12,TOWER,4)</f>
         <v>Mortar</v>
       </c>
-      <c r="P12" s="129"/>
-      <c r="Q12" s="129">
+      <c r="P12" s="148"/>
+      <c r="Q12" s="148">
         <f>VLOOKUP($K$12,TOWER,5)</f>
         <v>4</v>
       </c>
-      <c r="R12" s="129"/>
-      <c r="S12" s="129">
+      <c r="R12" s="148"/>
+      <c r="S12" s="148">
         <f>VLOOKUP($K$12,TOWER,6)</f>
         <v>1</v>
       </c>
-      <c r="T12" s="129"/>
-      <c r="U12" s="129">
+      <c r="T12" s="148"/>
+      <c r="U12" s="148">
         <f>VLOOKUP($K$12,TOWER,7)</f>
-        <v>4</v>
-      </c>
-      <c r="V12" s="129"/>
-      <c r="W12" s="129">
+        <v>12</v>
+      </c>
+      <c r="V12" s="148"/>
+      <c r="W12" s="148">
         <f>VLOOKUP($K$12,TOWER,8)</f>
         <v>15</v>
       </c>
-      <c r="X12" s="129"/>
-      <c r="Y12" s="129">
+      <c r="X12" s="148"/>
+      <c r="Y12" s="148">
         <f>VLOOKUP($K$12,TOWER,9)</f>
         <v>80</v>
       </c>
-      <c r="Z12" s="129"/>
+      <c r="Z12" s="148"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="168" t="s">
+      <c r="C13" s="173" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="168"/>
+      <c r="D13" s="173"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C14" s="166" t="s">
+      <c r="C14" s="171" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="166" t="s">
+      <c r="D14" s="171" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C15" s="166"/>
-      <c r="D15" s="166"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="171"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C16" s="20">
@@ -12012,19 +11991,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
     <mergeCell ref="W11:X11"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="Y11:Z11"/>
@@ -12041,6 +12007,19 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T6:U6"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C11" xr:uid="{A0725771-D6FB-4BCA-A3AB-AFBEDB867F7D}">
@@ -12103,7 +12082,7 @@
   <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12766,22 +12745,22 @@
       <c r="B12" s="45"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C13" s="149" t="s">
+      <c r="C13" s="134" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="149"/>
+      <c r="D13" s="134"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C14" s="166" t="s">
+      <c r="C14" s="171" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="166" t="s">
+      <c r="D14" s="171" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C15" s="166"/>
-      <c r="D15" s="166"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="171"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C16" s="20">
@@ -12992,7 +12971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483C23BD-B808-464E-B86B-8B4FE0CBBEE3}">
   <dimension ref="B2:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G15" sqref="G15:H16"/>
     </sheetView>
   </sheetViews>
@@ -13053,11 +13032,11 @@
       <c r="F4" s="30">
         <v>2</v>
       </c>
-      <c r="G4" s="173" t="str">
+      <c r="G4" s="178" t="str">
         <f>HLOOKUP(G3,C2:E5,VLOOKUP(H3,B3:F5,5,FALSE)+1,FALSE)</f>
         <v>+</v>
       </c>
-      <c r="H4" s="173"/>
+      <c r="H4" s="178"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
@@ -13075,8 +13054,8 @@
       <c r="F5" s="30">
         <v>3</v>
       </c>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="31"/>
@@ -13129,11 +13108,11 @@
       <c r="F9" s="30">
         <v>2</v>
       </c>
-      <c r="G9" s="173" t="str">
+      <c r="G9" s="178" t="str">
         <f>HLOOKUP(G8,C7:E10,VLOOKUP(H8,B8:F10,5,FALSE)+1,FALSE)</f>
         <v>=</v>
       </c>
-      <c r="H9" s="173"/>
+      <c r="H9" s="178"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
@@ -13151,8 +13130,8 @@
       <c r="F10" s="30">
         <v>3</v>
       </c>
-      <c r="G10" s="173"/>
-      <c r="H10" s="173"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
       <c r="J10" s="4">
         <v>1</v>
       </c>
@@ -13167,11 +13146,11 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C12" s="172" t="s">
+      <c r="C12" s="177" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="172"/>
-      <c r="E12" s="172"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="177"/>
       <c r="J12" s="6">
         <f>COUNTIF(C14:E22,"=-")</f>
         <v>6</v>
@@ -13211,10 +13190,10 @@
       <c r="M13" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="O13" s="172" t="s">
+      <c r="O13" s="177" t="s">
         <v>138</v>
       </c>
-      <c r="P13" s="172"/>
+      <c r="P13" s="177"/>
     </row>
     <row r="14" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="63" t="s">
@@ -13258,7 +13237,7 @@
         <f>$J$10*J14+$K$10*K14+$L$10*L14+$M$10*M14</f>
         <v>7</v>
       </c>
-      <c r="P14" s="171">
+      <c r="P14" s="176">
         <f>ROUND(AVERAGE(O14:O22),0)</f>
         <v>7</v>
       </c>
@@ -13279,11 +13258,11 @@
       <c r="F15" s="30">
         <v>2</v>
       </c>
-      <c r="G15" s="174" t="str">
+      <c r="G15" s="179" t="str">
         <f>HLOOKUP(G14,C13:E22,VLOOKUP(H14,B14:F22,5,FALSE)+1,FALSE)</f>
         <v>++</v>
       </c>
-      <c r="H15" s="174"/>
+      <c r="H15" s="179"/>
       <c r="J15" s="54">
         <f t="shared" ref="J15:J22" si="0">COUNTIF(C15:E15,"=-")</f>
         <v>1</v>
@@ -13304,7 +13283,7 @@
         <f t="shared" ref="O15:O22" si="4">$J$10*J15+$K$10*K15+$L$10*L15+$M$10*M15</f>
         <v>7</v>
       </c>
-      <c r="P15" s="171"/>
+      <c r="P15" s="176"/>
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="63" t="s">
@@ -13322,8 +13301,8 @@
       <c r="F16" s="30">
         <v>3</v>
       </c>
-      <c r="G16" s="174"/>
-      <c r="H16" s="174"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="179"/>
       <c r="J16" s="54">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -13344,7 +13323,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="P16" s="171"/>
+      <c r="P16" s="176"/>
     </row>
     <row r="17" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="64" t="s">
@@ -13382,7 +13361,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="P17" s="171"/>
+      <c r="P17" s="176"/>
     </row>
     <row r="18" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="63" t="s">
@@ -13420,7 +13399,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="P18" s="171"/>
+      <c r="P18" s="176"/>
     </row>
     <row r="19" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="64" t="s">
@@ -13458,7 +13437,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="P19" s="171"/>
+      <c r="P19" s="176"/>
     </row>
     <row r="20" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="63" t="s">
@@ -13496,7 +13475,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="P20" s="171"/>
+      <c r="P20" s="176"/>
     </row>
     <row r="21" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="64" t="s">
@@ -13534,7 +13513,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="P21" s="171"/>
+      <c r="P21" s="176"/>
     </row>
     <row r="22" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="63" t="s">
@@ -13572,7 +13551,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="P22" s="171"/>
+      <c r="P22" s="176"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="63" t="s">
@@ -13657,19 +13636,19 @@
       </c>
     </row>
     <row r="30" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="171">
+      <c r="C30" s="176">
         <f>ROUND(AVERAGE(C29:E29),0)</f>
         <v>21</v>
       </c>
-      <c r="D30" s="171"/>
-      <c r="E30" s="171"/>
+      <c r="D30" s="176"/>
+      <c r="E30" s="176"/>
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="172" t="s">
+      <c r="C31" s="177" t="s">
         <v>138</v>
       </c>
-      <c r="D31" s="172"/>
-      <c r="E31" s="172"/>
+      <c r="D31" s="177"/>
+      <c r="E31" s="177"/>
     </row>
     <row r="32" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="69"/>
@@ -14031,42 +14010,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="184" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="176" t="s">
+      <c r="C1" s="184" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="176" t="s">
+      <c r="D1" s="184" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="176" t="s">
+      <c r="E1" s="184" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="176" t="s">
+      <c r="F1" s="184" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="177" t="s">
+      <c r="G1" s="180" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="178"/>
-      <c r="I1" s="179"/>
-      <c r="J1" s="175" t="s">
+      <c r="H1" s="181"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="183" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="176"/>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
+      <c r="A2" s="184"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
       <c r="G2" s="92" t="s">
         <v>72</v>
       </c>
@@ -14395,35 +14374,30 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F14" s="156" t="s">
+      <c r="F14" s="158" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="129" t="str">
+      <c r="G14" s="148" t="str">
         <f>VLOOKUP($F$14,TOWER_UPGRADE,7)</f>
         <v>-</v>
       </c>
-      <c r="H14" s="129" t="str">
+      <c r="H14" s="148" t="str">
         <f>VLOOKUP($F$14,TOWER_UPGRADE,8)</f>
         <v>++</v>
       </c>
-      <c r="I14" s="129" t="str">
+      <c r="I14" s="148" t="str">
         <f>VLOOKUP($F$14,TOWER_UPGRADE,9)</f>
         <v>=</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F15" s="156"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -14431,6 +14405,11 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13 F14" xr:uid="{5DD3618D-C4BE-491F-B770-27363DACB01A}">
@@ -14804,6 +14783,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100841444F490B10C45A279B0383115D26D" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="91c543cf6706f2108a45fe2b21185738">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c3a97ae1-1078-4f52-97c7-e1e75f184270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6cf98f67490a83722a01f9dfd5fe46d6" ns3:_="">
     <xsd:import namespace="c3a97ae1-1078-4f52-97c7-e1e75f184270"/>
@@ -14935,35 +14929,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02023A10-1816-44FB-8F7C-8B09E93BD20F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{382CAFBC-27A9-4D0E-A532-4CEEC1A7F497}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c3a97ae1-1078-4f52-97c7-e1e75f184270"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14985,9 +14954,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{382CAFBC-27A9-4D0E-A532-4CEEC1A7F497}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02023A10-1816-44FB-8F7C-8B09E93BD20F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c3a97ae1-1078-4f52-97c7-e1e75f184270"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documents/GameDesign/System_Design.xlsx
+++ b/Documents/GameDesign/System_Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\GameSup_GD1\Workshop\Tower_Defense\STD_Workshop\Documents\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F555A5-58B8-409E-9563-B04AA8AD988B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE775B6C-EDAE-4749-B696-9AA9EBF8510D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{EE4EEEAB-A39E-4793-9971-E358DB8AAF6E}"/>
+    <workbookView xWindow="11430" yWindow="21480" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{EE4EEEAB-A39E-4793-9971-E358DB8AAF6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Wave" sheetId="10" r:id="rId1"/>
@@ -1526,120 +1526,120 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1667,6 +1667,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1674,12 +1680,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3017,66 +3017,66 @@
   <sheetData>
     <row r="1" spans="1:48" s="111" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="108"/>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="153" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="153" t="s">
+      <c r="C1" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="135" t="s">
+      <c r="D1" s="147" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="136"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="135" t="s">
+      <c r="E1" s="148"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="147" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="136"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="135" t="s">
+      <c r="H1" s="148"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="147" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="136"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="135" t="s">
+      <c r="K1" s="148"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="147" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="136"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="135" t="s">
+      <c r="N1" s="148"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="147" t="s">
         <v>177</v>
       </c>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="135" t="s">
+      <c r="Q1" s="148"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="147" t="s">
         <v>178</v>
       </c>
-      <c r="T1" s="136"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="135" t="s">
+      <c r="T1" s="148"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="147" t="s">
         <v>206</v>
       </c>
-      <c r="W1" s="136"/>
-      <c r="X1" s="137"/>
-      <c r="Y1" s="135" t="s">
+      <c r="W1" s="148"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="147" t="s">
         <v>207</v>
       </c>
-      <c r="Z1" s="136"/>
-      <c r="AA1" s="137"/>
-      <c r="AB1" s="135" t="s">
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="149"/>
+      <c r="AB1" s="147" t="s">
         <v>208</v>
       </c>
-      <c r="AC1" s="136"/>
-      <c r="AD1" s="137"/>
-      <c r="AE1" s="135"/>
-      <c r="AF1" s="136"/>
-      <c r="AG1" s="137"/>
-      <c r="AH1" s="135"/>
-      <c r="AI1" s="136"/>
-      <c r="AJ1" s="137"/>
-      <c r="AK1" s="135"/>
-      <c r="AL1" s="136"/>
-      <c r="AM1" s="137"/>
+      <c r="AC1" s="148"/>
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="149"/>
+      <c r="AH1" s="147"/>
+      <c r="AI1" s="148"/>
+      <c r="AJ1" s="149"/>
+      <c r="AK1" s="147"/>
+      <c r="AL1" s="148"/>
+      <c r="AM1" s="149"/>
       <c r="AN1" s="123"/>
       <c r="AO1" s="123"/>
       <c r="AP1" s="123"/>
@@ -3089,8 +3089,8 @@
     </row>
     <row r="2" spans="1:48" s="127" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="109"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="154"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="146"/>
       <c r="D2" s="124" t="s">
         <v>179</v>
       </c>
@@ -3714,519 +3714,519 @@
       <c r="AM11" s="113"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="D12" s="141"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="143"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="138"/>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B13" s="82" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="144">
+      <c r="D13" s="150">
         <v>100</v>
       </c>
-      <c r="E13" s="145"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="138">
+      <c r="E13" s="151"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="142">
         <f>D16</f>
         <v>100</v>
       </c>
-      <c r="H13" s="139"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="138">
+      <c r="H13" s="143"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="142">
         <f>G16</f>
         <v>94</v>
       </c>
-      <c r="K13" s="139"/>
-      <c r="L13" s="140"/>
-      <c r="M13" s="138">
+      <c r="K13" s="143"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="142">
         <f>J16</f>
         <v>84</v>
       </c>
-      <c r="N13" s="139"/>
-      <c r="O13" s="140"/>
-      <c r="P13" s="138">
+      <c r="N13" s="143"/>
+      <c r="O13" s="144"/>
+      <c r="P13" s="142">
         <f>M16</f>
         <v>78</v>
       </c>
-      <c r="Q13" s="139"/>
-      <c r="R13" s="140"/>
-      <c r="S13" s="138">
+      <c r="Q13" s="143"/>
+      <c r="R13" s="144"/>
+      <c r="S13" s="142">
         <f>P16</f>
         <v>69</v>
       </c>
-      <c r="T13" s="139"/>
-      <c r="U13" s="140"/>
-      <c r="V13" s="138"/>
-      <c r="W13" s="139"/>
-      <c r="X13" s="140"/>
-      <c r="Y13" s="138"/>
-      <c r="Z13" s="139"/>
-      <c r="AA13" s="140"/>
-      <c r="AB13" s="138"/>
-      <c r="AC13" s="139"/>
-      <c r="AD13" s="140"/>
-      <c r="AE13" s="138"/>
-      <c r="AF13" s="139"/>
-      <c r="AG13" s="140"/>
-      <c r="AH13" s="138"/>
-      <c r="AI13" s="139"/>
-      <c r="AJ13" s="140"/>
-      <c r="AK13" s="138"/>
-      <c r="AL13" s="139"/>
-      <c r="AM13" s="140"/>
+      <c r="T13" s="143"/>
+      <c r="U13" s="144"/>
+      <c r="V13" s="142"/>
+      <c r="W13" s="143"/>
+      <c r="X13" s="144"/>
+      <c r="Y13" s="142"/>
+      <c r="Z13" s="143"/>
+      <c r="AA13" s="144"/>
+      <c r="AB13" s="142"/>
+      <c r="AC13" s="143"/>
+      <c r="AD13" s="144"/>
+      <c r="AE13" s="142"/>
+      <c r="AF13" s="143"/>
+      <c r="AG13" s="144"/>
+      <c r="AH13" s="142"/>
+      <c r="AI13" s="143"/>
+      <c r="AJ13" s="144"/>
+      <c r="AK13" s="142"/>
+      <c r="AL13" s="143"/>
+      <c r="AM13" s="144"/>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B14" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="D14" s="141">
+      <c r="D14" s="136">
         <f>D3*VLOOKUP($B$3,ENEMY,7)+D4*VLOOKUP($B$4,ENEMY,7)+D5*VLOOKUP($B$5,ENEMY,7)+D6*VLOOKUP($B$6,ENEMY,7)+D7*VLOOKUP($B$7,ENEMY,7)+D8*VLOOKUP($B$8,ENEMY,7)+D9*VLOOKUP($B$9,ENEMY,7)+D10*VLOOKUP($B$10,ENEMY,7)+D11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="142"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="141">
+      <c r="E14" s="137"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="136">
         <f>G3*H3*VLOOKUP($B$3,ENEMY,7)+G4*H4*VLOOKUP($B$4,ENEMY,7)+G5*H5*VLOOKUP($B$5,ENEMY,7)+G6*H6*VLOOKUP($B$6,ENEMY,7)+G7*H7*VLOOKUP($B$7,ENEMY,7)+G8*H8*VLOOKUP($B$8,ENEMY,7)+G9*H9*VLOOKUP($B$9,ENEMY,7)+G10*H10*VLOOKUP($B$10,ENEMY,7)+G11*H11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>270</v>
       </c>
-      <c r="H14" s="142"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="141">
+      <c r="H14" s="137"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="136">
         <f>J3*K3*VLOOKUP($B$3,ENEMY,7)+J4*K4*VLOOKUP($B$4,ENEMY,7)+J5*K5*VLOOKUP($B$5,ENEMY,7)+J6*K6*VLOOKUP($B$6,ENEMY,7)+J7*K7*VLOOKUP($B$7,ENEMY,7)+J8*K8*VLOOKUP($B$8,ENEMY,7)+J9*K9*VLOOKUP($B$9,ENEMY,7)+J10*K10*VLOOKUP($B$10,ENEMY,7)+J11*K11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>450</v>
       </c>
-      <c r="K14" s="142"/>
-      <c r="L14" s="143"/>
-      <c r="M14" s="141">
+      <c r="K14" s="137"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="136">
         <f>M3*N3*VLOOKUP($B$3,ENEMY,7)+M4*N4*VLOOKUP($B$4,ENEMY,7)+M5*N5*VLOOKUP($B$5,ENEMY,7)+M6*N6*VLOOKUP($B$6,ENEMY,7)+M7*N7*VLOOKUP($B$7,ENEMY,7)+M8*N8*VLOOKUP($B$8,ENEMY,7)+M9*N9*VLOOKUP($B$9,ENEMY,7)+M10*N10*VLOOKUP($B$10,ENEMY,7)+M11*N11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>135</v>
       </c>
-      <c r="N14" s="142"/>
-      <c r="O14" s="143"/>
-      <c r="P14" s="141">
+      <c r="N14" s="137"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="136">
         <f>P3*Q3*VLOOKUP($B$3,ENEMY,7)+P4*Q4*VLOOKUP($B$4,ENEMY,7)+P5*Q5*VLOOKUP($B$5,ENEMY,7)+P6*Q6*VLOOKUP($B$6,ENEMY,7)+P7*Q7*VLOOKUP($B$7,ENEMY,7)+P8*Q8*VLOOKUP($B$8,ENEMY,7)+P9*Q9*VLOOKUP($B$9,ENEMY,7)+P10*Q10*VLOOKUP($B$10,ENEMY,7)+P11*Q11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>2520</v>
       </c>
-      <c r="Q14" s="142"/>
-      <c r="R14" s="143"/>
-      <c r="S14" s="141">
+      <c r="Q14" s="137"/>
+      <c r="R14" s="138"/>
+      <c r="S14" s="136">
         <f>S3*T3*VLOOKUP($B$3,ENEMY,7)+S4*T4*VLOOKUP($B$4,ENEMY,7)+S5*T5*VLOOKUP($B$5,ENEMY,7)+S6*T6*VLOOKUP($B$6,ENEMY,7)+S7*T7*VLOOKUP($B$7,ENEMY,7)+S8*T8*VLOOKUP($B$8,ENEMY,7)+S9*T9*VLOOKUP($B$9,ENEMY,7)+S10*T10*VLOOKUP($B$10,ENEMY,7)+S11*T11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>13500</v>
       </c>
-      <c r="T14" s="142"/>
-      <c r="U14" s="143"/>
-      <c r="V14" s="141"/>
-      <c r="W14" s="142"/>
-      <c r="X14" s="143"/>
-      <c r="Y14" s="141"/>
-      <c r="Z14" s="142"/>
-      <c r="AA14" s="143"/>
-      <c r="AB14" s="141"/>
-      <c r="AC14" s="142"/>
-      <c r="AD14" s="143"/>
-      <c r="AE14" s="141"/>
-      <c r="AF14" s="142"/>
-      <c r="AG14" s="143"/>
-      <c r="AH14" s="141"/>
-      <c r="AI14" s="142"/>
-      <c r="AJ14" s="143"/>
-      <c r="AK14" s="141"/>
-      <c r="AL14" s="142"/>
-      <c r="AM14" s="143"/>
+      <c r="T14" s="137"/>
+      <c r="U14" s="138"/>
+      <c r="V14" s="136"/>
+      <c r="W14" s="137"/>
+      <c r="X14" s="138"/>
+      <c r="Y14" s="136"/>
+      <c r="Z14" s="137"/>
+      <c r="AA14" s="138"/>
+      <c r="AB14" s="136"/>
+      <c r="AC14" s="137"/>
+      <c r="AD14" s="138"/>
+      <c r="AE14" s="136"/>
+      <c r="AF14" s="137"/>
+      <c r="AG14" s="138"/>
+      <c r="AH14" s="136"/>
+      <c r="AI14" s="137"/>
+      <c r="AJ14" s="138"/>
+      <c r="AK14" s="136"/>
+      <c r="AL14" s="137"/>
+      <c r="AM14" s="138"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B15" s="86" t="s">
         <v>205</v>
       </c>
-      <c r="D15" s="141">
+      <c r="D15" s="136">
         <f>D25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+D26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+D27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+D28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+D29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+D30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+D31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+D32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+D33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
         <v>4.5</v>
       </c>
-      <c r="E15" s="142"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="141">
+      <c r="E15" s="137"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="136">
         <f>G25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+G26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+G27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+G28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+G29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+G30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+G31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+G32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+G33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
         <v>43.5</v>
       </c>
-      <c r="H15" s="142"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="141">
+      <c r="H15" s="137"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="136">
         <f>J25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+J26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+J27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+J28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+J29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+J30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+J31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+J32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+J33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
         <v>43.5</v>
       </c>
-      <c r="K15" s="142"/>
-      <c r="L15" s="143"/>
-      <c r="M15" s="141">
+      <c r="K15" s="137"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="136">
         <f>M25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+M26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+M27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+M28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+M29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+M30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+M31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+M32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+M33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
         <v>24.25</v>
       </c>
-      <c r="N15" s="142"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="141">
+      <c r="N15" s="137"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="136">
         <f>P25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+P26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+P27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+P28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+P29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+P30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+P31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+P32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+P33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
         <v>274.5</v>
       </c>
-      <c r="Q15" s="142"/>
-      <c r="R15" s="143"/>
-      <c r="S15" s="141">
+      <c r="Q15" s="137"/>
+      <c r="R15" s="138"/>
+      <c r="S15" s="136">
         <f>S25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+S26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+S27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+S28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+S29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+S30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+S31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+S32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+S33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
         <v>1439.75</v>
       </c>
-      <c r="T15" s="142"/>
-      <c r="U15" s="143"/>
-      <c r="V15" s="141"/>
-      <c r="W15" s="142"/>
-      <c r="X15" s="143"/>
-      <c r="Y15" s="141"/>
-      <c r="Z15" s="142"/>
-      <c r="AA15" s="143"/>
-      <c r="AB15" s="141"/>
-      <c r="AC15" s="142"/>
-      <c r="AD15" s="143"/>
-      <c r="AE15" s="141"/>
-      <c r="AF15" s="142"/>
-      <c r="AG15" s="143"/>
-      <c r="AH15" s="141"/>
-      <c r="AI15" s="142"/>
-      <c r="AJ15" s="143"/>
-      <c r="AK15" s="141"/>
-      <c r="AL15" s="142"/>
-      <c r="AM15" s="143"/>
+      <c r="T15" s="137"/>
+      <c r="U15" s="138"/>
+      <c r="V15" s="136"/>
+      <c r="W15" s="137"/>
+      <c r="X15" s="138"/>
+      <c r="Y15" s="136"/>
+      <c r="Z15" s="137"/>
+      <c r="AA15" s="138"/>
+      <c r="AB15" s="136"/>
+      <c r="AC15" s="137"/>
+      <c r="AD15" s="138"/>
+      <c r="AE15" s="136"/>
+      <c r="AF15" s="137"/>
+      <c r="AG15" s="138"/>
+      <c r="AH15" s="136"/>
+      <c r="AI15" s="137"/>
+      <c r="AJ15" s="138"/>
+      <c r="AK15" s="136"/>
+      <c r="AL15" s="137"/>
+      <c r="AM15" s="138"/>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B16" s="86" t="s">
         <v>183</v>
       </c>
-      <c r="D16" s="138">
+      <c r="D16" s="142">
         <f>D13-D14</f>
         <v>100</v>
       </c>
-      <c r="E16" s="139"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="138">
+      <c r="E16" s="143"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="142">
         <f>ROUND(G13-(G14/G15),0)</f>
         <v>94</v>
       </c>
-      <c r="H16" s="139"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="138">
+      <c r="H16" s="143"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="142">
         <f t="shared" ref="J16" si="1">ROUND(J13-(J14/J15),0)</f>
         <v>84</v>
       </c>
-      <c r="K16" s="139"/>
-      <c r="L16" s="140"/>
-      <c r="M16" s="138">
+      <c r="K16" s="143"/>
+      <c r="L16" s="144"/>
+      <c r="M16" s="142">
         <f t="shared" ref="M16" si="2">ROUND(M13-(M14/M15),0)</f>
         <v>78</v>
       </c>
-      <c r="N16" s="139"/>
-      <c r="O16" s="140"/>
-      <c r="P16" s="138">
+      <c r="N16" s="143"/>
+      <c r="O16" s="144"/>
+      <c r="P16" s="142">
         <f t="shared" ref="P16" si="3">ROUND(P13-(P14/P15),0)</f>
         <v>69</v>
       </c>
-      <c r="Q16" s="139"/>
-      <c r="R16" s="140"/>
-      <c r="S16" s="138">
+      <c r="Q16" s="143"/>
+      <c r="R16" s="144"/>
+      <c r="S16" s="142">
         <f t="shared" ref="S16" si="4">ROUND(S13-(S14/S15),0)</f>
         <v>60</v>
       </c>
-      <c r="T16" s="139"/>
-      <c r="U16" s="140"/>
-      <c r="V16" s="138"/>
-      <c r="W16" s="139"/>
-      <c r="X16" s="140"/>
-      <c r="Y16" s="138"/>
-      <c r="Z16" s="139"/>
-      <c r="AA16" s="140"/>
-      <c r="AB16" s="138"/>
-      <c r="AC16" s="139"/>
-      <c r="AD16" s="140"/>
-      <c r="AE16" s="138"/>
-      <c r="AF16" s="139"/>
-      <c r="AG16" s="140"/>
-      <c r="AH16" s="138"/>
-      <c r="AI16" s="139"/>
-      <c r="AJ16" s="140"/>
-      <c r="AK16" s="138"/>
-      <c r="AL16" s="139"/>
-      <c r="AM16" s="140"/>
+      <c r="T16" s="143"/>
+      <c r="U16" s="144"/>
+      <c r="V16" s="142"/>
+      <c r="W16" s="143"/>
+      <c r="X16" s="144"/>
+      <c r="Y16" s="142"/>
+      <c r="Z16" s="143"/>
+      <c r="AA16" s="144"/>
+      <c r="AB16" s="142"/>
+      <c r="AC16" s="143"/>
+      <c r="AD16" s="144"/>
+      <c r="AE16" s="142"/>
+      <c r="AF16" s="143"/>
+      <c r="AG16" s="144"/>
+      <c r="AH16" s="142"/>
+      <c r="AI16" s="143"/>
+      <c r="AJ16" s="144"/>
+      <c r="AK16" s="142"/>
+      <c r="AL16" s="143"/>
+      <c r="AM16" s="144"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C17" s="31"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="143"/>
-      <c r="M17" s="141"/>
-      <c r="N17" s="142"/>
-      <c r="O17" s="143"/>
-      <c r="P17" s="141"/>
-      <c r="Q17" s="142"/>
-      <c r="R17" s="143"/>
-      <c r="S17" s="141"/>
-      <c r="T17" s="142"/>
-      <c r="U17" s="143"/>
-      <c r="V17" s="141"/>
-      <c r="W17" s="142"/>
-      <c r="X17" s="143"/>
-      <c r="Y17" s="141"/>
-      <c r="Z17" s="142"/>
-      <c r="AA17" s="143"/>
-      <c r="AB17" s="141"/>
-      <c r="AC17" s="142"/>
-      <c r="AD17" s="143"/>
-      <c r="AE17" s="141"/>
-      <c r="AF17" s="142"/>
-      <c r="AG17" s="143"/>
-      <c r="AH17" s="141"/>
-      <c r="AI17" s="142"/>
-      <c r="AJ17" s="143"/>
-      <c r="AK17" s="141"/>
-      <c r="AL17" s="142"/>
-      <c r="AM17" s="143"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="136"/>
+      <c r="Q17" s="137"/>
+      <c r="R17" s="138"/>
+      <c r="S17" s="136"/>
+      <c r="T17" s="137"/>
+      <c r="U17" s="138"/>
+      <c r="V17" s="136"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="138"/>
+      <c r="Y17" s="136"/>
+      <c r="Z17" s="137"/>
+      <c r="AA17" s="138"/>
+      <c r="AB17" s="136"/>
+      <c r="AC17" s="137"/>
+      <c r="AD17" s="138"/>
+      <c r="AE17" s="136"/>
+      <c r="AF17" s="137"/>
+      <c r="AG17" s="138"/>
+      <c r="AH17" s="136"/>
+      <c r="AI17" s="137"/>
+      <c r="AJ17" s="138"/>
+      <c r="AK17" s="136"/>
+      <c r="AL17" s="137"/>
+      <c r="AM17" s="138"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B18" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="147">
+      <c r="D18" s="133">
         <f>Tower!I3*2+Tower!I3/2</f>
         <v>225</v>
       </c>
-      <c r="E18" s="148"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="147">
+      <c r="E18" s="134"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="133">
         <f>D21</f>
         <v>25</v>
       </c>
-      <c r="H18" s="148"/>
-      <c r="I18" s="149"/>
-      <c r="J18" s="147">
+      <c r="H18" s="134"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="133">
         <f t="shared" ref="J18" si="5">G21</f>
         <v>-253</v>
       </c>
-      <c r="K18" s="148"/>
-      <c r="L18" s="149"/>
-      <c r="M18" s="147">
+      <c r="K18" s="134"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="133">
         <f t="shared" ref="M18" si="6">J21</f>
         <v>537</v>
       </c>
-      <c r="N18" s="148"/>
-      <c r="O18" s="149"/>
-      <c r="P18" s="147">
+      <c r="N18" s="134"/>
+      <c r="O18" s="135"/>
+      <c r="P18" s="133">
         <f t="shared" ref="P18" si="7">M21</f>
         <v>537</v>
       </c>
-      <c r="Q18" s="148"/>
-      <c r="R18" s="149"/>
-      <c r="S18" s="147">
+      <c r="Q18" s="134"/>
+      <c r="R18" s="135"/>
+      <c r="S18" s="133">
         <f t="shared" ref="S18" si="8">P21</f>
         <v>2517</v>
       </c>
-      <c r="T18" s="148"/>
-      <c r="U18" s="149"/>
-      <c r="V18" s="147"/>
-      <c r="W18" s="148"/>
-      <c r="X18" s="149"/>
-      <c r="Y18" s="147"/>
-      <c r="Z18" s="148"/>
-      <c r="AA18" s="149"/>
-      <c r="AB18" s="147"/>
-      <c r="AC18" s="148"/>
-      <c r="AD18" s="149"/>
-      <c r="AE18" s="147"/>
-      <c r="AF18" s="148"/>
-      <c r="AG18" s="149"/>
-      <c r="AH18" s="147"/>
-      <c r="AI18" s="148"/>
-      <c r="AJ18" s="149"/>
-      <c r="AK18" s="147"/>
-      <c r="AL18" s="148"/>
-      <c r="AM18" s="149"/>
+      <c r="T18" s="134"/>
+      <c r="U18" s="135"/>
+      <c r="V18" s="133"/>
+      <c r="W18" s="134"/>
+      <c r="X18" s="135"/>
+      <c r="Y18" s="133"/>
+      <c r="Z18" s="134"/>
+      <c r="AA18" s="135"/>
+      <c r="AB18" s="133"/>
+      <c r="AC18" s="134"/>
+      <c r="AD18" s="135"/>
+      <c r="AE18" s="133"/>
+      <c r="AF18" s="134"/>
+      <c r="AG18" s="135"/>
+      <c r="AH18" s="133"/>
+      <c r="AI18" s="134"/>
+      <c r="AJ18" s="135"/>
+      <c r="AK18" s="133"/>
+      <c r="AL18" s="134"/>
+      <c r="AM18" s="135"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B19" s="86" t="s">
         <v>185</v>
       </c>
-      <c r="D19" s="150">
+      <c r="D19" s="139">
         <f>D25*VLOOKUP($B$25,TOWER,9)+D26*VLOOKUP($B$26,TOWER,9)+D27*VLOOKUP($B$27,TOWER,9)+D28*VLOOKUP($B$28,TOWER,9)+D29*VLOOKUP($B$29,TOWER,9)+D30*VLOOKUP($B$30,TOWER,9)+D31*VLOOKUP($B$31,TOWER,9)+D32*VLOOKUP($B$32,TOWER,9)+D33*VLOOKUP($B$33,TOWER,9)</f>
         <v>200</v>
       </c>
-      <c r="E19" s="151"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="150">
+      <c r="E19" s="140"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="139">
         <f>G25*VLOOKUP($B$25,TOWER,9)+G26*VLOOKUP($B$26,TOWER,9)+G27*VLOOKUP($B$27,TOWER,9)+G28*VLOOKUP($B$28,TOWER,9)+G29*VLOOKUP($B$29,TOWER,9)+G30*VLOOKUP($B$30,TOWER,9)+G31*VLOOKUP($B$31,TOWER,9)+G32*VLOOKUP($B$32,TOWER,9)+G33*VLOOKUP($B$33,TOWER,9)</f>
         <v>710</v>
       </c>
-      <c r="H19" s="151"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="150">
+      <c r="H19" s="140"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="139">
         <f>J25*VLOOKUP($B$25,TOWER,9)+J26*VLOOKUP($B$26,TOWER,9)+J27*VLOOKUP($B$27,TOWER,9)+J28*VLOOKUP($B$28,TOWER,9)+J29*VLOOKUP($B$29,TOWER,9)+J30*VLOOKUP($B$30,TOWER,9)+J31*VLOOKUP($B$31,TOWER,9)+J32*VLOOKUP($B$32,TOWER,9)+J33*VLOOKUP($B$33,TOWER,9)</f>
         <v>710</v>
       </c>
-      <c r="K19" s="151"/>
-      <c r="L19" s="152"/>
-      <c r="M19" s="150">
+      <c r="K19" s="140"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="139">
         <f>M25*VLOOKUP($B$25,TOWER,9)+M26*VLOOKUP($B$26,TOWER,9)+M27*VLOOKUP($B$27,TOWER,9)+M28*VLOOKUP($B$28,TOWER,9)+M29*VLOOKUP($B$29,TOWER,9)+M30*VLOOKUP($B$30,TOWER,9)+M31*VLOOKUP($B$31,TOWER,9)+M32*VLOOKUP($B$32,TOWER,9)+M33*VLOOKUP($B$33,TOWER,9)</f>
         <v>360</v>
       </c>
-      <c r="N19" s="151"/>
-      <c r="O19" s="152"/>
-      <c r="P19" s="150">
+      <c r="N19" s="140"/>
+      <c r="O19" s="141"/>
+      <c r="P19" s="139">
         <f>P25*VLOOKUP($B$25,TOWER,9)+P26*VLOOKUP($B$26,TOWER,9)+P27*VLOOKUP($B$27,TOWER,9)+P28*VLOOKUP($B$28,TOWER,9)+P29*VLOOKUP($B$29,TOWER,9)+P30*VLOOKUP($B$30,TOWER,9)+P31*VLOOKUP($B$31,TOWER,9)+P32*VLOOKUP($B$32,TOWER,9)+P33*VLOOKUP($B$33,TOWER,9)</f>
         <v>4860</v>
       </c>
-      <c r="Q19" s="151"/>
-      <c r="R19" s="152"/>
-      <c r="S19" s="150">
+      <c r="Q19" s="140"/>
+      <c r="R19" s="141"/>
+      <c r="S19" s="139">
         <f>S25*VLOOKUP($B$25,TOWER,9)+S26*VLOOKUP($B$26,TOWER,9)+S27*VLOOKUP($B$27,TOWER,9)+S28*VLOOKUP($B$28,TOWER,9)+S29*VLOOKUP($B$29,TOWER,9)+S30*VLOOKUP($B$30,TOWER,9)+S31*VLOOKUP($B$31,TOWER,9)+S32*VLOOKUP($B$32,TOWER,9)+S33*VLOOKUP($B$33,TOWER,9)</f>
         <v>25560</v>
       </c>
-      <c r="T19" s="151"/>
-      <c r="U19" s="152"/>
-      <c r="V19" s="150"/>
-      <c r="W19" s="151"/>
-      <c r="X19" s="152"/>
-      <c r="Y19" s="150"/>
-      <c r="Z19" s="151"/>
-      <c r="AA19" s="152"/>
-      <c r="AB19" s="150"/>
-      <c r="AC19" s="151"/>
-      <c r="AD19" s="152"/>
-      <c r="AE19" s="150"/>
-      <c r="AF19" s="151"/>
-      <c r="AG19" s="152"/>
-      <c r="AH19" s="150"/>
-      <c r="AI19" s="151"/>
-      <c r="AJ19" s="152"/>
-      <c r="AK19" s="150"/>
-      <c r="AL19" s="151"/>
-      <c r="AM19" s="152"/>
+      <c r="T19" s="140"/>
+      <c r="U19" s="141"/>
+      <c r="V19" s="139"/>
+      <c r="W19" s="140"/>
+      <c r="X19" s="141"/>
+      <c r="Y19" s="139"/>
+      <c r="Z19" s="140"/>
+      <c r="AA19" s="141"/>
+      <c r="AB19" s="139"/>
+      <c r="AC19" s="140"/>
+      <c r="AD19" s="141"/>
+      <c r="AE19" s="139"/>
+      <c r="AF19" s="140"/>
+      <c r="AG19" s="141"/>
+      <c r="AH19" s="139"/>
+      <c r="AI19" s="140"/>
+      <c r="AJ19" s="141"/>
+      <c r="AK19" s="139"/>
+      <c r="AL19" s="140"/>
+      <c r="AM19" s="141"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B20" s="86" t="s">
         <v>186</v>
       </c>
-      <c r="D20" s="147">
+      <c r="D20" s="133">
         <f>D3*VLOOKUP($B$3,ENEMY,8)+D4*VLOOKUP($B$4,ENEMY,8)+D5*VLOOKUP($B$5,ENEMY,8)+D6*VLOOKUP($B$6,ENEMY,8)+D7*VLOOKUP($B$7,ENEMY,8)+D8*VLOOKUP($B$8,ENEMY,8)+D9*VLOOKUP($B$9,ENEMY,8)+D10*VLOOKUP($B$10,ENEMY,8)+D11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="148"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="147">
+      <c r="E20" s="134"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="133">
         <f>G3*H3*VLOOKUP($B$3,ENEMY,8)+G4*H4*VLOOKUP($B$4,ENEMY,8)+G5*H5*VLOOKUP($B$5,ENEMY,8)+G6*H6*VLOOKUP($B$6,ENEMY,8)+G7*H7*VLOOKUP($B$7,ENEMY,8)+G8*H8*VLOOKUP($B$8,ENEMY,8)+G9*H9*VLOOKUP($B$9,ENEMY,8)+G10*H10*VLOOKUP($B$10,ENEMY,8)+G11*H11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>432</v>
       </c>
-      <c r="H20" s="148"/>
-      <c r="I20" s="149"/>
-      <c r="J20" s="147">
+      <c r="H20" s="134"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="133">
         <f>J3*K3*VLOOKUP($B$3,ENEMY,8)+J4*K4*VLOOKUP($B$4,ENEMY,8)+J5*K5*VLOOKUP($B$5,ENEMY,8)+J6*K6*VLOOKUP($B$6,ENEMY,8)+J7*K7*VLOOKUP($B$7,ENEMY,8)+J8*K8*VLOOKUP($B$8,ENEMY,8)+J9*K9*VLOOKUP($B$9,ENEMY,8)+J10*K10*VLOOKUP($B$10,ENEMY,8)+J11*K11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>1500</v>
       </c>
-      <c r="K20" s="148"/>
-      <c r="L20" s="149"/>
-      <c r="M20" s="147">
+      <c r="K20" s="134"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="133">
         <f>M3*N3*VLOOKUP($B$3,ENEMY,8)+M4*N4*VLOOKUP($B$4,ENEMY,8)+M5*N5*VLOOKUP($B$5,ENEMY,8)+M6*N6*VLOOKUP($B$6,ENEMY,8)+M7*N7*VLOOKUP($B$7,ENEMY,8)+M8*N8*VLOOKUP($B$8,ENEMY,8)+M9*N9*VLOOKUP($B$9,ENEMY,8)+M10*N10*VLOOKUP($B$10,ENEMY,8)+M11*N11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>360</v>
       </c>
-      <c r="N20" s="148"/>
-      <c r="O20" s="149"/>
-      <c r="P20" s="147">
+      <c r="N20" s="134"/>
+      <c r="O20" s="135"/>
+      <c r="P20" s="133">
         <f>P3*Q3*VLOOKUP($B$3,ENEMY,8)+P4*Q4*VLOOKUP($B$4,ENEMY,8)+P5*Q5*VLOOKUP($B$5,ENEMY,8)+P6*Q6*VLOOKUP($B$6,ENEMY,8)+P7*Q7*VLOOKUP($B$7,ENEMY,8)+P8*Q8*VLOOKUP($B$8,ENEMY,8)+P9*Q9*VLOOKUP($B$9,ENEMY,8)+P10*Q10*VLOOKUP($B$10,ENEMY,8)+P11*Q11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>6840</v>
       </c>
-      <c r="Q20" s="148"/>
-      <c r="R20" s="149"/>
-      <c r="S20" s="147">
+      <c r="Q20" s="134"/>
+      <c r="R20" s="135"/>
+      <c r="S20" s="133">
         <f>S3*T3*VLOOKUP($B$3,ENEMY,8)+S4*T4*VLOOKUP($B$4,ENEMY,8)+S5*T5*VLOOKUP($B$5,ENEMY,8)+S6*T6*VLOOKUP($B$6,ENEMY,8)+S7*T7*VLOOKUP($B$7,ENEMY,8)+S8*T8*VLOOKUP($B$8,ENEMY,8)+S9*T9*VLOOKUP($B$9,ENEMY,8)+S10*T10*VLOOKUP($B$10,ENEMY,8)+S11*T11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>35700</v>
       </c>
-      <c r="T20" s="148"/>
-      <c r="U20" s="149"/>
-      <c r="V20" s="147"/>
-      <c r="W20" s="148"/>
-      <c r="X20" s="149"/>
-      <c r="Y20" s="147"/>
-      <c r="Z20" s="148"/>
-      <c r="AA20" s="149"/>
-      <c r="AB20" s="147"/>
-      <c r="AC20" s="148"/>
-      <c r="AD20" s="149"/>
-      <c r="AE20" s="147"/>
-      <c r="AF20" s="148"/>
-      <c r="AG20" s="149"/>
-      <c r="AH20" s="147"/>
-      <c r="AI20" s="148"/>
-      <c r="AJ20" s="149"/>
-      <c r="AK20" s="147"/>
-      <c r="AL20" s="148"/>
-      <c r="AM20" s="149"/>
+      <c r="T20" s="134"/>
+      <c r="U20" s="135"/>
+      <c r="V20" s="133"/>
+      <c r="W20" s="134"/>
+      <c r="X20" s="135"/>
+      <c r="Y20" s="133"/>
+      <c r="Z20" s="134"/>
+      <c r="AA20" s="135"/>
+      <c r="AB20" s="133"/>
+      <c r="AC20" s="134"/>
+      <c r="AD20" s="135"/>
+      <c r="AE20" s="133"/>
+      <c r="AF20" s="134"/>
+      <c r="AG20" s="135"/>
+      <c r="AH20" s="133"/>
+      <c r="AI20" s="134"/>
+      <c r="AJ20" s="135"/>
+      <c r="AK20" s="133"/>
+      <c r="AL20" s="134"/>
+      <c r="AM20" s="135"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B21" s="86" t="s">
         <v>187</v>
       </c>
-      <c r="D21" s="150">
+      <c r="D21" s="139">
         <f>D18-D19+D20</f>
         <v>25</v>
       </c>
-      <c r="E21" s="151"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="150">
+      <c r="E21" s="140"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="139">
         <f>G18-G19+G20</f>
         <v>-253</v>
       </c>
-      <c r="H21" s="151"/>
-      <c r="I21" s="152"/>
-      <c r="J21" s="150">
+      <c r="H21" s="140"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="139">
         <f t="shared" ref="J21" si="9">J18-J19+J20</f>
         <v>537</v>
       </c>
-      <c r="K21" s="151"/>
-      <c r="L21" s="152"/>
-      <c r="M21" s="150">
+      <c r="K21" s="140"/>
+      <c r="L21" s="141"/>
+      <c r="M21" s="139">
         <f t="shared" ref="M21" si="10">M18-M19+M20</f>
         <v>537</v>
       </c>
-      <c r="N21" s="151"/>
-      <c r="O21" s="152"/>
-      <c r="P21" s="150">
+      <c r="N21" s="140"/>
+      <c r="O21" s="141"/>
+      <c r="P21" s="139">
         <f t="shared" ref="P21" si="11">P18-P19+P20</f>
         <v>2517</v>
       </c>
-      <c r="Q21" s="151"/>
-      <c r="R21" s="152"/>
-      <c r="S21" s="150">
+      <c r="Q21" s="140"/>
+      <c r="R21" s="141"/>
+      <c r="S21" s="139">
         <f t="shared" ref="S21" si="12">S18-S19+S20</f>
         <v>12657</v>
       </c>
-      <c r="T21" s="151"/>
-      <c r="U21" s="152"/>
-      <c r="V21" s="150"/>
-      <c r="W21" s="151"/>
-      <c r="X21" s="152"/>
-      <c r="Y21" s="150"/>
-      <c r="Z21" s="151"/>
-      <c r="AA21" s="152"/>
-      <c r="AB21" s="150"/>
-      <c r="AC21" s="151"/>
-      <c r="AD21" s="152"/>
-      <c r="AE21" s="150"/>
-      <c r="AF21" s="151"/>
-      <c r="AG21" s="152"/>
-      <c r="AH21" s="150"/>
-      <c r="AI21" s="151"/>
-      <c r="AJ21" s="152"/>
-      <c r="AK21" s="150"/>
-      <c r="AL21" s="151"/>
-      <c r="AM21" s="152"/>
+      <c r="T21" s="140"/>
+      <c r="U21" s="141"/>
+      <c r="V21" s="139"/>
+      <c r="W21" s="140"/>
+      <c r="X21" s="141"/>
+      <c r="Y21" s="139"/>
+      <c r="Z21" s="140"/>
+      <c r="AA21" s="141"/>
+      <c r="AB21" s="139"/>
+      <c r="AC21" s="140"/>
+      <c r="AD21" s="141"/>
+      <c r="AE21" s="139"/>
+      <c r="AF21" s="140"/>
+      <c r="AG21" s="141"/>
+      <c r="AH21" s="139"/>
+      <c r="AI21" s="140"/>
+      <c r="AJ21" s="141"/>
+      <c r="AK21" s="139"/>
+      <c r="AL21" s="140"/>
+      <c r="AM21" s="141"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B24" s="105" t="s">
@@ -4248,52 +4248,52 @@
         <f t="shared" ref="C25:C33" si="13">VLOOKUP(B3,ENEMY,4)</f>
         <v>Normal</v>
       </c>
-      <c r="D25" s="147"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="147">
+      <c r="D25" s="133"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="133">
         <v>1</v>
       </c>
-      <c r="H25" s="148"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="147">
+      <c r="H25" s="134"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="133">
         <v>1</v>
       </c>
-      <c r="K25" s="148"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="147">
+      <c r="K25" s="134"/>
+      <c r="L25" s="135"/>
+      <c r="M25" s="133">
         <v>1</v>
       </c>
-      <c r="N25" s="148"/>
-      <c r="O25" s="149"/>
-      <c r="P25" s="147">
+      <c r="N25" s="134"/>
+      <c r="O25" s="135"/>
+      <c r="P25" s="133">
         <v>6</v>
       </c>
-      <c r="Q25" s="148"/>
-      <c r="R25" s="149"/>
-      <c r="S25" s="147">
+      <c r="Q25" s="134"/>
+      <c r="R25" s="135"/>
+      <c r="S25" s="133">
         <v>31</v>
       </c>
-      <c r="T25" s="148"/>
-      <c r="U25" s="149"/>
-      <c r="V25" s="147"/>
-      <c r="W25" s="148"/>
-      <c r="X25" s="149"/>
-      <c r="Y25" s="147"/>
-      <c r="Z25" s="148"/>
-      <c r="AA25" s="149"/>
-      <c r="AB25" s="147"/>
-      <c r="AC25" s="148"/>
-      <c r="AD25" s="149"/>
-      <c r="AE25" s="147"/>
-      <c r="AF25" s="148"/>
-      <c r="AG25" s="149"/>
-      <c r="AH25" s="147"/>
-      <c r="AI25" s="148"/>
-      <c r="AJ25" s="149"/>
-      <c r="AK25" s="147"/>
-      <c r="AL25" s="148"/>
-      <c r="AM25" s="149"/>
+      <c r="T25" s="134"/>
+      <c r="U25" s="135"/>
+      <c r="V25" s="133"/>
+      <c r="W25" s="134"/>
+      <c r="X25" s="135"/>
+      <c r="Y25" s="133"/>
+      <c r="Z25" s="134"/>
+      <c r="AA25" s="135"/>
+      <c r="AB25" s="133"/>
+      <c r="AC25" s="134"/>
+      <c r="AD25" s="135"/>
+      <c r="AE25" s="133"/>
+      <c r="AF25" s="134"/>
+      <c r="AG25" s="135"/>
+      <c r="AH25" s="133"/>
+      <c r="AI25" s="134"/>
+      <c r="AJ25" s="135"/>
+      <c r="AK25" s="133"/>
+      <c r="AL25" s="134"/>
+      <c r="AM25" s="135"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="109">
@@ -4307,52 +4307,52 @@
         <f t="shared" si="13"/>
         <v>Intangible</v>
       </c>
-      <c r="D26" s="150"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="150">
+      <c r="D26" s="139"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="139">
         <v>1</v>
       </c>
-      <c r="H26" s="151"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="150">
+      <c r="H26" s="140"/>
+      <c r="I26" s="141"/>
+      <c r="J26" s="139">
         <v>1</v>
       </c>
-      <c r="K26" s="151"/>
-      <c r="L26" s="152"/>
-      <c r="M26" s="150">
+      <c r="K26" s="140"/>
+      <c r="L26" s="141"/>
+      <c r="M26" s="139">
         <v>1</v>
       </c>
-      <c r="N26" s="151"/>
-      <c r="O26" s="152"/>
-      <c r="P26" s="150">
+      <c r="N26" s="140"/>
+      <c r="O26" s="141"/>
+      <c r="P26" s="139">
         <v>6</v>
       </c>
-      <c r="Q26" s="151"/>
-      <c r="R26" s="152"/>
-      <c r="S26" s="150">
+      <c r="Q26" s="140"/>
+      <c r="R26" s="141"/>
+      <c r="S26" s="139">
         <v>31</v>
       </c>
-      <c r="T26" s="151"/>
-      <c r="U26" s="152"/>
-      <c r="V26" s="150"/>
-      <c r="W26" s="151"/>
-      <c r="X26" s="152"/>
-      <c r="Y26" s="150"/>
-      <c r="Z26" s="151"/>
-      <c r="AA26" s="152"/>
-      <c r="AB26" s="150"/>
-      <c r="AC26" s="151"/>
-      <c r="AD26" s="152"/>
-      <c r="AE26" s="150"/>
-      <c r="AF26" s="151"/>
-      <c r="AG26" s="152"/>
-      <c r="AH26" s="150"/>
-      <c r="AI26" s="151"/>
-      <c r="AJ26" s="152"/>
-      <c r="AK26" s="150"/>
-      <c r="AL26" s="151"/>
-      <c r="AM26" s="152"/>
+      <c r="T26" s="140"/>
+      <c r="U26" s="141"/>
+      <c r="V26" s="139"/>
+      <c r="W26" s="140"/>
+      <c r="X26" s="141"/>
+      <c r="Y26" s="139"/>
+      <c r="Z26" s="140"/>
+      <c r="AA26" s="141"/>
+      <c r="AB26" s="139"/>
+      <c r="AC26" s="140"/>
+      <c r="AD26" s="141"/>
+      <c r="AE26" s="139"/>
+      <c r="AF26" s="140"/>
+      <c r="AG26" s="141"/>
+      <c r="AH26" s="139"/>
+      <c r="AI26" s="140"/>
+      <c r="AJ26" s="141"/>
+      <c r="AK26" s="139"/>
+      <c r="AL26" s="140"/>
+      <c r="AM26" s="141"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="109">
@@ -4366,52 +4366,52 @@
         <f t="shared" si="13"/>
         <v>Saboteur</v>
       </c>
-      <c r="D27" s="147">
+      <c r="D27" s="133">
         <v>1</v>
       </c>
-      <c r="E27" s="148"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="148"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="147">
+      <c r="E27" s="134"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="133">
         <v>1</v>
       </c>
-      <c r="K27" s="148"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="147">
+      <c r="K27" s="134"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="133">
         <v>1</v>
       </c>
-      <c r="N27" s="148"/>
-      <c r="O27" s="149"/>
-      <c r="P27" s="147">
+      <c r="N27" s="134"/>
+      <c r="O27" s="135"/>
+      <c r="P27" s="133">
         <v>6</v>
       </c>
-      <c r="Q27" s="148"/>
-      <c r="R27" s="149"/>
-      <c r="S27" s="147">
+      <c r="Q27" s="134"/>
+      <c r="R27" s="135"/>
+      <c r="S27" s="133">
         <v>31</v>
       </c>
-      <c r="T27" s="148"/>
-      <c r="U27" s="149"/>
-      <c r="V27" s="147"/>
-      <c r="W27" s="148"/>
-      <c r="X27" s="149"/>
-      <c r="Y27" s="147"/>
-      <c r="Z27" s="148"/>
-      <c r="AA27" s="149"/>
-      <c r="AB27" s="147"/>
-      <c r="AC27" s="148"/>
-      <c r="AD27" s="149"/>
-      <c r="AE27" s="147"/>
-      <c r="AF27" s="148"/>
-      <c r="AG27" s="149"/>
-      <c r="AH27" s="147"/>
-      <c r="AI27" s="148"/>
-      <c r="AJ27" s="149"/>
-      <c r="AK27" s="147"/>
-      <c r="AL27" s="148"/>
-      <c r="AM27" s="149"/>
+      <c r="T27" s="134"/>
+      <c r="U27" s="135"/>
+      <c r="V27" s="133"/>
+      <c r="W27" s="134"/>
+      <c r="X27" s="135"/>
+      <c r="Y27" s="133"/>
+      <c r="Z27" s="134"/>
+      <c r="AA27" s="135"/>
+      <c r="AB27" s="133"/>
+      <c r="AC27" s="134"/>
+      <c r="AD27" s="135"/>
+      <c r="AE27" s="133"/>
+      <c r="AF27" s="134"/>
+      <c r="AG27" s="135"/>
+      <c r="AH27" s="133"/>
+      <c r="AI27" s="134"/>
+      <c r="AJ27" s="135"/>
+      <c r="AK27" s="133"/>
+      <c r="AL27" s="134"/>
+      <c r="AM27" s="135"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="109">
@@ -4425,52 +4425,52 @@
         <f t="shared" si="13"/>
         <v>Normal</v>
       </c>
-      <c r="D28" s="150"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="150">
+      <c r="D28" s="139"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="139">
         <v>1</v>
       </c>
-      <c r="H28" s="151"/>
-      <c r="I28" s="152"/>
-      <c r="J28" s="150">
+      <c r="H28" s="140"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="139">
         <v>1</v>
       </c>
-      <c r="K28" s="151"/>
-      <c r="L28" s="152"/>
-      <c r="M28" s="150">
+      <c r="K28" s="140"/>
+      <c r="L28" s="141"/>
+      <c r="M28" s="139">
         <v>1</v>
       </c>
-      <c r="N28" s="151"/>
-      <c r="O28" s="152"/>
-      <c r="P28" s="150">
+      <c r="N28" s="140"/>
+      <c r="O28" s="141"/>
+      <c r="P28" s="139">
         <v>6</v>
       </c>
-      <c r="Q28" s="151"/>
-      <c r="R28" s="152"/>
-      <c r="S28" s="150">
+      <c r="Q28" s="140"/>
+      <c r="R28" s="141"/>
+      <c r="S28" s="139">
         <v>31</v>
       </c>
-      <c r="T28" s="151"/>
-      <c r="U28" s="152"/>
-      <c r="V28" s="150"/>
-      <c r="W28" s="151"/>
-      <c r="X28" s="152"/>
-      <c r="Y28" s="150"/>
-      <c r="Z28" s="151"/>
-      <c r="AA28" s="152"/>
-      <c r="AB28" s="150"/>
-      <c r="AC28" s="151"/>
-      <c r="AD28" s="152"/>
-      <c r="AE28" s="150"/>
-      <c r="AF28" s="151"/>
-      <c r="AG28" s="152"/>
-      <c r="AH28" s="150"/>
-      <c r="AI28" s="151"/>
-      <c r="AJ28" s="152"/>
-      <c r="AK28" s="150"/>
-      <c r="AL28" s="151"/>
-      <c r="AM28" s="152"/>
+      <c r="T28" s="140"/>
+      <c r="U28" s="141"/>
+      <c r="V28" s="139"/>
+      <c r="W28" s="140"/>
+      <c r="X28" s="141"/>
+      <c r="Y28" s="139"/>
+      <c r="Z28" s="140"/>
+      <c r="AA28" s="141"/>
+      <c r="AB28" s="139"/>
+      <c r="AC28" s="140"/>
+      <c r="AD28" s="141"/>
+      <c r="AE28" s="139"/>
+      <c r="AF28" s="140"/>
+      <c r="AG28" s="141"/>
+      <c r="AH28" s="139"/>
+      <c r="AI28" s="140"/>
+      <c r="AJ28" s="141"/>
+      <c r="AK28" s="139"/>
+      <c r="AL28" s="140"/>
+      <c r="AM28" s="141"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="109">
@@ -4484,50 +4484,50 @@
         <f t="shared" si="13"/>
         <v>Intangible</v>
       </c>
-      <c r="D29" s="147"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="147">
+      <c r="D29" s="133"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="133">
         <v>1</v>
       </c>
-      <c r="H29" s="148"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="147">
+      <c r="H29" s="134"/>
+      <c r="I29" s="135"/>
+      <c r="J29" s="133">
         <v>1</v>
       </c>
-      <c r="K29" s="148"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="147"/>
-      <c r="N29" s="148"/>
-      <c r="O29" s="149"/>
-      <c r="P29" s="147">
+      <c r="K29" s="134"/>
+      <c r="L29" s="135"/>
+      <c r="M29" s="133"/>
+      <c r="N29" s="134"/>
+      <c r="O29" s="135"/>
+      <c r="P29" s="133">
         <v>6</v>
       </c>
-      <c r="Q29" s="148"/>
-      <c r="R29" s="149"/>
-      <c r="S29" s="147">
+      <c r="Q29" s="134"/>
+      <c r="R29" s="135"/>
+      <c r="S29" s="133">
         <v>32</v>
       </c>
-      <c r="T29" s="148"/>
-      <c r="U29" s="149"/>
-      <c r="V29" s="147"/>
-      <c r="W29" s="148"/>
-      <c r="X29" s="149"/>
-      <c r="Y29" s="147"/>
-      <c r="Z29" s="148"/>
-      <c r="AA29" s="149"/>
-      <c r="AB29" s="147"/>
-      <c r="AC29" s="148"/>
-      <c r="AD29" s="149"/>
-      <c r="AE29" s="147"/>
-      <c r="AF29" s="148"/>
-      <c r="AG29" s="149"/>
-      <c r="AH29" s="147"/>
-      <c r="AI29" s="148"/>
-      <c r="AJ29" s="149"/>
-      <c r="AK29" s="147"/>
-      <c r="AL29" s="148"/>
-      <c r="AM29" s="149"/>
+      <c r="T29" s="134"/>
+      <c r="U29" s="135"/>
+      <c r="V29" s="133"/>
+      <c r="W29" s="134"/>
+      <c r="X29" s="135"/>
+      <c r="Y29" s="133"/>
+      <c r="Z29" s="134"/>
+      <c r="AA29" s="135"/>
+      <c r="AB29" s="133"/>
+      <c r="AC29" s="134"/>
+      <c r="AD29" s="135"/>
+      <c r="AE29" s="133"/>
+      <c r="AF29" s="134"/>
+      <c r="AG29" s="135"/>
+      <c r="AH29" s="133"/>
+      <c r="AI29" s="134"/>
+      <c r="AJ29" s="135"/>
+      <c r="AK29" s="133"/>
+      <c r="AL29" s="134"/>
+      <c r="AM29" s="135"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="109">
@@ -4541,50 +4541,50 @@
         <f t="shared" si="13"/>
         <v>Saboteur</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="139">
         <v>1</v>
       </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="152"/>
-      <c r="G30" s="150">
+      <c r="E30" s="140"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="139">
         <v>1</v>
       </c>
-      <c r="H30" s="151"/>
-      <c r="I30" s="152"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="152"/>
-      <c r="M30" s="150"/>
-      <c r="N30" s="151"/>
-      <c r="O30" s="152"/>
-      <c r="P30" s="150">
+      <c r="H30" s="140"/>
+      <c r="I30" s="141"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="140"/>
+      <c r="L30" s="141"/>
+      <c r="M30" s="139"/>
+      <c r="N30" s="140"/>
+      <c r="O30" s="141"/>
+      <c r="P30" s="139">
         <v>6</v>
       </c>
-      <c r="Q30" s="151"/>
-      <c r="R30" s="152"/>
-      <c r="S30" s="150">
+      <c r="Q30" s="140"/>
+      <c r="R30" s="141"/>
+      <c r="S30" s="139">
         <v>32</v>
       </c>
-      <c r="T30" s="151"/>
-      <c r="U30" s="152"/>
-      <c r="V30" s="150"/>
-      <c r="W30" s="151"/>
-      <c r="X30" s="152"/>
-      <c r="Y30" s="150"/>
-      <c r="Z30" s="151"/>
-      <c r="AA30" s="152"/>
-      <c r="AB30" s="150"/>
-      <c r="AC30" s="151"/>
-      <c r="AD30" s="152"/>
-      <c r="AE30" s="150"/>
-      <c r="AF30" s="151"/>
-      <c r="AG30" s="152"/>
-      <c r="AH30" s="150"/>
-      <c r="AI30" s="151"/>
-      <c r="AJ30" s="152"/>
-      <c r="AK30" s="150"/>
-      <c r="AL30" s="151"/>
-      <c r="AM30" s="152"/>
+      <c r="T30" s="140"/>
+      <c r="U30" s="141"/>
+      <c r="V30" s="139"/>
+      <c r="W30" s="140"/>
+      <c r="X30" s="141"/>
+      <c r="Y30" s="139"/>
+      <c r="Z30" s="140"/>
+      <c r="AA30" s="141"/>
+      <c r="AB30" s="139"/>
+      <c r="AC30" s="140"/>
+      <c r="AD30" s="141"/>
+      <c r="AE30" s="139"/>
+      <c r="AF30" s="140"/>
+      <c r="AG30" s="141"/>
+      <c r="AH30" s="139"/>
+      <c r="AI30" s="140"/>
+      <c r="AJ30" s="141"/>
+      <c r="AK30" s="139"/>
+      <c r="AL30" s="140"/>
+      <c r="AM30" s="141"/>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="109">
@@ -4598,50 +4598,50 @@
         <f t="shared" si="13"/>
         <v>Normal</v>
       </c>
-      <c r="D31" s="147"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="147">
+      <c r="D31" s="133"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="133">
         <v>1</v>
       </c>
-      <c r="H31" s="148"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="147">
+      <c r="H31" s="134"/>
+      <c r="I31" s="135"/>
+      <c r="J31" s="133">
         <v>1</v>
       </c>
-      <c r="K31" s="148"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="147"/>
-      <c r="N31" s="148"/>
-      <c r="O31" s="149"/>
-      <c r="P31" s="147">
+      <c r="K31" s="134"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="133"/>
+      <c r="N31" s="134"/>
+      <c r="O31" s="135"/>
+      <c r="P31" s="133">
         <v>6</v>
       </c>
-      <c r="Q31" s="148"/>
-      <c r="R31" s="149"/>
-      <c r="S31" s="147">
+      <c r="Q31" s="134"/>
+      <c r="R31" s="135"/>
+      <c r="S31" s="133">
         <v>32</v>
       </c>
-      <c r="T31" s="148"/>
-      <c r="U31" s="149"/>
-      <c r="V31" s="147"/>
-      <c r="W31" s="148"/>
-      <c r="X31" s="149"/>
-      <c r="Y31" s="147"/>
-      <c r="Z31" s="148"/>
-      <c r="AA31" s="149"/>
-      <c r="AB31" s="147"/>
-      <c r="AC31" s="148"/>
-      <c r="AD31" s="149"/>
-      <c r="AE31" s="147"/>
-      <c r="AF31" s="148"/>
-      <c r="AG31" s="149"/>
-      <c r="AH31" s="147"/>
-      <c r="AI31" s="148"/>
-      <c r="AJ31" s="149"/>
-      <c r="AK31" s="147"/>
-      <c r="AL31" s="148"/>
-      <c r="AM31" s="149"/>
+      <c r="T31" s="134"/>
+      <c r="U31" s="135"/>
+      <c r="V31" s="133"/>
+      <c r="W31" s="134"/>
+      <c r="X31" s="135"/>
+      <c r="Y31" s="133"/>
+      <c r="Z31" s="134"/>
+      <c r="AA31" s="135"/>
+      <c r="AB31" s="133"/>
+      <c r="AC31" s="134"/>
+      <c r="AD31" s="135"/>
+      <c r="AE31" s="133"/>
+      <c r="AF31" s="134"/>
+      <c r="AG31" s="135"/>
+      <c r="AH31" s="133"/>
+      <c r="AI31" s="134"/>
+      <c r="AJ31" s="135"/>
+      <c r="AK31" s="133"/>
+      <c r="AL31" s="134"/>
+      <c r="AM31" s="135"/>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="109">
@@ -4655,50 +4655,50 @@
         <f t="shared" si="13"/>
         <v>Intangible</v>
       </c>
-      <c r="D32" s="150"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="152"/>
-      <c r="G32" s="150">
+      <c r="D32" s="139"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="139">
         <v>1</v>
       </c>
-      <c r="H32" s="151"/>
-      <c r="I32" s="152"/>
-      <c r="J32" s="150">
+      <c r="H32" s="140"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="139">
         <v>1</v>
       </c>
-      <c r="K32" s="151"/>
-      <c r="L32" s="152"/>
-      <c r="M32" s="150"/>
-      <c r="N32" s="151"/>
-      <c r="O32" s="152"/>
-      <c r="P32" s="150">
+      <c r="K32" s="140"/>
+      <c r="L32" s="141"/>
+      <c r="M32" s="139"/>
+      <c r="N32" s="140"/>
+      <c r="O32" s="141"/>
+      <c r="P32" s="139">
         <v>6</v>
       </c>
-      <c r="Q32" s="151"/>
-      <c r="R32" s="152"/>
-      <c r="S32" s="150">
+      <c r="Q32" s="140"/>
+      <c r="R32" s="141"/>
+      <c r="S32" s="139">
         <v>32</v>
       </c>
-      <c r="T32" s="151"/>
-      <c r="U32" s="152"/>
-      <c r="V32" s="150"/>
-      <c r="W32" s="151"/>
-      <c r="X32" s="152"/>
-      <c r="Y32" s="150"/>
-      <c r="Z32" s="151"/>
-      <c r="AA32" s="152"/>
-      <c r="AB32" s="150"/>
-      <c r="AC32" s="151"/>
-      <c r="AD32" s="152"/>
-      <c r="AE32" s="150"/>
-      <c r="AF32" s="151"/>
-      <c r="AG32" s="152"/>
-      <c r="AH32" s="150"/>
-      <c r="AI32" s="151"/>
-      <c r="AJ32" s="152"/>
-      <c r="AK32" s="150"/>
-      <c r="AL32" s="151"/>
-      <c r="AM32" s="152"/>
+      <c r="T32" s="140"/>
+      <c r="U32" s="141"/>
+      <c r="V32" s="139"/>
+      <c r="W32" s="140"/>
+      <c r="X32" s="141"/>
+      <c r="Y32" s="139"/>
+      <c r="Z32" s="140"/>
+      <c r="AA32" s="141"/>
+      <c r="AB32" s="139"/>
+      <c r="AC32" s="140"/>
+      <c r="AD32" s="141"/>
+      <c r="AE32" s="139"/>
+      <c r="AF32" s="140"/>
+      <c r="AG32" s="141"/>
+      <c r="AH32" s="139"/>
+      <c r="AI32" s="140"/>
+      <c r="AJ32" s="141"/>
+      <c r="AK32" s="139"/>
+      <c r="AL32" s="140"/>
+      <c r="AM32" s="141"/>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="109">
@@ -4712,225 +4712,364 @@
         <f t="shared" si="13"/>
         <v>Saboteur</v>
       </c>
-      <c r="D33" s="147"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="147">
+      <c r="D33" s="133"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="133">
         <v>1</v>
       </c>
-      <c r="H33" s="148"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="147">
+      <c r="H33" s="134"/>
+      <c r="I33" s="135"/>
+      <c r="J33" s="133">
         <v>1</v>
       </c>
-      <c r="K33" s="148"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="147"/>
-      <c r="N33" s="148"/>
-      <c r="O33" s="149"/>
-      <c r="P33" s="147">
+      <c r="K33" s="134"/>
+      <c r="L33" s="135"/>
+      <c r="M33" s="133"/>
+      <c r="N33" s="134"/>
+      <c r="O33" s="135"/>
+      <c r="P33" s="133">
         <v>6</v>
       </c>
-      <c r="Q33" s="148"/>
-      <c r="R33" s="149"/>
-      <c r="S33" s="147">
+      <c r="Q33" s="134"/>
+      <c r="R33" s="135"/>
+      <c r="S33" s="133">
         <v>32</v>
       </c>
-      <c r="T33" s="148"/>
-      <c r="U33" s="149"/>
-      <c r="V33" s="147"/>
-      <c r="W33" s="148"/>
-      <c r="X33" s="149"/>
-      <c r="Y33" s="147"/>
-      <c r="Z33" s="148"/>
-      <c r="AA33" s="149"/>
-      <c r="AB33" s="147"/>
-      <c r="AC33" s="148"/>
-      <c r="AD33" s="149"/>
-      <c r="AE33" s="147"/>
-      <c r="AF33" s="148"/>
-      <c r="AG33" s="149"/>
-      <c r="AH33" s="147"/>
-      <c r="AI33" s="148"/>
-      <c r="AJ33" s="149"/>
-      <c r="AK33" s="147"/>
-      <c r="AL33" s="148"/>
-      <c r="AM33" s="149"/>
+      <c r="T33" s="134"/>
+      <c r="U33" s="135"/>
+      <c r="V33" s="133"/>
+      <c r="W33" s="134"/>
+      <c r="X33" s="135"/>
+      <c r="Y33" s="133"/>
+      <c r="Z33" s="134"/>
+      <c r="AA33" s="135"/>
+      <c r="AB33" s="133"/>
+      <c r="AC33" s="134"/>
+      <c r="AD33" s="135"/>
+      <c r="AE33" s="133"/>
+      <c r="AF33" s="134"/>
+      <c r="AG33" s="135"/>
+      <c r="AH33" s="133"/>
+      <c r="AI33" s="134"/>
+      <c r="AJ33" s="135"/>
+      <c r="AK33" s="133"/>
+      <c r="AL33" s="134"/>
+      <c r="AM33" s="135"/>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B34" s="101"/>
       <c r="C34" s="102"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="143"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="142"/>
-      <c r="I34" s="143"/>
-      <c r="J34" s="141"/>
-      <c r="K34" s="142"/>
-      <c r="L34" s="143"/>
-      <c r="M34" s="141"/>
-      <c r="N34" s="142"/>
-      <c r="O34" s="143"/>
-      <c r="P34" s="141"/>
-      <c r="Q34" s="142"/>
-      <c r="R34" s="143"/>
-      <c r="S34" s="141"/>
-      <c r="T34" s="142"/>
-      <c r="U34" s="143"/>
-      <c r="V34" s="141"/>
-      <c r="W34" s="142"/>
-      <c r="X34" s="143"/>
-      <c r="Y34" s="141"/>
-      <c r="Z34" s="142"/>
-      <c r="AA34" s="143"/>
-      <c r="AB34" s="141"/>
-      <c r="AC34" s="142"/>
-      <c r="AD34" s="143"/>
-      <c r="AE34" s="141"/>
-      <c r="AF34" s="142"/>
-      <c r="AG34" s="143"/>
-      <c r="AH34" s="141"/>
-      <c r="AI34" s="142"/>
-      <c r="AJ34" s="143"/>
-      <c r="AK34" s="141"/>
-      <c r="AL34" s="142"/>
-      <c r="AM34" s="143"/>
+      <c r="D34" s="136"/>
+      <c r="E34" s="137"/>
+      <c r="F34" s="138"/>
+      <c r="G34" s="136"/>
+      <c r="H34" s="137"/>
+      <c r="I34" s="138"/>
+      <c r="J34" s="136"/>
+      <c r="K34" s="137"/>
+      <c r="L34" s="138"/>
+      <c r="M34" s="136"/>
+      <c r="N34" s="137"/>
+      <c r="O34" s="138"/>
+      <c r="P34" s="136"/>
+      <c r="Q34" s="137"/>
+      <c r="R34" s="138"/>
+      <c r="S34" s="136"/>
+      <c r="T34" s="137"/>
+      <c r="U34" s="138"/>
+      <c r="V34" s="136"/>
+      <c r="W34" s="137"/>
+      <c r="X34" s="138"/>
+      <c r="Y34" s="136"/>
+      <c r="Z34" s="137"/>
+      <c r="AA34" s="138"/>
+      <c r="AB34" s="136"/>
+      <c r="AC34" s="137"/>
+      <c r="AD34" s="138"/>
+      <c r="AE34" s="136"/>
+      <c r="AF34" s="137"/>
+      <c r="AG34" s="138"/>
+      <c r="AH34" s="136"/>
+      <c r="AI34" s="137"/>
+      <c r="AJ34" s="138"/>
+      <c r="AK34" s="136"/>
+      <c r="AL34" s="137"/>
+      <c r="AM34" s="138"/>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B35" s="103"/>
       <c r="C35" s="102"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="143"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="142"/>
-      <c r="I35" s="143"/>
-      <c r="J35" s="141"/>
-      <c r="K35" s="142"/>
-      <c r="L35" s="143"/>
-      <c r="M35" s="141"/>
-      <c r="N35" s="142"/>
-      <c r="O35" s="143"/>
-      <c r="P35" s="141"/>
-      <c r="Q35" s="142"/>
-      <c r="R35" s="143"/>
-      <c r="S35" s="141"/>
-      <c r="T35" s="142"/>
-      <c r="U35" s="143"/>
-      <c r="V35" s="141"/>
-      <c r="W35" s="142"/>
-      <c r="X35" s="143"/>
-      <c r="Y35" s="141"/>
-      <c r="Z35" s="142"/>
-      <c r="AA35" s="143"/>
-      <c r="AB35" s="141"/>
-      <c r="AC35" s="142"/>
-      <c r="AD35" s="143"/>
-      <c r="AE35" s="141"/>
-      <c r="AF35" s="142"/>
-      <c r="AG35" s="143"/>
-      <c r="AH35" s="141"/>
-      <c r="AI35" s="142"/>
-      <c r="AJ35" s="143"/>
-      <c r="AK35" s="141"/>
-      <c r="AL35" s="142"/>
-      <c r="AM35" s="143"/>
+      <c r="D35" s="136"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="138"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="137"/>
+      <c r="I35" s="138"/>
+      <c r="J35" s="136"/>
+      <c r="K35" s="137"/>
+      <c r="L35" s="138"/>
+      <c r="M35" s="136"/>
+      <c r="N35" s="137"/>
+      <c r="O35" s="138"/>
+      <c r="P35" s="136"/>
+      <c r="Q35" s="137"/>
+      <c r="R35" s="138"/>
+      <c r="S35" s="136"/>
+      <c r="T35" s="137"/>
+      <c r="U35" s="138"/>
+      <c r="V35" s="136"/>
+      <c r="W35" s="137"/>
+      <c r="X35" s="138"/>
+      <c r="Y35" s="136"/>
+      <c r="Z35" s="137"/>
+      <c r="AA35" s="138"/>
+      <c r="AB35" s="136"/>
+      <c r="AC35" s="137"/>
+      <c r="AD35" s="138"/>
+      <c r="AE35" s="136"/>
+      <c r="AF35" s="137"/>
+      <c r="AG35" s="138"/>
+      <c r="AH35" s="136"/>
+      <c r="AI35" s="137"/>
+      <c r="AJ35" s="138"/>
+      <c r="AK35" s="136"/>
+      <c r="AL35" s="137"/>
+      <c r="AM35" s="138"/>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B36" s="103"/>
       <c r="C36" s="102"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="142"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="142"/>
-      <c r="I36" s="143"/>
-      <c r="J36" s="141"/>
-      <c r="K36" s="142"/>
-      <c r="L36" s="143"/>
-      <c r="M36" s="141"/>
-      <c r="N36" s="142"/>
-      <c r="O36" s="143"/>
-      <c r="P36" s="141"/>
-      <c r="Q36" s="142"/>
-      <c r="R36" s="143"/>
-      <c r="S36" s="141"/>
-      <c r="T36" s="142"/>
-      <c r="U36" s="143"/>
-      <c r="V36" s="141"/>
-      <c r="W36" s="142"/>
-      <c r="X36" s="143"/>
-      <c r="Y36" s="141"/>
-      <c r="Z36" s="142"/>
-      <c r="AA36" s="143"/>
-      <c r="AB36" s="141"/>
-      <c r="AC36" s="142"/>
-      <c r="AD36" s="143"/>
-      <c r="AE36" s="141"/>
-      <c r="AF36" s="142"/>
-      <c r="AG36" s="143"/>
-      <c r="AH36" s="141"/>
-      <c r="AI36" s="142"/>
-      <c r="AJ36" s="143"/>
-      <c r="AK36" s="141"/>
-      <c r="AL36" s="142"/>
-      <c r="AM36" s="143"/>
+      <c r="D36" s="136"/>
+      <c r="E36" s="137"/>
+      <c r="F36" s="138"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="138"/>
+      <c r="J36" s="136"/>
+      <c r="K36" s="137"/>
+      <c r="L36" s="138"/>
+      <c r="M36" s="136"/>
+      <c r="N36" s="137"/>
+      <c r="O36" s="138"/>
+      <c r="P36" s="136"/>
+      <c r="Q36" s="137"/>
+      <c r="R36" s="138"/>
+      <c r="S36" s="136"/>
+      <c r="T36" s="137"/>
+      <c r="U36" s="138"/>
+      <c r="V36" s="136"/>
+      <c r="W36" s="137"/>
+      <c r="X36" s="138"/>
+      <c r="Y36" s="136"/>
+      <c r="Z36" s="137"/>
+      <c r="AA36" s="138"/>
+      <c r="AB36" s="136"/>
+      <c r="AC36" s="137"/>
+      <c r="AD36" s="138"/>
+      <c r="AE36" s="136"/>
+      <c r="AF36" s="137"/>
+      <c r="AG36" s="138"/>
+      <c r="AH36" s="136"/>
+      <c r="AI36" s="137"/>
+      <c r="AJ36" s="138"/>
+      <c r="AK36" s="136"/>
+      <c r="AL36" s="137"/>
+      <c r="AM36" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="267">
-    <mergeCell ref="AK33:AM33"/>
-    <mergeCell ref="AK34:AM34"/>
-    <mergeCell ref="AK35:AM35"/>
-    <mergeCell ref="AK36:AM36"/>
-    <mergeCell ref="AK27:AM27"/>
-    <mergeCell ref="AK28:AM28"/>
-    <mergeCell ref="AK29:AM29"/>
-    <mergeCell ref="AK30:AM30"/>
-    <mergeCell ref="AK31:AM31"/>
-    <mergeCell ref="AK32:AM32"/>
-    <mergeCell ref="AK18:AM18"/>
-    <mergeCell ref="AK19:AM19"/>
-    <mergeCell ref="AK20:AM20"/>
-    <mergeCell ref="AK21:AM21"/>
-    <mergeCell ref="AK25:AM25"/>
-    <mergeCell ref="AK26:AM26"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AK14:AM14"/>
-    <mergeCell ref="AK15:AM15"/>
-    <mergeCell ref="AK16:AM16"/>
-    <mergeCell ref="AK17:AM17"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="AK13:AM13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AD19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AE25:AG25"/>
+    <mergeCell ref="AH25:AJ25"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="AE27:AG27"/>
+    <mergeCell ref="AH27:AJ27"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AE26:AG26"/>
+    <mergeCell ref="AH26:AJ26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="AB29:AD29"/>
+    <mergeCell ref="AE29:AG29"/>
+    <mergeCell ref="AH29:AJ29"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB28:AD28"/>
+    <mergeCell ref="AE28:AG28"/>
+    <mergeCell ref="AH28:AJ28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="AE31:AG31"/>
+    <mergeCell ref="AH31:AJ31"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="AE30:AG30"/>
+    <mergeCell ref="AH30:AJ30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="AH33:AJ33"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="AB32:AD32"/>
+    <mergeCell ref="AE32:AG32"/>
+    <mergeCell ref="AH32:AJ32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="AH36:AJ36"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="AB35:AD35"/>
+    <mergeCell ref="AE35:AG35"/>
+    <mergeCell ref="AH35:AJ35"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="AB34:AD34"/>
+    <mergeCell ref="AE34:AG34"/>
+    <mergeCell ref="AH34:AJ34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="P35:R35"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="V36:X36"/>
@@ -4955,197 +5094,58 @@
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="AH36:AJ36"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="S35:U35"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="AB35:AD35"/>
-    <mergeCell ref="AE35:AG35"/>
-    <mergeCell ref="AH35:AJ35"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="AB34:AD34"/>
-    <mergeCell ref="AE34:AG34"/>
-    <mergeCell ref="AH34:AJ34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="AH33:AJ33"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="AB32:AD32"/>
-    <mergeCell ref="AE32:AG32"/>
-    <mergeCell ref="AH32:AJ32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="AE31:AG31"/>
-    <mergeCell ref="AH31:AJ31"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="AE30:AG30"/>
-    <mergeCell ref="AH30:AJ30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="AB29:AD29"/>
-    <mergeCell ref="AE29:AG29"/>
-    <mergeCell ref="AH29:AJ29"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="AB28:AD28"/>
-    <mergeCell ref="AE28:AG28"/>
-    <mergeCell ref="AH28:AJ28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="AE27:AG27"/>
-    <mergeCell ref="AH27:AJ27"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AE26:AG26"/>
-    <mergeCell ref="AH26:AJ26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AE25:AG25"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AB19:AD19"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="AK13:AM13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="AK14:AM14"/>
+    <mergeCell ref="AK15:AM15"/>
+    <mergeCell ref="AK16:AM16"/>
+    <mergeCell ref="AK17:AM17"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AK18:AM18"/>
+    <mergeCell ref="AK19:AM19"/>
+    <mergeCell ref="AK20:AM20"/>
+    <mergeCell ref="AK21:AM21"/>
+    <mergeCell ref="AK25:AM25"/>
+    <mergeCell ref="AK26:AM26"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="AK35:AM35"/>
+    <mergeCell ref="AK36:AM36"/>
+    <mergeCell ref="AK27:AM27"/>
+    <mergeCell ref="AK28:AM28"/>
+    <mergeCell ref="AK29:AM29"/>
+    <mergeCell ref="AK30:AM30"/>
+    <mergeCell ref="AK31:AM31"/>
+    <mergeCell ref="AK32:AM32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D16:AM16">
@@ -5244,66 +5244,66 @@
   <sheetData>
     <row r="1" spans="1:48" s="111" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="108"/>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="153" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="153" t="s">
+      <c r="C1" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="135" t="s">
+      <c r="D1" s="147" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="136"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="135" t="s">
+      <c r="E1" s="148"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="147" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="136"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="135" t="s">
+      <c r="H1" s="148"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="147" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="136"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="135" t="s">
+      <c r="K1" s="148"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="147" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="136"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="135" t="s">
+      <c r="N1" s="148"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="147" t="s">
         <v>177</v>
       </c>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="135" t="s">
+      <c r="Q1" s="148"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="147" t="s">
         <v>178</v>
       </c>
-      <c r="T1" s="136"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="135" t="s">
+      <c r="T1" s="148"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="147" t="s">
         <v>206</v>
       </c>
-      <c r="W1" s="136"/>
-      <c r="X1" s="137"/>
-      <c r="Y1" s="135" t="s">
+      <c r="W1" s="148"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="147" t="s">
         <v>207</v>
       </c>
-      <c r="Z1" s="136"/>
-      <c r="AA1" s="137"/>
-      <c r="AB1" s="135" t="s">
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="149"/>
+      <c r="AB1" s="147" t="s">
         <v>208</v>
       </c>
-      <c r="AC1" s="136"/>
-      <c r="AD1" s="137"/>
-      <c r="AE1" s="135"/>
-      <c r="AF1" s="136"/>
-      <c r="AG1" s="137"/>
-      <c r="AH1" s="135"/>
-      <c r="AI1" s="136"/>
-      <c r="AJ1" s="137"/>
-      <c r="AK1" s="135"/>
-      <c r="AL1" s="136"/>
-      <c r="AM1" s="137"/>
+      <c r="AC1" s="148"/>
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="149"/>
+      <c r="AH1" s="147"/>
+      <c r="AI1" s="148"/>
+      <c r="AJ1" s="149"/>
+      <c r="AK1" s="147"/>
+      <c r="AL1" s="148"/>
+      <c r="AM1" s="149"/>
       <c r="AN1" s="123"/>
       <c r="AO1" s="123"/>
       <c r="AP1" s="123"/>
@@ -5316,8 +5316,8 @@
     </row>
     <row r="2" spans="1:48" s="127" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="109"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="154"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="146"/>
       <c r="D2" s="124" t="s">
         <v>179</v>
       </c>
@@ -5857,668 +5857,668 @@
       <c r="AM11" s="117"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="D12" s="141"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="143"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="138"/>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B13" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="144">
+      <c r="D13" s="150">
         <v>100</v>
       </c>
-      <c r="E13" s="145"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="138">
+      <c r="E13" s="151"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="142">
         <f>D16</f>
         <v>100</v>
       </c>
-      <c r="H13" s="139"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="138" t="e">
+      <c r="H13" s="143"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="142" t="e">
         <f>G16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="139"/>
-      <c r="L13" s="140"/>
-      <c r="M13" s="138" t="e">
+      <c r="K13" s="143"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="142" t="e">
         <f>J16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N13" s="139"/>
-      <c r="O13" s="140"/>
-      <c r="P13" s="138" t="e">
+      <c r="N13" s="143"/>
+      <c r="O13" s="144"/>
+      <c r="P13" s="142" t="e">
         <f>M16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q13" s="139"/>
-      <c r="R13" s="140"/>
-      <c r="S13" s="138" t="e">
+      <c r="Q13" s="143"/>
+      <c r="R13" s="144"/>
+      <c r="S13" s="142" t="e">
         <f>P16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T13" s="139"/>
-      <c r="U13" s="140"/>
-      <c r="V13" s="138"/>
-      <c r="W13" s="139"/>
-      <c r="X13" s="140"/>
-      <c r="Y13" s="138"/>
-      <c r="Z13" s="139"/>
-      <c r="AA13" s="140"/>
-      <c r="AB13" s="138"/>
-      <c r="AC13" s="139"/>
-      <c r="AD13" s="140"/>
-      <c r="AE13" s="138"/>
-      <c r="AF13" s="139"/>
-      <c r="AG13" s="140"/>
-      <c r="AH13" s="138"/>
-      <c r="AI13" s="139"/>
-      <c r="AJ13" s="140"/>
-      <c r="AK13" s="138"/>
-      <c r="AL13" s="139"/>
-      <c r="AM13" s="140"/>
+      <c r="T13" s="143"/>
+      <c r="U13" s="144"/>
+      <c r="V13" s="142"/>
+      <c r="W13" s="143"/>
+      <c r="X13" s="144"/>
+      <c r="Y13" s="142"/>
+      <c r="Z13" s="143"/>
+      <c r="AA13" s="144"/>
+      <c r="AB13" s="142"/>
+      <c r="AC13" s="143"/>
+      <c r="AD13" s="144"/>
+      <c r="AE13" s="142"/>
+      <c r="AF13" s="143"/>
+      <c r="AG13" s="144"/>
+      <c r="AH13" s="142"/>
+      <c r="AI13" s="143"/>
+      <c r="AJ13" s="144"/>
+      <c r="AK13" s="142"/>
+      <c r="AL13" s="143"/>
+      <c r="AM13" s="144"/>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B14" s="97" t="s">
         <v>182</v>
       </c>
-      <c r="D14" s="141">
+      <c r="D14" s="136">
         <f>D3*VLOOKUP($B$3,ENEMY,7)+D4*VLOOKUP($B$4,ENEMY,7)+D5*VLOOKUP($B$5,ENEMY,7)+D6*VLOOKUP($B$6,ENEMY,7)+D7*VLOOKUP($B$7,ENEMY,7)+D8*VLOOKUP($B$8,ENEMY,7)+D9*VLOOKUP($B$9,ENEMY,7)+D10*VLOOKUP($B$10,ENEMY,7)+D11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="142"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="141">
+      <c r="E14" s="137"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="136">
         <f>G3*H3*VLOOKUP($B$3,ENEMY,7)+G4*H4*VLOOKUP($B$4,ENEMY,7)+G5*H5*VLOOKUP($B$5,ENEMY,7)+G6*H6*VLOOKUP($B$6,ENEMY,7)+G7*H7*VLOOKUP($B$7,ENEMY,7)+G8*H8*VLOOKUP($B$8,ENEMY,7)+G9*H9*VLOOKUP($B$9,ENEMY,7)+G10*H10*VLOOKUP($B$10,ENEMY,7)+G11*H11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>60</v>
       </c>
-      <c r="H14" s="142"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="141">
+      <c r="H14" s="137"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="136">
         <f>J3*K3*VLOOKUP($B$3,ENEMY,7)+J4*K4*VLOOKUP($B$4,ENEMY,7)+J5*K5*VLOOKUP($B$5,ENEMY,7)+J6*K6*VLOOKUP($B$6,ENEMY,7)+J7*K7*VLOOKUP($B$7,ENEMY,7)+J8*K8*VLOOKUP($B$8,ENEMY,7)+J9*K9*VLOOKUP($B$9,ENEMY,7)+J10*K10*VLOOKUP($B$10,ENEMY,7)+J11*K11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>100</v>
       </c>
-      <c r="K14" s="142"/>
-      <c r="L14" s="143"/>
-      <c r="M14" s="141">
+      <c r="K14" s="137"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="136">
         <f>M3*N3*VLOOKUP($B$3,ENEMY,7)+M4*N4*VLOOKUP($B$4,ENEMY,7)+M5*N5*VLOOKUP($B$5,ENEMY,7)+M6*N6*VLOOKUP($B$6,ENEMY,7)+M7*N7*VLOOKUP($B$7,ENEMY,7)+M8*N8*VLOOKUP($B$8,ENEMY,7)+M9*N9*VLOOKUP($B$9,ENEMY,7)+M10*N10*VLOOKUP($B$10,ENEMY,7)+M11*N11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>75</v>
       </c>
-      <c r="N14" s="142"/>
-      <c r="O14" s="143"/>
-      <c r="P14" s="141">
+      <c r="N14" s="137"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="136">
         <f>P3*Q3*VLOOKUP($B$3,ENEMY,7)+P4*Q4*VLOOKUP($B$4,ENEMY,7)+P5*Q5*VLOOKUP($B$5,ENEMY,7)+P6*Q6*VLOOKUP($B$6,ENEMY,7)+P7*Q7*VLOOKUP($B$7,ENEMY,7)+P8*Q8*VLOOKUP($B$8,ENEMY,7)+P9*Q9*VLOOKUP($B$9,ENEMY,7)+P10*Q10*VLOOKUP($B$10,ENEMY,7)+P11*Q11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>75</v>
       </c>
-      <c r="Q14" s="142"/>
-      <c r="R14" s="143"/>
-      <c r="S14" s="141">
+      <c r="Q14" s="137"/>
+      <c r="R14" s="138"/>
+      <c r="S14" s="136">
         <f>S3*T3*VLOOKUP($B$3,ENEMY,7)+S4*T4*VLOOKUP($B$4,ENEMY,7)+S5*T5*VLOOKUP($B$5,ENEMY,7)+S6*T6*VLOOKUP($B$6,ENEMY,7)+S7*T7*VLOOKUP($B$7,ENEMY,7)+S8*T8*VLOOKUP($B$8,ENEMY,7)+S9*T9*VLOOKUP($B$9,ENEMY,7)+S10*T10*VLOOKUP($B$10,ENEMY,7)+S11*T11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>7.5</v>
       </c>
-      <c r="T14" s="142"/>
-      <c r="U14" s="143"/>
-      <c r="V14" s="141"/>
-      <c r="W14" s="142"/>
-      <c r="X14" s="143"/>
-      <c r="Y14" s="141"/>
-      <c r="Z14" s="142"/>
-      <c r="AA14" s="143"/>
-      <c r="AB14" s="141"/>
-      <c r="AC14" s="142"/>
-      <c r="AD14" s="143"/>
-      <c r="AE14" s="141"/>
-      <c r="AF14" s="142"/>
-      <c r="AG14" s="143"/>
-      <c r="AH14" s="141"/>
-      <c r="AI14" s="142"/>
-      <c r="AJ14" s="143"/>
-      <c r="AK14" s="141"/>
-      <c r="AL14" s="142"/>
-      <c r="AM14" s="143"/>
+      <c r="T14" s="137"/>
+      <c r="U14" s="138"/>
+      <c r="V14" s="136"/>
+      <c r="W14" s="137"/>
+      <c r="X14" s="138"/>
+      <c r="Y14" s="136"/>
+      <c r="Z14" s="137"/>
+      <c r="AA14" s="138"/>
+      <c r="AB14" s="136"/>
+      <c r="AC14" s="137"/>
+      <c r="AD14" s="138"/>
+      <c r="AE14" s="136"/>
+      <c r="AF14" s="137"/>
+      <c r="AG14" s="138"/>
+      <c r="AH14" s="136"/>
+      <c r="AI14" s="137"/>
+      <c r="AJ14" s="138"/>
+      <c r="AK14" s="136"/>
+      <c r="AL14" s="137"/>
+      <c r="AM14" s="138"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B15" s="97" t="s">
         <v>205</v>
       </c>
-      <c r="D15" s="141">
+      <c r="D15" s="136">
         <f>D26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+D27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+D28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+D29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+D30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+D31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+D32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+D33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+D34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
         <v>2.25</v>
       </c>
-      <c r="E15" s="142"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="141">
+      <c r="E15" s="137"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="136">
         <f>G26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+G27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+G28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+G29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+G30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+G31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+G32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+G33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+G34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="142"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="141">
+      <c r="H15" s="137"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="136">
         <f>J26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+J27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+J28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+J29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+J30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+J31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+J32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+J33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+J34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
         <v>6.25</v>
       </c>
-      <c r="K15" s="142"/>
-      <c r="L15" s="143"/>
-      <c r="M15" s="141">
+      <c r="K15" s="137"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="136">
         <f>M26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+M27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+M28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+M29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+M30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+M31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+M32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+M33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+M34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
         <v>4</v>
       </c>
-      <c r="N15" s="142"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="141">
+      <c r="N15" s="137"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="136">
         <f>P26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+P27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+P28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+P29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+P30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+P31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+P32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+P33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+P34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
         <v>2.25</v>
       </c>
-      <c r="Q15" s="142"/>
-      <c r="R15" s="143"/>
-      <c r="S15" s="141">
+      <c r="Q15" s="137"/>
+      <c r="R15" s="138"/>
+      <c r="S15" s="136">
         <f>S26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+S27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+S28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+S29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+S30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+S31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+S32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+S33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+S34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="142"/>
-      <c r="U15" s="143"/>
-      <c r="V15" s="141"/>
-      <c r="W15" s="142"/>
-      <c r="X15" s="143"/>
-      <c r="Y15" s="141"/>
-      <c r="Z15" s="142"/>
-      <c r="AA15" s="143"/>
-      <c r="AB15" s="141"/>
-      <c r="AC15" s="142"/>
-      <c r="AD15" s="143"/>
-      <c r="AE15" s="141"/>
-      <c r="AF15" s="142"/>
-      <c r="AG15" s="143"/>
-      <c r="AH15" s="141"/>
-      <c r="AI15" s="142"/>
-      <c r="AJ15" s="143"/>
-      <c r="AK15" s="141"/>
-      <c r="AL15" s="142"/>
-      <c r="AM15" s="143"/>
+      <c r="T15" s="137"/>
+      <c r="U15" s="138"/>
+      <c r="V15" s="136"/>
+      <c r="W15" s="137"/>
+      <c r="X15" s="138"/>
+      <c r="Y15" s="136"/>
+      <c r="Z15" s="137"/>
+      <c r="AA15" s="138"/>
+      <c r="AB15" s="136"/>
+      <c r="AC15" s="137"/>
+      <c r="AD15" s="138"/>
+      <c r="AE15" s="136"/>
+      <c r="AF15" s="137"/>
+      <c r="AG15" s="138"/>
+      <c r="AH15" s="136"/>
+      <c r="AI15" s="137"/>
+      <c r="AJ15" s="138"/>
+      <c r="AK15" s="136"/>
+      <c r="AL15" s="137"/>
+      <c r="AM15" s="138"/>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B16" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="D16" s="138">
+      <c r="D16" s="142">
         <f>D13-D14</f>
         <v>100</v>
       </c>
-      <c r="E16" s="139"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="138" t="e">
+      <c r="E16" s="143"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="142" t="e">
         <f>ROUND(G13-(G14/G15),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="139"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="138" t="e">
+      <c r="H16" s="143"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="142" t="e">
         <f t="shared" ref="J16" si="1">ROUND(J13-(J14/J15),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="139"/>
-      <c r="L16" s="140"/>
-      <c r="M16" s="138" t="e">
+      <c r="K16" s="143"/>
+      <c r="L16" s="144"/>
+      <c r="M16" s="142" t="e">
         <f t="shared" ref="M16" si="2">ROUND(M13-(M14/M15),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N16" s="139"/>
-      <c r="O16" s="140"/>
-      <c r="P16" s="138" t="e">
+      <c r="N16" s="143"/>
+      <c r="O16" s="144"/>
+      <c r="P16" s="142" t="e">
         <f t="shared" ref="P16" si="3">ROUND(P13-(P14/P15),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q16" s="139"/>
-      <c r="R16" s="140"/>
-      <c r="S16" s="138" t="e">
+      <c r="Q16" s="143"/>
+      <c r="R16" s="144"/>
+      <c r="S16" s="142" t="e">
         <f t="shared" ref="S16" si="4">ROUND(S13-(S14/S15),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T16" s="139"/>
-      <c r="U16" s="140"/>
-      <c r="V16" s="138"/>
-      <c r="W16" s="139"/>
-      <c r="X16" s="140"/>
-      <c r="Y16" s="138"/>
-      <c r="Z16" s="139"/>
-      <c r="AA16" s="140"/>
-      <c r="AB16" s="138"/>
-      <c r="AC16" s="139"/>
-      <c r="AD16" s="140"/>
-      <c r="AE16" s="138"/>
-      <c r="AF16" s="139"/>
-      <c r="AG16" s="140"/>
-      <c r="AH16" s="138"/>
-      <c r="AI16" s="139"/>
-      <c r="AJ16" s="140"/>
-      <c r="AK16" s="138"/>
-      <c r="AL16" s="139"/>
-      <c r="AM16" s="140"/>
+      <c r="T16" s="143"/>
+      <c r="U16" s="144"/>
+      <c r="V16" s="142"/>
+      <c r="W16" s="143"/>
+      <c r="X16" s="144"/>
+      <c r="Y16" s="142"/>
+      <c r="Z16" s="143"/>
+      <c r="AA16" s="144"/>
+      <c r="AB16" s="142"/>
+      <c r="AC16" s="143"/>
+      <c r="AD16" s="144"/>
+      <c r="AE16" s="142"/>
+      <c r="AF16" s="143"/>
+      <c r="AG16" s="144"/>
+      <c r="AH16" s="142"/>
+      <c r="AI16" s="143"/>
+      <c r="AJ16" s="144"/>
+      <c r="AK16" s="142"/>
+      <c r="AL16" s="143"/>
+      <c r="AM16" s="144"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C17" s="31"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="143"/>
-      <c r="M17" s="141"/>
-      <c r="N17" s="142"/>
-      <c r="O17" s="143"/>
-      <c r="P17" s="141"/>
-      <c r="Q17" s="142"/>
-      <c r="R17" s="143"/>
-      <c r="S17" s="141"/>
-      <c r="T17" s="142"/>
-      <c r="U17" s="143"/>
-      <c r="V17" s="141"/>
-      <c r="W17" s="142"/>
-      <c r="X17" s="143"/>
-      <c r="Y17" s="141"/>
-      <c r="Z17" s="142"/>
-      <c r="AA17" s="143"/>
-      <c r="AB17" s="141"/>
-      <c r="AC17" s="142"/>
-      <c r="AD17" s="143"/>
-      <c r="AE17" s="141"/>
-      <c r="AF17" s="142"/>
-      <c r="AG17" s="143"/>
-      <c r="AH17" s="141"/>
-      <c r="AI17" s="142"/>
-      <c r="AJ17" s="143"/>
-      <c r="AK17" s="141"/>
-      <c r="AL17" s="142"/>
-      <c r="AM17" s="143"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="136"/>
+      <c r="Q17" s="137"/>
+      <c r="R17" s="138"/>
+      <c r="S17" s="136"/>
+      <c r="T17" s="137"/>
+      <c r="U17" s="138"/>
+      <c r="V17" s="136"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="138"/>
+      <c r="Y17" s="136"/>
+      <c r="Z17" s="137"/>
+      <c r="AA17" s="138"/>
+      <c r="AB17" s="136"/>
+      <c r="AC17" s="137"/>
+      <c r="AD17" s="138"/>
+      <c r="AE17" s="136"/>
+      <c r="AF17" s="137"/>
+      <c r="AG17" s="138"/>
+      <c r="AH17" s="136"/>
+      <c r="AI17" s="137"/>
+      <c r="AJ17" s="138"/>
+      <c r="AK17" s="136"/>
+      <c r="AL17" s="137"/>
+      <c r="AM17" s="138"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B18" s="95" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="147">
+      <c r="D18" s="133">
         <f>Tower!I3*2+Tower!I3/2</f>
         <v>225</v>
       </c>
-      <c r="E18" s="148"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="147">
+      <c r="E18" s="134"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="133">
         <f>D22</f>
         <v>25</v>
       </c>
-      <c r="H18" s="148"/>
-      <c r="I18" s="149"/>
-      <c r="J18" s="147">
+      <c r="H18" s="134"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="133">
         <f t="shared" ref="J18" si="5">G22</f>
         <v>21</v>
       </c>
-      <c r="K18" s="148"/>
-      <c r="L18" s="149"/>
-      <c r="M18" s="147">
+      <c r="K18" s="134"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="133">
         <f t="shared" ref="M18" si="6">J22</f>
         <v>1</v>
       </c>
-      <c r="N18" s="148"/>
-      <c r="O18" s="149"/>
-      <c r="P18" s="147">
+      <c r="N18" s="134"/>
+      <c r="O18" s="135"/>
+      <c r="P18" s="133">
         <f t="shared" ref="P18" si="7">M22</f>
         <v>-109</v>
       </c>
-      <c r="Q18" s="148"/>
-      <c r="R18" s="149"/>
-      <c r="S18" s="147">
+      <c r="Q18" s="134"/>
+      <c r="R18" s="135"/>
+      <c r="S18" s="133">
         <f t="shared" ref="S18" si="8">P22</f>
         <v>-89</v>
       </c>
-      <c r="T18" s="148"/>
-      <c r="U18" s="149"/>
-      <c r="V18" s="147">
+      <c r="T18" s="134"/>
+      <c r="U18" s="135"/>
+      <c r="V18" s="133">
         <f t="shared" ref="V18" si="9">S22</f>
         <v>-69</v>
       </c>
-      <c r="W18" s="148"/>
-      <c r="X18" s="149"/>
-      <c r="Y18" s="147">
+      <c r="W18" s="134"/>
+      <c r="X18" s="135"/>
+      <c r="Y18" s="133">
         <f t="shared" ref="Y18" si="10">V22</f>
         <v>-69</v>
       </c>
-      <c r="Z18" s="148"/>
-      <c r="AA18" s="149"/>
-      <c r="AB18" s="147">
+      <c r="Z18" s="134"/>
+      <c r="AA18" s="135"/>
+      <c r="AB18" s="133">
         <f t="shared" ref="AB18" si="11">Y22</f>
         <v>-69</v>
       </c>
-      <c r="AC18" s="148"/>
-      <c r="AD18" s="149"/>
-      <c r="AE18" s="147">
+      <c r="AC18" s="134"/>
+      <c r="AD18" s="135"/>
+      <c r="AE18" s="133">
         <f t="shared" ref="AE18" si="12">AB22</f>
         <v>-69</v>
       </c>
-      <c r="AF18" s="148"/>
-      <c r="AG18" s="149"/>
-      <c r="AH18" s="147">
+      <c r="AF18" s="134"/>
+      <c r="AG18" s="135"/>
+      <c r="AH18" s="133">
         <f t="shared" ref="AH18" si="13">AE22</f>
         <v>-69</v>
       </c>
-      <c r="AI18" s="148"/>
-      <c r="AJ18" s="149"/>
-      <c r="AK18" s="147">
+      <c r="AI18" s="134"/>
+      <c r="AJ18" s="135"/>
+      <c r="AK18" s="133">
         <f t="shared" ref="AK18" si="14">AH22</f>
         <v>-69</v>
       </c>
-      <c r="AL18" s="148"/>
-      <c r="AM18" s="149"/>
+      <c r="AL18" s="134"/>
+      <c r="AM18" s="135"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B19" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="D19" s="150">
+      <c r="D19" s="139">
         <f>D26*VLOOKUP($B$26,TOWER,9)+D27*VLOOKUP($B$27,TOWER,9)+D28*VLOOKUP($B$28,TOWER,9)+D29*VLOOKUP($B$29,TOWER,9)+D30*VLOOKUP($B$30,TOWER,9)+D31*VLOOKUP($B$31,TOWER,9)+D32*VLOOKUP($B$32,TOWER,9)+D33*VLOOKUP($B$33,TOWER,9)+D34*VLOOKUP($B$34,TOWER,9)</f>
         <v>100</v>
       </c>
-      <c r="E19" s="151"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="150">
+      <c r="E19" s="140"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="139">
         <f>G26*VLOOKUP($B$26,TOWER,9)+G27*VLOOKUP($B$27,TOWER,9)+G28*VLOOKUP($B$28,TOWER,9)+G29*VLOOKUP($B$29,TOWER,9)+G30*VLOOKUP($B$30,TOWER,9)+G31*VLOOKUP($B$31,TOWER,9)+G32*VLOOKUP($B$32,TOWER,9)+G33*VLOOKUP($B$33,TOWER,9)+G34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="151"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="150">
+      <c r="H19" s="140"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="139">
         <f>J26*VLOOKUP($B$26,TOWER,9)+J27*VLOOKUP($B$27,TOWER,9)+J28*VLOOKUP($B$28,TOWER,9)+J29*VLOOKUP($B$29,TOWER,9)+J30*VLOOKUP($B$30,TOWER,9)+J31*VLOOKUP($B$31,TOWER,9)+J32*VLOOKUP($B$32,TOWER,9)+J33*VLOOKUP($B$33,TOWER,9)+J34*VLOOKUP($B$34,TOWER,9)</f>
         <v>180</v>
       </c>
-      <c r="K19" s="151"/>
-      <c r="L19" s="152"/>
-      <c r="M19" s="150">
+      <c r="K19" s="140"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="139">
         <f>M26*VLOOKUP($B$26,TOWER,9)+M27*VLOOKUP($B$27,TOWER,9)+M28*VLOOKUP($B$28,TOWER,9)+M29*VLOOKUP($B$29,TOWER,9)+M30*VLOOKUP($B$30,TOWER,9)+M31*VLOOKUP($B$31,TOWER,9)+M32*VLOOKUP($B$32,TOWER,9)+M33*VLOOKUP($B$33,TOWER,9)+M34*VLOOKUP($B$34,TOWER,9)</f>
         <v>80</v>
       </c>
-      <c r="N19" s="151"/>
-      <c r="O19" s="152"/>
-      <c r="P19" s="150">
+      <c r="N19" s="140"/>
+      <c r="O19" s="141"/>
+      <c r="P19" s="139">
         <f>P26*VLOOKUP($B$26,TOWER,9)+P27*VLOOKUP($B$27,TOWER,9)+P28*VLOOKUP($B$28,TOWER,9)+P29*VLOOKUP($B$29,TOWER,9)+P30*VLOOKUP($B$30,TOWER,9)+P31*VLOOKUP($B$31,TOWER,9)+P32*VLOOKUP($B$32,TOWER,9)+P33*VLOOKUP($B$33,TOWER,9)+P34*VLOOKUP($B$34,TOWER,9)</f>
         <v>100</v>
       </c>
-      <c r="Q19" s="151"/>
-      <c r="R19" s="152"/>
-      <c r="S19" s="150">
+      <c r="Q19" s="140"/>
+      <c r="R19" s="141"/>
+      <c r="S19" s="139">
         <f>S26*VLOOKUP($B$26,TOWER,9)+S27*VLOOKUP($B$27,TOWER,9)+S28*VLOOKUP($B$28,TOWER,9)+S29*VLOOKUP($B$29,TOWER,9)+S30*VLOOKUP($B$30,TOWER,9)+S31*VLOOKUP($B$31,TOWER,9)+S32*VLOOKUP($B$32,TOWER,9)+S33*VLOOKUP($B$33,TOWER,9)+S34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="T19" s="151"/>
-      <c r="U19" s="152"/>
-      <c r="V19" s="150">
+      <c r="T19" s="140"/>
+      <c r="U19" s="141"/>
+      <c r="V19" s="139">
         <f>V26*VLOOKUP($B$26,TOWER,9)+V27*VLOOKUP($B$27,TOWER,9)+V28*VLOOKUP($B$28,TOWER,9)+V29*VLOOKUP($B$29,TOWER,9)+V30*VLOOKUP($B$30,TOWER,9)+V31*VLOOKUP($B$31,TOWER,9)+V32*VLOOKUP($B$32,TOWER,9)+V33*VLOOKUP($B$33,TOWER,9)+V34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="W19" s="151"/>
-      <c r="X19" s="152"/>
-      <c r="Y19" s="150">
+      <c r="W19" s="140"/>
+      <c r="X19" s="141"/>
+      <c r="Y19" s="139">
         <f>Y26*VLOOKUP($B$26,TOWER,9)+Y27*VLOOKUP($B$27,TOWER,9)+Y28*VLOOKUP($B$28,TOWER,9)+Y29*VLOOKUP($B$29,TOWER,9)+Y30*VLOOKUP($B$30,TOWER,9)+Y31*VLOOKUP($B$31,TOWER,9)+Y32*VLOOKUP($B$32,TOWER,9)+Y33*VLOOKUP($B$33,TOWER,9)+Y34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="Z19" s="151"/>
-      <c r="AA19" s="152"/>
-      <c r="AB19" s="150">
+      <c r="Z19" s="140"/>
+      <c r="AA19" s="141"/>
+      <c r="AB19" s="139">
         <f>AB26*VLOOKUP($B$26,TOWER,9)+AB27*VLOOKUP($B$27,TOWER,9)+AB28*VLOOKUP($B$28,TOWER,9)+AB29*VLOOKUP($B$29,TOWER,9)+AB30*VLOOKUP($B$30,TOWER,9)+AB31*VLOOKUP($B$31,TOWER,9)+AB32*VLOOKUP($B$32,TOWER,9)+AB33*VLOOKUP($B$33,TOWER,9)+AB34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="AC19" s="151"/>
-      <c r="AD19" s="152"/>
-      <c r="AE19" s="150">
+      <c r="AC19" s="140"/>
+      <c r="AD19" s="141"/>
+      <c r="AE19" s="139">
         <f>AE26*VLOOKUP($B$26,TOWER,9)+AE27*VLOOKUP($B$27,TOWER,9)+AE28*VLOOKUP($B$28,TOWER,9)+AE29*VLOOKUP($B$29,TOWER,9)+AE30*VLOOKUP($B$30,TOWER,9)+AE31*VLOOKUP($B$31,TOWER,9)+AE32*VLOOKUP($B$32,TOWER,9)+AE33*VLOOKUP($B$33,TOWER,9)+AE34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="AF19" s="151"/>
-      <c r="AG19" s="152"/>
-      <c r="AH19" s="150">
+      <c r="AF19" s="140"/>
+      <c r="AG19" s="141"/>
+      <c r="AH19" s="139">
         <f>AH26*VLOOKUP($B$26,TOWER,9)+AH27*VLOOKUP($B$27,TOWER,9)+AH28*VLOOKUP($B$28,TOWER,9)+AH29*VLOOKUP($B$29,TOWER,9)+AH30*VLOOKUP($B$30,TOWER,9)+AH31*VLOOKUP($B$31,TOWER,9)+AH32*VLOOKUP($B$32,TOWER,9)+AH33*VLOOKUP($B$33,TOWER,9)+AH34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="AI19" s="151"/>
-      <c r="AJ19" s="152"/>
-      <c r="AK19" s="150">
+      <c r="AI19" s="140"/>
+      <c r="AJ19" s="141"/>
+      <c r="AK19" s="139">
         <f>AK26*VLOOKUP($B$26,TOWER,9)+AK27*VLOOKUP($B$27,TOWER,9)+AK28*VLOOKUP($B$28,TOWER,9)+AK29*VLOOKUP($B$29,TOWER,9)+AK30*VLOOKUP($B$30,TOWER,9)+AK31*VLOOKUP($B$31,TOWER,9)+AK32*VLOOKUP($B$32,TOWER,9)+AK33*VLOOKUP($B$33,TOWER,9)+AK34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="AL19" s="151"/>
-      <c r="AM19" s="152"/>
+      <c r="AL19" s="140"/>
+      <c r="AM19" s="141"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B20" s="97" t="s">
         <v>211</v>
       </c>
-      <c r="D20" s="147">
+      <c r="D20" s="133">
         <f>SUM(HLOOKUP(E37,FSTATS,5,FALSE)*D37,HLOOKUP(E38,FSTATS,5,FALSE)*D38,HLOOKUP(E39,FSTATS,5,FALSE)*D39)</f>
         <v>100</v>
       </c>
-      <c r="E20" s="148"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="147">
+      <c r="E20" s="134"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="133">
         <f>SUM(HLOOKUP(H37,FSTATS,5,FALSE)*G37,HLOOKUP(H38,FSTATS,5,FALSE)*G38,HLOOKUP(H39,FSTATS,5,FALSE)*G39)</f>
         <v>100</v>
       </c>
-      <c r="H20" s="148"/>
-      <c r="I20" s="149"/>
-      <c r="J20" s="147">
+      <c r="H20" s="134"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="133">
         <f>SUM(HLOOKUP(K37,FSTATS,5,FALSE)*J37,HLOOKUP(K38,FSTATS,5,FALSE)*J38,HLOOKUP(K39,FSTATS,5,FALSE)*J39)</f>
         <v>0</v>
       </c>
-      <c r="K20" s="148"/>
-      <c r="L20" s="149"/>
-      <c r="M20" s="147">
+      <c r="K20" s="134"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="133">
         <f>SUM(HLOOKUP(N37,FSTATS,5,FALSE)*M37,HLOOKUP(N38,FSTATS,5,FALSE)*M38,HLOOKUP(N39,FSTATS,5,FALSE)*M39)</f>
         <v>150</v>
       </c>
-      <c r="N20" s="148"/>
-      <c r="O20" s="149"/>
-      <c r="P20" s="147">
+      <c r="N20" s="134"/>
+      <c r="O20" s="135"/>
+      <c r="P20" s="133">
         <f>SUM(HLOOKUP(Q37,FSTATS,5,FALSE)*P37,HLOOKUP(Q38,FSTATS,5,FALSE)*P38,HLOOKUP(Q39,FSTATS,5,FALSE)*P39)</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="148"/>
-      <c r="R20" s="149"/>
-      <c r="S20" s="147">
+      <c r="Q20" s="134"/>
+      <c r="R20" s="135"/>
+      <c r="S20" s="133">
         <f>SUM(HLOOKUP(T37,FSTATS,5,FALSE)*S37,HLOOKUP(T38,FSTATS,5,FALSE)*S38,HLOOKUP(T39,FSTATS,5,FALSE)*S39)</f>
         <v>0</v>
       </c>
-      <c r="T20" s="148"/>
-      <c r="U20" s="149"/>
-      <c r="V20" s="147">
+      <c r="T20" s="134"/>
+      <c r="U20" s="135"/>
+      <c r="V20" s="133">
         <f>SUM(HLOOKUP(W37,FSTATS,5,FALSE)*V37,HLOOKUP(W38,FSTATS,5,FALSE)*V38,HLOOKUP(W39,FSTATS,5,FALSE)*V39)</f>
         <v>0</v>
       </c>
-      <c r="W20" s="148"/>
-      <c r="X20" s="149"/>
-      <c r="Y20" s="147">
+      <c r="W20" s="134"/>
+      <c r="X20" s="135"/>
+      <c r="Y20" s="133">
         <f>SUM(HLOOKUP(Z37,FSTATS,5,FALSE)*Y37,HLOOKUP(Z38,FSTATS,5,FALSE)*Y38,HLOOKUP(Z39,FSTATS,5,FALSE)*Y39)</f>
         <v>0</v>
       </c>
-      <c r="Z20" s="148"/>
-      <c r="AA20" s="149"/>
-      <c r="AB20" s="147">
+      <c r="Z20" s="134"/>
+      <c r="AA20" s="135"/>
+      <c r="AB20" s="133">
         <f>SUM(HLOOKUP(AC37,FSTATS,5,FALSE)*AB37,HLOOKUP(AC38,FSTATS,5,FALSE)*AB38,HLOOKUP(AC39,FSTATS,5,FALSE)*AB39)</f>
         <v>0</v>
       </c>
-      <c r="AC20" s="148"/>
-      <c r="AD20" s="149"/>
-      <c r="AE20" s="147">
+      <c r="AC20" s="134"/>
+      <c r="AD20" s="135"/>
+      <c r="AE20" s="133">
         <f>SUM(HLOOKUP(AF37,FSTATS,5,FALSE)*AE37,HLOOKUP(AF38,FSTATS,5,FALSE)*AE38,HLOOKUP(AF39,FSTATS,5,FALSE)*AE39)</f>
         <v>0</v>
       </c>
-      <c r="AF20" s="148"/>
-      <c r="AG20" s="149"/>
-      <c r="AH20" s="147">
+      <c r="AF20" s="134"/>
+      <c r="AG20" s="135"/>
+      <c r="AH20" s="133">
         <f>SUM(HLOOKUP(AI37,FSTATS,5,FALSE)*AH37,HLOOKUP(AI38,FSTATS,5,FALSE)*AH38,HLOOKUP(AI39,FSTATS,5,FALSE)*AH39)</f>
         <v>0</v>
       </c>
-      <c r="AI20" s="148"/>
-      <c r="AJ20" s="149"/>
-      <c r="AK20" s="147">
+      <c r="AI20" s="134"/>
+      <c r="AJ20" s="135"/>
+      <c r="AK20" s="133">
         <f>SUM(HLOOKUP(AL37,FSTATS,5,FALSE)*AK37,HLOOKUP(AL38,FSTATS,5,FALSE)*AK38,HLOOKUP(AL39,FSTATS,5,FALSE)*AK39)</f>
         <v>0</v>
       </c>
-      <c r="AL20" s="148"/>
-      <c r="AM20" s="149"/>
+      <c r="AL20" s="134"/>
+      <c r="AM20" s="135"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B21" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="D21" s="150">
+      <c r="D21" s="139">
         <f>D3*VLOOKUP($B$3,ENEMY,8)+D4*VLOOKUP($B$4,ENEMY,8)+D5*VLOOKUP($B$5,ENEMY,8)+D6*VLOOKUP($B$6,ENEMY,8)+D7*VLOOKUP($B$7,ENEMY,8)+D8*VLOOKUP($B$8,ENEMY,8)+D9*VLOOKUP($B$9,ENEMY,8)+D10*VLOOKUP($B$10,ENEMY,8)+D11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="151"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="150">
+      <c r="E21" s="140"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="139">
         <f>G3*H3*VLOOKUP($B$3,ENEMY,8)+G4*H4*VLOOKUP($B$4,ENEMY,8)+G5*H5*VLOOKUP($B$5,ENEMY,8)+G6*H6*VLOOKUP($B$6,ENEMY,8)+G7*H7*VLOOKUP($B$7,ENEMY,8)+G8*H8*VLOOKUP($B$8,ENEMY,8)+G9*H9*VLOOKUP($B$9,ENEMY,8)+G10*H10*VLOOKUP($B$10,ENEMY,8)+G11*H11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>96</v>
       </c>
-      <c r="H21" s="151"/>
-      <c r="I21" s="152"/>
-      <c r="J21" s="150">
+      <c r="H21" s="140"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="139">
         <f>J3*K3*VLOOKUP($B$3,ENEMY,8)+J4*K4*VLOOKUP($B$4,ENEMY,8)+J5*K5*VLOOKUP($B$5,ENEMY,8)+J6*K6*VLOOKUP($B$6,ENEMY,8)+J7*K7*VLOOKUP($B$7,ENEMY,8)+J8*K8*VLOOKUP($B$8,ENEMY,8)+J9*K9*VLOOKUP($B$9,ENEMY,8)+J10*K10*VLOOKUP($B$10,ENEMY,8)+J11*K11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>160</v>
       </c>
-      <c r="K21" s="151"/>
-      <c r="L21" s="152"/>
-      <c r="M21" s="150">
+      <c r="K21" s="140"/>
+      <c r="L21" s="141"/>
+      <c r="M21" s="139">
         <f>M3*N3*VLOOKUP($B$3,ENEMY,8)+M4*N4*VLOOKUP($B$4,ENEMY,8)+M5*N5*VLOOKUP($B$5,ENEMY,8)+M6*N6*VLOOKUP($B$6,ENEMY,8)+M7*N7*VLOOKUP($B$7,ENEMY,8)+M8*N8*VLOOKUP($B$8,ENEMY,8)+M9*N9*VLOOKUP($B$9,ENEMY,8)+M10*N10*VLOOKUP($B$10,ENEMY,8)+M11*N11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>120</v>
       </c>
-      <c r="N21" s="151"/>
-      <c r="O21" s="152"/>
-      <c r="P21" s="150">
+      <c r="N21" s="140"/>
+      <c r="O21" s="141"/>
+      <c r="P21" s="139">
         <f>P3*Q3*VLOOKUP($B$3,ENEMY,8)+P4*Q4*VLOOKUP($B$4,ENEMY,8)+P5*Q5*VLOOKUP($B$5,ENEMY,8)+P6*Q6*VLOOKUP($B$6,ENEMY,8)+P7*Q7*VLOOKUP($B$7,ENEMY,8)+P8*Q8*VLOOKUP($B$8,ENEMY,8)+P9*Q9*VLOOKUP($B$9,ENEMY,8)+P10*Q10*VLOOKUP($B$10,ENEMY,8)+P11*Q11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>120</v>
       </c>
-      <c r="Q21" s="151"/>
-      <c r="R21" s="152"/>
-      <c r="S21" s="150">
+      <c r="Q21" s="140"/>
+      <c r="R21" s="141"/>
+      <c r="S21" s="139">
         <f>S3*T3*VLOOKUP($B$3,ENEMY,8)+S4*T4*VLOOKUP($B$4,ENEMY,8)+S5*T5*VLOOKUP($B$5,ENEMY,8)+S6*T6*VLOOKUP($B$6,ENEMY,8)+S7*T7*VLOOKUP($B$7,ENEMY,8)+S8*T8*VLOOKUP($B$8,ENEMY,8)+S9*T9*VLOOKUP($B$9,ENEMY,8)+S10*T10*VLOOKUP($B$10,ENEMY,8)+S11*T11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>20</v>
       </c>
-      <c r="T21" s="151"/>
-      <c r="U21" s="152"/>
-      <c r="V21" s="150">
+      <c r="T21" s="140"/>
+      <c r="U21" s="141"/>
+      <c r="V21" s="139">
         <f>V3*W3*VLOOKUP($B$3,ENEMY,8)+V4*W4*VLOOKUP($B$4,ENEMY,8)+V5*W5*VLOOKUP($B$5,ENEMY,8)+V6*W6*VLOOKUP($B$6,ENEMY,8)+V7*W7*VLOOKUP($B$7,ENEMY,8)+V8*W8*VLOOKUP($B$8,ENEMY,8)+V9*W9*VLOOKUP($B$9,ENEMY,8)+V10*W10*VLOOKUP($B$10,ENEMY,8)+V11*W11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="W21" s="151"/>
-      <c r="X21" s="152"/>
-      <c r="Y21" s="150">
+      <c r="W21" s="140"/>
+      <c r="X21" s="141"/>
+      <c r="Y21" s="139">
         <f>Y3*Z3*VLOOKUP($B$3,ENEMY,8)+Y4*Z4*VLOOKUP($B$4,ENEMY,8)+Y5*Z5*VLOOKUP($B$5,ENEMY,8)+Y6*Z6*VLOOKUP($B$6,ENEMY,8)+Y7*Z7*VLOOKUP($B$7,ENEMY,8)+Y8*Z8*VLOOKUP($B$8,ENEMY,8)+Y9*Z9*VLOOKUP($B$9,ENEMY,8)+Y10*Z10*VLOOKUP($B$10,ENEMY,8)+Y11*Z11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="Z21" s="151"/>
-      <c r="AA21" s="152"/>
-      <c r="AB21" s="150">
+      <c r="Z21" s="140"/>
+      <c r="AA21" s="141"/>
+      <c r="AB21" s="139">
         <f>AB3*AC3*VLOOKUP($B$3,ENEMY,8)+AB4*AC4*VLOOKUP($B$4,ENEMY,8)+AB5*AC5*VLOOKUP($B$5,ENEMY,8)+AB6*AC6*VLOOKUP($B$6,ENEMY,8)+AB7*AC7*VLOOKUP($B$7,ENEMY,8)+AB8*AC8*VLOOKUP($B$8,ENEMY,8)+AB9*AC9*VLOOKUP($B$9,ENEMY,8)+AB10*AC10*VLOOKUP($B$10,ENEMY,8)+AB11*AC11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="AC21" s="151"/>
-      <c r="AD21" s="152"/>
-      <c r="AE21" s="150">
+      <c r="AC21" s="140"/>
+      <c r="AD21" s="141"/>
+      <c r="AE21" s="139">
         <f>AE3*AF3*VLOOKUP($B$3,ENEMY,8)+AE4*AF4*VLOOKUP($B$4,ENEMY,8)+AE5*AF5*VLOOKUP($B$5,ENEMY,8)+AE6*AF6*VLOOKUP($B$6,ENEMY,8)+AE7*AF7*VLOOKUP($B$7,ENEMY,8)+AE8*AF8*VLOOKUP($B$8,ENEMY,8)+AE9*AF9*VLOOKUP($B$9,ENEMY,8)+AE10*AF10*VLOOKUP($B$10,ENEMY,8)+AE11*AF11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="AF21" s="151"/>
-      <c r="AG21" s="152"/>
-      <c r="AH21" s="150">
+      <c r="AF21" s="140"/>
+      <c r="AG21" s="141"/>
+      <c r="AH21" s="139">
         <f>AH3*AI3*VLOOKUP($B$3,ENEMY,8)+AH4*AI4*VLOOKUP($B$4,ENEMY,8)+AH5*AI5*VLOOKUP($B$5,ENEMY,8)+AH6*AI6*VLOOKUP($B$6,ENEMY,8)+AH7*AI7*VLOOKUP($B$7,ENEMY,8)+AH8*AI8*VLOOKUP($B$8,ENEMY,8)+AH9*AI9*VLOOKUP($B$9,ENEMY,8)+AH10*AI10*VLOOKUP($B$10,ENEMY,8)+AH11*AI11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="AI21" s="151"/>
-      <c r="AJ21" s="152"/>
-      <c r="AK21" s="150">
+      <c r="AI21" s="140"/>
+      <c r="AJ21" s="141"/>
+      <c r="AK21" s="139">
         <f>AK3*AL3*VLOOKUP($B$3,ENEMY,8)+AK4*AL4*VLOOKUP($B$4,ENEMY,8)+AK5*AL5*VLOOKUP($B$5,ENEMY,8)+AK6*AL6*VLOOKUP($B$6,ENEMY,8)+AK7*AL7*VLOOKUP($B$7,ENEMY,8)+AK8*AL8*VLOOKUP($B$8,ENEMY,8)+AK9*AL9*VLOOKUP($B$9,ENEMY,8)+AK10*AL10*VLOOKUP($B$10,ENEMY,8)+AK11*AL11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="AL21" s="151"/>
-      <c r="AM21" s="152"/>
+      <c r="AL21" s="140"/>
+      <c r="AM21" s="141"/>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B22" s="97" t="s">
         <v>187</v>
       </c>
-      <c r="D22" s="147">
+      <c r="D22" s="133">
         <f>D18-(D19+D20)+D21</f>
         <v>25</v>
       </c>
-      <c r="E22" s="148"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="147">
+      <c r="E22" s="134"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="133">
         <f>G18-(G19+G20)+G21</f>
         <v>21</v>
       </c>
-      <c r="H22" s="148"/>
-      <c r="I22" s="149"/>
-      <c r="J22" s="147">
+      <c r="H22" s="134"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="133">
         <f t="shared" ref="J22" si="15">J18-(J19+J20)+J21</f>
         <v>1</v>
       </c>
-      <c r="K22" s="148"/>
-      <c r="L22" s="149"/>
-      <c r="M22" s="147">
+      <c r="K22" s="134"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="133">
         <f t="shared" ref="M22" si="16">M18-(M19+M20)+M21</f>
         <v>-109</v>
       </c>
-      <c r="N22" s="148"/>
-      <c r="O22" s="149"/>
-      <c r="P22" s="147">
+      <c r="N22" s="134"/>
+      <c r="O22" s="135"/>
+      <c r="P22" s="133">
         <f t="shared" ref="P22" si="17">P18-(P19+P20)+P21</f>
         <v>-89</v>
       </c>
-      <c r="Q22" s="148"/>
-      <c r="R22" s="149"/>
-      <c r="S22" s="147">
+      <c r="Q22" s="134"/>
+      <c r="R22" s="135"/>
+      <c r="S22" s="133">
         <f t="shared" ref="S22" si="18">S18-(S19+S20)+S21</f>
         <v>-69</v>
       </c>
-      <c r="T22" s="148"/>
-      <c r="U22" s="149"/>
-      <c r="V22" s="147">
+      <c r="T22" s="134"/>
+      <c r="U22" s="135"/>
+      <c r="V22" s="133">
         <f t="shared" ref="V22" si="19">V18-(V19+V20)+V21</f>
         <v>-69</v>
       </c>
-      <c r="W22" s="148"/>
-      <c r="X22" s="149"/>
-      <c r="Y22" s="147">
+      <c r="W22" s="134"/>
+      <c r="X22" s="135"/>
+      <c r="Y22" s="133">
         <f t="shared" ref="Y22" si="20">Y18-(Y19+Y20)+Y21</f>
         <v>-69</v>
       </c>
-      <c r="Z22" s="148"/>
-      <c r="AA22" s="149"/>
-      <c r="AB22" s="147">
+      <c r="Z22" s="134"/>
+      <c r="AA22" s="135"/>
+      <c r="AB22" s="133">
         <f t="shared" ref="AB22" si="21">AB18-(AB19+AB20)+AB21</f>
         <v>-69</v>
       </c>
-      <c r="AC22" s="148"/>
-      <c r="AD22" s="149"/>
-      <c r="AE22" s="147">
+      <c r="AC22" s="134"/>
+      <c r="AD22" s="135"/>
+      <c r="AE22" s="133">
         <f t="shared" ref="AE22" si="22">AE18-(AE19+AE20)+AE21</f>
         <v>-69</v>
       </c>
-      <c r="AF22" s="148"/>
-      <c r="AG22" s="149"/>
-      <c r="AH22" s="147">
+      <c r="AF22" s="134"/>
+      <c r="AG22" s="135"/>
+      <c r="AH22" s="133">
         <f t="shared" ref="AH22" si="23">AH18-(AH19+AH20)+AH21</f>
         <v>-69</v>
       </c>
-      <c r="AI22" s="148"/>
-      <c r="AJ22" s="149"/>
-      <c r="AK22" s="147">
+      <c r="AI22" s="134"/>
+      <c r="AJ22" s="135"/>
+      <c r="AK22" s="133">
         <f t="shared" ref="AK22" si="24">AK18-(AK19+AK20)+AK21</f>
         <v>-69</v>
       </c>
-      <c r="AL22" s="148"/>
-      <c r="AM22" s="149"/>
+      <c r="AL22" s="134"/>
+      <c r="AM22" s="135"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B25" s="105" t="s">
@@ -6541,41 +6541,41 @@
         <v>Normal</v>
       </c>
       <c r="D26" s="116"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="149"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="135"/>
       <c r="G26" s="132"/>
-      <c r="H26" s="148"/>
-      <c r="I26" s="149"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="135"/>
       <c r="J26" s="132"/>
-      <c r="K26" s="148"/>
-      <c r="L26" s="149"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="135"/>
       <c r="M26" s="132"/>
-      <c r="N26" s="148"/>
-      <c r="O26" s="149"/>
+      <c r="N26" s="134"/>
+      <c r="O26" s="135"/>
       <c r="P26" s="132"/>
-      <c r="Q26" s="148"/>
-      <c r="R26" s="149"/>
+      <c r="Q26" s="134"/>
+      <c r="R26" s="135"/>
       <c r="S26" s="132"/>
-      <c r="T26" s="148"/>
-      <c r="U26" s="149"/>
+      <c r="T26" s="134"/>
+      <c r="U26" s="135"/>
       <c r="V26" s="132"/>
-      <c r="W26" s="148"/>
-      <c r="X26" s="149"/>
+      <c r="W26" s="134"/>
+      <c r="X26" s="135"/>
       <c r="Y26" s="132"/>
-      <c r="Z26" s="148"/>
-      <c r="AA26" s="149"/>
+      <c r="Z26" s="134"/>
+      <c r="AA26" s="135"/>
       <c r="AB26" s="132"/>
-      <c r="AC26" s="148"/>
-      <c r="AD26" s="149"/>
+      <c r="AC26" s="134"/>
+      <c r="AD26" s="135"/>
       <c r="AE26" s="132"/>
-      <c r="AF26" s="148"/>
-      <c r="AG26" s="149"/>
+      <c r="AF26" s="134"/>
+      <c r="AG26" s="135"/>
       <c r="AH26" s="132"/>
-      <c r="AI26" s="148"/>
-      <c r="AJ26" s="149"/>
+      <c r="AI26" s="134"/>
+      <c r="AJ26" s="135"/>
       <c r="AK26" s="132"/>
-      <c r="AL26" s="148"/>
-      <c r="AM26" s="149"/>
+      <c r="AL26" s="134"/>
+      <c r="AM26" s="135"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="109">
@@ -6590,41 +6590,41 @@
         <v>Intangible</v>
       </c>
       <c r="D27" s="118"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="152"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="141"/>
       <c r="G27" s="131"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="152"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="141"/>
       <c r="J27" s="131"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="152"/>
+      <c r="K27" s="140"/>
+      <c r="L27" s="141"/>
       <c r="M27" s="131"/>
-      <c r="N27" s="151"/>
-      <c r="O27" s="152"/>
+      <c r="N27" s="140"/>
+      <c r="O27" s="141"/>
       <c r="P27" s="131"/>
-      <c r="Q27" s="151"/>
-      <c r="R27" s="152"/>
+      <c r="Q27" s="140"/>
+      <c r="R27" s="141"/>
       <c r="S27" s="131"/>
-      <c r="T27" s="151"/>
-      <c r="U27" s="152"/>
+      <c r="T27" s="140"/>
+      <c r="U27" s="141"/>
       <c r="V27" s="131"/>
-      <c r="W27" s="151"/>
-      <c r="X27" s="152"/>
+      <c r="W27" s="140"/>
+      <c r="X27" s="141"/>
       <c r="Y27" s="131"/>
-      <c r="Z27" s="151"/>
-      <c r="AA27" s="152"/>
+      <c r="Z27" s="140"/>
+      <c r="AA27" s="141"/>
       <c r="AB27" s="131"/>
-      <c r="AC27" s="151"/>
-      <c r="AD27" s="152"/>
+      <c r="AC27" s="140"/>
+      <c r="AD27" s="141"/>
       <c r="AE27" s="131"/>
-      <c r="AF27" s="151"/>
-      <c r="AG27" s="152"/>
+      <c r="AF27" s="140"/>
+      <c r="AG27" s="141"/>
       <c r="AH27" s="131"/>
-      <c r="AI27" s="151"/>
-      <c r="AJ27" s="152"/>
+      <c r="AI27" s="140"/>
+      <c r="AJ27" s="141"/>
       <c r="AK27" s="131"/>
-      <c r="AL27" s="151"/>
-      <c r="AM27" s="152"/>
+      <c r="AL27" s="140"/>
+      <c r="AM27" s="141"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="109">
@@ -6641,49 +6641,49 @@
       <c r="D28" s="116">
         <v>1</v>
       </c>
-      <c r="E28" s="148" t="s">
+      <c r="E28" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="149"/>
+      <c r="F28" s="135"/>
       <c r="G28" s="132"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="149"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="135"/>
       <c r="J28" s="132">
         <v>1</v>
       </c>
-      <c r="K28" s="148" t="s">
+      <c r="K28" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="L28" s="149"/>
+      <c r="L28" s="135"/>
       <c r="M28" s="132"/>
-      <c r="N28" s="148"/>
-      <c r="O28" s="149"/>
+      <c r="N28" s="134"/>
+      <c r="O28" s="135"/>
       <c r="P28" s="132">
         <v>1</v>
       </c>
-      <c r="Q28" s="148"/>
-      <c r="R28" s="149"/>
+      <c r="Q28" s="134"/>
+      <c r="R28" s="135"/>
       <c r="S28" s="132"/>
-      <c r="T28" s="148"/>
-      <c r="U28" s="149"/>
+      <c r="T28" s="134"/>
+      <c r="U28" s="135"/>
       <c r="V28" s="132"/>
-      <c r="W28" s="148"/>
-      <c r="X28" s="149"/>
+      <c r="W28" s="134"/>
+      <c r="X28" s="135"/>
       <c r="Y28" s="132"/>
-      <c r="Z28" s="148"/>
-      <c r="AA28" s="149"/>
+      <c r="Z28" s="134"/>
+      <c r="AA28" s="135"/>
       <c r="AB28" s="132"/>
-      <c r="AC28" s="148"/>
-      <c r="AD28" s="149"/>
+      <c r="AC28" s="134"/>
+      <c r="AD28" s="135"/>
       <c r="AE28" s="132"/>
-      <c r="AF28" s="148"/>
-      <c r="AG28" s="149"/>
+      <c r="AF28" s="134"/>
+      <c r="AG28" s="135"/>
       <c r="AH28" s="132"/>
-      <c r="AI28" s="148"/>
-      <c r="AJ28" s="149"/>
+      <c r="AI28" s="134"/>
+      <c r="AJ28" s="135"/>
       <c r="AK28" s="132"/>
-      <c r="AL28" s="148"/>
-      <c r="AM28" s="149"/>
+      <c r="AL28" s="134"/>
+      <c r="AM28" s="135"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="109">
@@ -6698,41 +6698,41 @@
         <v>Normal</v>
       </c>
       <c r="D29" s="118"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="152"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="141"/>
       <c r="G29" s="131"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="152"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="141"/>
       <c r="J29" s="131"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="152"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="141"/>
       <c r="M29" s="131"/>
-      <c r="N29" s="151"/>
-      <c r="O29" s="152"/>
+      <c r="N29" s="140"/>
+      <c r="O29" s="141"/>
       <c r="P29" s="131"/>
-      <c r="Q29" s="151"/>
-      <c r="R29" s="152"/>
+      <c r="Q29" s="140"/>
+      <c r="R29" s="141"/>
       <c r="S29" s="131"/>
-      <c r="T29" s="151"/>
-      <c r="U29" s="152"/>
+      <c r="T29" s="140"/>
+      <c r="U29" s="141"/>
       <c r="V29" s="131"/>
-      <c r="W29" s="151"/>
-      <c r="X29" s="152"/>
+      <c r="W29" s="140"/>
+      <c r="X29" s="141"/>
       <c r="Y29" s="131"/>
-      <c r="Z29" s="151"/>
-      <c r="AA29" s="152"/>
+      <c r="Z29" s="140"/>
+      <c r="AA29" s="141"/>
       <c r="AB29" s="131"/>
-      <c r="AC29" s="151"/>
-      <c r="AD29" s="152"/>
+      <c r="AC29" s="140"/>
+      <c r="AD29" s="141"/>
       <c r="AE29" s="131"/>
-      <c r="AF29" s="151"/>
-      <c r="AG29" s="152"/>
+      <c r="AF29" s="140"/>
+      <c r="AG29" s="141"/>
       <c r="AH29" s="131"/>
-      <c r="AI29" s="151"/>
-      <c r="AJ29" s="152"/>
+      <c r="AI29" s="140"/>
+      <c r="AJ29" s="141"/>
       <c r="AK29" s="131"/>
-      <c r="AL29" s="151"/>
-      <c r="AM29" s="152"/>
+      <c r="AL29" s="140"/>
+      <c r="AM29" s="141"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="109">
@@ -6747,49 +6747,49 @@
         <v>Intangible</v>
       </c>
       <c r="D30" s="116"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="149"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="135"/>
       <c r="G30" s="132"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="149"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="135"/>
       <c r="J30" s="132">
         <v>1</v>
       </c>
-      <c r="K30" s="148" t="s">
+      <c r="K30" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="L30" s="149"/>
+      <c r="L30" s="135"/>
       <c r="M30" s="132">
         <v>1</v>
       </c>
-      <c r="N30" s="148" t="s">
+      <c r="N30" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="O30" s="149"/>
+      <c r="O30" s="135"/>
       <c r="P30" s="132"/>
-      <c r="Q30" s="148"/>
-      <c r="R30" s="149"/>
+      <c r="Q30" s="134"/>
+      <c r="R30" s="135"/>
       <c r="S30" s="132"/>
-      <c r="T30" s="148"/>
-      <c r="U30" s="149"/>
+      <c r="T30" s="134"/>
+      <c r="U30" s="135"/>
       <c r="V30" s="132"/>
-      <c r="W30" s="148"/>
-      <c r="X30" s="149"/>
+      <c r="W30" s="134"/>
+      <c r="X30" s="135"/>
       <c r="Y30" s="132"/>
-      <c r="Z30" s="148"/>
-      <c r="AA30" s="149"/>
+      <c r="Z30" s="134"/>
+      <c r="AA30" s="135"/>
       <c r="AB30" s="132"/>
-      <c r="AC30" s="148"/>
-      <c r="AD30" s="149"/>
+      <c r="AC30" s="134"/>
+      <c r="AD30" s="135"/>
       <c r="AE30" s="132"/>
-      <c r="AF30" s="148"/>
-      <c r="AG30" s="149"/>
+      <c r="AF30" s="134"/>
+      <c r="AG30" s="135"/>
       <c r="AH30" s="132"/>
-      <c r="AI30" s="148"/>
-      <c r="AJ30" s="149"/>
+      <c r="AI30" s="134"/>
+      <c r="AJ30" s="135"/>
       <c r="AK30" s="132"/>
-      <c r="AL30" s="148"/>
-      <c r="AM30" s="149"/>
+      <c r="AL30" s="134"/>
+      <c r="AM30" s="135"/>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="109">
@@ -6804,41 +6804,41 @@
         <v>Saboteur</v>
       </c>
       <c r="D31" s="118"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="152"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="141"/>
       <c r="G31" s="131"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="152"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="141"/>
       <c r="J31" s="131"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="152"/>
+      <c r="K31" s="140"/>
+      <c r="L31" s="141"/>
       <c r="M31" s="131"/>
-      <c r="N31" s="151"/>
-      <c r="O31" s="152"/>
+      <c r="N31" s="140"/>
+      <c r="O31" s="141"/>
       <c r="P31" s="131"/>
-      <c r="Q31" s="151"/>
-      <c r="R31" s="152"/>
+      <c r="Q31" s="140"/>
+      <c r="R31" s="141"/>
       <c r="S31" s="131"/>
-      <c r="T31" s="151"/>
-      <c r="U31" s="152"/>
+      <c r="T31" s="140"/>
+      <c r="U31" s="141"/>
       <c r="V31" s="131"/>
-      <c r="W31" s="151"/>
-      <c r="X31" s="152"/>
+      <c r="W31" s="140"/>
+      <c r="X31" s="141"/>
       <c r="Y31" s="131"/>
-      <c r="Z31" s="151"/>
-      <c r="AA31" s="152"/>
+      <c r="Z31" s="140"/>
+      <c r="AA31" s="141"/>
       <c r="AB31" s="131"/>
-      <c r="AC31" s="151"/>
-      <c r="AD31" s="152"/>
+      <c r="AC31" s="140"/>
+      <c r="AD31" s="141"/>
       <c r="AE31" s="131"/>
-      <c r="AF31" s="151"/>
-      <c r="AG31" s="152"/>
+      <c r="AF31" s="140"/>
+      <c r="AG31" s="141"/>
       <c r="AH31" s="131"/>
-      <c r="AI31" s="151"/>
-      <c r="AJ31" s="152"/>
+      <c r="AI31" s="140"/>
+      <c r="AJ31" s="141"/>
       <c r="AK31" s="131"/>
-      <c r="AL31" s="151"/>
-      <c r="AM31" s="152"/>
+      <c r="AL31" s="140"/>
+      <c r="AM31" s="141"/>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="109">
@@ -6853,41 +6853,41 @@
         <v>Normal</v>
       </c>
       <c r="D32" s="116"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="149"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="135"/>
       <c r="G32" s="132"/>
-      <c r="H32" s="148"/>
-      <c r="I32" s="149"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="135"/>
       <c r="J32" s="132"/>
-      <c r="K32" s="148"/>
-      <c r="L32" s="149"/>
+      <c r="K32" s="134"/>
+      <c r="L32" s="135"/>
       <c r="M32" s="132"/>
-      <c r="N32" s="148"/>
-      <c r="O32" s="149"/>
+      <c r="N32" s="134"/>
+      <c r="O32" s="135"/>
       <c r="P32" s="132"/>
-      <c r="Q32" s="148"/>
-      <c r="R32" s="149"/>
+      <c r="Q32" s="134"/>
+      <c r="R32" s="135"/>
       <c r="S32" s="132"/>
-      <c r="T32" s="148"/>
-      <c r="U32" s="149"/>
+      <c r="T32" s="134"/>
+      <c r="U32" s="135"/>
       <c r="V32" s="132"/>
-      <c r="W32" s="148"/>
-      <c r="X32" s="149"/>
+      <c r="W32" s="134"/>
+      <c r="X32" s="135"/>
       <c r="Y32" s="132"/>
-      <c r="Z32" s="148"/>
-      <c r="AA32" s="149"/>
+      <c r="Z32" s="134"/>
+      <c r="AA32" s="135"/>
       <c r="AB32" s="132"/>
-      <c r="AC32" s="148"/>
-      <c r="AD32" s="149"/>
+      <c r="AC32" s="134"/>
+      <c r="AD32" s="135"/>
       <c r="AE32" s="132"/>
-      <c r="AF32" s="148"/>
-      <c r="AG32" s="149"/>
+      <c r="AF32" s="134"/>
+      <c r="AG32" s="135"/>
       <c r="AH32" s="132"/>
-      <c r="AI32" s="148"/>
-      <c r="AJ32" s="149"/>
+      <c r="AI32" s="134"/>
+      <c r="AJ32" s="135"/>
       <c r="AK32" s="132"/>
-      <c r="AL32" s="148"/>
-      <c r="AM32" s="149"/>
+      <c r="AL32" s="134"/>
+      <c r="AM32" s="135"/>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="109">
@@ -6902,41 +6902,41 @@
         <v>Intangible</v>
       </c>
       <c r="D33" s="118"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="152"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="141"/>
       <c r="G33" s="131"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="152"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="141"/>
       <c r="J33" s="131"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="152"/>
+      <c r="K33" s="140"/>
+      <c r="L33" s="141"/>
       <c r="M33" s="131"/>
-      <c r="N33" s="151"/>
-      <c r="O33" s="152"/>
+      <c r="N33" s="140"/>
+      <c r="O33" s="141"/>
       <c r="P33" s="131"/>
-      <c r="Q33" s="151"/>
-      <c r="R33" s="152"/>
+      <c r="Q33" s="140"/>
+      <c r="R33" s="141"/>
       <c r="S33" s="131"/>
-      <c r="T33" s="151"/>
-      <c r="U33" s="152"/>
+      <c r="T33" s="140"/>
+      <c r="U33" s="141"/>
       <c r="V33" s="131"/>
-      <c r="W33" s="151"/>
-      <c r="X33" s="152"/>
+      <c r="W33" s="140"/>
+      <c r="X33" s="141"/>
       <c r="Y33" s="131"/>
-      <c r="Z33" s="151"/>
-      <c r="AA33" s="152"/>
+      <c r="Z33" s="140"/>
+      <c r="AA33" s="141"/>
       <c r="AB33" s="131"/>
-      <c r="AC33" s="151"/>
-      <c r="AD33" s="152"/>
+      <c r="AC33" s="140"/>
+      <c r="AD33" s="141"/>
       <c r="AE33" s="131"/>
-      <c r="AF33" s="151"/>
-      <c r="AG33" s="152"/>
+      <c r="AF33" s="140"/>
+      <c r="AG33" s="141"/>
       <c r="AH33" s="131"/>
-      <c r="AI33" s="151"/>
-      <c r="AJ33" s="152"/>
+      <c r="AI33" s="140"/>
+      <c r="AJ33" s="141"/>
       <c r="AK33" s="131"/>
-      <c r="AL33" s="151"/>
-      <c r="AM33" s="152"/>
+      <c r="AL33" s="140"/>
+      <c r="AM33" s="141"/>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="109">
@@ -6951,41 +6951,41 @@
         <v>Saboteur</v>
       </c>
       <c r="D34" s="116"/>
-      <c r="E34" s="148"/>
-      <c r="F34" s="149"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="135"/>
       <c r="G34" s="132"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="149"/>
+      <c r="H34" s="134"/>
+      <c r="I34" s="135"/>
       <c r="J34" s="132"/>
-      <c r="K34" s="148"/>
-      <c r="L34" s="149"/>
+      <c r="K34" s="134"/>
+      <c r="L34" s="135"/>
       <c r="M34" s="132"/>
-      <c r="N34" s="148"/>
-      <c r="O34" s="149"/>
+      <c r="N34" s="134"/>
+      <c r="O34" s="135"/>
       <c r="P34" s="132"/>
-      <c r="Q34" s="148"/>
-      <c r="R34" s="149"/>
+      <c r="Q34" s="134"/>
+      <c r="R34" s="135"/>
       <c r="S34" s="132"/>
-      <c r="T34" s="148"/>
-      <c r="U34" s="149"/>
+      <c r="T34" s="134"/>
+      <c r="U34" s="135"/>
       <c r="V34" s="132"/>
-      <c r="W34" s="148"/>
-      <c r="X34" s="149"/>
+      <c r="W34" s="134"/>
+      <c r="X34" s="135"/>
       <c r="Y34" s="132"/>
-      <c r="Z34" s="148"/>
-      <c r="AA34" s="149"/>
+      <c r="Z34" s="134"/>
+      <c r="AA34" s="135"/>
       <c r="AB34" s="132"/>
-      <c r="AC34" s="148"/>
-      <c r="AD34" s="149"/>
+      <c r="AC34" s="134"/>
+      <c r="AD34" s="135"/>
       <c r="AE34" s="132"/>
-      <c r="AF34" s="148"/>
-      <c r="AG34" s="149"/>
+      <c r="AF34" s="134"/>
+      <c r="AG34" s="135"/>
       <c r="AH34" s="132"/>
-      <c r="AI34" s="148"/>
-      <c r="AJ34" s="149"/>
+      <c r="AI34" s="134"/>
+      <c r="AJ34" s="135"/>
       <c r="AK34" s="132"/>
-      <c r="AL34" s="148"/>
-      <c r="AM34" s="149"/>
+      <c r="AL34" s="134"/>
+      <c r="AM34" s="135"/>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B35" s="101"/>
@@ -7063,65 +7063,65 @@
       <c r="D37" s="118">
         <v>1</v>
       </c>
-      <c r="E37" s="151" t="s">
+      <c r="E37" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="F37" s="152"/>
+      <c r="F37" s="141"/>
       <c r="G37" s="131"/>
-      <c r="H37" s="151" t="s">
+      <c r="H37" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="I37" s="152"/>
+      <c r="I37" s="141"/>
       <c r="J37" s="131"/>
-      <c r="K37" s="151" t="s">
+      <c r="K37" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="L37" s="152"/>
+      <c r="L37" s="141"/>
       <c r="M37" s="131"/>
-      <c r="N37" s="151" t="s">
+      <c r="N37" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="O37" s="152"/>
+      <c r="O37" s="141"/>
       <c r="P37" s="131"/>
-      <c r="Q37" s="151" t="s">
+      <c r="Q37" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="R37" s="152"/>
+      <c r="R37" s="141"/>
       <c r="S37" s="131"/>
-      <c r="T37" s="151" t="s">
+      <c r="T37" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="U37" s="152"/>
+      <c r="U37" s="141"/>
       <c r="V37" s="131"/>
-      <c r="W37" s="151" t="s">
+      <c r="W37" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="X37" s="152"/>
+      <c r="X37" s="141"/>
       <c r="Y37" s="131"/>
-      <c r="Z37" s="151" t="s">
+      <c r="Z37" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="AA37" s="152"/>
+      <c r="AA37" s="141"/>
       <c r="AB37" s="131"/>
-      <c r="AC37" s="151" t="s">
+      <c r="AC37" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="AD37" s="152"/>
+      <c r="AD37" s="141"/>
       <c r="AE37" s="131"/>
-      <c r="AF37" s="151" t="s">
+      <c r="AF37" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="AG37" s="152"/>
+      <c r="AG37" s="141"/>
       <c r="AH37" s="131"/>
-      <c r="AI37" s="151" t="s">
+      <c r="AI37" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="AJ37" s="152"/>
+      <c r="AJ37" s="141"/>
       <c r="AK37" s="131"/>
-      <c r="AL37" s="151" t="s">
+      <c r="AL37" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="AM37" s="152"/>
+      <c r="AM37" s="141"/>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="109">
@@ -7137,69 +7137,69 @@
         <v>Bubblegum</v>
       </c>
       <c r="D38" s="116"/>
-      <c r="E38" s="148" t="s">
+      <c r="E38" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="149"/>
+      <c r="F38" s="135"/>
       <c r="G38" s="132">
         <v>1</v>
       </c>
-      <c r="H38" s="148" t="s">
+      <c r="H38" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="I38" s="149"/>
+      <c r="I38" s="135"/>
       <c r="J38" s="132"/>
-      <c r="K38" s="148" t="s">
+      <c r="K38" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="L38" s="149"/>
+      <c r="L38" s="135"/>
       <c r="M38" s="132">
         <v>1</v>
       </c>
-      <c r="N38" s="148" t="s">
+      <c r="N38" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="O38" s="149"/>
+      <c r="O38" s="135"/>
       <c r="P38" s="132"/>
-      <c r="Q38" s="148" t="s">
+      <c r="Q38" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="R38" s="149"/>
+      <c r="R38" s="135"/>
       <c r="S38" s="132"/>
-      <c r="T38" s="148" t="s">
+      <c r="T38" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="U38" s="149"/>
+      <c r="U38" s="135"/>
       <c r="V38" s="132"/>
-      <c r="W38" s="148" t="s">
+      <c r="W38" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="X38" s="149"/>
+      <c r="X38" s="135"/>
       <c r="Y38" s="132"/>
-      <c r="Z38" s="148" t="s">
+      <c r="Z38" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="AA38" s="149"/>
+      <c r="AA38" s="135"/>
       <c r="AB38" s="132"/>
-      <c r="AC38" s="148" t="s">
+      <c r="AC38" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="AD38" s="149"/>
+      <c r="AD38" s="135"/>
       <c r="AE38" s="132"/>
-      <c r="AF38" s="148" t="s">
+      <c r="AF38" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="AG38" s="149"/>
+      <c r="AG38" s="135"/>
       <c r="AH38" s="132"/>
-      <c r="AI38" s="148" t="s">
+      <c r="AI38" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="AJ38" s="149"/>
+      <c r="AJ38" s="135"/>
       <c r="AK38" s="132"/>
-      <c r="AL38" s="148" t="s">
+      <c r="AL38" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="AM38" s="149"/>
+      <c r="AM38" s="135"/>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="109">
@@ -7215,152 +7215,239 @@
         <v>Stars</v>
       </c>
       <c r="D39" s="118"/>
-      <c r="E39" s="151" t="s">
+      <c r="E39" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="152"/>
+      <c r="F39" s="141"/>
       <c r="G39" s="131"/>
-      <c r="H39" s="151" t="s">
+      <c r="H39" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="I39" s="152"/>
+      <c r="I39" s="141"/>
       <c r="J39" s="131"/>
-      <c r="K39" s="151" t="s">
+      <c r="K39" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="L39" s="152"/>
+      <c r="L39" s="141"/>
       <c r="M39" s="131"/>
-      <c r="N39" s="151" t="s">
+      <c r="N39" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="O39" s="152"/>
+      <c r="O39" s="141"/>
       <c r="P39" s="131"/>
-      <c r="Q39" s="151" t="s">
+      <c r="Q39" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="R39" s="152"/>
+      <c r="R39" s="141"/>
       <c r="S39" s="131"/>
-      <c r="T39" s="151" t="s">
+      <c r="T39" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="U39" s="152"/>
+      <c r="U39" s="141"/>
       <c r="V39" s="131"/>
-      <c r="W39" s="151" t="s">
+      <c r="W39" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="X39" s="152"/>
+      <c r="X39" s="141"/>
       <c r="Y39" s="131"/>
-      <c r="Z39" s="151" t="s">
+      <c r="Z39" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="AA39" s="152"/>
+      <c r="AA39" s="141"/>
       <c r="AB39" s="131"/>
-      <c r="AC39" s="151" t="s">
+      <c r="AC39" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="AD39" s="152"/>
+      <c r="AD39" s="141"/>
       <c r="AE39" s="131"/>
-      <c r="AF39" s="151" t="s">
+      <c r="AF39" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="AG39" s="152"/>
+      <c r="AG39" s="141"/>
       <c r="AH39" s="131"/>
-      <c r="AI39" s="151" t="s">
+      <c r="AI39" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="AJ39" s="152"/>
+      <c r="AJ39" s="141"/>
       <c r="AK39" s="131"/>
-      <c r="AL39" s="151" t="s">
+      <c r="AL39" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="AM39" s="152"/>
+      <c r="AM39" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="279">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK13:AM13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="AK14:AM14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AK15:AM15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AK16:AM16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="AK17:AM17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="AF39:AG39"/>
+    <mergeCell ref="AI39:AJ39"/>
+    <mergeCell ref="AL39:AM39"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AL38:AM38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="AL37:AM37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AL34:AM34"/>
+    <mergeCell ref="AL33:AM33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="AF34:AG34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AL31:AM31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AL32:AM32"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="AF31:AG31"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AL29:AM29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AL30:AM30"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="AC29:AD29"/>
+    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AL27:AM27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AL28:AM28"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="AK20:AM20"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AD20"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="AK22:AM22"/>
+    <mergeCell ref="AK21:AM21"/>
+    <mergeCell ref="AL26:AM26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
     <mergeCell ref="AK19:AM19"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="G21:I21"/>
@@ -7385,177 +7472,90 @@
     <mergeCell ref="AH21:AJ21"/>
     <mergeCell ref="Y19:AA19"/>
     <mergeCell ref="AB19:AD19"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AK20:AM20"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AD20"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AK22:AM22"/>
-    <mergeCell ref="AK21:AM21"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="AL26:AM26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AL27:AM27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AL28:AM28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="AC29:AD29"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AL29:AM29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AL30:AM30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="AF31:AG31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AL31:AM31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="AC32:AD32"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AL32:AM32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AL34:AM34"/>
-    <mergeCell ref="AL33:AM33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="AL37:AM37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AC38:AD38"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="AF39:AG39"/>
-    <mergeCell ref="AI39:AJ39"/>
-    <mergeCell ref="AL39:AM39"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AL38:AM38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="AK17:AM17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:AM15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AK16:AM16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AK13:AM13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="AK14:AM14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
   </mergeCells>
   <conditionalFormatting sqref="D16:AM16">
     <cfRule type="colorScale" priority="6">
@@ -7654,10 +7654,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="156" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="157"/>
+      <c r="B1" s="156"/>
       <c r="C1" s="70" t="s">
         <v>11</v>
       </c>
@@ -7669,39 +7669,39 @@
       <c r="G1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="164" t="s">
+      <c r="I1" s="166" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="164"/>
-      <c r="K1" s="145" t="s">
+      <c r="J1" s="166"/>
+      <c r="K1" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="145"/>
-      <c r="M1" s="164" t="s">
+      <c r="L1" s="151"/>
+      <c r="M1" s="166" t="s">
         <v>76</v>
       </c>
-      <c r="N1" s="164"/>
-      <c r="O1" s="145" t="s">
+      <c r="N1" s="166"/>
+      <c r="O1" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="164" t="s">
+      <c r="P1" s="151"/>
+      <c r="Q1" s="166" t="s">
         <v>169</v>
       </c>
-      <c r="R1" s="164"/>
-      <c r="S1" s="164" t="s">
+      <c r="R1" s="166"/>
+      <c r="S1" s="166" t="s">
         <v>153</v>
       </c>
-      <c r="T1" s="164"/>
+      <c r="T1" s="166"/>
       <c r="U1" s="16"/>
       <c r="V1" s="16"/>
-      <c r="W1" s="145" t="s">
+      <c r="W1" s="151" t="s">
         <v>163</v>
       </c>
-      <c r="X1" s="145"/>
+      <c r="X1" s="151"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="155" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="71" t="s">
@@ -7727,39 +7727,39 @@
         <f t="array" ref="G2">_xlfn.IFS(F2="+",ROUNDDOWN(E2*(1+$I$2),2),F2="=",E2,F2="++",ROUNDDOWN(E2*(1+$I$2)*1.5,2),F2="-",ROUNDDOWN(E2*(1+$I$2)*0.75,2))</f>
         <v>3</v>
       </c>
-      <c r="I2" s="163">
+      <c r="I2" s="165">
         <v>0.3</v>
       </c>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163">
+      <c r="J2" s="165"/>
+      <c r="K2" s="165">
         <v>0.2</v>
       </c>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163">
+      <c r="L2" s="165"/>
+      <c r="M2" s="165">
         <v>0.5</v>
       </c>
-      <c r="N2" s="163"/>
-      <c r="O2" s="148">
+      <c r="N2" s="165"/>
+      <c r="O2" s="134">
         <v>2</v>
       </c>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="163">
+      <c r="P2" s="134"/>
+      <c r="Q2" s="165">
         <v>0.25</v>
       </c>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163">
+      <c r="R2" s="165"/>
+      <c r="S2" s="165">
         <v>0.3</v>
       </c>
-      <c r="T2" s="163"/>
+      <c r="T2" s="165"/>
       <c r="U2" s="16"/>
       <c r="V2" s="16"/>
-      <c r="W2" s="158" t="s">
+      <c r="W2" s="161" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="158"/>
+      <c r="X2" s="161"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="159"/>
+      <c r="A3" s="155"/>
       <c r="B3" s="72" t="s">
         <v>15</v>
       </c>
@@ -7783,29 +7783,29 @@
         <f t="array" ref="G3">_xlfn.IFS(F3="+",ROUNDDOWN(C3*(1-$I$3),2),F3="=",C3,F3="++",ROUNDDOWN(C3*(1-$I$3)*0.75,2),F3="-",ROUNDDOWN(C3*(1-$I$3)*1.25,2))</f>
         <v>0.75</v>
       </c>
-      <c r="I3" s="165">
+      <c r="I3" s="158">
         <v>0.1</v>
       </c>
-      <c r="J3" s="165"/>
-      <c r="M3" s="165">
+      <c r="J3" s="158"/>
+      <c r="M3" s="158">
         <v>0.3</v>
       </c>
-      <c r="N3" s="165"/>
-      <c r="Q3" s="165">
+      <c r="N3" s="158"/>
+      <c r="Q3" s="158">
         <v>0.3</v>
       </c>
-      <c r="R3" s="165"/>
-      <c r="S3" s="165">
+      <c r="R3" s="158"/>
+      <c r="S3" s="158">
         <v>0.3</v>
       </c>
-      <c r="T3" s="165"/>
+      <c r="T3" s="158"/>
       <c r="U3" s="16"/>
       <c r="V3" s="16"/>
-      <c r="W3" s="158"/>
-      <c r="X3" s="158"/>
+      <c r="W3" s="161"/>
+      <c r="X3" s="161"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="159"/>
+      <c r="A4" s="155"/>
       <c r="B4" s="71" t="s">
         <v>10</v>
       </c>
@@ -7829,28 +7829,28 @@
         <f t="array" ref="G4">_xlfn.IFS(F4="+",ROUNDDOWN(E4*(1+$I$4),2),F4="=",E4,F4="++",ROUNDDOWN(E4*(1+$I$4)*1.5,2),F4="-",ROUNDDOWN(E4*(1+$I$4)*0.75,2))</f>
         <v>9</v>
       </c>
-      <c r="I4" s="163">
+      <c r="I4" s="165">
         <v>0.2</v>
       </c>
-      <c r="J4" s="163"/>
-      <c r="M4" s="163">
+      <c r="J4" s="165"/>
+      <c r="M4" s="165">
         <v>0.2</v>
       </c>
-      <c r="N4" s="163"/>
-      <c r="Q4" s="163">
+      <c r="N4" s="165"/>
+      <c r="Q4" s="165">
         <v>0.25</v>
       </c>
-      <c r="R4" s="163"/>
-      <c r="S4" s="163">
+      <c r="R4" s="165"/>
+      <c r="S4" s="165">
         <v>0.1</v>
       </c>
-      <c r="T4" s="163"/>
+      <c r="T4" s="165"/>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="159"/>
+      <c r="A5" s="155"/>
       <c r="B5" s="72" t="s">
         <v>40</v>
       </c>
@@ -7872,28 +7872,28 @@
         <f t="array" ref="G5">_xlfn.IFS(F5="+",ROUNDDOWN(E5*(1+$I$5),0),F5="=",E5)</f>
         <v>144</v>
       </c>
-      <c r="I5" s="165">
+      <c r="I5" s="158">
         <v>0.2</v>
       </c>
-      <c r="J5" s="165"/>
-      <c r="M5" s="165">
+      <c r="J5" s="158"/>
+      <c r="M5" s="158">
         <v>0.5</v>
       </c>
-      <c r="N5" s="165"/>
-      <c r="Q5" s="165">
+      <c r="N5" s="158"/>
+      <c r="Q5" s="158">
         <v>0.5</v>
       </c>
-      <c r="R5" s="165"/>
-      <c r="S5" s="165">
+      <c r="R5" s="158"/>
+      <c r="S5" s="158">
         <v>0.2</v>
       </c>
-      <c r="T5" s="165"/>
+      <c r="T5" s="158"/>
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="159"/>
+      <c r="A6" s="155"/>
       <c r="B6" s="71" t="s">
         <v>78</v>
       </c>
@@ -7914,20 +7914,20 @@
         <f t="array" ref="G6">_xlfn.IFS(F6="+",ROUNDUP(E6*(1+$I$6),0),F6="=",E6)</f>
         <v>123</v>
       </c>
-      <c r="I6" s="163">
+      <c r="I6" s="165">
         <v>2.5</v>
       </c>
-      <c r="J6" s="163"/>
+      <c r="J6" s="165"/>
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="157" t="s">
+      <c r="A7" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="157"/>
+      <c r="B7" s="156"/>
       <c r="C7" s="48">
         <f>ROUNDDOWN(C2/C3,2)</f>
         <v>4</v>
@@ -7949,10 +7949,10 @@
       <c r="W7" s="16"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="166" t="s">
+      <c r="A8" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="166"/>
+      <c r="B8" s="157"/>
       <c r="C8" s="50">
         <f>ROUND(1/C3,2)</f>
         <v>1.33</v>
@@ -7975,82 +7975,82 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
-      <c r="C9" s="134" t="s">
+      <c r="C9" s="154" t="s">
         <v>66</v>
       </c>
       <c r="D9" s="78"/>
-      <c r="E9" s="134" t="s">
+      <c r="E9" s="154" t="s">
         <v>67</v>
       </c>
       <c r="F9" s="78"/>
-      <c r="G9" s="134" t="s">
+      <c r="G9" s="154" t="s">
         <v>68</v>
       </c>
       <c r="H9" s="78"/>
-      <c r="I9" s="134" t="s">
+      <c r="I9" s="154" t="s">
         <v>69</v>
       </c>
       <c r="J9" s="78"/>
-      <c r="K9" s="134" t="s">
+      <c r="K9" s="154" t="s">
         <v>70</v>
       </c>
       <c r="L9" s="78"/>
-      <c r="M9" s="134" t="s">
+      <c r="M9" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="O9" s="156" t="s">
+      <c r="O9" s="160" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="156"/>
-      <c r="Q9" s="156" t="s">
+      <c r="P9" s="160"/>
+      <c r="Q9" s="160" t="s">
         <v>72</v>
       </c>
-      <c r="R9" s="156"/>
-      <c r="S9" s="156" t="s">
+      <c r="R9" s="160"/>
+      <c r="S9" s="160" t="s">
         <v>101</v>
       </c>
-      <c r="T9" s="156"/>
-      <c r="U9" s="156" t="s">
+      <c r="T9" s="160"/>
+      <c r="U9" s="160" t="s">
         <v>102</v>
       </c>
-      <c r="V9" s="156"/>
+      <c r="V9" s="160"/>
       <c r="W9" s="16"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="134"/>
+      <c r="C10" s="154"/>
       <c r="D10" s="78"/>
-      <c r="E10" s="134"/>
+      <c r="E10" s="154"/>
       <c r="F10" s="78"/>
-      <c r="G10" s="134"/>
+      <c r="G10" s="154"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="134"/>
+      <c r="I10" s="154"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="134"/>
+      <c r="K10" s="154"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="134"/>
-      <c r="O10" s="158">
+      <c r="M10" s="154"/>
+      <c r="O10" s="161">
         <v>0</v>
       </c>
-      <c r="P10" s="158"/>
-      <c r="Q10" s="168" t="str" cm="1">
+      <c r="P10" s="161"/>
+      <c r="Q10" s="162" t="str" cm="1">
         <f t="array" ref="Q10">_xlfn.IFS(O10=0, "=", O10&lt;&gt;0,HLOOKUP(Q9,UPGRADE_STAT,VLOOKUP(M22,UPGRADE_LVL,5,FALSE)+1,FALSE))</f>
         <v>=</v>
       </c>
-      <c r="R10" s="168"/>
-      <c r="S10" s="168" t="str" cm="1">
+      <c r="R10" s="162"/>
+      <c r="S10" s="162" t="str" cm="1">
         <f t="array" ref="S10">_xlfn.IFS(O10=0, "=", Q10&lt;&gt;0,HLOOKUP(S9,UPGRADE_STAT,VLOOKUP(M22,UPGRADE_LVL,5,FALSE)+1,FALSE))</f>
         <v>=</v>
       </c>
-      <c r="T10" s="168"/>
-      <c r="U10" s="168" t="str" cm="1">
+      <c r="T10" s="162"/>
+      <c r="U10" s="162" t="str" cm="1">
         <f t="array" ref="U10">_xlfn.IFS(O10=0, "=", S10&lt;&gt;0,HLOOKUP(U9,UPGRADE_STAT,VLOOKUP(M22,UPGRADE_LVL,5,FALSE)+1,FALSE))</f>
         <v>=</v>
       </c>
-      <c r="V10" s="168"/>
+      <c r="V10" s="162"/>
       <c r="W10" s="16"/>
     </row>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="159" t="s">
+      <c r="A11" s="155" t="s">
         <v>166</v>
       </c>
       <c r="B11" s="76" t="s">
@@ -8095,8 +8095,8 @@
         <f t="array" ref="M11">_xlfn.IFS(L11="+",ROUNDDOWN(K11*(1+$M$2),2),L11="=",K11)</f>
         <v>170.83</v>
       </c>
-      <c r="O11" s="151"/>
-      <c r="P11" s="151"/>
+      <c r="O11" s="140"/>
+      <c r="P11" s="140"/>
       <c r="Q11" s="48"/>
       <c r="R11" s="48"/>
       <c r="S11" s="48"/>
@@ -8106,7 +8106,7 @@
       <c r="W11" s="16"/>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="159"/>
+      <c r="A12" s="155"/>
       <c r="B12" s="77" t="s">
         <v>44</v>
       </c>
@@ -8155,7 +8155,7 @@
       <c r="W12" s="16"/>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="159"/>
+      <c r="A13" s="155"/>
       <c r="B13" s="76" t="s">
         <v>72</v>
       </c>
@@ -8204,7 +8204,7 @@
       <c r="W13" s="16"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="159"/>
+      <c r="A14" s="155"/>
       <c r="B14" s="77" t="s">
         <v>75</v>
       </c>
@@ -8265,7 +8265,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="155" t="s">
         <v>167</v>
       </c>
       <c r="B16" s="90" t="s">
@@ -8302,43 +8302,43 @@
       <c r="M16" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="O16" s="134" t="s">
+      <c r="O16" s="154" t="s">
         <v>37</v>
       </c>
-      <c r="P16" s="134"/>
-      <c r="Q16" s="134"/>
-      <c r="R16" s="134"/>
-      <c r="S16" s="134"/>
+      <c r="P16" s="154"/>
+      <c r="Q16" s="154"/>
+      <c r="R16" s="154"/>
+      <c r="S16" s="154"/>
     </row>
     <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="159"/>
+      <c r="A17" s="155"/>
       <c r="B17" s="91" t="s">
         <v>151</v>
       </c>
       <c r="C17" s="79">
         <f>T33</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D17" s="75" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="79" cm="1">
         <f t="array" ref="E17">_xlfn.IFS(D17="+",ROUNDUP($C$17 * (1 +S3) ^ 1,0),D17="=",C17)</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F17" s="75" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="79" cm="1">
         <f t="array" ref="G17">_xlfn.IFS(F17="+",ROUNDUP($C$17 * (1 +S3) ^ 2,0),F17="=",E17)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H17" s="75" t="s">
         <v>13</v>
       </c>
       <c r="I17" s="79" cm="1">
         <f t="array" ref="I17">_xlfn.IFS(H17="+",ROUNDUP($C$17 * (1 +S3) ^ 2,0),H17="=",G17)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K17" s="49" t="s">
         <v>2</v>
@@ -8346,29 +8346,29 @@
       <c r="M17" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="O17" s="134" t="s">
+      <c r="O17" s="154" t="s">
         <v>142</v>
       </c>
-      <c r="P17" s="134"/>
-      <c r="Q17" s="134"/>
-      <c r="R17" s="160" t="str">
+      <c r="P17" s="154"/>
+      <c r="Q17" s="154"/>
+      <c r="R17" s="167" t="str">
         <f>HLOOKUP(P29,WEAK_TOWER,VLOOKUP(P27,WEAK_ENEMY,5,FALSE)+1,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="S17" s="160"/>
-      <c r="T17" s="134" t="s">
+      <c r="S17" s="167"/>
+      <c r="T17" s="154" t="s">
         <v>159</v>
       </c>
-      <c r="U17" s="134"/>
-      <c r="V17" s="134"/>
-      <c r="W17" s="160" t="str" cm="1">
+      <c r="U17" s="154"/>
+      <c r="V17" s="154"/>
+      <c r="W17" s="167" t="str" cm="1">
         <f t="array" ref="W17">_xlfn.IFS(P31=P33, "+",P31&lt;&gt;P33,"-")</f>
         <v>-</v>
       </c>
-      <c r="X17" s="160"/>
+      <c r="X17" s="167"/>
     </row>
     <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="159"/>
+      <c r="A18" s="155"/>
       <c r="B18" s="90" t="s">
         <v>152</v>
       </c>
@@ -8405,25 +8405,25 @@
         <f t="array" ref="M18">_xlfn.IFS(M17="LVL 0",C11,M17="LVL 1",E11,M17="LVL 2",G11,M17="LVL 3",I11,M17="LVL 4",K11,M17="LVL 5",M11)</f>
         <v>170.83</v>
       </c>
-      <c r="O18" s="162" t="str">
+      <c r="O18" s="169" t="str">
         <f>_xlfn.CONCAT(P29," ",R29," lvl ",O10)</f>
         <v>Pizza Canon lvl 0</v>
       </c>
-      <c r="P18" s="162"/>
-      <c r="Q18" s="162"/>
-      <c r="R18" s="160"/>
-      <c r="S18" s="160"/>
-      <c r="T18" s="161" t="str">
+      <c r="P18" s="169"/>
+      <c r="Q18" s="169"/>
+      <c r="R18" s="167"/>
+      <c r="S18" s="167"/>
+      <c r="T18" s="168" t="str">
         <f>_xlfn.CONCAT(P33," Factory")</f>
         <v>Stars Factory</v>
       </c>
-      <c r="U18" s="161"/>
-      <c r="V18" s="161"/>
-      <c r="W18" s="160"/>
-      <c r="X18" s="160"/>
+      <c r="U18" s="168"/>
+      <c r="V18" s="168"/>
+      <c r="W18" s="167"/>
+      <c r="X18" s="167"/>
     </row>
     <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="159"/>
+      <c r="A19" s="155"/>
       <c r="B19" s="91" t="s">
         <v>78</v>
       </c>
@@ -8458,16 +8458,16 @@
       <c r="M19" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="O19" s="162"/>
-      <c r="P19" s="162"/>
-      <c r="Q19" s="162"/>
-      <c r="R19" s="160"/>
-      <c r="S19" s="160"/>
-      <c r="T19" s="161"/>
-      <c r="U19" s="161"/>
-      <c r="V19" s="161"/>
-      <c r="W19" s="160"/>
-      <c r="X19" s="160"/>
+      <c r="O19" s="169"/>
+      <c r="P19" s="169"/>
+      <c r="Q19" s="169"/>
+      <c r="R19" s="167"/>
+      <c r="S19" s="167"/>
+      <c r="T19" s="168"/>
+      <c r="U19" s="168"/>
+      <c r="V19" s="168"/>
+      <c r="W19" s="167"/>
+      <c r="X19" s="167"/>
     </row>
     <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16"/>
@@ -8479,23 +8479,23 @@
         <f t="array" ref="M20">_xlfn.IFS(M17="LVL 0",C14,M17="LVL 1",E14,M17="LVL 2",G14,M17="LVL 3",I14,M17="LVL 4",K14,M17="LVL 5",M14)</f>
         <v>153</v>
       </c>
-      <c r="O20" s="134" t="s">
+      <c r="O20" s="154" t="s">
         <v>142</v>
       </c>
-      <c r="P20" s="134"/>
-      <c r="Q20" s="134"/>
-      <c r="R20" s="160"/>
-      <c r="S20" s="160"/>
-      <c r="T20" s="134" t="s">
+      <c r="P20" s="154"/>
+      <c r="Q20" s="154"/>
+      <c r="R20" s="167"/>
+      <c r="S20" s="167"/>
+      <c r="T20" s="154" t="s">
         <v>160</v>
       </c>
-      <c r="U20" s="134"/>
-      <c r="V20" s="134"/>
-      <c r="W20" s="160"/>
-      <c r="X20" s="160"/>
+      <c r="U20" s="154"/>
+      <c r="V20" s="154"/>
+      <c r="W20" s="167"/>
+      <c r="X20" s="167"/>
     </row>
     <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="159" t="s">
+      <c r="A21" s="155" t="s">
         <v>168</v>
       </c>
       <c r="B21" s="90" t="s">
@@ -8532,25 +8532,25 @@
       <c r="M21" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="O21" s="162" t="str">
+      <c r="O21" s="169" t="str">
         <f>_xlfn.CONCAT(P27," ",R27," lvl ",_xlfn.CONCAT(RIGHT(M17,1)))</f>
         <v>Insect Saboteur lvl 5</v>
       </c>
-      <c r="P21" s="162"/>
-      <c r="Q21" s="162"/>
-      <c r="R21" s="160"/>
-      <c r="S21" s="160"/>
-      <c r="T21" s="161" t="str">
+      <c r="P21" s="169"/>
+      <c r="Q21" s="169"/>
+      <c r="R21" s="167"/>
+      <c r="S21" s="167"/>
+      <c r="T21" s="168" t="str">
         <f>_xlfn.CONCAT(P31," Car")</f>
         <v>Bubblegum Car</v>
       </c>
-      <c r="U21" s="161"/>
-      <c r="V21" s="161"/>
-      <c r="W21" s="160"/>
-      <c r="X21" s="160"/>
+      <c r="U21" s="168"/>
+      <c r="V21" s="168"/>
+      <c r="W21" s="167"/>
+      <c r="X21" s="167"/>
     </row>
     <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="159"/>
+      <c r="A22" s="155"/>
       <c r="B22" s="91" t="s">
         <v>151</v>
       </c>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="I22" s="79" cm="1">
         <f t="array" ref="I22">_xlfn.IFS(H22="+",ROUNDUP($C$17 * (1 +Q8) ^ 2,0),H22="=",G22)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" s="74" cm="1">
         <f t="array" ref="K22">_xlfn.IFS(K17="Upgrade 0",C3,K17="Upgrade 1",E3,K17="Upgrade 2",G3)</f>
@@ -8587,19 +8587,19 @@
         <f>_xlfn.CONCAT(P29," ",O10)</f>
         <v>Pizza 0</v>
       </c>
-      <c r="O22" s="162"/>
-      <c r="P22" s="162"/>
-      <c r="Q22" s="162"/>
-      <c r="R22" s="160"/>
-      <c r="S22" s="160"/>
-      <c r="T22" s="161"/>
-      <c r="U22" s="161"/>
-      <c r="V22" s="161"/>
-      <c r="W22" s="160"/>
-      <c r="X22" s="160"/>
+      <c r="O22" s="169"/>
+      <c r="P22" s="169"/>
+      <c r="Q22" s="169"/>
+      <c r="R22" s="167"/>
+      <c r="S22" s="167"/>
+      <c r="T22" s="168"/>
+      <c r="U22" s="168"/>
+      <c r="V22" s="168"/>
+      <c r="W22" s="167"/>
+      <c r="X22" s="167"/>
     </row>
     <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="159"/>
+      <c r="A23" s="155"/>
       <c r="B23" s="90" t="s">
         <v>152</v>
       </c>
@@ -8632,16 +8632,16 @@
         <v>81</v>
       </c>
       <c r="N23" s="15"/>
-      <c r="O23" s="134" t="s">
+      <c r="O23" s="154" t="s">
         <v>162</v>
       </c>
-      <c r="P23" s="134"/>
-      <c r="Q23" s="134"/>
-      <c r="R23" s="134"/>
-      <c r="S23" s="134"/>
+      <c r="P23" s="154"/>
+      <c r="Q23" s="154"/>
+      <c r="R23" s="154"/>
+      <c r="S23" s="154"/>
     </row>
     <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="159"/>
+      <c r="A24" s="155"/>
       <c r="B24" s="91" t="s">
         <v>78</v>
       </c>
@@ -8674,314 +8674,314 @@
         <f t="array" ref="K24">_xlfn.IFS(K17="Upgrade 0",C6,K17="Upgrade 1",E6,K17="Upgrade 2",G6,K17="Upgrade 3",#REF!,K17="Upgrade 4",K6,K17="Upgrade 5",M6)</f>
         <v>123</v>
       </c>
-      <c r="O24" s="151" cm="1">
+      <c r="O24" s="140" cm="1">
         <f t="array" ref="O24">_xlfn.IFS(R17="-", 1-K2, R17="=",1,R17="+",1+K2)</f>
         <v>0.8</v>
       </c>
-      <c r="P24" s="151"/>
-      <c r="Q24" s="151"/>
-      <c r="R24" s="151"/>
-      <c r="S24" s="151"/>
+      <c r="P24" s="140"/>
+      <c r="Q24" s="140"/>
+      <c r="R24" s="140"/>
+      <c r="S24" s="140"/>
     </row>
     <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="167" t="s">
+      <c r="C26" s="159" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="134" t="s">
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="154" t="s">
         <v>79</v>
       </c>
-      <c r="H26" s="134"/>
-      <c r="I26" s="134"/>
-      <c r="N26" s="155" t="s">
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="N26" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="O26" s="155"/>
-      <c r="P26" s="155" t="s">
+      <c r="O26" s="170"/>
+      <c r="P26" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="155" t="s">
+      <c r="Q26" s="170"/>
+      <c r="R26" s="170" t="s">
         <v>55</v>
       </c>
-      <c r="S26" s="155"/>
-      <c r="T26" s="155" t="s">
+      <c r="S26" s="170"/>
+      <c r="T26" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="U26" s="155"/>
-      <c r="V26" s="155" t="s">
+      <c r="U26" s="170"/>
+      <c r="V26" s="170" t="s">
         <v>63</v>
       </c>
-      <c r="W26" s="155"/>
-      <c r="X26" s="155" t="s">
+      <c r="W26" s="170"/>
+      <c r="X26" s="170" t="s">
         <v>64</v>
       </c>
-      <c r="Y26" s="155"/>
+      <c r="Y26" s="170"/>
     </row>
     <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="134" t="s">
+      <c r="C27" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134" t="s">
+      <c r="D27" s="154"/>
+      <c r="E27" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="134"/>
-      <c r="G27" s="151" t="str">
+      <c r="F27" s="154"/>
+      <c r="G27" s="140" t="str">
         <f>_xlfn.CONCAT(K20*K22," s")</f>
         <v>108 s</v>
       </c>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="N27" s="158" t="s">
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
+      <c r="N27" s="161" t="s">
         <v>190</v>
       </c>
-      <c r="O27" s="158"/>
-      <c r="P27" s="148" t="str">
+      <c r="O27" s="161"/>
+      <c r="P27" s="134" t="str">
         <f>VLOOKUP($N$27,ENEMY,3)</f>
         <v>Insect</v>
       </c>
-      <c r="Q27" s="148"/>
-      <c r="R27" s="148" t="str">
+      <c r="Q27" s="134"/>
+      <c r="R27" s="134" t="str">
         <f>VLOOKUP($N$27,ENEMY,4)</f>
         <v>Saboteur</v>
       </c>
-      <c r="S27" s="148"/>
-      <c r="T27" s="148">
+      <c r="S27" s="134"/>
+      <c r="T27" s="134">
         <f>VLOOKUP($N$27,ENEMY,5)</f>
         <v>22.5</v>
       </c>
-      <c r="U27" s="148"/>
-      <c r="V27" s="148">
+      <c r="U27" s="134"/>
+      <c r="V27" s="134">
         <f>VLOOKUP($N$27,ENEMY,6)</f>
         <v>2</v>
       </c>
-      <c r="W27" s="148"/>
-      <c r="X27" s="148">
+      <c r="W27" s="134"/>
+      <c r="X27" s="134">
         <f>VLOOKUP($N$27,ENEMY,7)</f>
         <v>7.5</v>
       </c>
-      <c r="Y27" s="148"/>
+      <c r="Y27" s="134"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" s="73" t="str">
         <f>_xlfn.CONCAT(K17," ",K16)</f>
         <v>Upgrade 2 DPS</v>
       </c>
-      <c r="C28" s="170">
+      <c r="C28" s="164">
         <f>ROUNDDOWN($M$18/B32,2)</f>
         <v>26.69</v>
       </c>
-      <c r="D28" s="170"/>
-      <c r="E28" s="169">
+      <c r="D28" s="164"/>
+      <c r="E28" s="163">
         <f>ROUNDUP($M$18/B32,0)</f>
         <v>27</v>
       </c>
-      <c r="F28" s="169"/>
+      <c r="F28" s="163"/>
       <c r="G28" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="H28" s="134" t="s">
+      <c r="H28" s="154" t="s">
         <v>82</v>
       </c>
-      <c r="I28" s="134"/>
-      <c r="N28" s="155" t="s">
+      <c r="I28" s="154"/>
+      <c r="N28" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="O28" s="155"/>
-      <c r="P28" s="155" t="s">
+      <c r="O28" s="170"/>
+      <c r="P28" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="Q28" s="155"/>
-      <c r="R28" s="155" t="s">
+      <c r="Q28" s="170"/>
+      <c r="R28" s="170" t="s">
         <v>55</v>
       </c>
-      <c r="S28" s="155"/>
-      <c r="T28" s="155" t="s">
+      <c r="S28" s="170"/>
+      <c r="T28" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="U28" s="155"/>
-      <c r="V28" s="155" t="s">
+      <c r="U28" s="170"/>
+      <c r="V28" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="W28" s="155"/>
-      <c r="X28" s="155" t="s">
+      <c r="W28" s="170"/>
+      <c r="X28" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="Y28" s="155"/>
+      <c r="Y28" s="170"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B29" s="73"/>
-      <c r="C29" s="151" t="str">
+      <c r="C29" s="140" t="str">
         <f>_xlfn.CONCAT(E28*K22," s")</f>
         <v>20,25 s</v>
       </c>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="140"/>
       <c r="G29" s="74">
         <f>E6+G6</f>
         <v>158</v>
       </c>
-      <c r="H29" s="151">
+      <c r="H29" s="140">
         <f>ROUNDUP(K24/M20,0)</f>
         <v>1</v>
       </c>
-      <c r="I29" s="151"/>
-      <c r="N29" s="158" t="s">
+      <c r="I29" s="140"/>
+      <c r="N29" s="161" t="s">
         <v>196</v>
       </c>
-      <c r="O29" s="158"/>
-      <c r="P29" s="148" t="str">
+      <c r="O29" s="161"/>
+      <c r="P29" s="134" t="str">
         <f>VLOOKUP($N$29,TOWER,3)</f>
         <v>Pizza</v>
       </c>
-      <c r="Q29" s="148"/>
-      <c r="R29" s="148" t="str">
+      <c r="Q29" s="134"/>
+      <c r="R29" s="134" t="str">
         <f>VLOOKUP($N$29,TOWER,4)</f>
         <v>Canon</v>
       </c>
-      <c r="S29" s="148"/>
-      <c r="T29" s="148">
+      <c r="S29" s="134"/>
+      <c r="T29" s="134">
         <f>VLOOKUP($N$29,TOWER,5)</f>
         <v>3</v>
       </c>
-      <c r="U29" s="148"/>
-      <c r="V29" s="148">
+      <c r="U29" s="134"/>
+      <c r="V29" s="134">
         <f>VLOOKUP($N$29,TOWER,6)</f>
         <v>0.75</v>
       </c>
-      <c r="W29" s="148"/>
-      <c r="X29" s="148">
+      <c r="W29" s="134"/>
+      <c r="X29" s="134">
         <f>VLOOKUP($N$29,TOWER,7)</f>
         <v>9</v>
       </c>
-      <c r="Y29" s="148"/>
+      <c r="Y29" s="134"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="N30" s="155" t="s">
+      <c r="N30" s="170" t="s">
         <v>161</v>
       </c>
-      <c r="O30" s="155"/>
-      <c r="P30" s="155" t="s">
+      <c r="O30" s="170"/>
+      <c r="P30" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="Q30" s="155"/>
-      <c r="R30" s="155" t="s">
+      <c r="Q30" s="170"/>
+      <c r="R30" s="170" t="s">
         <v>150</v>
       </c>
-      <c r="S30" s="155"/>
-      <c r="T30" s="155" t="s">
+      <c r="S30" s="170"/>
+      <c r="T30" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="U30" s="155"/>
-      <c r="V30" s="155" t="s">
+      <c r="U30" s="170"/>
+      <c r="V30" s="170" t="s">
         <v>157</v>
       </c>
-      <c r="W30" s="155"/>
-      <c r="X30" s="155" t="s">
+      <c r="W30" s="170"/>
+      <c r="X30" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="Y30" s="155"/>
+      <c r="Y30" s="170"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B31" s="134" t="s">
+      <c r="B31" s="154" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="134"/>
-      <c r="N31" s="158" t="s">
+      <c r="C31" s="154"/>
+      <c r="N31" s="161" t="s">
         <v>212</v>
       </c>
-      <c r="O31" s="158"/>
-      <c r="P31" s="148" t="str">
+      <c r="O31" s="161"/>
+      <c r="P31" s="134" t="str">
         <f>VLOOKUP($N$31,TRAIN,3)</f>
         <v>Bubblegum</v>
       </c>
-      <c r="Q31" s="148"/>
-      <c r="R31" s="148">
+      <c r="Q31" s="134"/>
+      <c r="R31" s="134">
         <f>VLOOKUP($N$31,TRAIN,4)</f>
         <v>50</v>
       </c>
-      <c r="S31" s="148"/>
-      <c r="T31" s="148">
+      <c r="S31" s="134"/>
+      <c r="T31" s="134">
         <f>VLOOKUP($N$31,TRAIN,5)</f>
         <v>2</v>
       </c>
-      <c r="U31" s="148"/>
-      <c r="V31" s="148">
+      <c r="U31" s="134"/>
+      <c r="V31" s="134">
         <f>VLOOKUP($N$31,TRAIN,6)</f>
         <v>5</v>
       </c>
-      <c r="W31" s="148"/>
-      <c r="X31" s="148">
+      <c r="W31" s="134"/>
+      <c r="X31" s="134">
         <f>VLOOKUP($N$27,ENEMY,8)</f>
         <v>20</v>
       </c>
-      <c r="Y31" s="148"/>
+      <c r="Y31" s="134"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B32" s="148">
+      <c r="B32" s="134">
         <f>ROUND(O2*K18*O24,2)</f>
         <v>6.4</v>
       </c>
-      <c r="C32" s="148"/>
-      <c r="N32" s="155" t="s">
+      <c r="C32" s="134"/>
+      <c r="N32" s="170" t="s">
         <v>159</v>
       </c>
-      <c r="O32" s="155"/>
-      <c r="P32" s="155" t="s">
+      <c r="O32" s="170"/>
+      <c r="P32" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="Q32" s="155"/>
-      <c r="R32" s="155" t="s">
+      <c r="Q32" s="170"/>
+      <c r="R32" s="170" t="s">
         <v>150</v>
       </c>
-      <c r="S32" s="155"/>
-      <c r="T32" s="155" t="s">
+      <c r="S32" s="170"/>
+      <c r="T32" s="170" t="s">
         <v>156</v>
       </c>
-      <c r="U32" s="155"/>
-      <c r="V32" s="155" t="s">
+      <c r="U32" s="170"/>
+      <c r="V32" s="170" t="s">
         <v>157</v>
       </c>
-      <c r="W32" s="155"/>
-      <c r="X32" s="155" t="s">
+      <c r="W32" s="170"/>
+      <c r="X32" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="Y32" s="155"/>
+      <c r="Y32" s="170"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="N33" s="158" t="s">
+      <c r="N33" s="161" t="s">
         <v>171</v>
       </c>
-      <c r="O33" s="158"/>
-      <c r="P33" s="148" t="str">
+      <c r="O33" s="161"/>
+      <c r="P33" s="134" t="str">
         <f>VLOOKUP($N$33,FACTORY,3)</f>
         <v>Stars</v>
       </c>
-      <c r="Q33" s="148"/>
-      <c r="R33" s="148">
+      <c r="Q33" s="134"/>
+      <c r="R33" s="134">
         <f>VLOOKUP($N$33,FACTORY,4)</f>
         <v>100</v>
       </c>
-      <c r="S33" s="148"/>
-      <c r="T33" s="148">
+      <c r="S33" s="134"/>
+      <c r="T33" s="134">
         <f>VLOOKUP($N$33,FACTORY,5)</f>
-        <v>2</v>
-      </c>
-      <c r="U33" s="148"/>
-      <c r="V33" s="148">
+        <v>0.5</v>
+      </c>
+      <c r="U33" s="134"/>
+      <c r="V33" s="134">
         <f>VLOOKUP($N$33,FACTORY,6)</f>
         <v>10</v>
       </c>
-      <c r="W33" s="148"/>
-      <c r="X33" s="148">
+      <c r="W33" s="134"/>
+      <c r="X33" s="134">
         <f>VLOOKUP($N$29,TOWER,9)</f>
         <v>100</v>
       </c>
-      <c r="Y33" s="148"/>
+      <c r="Y33" s="134"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
@@ -8990,6 +8990,104 @@
     </row>
   </sheetData>
   <mergeCells count="122">
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="O24:S24"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="O23:S23"/>
+    <mergeCell ref="W17:X22"/>
+    <mergeCell ref="R17:S22"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="T18:V19"/>
+    <mergeCell ref="T21:V22"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O21:Q22"/>
+    <mergeCell ref="O16:S16"/>
+    <mergeCell ref="O18:Q19"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X3"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="A2:A6"/>
@@ -9014,104 +9112,6 @@
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="A21:A24"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X3"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="W17:X22"/>
-    <mergeCell ref="R17:S22"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="T18:V19"/>
-    <mergeCell ref="T21:V22"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="O21:Q22"/>
-    <mergeCell ref="O16:S16"/>
-    <mergeCell ref="O18:Q19"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="O23:S23"/>
-    <mergeCell ref="O24:S24"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V30:W30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C28">
@@ -10379,10 +10379,10 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C7" s="134" t="s">
+      <c r="C7" s="154" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="134"/>
+      <c r="D7" s="154"/>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="171" t="s">
@@ -10739,8 +10739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB692A4-AAE4-4AF5-8118-7C6BC2CF5B66}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10863,7 +10863,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="23">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="23">
         <v>10</v>
@@ -10917,7 +10917,7 @@
       </c>
       <c r="E4" s="21">
         <f t="shared" ref="E4:F4" si="1">E3</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="21">
         <f t="shared" si="1"/>
@@ -10928,28 +10928,28 @@
       </c>
       <c r="I4" s="21">
         <f>E3</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="J4" s="53" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="21" cm="1">
         <f t="array" ref="K4">_xlfn.IFS(J4="+",ROUNDDOWN($I$4 * (1 + Q4) ^ 1,2),J4="=",I4)</f>
-        <v>2.6</v>
+        <v>0.65</v>
       </c>
       <c r="L4" s="53" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="21" cm="1">
         <f t="array" ref="M4">_xlfn.IFS(L4="+",ROUNDDOWN($I$4 * (1 + Q4) ^ 2,2),L4="=",I4)</f>
-        <v>3.38</v>
+        <v>0.84</v>
       </c>
       <c r="N4" s="53" t="s">
         <v>13</v>
       </c>
       <c r="O4" s="21" cm="1">
         <f t="array" ref="O4">_xlfn.IFS(N4="+",ROUNDDOWN($I$4 * (1 + Q4) ^ 3,2),N4="=",I4)</f>
-        <v>4.3899999999999997</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="Q4" s="62">
         <v>0.3</v>
@@ -10972,7 +10972,7 @@
       </c>
       <c r="E5" s="20">
         <f t="shared" ref="E5:F5" si="2">E3</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="20">
         <f t="shared" si="2"/>
@@ -11043,10 +11043,10 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C7" s="134" t="s">
+      <c r="C7" s="154" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="134"/>
+      <c r="D7" s="154"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="171" t="s">
@@ -11093,7 +11093,7 @@
       <c r="L9" s="75"/>
       <c r="M9" s="75">
         <f>VLOOKUP($H$9,FACTORY,5)</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="N9" s="75"/>
       <c r="O9" s="75">
@@ -11105,7 +11105,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="20">
         <f>ROUND(D3/E3,0)</f>
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D10" s="20">
         <f>D3/F3</f>
@@ -11256,7 +11256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9045D55D-CDD5-4A2E-B7B4-999FBD02BF13}">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12:R12"/>
     </sheetView>
   </sheetViews>
@@ -11362,10 +11362,10 @@
       <c r="I2" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="K2" s="157" t="s">
+      <c r="K2" s="156" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="157"/>
+      <c r="L2" s="156"/>
       <c r="M2" s="73" t="s">
         <v>11</v>
       </c>
@@ -11378,10 +11378,10 @@
         <v>2</v>
       </c>
       <c r="R2" s="89"/>
-      <c r="T2" s="164" t="s">
+      <c r="T2" s="166" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="164"/>
+      <c r="U2" s="166"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
@@ -11412,7 +11412,7 @@
       <c r="I3" s="23">
         <v>90</v>
       </c>
-      <c r="K3" s="159" t="s">
+      <c r="K3" s="155" t="s">
         <v>45</v>
       </c>
       <c r="L3" s="90" t="s">
@@ -11439,10 +11439,10 @@
       <c r="R3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="163">
+      <c r="T3" s="165">
         <v>0.3</v>
       </c>
-      <c r="U3" s="163"/>
+      <c r="U3" s="165"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="str">
@@ -11473,7 +11473,7 @@
       <c r="I4" s="21">
         <v>80</v>
       </c>
-      <c r="K4" s="159"/>
+      <c r="K4" s="155"/>
       <c r="L4" s="91" t="s">
         <v>15</v>
       </c>
@@ -11498,10 +11498,10 @@
       <c r="R4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="165">
+      <c r="T4" s="158">
         <v>0.2</v>
       </c>
-      <c r="U4" s="165"/>
+      <c r="U4" s="158"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="str">
@@ -11532,7 +11532,7 @@
       <c r="I5" s="20">
         <v>100</v>
       </c>
-      <c r="K5" s="159"/>
+      <c r="K5" s="155"/>
       <c r="L5" s="90" t="s">
         <v>10</v>
       </c>
@@ -11557,10 +11557,10 @@
       <c r="R5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="163">
+      <c r="T5" s="165">
         <v>0.1</v>
       </c>
-      <c r="U5" s="163"/>
+      <c r="U5" s="165"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="str">
@@ -11596,7 +11596,7 @@
         <f>I3</f>
         <v>90</v>
       </c>
-      <c r="K6" s="159"/>
+      <c r="K6" s="155"/>
       <c r="L6" s="91" t="s">
         <v>40</v>
       </c>
@@ -11621,10 +11621,10 @@
       <c r="R6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="165">
+      <c r="T6" s="158">
         <v>0.2</v>
       </c>
-      <c r="U6" s="165"/>
+      <c r="U6" s="158"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="str">
@@ -11660,7 +11660,7 @@
         <f>I4</f>
         <v>80</v>
       </c>
-      <c r="K7" s="159"/>
+      <c r="K7" s="155"/>
       <c r="L7" s="90" t="s">
         <v>78</v>
       </c>
@@ -11685,10 +11685,10 @@
       <c r="R7" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="T7" s="163">
+      <c r="T7" s="165">
         <v>2</v>
       </c>
-      <c r="U7" s="163"/>
+      <c r="U7" s="165"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="str">
@@ -11867,79 +11867,79 @@
         <f>I5</f>
         <v>100</v>
       </c>
-      <c r="K11" s="155" t="s">
+      <c r="K11" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="155"/>
-      <c r="M11" s="155" t="s">
+      <c r="L11" s="170"/>
+      <c r="M11" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="155"/>
-      <c r="O11" s="155" t="s">
+      <c r="N11" s="170"/>
+      <c r="O11" s="170" t="s">
         <v>55</v>
       </c>
-      <c r="P11" s="155"/>
-      <c r="Q11" s="155" t="s">
+      <c r="P11" s="170"/>
+      <c r="Q11" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="R11" s="155"/>
-      <c r="S11" s="155" t="s">
+      <c r="R11" s="170"/>
+      <c r="S11" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="T11" s="155"/>
-      <c r="U11" s="155" t="s">
+      <c r="T11" s="170"/>
+      <c r="U11" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="V11" s="155"/>
-      <c r="W11" s="155" t="s">
+      <c r="V11" s="170"/>
+      <c r="W11" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="X11" s="155"/>
-      <c r="Y11" s="155" t="s">
+      <c r="X11" s="170"/>
+      <c r="Y11" s="170" t="s">
         <v>93</v>
       </c>
-      <c r="Z11" s="155"/>
+      <c r="Z11" s="170"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K12" s="158" t="s">
+      <c r="K12" s="161" t="s">
         <v>195</v>
       </c>
-      <c r="L12" s="158"/>
-      <c r="M12" s="148" t="str">
+      <c r="L12" s="161"/>
+      <c r="M12" s="134" t="str">
         <f>VLOOKUP($K$12,TOWER,3)</f>
         <v>Pizza</v>
       </c>
-      <c r="N12" s="148"/>
-      <c r="O12" s="148" t="str">
+      <c r="N12" s="134"/>
+      <c r="O12" s="134" t="str">
         <f>VLOOKUP($K$12,TOWER,4)</f>
         <v>Mortar</v>
       </c>
-      <c r="P12" s="148"/>
-      <c r="Q12" s="148">
+      <c r="P12" s="134"/>
+      <c r="Q12" s="134">
         <f>VLOOKUP($K$12,TOWER,5)</f>
         <v>4</v>
       </c>
-      <c r="R12" s="148"/>
-      <c r="S12" s="148">
+      <c r="R12" s="134"/>
+      <c r="S12" s="134">
         <f>VLOOKUP($K$12,TOWER,6)</f>
         <v>1</v>
       </c>
-      <c r="T12" s="148"/>
-      <c r="U12" s="148">
+      <c r="T12" s="134"/>
+      <c r="U12" s="134">
         <f>VLOOKUP($K$12,TOWER,7)</f>
         <v>12</v>
       </c>
-      <c r="V12" s="148"/>
-      <c r="W12" s="148">
+      <c r="V12" s="134"/>
+      <c r="W12" s="134">
         <f>VLOOKUP($K$12,TOWER,8)</f>
         <v>15</v>
       </c>
-      <c r="X12" s="148"/>
-      <c r="Y12" s="148">
+      <c r="X12" s="134"/>
+      <c r="Y12" s="134">
         <f>VLOOKUP($K$12,TOWER,9)</f>
         <v>80</v>
       </c>
-      <c r="Z12" s="148"/>
+      <c r="Z12" s="134"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C13" s="173" t="s">
@@ -11991,6 +11991,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="W11:X11"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="Y11:Z11"/>
@@ -12007,19 +12020,6 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="T6:U6"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C11" xr:uid="{A0725771-D6FB-4BCA-A3AB-AFBEDB867F7D}">
@@ -12745,10 +12745,10 @@
       <c r="B12" s="45"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C13" s="134" t="s">
+      <c r="C13" s="154" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="134"/>
+      <c r="D13" s="154"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C14" s="171" t="s">
@@ -14010,42 +14010,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="181" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="184" t="s">
+      <c r="B1" s="181" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="184" t="s">
+      <c r="C1" s="181" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="184" t="s">
+      <c r="D1" s="181" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="184" t="s">
+      <c r="E1" s="181" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="184" t="s">
+      <c r="F1" s="181" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="180" t="s">
+      <c r="G1" s="182" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="181"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="183" t="s">
+      <c r="H1" s="183"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="180" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="184"/>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
+      <c r="A2" s="181"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
       <c r="G2" s="92" t="s">
         <v>72</v>
       </c>
@@ -14374,30 +14374,35 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F14" s="158" t="s">
+      <c r="F14" s="161" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="148" t="str">
+      <c r="G14" s="134" t="str">
         <f>VLOOKUP($F$14,TOWER_UPGRADE,7)</f>
         <v>-</v>
       </c>
-      <c r="H14" s="148" t="str">
+      <c r="H14" s="134" t="str">
         <f>VLOOKUP($F$14,TOWER_UPGRADE,8)</f>
         <v>++</v>
       </c>
-      <c r="I14" s="148" t="str">
+      <c r="I14" s="134" t="str">
         <f>VLOOKUP($F$14,TOWER_UPGRADE,9)</f>
         <v>=</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F15" s="158"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="148"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -14405,11 +14410,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13 F14" xr:uid="{5DD3618D-C4BE-491F-B770-27363DACB01A}">
@@ -14783,21 +14783,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100841444F490B10C45A279B0383115D26D" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="91c543cf6706f2108a45fe2b21185738">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c3a97ae1-1078-4f52-97c7-e1e75f184270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6cf98f67490a83722a01f9dfd5fe46d6" ns3:_="">
     <xsd:import namespace="c3a97ae1-1078-4f52-97c7-e1e75f184270"/>
@@ -14929,10 +14914,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{382CAFBC-27A9-4D0E-A532-4CEEC1A7F497}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02023A10-1816-44FB-8F7C-8B09E93BD20F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c3a97ae1-1078-4f52-97c7-e1e75f184270"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14954,19 +14964,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02023A10-1816-44FB-8F7C-8B09E93BD20F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{382CAFBC-27A9-4D0E-A532-4CEEC1A7F497}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c3a97ae1-1078-4f52-97c7-e1e75f184270"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documents/GameDesign/System_Design.xlsx
+++ b/Documents/GameDesign/System_Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\GameSup_GD1\Workshop\Tower_Defense\STD_Workshop\Documents\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE775B6C-EDAE-4749-B696-9AA9EBF8510D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18B82FB-5148-4280-A19F-D66AF8B0849A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="21480" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{EE4EEEAB-A39E-4793-9971-E358DB8AAF6E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EE4EEEAB-A39E-4793-9971-E358DB8AAF6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Wave" sheetId="10" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="213">
   <si>
     <t>Upgrade 1</t>
   </si>
@@ -735,9 +735,6 @@
   </si>
   <si>
     <t>Factory Cost</t>
-  </si>
-  <si>
-    <t>2_Car_Bub</t>
   </si>
   <si>
     <t>Initial price</t>
@@ -1526,6 +1523,48 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1535,15 +1574,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1553,66 +1583,51 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1622,24 +1637,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1667,19 +1664,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3017,66 +3014,66 @@
   <sheetData>
     <row r="1" spans="1:48" s="111" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="108"/>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="145" t="s">
+      <c r="C1" s="153" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="147" t="s">
+      <c r="D1" s="135" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="148"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="147" t="s">
+      <c r="E1" s="136"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="135" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="148"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="147" t="s">
+      <c r="H1" s="136"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="135" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="148"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="147" t="s">
+      <c r="K1" s="136"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="135" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="148"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="147" t="s">
+      <c r="N1" s="136"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="135" t="s">
         <v>177</v>
       </c>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="147" t="s">
+      <c r="Q1" s="136"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="135" t="s">
         <v>178</v>
       </c>
-      <c r="T1" s="148"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="147" t="s">
+      <c r="T1" s="136"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="135" t="s">
         <v>206</v>
       </c>
-      <c r="W1" s="148"/>
-      <c r="X1" s="149"/>
-      <c r="Y1" s="147" t="s">
+      <c r="W1" s="136"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="135" t="s">
         <v>207</v>
       </c>
-      <c r="Z1" s="148"/>
-      <c r="AA1" s="149"/>
-      <c r="AB1" s="147" t="s">
+      <c r="Z1" s="136"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="135" t="s">
         <v>208</v>
       </c>
-      <c r="AC1" s="148"/>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="149"/>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="148"/>
-      <c r="AJ1" s="149"/>
-      <c r="AK1" s="147"/>
-      <c r="AL1" s="148"/>
-      <c r="AM1" s="149"/>
+      <c r="AC1" s="136"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="137"/>
+      <c r="AH1" s="135"/>
+      <c r="AI1" s="136"/>
+      <c r="AJ1" s="137"/>
+      <c r="AK1" s="135"/>
+      <c r="AL1" s="136"/>
+      <c r="AM1" s="137"/>
       <c r="AN1" s="123"/>
       <c r="AO1" s="123"/>
       <c r="AP1" s="123"/>
@@ -3089,8 +3086,8 @@
     </row>
     <row r="2" spans="1:48" s="127" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="109"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="146"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="154"/>
       <c r="D2" s="124" t="s">
         <v>179</v>
       </c>
@@ -3714,519 +3711,519 @@
       <c r="AM11" s="113"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="D12" s="136"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="138"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="143"/>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B13" s="82" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="150">
+      <c r="D13" s="144">
         <v>100</v>
       </c>
-      <c r="E13" s="151"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="142">
+      <c r="E13" s="145"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="138">
         <f>D16</f>
         <v>100</v>
       </c>
-      <c r="H13" s="143"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="142">
+      <c r="H13" s="139"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="138">
         <f>G16</f>
         <v>94</v>
       </c>
-      <c r="K13" s="143"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="142">
+      <c r="K13" s="139"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="138">
         <f>J16</f>
         <v>84</v>
       </c>
-      <c r="N13" s="143"/>
-      <c r="O13" s="144"/>
-      <c r="P13" s="142">
+      <c r="N13" s="139"/>
+      <c r="O13" s="140"/>
+      <c r="P13" s="138">
         <f>M16</f>
         <v>78</v>
       </c>
-      <c r="Q13" s="143"/>
-      <c r="R13" s="144"/>
-      <c r="S13" s="142">
+      <c r="Q13" s="139"/>
+      <c r="R13" s="140"/>
+      <c r="S13" s="138">
         <f>P16</f>
         <v>69</v>
       </c>
-      <c r="T13" s="143"/>
-      <c r="U13" s="144"/>
-      <c r="V13" s="142"/>
-      <c r="W13" s="143"/>
-      <c r="X13" s="144"/>
-      <c r="Y13" s="142"/>
-      <c r="Z13" s="143"/>
-      <c r="AA13" s="144"/>
-      <c r="AB13" s="142"/>
-      <c r="AC13" s="143"/>
-      <c r="AD13" s="144"/>
-      <c r="AE13" s="142"/>
-      <c r="AF13" s="143"/>
-      <c r="AG13" s="144"/>
-      <c r="AH13" s="142"/>
-      <c r="AI13" s="143"/>
-      <c r="AJ13" s="144"/>
-      <c r="AK13" s="142"/>
-      <c r="AL13" s="143"/>
-      <c r="AM13" s="144"/>
+      <c r="T13" s="139"/>
+      <c r="U13" s="140"/>
+      <c r="V13" s="138"/>
+      <c r="W13" s="139"/>
+      <c r="X13" s="140"/>
+      <c r="Y13" s="138"/>
+      <c r="Z13" s="139"/>
+      <c r="AA13" s="140"/>
+      <c r="AB13" s="138"/>
+      <c r="AC13" s="139"/>
+      <c r="AD13" s="140"/>
+      <c r="AE13" s="138"/>
+      <c r="AF13" s="139"/>
+      <c r="AG13" s="140"/>
+      <c r="AH13" s="138"/>
+      <c r="AI13" s="139"/>
+      <c r="AJ13" s="140"/>
+      <c r="AK13" s="138"/>
+      <c r="AL13" s="139"/>
+      <c r="AM13" s="140"/>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B14" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="D14" s="136">
+      <c r="D14" s="141">
         <f>D3*VLOOKUP($B$3,ENEMY,7)+D4*VLOOKUP($B$4,ENEMY,7)+D5*VLOOKUP($B$5,ENEMY,7)+D6*VLOOKUP($B$6,ENEMY,7)+D7*VLOOKUP($B$7,ENEMY,7)+D8*VLOOKUP($B$8,ENEMY,7)+D9*VLOOKUP($B$9,ENEMY,7)+D10*VLOOKUP($B$10,ENEMY,7)+D11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="137"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="136">
+      <c r="E14" s="142"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="141">
         <f>G3*H3*VLOOKUP($B$3,ENEMY,7)+G4*H4*VLOOKUP($B$4,ENEMY,7)+G5*H5*VLOOKUP($B$5,ENEMY,7)+G6*H6*VLOOKUP($B$6,ENEMY,7)+G7*H7*VLOOKUP($B$7,ENEMY,7)+G8*H8*VLOOKUP($B$8,ENEMY,7)+G9*H9*VLOOKUP($B$9,ENEMY,7)+G10*H10*VLOOKUP($B$10,ENEMY,7)+G11*H11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>270</v>
       </c>
-      <c r="H14" s="137"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="136">
+      <c r="H14" s="142"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="141">
         <f>J3*K3*VLOOKUP($B$3,ENEMY,7)+J4*K4*VLOOKUP($B$4,ENEMY,7)+J5*K5*VLOOKUP($B$5,ENEMY,7)+J6*K6*VLOOKUP($B$6,ENEMY,7)+J7*K7*VLOOKUP($B$7,ENEMY,7)+J8*K8*VLOOKUP($B$8,ENEMY,7)+J9*K9*VLOOKUP($B$9,ENEMY,7)+J10*K10*VLOOKUP($B$10,ENEMY,7)+J11*K11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>450</v>
       </c>
-      <c r="K14" s="137"/>
-      <c r="L14" s="138"/>
-      <c r="M14" s="136">
+      <c r="K14" s="142"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="141">
         <f>M3*N3*VLOOKUP($B$3,ENEMY,7)+M4*N4*VLOOKUP($B$4,ENEMY,7)+M5*N5*VLOOKUP($B$5,ENEMY,7)+M6*N6*VLOOKUP($B$6,ENEMY,7)+M7*N7*VLOOKUP($B$7,ENEMY,7)+M8*N8*VLOOKUP($B$8,ENEMY,7)+M9*N9*VLOOKUP($B$9,ENEMY,7)+M10*N10*VLOOKUP($B$10,ENEMY,7)+M11*N11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>135</v>
       </c>
-      <c r="N14" s="137"/>
-      <c r="O14" s="138"/>
-      <c r="P14" s="136">
+      <c r="N14" s="142"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="141">
         <f>P3*Q3*VLOOKUP($B$3,ENEMY,7)+P4*Q4*VLOOKUP($B$4,ENEMY,7)+P5*Q5*VLOOKUP($B$5,ENEMY,7)+P6*Q6*VLOOKUP($B$6,ENEMY,7)+P7*Q7*VLOOKUP($B$7,ENEMY,7)+P8*Q8*VLOOKUP($B$8,ENEMY,7)+P9*Q9*VLOOKUP($B$9,ENEMY,7)+P10*Q10*VLOOKUP($B$10,ENEMY,7)+P11*Q11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>2520</v>
       </c>
-      <c r="Q14" s="137"/>
-      <c r="R14" s="138"/>
-      <c r="S14" s="136">
+      <c r="Q14" s="142"/>
+      <c r="R14" s="143"/>
+      <c r="S14" s="141">
         <f>S3*T3*VLOOKUP($B$3,ENEMY,7)+S4*T4*VLOOKUP($B$4,ENEMY,7)+S5*T5*VLOOKUP($B$5,ENEMY,7)+S6*T6*VLOOKUP($B$6,ENEMY,7)+S7*T7*VLOOKUP($B$7,ENEMY,7)+S8*T8*VLOOKUP($B$8,ENEMY,7)+S9*T9*VLOOKUP($B$9,ENEMY,7)+S10*T10*VLOOKUP($B$10,ENEMY,7)+S11*T11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>13500</v>
       </c>
-      <c r="T14" s="137"/>
-      <c r="U14" s="138"/>
-      <c r="V14" s="136"/>
-      <c r="W14" s="137"/>
-      <c r="X14" s="138"/>
-      <c r="Y14" s="136"/>
-      <c r="Z14" s="137"/>
-      <c r="AA14" s="138"/>
-      <c r="AB14" s="136"/>
-      <c r="AC14" s="137"/>
-      <c r="AD14" s="138"/>
-      <c r="AE14" s="136"/>
-      <c r="AF14" s="137"/>
-      <c r="AG14" s="138"/>
-      <c r="AH14" s="136"/>
-      <c r="AI14" s="137"/>
-      <c r="AJ14" s="138"/>
-      <c r="AK14" s="136"/>
-      <c r="AL14" s="137"/>
-      <c r="AM14" s="138"/>
+      <c r="T14" s="142"/>
+      <c r="U14" s="143"/>
+      <c r="V14" s="141"/>
+      <c r="W14" s="142"/>
+      <c r="X14" s="143"/>
+      <c r="Y14" s="141"/>
+      <c r="Z14" s="142"/>
+      <c r="AA14" s="143"/>
+      <c r="AB14" s="141"/>
+      <c r="AC14" s="142"/>
+      <c r="AD14" s="143"/>
+      <c r="AE14" s="141"/>
+      <c r="AF14" s="142"/>
+      <c r="AG14" s="143"/>
+      <c r="AH14" s="141"/>
+      <c r="AI14" s="142"/>
+      <c r="AJ14" s="143"/>
+      <c r="AK14" s="141"/>
+      <c r="AL14" s="142"/>
+      <c r="AM14" s="143"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B15" s="86" t="s">
         <v>205</v>
       </c>
-      <c r="D15" s="136">
+      <c r="D15" s="141">
         <f>D25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+D26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+D27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+D28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+D29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+D30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+D31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+D32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+D33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
         <v>4.5</v>
       </c>
-      <c r="E15" s="137"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="136">
+      <c r="E15" s="142"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="141">
         <f>G25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+G26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+G27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+G28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+G29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+G30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+G31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+G32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+G33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
         <v>43.5</v>
       </c>
-      <c r="H15" s="137"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="136">
+      <c r="H15" s="142"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="141">
         <f>J25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+J26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+J27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+J28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+J29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+J30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+J31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+J32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+J33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
         <v>43.5</v>
       </c>
-      <c r="K15" s="137"/>
-      <c r="L15" s="138"/>
-      <c r="M15" s="136">
+      <c r="K15" s="142"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="141">
         <f>M25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+M26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+M27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+M28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+M29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+M30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+M31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+M32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+M33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
         <v>24.25</v>
       </c>
-      <c r="N15" s="137"/>
-      <c r="O15" s="138"/>
-      <c r="P15" s="136">
+      <c r="N15" s="142"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="141">
         <f>P25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+P26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+P27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+P28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+P29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+P30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+P31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+P32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+P33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
         <v>274.5</v>
       </c>
-      <c r="Q15" s="137"/>
-      <c r="R15" s="138"/>
-      <c r="S15" s="136">
+      <c r="Q15" s="142"/>
+      <c r="R15" s="143"/>
+      <c r="S15" s="141">
         <f>S25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+S26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+S27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+S28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+S29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+S30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+S31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+S32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+S33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
         <v>1439.75</v>
       </c>
-      <c r="T15" s="137"/>
-      <c r="U15" s="138"/>
-      <c r="V15" s="136"/>
-      <c r="W15" s="137"/>
-      <c r="X15" s="138"/>
-      <c r="Y15" s="136"/>
-      <c r="Z15" s="137"/>
-      <c r="AA15" s="138"/>
-      <c r="AB15" s="136"/>
-      <c r="AC15" s="137"/>
-      <c r="AD15" s="138"/>
-      <c r="AE15" s="136"/>
-      <c r="AF15" s="137"/>
-      <c r="AG15" s="138"/>
-      <c r="AH15" s="136"/>
-      <c r="AI15" s="137"/>
-      <c r="AJ15" s="138"/>
-      <c r="AK15" s="136"/>
-      <c r="AL15" s="137"/>
-      <c r="AM15" s="138"/>
+      <c r="T15" s="142"/>
+      <c r="U15" s="143"/>
+      <c r="V15" s="141"/>
+      <c r="W15" s="142"/>
+      <c r="X15" s="143"/>
+      <c r="Y15" s="141"/>
+      <c r="Z15" s="142"/>
+      <c r="AA15" s="143"/>
+      <c r="AB15" s="141"/>
+      <c r="AC15" s="142"/>
+      <c r="AD15" s="143"/>
+      <c r="AE15" s="141"/>
+      <c r="AF15" s="142"/>
+      <c r="AG15" s="143"/>
+      <c r="AH15" s="141"/>
+      <c r="AI15" s="142"/>
+      <c r="AJ15" s="143"/>
+      <c r="AK15" s="141"/>
+      <c r="AL15" s="142"/>
+      <c r="AM15" s="143"/>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B16" s="86" t="s">
         <v>183</v>
       </c>
-      <c r="D16" s="142">
+      <c r="D16" s="138">
         <f>D13-D14</f>
         <v>100</v>
       </c>
-      <c r="E16" s="143"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="142">
+      <c r="E16" s="139"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="138">
         <f>ROUND(G13-(G14/G15),0)</f>
         <v>94</v>
       </c>
-      <c r="H16" s="143"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="142">
+      <c r="H16" s="139"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="138">
         <f t="shared" ref="J16" si="1">ROUND(J13-(J14/J15),0)</f>
         <v>84</v>
       </c>
-      <c r="K16" s="143"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="142">
+      <c r="K16" s="139"/>
+      <c r="L16" s="140"/>
+      <c r="M16" s="138">
         <f t="shared" ref="M16" si="2">ROUND(M13-(M14/M15),0)</f>
         <v>78</v>
       </c>
-      <c r="N16" s="143"/>
-      <c r="O16" s="144"/>
-      <c r="P16" s="142">
+      <c r="N16" s="139"/>
+      <c r="O16" s="140"/>
+      <c r="P16" s="138">
         <f t="shared" ref="P16" si="3">ROUND(P13-(P14/P15),0)</f>
         <v>69</v>
       </c>
-      <c r="Q16" s="143"/>
-      <c r="R16" s="144"/>
-      <c r="S16" s="142">
+      <c r="Q16" s="139"/>
+      <c r="R16" s="140"/>
+      <c r="S16" s="138">
         <f t="shared" ref="S16" si="4">ROUND(S13-(S14/S15),0)</f>
         <v>60</v>
       </c>
-      <c r="T16" s="143"/>
-      <c r="U16" s="144"/>
-      <c r="V16" s="142"/>
-      <c r="W16" s="143"/>
-      <c r="X16" s="144"/>
-      <c r="Y16" s="142"/>
-      <c r="Z16" s="143"/>
-      <c r="AA16" s="144"/>
-      <c r="AB16" s="142"/>
-      <c r="AC16" s="143"/>
-      <c r="AD16" s="144"/>
-      <c r="AE16" s="142"/>
-      <c r="AF16" s="143"/>
-      <c r="AG16" s="144"/>
-      <c r="AH16" s="142"/>
-      <c r="AI16" s="143"/>
-      <c r="AJ16" s="144"/>
-      <c r="AK16" s="142"/>
-      <c r="AL16" s="143"/>
-      <c r="AM16" s="144"/>
+      <c r="T16" s="139"/>
+      <c r="U16" s="140"/>
+      <c r="V16" s="138"/>
+      <c r="W16" s="139"/>
+      <c r="X16" s="140"/>
+      <c r="Y16" s="138"/>
+      <c r="Z16" s="139"/>
+      <c r="AA16" s="140"/>
+      <c r="AB16" s="138"/>
+      <c r="AC16" s="139"/>
+      <c r="AD16" s="140"/>
+      <c r="AE16" s="138"/>
+      <c r="AF16" s="139"/>
+      <c r="AG16" s="140"/>
+      <c r="AH16" s="138"/>
+      <c r="AI16" s="139"/>
+      <c r="AJ16" s="140"/>
+      <c r="AK16" s="138"/>
+      <c r="AL16" s="139"/>
+      <c r="AM16" s="140"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C17" s="31"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="138"/>
-      <c r="J17" s="136"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="138"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="138"/>
-      <c r="P17" s="136"/>
-      <c r="Q17" s="137"/>
-      <c r="R17" s="138"/>
-      <c r="S17" s="136"/>
-      <c r="T17" s="137"/>
-      <c r="U17" s="138"/>
-      <c r="V17" s="136"/>
-      <c r="W17" s="137"/>
-      <c r="X17" s="138"/>
-      <c r="Y17" s="136"/>
-      <c r="Z17" s="137"/>
-      <c r="AA17" s="138"/>
-      <c r="AB17" s="136"/>
-      <c r="AC17" s="137"/>
-      <c r="AD17" s="138"/>
-      <c r="AE17" s="136"/>
-      <c r="AF17" s="137"/>
-      <c r="AG17" s="138"/>
-      <c r="AH17" s="136"/>
-      <c r="AI17" s="137"/>
-      <c r="AJ17" s="138"/>
-      <c r="AK17" s="136"/>
-      <c r="AL17" s="137"/>
-      <c r="AM17" s="138"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="141"/>
+      <c r="N17" s="142"/>
+      <c r="O17" s="143"/>
+      <c r="P17" s="141"/>
+      <c r="Q17" s="142"/>
+      <c r="R17" s="143"/>
+      <c r="S17" s="141"/>
+      <c r="T17" s="142"/>
+      <c r="U17" s="143"/>
+      <c r="V17" s="141"/>
+      <c r="W17" s="142"/>
+      <c r="X17" s="143"/>
+      <c r="Y17" s="141"/>
+      <c r="Z17" s="142"/>
+      <c r="AA17" s="143"/>
+      <c r="AB17" s="141"/>
+      <c r="AC17" s="142"/>
+      <c r="AD17" s="143"/>
+      <c r="AE17" s="141"/>
+      <c r="AF17" s="142"/>
+      <c r="AG17" s="143"/>
+      <c r="AH17" s="141"/>
+      <c r="AI17" s="142"/>
+      <c r="AJ17" s="143"/>
+      <c r="AK17" s="141"/>
+      <c r="AL17" s="142"/>
+      <c r="AM17" s="143"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B18" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="133">
+      <c r="D18" s="147">
         <f>Tower!I3*2+Tower!I3/2</f>
         <v>225</v>
       </c>
-      <c r="E18" s="134"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="133">
+      <c r="E18" s="148"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="147">
         <f>D21</f>
         <v>25</v>
       </c>
-      <c r="H18" s="134"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="133">
+      <c r="H18" s="148"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="147">
         <f t="shared" ref="J18" si="5">G21</f>
         <v>-253</v>
       </c>
-      <c r="K18" s="134"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="133">
+      <c r="K18" s="148"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="147">
         <f t="shared" ref="M18" si="6">J21</f>
         <v>537</v>
       </c>
-      <c r="N18" s="134"/>
-      <c r="O18" s="135"/>
-      <c r="P18" s="133">
+      <c r="N18" s="148"/>
+      <c r="O18" s="149"/>
+      <c r="P18" s="147">
         <f t="shared" ref="P18" si="7">M21</f>
         <v>537</v>
       </c>
-      <c r="Q18" s="134"/>
-      <c r="R18" s="135"/>
-      <c r="S18" s="133">
+      <c r="Q18" s="148"/>
+      <c r="R18" s="149"/>
+      <c r="S18" s="147">
         <f t="shared" ref="S18" si="8">P21</f>
         <v>2517</v>
       </c>
-      <c r="T18" s="134"/>
-      <c r="U18" s="135"/>
-      <c r="V18" s="133"/>
-      <c r="W18" s="134"/>
-      <c r="X18" s="135"/>
-      <c r="Y18" s="133"/>
-      <c r="Z18" s="134"/>
-      <c r="AA18" s="135"/>
-      <c r="AB18" s="133"/>
-      <c r="AC18" s="134"/>
-      <c r="AD18" s="135"/>
-      <c r="AE18" s="133"/>
-      <c r="AF18" s="134"/>
-      <c r="AG18" s="135"/>
-      <c r="AH18" s="133"/>
-      <c r="AI18" s="134"/>
-      <c r="AJ18" s="135"/>
-      <c r="AK18" s="133"/>
-      <c r="AL18" s="134"/>
-      <c r="AM18" s="135"/>
+      <c r="T18" s="148"/>
+      <c r="U18" s="149"/>
+      <c r="V18" s="147"/>
+      <c r="W18" s="148"/>
+      <c r="X18" s="149"/>
+      <c r="Y18" s="147"/>
+      <c r="Z18" s="148"/>
+      <c r="AA18" s="149"/>
+      <c r="AB18" s="147"/>
+      <c r="AC18" s="148"/>
+      <c r="AD18" s="149"/>
+      <c r="AE18" s="147"/>
+      <c r="AF18" s="148"/>
+      <c r="AG18" s="149"/>
+      <c r="AH18" s="147"/>
+      <c r="AI18" s="148"/>
+      <c r="AJ18" s="149"/>
+      <c r="AK18" s="147"/>
+      <c r="AL18" s="148"/>
+      <c r="AM18" s="149"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B19" s="86" t="s">
         <v>185</v>
       </c>
-      <c r="D19" s="139">
+      <c r="D19" s="150">
         <f>D25*VLOOKUP($B$25,TOWER,9)+D26*VLOOKUP($B$26,TOWER,9)+D27*VLOOKUP($B$27,TOWER,9)+D28*VLOOKUP($B$28,TOWER,9)+D29*VLOOKUP($B$29,TOWER,9)+D30*VLOOKUP($B$30,TOWER,9)+D31*VLOOKUP($B$31,TOWER,9)+D32*VLOOKUP($B$32,TOWER,9)+D33*VLOOKUP($B$33,TOWER,9)</f>
         <v>200</v>
       </c>
-      <c r="E19" s="140"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="139">
+      <c r="E19" s="151"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="150">
         <f>G25*VLOOKUP($B$25,TOWER,9)+G26*VLOOKUP($B$26,TOWER,9)+G27*VLOOKUP($B$27,TOWER,9)+G28*VLOOKUP($B$28,TOWER,9)+G29*VLOOKUP($B$29,TOWER,9)+G30*VLOOKUP($B$30,TOWER,9)+G31*VLOOKUP($B$31,TOWER,9)+G32*VLOOKUP($B$32,TOWER,9)+G33*VLOOKUP($B$33,TOWER,9)</f>
         <v>710</v>
       </c>
-      <c r="H19" s="140"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="139">
+      <c r="H19" s="151"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="150">
         <f>J25*VLOOKUP($B$25,TOWER,9)+J26*VLOOKUP($B$26,TOWER,9)+J27*VLOOKUP($B$27,TOWER,9)+J28*VLOOKUP($B$28,TOWER,9)+J29*VLOOKUP($B$29,TOWER,9)+J30*VLOOKUP($B$30,TOWER,9)+J31*VLOOKUP($B$31,TOWER,9)+J32*VLOOKUP($B$32,TOWER,9)+J33*VLOOKUP($B$33,TOWER,9)</f>
         <v>710</v>
       </c>
-      <c r="K19" s="140"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="139">
+      <c r="K19" s="151"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="150">
         <f>M25*VLOOKUP($B$25,TOWER,9)+M26*VLOOKUP($B$26,TOWER,9)+M27*VLOOKUP($B$27,TOWER,9)+M28*VLOOKUP($B$28,TOWER,9)+M29*VLOOKUP($B$29,TOWER,9)+M30*VLOOKUP($B$30,TOWER,9)+M31*VLOOKUP($B$31,TOWER,9)+M32*VLOOKUP($B$32,TOWER,9)+M33*VLOOKUP($B$33,TOWER,9)</f>
         <v>360</v>
       </c>
-      <c r="N19" s="140"/>
-      <c r="O19" s="141"/>
-      <c r="P19" s="139">
+      <c r="N19" s="151"/>
+      <c r="O19" s="152"/>
+      <c r="P19" s="150">
         <f>P25*VLOOKUP($B$25,TOWER,9)+P26*VLOOKUP($B$26,TOWER,9)+P27*VLOOKUP($B$27,TOWER,9)+P28*VLOOKUP($B$28,TOWER,9)+P29*VLOOKUP($B$29,TOWER,9)+P30*VLOOKUP($B$30,TOWER,9)+P31*VLOOKUP($B$31,TOWER,9)+P32*VLOOKUP($B$32,TOWER,9)+P33*VLOOKUP($B$33,TOWER,9)</f>
         <v>4860</v>
       </c>
-      <c r="Q19" s="140"/>
-      <c r="R19" s="141"/>
-      <c r="S19" s="139">
+      <c r="Q19" s="151"/>
+      <c r="R19" s="152"/>
+      <c r="S19" s="150">
         <f>S25*VLOOKUP($B$25,TOWER,9)+S26*VLOOKUP($B$26,TOWER,9)+S27*VLOOKUP($B$27,TOWER,9)+S28*VLOOKUP($B$28,TOWER,9)+S29*VLOOKUP($B$29,TOWER,9)+S30*VLOOKUP($B$30,TOWER,9)+S31*VLOOKUP($B$31,TOWER,9)+S32*VLOOKUP($B$32,TOWER,9)+S33*VLOOKUP($B$33,TOWER,9)</f>
         <v>25560</v>
       </c>
-      <c r="T19" s="140"/>
-      <c r="U19" s="141"/>
-      <c r="V19" s="139"/>
-      <c r="W19" s="140"/>
-      <c r="X19" s="141"/>
-      <c r="Y19" s="139"/>
-      <c r="Z19" s="140"/>
-      <c r="AA19" s="141"/>
-      <c r="AB19" s="139"/>
-      <c r="AC19" s="140"/>
-      <c r="AD19" s="141"/>
-      <c r="AE19" s="139"/>
-      <c r="AF19" s="140"/>
-      <c r="AG19" s="141"/>
-      <c r="AH19" s="139"/>
-      <c r="AI19" s="140"/>
-      <c r="AJ19" s="141"/>
-      <c r="AK19" s="139"/>
-      <c r="AL19" s="140"/>
-      <c r="AM19" s="141"/>
+      <c r="T19" s="151"/>
+      <c r="U19" s="152"/>
+      <c r="V19" s="150"/>
+      <c r="W19" s="151"/>
+      <c r="X19" s="152"/>
+      <c r="Y19" s="150"/>
+      <c r="Z19" s="151"/>
+      <c r="AA19" s="152"/>
+      <c r="AB19" s="150"/>
+      <c r="AC19" s="151"/>
+      <c r="AD19" s="152"/>
+      <c r="AE19" s="150"/>
+      <c r="AF19" s="151"/>
+      <c r="AG19" s="152"/>
+      <c r="AH19" s="150"/>
+      <c r="AI19" s="151"/>
+      <c r="AJ19" s="152"/>
+      <c r="AK19" s="150"/>
+      <c r="AL19" s="151"/>
+      <c r="AM19" s="152"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B20" s="86" t="s">
         <v>186</v>
       </c>
-      <c r="D20" s="133">
+      <c r="D20" s="147">
         <f>D3*VLOOKUP($B$3,ENEMY,8)+D4*VLOOKUP($B$4,ENEMY,8)+D5*VLOOKUP($B$5,ENEMY,8)+D6*VLOOKUP($B$6,ENEMY,8)+D7*VLOOKUP($B$7,ENEMY,8)+D8*VLOOKUP($B$8,ENEMY,8)+D9*VLOOKUP($B$9,ENEMY,8)+D10*VLOOKUP($B$10,ENEMY,8)+D11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="134"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="133">
+      <c r="E20" s="148"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="147">
         <f>G3*H3*VLOOKUP($B$3,ENEMY,8)+G4*H4*VLOOKUP($B$4,ENEMY,8)+G5*H5*VLOOKUP($B$5,ENEMY,8)+G6*H6*VLOOKUP($B$6,ENEMY,8)+G7*H7*VLOOKUP($B$7,ENEMY,8)+G8*H8*VLOOKUP($B$8,ENEMY,8)+G9*H9*VLOOKUP($B$9,ENEMY,8)+G10*H10*VLOOKUP($B$10,ENEMY,8)+G11*H11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>432</v>
       </c>
-      <c r="H20" s="134"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="133">
+      <c r="H20" s="148"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="147">
         <f>J3*K3*VLOOKUP($B$3,ENEMY,8)+J4*K4*VLOOKUP($B$4,ENEMY,8)+J5*K5*VLOOKUP($B$5,ENEMY,8)+J6*K6*VLOOKUP($B$6,ENEMY,8)+J7*K7*VLOOKUP($B$7,ENEMY,8)+J8*K8*VLOOKUP($B$8,ENEMY,8)+J9*K9*VLOOKUP($B$9,ENEMY,8)+J10*K10*VLOOKUP($B$10,ENEMY,8)+J11*K11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>1500</v>
       </c>
-      <c r="K20" s="134"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="133">
+      <c r="K20" s="148"/>
+      <c r="L20" s="149"/>
+      <c r="M20" s="147">
         <f>M3*N3*VLOOKUP($B$3,ENEMY,8)+M4*N4*VLOOKUP($B$4,ENEMY,8)+M5*N5*VLOOKUP($B$5,ENEMY,8)+M6*N6*VLOOKUP($B$6,ENEMY,8)+M7*N7*VLOOKUP($B$7,ENEMY,8)+M8*N8*VLOOKUP($B$8,ENEMY,8)+M9*N9*VLOOKUP($B$9,ENEMY,8)+M10*N10*VLOOKUP($B$10,ENEMY,8)+M11*N11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>360</v>
       </c>
-      <c r="N20" s="134"/>
-      <c r="O20" s="135"/>
-      <c r="P20" s="133">
+      <c r="N20" s="148"/>
+      <c r="O20" s="149"/>
+      <c r="P20" s="147">
         <f>P3*Q3*VLOOKUP($B$3,ENEMY,8)+P4*Q4*VLOOKUP($B$4,ENEMY,8)+P5*Q5*VLOOKUP($B$5,ENEMY,8)+P6*Q6*VLOOKUP($B$6,ENEMY,8)+P7*Q7*VLOOKUP($B$7,ENEMY,8)+P8*Q8*VLOOKUP($B$8,ENEMY,8)+P9*Q9*VLOOKUP($B$9,ENEMY,8)+P10*Q10*VLOOKUP($B$10,ENEMY,8)+P11*Q11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>6840</v>
       </c>
-      <c r="Q20" s="134"/>
-      <c r="R20" s="135"/>
-      <c r="S20" s="133">
+      <c r="Q20" s="148"/>
+      <c r="R20" s="149"/>
+      <c r="S20" s="147">
         <f>S3*T3*VLOOKUP($B$3,ENEMY,8)+S4*T4*VLOOKUP($B$4,ENEMY,8)+S5*T5*VLOOKUP($B$5,ENEMY,8)+S6*T6*VLOOKUP($B$6,ENEMY,8)+S7*T7*VLOOKUP($B$7,ENEMY,8)+S8*T8*VLOOKUP($B$8,ENEMY,8)+S9*T9*VLOOKUP($B$9,ENEMY,8)+S10*T10*VLOOKUP($B$10,ENEMY,8)+S11*T11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>35700</v>
       </c>
-      <c r="T20" s="134"/>
-      <c r="U20" s="135"/>
-      <c r="V20" s="133"/>
-      <c r="W20" s="134"/>
-      <c r="X20" s="135"/>
-      <c r="Y20" s="133"/>
-      <c r="Z20" s="134"/>
-      <c r="AA20" s="135"/>
-      <c r="AB20" s="133"/>
-      <c r="AC20" s="134"/>
-      <c r="AD20" s="135"/>
-      <c r="AE20" s="133"/>
-      <c r="AF20" s="134"/>
-      <c r="AG20" s="135"/>
-      <c r="AH20" s="133"/>
-      <c r="AI20" s="134"/>
-      <c r="AJ20" s="135"/>
-      <c r="AK20" s="133"/>
-      <c r="AL20" s="134"/>
-      <c r="AM20" s="135"/>
+      <c r="T20" s="148"/>
+      <c r="U20" s="149"/>
+      <c r="V20" s="147"/>
+      <c r="W20" s="148"/>
+      <c r="X20" s="149"/>
+      <c r="Y20" s="147"/>
+      <c r="Z20" s="148"/>
+      <c r="AA20" s="149"/>
+      <c r="AB20" s="147"/>
+      <c r="AC20" s="148"/>
+      <c r="AD20" s="149"/>
+      <c r="AE20" s="147"/>
+      <c r="AF20" s="148"/>
+      <c r="AG20" s="149"/>
+      <c r="AH20" s="147"/>
+      <c r="AI20" s="148"/>
+      <c r="AJ20" s="149"/>
+      <c r="AK20" s="147"/>
+      <c r="AL20" s="148"/>
+      <c r="AM20" s="149"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B21" s="86" t="s">
         <v>187</v>
       </c>
-      <c r="D21" s="139">
+      <c r="D21" s="150">
         <f>D18-D19+D20</f>
         <v>25</v>
       </c>
-      <c r="E21" s="140"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="139">
+      <c r="E21" s="151"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="150">
         <f>G18-G19+G20</f>
         <v>-253</v>
       </c>
-      <c r="H21" s="140"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="139">
+      <c r="H21" s="151"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="150">
         <f t="shared" ref="J21" si="9">J18-J19+J20</f>
         <v>537</v>
       </c>
-      <c r="K21" s="140"/>
-      <c r="L21" s="141"/>
-      <c r="M21" s="139">
+      <c r="K21" s="151"/>
+      <c r="L21" s="152"/>
+      <c r="M21" s="150">
         <f t="shared" ref="M21" si="10">M18-M19+M20</f>
         <v>537</v>
       </c>
-      <c r="N21" s="140"/>
-      <c r="O21" s="141"/>
-      <c r="P21" s="139">
+      <c r="N21" s="151"/>
+      <c r="O21" s="152"/>
+      <c r="P21" s="150">
         <f t="shared" ref="P21" si="11">P18-P19+P20</f>
         <v>2517</v>
       </c>
-      <c r="Q21" s="140"/>
-      <c r="R21" s="141"/>
-      <c r="S21" s="139">
+      <c r="Q21" s="151"/>
+      <c r="R21" s="152"/>
+      <c r="S21" s="150">
         <f t="shared" ref="S21" si="12">S18-S19+S20</f>
         <v>12657</v>
       </c>
-      <c r="T21" s="140"/>
-      <c r="U21" s="141"/>
-      <c r="V21" s="139"/>
-      <c r="W21" s="140"/>
-      <c r="X21" s="141"/>
-      <c r="Y21" s="139"/>
-      <c r="Z21" s="140"/>
-      <c r="AA21" s="141"/>
-      <c r="AB21" s="139"/>
-      <c r="AC21" s="140"/>
-      <c r="AD21" s="141"/>
-      <c r="AE21" s="139"/>
-      <c r="AF21" s="140"/>
-      <c r="AG21" s="141"/>
-      <c r="AH21" s="139"/>
-      <c r="AI21" s="140"/>
-      <c r="AJ21" s="141"/>
-      <c r="AK21" s="139"/>
-      <c r="AL21" s="140"/>
-      <c r="AM21" s="141"/>
+      <c r="T21" s="151"/>
+      <c r="U21" s="152"/>
+      <c r="V21" s="150"/>
+      <c r="W21" s="151"/>
+      <c r="X21" s="152"/>
+      <c r="Y21" s="150"/>
+      <c r="Z21" s="151"/>
+      <c r="AA21" s="152"/>
+      <c r="AB21" s="150"/>
+      <c r="AC21" s="151"/>
+      <c r="AD21" s="152"/>
+      <c r="AE21" s="150"/>
+      <c r="AF21" s="151"/>
+      <c r="AG21" s="152"/>
+      <c r="AH21" s="150"/>
+      <c r="AI21" s="151"/>
+      <c r="AJ21" s="152"/>
+      <c r="AK21" s="150"/>
+      <c r="AL21" s="151"/>
+      <c r="AM21" s="152"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B24" s="105" t="s">
@@ -4248,52 +4245,52 @@
         <f t="shared" ref="C25:C33" si="13">VLOOKUP(B3,ENEMY,4)</f>
         <v>Normal</v>
       </c>
-      <c r="D25" s="133"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="133">
+      <c r="D25" s="147"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="147">
         <v>1</v>
       </c>
-      <c r="H25" s="134"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="133">
+      <c r="H25" s="148"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="147">
         <v>1</v>
       </c>
-      <c r="K25" s="134"/>
-      <c r="L25" s="135"/>
-      <c r="M25" s="133">
+      <c r="K25" s="148"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="147">
         <v>1</v>
       </c>
-      <c r="N25" s="134"/>
-      <c r="O25" s="135"/>
-      <c r="P25" s="133">
+      <c r="N25" s="148"/>
+      <c r="O25" s="149"/>
+      <c r="P25" s="147">
         <v>6</v>
       </c>
-      <c r="Q25" s="134"/>
-      <c r="R25" s="135"/>
-      <c r="S25" s="133">
+      <c r="Q25" s="148"/>
+      <c r="R25" s="149"/>
+      <c r="S25" s="147">
         <v>31</v>
       </c>
-      <c r="T25" s="134"/>
-      <c r="U25" s="135"/>
-      <c r="V25" s="133"/>
-      <c r="W25" s="134"/>
-      <c r="X25" s="135"/>
-      <c r="Y25" s="133"/>
-      <c r="Z25" s="134"/>
-      <c r="AA25" s="135"/>
-      <c r="AB25" s="133"/>
-      <c r="AC25" s="134"/>
-      <c r="AD25" s="135"/>
-      <c r="AE25" s="133"/>
-      <c r="AF25" s="134"/>
-      <c r="AG25" s="135"/>
-      <c r="AH25" s="133"/>
-      <c r="AI25" s="134"/>
-      <c r="AJ25" s="135"/>
-      <c r="AK25" s="133"/>
-      <c r="AL25" s="134"/>
-      <c r="AM25" s="135"/>
+      <c r="T25" s="148"/>
+      <c r="U25" s="149"/>
+      <c r="V25" s="147"/>
+      <c r="W25" s="148"/>
+      <c r="X25" s="149"/>
+      <c r="Y25" s="147"/>
+      <c r="Z25" s="148"/>
+      <c r="AA25" s="149"/>
+      <c r="AB25" s="147"/>
+      <c r="AC25" s="148"/>
+      <c r="AD25" s="149"/>
+      <c r="AE25" s="147"/>
+      <c r="AF25" s="148"/>
+      <c r="AG25" s="149"/>
+      <c r="AH25" s="147"/>
+      <c r="AI25" s="148"/>
+      <c r="AJ25" s="149"/>
+      <c r="AK25" s="147"/>
+      <c r="AL25" s="148"/>
+      <c r="AM25" s="149"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="109">
@@ -4307,52 +4304,52 @@
         <f t="shared" si="13"/>
         <v>Intangible</v>
       </c>
-      <c r="D26" s="139"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="139">
+      <c r="D26" s="150"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="150">
         <v>1</v>
       </c>
-      <c r="H26" s="140"/>
-      <c r="I26" s="141"/>
-      <c r="J26" s="139">
+      <c r="H26" s="151"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="150">
         <v>1</v>
       </c>
-      <c r="K26" s="140"/>
-      <c r="L26" s="141"/>
-      <c r="M26" s="139">
+      <c r="K26" s="151"/>
+      <c r="L26" s="152"/>
+      <c r="M26" s="150">
         <v>1</v>
       </c>
-      <c r="N26" s="140"/>
-      <c r="O26" s="141"/>
-      <c r="P26" s="139">
+      <c r="N26" s="151"/>
+      <c r="O26" s="152"/>
+      <c r="P26" s="150">
         <v>6</v>
       </c>
-      <c r="Q26" s="140"/>
-      <c r="R26" s="141"/>
-      <c r="S26" s="139">
+      <c r="Q26" s="151"/>
+      <c r="R26" s="152"/>
+      <c r="S26" s="150">
         <v>31</v>
       </c>
-      <c r="T26" s="140"/>
-      <c r="U26" s="141"/>
-      <c r="V26" s="139"/>
-      <c r="W26" s="140"/>
-      <c r="X26" s="141"/>
-      <c r="Y26" s="139"/>
-      <c r="Z26" s="140"/>
-      <c r="AA26" s="141"/>
-      <c r="AB26" s="139"/>
-      <c r="AC26" s="140"/>
-      <c r="AD26" s="141"/>
-      <c r="AE26" s="139"/>
-      <c r="AF26" s="140"/>
-      <c r="AG26" s="141"/>
-      <c r="AH26" s="139"/>
-      <c r="AI26" s="140"/>
-      <c r="AJ26" s="141"/>
-      <c r="AK26" s="139"/>
-      <c r="AL26" s="140"/>
-      <c r="AM26" s="141"/>
+      <c r="T26" s="151"/>
+      <c r="U26" s="152"/>
+      <c r="V26" s="150"/>
+      <c r="W26" s="151"/>
+      <c r="X26" s="152"/>
+      <c r="Y26" s="150"/>
+      <c r="Z26" s="151"/>
+      <c r="AA26" s="152"/>
+      <c r="AB26" s="150"/>
+      <c r="AC26" s="151"/>
+      <c r="AD26" s="152"/>
+      <c r="AE26" s="150"/>
+      <c r="AF26" s="151"/>
+      <c r="AG26" s="152"/>
+      <c r="AH26" s="150"/>
+      <c r="AI26" s="151"/>
+      <c r="AJ26" s="152"/>
+      <c r="AK26" s="150"/>
+      <c r="AL26" s="151"/>
+      <c r="AM26" s="152"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="109">
@@ -4366,52 +4363,52 @@
         <f t="shared" si="13"/>
         <v>Saboteur</v>
       </c>
-      <c r="D27" s="133">
+      <c r="D27" s="147">
         <v>1</v>
       </c>
-      <c r="E27" s="134"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="134"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="133">
+      <c r="E27" s="148"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="147">
         <v>1</v>
       </c>
-      <c r="K27" s="134"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="133">
+      <c r="K27" s="148"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="147">
         <v>1</v>
       </c>
-      <c r="N27" s="134"/>
-      <c r="O27" s="135"/>
-      <c r="P27" s="133">
+      <c r="N27" s="148"/>
+      <c r="O27" s="149"/>
+      <c r="P27" s="147">
         <v>6</v>
       </c>
-      <c r="Q27" s="134"/>
-      <c r="R27" s="135"/>
-      <c r="S27" s="133">
+      <c r="Q27" s="148"/>
+      <c r="R27" s="149"/>
+      <c r="S27" s="147">
         <v>31</v>
       </c>
-      <c r="T27" s="134"/>
-      <c r="U27" s="135"/>
-      <c r="V27" s="133"/>
-      <c r="W27" s="134"/>
-      <c r="X27" s="135"/>
-      <c r="Y27" s="133"/>
-      <c r="Z27" s="134"/>
-      <c r="AA27" s="135"/>
-      <c r="AB27" s="133"/>
-      <c r="AC27" s="134"/>
-      <c r="AD27" s="135"/>
-      <c r="AE27" s="133"/>
-      <c r="AF27" s="134"/>
-      <c r="AG27" s="135"/>
-      <c r="AH27" s="133"/>
-      <c r="AI27" s="134"/>
-      <c r="AJ27" s="135"/>
-      <c r="AK27" s="133"/>
-      <c r="AL27" s="134"/>
-      <c r="AM27" s="135"/>
+      <c r="T27" s="148"/>
+      <c r="U27" s="149"/>
+      <c r="V27" s="147"/>
+      <c r="W27" s="148"/>
+      <c r="X27" s="149"/>
+      <c r="Y27" s="147"/>
+      <c r="Z27" s="148"/>
+      <c r="AA27" s="149"/>
+      <c r="AB27" s="147"/>
+      <c r="AC27" s="148"/>
+      <c r="AD27" s="149"/>
+      <c r="AE27" s="147"/>
+      <c r="AF27" s="148"/>
+      <c r="AG27" s="149"/>
+      <c r="AH27" s="147"/>
+      <c r="AI27" s="148"/>
+      <c r="AJ27" s="149"/>
+      <c r="AK27" s="147"/>
+      <c r="AL27" s="148"/>
+      <c r="AM27" s="149"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="109">
@@ -4425,52 +4422,52 @@
         <f t="shared" si="13"/>
         <v>Normal</v>
       </c>
-      <c r="D28" s="139"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="139">
+      <c r="D28" s="150"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="150">
         <v>1</v>
       </c>
-      <c r="H28" s="140"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="139">
+      <c r="H28" s="151"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="150">
         <v>1</v>
       </c>
-      <c r="K28" s="140"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="139">
+      <c r="K28" s="151"/>
+      <c r="L28" s="152"/>
+      <c r="M28" s="150">
         <v>1</v>
       </c>
-      <c r="N28" s="140"/>
-      <c r="O28" s="141"/>
-      <c r="P28" s="139">
+      <c r="N28" s="151"/>
+      <c r="O28" s="152"/>
+      <c r="P28" s="150">
         <v>6</v>
       </c>
-      <c r="Q28" s="140"/>
-      <c r="R28" s="141"/>
-      <c r="S28" s="139">
+      <c r="Q28" s="151"/>
+      <c r="R28" s="152"/>
+      <c r="S28" s="150">
         <v>31</v>
       </c>
-      <c r="T28" s="140"/>
-      <c r="U28" s="141"/>
-      <c r="V28" s="139"/>
-      <c r="W28" s="140"/>
-      <c r="X28" s="141"/>
-      <c r="Y28" s="139"/>
-      <c r="Z28" s="140"/>
-      <c r="AA28" s="141"/>
-      <c r="AB28" s="139"/>
-      <c r="AC28" s="140"/>
-      <c r="AD28" s="141"/>
-      <c r="AE28" s="139"/>
-      <c r="AF28" s="140"/>
-      <c r="AG28" s="141"/>
-      <c r="AH28" s="139"/>
-      <c r="AI28" s="140"/>
-      <c r="AJ28" s="141"/>
-      <c r="AK28" s="139"/>
-      <c r="AL28" s="140"/>
-      <c r="AM28" s="141"/>
+      <c r="T28" s="151"/>
+      <c r="U28" s="152"/>
+      <c r="V28" s="150"/>
+      <c r="W28" s="151"/>
+      <c r="X28" s="152"/>
+      <c r="Y28" s="150"/>
+      <c r="Z28" s="151"/>
+      <c r="AA28" s="152"/>
+      <c r="AB28" s="150"/>
+      <c r="AC28" s="151"/>
+      <c r="AD28" s="152"/>
+      <c r="AE28" s="150"/>
+      <c r="AF28" s="151"/>
+      <c r="AG28" s="152"/>
+      <c r="AH28" s="150"/>
+      <c r="AI28" s="151"/>
+      <c r="AJ28" s="152"/>
+      <c r="AK28" s="150"/>
+      <c r="AL28" s="151"/>
+      <c r="AM28" s="152"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="109">
@@ -4484,50 +4481,50 @@
         <f t="shared" si="13"/>
         <v>Intangible</v>
       </c>
-      <c r="D29" s="133"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="133">
+      <c r="D29" s="147"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="147">
         <v>1</v>
       </c>
-      <c r="H29" s="134"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="133">
+      <c r="H29" s="148"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="147">
         <v>1</v>
       </c>
-      <c r="K29" s="134"/>
-      <c r="L29" s="135"/>
-      <c r="M29" s="133"/>
-      <c r="N29" s="134"/>
-      <c r="O29" s="135"/>
-      <c r="P29" s="133">
+      <c r="K29" s="148"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="147"/>
+      <c r="N29" s="148"/>
+      <c r="O29" s="149"/>
+      <c r="P29" s="147">
         <v>6</v>
       </c>
-      <c r="Q29" s="134"/>
-      <c r="R29" s="135"/>
-      <c r="S29" s="133">
+      <c r="Q29" s="148"/>
+      <c r="R29" s="149"/>
+      <c r="S29" s="147">
         <v>32</v>
       </c>
-      <c r="T29" s="134"/>
-      <c r="U29" s="135"/>
-      <c r="V29" s="133"/>
-      <c r="W29" s="134"/>
-      <c r="X29" s="135"/>
-      <c r="Y29" s="133"/>
-      <c r="Z29" s="134"/>
-      <c r="AA29" s="135"/>
-      <c r="AB29" s="133"/>
-      <c r="AC29" s="134"/>
-      <c r="AD29" s="135"/>
-      <c r="AE29" s="133"/>
-      <c r="AF29" s="134"/>
-      <c r="AG29" s="135"/>
-      <c r="AH29" s="133"/>
-      <c r="AI29" s="134"/>
-      <c r="AJ29" s="135"/>
-      <c r="AK29" s="133"/>
-      <c r="AL29" s="134"/>
-      <c r="AM29" s="135"/>
+      <c r="T29" s="148"/>
+      <c r="U29" s="149"/>
+      <c r="V29" s="147"/>
+      <c r="W29" s="148"/>
+      <c r="X29" s="149"/>
+      <c r="Y29" s="147"/>
+      <c r="Z29" s="148"/>
+      <c r="AA29" s="149"/>
+      <c r="AB29" s="147"/>
+      <c r="AC29" s="148"/>
+      <c r="AD29" s="149"/>
+      <c r="AE29" s="147"/>
+      <c r="AF29" s="148"/>
+      <c r="AG29" s="149"/>
+      <c r="AH29" s="147"/>
+      <c r="AI29" s="148"/>
+      <c r="AJ29" s="149"/>
+      <c r="AK29" s="147"/>
+      <c r="AL29" s="148"/>
+      <c r="AM29" s="149"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="109">
@@ -4541,50 +4538,50 @@
         <f t="shared" si="13"/>
         <v>Saboteur</v>
       </c>
-      <c r="D30" s="139">
+      <c r="D30" s="150">
         <v>1</v>
       </c>
-      <c r="E30" s="140"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="139">
+      <c r="E30" s="151"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="150">
         <v>1</v>
       </c>
-      <c r="H30" s="140"/>
-      <c r="I30" s="141"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="140"/>
-      <c r="L30" s="141"/>
-      <c r="M30" s="139"/>
-      <c r="N30" s="140"/>
-      <c r="O30" s="141"/>
-      <c r="P30" s="139">
+      <c r="H30" s="151"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="151"/>
+      <c r="L30" s="152"/>
+      <c r="M30" s="150"/>
+      <c r="N30" s="151"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="150">
         <v>6</v>
       </c>
-      <c r="Q30" s="140"/>
-      <c r="R30" s="141"/>
-      <c r="S30" s="139">
+      <c r="Q30" s="151"/>
+      <c r="R30" s="152"/>
+      <c r="S30" s="150">
         <v>32</v>
       </c>
-      <c r="T30" s="140"/>
-      <c r="U30" s="141"/>
-      <c r="V30" s="139"/>
-      <c r="W30" s="140"/>
-      <c r="X30" s="141"/>
-      <c r="Y30" s="139"/>
-      <c r="Z30" s="140"/>
-      <c r="AA30" s="141"/>
-      <c r="AB30" s="139"/>
-      <c r="AC30" s="140"/>
-      <c r="AD30" s="141"/>
-      <c r="AE30" s="139"/>
-      <c r="AF30" s="140"/>
-      <c r="AG30" s="141"/>
-      <c r="AH30" s="139"/>
-      <c r="AI30" s="140"/>
-      <c r="AJ30" s="141"/>
-      <c r="AK30" s="139"/>
-      <c r="AL30" s="140"/>
-      <c r="AM30" s="141"/>
+      <c r="T30" s="151"/>
+      <c r="U30" s="152"/>
+      <c r="V30" s="150"/>
+      <c r="W30" s="151"/>
+      <c r="X30" s="152"/>
+      <c r="Y30" s="150"/>
+      <c r="Z30" s="151"/>
+      <c r="AA30" s="152"/>
+      <c r="AB30" s="150"/>
+      <c r="AC30" s="151"/>
+      <c r="AD30" s="152"/>
+      <c r="AE30" s="150"/>
+      <c r="AF30" s="151"/>
+      <c r="AG30" s="152"/>
+      <c r="AH30" s="150"/>
+      <c r="AI30" s="151"/>
+      <c r="AJ30" s="152"/>
+      <c r="AK30" s="150"/>
+      <c r="AL30" s="151"/>
+      <c r="AM30" s="152"/>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="109">
@@ -4598,50 +4595,50 @@
         <f t="shared" si="13"/>
         <v>Normal</v>
       </c>
-      <c r="D31" s="133"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="133">
+      <c r="D31" s="147"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="147">
         <v>1</v>
       </c>
-      <c r="H31" s="134"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="133">
+      <c r="H31" s="148"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="147">
         <v>1</v>
       </c>
-      <c r="K31" s="134"/>
-      <c r="L31" s="135"/>
-      <c r="M31" s="133"/>
-      <c r="N31" s="134"/>
-      <c r="O31" s="135"/>
-      <c r="P31" s="133">
+      <c r="K31" s="148"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="147"/>
+      <c r="N31" s="148"/>
+      <c r="O31" s="149"/>
+      <c r="P31" s="147">
         <v>6</v>
       </c>
-      <c r="Q31" s="134"/>
-      <c r="R31" s="135"/>
-      <c r="S31" s="133">
+      <c r="Q31" s="148"/>
+      <c r="R31" s="149"/>
+      <c r="S31" s="147">
         <v>32</v>
       </c>
-      <c r="T31" s="134"/>
-      <c r="U31" s="135"/>
-      <c r="V31" s="133"/>
-      <c r="W31" s="134"/>
-      <c r="X31" s="135"/>
-      <c r="Y31" s="133"/>
-      <c r="Z31" s="134"/>
-      <c r="AA31" s="135"/>
-      <c r="AB31" s="133"/>
-      <c r="AC31" s="134"/>
-      <c r="AD31" s="135"/>
-      <c r="AE31" s="133"/>
-      <c r="AF31" s="134"/>
-      <c r="AG31" s="135"/>
-      <c r="AH31" s="133"/>
-      <c r="AI31" s="134"/>
-      <c r="AJ31" s="135"/>
-      <c r="AK31" s="133"/>
-      <c r="AL31" s="134"/>
-      <c r="AM31" s="135"/>
+      <c r="T31" s="148"/>
+      <c r="U31" s="149"/>
+      <c r="V31" s="147"/>
+      <c r="W31" s="148"/>
+      <c r="X31" s="149"/>
+      <c r="Y31" s="147"/>
+      <c r="Z31" s="148"/>
+      <c r="AA31" s="149"/>
+      <c r="AB31" s="147"/>
+      <c r="AC31" s="148"/>
+      <c r="AD31" s="149"/>
+      <c r="AE31" s="147"/>
+      <c r="AF31" s="148"/>
+      <c r="AG31" s="149"/>
+      <c r="AH31" s="147"/>
+      <c r="AI31" s="148"/>
+      <c r="AJ31" s="149"/>
+      <c r="AK31" s="147"/>
+      <c r="AL31" s="148"/>
+      <c r="AM31" s="149"/>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="109">
@@ -4655,50 +4652,50 @@
         <f t="shared" si="13"/>
         <v>Intangible</v>
       </c>
-      <c r="D32" s="139"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="139">
+      <c r="D32" s="150"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="150">
         <v>1</v>
       </c>
-      <c r="H32" s="140"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="139">
+      <c r="H32" s="151"/>
+      <c r="I32" s="152"/>
+      <c r="J32" s="150">
         <v>1</v>
       </c>
-      <c r="K32" s="140"/>
-      <c r="L32" s="141"/>
-      <c r="M32" s="139"/>
-      <c r="N32" s="140"/>
-      <c r="O32" s="141"/>
-      <c r="P32" s="139">
+      <c r="K32" s="151"/>
+      <c r="L32" s="152"/>
+      <c r="M32" s="150"/>
+      <c r="N32" s="151"/>
+      <c r="O32" s="152"/>
+      <c r="P32" s="150">
         <v>6</v>
       </c>
-      <c r="Q32" s="140"/>
-      <c r="R32" s="141"/>
-      <c r="S32" s="139">
+      <c r="Q32" s="151"/>
+      <c r="R32" s="152"/>
+      <c r="S32" s="150">
         <v>32</v>
       </c>
-      <c r="T32" s="140"/>
-      <c r="U32" s="141"/>
-      <c r="V32" s="139"/>
-      <c r="W32" s="140"/>
-      <c r="X32" s="141"/>
-      <c r="Y32" s="139"/>
-      <c r="Z32" s="140"/>
-      <c r="AA32" s="141"/>
-      <c r="AB32" s="139"/>
-      <c r="AC32" s="140"/>
-      <c r="AD32" s="141"/>
-      <c r="AE32" s="139"/>
-      <c r="AF32" s="140"/>
-      <c r="AG32" s="141"/>
-      <c r="AH32" s="139"/>
-      <c r="AI32" s="140"/>
-      <c r="AJ32" s="141"/>
-      <c r="AK32" s="139"/>
-      <c r="AL32" s="140"/>
-      <c r="AM32" s="141"/>
+      <c r="T32" s="151"/>
+      <c r="U32" s="152"/>
+      <c r="V32" s="150"/>
+      <c r="W32" s="151"/>
+      <c r="X32" s="152"/>
+      <c r="Y32" s="150"/>
+      <c r="Z32" s="151"/>
+      <c r="AA32" s="152"/>
+      <c r="AB32" s="150"/>
+      <c r="AC32" s="151"/>
+      <c r="AD32" s="152"/>
+      <c r="AE32" s="150"/>
+      <c r="AF32" s="151"/>
+      <c r="AG32" s="152"/>
+      <c r="AH32" s="150"/>
+      <c r="AI32" s="151"/>
+      <c r="AJ32" s="152"/>
+      <c r="AK32" s="150"/>
+      <c r="AL32" s="151"/>
+      <c r="AM32" s="152"/>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="109">
@@ -4712,340 +4709,249 @@
         <f t="shared" si="13"/>
         <v>Saboteur</v>
       </c>
-      <c r="D33" s="133"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="133">
+      <c r="D33" s="147"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="147">
         <v>1</v>
       </c>
-      <c r="H33" s="134"/>
-      <c r="I33" s="135"/>
-      <c r="J33" s="133">
+      <c r="H33" s="148"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="147">
         <v>1</v>
       </c>
-      <c r="K33" s="134"/>
-      <c r="L33" s="135"/>
-      <c r="M33" s="133"/>
-      <c r="N33" s="134"/>
-      <c r="O33" s="135"/>
-      <c r="P33" s="133">
+      <c r="K33" s="148"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="147"/>
+      <c r="N33" s="148"/>
+      <c r="O33" s="149"/>
+      <c r="P33" s="147">
         <v>6</v>
       </c>
-      <c r="Q33" s="134"/>
-      <c r="R33" s="135"/>
-      <c r="S33" s="133">
+      <c r="Q33" s="148"/>
+      <c r="R33" s="149"/>
+      <c r="S33" s="147">
         <v>32</v>
       </c>
-      <c r="T33" s="134"/>
-      <c r="U33" s="135"/>
-      <c r="V33" s="133"/>
-      <c r="W33" s="134"/>
-      <c r="X33" s="135"/>
-      <c r="Y33" s="133"/>
-      <c r="Z33" s="134"/>
-      <c r="AA33" s="135"/>
-      <c r="AB33" s="133"/>
-      <c r="AC33" s="134"/>
-      <c r="AD33" s="135"/>
-      <c r="AE33" s="133"/>
-      <c r="AF33" s="134"/>
-      <c r="AG33" s="135"/>
-      <c r="AH33" s="133"/>
-      <c r="AI33" s="134"/>
-      <c r="AJ33" s="135"/>
-      <c r="AK33" s="133"/>
-      <c r="AL33" s="134"/>
-      <c r="AM33" s="135"/>
+      <c r="T33" s="148"/>
+      <c r="U33" s="149"/>
+      <c r="V33" s="147"/>
+      <c r="W33" s="148"/>
+      <c r="X33" s="149"/>
+      <c r="Y33" s="147"/>
+      <c r="Z33" s="148"/>
+      <c r="AA33" s="149"/>
+      <c r="AB33" s="147"/>
+      <c r="AC33" s="148"/>
+      <c r="AD33" s="149"/>
+      <c r="AE33" s="147"/>
+      <c r="AF33" s="148"/>
+      <c r="AG33" s="149"/>
+      <c r="AH33" s="147"/>
+      <c r="AI33" s="148"/>
+      <c r="AJ33" s="149"/>
+      <c r="AK33" s="147"/>
+      <c r="AL33" s="148"/>
+      <c r="AM33" s="149"/>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B34" s="101"/>
       <c r="C34" s="102"/>
-      <c r="D34" s="136"/>
-      <c r="E34" s="137"/>
-      <c r="F34" s="138"/>
-      <c r="G34" s="136"/>
-      <c r="H34" s="137"/>
-      <c r="I34" s="138"/>
-      <c r="J34" s="136"/>
-      <c r="K34" s="137"/>
-      <c r="L34" s="138"/>
-      <c r="M34" s="136"/>
-      <c r="N34" s="137"/>
-      <c r="O34" s="138"/>
-      <c r="P34" s="136"/>
-      <c r="Q34" s="137"/>
-      <c r="R34" s="138"/>
-      <c r="S34" s="136"/>
-      <c r="T34" s="137"/>
-      <c r="U34" s="138"/>
-      <c r="V34" s="136"/>
-      <c r="W34" s="137"/>
-      <c r="X34" s="138"/>
-      <c r="Y34" s="136"/>
-      <c r="Z34" s="137"/>
-      <c r="AA34" s="138"/>
-      <c r="AB34" s="136"/>
-      <c r="AC34" s="137"/>
-      <c r="AD34" s="138"/>
-      <c r="AE34" s="136"/>
-      <c r="AF34" s="137"/>
-      <c r="AG34" s="138"/>
-      <c r="AH34" s="136"/>
-      <c r="AI34" s="137"/>
-      <c r="AJ34" s="138"/>
-      <c r="AK34" s="136"/>
-      <c r="AL34" s="137"/>
-      <c r="AM34" s="138"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="141"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="143"/>
+      <c r="J34" s="141"/>
+      <c r="K34" s="142"/>
+      <c r="L34" s="143"/>
+      <c r="M34" s="141"/>
+      <c r="N34" s="142"/>
+      <c r="O34" s="143"/>
+      <c r="P34" s="141"/>
+      <c r="Q34" s="142"/>
+      <c r="R34" s="143"/>
+      <c r="S34" s="141"/>
+      <c r="T34" s="142"/>
+      <c r="U34" s="143"/>
+      <c r="V34" s="141"/>
+      <c r="W34" s="142"/>
+      <c r="X34" s="143"/>
+      <c r="Y34" s="141"/>
+      <c r="Z34" s="142"/>
+      <c r="AA34" s="143"/>
+      <c r="AB34" s="141"/>
+      <c r="AC34" s="142"/>
+      <c r="AD34" s="143"/>
+      <c r="AE34" s="141"/>
+      <c r="AF34" s="142"/>
+      <c r="AG34" s="143"/>
+      <c r="AH34" s="141"/>
+      <c r="AI34" s="142"/>
+      <c r="AJ34" s="143"/>
+      <c r="AK34" s="141"/>
+      <c r="AL34" s="142"/>
+      <c r="AM34" s="143"/>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B35" s="103"/>
       <c r="C35" s="102"/>
-      <c r="D35" s="136"/>
-      <c r="E35" s="137"/>
-      <c r="F35" s="138"/>
-      <c r="G35" s="136"/>
-      <c r="H35" s="137"/>
-      <c r="I35" s="138"/>
-      <c r="J35" s="136"/>
-      <c r="K35" s="137"/>
-      <c r="L35" s="138"/>
-      <c r="M35" s="136"/>
-      <c r="N35" s="137"/>
-      <c r="O35" s="138"/>
-      <c r="P35" s="136"/>
-      <c r="Q35" s="137"/>
-      <c r="R35" s="138"/>
-      <c r="S35" s="136"/>
-      <c r="T35" s="137"/>
-      <c r="U35" s="138"/>
-      <c r="V35" s="136"/>
-      <c r="W35" s="137"/>
-      <c r="X35" s="138"/>
-      <c r="Y35" s="136"/>
-      <c r="Z35" s="137"/>
-      <c r="AA35" s="138"/>
-      <c r="AB35" s="136"/>
-      <c r="AC35" s="137"/>
-      <c r="AD35" s="138"/>
-      <c r="AE35" s="136"/>
-      <c r="AF35" s="137"/>
-      <c r="AG35" s="138"/>
-      <c r="AH35" s="136"/>
-      <c r="AI35" s="137"/>
-      <c r="AJ35" s="138"/>
-      <c r="AK35" s="136"/>
-      <c r="AL35" s="137"/>
-      <c r="AM35" s="138"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="141"/>
+      <c r="H35" s="142"/>
+      <c r="I35" s="143"/>
+      <c r="J35" s="141"/>
+      <c r="K35" s="142"/>
+      <c r="L35" s="143"/>
+      <c r="M35" s="141"/>
+      <c r="N35" s="142"/>
+      <c r="O35" s="143"/>
+      <c r="P35" s="141"/>
+      <c r="Q35" s="142"/>
+      <c r="R35" s="143"/>
+      <c r="S35" s="141"/>
+      <c r="T35" s="142"/>
+      <c r="U35" s="143"/>
+      <c r="V35" s="141"/>
+      <c r="W35" s="142"/>
+      <c r="X35" s="143"/>
+      <c r="Y35" s="141"/>
+      <c r="Z35" s="142"/>
+      <c r="AA35" s="143"/>
+      <c r="AB35" s="141"/>
+      <c r="AC35" s="142"/>
+      <c r="AD35" s="143"/>
+      <c r="AE35" s="141"/>
+      <c r="AF35" s="142"/>
+      <c r="AG35" s="143"/>
+      <c r="AH35" s="141"/>
+      <c r="AI35" s="142"/>
+      <c r="AJ35" s="143"/>
+      <c r="AK35" s="141"/>
+      <c r="AL35" s="142"/>
+      <c r="AM35" s="143"/>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B36" s="103"/>
       <c r="C36" s="102"/>
-      <c r="D36" s="136"/>
-      <c r="E36" s="137"/>
-      <c r="F36" s="138"/>
-      <c r="G36" s="136"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="138"/>
-      <c r="J36" s="136"/>
-      <c r="K36" s="137"/>
-      <c r="L36" s="138"/>
-      <c r="M36" s="136"/>
-      <c r="N36" s="137"/>
-      <c r="O36" s="138"/>
-      <c r="P36" s="136"/>
-      <c r="Q36" s="137"/>
-      <c r="R36" s="138"/>
-      <c r="S36" s="136"/>
-      <c r="T36" s="137"/>
-      <c r="U36" s="138"/>
-      <c r="V36" s="136"/>
-      <c r="W36" s="137"/>
-      <c r="X36" s="138"/>
-      <c r="Y36" s="136"/>
-      <c r="Z36" s="137"/>
-      <c r="AA36" s="138"/>
-      <c r="AB36" s="136"/>
-      <c r="AC36" s="137"/>
-      <c r="AD36" s="138"/>
-      <c r="AE36" s="136"/>
-      <c r="AF36" s="137"/>
-      <c r="AG36" s="138"/>
-      <c r="AH36" s="136"/>
-      <c r="AI36" s="137"/>
-      <c r="AJ36" s="138"/>
-      <c r="AK36" s="136"/>
-      <c r="AL36" s="137"/>
-      <c r="AM36" s="138"/>
+      <c r="D36" s="141"/>
+      <c r="E36" s="142"/>
+      <c r="F36" s="143"/>
+      <c r="G36" s="141"/>
+      <c r="H36" s="142"/>
+      <c r="I36" s="143"/>
+      <c r="J36" s="141"/>
+      <c r="K36" s="142"/>
+      <c r="L36" s="143"/>
+      <c r="M36" s="141"/>
+      <c r="N36" s="142"/>
+      <c r="O36" s="143"/>
+      <c r="P36" s="141"/>
+      <c r="Q36" s="142"/>
+      <c r="R36" s="143"/>
+      <c r="S36" s="141"/>
+      <c r="T36" s="142"/>
+      <c r="U36" s="143"/>
+      <c r="V36" s="141"/>
+      <c r="W36" s="142"/>
+      <c r="X36" s="143"/>
+      <c r="Y36" s="141"/>
+      <c r="Z36" s="142"/>
+      <c r="AA36" s="143"/>
+      <c r="AB36" s="141"/>
+      <c r="AC36" s="142"/>
+      <c r="AD36" s="143"/>
+      <c r="AE36" s="141"/>
+      <c r="AF36" s="142"/>
+      <c r="AG36" s="143"/>
+      <c r="AH36" s="141"/>
+      <c r="AI36" s="142"/>
+      <c r="AJ36" s="143"/>
+      <c r="AK36" s="141"/>
+      <c r="AL36" s="142"/>
+      <c r="AM36" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="267">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="AK13:AM13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AB19:AD19"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AE25:AG25"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="AE27:AG27"/>
-    <mergeCell ref="AH27:AJ27"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AE26:AG26"/>
-    <mergeCell ref="AH26:AJ26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="AB29:AD29"/>
-    <mergeCell ref="AE29:AG29"/>
-    <mergeCell ref="AH29:AJ29"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="AB28:AD28"/>
-    <mergeCell ref="AE28:AG28"/>
-    <mergeCell ref="AH28:AJ28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="AE31:AG31"/>
-    <mergeCell ref="AH31:AJ31"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="AE30:AG30"/>
-    <mergeCell ref="AH30:AJ30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="AH33:AJ33"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="AB32:AD32"/>
-    <mergeCell ref="AE32:AG32"/>
-    <mergeCell ref="AH32:AJ32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="AK35:AM35"/>
+    <mergeCell ref="AK36:AM36"/>
+    <mergeCell ref="AK27:AM27"/>
+    <mergeCell ref="AK28:AM28"/>
+    <mergeCell ref="AK29:AM29"/>
+    <mergeCell ref="AK30:AM30"/>
+    <mergeCell ref="AK31:AM31"/>
+    <mergeCell ref="AK32:AM32"/>
+    <mergeCell ref="AK18:AM18"/>
+    <mergeCell ref="AK19:AM19"/>
+    <mergeCell ref="AK20:AM20"/>
+    <mergeCell ref="AK21:AM21"/>
+    <mergeCell ref="AK25:AM25"/>
+    <mergeCell ref="AK26:AM26"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AK14:AM14"/>
+    <mergeCell ref="AK15:AM15"/>
+    <mergeCell ref="AK16:AM16"/>
+    <mergeCell ref="AK17:AM17"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="AB36:AD36"/>
+    <mergeCell ref="AE36:AG36"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="AB33:AD33"/>
+    <mergeCell ref="AE33:AG33"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="AB31:AD31"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
     <mergeCell ref="AH36:AJ36"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D36:F36"/>
@@ -5070,82 +4976,173 @@
     <mergeCell ref="J35:L35"/>
     <mergeCell ref="M35:O35"/>
     <mergeCell ref="P35:R35"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="AB36:AD36"/>
-    <mergeCell ref="AE36:AG36"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="AB33:AD33"/>
-    <mergeCell ref="AE33:AG33"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="AB31:AD31"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="AK14:AM14"/>
-    <mergeCell ref="AK15:AM15"/>
-    <mergeCell ref="AK16:AM16"/>
-    <mergeCell ref="AK17:AM17"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AK18:AM18"/>
-    <mergeCell ref="AK19:AM19"/>
-    <mergeCell ref="AK20:AM20"/>
-    <mergeCell ref="AK21:AM21"/>
-    <mergeCell ref="AK25:AM25"/>
-    <mergeCell ref="AK26:AM26"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AK33:AM33"/>
-    <mergeCell ref="AK34:AM34"/>
-    <mergeCell ref="AK35:AM35"/>
-    <mergeCell ref="AK36:AM36"/>
-    <mergeCell ref="AK27:AM27"/>
-    <mergeCell ref="AK28:AM28"/>
-    <mergeCell ref="AK29:AM29"/>
-    <mergeCell ref="AK30:AM30"/>
-    <mergeCell ref="AK31:AM31"/>
-    <mergeCell ref="AK32:AM32"/>
+    <mergeCell ref="AH33:AJ33"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="AB32:AD32"/>
+    <mergeCell ref="AE32:AG32"/>
+    <mergeCell ref="AH32:AJ32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="AE31:AG31"/>
+    <mergeCell ref="AH31:AJ31"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="AE30:AG30"/>
+    <mergeCell ref="AH30:AJ30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="AB29:AD29"/>
+    <mergeCell ref="AE29:AG29"/>
+    <mergeCell ref="AH29:AJ29"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB28:AD28"/>
+    <mergeCell ref="AE28:AG28"/>
+    <mergeCell ref="AH28:AJ28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="AE27:AG27"/>
+    <mergeCell ref="AH27:AJ27"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AE26:AG26"/>
+    <mergeCell ref="AH26:AJ26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AE25:AG25"/>
+    <mergeCell ref="AH25:AJ25"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AD19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="AK13:AM13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D16:AM16">
@@ -5244,66 +5241,66 @@
   <sheetData>
     <row r="1" spans="1:48" s="111" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="108"/>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="145" t="s">
+      <c r="C1" s="153" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="147" t="s">
+      <c r="D1" s="135" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="148"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="147" t="s">
+      <c r="E1" s="136"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="135" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="148"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="147" t="s">
+      <c r="H1" s="136"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="135" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="148"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="147" t="s">
+      <c r="K1" s="136"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="135" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="148"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="147" t="s">
+      <c r="N1" s="136"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="135" t="s">
         <v>177</v>
       </c>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="147" t="s">
+      <c r="Q1" s="136"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="135" t="s">
         <v>178</v>
       </c>
-      <c r="T1" s="148"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="147" t="s">
+      <c r="T1" s="136"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="135" t="s">
         <v>206</v>
       </c>
-      <c r="W1" s="148"/>
-      <c r="X1" s="149"/>
-      <c r="Y1" s="147" t="s">
+      <c r="W1" s="136"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="135" t="s">
         <v>207</v>
       </c>
-      <c r="Z1" s="148"/>
-      <c r="AA1" s="149"/>
-      <c r="AB1" s="147" t="s">
+      <c r="Z1" s="136"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="135" t="s">
         <v>208</v>
       </c>
-      <c r="AC1" s="148"/>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="149"/>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="148"/>
-      <c r="AJ1" s="149"/>
-      <c r="AK1" s="147"/>
-      <c r="AL1" s="148"/>
-      <c r="AM1" s="149"/>
+      <c r="AC1" s="136"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="137"/>
+      <c r="AH1" s="135"/>
+      <c r="AI1" s="136"/>
+      <c r="AJ1" s="137"/>
+      <c r="AK1" s="135"/>
+      <c r="AL1" s="136"/>
+      <c r="AM1" s="137"/>
       <c r="AN1" s="123"/>
       <c r="AO1" s="123"/>
       <c r="AP1" s="123"/>
@@ -5316,8 +5313,8 @@
     </row>
     <row r="2" spans="1:48" s="127" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="109"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="146"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="154"/>
       <c r="D2" s="124" t="s">
         <v>179</v>
       </c>
@@ -5857,668 +5854,668 @@
       <c r="AM11" s="117"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="D12" s="136"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="138"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="143"/>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B13" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="150">
+      <c r="D13" s="144">
         <v>100</v>
       </c>
-      <c r="E13" s="151"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="142">
+      <c r="E13" s="145"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="138">
         <f>D16</f>
         <v>100</v>
       </c>
-      <c r="H13" s="143"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="142" t="e">
+      <c r="H13" s="139"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="138" t="e">
         <f>G16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="143"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="142" t="e">
+      <c r="K13" s="139"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="138" t="e">
         <f>J16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N13" s="143"/>
-      <c r="O13" s="144"/>
-      <c r="P13" s="142" t="e">
+      <c r="N13" s="139"/>
+      <c r="O13" s="140"/>
+      <c r="P13" s="138" t="e">
         <f>M16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q13" s="143"/>
-      <c r="R13" s="144"/>
-      <c r="S13" s="142" t="e">
+      <c r="Q13" s="139"/>
+      <c r="R13" s="140"/>
+      <c r="S13" s="138" t="e">
         <f>P16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T13" s="143"/>
-      <c r="U13" s="144"/>
-      <c r="V13" s="142"/>
-      <c r="W13" s="143"/>
-      <c r="X13" s="144"/>
-      <c r="Y13" s="142"/>
-      <c r="Z13" s="143"/>
-      <c r="AA13" s="144"/>
-      <c r="AB13" s="142"/>
-      <c r="AC13" s="143"/>
-      <c r="AD13" s="144"/>
-      <c r="AE13" s="142"/>
-      <c r="AF13" s="143"/>
-      <c r="AG13" s="144"/>
-      <c r="AH13" s="142"/>
-      <c r="AI13" s="143"/>
-      <c r="AJ13" s="144"/>
-      <c r="AK13" s="142"/>
-      <c r="AL13" s="143"/>
-      <c r="AM13" s="144"/>
+      <c r="T13" s="139"/>
+      <c r="U13" s="140"/>
+      <c r="V13" s="138"/>
+      <c r="W13" s="139"/>
+      <c r="X13" s="140"/>
+      <c r="Y13" s="138"/>
+      <c r="Z13" s="139"/>
+      <c r="AA13" s="140"/>
+      <c r="AB13" s="138"/>
+      <c r="AC13" s="139"/>
+      <c r="AD13" s="140"/>
+      <c r="AE13" s="138"/>
+      <c r="AF13" s="139"/>
+      <c r="AG13" s="140"/>
+      <c r="AH13" s="138"/>
+      <c r="AI13" s="139"/>
+      <c r="AJ13" s="140"/>
+      <c r="AK13" s="138"/>
+      <c r="AL13" s="139"/>
+      <c r="AM13" s="140"/>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B14" s="97" t="s">
         <v>182</v>
       </c>
-      <c r="D14" s="136">
+      <c r="D14" s="141">
         <f>D3*VLOOKUP($B$3,ENEMY,7)+D4*VLOOKUP($B$4,ENEMY,7)+D5*VLOOKUP($B$5,ENEMY,7)+D6*VLOOKUP($B$6,ENEMY,7)+D7*VLOOKUP($B$7,ENEMY,7)+D8*VLOOKUP($B$8,ENEMY,7)+D9*VLOOKUP($B$9,ENEMY,7)+D10*VLOOKUP($B$10,ENEMY,7)+D11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="137"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="136">
+      <c r="E14" s="142"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="141">
         <f>G3*H3*VLOOKUP($B$3,ENEMY,7)+G4*H4*VLOOKUP($B$4,ENEMY,7)+G5*H5*VLOOKUP($B$5,ENEMY,7)+G6*H6*VLOOKUP($B$6,ENEMY,7)+G7*H7*VLOOKUP($B$7,ENEMY,7)+G8*H8*VLOOKUP($B$8,ENEMY,7)+G9*H9*VLOOKUP($B$9,ENEMY,7)+G10*H10*VLOOKUP($B$10,ENEMY,7)+G11*H11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>60</v>
       </c>
-      <c r="H14" s="137"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="136">
+      <c r="H14" s="142"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="141">
         <f>J3*K3*VLOOKUP($B$3,ENEMY,7)+J4*K4*VLOOKUP($B$4,ENEMY,7)+J5*K5*VLOOKUP($B$5,ENEMY,7)+J6*K6*VLOOKUP($B$6,ENEMY,7)+J7*K7*VLOOKUP($B$7,ENEMY,7)+J8*K8*VLOOKUP($B$8,ENEMY,7)+J9*K9*VLOOKUP($B$9,ENEMY,7)+J10*K10*VLOOKUP($B$10,ENEMY,7)+J11*K11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>100</v>
       </c>
-      <c r="K14" s="137"/>
-      <c r="L14" s="138"/>
-      <c r="M14" s="136">
+      <c r="K14" s="142"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="141">
         <f>M3*N3*VLOOKUP($B$3,ENEMY,7)+M4*N4*VLOOKUP($B$4,ENEMY,7)+M5*N5*VLOOKUP($B$5,ENEMY,7)+M6*N6*VLOOKUP($B$6,ENEMY,7)+M7*N7*VLOOKUP($B$7,ENEMY,7)+M8*N8*VLOOKUP($B$8,ENEMY,7)+M9*N9*VLOOKUP($B$9,ENEMY,7)+M10*N10*VLOOKUP($B$10,ENEMY,7)+M11*N11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>75</v>
       </c>
-      <c r="N14" s="137"/>
-      <c r="O14" s="138"/>
-      <c r="P14" s="136">
+      <c r="N14" s="142"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="141">
         <f>P3*Q3*VLOOKUP($B$3,ENEMY,7)+P4*Q4*VLOOKUP($B$4,ENEMY,7)+P5*Q5*VLOOKUP($B$5,ENEMY,7)+P6*Q6*VLOOKUP($B$6,ENEMY,7)+P7*Q7*VLOOKUP($B$7,ENEMY,7)+P8*Q8*VLOOKUP($B$8,ENEMY,7)+P9*Q9*VLOOKUP($B$9,ENEMY,7)+P10*Q10*VLOOKUP($B$10,ENEMY,7)+P11*Q11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>75</v>
       </c>
-      <c r="Q14" s="137"/>
-      <c r="R14" s="138"/>
-      <c r="S14" s="136">
+      <c r="Q14" s="142"/>
+      <c r="R14" s="143"/>
+      <c r="S14" s="141">
         <f>S3*T3*VLOOKUP($B$3,ENEMY,7)+S4*T4*VLOOKUP($B$4,ENEMY,7)+S5*T5*VLOOKUP($B$5,ENEMY,7)+S6*T6*VLOOKUP($B$6,ENEMY,7)+S7*T7*VLOOKUP($B$7,ENEMY,7)+S8*T8*VLOOKUP($B$8,ENEMY,7)+S9*T9*VLOOKUP($B$9,ENEMY,7)+S10*T10*VLOOKUP($B$10,ENEMY,7)+S11*T11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>7.5</v>
       </c>
-      <c r="T14" s="137"/>
-      <c r="U14" s="138"/>
-      <c r="V14" s="136"/>
-      <c r="W14" s="137"/>
-      <c r="X14" s="138"/>
-      <c r="Y14" s="136"/>
-      <c r="Z14" s="137"/>
-      <c r="AA14" s="138"/>
-      <c r="AB14" s="136"/>
-      <c r="AC14" s="137"/>
-      <c r="AD14" s="138"/>
-      <c r="AE14" s="136"/>
-      <c r="AF14" s="137"/>
-      <c r="AG14" s="138"/>
-      <c r="AH14" s="136"/>
-      <c r="AI14" s="137"/>
-      <c r="AJ14" s="138"/>
-      <c r="AK14" s="136"/>
-      <c r="AL14" s="137"/>
-      <c r="AM14" s="138"/>
+      <c r="T14" s="142"/>
+      <c r="U14" s="143"/>
+      <c r="V14" s="141"/>
+      <c r="W14" s="142"/>
+      <c r="X14" s="143"/>
+      <c r="Y14" s="141"/>
+      <c r="Z14" s="142"/>
+      <c r="AA14" s="143"/>
+      <c r="AB14" s="141"/>
+      <c r="AC14" s="142"/>
+      <c r="AD14" s="143"/>
+      <c r="AE14" s="141"/>
+      <c r="AF14" s="142"/>
+      <c r="AG14" s="143"/>
+      <c r="AH14" s="141"/>
+      <c r="AI14" s="142"/>
+      <c r="AJ14" s="143"/>
+      <c r="AK14" s="141"/>
+      <c r="AL14" s="142"/>
+      <c r="AM14" s="143"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B15" s="97" t="s">
         <v>205</v>
       </c>
-      <c r="D15" s="136">
+      <c r="D15" s="141">
         <f>D26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+D27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+D28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+D29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+D30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+D31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+D32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+D33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+D34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
         <v>2.25</v>
       </c>
-      <c r="E15" s="137"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="136">
+      <c r="E15" s="142"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="141">
         <f>G26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+G27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+G28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+G29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+G30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+G31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+G32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+G33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+G34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="137"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="136">
+      <c r="H15" s="142"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="141">
         <f>J26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+J27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+J28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+J29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+J30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+J31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+J32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+J33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+J34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
         <v>6.25</v>
       </c>
-      <c r="K15" s="137"/>
-      <c r="L15" s="138"/>
-      <c r="M15" s="136">
+      <c r="K15" s="142"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="141">
         <f>M26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+M27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+M28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+M29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+M30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+M31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+M32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+M33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+M34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
         <v>4</v>
       </c>
-      <c r="N15" s="137"/>
-      <c r="O15" s="138"/>
-      <c r="P15" s="136">
+      <c r="N15" s="142"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="141">
         <f>P26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+P27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+P28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+P29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+P30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+P31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+P32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+P33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+P34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
         <v>2.25</v>
       </c>
-      <c r="Q15" s="137"/>
-      <c r="R15" s="138"/>
-      <c r="S15" s="136">
+      <c r="Q15" s="142"/>
+      <c r="R15" s="143"/>
+      <c r="S15" s="141">
         <f>S26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+S27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+S28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+S29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+S30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+S31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+S32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+S33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+S34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="137"/>
-      <c r="U15" s="138"/>
-      <c r="V15" s="136"/>
-      <c r="W15" s="137"/>
-      <c r="X15" s="138"/>
-      <c r="Y15" s="136"/>
-      <c r="Z15" s="137"/>
-      <c r="AA15" s="138"/>
-      <c r="AB15" s="136"/>
-      <c r="AC15" s="137"/>
-      <c r="AD15" s="138"/>
-      <c r="AE15" s="136"/>
-      <c r="AF15" s="137"/>
-      <c r="AG15" s="138"/>
-      <c r="AH15" s="136"/>
-      <c r="AI15" s="137"/>
-      <c r="AJ15" s="138"/>
-      <c r="AK15" s="136"/>
-      <c r="AL15" s="137"/>
-      <c r="AM15" s="138"/>
+      <c r="T15" s="142"/>
+      <c r="U15" s="143"/>
+      <c r="V15" s="141"/>
+      <c r="W15" s="142"/>
+      <c r="X15" s="143"/>
+      <c r="Y15" s="141"/>
+      <c r="Z15" s="142"/>
+      <c r="AA15" s="143"/>
+      <c r="AB15" s="141"/>
+      <c r="AC15" s="142"/>
+      <c r="AD15" s="143"/>
+      <c r="AE15" s="141"/>
+      <c r="AF15" s="142"/>
+      <c r="AG15" s="143"/>
+      <c r="AH15" s="141"/>
+      <c r="AI15" s="142"/>
+      <c r="AJ15" s="143"/>
+      <c r="AK15" s="141"/>
+      <c r="AL15" s="142"/>
+      <c r="AM15" s="143"/>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B16" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="D16" s="142">
+      <c r="D16" s="138">
         <f>D13-D14</f>
         <v>100</v>
       </c>
-      <c r="E16" s="143"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="142" t="e">
+      <c r="E16" s="139"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="138" t="e">
         <f>ROUND(G13-(G14/G15),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="143"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="142" t="e">
+      <c r="H16" s="139"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="138" t="e">
         <f t="shared" ref="J16" si="1">ROUND(J13-(J14/J15),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="143"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="142" t="e">
+      <c r="K16" s="139"/>
+      <c r="L16" s="140"/>
+      <c r="M16" s="138" t="e">
         <f t="shared" ref="M16" si="2">ROUND(M13-(M14/M15),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N16" s="143"/>
-      <c r="O16" s="144"/>
-      <c r="P16" s="142" t="e">
+      <c r="N16" s="139"/>
+      <c r="O16" s="140"/>
+      <c r="P16" s="138" t="e">
         <f t="shared" ref="P16" si="3">ROUND(P13-(P14/P15),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q16" s="143"/>
-      <c r="R16" s="144"/>
-      <c r="S16" s="142" t="e">
+      <c r="Q16" s="139"/>
+      <c r="R16" s="140"/>
+      <c r="S16" s="138" t="e">
         <f t="shared" ref="S16" si="4">ROUND(S13-(S14/S15),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T16" s="143"/>
-      <c r="U16" s="144"/>
-      <c r="V16" s="142"/>
-      <c r="W16" s="143"/>
-      <c r="X16" s="144"/>
-      <c r="Y16" s="142"/>
-      <c r="Z16" s="143"/>
-      <c r="AA16" s="144"/>
-      <c r="AB16" s="142"/>
-      <c r="AC16" s="143"/>
-      <c r="AD16" s="144"/>
-      <c r="AE16" s="142"/>
-      <c r="AF16" s="143"/>
-      <c r="AG16" s="144"/>
-      <c r="AH16" s="142"/>
-      <c r="AI16" s="143"/>
-      <c r="AJ16" s="144"/>
-      <c r="AK16" s="142"/>
-      <c r="AL16" s="143"/>
-      <c r="AM16" s="144"/>
+      <c r="T16" s="139"/>
+      <c r="U16" s="140"/>
+      <c r="V16" s="138"/>
+      <c r="W16" s="139"/>
+      <c r="X16" s="140"/>
+      <c r="Y16" s="138"/>
+      <c r="Z16" s="139"/>
+      <c r="AA16" s="140"/>
+      <c r="AB16" s="138"/>
+      <c r="AC16" s="139"/>
+      <c r="AD16" s="140"/>
+      <c r="AE16" s="138"/>
+      <c r="AF16" s="139"/>
+      <c r="AG16" s="140"/>
+      <c r="AH16" s="138"/>
+      <c r="AI16" s="139"/>
+      <c r="AJ16" s="140"/>
+      <c r="AK16" s="138"/>
+      <c r="AL16" s="139"/>
+      <c r="AM16" s="140"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C17" s="31"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="138"/>
-      <c r="J17" s="136"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="138"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="138"/>
-      <c r="P17" s="136"/>
-      <c r="Q17" s="137"/>
-      <c r="R17" s="138"/>
-      <c r="S17" s="136"/>
-      <c r="T17" s="137"/>
-      <c r="U17" s="138"/>
-      <c r="V17" s="136"/>
-      <c r="W17" s="137"/>
-      <c r="X17" s="138"/>
-      <c r="Y17" s="136"/>
-      <c r="Z17" s="137"/>
-      <c r="AA17" s="138"/>
-      <c r="AB17" s="136"/>
-      <c r="AC17" s="137"/>
-      <c r="AD17" s="138"/>
-      <c r="AE17" s="136"/>
-      <c r="AF17" s="137"/>
-      <c r="AG17" s="138"/>
-      <c r="AH17" s="136"/>
-      <c r="AI17" s="137"/>
-      <c r="AJ17" s="138"/>
-      <c r="AK17" s="136"/>
-      <c r="AL17" s="137"/>
-      <c r="AM17" s="138"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="141"/>
+      <c r="N17" s="142"/>
+      <c r="O17" s="143"/>
+      <c r="P17" s="141"/>
+      <c r="Q17" s="142"/>
+      <c r="R17" s="143"/>
+      <c r="S17" s="141"/>
+      <c r="T17" s="142"/>
+      <c r="U17" s="143"/>
+      <c r="V17" s="141"/>
+      <c r="W17" s="142"/>
+      <c r="X17" s="143"/>
+      <c r="Y17" s="141"/>
+      <c r="Z17" s="142"/>
+      <c r="AA17" s="143"/>
+      <c r="AB17" s="141"/>
+      <c r="AC17" s="142"/>
+      <c r="AD17" s="143"/>
+      <c r="AE17" s="141"/>
+      <c r="AF17" s="142"/>
+      <c r="AG17" s="143"/>
+      <c r="AH17" s="141"/>
+      <c r="AI17" s="142"/>
+      <c r="AJ17" s="143"/>
+      <c r="AK17" s="141"/>
+      <c r="AL17" s="142"/>
+      <c r="AM17" s="143"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B18" s="95" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="133">
+      <c r="D18" s="147">
         <f>Tower!I3*2+Tower!I3/2</f>
         <v>225</v>
       </c>
-      <c r="E18" s="134"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="133">
+      <c r="E18" s="148"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="147">
         <f>D22</f>
-        <v>25</v>
-      </c>
-      <c r="H18" s="134"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="133">
+        <v>35</v>
+      </c>
+      <c r="H18" s="148"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="147">
         <f t="shared" ref="J18" si="5">G22</f>
+        <v>41</v>
+      </c>
+      <c r="K18" s="148"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="147">
+        <f t="shared" ref="M18" si="6">J22</f>
         <v>21</v>
       </c>
-      <c r="K18" s="134"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="133">
-        <f t="shared" ref="M18" si="6">J22</f>
-        <v>1</v>
-      </c>
-      <c r="N18" s="134"/>
-      <c r="O18" s="135"/>
-      <c r="P18" s="133">
+      <c r="N18" s="148"/>
+      <c r="O18" s="149"/>
+      <c r="P18" s="147">
         <f t="shared" ref="P18" si="7">M22</f>
-        <v>-109</v>
-      </c>
-      <c r="Q18" s="134"/>
-      <c r="R18" s="135"/>
-      <c r="S18" s="133">
+        <v>-74</v>
+      </c>
+      <c r="Q18" s="148"/>
+      <c r="R18" s="149"/>
+      <c r="S18" s="147">
         <f t="shared" ref="S18" si="8">P22</f>
-        <v>-89</v>
-      </c>
-      <c r="T18" s="134"/>
-      <c r="U18" s="135"/>
-      <c r="V18" s="133">
+        <v>-54</v>
+      </c>
+      <c r="T18" s="148"/>
+      <c r="U18" s="149"/>
+      <c r="V18" s="147">
         <f t="shared" ref="V18" si="9">S22</f>
-        <v>-69</v>
-      </c>
-      <c r="W18" s="134"/>
-      <c r="X18" s="135"/>
-      <c r="Y18" s="133">
+        <v>-34</v>
+      </c>
+      <c r="W18" s="148"/>
+      <c r="X18" s="149"/>
+      <c r="Y18" s="147">
         <f t="shared" ref="Y18" si="10">V22</f>
-        <v>-69</v>
-      </c>
-      <c r="Z18" s="134"/>
-      <c r="AA18" s="135"/>
-      <c r="AB18" s="133">
+        <v>-34</v>
+      </c>
+      <c r="Z18" s="148"/>
+      <c r="AA18" s="149"/>
+      <c r="AB18" s="147">
         <f t="shared" ref="AB18" si="11">Y22</f>
-        <v>-69</v>
-      </c>
-      <c r="AC18" s="134"/>
-      <c r="AD18" s="135"/>
-      <c r="AE18" s="133">
+        <v>-34</v>
+      </c>
+      <c r="AC18" s="148"/>
+      <c r="AD18" s="149"/>
+      <c r="AE18" s="147">
         <f t="shared" ref="AE18" si="12">AB22</f>
-        <v>-69</v>
-      </c>
-      <c r="AF18" s="134"/>
-      <c r="AG18" s="135"/>
-      <c r="AH18" s="133">
+        <v>-34</v>
+      </c>
+      <c r="AF18" s="148"/>
+      <c r="AG18" s="149"/>
+      <c r="AH18" s="147">
         <f t="shared" ref="AH18" si="13">AE22</f>
-        <v>-69</v>
-      </c>
-      <c r="AI18" s="134"/>
-      <c r="AJ18" s="135"/>
-      <c r="AK18" s="133">
+        <v>-34</v>
+      </c>
+      <c r="AI18" s="148"/>
+      <c r="AJ18" s="149"/>
+      <c r="AK18" s="147">
         <f t="shared" ref="AK18" si="14">AH22</f>
-        <v>-69</v>
-      </c>
-      <c r="AL18" s="134"/>
-      <c r="AM18" s="135"/>
+        <v>-34</v>
+      </c>
+      <c r="AL18" s="148"/>
+      <c r="AM18" s="149"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B19" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="D19" s="139">
+      <c r="D19" s="150">
         <f>D26*VLOOKUP($B$26,TOWER,9)+D27*VLOOKUP($B$27,TOWER,9)+D28*VLOOKUP($B$28,TOWER,9)+D29*VLOOKUP($B$29,TOWER,9)+D30*VLOOKUP($B$30,TOWER,9)+D31*VLOOKUP($B$31,TOWER,9)+D32*VLOOKUP($B$32,TOWER,9)+D33*VLOOKUP($B$33,TOWER,9)+D34*VLOOKUP($B$34,TOWER,9)</f>
         <v>100</v>
       </c>
-      <c r="E19" s="140"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="139">
+      <c r="E19" s="151"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="150">
         <f>G26*VLOOKUP($B$26,TOWER,9)+G27*VLOOKUP($B$27,TOWER,9)+G28*VLOOKUP($B$28,TOWER,9)+G29*VLOOKUP($B$29,TOWER,9)+G30*VLOOKUP($B$30,TOWER,9)+G31*VLOOKUP($B$31,TOWER,9)+G32*VLOOKUP($B$32,TOWER,9)+G33*VLOOKUP($B$33,TOWER,9)+G34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="140"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="139">
+      <c r="H19" s="151"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="150">
         <f>J26*VLOOKUP($B$26,TOWER,9)+J27*VLOOKUP($B$27,TOWER,9)+J28*VLOOKUP($B$28,TOWER,9)+J29*VLOOKUP($B$29,TOWER,9)+J30*VLOOKUP($B$30,TOWER,9)+J31*VLOOKUP($B$31,TOWER,9)+J32*VLOOKUP($B$32,TOWER,9)+J33*VLOOKUP($B$33,TOWER,9)+J34*VLOOKUP($B$34,TOWER,9)</f>
         <v>180</v>
       </c>
-      <c r="K19" s="140"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="139">
+      <c r="K19" s="151"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="150">
         <f>M26*VLOOKUP($B$26,TOWER,9)+M27*VLOOKUP($B$27,TOWER,9)+M28*VLOOKUP($B$28,TOWER,9)+M29*VLOOKUP($B$29,TOWER,9)+M30*VLOOKUP($B$30,TOWER,9)+M31*VLOOKUP($B$31,TOWER,9)+M32*VLOOKUP($B$32,TOWER,9)+M33*VLOOKUP($B$33,TOWER,9)+M34*VLOOKUP($B$34,TOWER,9)</f>
         <v>80</v>
       </c>
-      <c r="N19" s="140"/>
-      <c r="O19" s="141"/>
-      <c r="P19" s="139">
+      <c r="N19" s="151"/>
+      <c r="O19" s="152"/>
+      <c r="P19" s="150">
         <f>P26*VLOOKUP($B$26,TOWER,9)+P27*VLOOKUP($B$27,TOWER,9)+P28*VLOOKUP($B$28,TOWER,9)+P29*VLOOKUP($B$29,TOWER,9)+P30*VLOOKUP($B$30,TOWER,9)+P31*VLOOKUP($B$31,TOWER,9)+P32*VLOOKUP($B$32,TOWER,9)+P33*VLOOKUP($B$33,TOWER,9)+P34*VLOOKUP($B$34,TOWER,9)</f>
         <v>100</v>
       </c>
-      <c r="Q19" s="140"/>
-      <c r="R19" s="141"/>
-      <c r="S19" s="139">
+      <c r="Q19" s="151"/>
+      <c r="R19" s="152"/>
+      <c r="S19" s="150">
         <f>S26*VLOOKUP($B$26,TOWER,9)+S27*VLOOKUP($B$27,TOWER,9)+S28*VLOOKUP($B$28,TOWER,9)+S29*VLOOKUP($B$29,TOWER,9)+S30*VLOOKUP($B$30,TOWER,9)+S31*VLOOKUP($B$31,TOWER,9)+S32*VLOOKUP($B$32,TOWER,9)+S33*VLOOKUP($B$33,TOWER,9)+S34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="T19" s="140"/>
-      <c r="U19" s="141"/>
-      <c r="V19" s="139">
+      <c r="T19" s="151"/>
+      <c r="U19" s="152"/>
+      <c r="V19" s="150">
         <f>V26*VLOOKUP($B$26,TOWER,9)+V27*VLOOKUP($B$27,TOWER,9)+V28*VLOOKUP($B$28,TOWER,9)+V29*VLOOKUP($B$29,TOWER,9)+V30*VLOOKUP($B$30,TOWER,9)+V31*VLOOKUP($B$31,TOWER,9)+V32*VLOOKUP($B$32,TOWER,9)+V33*VLOOKUP($B$33,TOWER,9)+V34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="W19" s="140"/>
-      <c r="X19" s="141"/>
-      <c r="Y19" s="139">
+      <c r="W19" s="151"/>
+      <c r="X19" s="152"/>
+      <c r="Y19" s="150">
         <f>Y26*VLOOKUP($B$26,TOWER,9)+Y27*VLOOKUP($B$27,TOWER,9)+Y28*VLOOKUP($B$28,TOWER,9)+Y29*VLOOKUP($B$29,TOWER,9)+Y30*VLOOKUP($B$30,TOWER,9)+Y31*VLOOKUP($B$31,TOWER,9)+Y32*VLOOKUP($B$32,TOWER,9)+Y33*VLOOKUP($B$33,TOWER,9)+Y34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="Z19" s="140"/>
-      <c r="AA19" s="141"/>
-      <c r="AB19" s="139">
+      <c r="Z19" s="151"/>
+      <c r="AA19" s="152"/>
+      <c r="AB19" s="150">
         <f>AB26*VLOOKUP($B$26,TOWER,9)+AB27*VLOOKUP($B$27,TOWER,9)+AB28*VLOOKUP($B$28,TOWER,9)+AB29*VLOOKUP($B$29,TOWER,9)+AB30*VLOOKUP($B$30,TOWER,9)+AB31*VLOOKUP($B$31,TOWER,9)+AB32*VLOOKUP($B$32,TOWER,9)+AB33*VLOOKUP($B$33,TOWER,9)+AB34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="AC19" s="140"/>
-      <c r="AD19" s="141"/>
-      <c r="AE19" s="139">
+      <c r="AC19" s="151"/>
+      <c r="AD19" s="152"/>
+      <c r="AE19" s="150">
         <f>AE26*VLOOKUP($B$26,TOWER,9)+AE27*VLOOKUP($B$27,TOWER,9)+AE28*VLOOKUP($B$28,TOWER,9)+AE29*VLOOKUP($B$29,TOWER,9)+AE30*VLOOKUP($B$30,TOWER,9)+AE31*VLOOKUP($B$31,TOWER,9)+AE32*VLOOKUP($B$32,TOWER,9)+AE33*VLOOKUP($B$33,TOWER,9)+AE34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="AF19" s="140"/>
-      <c r="AG19" s="141"/>
-      <c r="AH19" s="139">
+      <c r="AF19" s="151"/>
+      <c r="AG19" s="152"/>
+      <c r="AH19" s="150">
         <f>AH26*VLOOKUP($B$26,TOWER,9)+AH27*VLOOKUP($B$27,TOWER,9)+AH28*VLOOKUP($B$28,TOWER,9)+AH29*VLOOKUP($B$29,TOWER,9)+AH30*VLOOKUP($B$30,TOWER,9)+AH31*VLOOKUP($B$31,TOWER,9)+AH32*VLOOKUP($B$32,TOWER,9)+AH33*VLOOKUP($B$33,TOWER,9)+AH34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="AI19" s="140"/>
-      <c r="AJ19" s="141"/>
-      <c r="AK19" s="139">
+      <c r="AI19" s="151"/>
+      <c r="AJ19" s="152"/>
+      <c r="AK19" s="150">
         <f>AK26*VLOOKUP($B$26,TOWER,9)+AK27*VLOOKUP($B$27,TOWER,9)+AK28*VLOOKUP($B$28,TOWER,9)+AK29*VLOOKUP($B$29,TOWER,9)+AK30*VLOOKUP($B$30,TOWER,9)+AK31*VLOOKUP($B$31,TOWER,9)+AK32*VLOOKUP($B$32,TOWER,9)+AK33*VLOOKUP($B$33,TOWER,9)+AK34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="AL19" s="140"/>
-      <c r="AM19" s="141"/>
+      <c r="AL19" s="151"/>
+      <c r="AM19" s="152"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B20" s="97" t="s">
         <v>211</v>
       </c>
-      <c r="D20" s="133">
+      <c r="D20" s="147">
         <f>SUM(HLOOKUP(E37,FSTATS,5,FALSE)*D37,HLOOKUP(E38,FSTATS,5,FALSE)*D38,HLOOKUP(E39,FSTATS,5,FALSE)*D39)</f>
-        <v>100</v>
-      </c>
-      <c r="E20" s="134"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="133">
+        <v>90</v>
+      </c>
+      <c r="E20" s="148"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="147">
         <f>SUM(HLOOKUP(H37,FSTATS,5,FALSE)*G37,HLOOKUP(H38,FSTATS,5,FALSE)*G38,HLOOKUP(H39,FSTATS,5,FALSE)*G39)</f>
-        <v>100</v>
-      </c>
-      <c r="H20" s="134"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="133">
+        <v>90</v>
+      </c>
+      <c r="H20" s="148"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="147">
         <f>SUM(HLOOKUP(K37,FSTATS,5,FALSE)*J37,HLOOKUP(K38,FSTATS,5,FALSE)*J38,HLOOKUP(K39,FSTATS,5,FALSE)*J39)</f>
         <v>0</v>
       </c>
-      <c r="K20" s="134"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="133">
+      <c r="K20" s="148"/>
+      <c r="L20" s="149"/>
+      <c r="M20" s="147">
         <f>SUM(HLOOKUP(N37,FSTATS,5,FALSE)*M37,HLOOKUP(N38,FSTATS,5,FALSE)*M38,HLOOKUP(N39,FSTATS,5,FALSE)*M39)</f>
-        <v>150</v>
-      </c>
-      <c r="N20" s="134"/>
-      <c r="O20" s="135"/>
-      <c r="P20" s="133">
+        <v>135</v>
+      </c>
+      <c r="N20" s="148"/>
+      <c r="O20" s="149"/>
+      <c r="P20" s="147">
         <f>SUM(HLOOKUP(Q37,FSTATS,5,FALSE)*P37,HLOOKUP(Q38,FSTATS,5,FALSE)*P38,HLOOKUP(Q39,FSTATS,5,FALSE)*P39)</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="134"/>
-      <c r="R20" s="135"/>
-      <c r="S20" s="133">
+      <c r="Q20" s="148"/>
+      <c r="R20" s="149"/>
+      <c r="S20" s="147">
         <f>SUM(HLOOKUP(T37,FSTATS,5,FALSE)*S37,HLOOKUP(T38,FSTATS,5,FALSE)*S38,HLOOKUP(T39,FSTATS,5,FALSE)*S39)</f>
         <v>0</v>
       </c>
-      <c r="T20" s="134"/>
-      <c r="U20" s="135"/>
-      <c r="V20" s="133">
+      <c r="T20" s="148"/>
+      <c r="U20" s="149"/>
+      <c r="V20" s="147">
         <f>SUM(HLOOKUP(W37,FSTATS,5,FALSE)*V37,HLOOKUP(W38,FSTATS,5,FALSE)*V38,HLOOKUP(W39,FSTATS,5,FALSE)*V39)</f>
         <v>0</v>
       </c>
-      <c r="W20" s="134"/>
-      <c r="X20" s="135"/>
-      <c r="Y20" s="133">
+      <c r="W20" s="148"/>
+      <c r="X20" s="149"/>
+      <c r="Y20" s="147">
         <f>SUM(HLOOKUP(Z37,FSTATS,5,FALSE)*Y37,HLOOKUP(Z38,FSTATS,5,FALSE)*Y38,HLOOKUP(Z39,FSTATS,5,FALSE)*Y39)</f>
         <v>0</v>
       </c>
-      <c r="Z20" s="134"/>
-      <c r="AA20" s="135"/>
-      <c r="AB20" s="133">
+      <c r="Z20" s="148"/>
+      <c r="AA20" s="149"/>
+      <c r="AB20" s="147">
         <f>SUM(HLOOKUP(AC37,FSTATS,5,FALSE)*AB37,HLOOKUP(AC38,FSTATS,5,FALSE)*AB38,HLOOKUP(AC39,FSTATS,5,FALSE)*AB39)</f>
         <v>0</v>
       </c>
-      <c r="AC20" s="134"/>
-      <c r="AD20" s="135"/>
-      <c r="AE20" s="133">
+      <c r="AC20" s="148"/>
+      <c r="AD20" s="149"/>
+      <c r="AE20" s="147">
         <f>SUM(HLOOKUP(AF37,FSTATS,5,FALSE)*AE37,HLOOKUP(AF38,FSTATS,5,FALSE)*AE38,HLOOKUP(AF39,FSTATS,5,FALSE)*AE39)</f>
         <v>0</v>
       </c>
-      <c r="AF20" s="134"/>
-      <c r="AG20" s="135"/>
-      <c r="AH20" s="133">
+      <c r="AF20" s="148"/>
+      <c r="AG20" s="149"/>
+      <c r="AH20" s="147">
         <f>SUM(HLOOKUP(AI37,FSTATS,5,FALSE)*AH37,HLOOKUP(AI38,FSTATS,5,FALSE)*AH38,HLOOKUP(AI39,FSTATS,5,FALSE)*AH39)</f>
         <v>0</v>
       </c>
-      <c r="AI20" s="134"/>
-      <c r="AJ20" s="135"/>
-      <c r="AK20" s="133">
+      <c r="AI20" s="148"/>
+      <c r="AJ20" s="149"/>
+      <c r="AK20" s="147">
         <f>SUM(HLOOKUP(AL37,FSTATS,5,FALSE)*AK37,HLOOKUP(AL38,FSTATS,5,FALSE)*AK38,HLOOKUP(AL39,FSTATS,5,FALSE)*AK39)</f>
         <v>0</v>
       </c>
-      <c r="AL20" s="134"/>
-      <c r="AM20" s="135"/>
+      <c r="AL20" s="148"/>
+      <c r="AM20" s="149"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B21" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="D21" s="139">
+      <c r="D21" s="150">
         <f>D3*VLOOKUP($B$3,ENEMY,8)+D4*VLOOKUP($B$4,ENEMY,8)+D5*VLOOKUP($B$5,ENEMY,8)+D6*VLOOKUP($B$6,ENEMY,8)+D7*VLOOKUP($B$7,ENEMY,8)+D8*VLOOKUP($B$8,ENEMY,8)+D9*VLOOKUP($B$9,ENEMY,8)+D10*VLOOKUP($B$10,ENEMY,8)+D11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="140"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="139">
+      <c r="E21" s="151"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="150">
         <f>G3*H3*VLOOKUP($B$3,ENEMY,8)+G4*H4*VLOOKUP($B$4,ENEMY,8)+G5*H5*VLOOKUP($B$5,ENEMY,8)+G6*H6*VLOOKUP($B$6,ENEMY,8)+G7*H7*VLOOKUP($B$7,ENEMY,8)+G8*H8*VLOOKUP($B$8,ENEMY,8)+G9*H9*VLOOKUP($B$9,ENEMY,8)+G10*H10*VLOOKUP($B$10,ENEMY,8)+G11*H11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>96</v>
       </c>
-      <c r="H21" s="140"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="139">
+      <c r="H21" s="151"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="150">
         <f>J3*K3*VLOOKUP($B$3,ENEMY,8)+J4*K4*VLOOKUP($B$4,ENEMY,8)+J5*K5*VLOOKUP($B$5,ENEMY,8)+J6*K6*VLOOKUP($B$6,ENEMY,8)+J7*K7*VLOOKUP($B$7,ENEMY,8)+J8*K8*VLOOKUP($B$8,ENEMY,8)+J9*K9*VLOOKUP($B$9,ENEMY,8)+J10*K10*VLOOKUP($B$10,ENEMY,8)+J11*K11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>160</v>
       </c>
-      <c r="K21" s="140"/>
-      <c r="L21" s="141"/>
-      <c r="M21" s="139">
+      <c r="K21" s="151"/>
+      <c r="L21" s="152"/>
+      <c r="M21" s="150">
         <f>M3*N3*VLOOKUP($B$3,ENEMY,8)+M4*N4*VLOOKUP($B$4,ENEMY,8)+M5*N5*VLOOKUP($B$5,ENEMY,8)+M6*N6*VLOOKUP($B$6,ENEMY,8)+M7*N7*VLOOKUP($B$7,ENEMY,8)+M8*N8*VLOOKUP($B$8,ENEMY,8)+M9*N9*VLOOKUP($B$9,ENEMY,8)+M10*N10*VLOOKUP($B$10,ENEMY,8)+M11*N11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>120</v>
       </c>
-      <c r="N21" s="140"/>
-      <c r="O21" s="141"/>
-      <c r="P21" s="139">
+      <c r="N21" s="151"/>
+      <c r="O21" s="152"/>
+      <c r="P21" s="150">
         <f>P3*Q3*VLOOKUP($B$3,ENEMY,8)+P4*Q4*VLOOKUP($B$4,ENEMY,8)+P5*Q5*VLOOKUP($B$5,ENEMY,8)+P6*Q6*VLOOKUP($B$6,ENEMY,8)+P7*Q7*VLOOKUP($B$7,ENEMY,8)+P8*Q8*VLOOKUP($B$8,ENEMY,8)+P9*Q9*VLOOKUP($B$9,ENEMY,8)+P10*Q10*VLOOKUP($B$10,ENEMY,8)+P11*Q11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>120</v>
       </c>
-      <c r="Q21" s="140"/>
-      <c r="R21" s="141"/>
-      <c r="S21" s="139">
+      <c r="Q21" s="151"/>
+      <c r="R21" s="152"/>
+      <c r="S21" s="150">
         <f>S3*T3*VLOOKUP($B$3,ENEMY,8)+S4*T4*VLOOKUP($B$4,ENEMY,8)+S5*T5*VLOOKUP($B$5,ENEMY,8)+S6*T6*VLOOKUP($B$6,ENEMY,8)+S7*T7*VLOOKUP($B$7,ENEMY,8)+S8*T8*VLOOKUP($B$8,ENEMY,8)+S9*T9*VLOOKUP($B$9,ENEMY,8)+S10*T10*VLOOKUP($B$10,ENEMY,8)+S11*T11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>20</v>
       </c>
-      <c r="T21" s="140"/>
-      <c r="U21" s="141"/>
-      <c r="V21" s="139">
+      <c r="T21" s="151"/>
+      <c r="U21" s="152"/>
+      <c r="V21" s="150">
         <f>V3*W3*VLOOKUP($B$3,ENEMY,8)+V4*W4*VLOOKUP($B$4,ENEMY,8)+V5*W5*VLOOKUP($B$5,ENEMY,8)+V6*W6*VLOOKUP($B$6,ENEMY,8)+V7*W7*VLOOKUP($B$7,ENEMY,8)+V8*W8*VLOOKUP($B$8,ENEMY,8)+V9*W9*VLOOKUP($B$9,ENEMY,8)+V10*W10*VLOOKUP($B$10,ENEMY,8)+V11*W11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="W21" s="140"/>
-      <c r="X21" s="141"/>
-      <c r="Y21" s="139">
+      <c r="W21" s="151"/>
+      <c r="X21" s="152"/>
+      <c r="Y21" s="150">
         <f>Y3*Z3*VLOOKUP($B$3,ENEMY,8)+Y4*Z4*VLOOKUP($B$4,ENEMY,8)+Y5*Z5*VLOOKUP($B$5,ENEMY,8)+Y6*Z6*VLOOKUP($B$6,ENEMY,8)+Y7*Z7*VLOOKUP($B$7,ENEMY,8)+Y8*Z8*VLOOKUP($B$8,ENEMY,8)+Y9*Z9*VLOOKUP($B$9,ENEMY,8)+Y10*Z10*VLOOKUP($B$10,ENEMY,8)+Y11*Z11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="Z21" s="140"/>
-      <c r="AA21" s="141"/>
-      <c r="AB21" s="139">
+      <c r="Z21" s="151"/>
+      <c r="AA21" s="152"/>
+      <c r="AB21" s="150">
         <f>AB3*AC3*VLOOKUP($B$3,ENEMY,8)+AB4*AC4*VLOOKUP($B$4,ENEMY,8)+AB5*AC5*VLOOKUP($B$5,ENEMY,8)+AB6*AC6*VLOOKUP($B$6,ENEMY,8)+AB7*AC7*VLOOKUP($B$7,ENEMY,8)+AB8*AC8*VLOOKUP($B$8,ENEMY,8)+AB9*AC9*VLOOKUP($B$9,ENEMY,8)+AB10*AC10*VLOOKUP($B$10,ENEMY,8)+AB11*AC11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="AC21" s="140"/>
-      <c r="AD21" s="141"/>
-      <c r="AE21" s="139">
+      <c r="AC21" s="151"/>
+      <c r="AD21" s="152"/>
+      <c r="AE21" s="150">
         <f>AE3*AF3*VLOOKUP($B$3,ENEMY,8)+AE4*AF4*VLOOKUP($B$4,ENEMY,8)+AE5*AF5*VLOOKUP($B$5,ENEMY,8)+AE6*AF6*VLOOKUP($B$6,ENEMY,8)+AE7*AF7*VLOOKUP($B$7,ENEMY,8)+AE8*AF8*VLOOKUP($B$8,ENEMY,8)+AE9*AF9*VLOOKUP($B$9,ENEMY,8)+AE10*AF10*VLOOKUP($B$10,ENEMY,8)+AE11*AF11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="AF21" s="140"/>
-      <c r="AG21" s="141"/>
-      <c r="AH21" s="139">
+      <c r="AF21" s="151"/>
+      <c r="AG21" s="152"/>
+      <c r="AH21" s="150">
         <f>AH3*AI3*VLOOKUP($B$3,ENEMY,8)+AH4*AI4*VLOOKUP($B$4,ENEMY,8)+AH5*AI5*VLOOKUP($B$5,ENEMY,8)+AH6*AI6*VLOOKUP($B$6,ENEMY,8)+AH7*AI7*VLOOKUP($B$7,ENEMY,8)+AH8*AI8*VLOOKUP($B$8,ENEMY,8)+AH9*AI9*VLOOKUP($B$9,ENEMY,8)+AH10*AI10*VLOOKUP($B$10,ENEMY,8)+AH11*AI11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="AI21" s="140"/>
-      <c r="AJ21" s="141"/>
-      <c r="AK21" s="139">
+      <c r="AI21" s="151"/>
+      <c r="AJ21" s="152"/>
+      <c r="AK21" s="150">
         <f>AK3*AL3*VLOOKUP($B$3,ENEMY,8)+AK4*AL4*VLOOKUP($B$4,ENEMY,8)+AK5*AL5*VLOOKUP($B$5,ENEMY,8)+AK6*AL6*VLOOKUP($B$6,ENEMY,8)+AK7*AL7*VLOOKUP($B$7,ENEMY,8)+AK8*AL8*VLOOKUP($B$8,ENEMY,8)+AK9*AL9*VLOOKUP($B$9,ENEMY,8)+AK10*AL10*VLOOKUP($B$10,ENEMY,8)+AK11*AL11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="AL21" s="140"/>
-      <c r="AM21" s="141"/>
+      <c r="AL21" s="151"/>
+      <c r="AM21" s="152"/>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B22" s="97" t="s">
         <v>187</v>
       </c>
-      <c r="D22" s="133">
+      <c r="D22" s="147">
         <f>D18-(D19+D20)+D21</f>
-        <v>25</v>
-      </c>
-      <c r="E22" s="134"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="133">
+        <v>35</v>
+      </c>
+      <c r="E22" s="148"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="147">
         <f>G18-(G19+G20)+G21</f>
+        <v>41</v>
+      </c>
+      <c r="H22" s="148"/>
+      <c r="I22" s="149"/>
+      <c r="J22" s="147">
+        <f t="shared" ref="J22" si="15">J18-(J19+J20)+J21</f>
         <v>21</v>
       </c>
-      <c r="H22" s="134"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="133">
-        <f t="shared" ref="J22" si="15">J18-(J19+J20)+J21</f>
-        <v>1</v>
-      </c>
-      <c r="K22" s="134"/>
-      <c r="L22" s="135"/>
-      <c r="M22" s="133">
+      <c r="K22" s="148"/>
+      <c r="L22" s="149"/>
+      <c r="M22" s="147">
         <f t="shared" ref="M22" si="16">M18-(M19+M20)+M21</f>
-        <v>-109</v>
-      </c>
-      <c r="N22" s="134"/>
-      <c r="O22" s="135"/>
-      <c r="P22" s="133">
+        <v>-74</v>
+      </c>
+      <c r="N22" s="148"/>
+      <c r="O22" s="149"/>
+      <c r="P22" s="147">
         <f t="shared" ref="P22" si="17">P18-(P19+P20)+P21</f>
-        <v>-89</v>
-      </c>
-      <c r="Q22" s="134"/>
-      <c r="R22" s="135"/>
-      <c r="S22" s="133">
+        <v>-54</v>
+      </c>
+      <c r="Q22" s="148"/>
+      <c r="R22" s="149"/>
+      <c r="S22" s="147">
         <f t="shared" ref="S22" si="18">S18-(S19+S20)+S21</f>
-        <v>-69</v>
-      </c>
-      <c r="T22" s="134"/>
-      <c r="U22" s="135"/>
-      <c r="V22" s="133">
+        <v>-34</v>
+      </c>
+      <c r="T22" s="148"/>
+      <c r="U22" s="149"/>
+      <c r="V22" s="147">
         <f t="shared" ref="V22" si="19">V18-(V19+V20)+V21</f>
-        <v>-69</v>
-      </c>
-      <c r="W22" s="134"/>
-      <c r="X22" s="135"/>
-      <c r="Y22" s="133">
+        <v>-34</v>
+      </c>
+      <c r="W22" s="148"/>
+      <c r="X22" s="149"/>
+      <c r="Y22" s="147">
         <f t="shared" ref="Y22" si="20">Y18-(Y19+Y20)+Y21</f>
-        <v>-69</v>
-      </c>
-      <c r="Z22" s="134"/>
-      <c r="AA22" s="135"/>
-      <c r="AB22" s="133">
+        <v>-34</v>
+      </c>
+      <c r="Z22" s="148"/>
+      <c r="AA22" s="149"/>
+      <c r="AB22" s="147">
         <f t="shared" ref="AB22" si="21">AB18-(AB19+AB20)+AB21</f>
-        <v>-69</v>
-      </c>
-      <c r="AC22" s="134"/>
-      <c r="AD22" s="135"/>
-      <c r="AE22" s="133">
+        <v>-34</v>
+      </c>
+      <c r="AC22" s="148"/>
+      <c r="AD22" s="149"/>
+      <c r="AE22" s="147">
         <f t="shared" ref="AE22" si="22">AE18-(AE19+AE20)+AE21</f>
-        <v>-69</v>
-      </c>
-      <c r="AF22" s="134"/>
-      <c r="AG22" s="135"/>
-      <c r="AH22" s="133">
+        <v>-34</v>
+      </c>
+      <c r="AF22" s="148"/>
+      <c r="AG22" s="149"/>
+      <c r="AH22" s="147">
         <f t="shared" ref="AH22" si="23">AH18-(AH19+AH20)+AH21</f>
-        <v>-69</v>
-      </c>
-      <c r="AI22" s="134"/>
-      <c r="AJ22" s="135"/>
-      <c r="AK22" s="133">
+        <v>-34</v>
+      </c>
+      <c r="AI22" s="148"/>
+      <c r="AJ22" s="149"/>
+      <c r="AK22" s="147">
         <f t="shared" ref="AK22" si="24">AK18-(AK19+AK20)+AK21</f>
-        <v>-69</v>
-      </c>
-      <c r="AL22" s="134"/>
-      <c r="AM22" s="135"/>
+        <v>-34</v>
+      </c>
+      <c r="AL22" s="148"/>
+      <c r="AM22" s="149"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B25" s="105" t="s">
@@ -6541,41 +6538,41 @@
         <v>Normal</v>
       </c>
       <c r="D26" s="116"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="135"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="149"/>
       <c r="G26" s="132"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="135"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="149"/>
       <c r="J26" s="132"/>
-      <c r="K26" s="134"/>
-      <c r="L26" s="135"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="149"/>
       <c r="M26" s="132"/>
-      <c r="N26" s="134"/>
-      <c r="O26" s="135"/>
+      <c r="N26" s="148"/>
+      <c r="O26" s="149"/>
       <c r="P26" s="132"/>
-      <c r="Q26" s="134"/>
-      <c r="R26" s="135"/>
+      <c r="Q26" s="148"/>
+      <c r="R26" s="149"/>
       <c r="S26" s="132"/>
-      <c r="T26" s="134"/>
-      <c r="U26" s="135"/>
+      <c r="T26" s="148"/>
+      <c r="U26" s="149"/>
       <c r="V26" s="132"/>
-      <c r="W26" s="134"/>
-      <c r="X26" s="135"/>
+      <c r="W26" s="148"/>
+      <c r="X26" s="149"/>
       <c r="Y26" s="132"/>
-      <c r="Z26" s="134"/>
-      <c r="AA26" s="135"/>
+      <c r="Z26" s="148"/>
+      <c r="AA26" s="149"/>
       <c r="AB26" s="132"/>
-      <c r="AC26" s="134"/>
-      <c r="AD26" s="135"/>
+      <c r="AC26" s="148"/>
+      <c r="AD26" s="149"/>
       <c r="AE26" s="132"/>
-      <c r="AF26" s="134"/>
-      <c r="AG26" s="135"/>
+      <c r="AF26" s="148"/>
+      <c r="AG26" s="149"/>
       <c r="AH26" s="132"/>
-      <c r="AI26" s="134"/>
-      <c r="AJ26" s="135"/>
+      <c r="AI26" s="148"/>
+      <c r="AJ26" s="149"/>
       <c r="AK26" s="132"/>
-      <c r="AL26" s="134"/>
-      <c r="AM26" s="135"/>
+      <c r="AL26" s="148"/>
+      <c r="AM26" s="149"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="109">
@@ -6590,41 +6587,41 @@
         <v>Intangible</v>
       </c>
       <c r="D27" s="118"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="141"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="152"/>
       <c r="G27" s="131"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="141"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="152"/>
       <c r="J27" s="131"/>
-      <c r="K27" s="140"/>
-      <c r="L27" s="141"/>
+      <c r="K27" s="151"/>
+      <c r="L27" s="152"/>
       <c r="M27" s="131"/>
-      <c r="N27" s="140"/>
-      <c r="O27" s="141"/>
+      <c r="N27" s="151"/>
+      <c r="O27" s="152"/>
       <c r="P27" s="131"/>
-      <c r="Q27" s="140"/>
-      <c r="R27" s="141"/>
+      <c r="Q27" s="151"/>
+      <c r="R27" s="152"/>
       <c r="S27" s="131"/>
-      <c r="T27" s="140"/>
-      <c r="U27" s="141"/>
+      <c r="T27" s="151"/>
+      <c r="U27" s="152"/>
       <c r="V27" s="131"/>
-      <c r="W27" s="140"/>
-      <c r="X27" s="141"/>
+      <c r="W27" s="151"/>
+      <c r="X27" s="152"/>
       <c r="Y27" s="131"/>
-      <c r="Z27" s="140"/>
-      <c r="AA27" s="141"/>
+      <c r="Z27" s="151"/>
+      <c r="AA27" s="152"/>
       <c r="AB27" s="131"/>
-      <c r="AC27" s="140"/>
-      <c r="AD27" s="141"/>
+      <c r="AC27" s="151"/>
+      <c r="AD27" s="152"/>
       <c r="AE27" s="131"/>
-      <c r="AF27" s="140"/>
-      <c r="AG27" s="141"/>
+      <c r="AF27" s="151"/>
+      <c r="AG27" s="152"/>
       <c r="AH27" s="131"/>
-      <c r="AI27" s="140"/>
-      <c r="AJ27" s="141"/>
+      <c r="AI27" s="151"/>
+      <c r="AJ27" s="152"/>
       <c r="AK27" s="131"/>
-      <c r="AL27" s="140"/>
-      <c r="AM27" s="141"/>
+      <c r="AL27" s="151"/>
+      <c r="AM27" s="152"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="109">
@@ -6641,49 +6638,49 @@
       <c r="D28" s="116">
         <v>1</v>
       </c>
-      <c r="E28" s="134" t="s">
+      <c r="E28" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="135"/>
+      <c r="F28" s="149"/>
       <c r="G28" s="132"/>
-      <c r="H28" s="134"/>
-      <c r="I28" s="135"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="149"/>
       <c r="J28" s="132">
         <v>1</v>
       </c>
-      <c r="K28" s="134" t="s">
+      <c r="K28" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="L28" s="135"/>
+      <c r="L28" s="149"/>
       <c r="M28" s="132"/>
-      <c r="N28" s="134"/>
-      <c r="O28" s="135"/>
+      <c r="N28" s="148"/>
+      <c r="O28" s="149"/>
       <c r="P28" s="132">
         <v>1</v>
       </c>
-      <c r="Q28" s="134"/>
-      <c r="R28" s="135"/>
+      <c r="Q28" s="148"/>
+      <c r="R28" s="149"/>
       <c r="S28" s="132"/>
-      <c r="T28" s="134"/>
-      <c r="U28" s="135"/>
+      <c r="T28" s="148"/>
+      <c r="U28" s="149"/>
       <c r="V28" s="132"/>
-      <c r="W28" s="134"/>
-      <c r="X28" s="135"/>
+      <c r="W28" s="148"/>
+      <c r="X28" s="149"/>
       <c r="Y28" s="132"/>
-      <c r="Z28" s="134"/>
-      <c r="AA28" s="135"/>
+      <c r="Z28" s="148"/>
+      <c r="AA28" s="149"/>
       <c r="AB28" s="132"/>
-      <c r="AC28" s="134"/>
-      <c r="AD28" s="135"/>
+      <c r="AC28" s="148"/>
+      <c r="AD28" s="149"/>
       <c r="AE28" s="132"/>
-      <c r="AF28" s="134"/>
-      <c r="AG28" s="135"/>
+      <c r="AF28" s="148"/>
+      <c r="AG28" s="149"/>
       <c r="AH28" s="132"/>
-      <c r="AI28" s="134"/>
-      <c r="AJ28" s="135"/>
+      <c r="AI28" s="148"/>
+      <c r="AJ28" s="149"/>
       <c r="AK28" s="132"/>
-      <c r="AL28" s="134"/>
-      <c r="AM28" s="135"/>
+      <c r="AL28" s="148"/>
+      <c r="AM28" s="149"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="109">
@@ -6698,41 +6695,41 @@
         <v>Normal</v>
       </c>
       <c r="D29" s="118"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="141"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="152"/>
       <c r="G29" s="131"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="141"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="152"/>
       <c r="J29" s="131"/>
-      <c r="K29" s="140"/>
-      <c r="L29" s="141"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="152"/>
       <c r="M29" s="131"/>
-      <c r="N29" s="140"/>
-      <c r="O29" s="141"/>
+      <c r="N29" s="151"/>
+      <c r="O29" s="152"/>
       <c r="P29" s="131"/>
-      <c r="Q29" s="140"/>
-      <c r="R29" s="141"/>
+      <c r="Q29" s="151"/>
+      <c r="R29" s="152"/>
       <c r="S29" s="131"/>
-      <c r="T29" s="140"/>
-      <c r="U29" s="141"/>
+      <c r="T29" s="151"/>
+      <c r="U29" s="152"/>
       <c r="V29" s="131"/>
-      <c r="W29" s="140"/>
-      <c r="X29" s="141"/>
+      <c r="W29" s="151"/>
+      <c r="X29" s="152"/>
       <c r="Y29" s="131"/>
-      <c r="Z29" s="140"/>
-      <c r="AA29" s="141"/>
+      <c r="Z29" s="151"/>
+      <c r="AA29" s="152"/>
       <c r="AB29" s="131"/>
-      <c r="AC29" s="140"/>
-      <c r="AD29" s="141"/>
+      <c r="AC29" s="151"/>
+      <c r="AD29" s="152"/>
       <c r="AE29" s="131"/>
-      <c r="AF29" s="140"/>
-      <c r="AG29" s="141"/>
+      <c r="AF29" s="151"/>
+      <c r="AG29" s="152"/>
       <c r="AH29" s="131"/>
-      <c r="AI29" s="140"/>
-      <c r="AJ29" s="141"/>
+      <c r="AI29" s="151"/>
+      <c r="AJ29" s="152"/>
       <c r="AK29" s="131"/>
-      <c r="AL29" s="140"/>
-      <c r="AM29" s="141"/>
+      <c r="AL29" s="151"/>
+      <c r="AM29" s="152"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="109">
@@ -6747,49 +6744,49 @@
         <v>Intangible</v>
       </c>
       <c r="D30" s="116"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="135"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="149"/>
       <c r="G30" s="132"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="135"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="149"/>
       <c r="J30" s="132">
         <v>1</v>
       </c>
-      <c r="K30" s="134" t="s">
+      <c r="K30" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="L30" s="135"/>
+      <c r="L30" s="149"/>
       <c r="M30" s="132">
         <v>1</v>
       </c>
-      <c r="N30" s="134" t="s">
+      <c r="N30" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="O30" s="135"/>
+      <c r="O30" s="149"/>
       <c r="P30" s="132"/>
-      <c r="Q30" s="134"/>
-      <c r="R30" s="135"/>
+      <c r="Q30" s="148"/>
+      <c r="R30" s="149"/>
       <c r="S30" s="132"/>
-      <c r="T30" s="134"/>
-      <c r="U30" s="135"/>
+      <c r="T30" s="148"/>
+      <c r="U30" s="149"/>
       <c r="V30" s="132"/>
-      <c r="W30" s="134"/>
-      <c r="X30" s="135"/>
+      <c r="W30" s="148"/>
+      <c r="X30" s="149"/>
       <c r="Y30" s="132"/>
-      <c r="Z30" s="134"/>
-      <c r="AA30" s="135"/>
+      <c r="Z30" s="148"/>
+      <c r="AA30" s="149"/>
       <c r="AB30" s="132"/>
-      <c r="AC30" s="134"/>
-      <c r="AD30" s="135"/>
+      <c r="AC30" s="148"/>
+      <c r="AD30" s="149"/>
       <c r="AE30" s="132"/>
-      <c r="AF30" s="134"/>
-      <c r="AG30" s="135"/>
+      <c r="AF30" s="148"/>
+      <c r="AG30" s="149"/>
       <c r="AH30" s="132"/>
-      <c r="AI30" s="134"/>
-      <c r="AJ30" s="135"/>
+      <c r="AI30" s="148"/>
+      <c r="AJ30" s="149"/>
       <c r="AK30" s="132"/>
-      <c r="AL30" s="134"/>
-      <c r="AM30" s="135"/>
+      <c r="AL30" s="148"/>
+      <c r="AM30" s="149"/>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="109">
@@ -6804,41 +6801,41 @@
         <v>Saboteur</v>
       </c>
       <c r="D31" s="118"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="141"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="152"/>
       <c r="G31" s="131"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="141"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="152"/>
       <c r="J31" s="131"/>
-      <c r="K31" s="140"/>
-      <c r="L31" s="141"/>
+      <c r="K31" s="151"/>
+      <c r="L31" s="152"/>
       <c r="M31" s="131"/>
-      <c r="N31" s="140"/>
-      <c r="O31" s="141"/>
+      <c r="N31" s="151"/>
+      <c r="O31" s="152"/>
       <c r="P31" s="131"/>
-      <c r="Q31" s="140"/>
-      <c r="R31" s="141"/>
+      <c r="Q31" s="151"/>
+      <c r="R31" s="152"/>
       <c r="S31" s="131"/>
-      <c r="T31" s="140"/>
-      <c r="U31" s="141"/>
+      <c r="T31" s="151"/>
+      <c r="U31" s="152"/>
       <c r="V31" s="131"/>
-      <c r="W31" s="140"/>
-      <c r="X31" s="141"/>
+      <c r="W31" s="151"/>
+      <c r="X31" s="152"/>
       <c r="Y31" s="131"/>
-      <c r="Z31" s="140"/>
-      <c r="AA31" s="141"/>
+      <c r="Z31" s="151"/>
+      <c r="AA31" s="152"/>
       <c r="AB31" s="131"/>
-      <c r="AC31" s="140"/>
-      <c r="AD31" s="141"/>
+      <c r="AC31" s="151"/>
+      <c r="AD31" s="152"/>
       <c r="AE31" s="131"/>
-      <c r="AF31" s="140"/>
-      <c r="AG31" s="141"/>
+      <c r="AF31" s="151"/>
+      <c r="AG31" s="152"/>
       <c r="AH31" s="131"/>
-      <c r="AI31" s="140"/>
-      <c r="AJ31" s="141"/>
+      <c r="AI31" s="151"/>
+      <c r="AJ31" s="152"/>
       <c r="AK31" s="131"/>
-      <c r="AL31" s="140"/>
-      <c r="AM31" s="141"/>
+      <c r="AL31" s="151"/>
+      <c r="AM31" s="152"/>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="109">
@@ -6853,41 +6850,41 @@
         <v>Normal</v>
       </c>
       <c r="D32" s="116"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="135"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="149"/>
       <c r="G32" s="132"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="135"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="149"/>
       <c r="J32" s="132"/>
-      <c r="K32" s="134"/>
-      <c r="L32" s="135"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="149"/>
       <c r="M32" s="132"/>
-      <c r="N32" s="134"/>
-      <c r="O32" s="135"/>
+      <c r="N32" s="148"/>
+      <c r="O32" s="149"/>
       <c r="P32" s="132"/>
-      <c r="Q32" s="134"/>
-      <c r="R32" s="135"/>
+      <c r="Q32" s="148"/>
+      <c r="R32" s="149"/>
       <c r="S32" s="132"/>
-      <c r="T32" s="134"/>
-      <c r="U32" s="135"/>
+      <c r="T32" s="148"/>
+      <c r="U32" s="149"/>
       <c r="V32" s="132"/>
-      <c r="W32" s="134"/>
-      <c r="X32" s="135"/>
+      <c r="W32" s="148"/>
+      <c r="X32" s="149"/>
       <c r="Y32" s="132"/>
-      <c r="Z32" s="134"/>
-      <c r="AA32" s="135"/>
+      <c r="Z32" s="148"/>
+      <c r="AA32" s="149"/>
       <c r="AB32" s="132"/>
-      <c r="AC32" s="134"/>
-      <c r="AD32" s="135"/>
+      <c r="AC32" s="148"/>
+      <c r="AD32" s="149"/>
       <c r="AE32" s="132"/>
-      <c r="AF32" s="134"/>
-      <c r="AG32" s="135"/>
+      <c r="AF32" s="148"/>
+      <c r="AG32" s="149"/>
       <c r="AH32" s="132"/>
-      <c r="AI32" s="134"/>
-      <c r="AJ32" s="135"/>
+      <c r="AI32" s="148"/>
+      <c r="AJ32" s="149"/>
       <c r="AK32" s="132"/>
-      <c r="AL32" s="134"/>
-      <c r="AM32" s="135"/>
+      <c r="AL32" s="148"/>
+      <c r="AM32" s="149"/>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="109">
@@ -6902,41 +6899,41 @@
         <v>Intangible</v>
       </c>
       <c r="D33" s="118"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="141"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="152"/>
       <c r="G33" s="131"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="141"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="152"/>
       <c r="J33" s="131"/>
-      <c r="K33" s="140"/>
-      <c r="L33" s="141"/>
+      <c r="K33" s="151"/>
+      <c r="L33" s="152"/>
       <c r="M33" s="131"/>
-      <c r="N33" s="140"/>
-      <c r="O33" s="141"/>
+      <c r="N33" s="151"/>
+      <c r="O33" s="152"/>
       <c r="P33" s="131"/>
-      <c r="Q33" s="140"/>
-      <c r="R33" s="141"/>
+      <c r="Q33" s="151"/>
+      <c r="R33" s="152"/>
       <c r="S33" s="131"/>
-      <c r="T33" s="140"/>
-      <c r="U33" s="141"/>
+      <c r="T33" s="151"/>
+      <c r="U33" s="152"/>
       <c r="V33" s="131"/>
-      <c r="W33" s="140"/>
-      <c r="X33" s="141"/>
+      <c r="W33" s="151"/>
+      <c r="X33" s="152"/>
       <c r="Y33" s="131"/>
-      <c r="Z33" s="140"/>
-      <c r="AA33" s="141"/>
+      <c r="Z33" s="151"/>
+      <c r="AA33" s="152"/>
       <c r="AB33" s="131"/>
-      <c r="AC33" s="140"/>
-      <c r="AD33" s="141"/>
+      <c r="AC33" s="151"/>
+      <c r="AD33" s="152"/>
       <c r="AE33" s="131"/>
-      <c r="AF33" s="140"/>
-      <c r="AG33" s="141"/>
+      <c r="AF33" s="151"/>
+      <c r="AG33" s="152"/>
       <c r="AH33" s="131"/>
-      <c r="AI33" s="140"/>
-      <c r="AJ33" s="141"/>
+      <c r="AI33" s="151"/>
+      <c r="AJ33" s="152"/>
       <c r="AK33" s="131"/>
-      <c r="AL33" s="140"/>
-      <c r="AM33" s="141"/>
+      <c r="AL33" s="151"/>
+      <c r="AM33" s="152"/>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="109">
@@ -6951,41 +6948,41 @@
         <v>Saboteur</v>
       </c>
       <c r="D34" s="116"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="135"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="149"/>
       <c r="G34" s="132"/>
-      <c r="H34" s="134"/>
-      <c r="I34" s="135"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="149"/>
       <c r="J34" s="132"/>
-      <c r="K34" s="134"/>
-      <c r="L34" s="135"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="149"/>
       <c r="M34" s="132"/>
-      <c r="N34" s="134"/>
-      <c r="O34" s="135"/>
+      <c r="N34" s="148"/>
+      <c r="O34" s="149"/>
       <c r="P34" s="132"/>
-      <c r="Q34" s="134"/>
-      <c r="R34" s="135"/>
+      <c r="Q34" s="148"/>
+      <c r="R34" s="149"/>
       <c r="S34" s="132"/>
-      <c r="T34" s="134"/>
-      <c r="U34" s="135"/>
+      <c r="T34" s="148"/>
+      <c r="U34" s="149"/>
       <c r="V34" s="132"/>
-      <c r="W34" s="134"/>
-      <c r="X34" s="135"/>
+      <c r="W34" s="148"/>
+      <c r="X34" s="149"/>
       <c r="Y34" s="132"/>
-      <c r="Z34" s="134"/>
-      <c r="AA34" s="135"/>
+      <c r="Z34" s="148"/>
+      <c r="AA34" s="149"/>
       <c r="AB34" s="132"/>
-      <c r="AC34" s="134"/>
-      <c r="AD34" s="135"/>
+      <c r="AC34" s="148"/>
+      <c r="AD34" s="149"/>
       <c r="AE34" s="132"/>
-      <c r="AF34" s="134"/>
-      <c r="AG34" s="135"/>
+      <c r="AF34" s="148"/>
+      <c r="AG34" s="149"/>
       <c r="AH34" s="132"/>
-      <c r="AI34" s="134"/>
-      <c r="AJ34" s="135"/>
+      <c r="AI34" s="148"/>
+      <c r="AJ34" s="149"/>
       <c r="AK34" s="132"/>
-      <c r="AL34" s="134"/>
-      <c r="AM34" s="135"/>
+      <c r="AL34" s="148"/>
+      <c r="AM34" s="149"/>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B35" s="101"/>
@@ -7063,65 +7060,65 @@
       <c r="D37" s="118">
         <v>1</v>
       </c>
-      <c r="E37" s="140" t="s">
+      <c r="E37" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="F37" s="141"/>
+      <c r="F37" s="152"/>
       <c r="G37" s="131"/>
-      <c r="H37" s="140" t="s">
+      <c r="H37" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="I37" s="141"/>
+      <c r="I37" s="152"/>
       <c r="J37" s="131"/>
-      <c r="K37" s="140" t="s">
+      <c r="K37" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="L37" s="141"/>
+      <c r="L37" s="152"/>
       <c r="M37" s="131"/>
-      <c r="N37" s="140" t="s">
+      <c r="N37" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="O37" s="141"/>
+      <c r="O37" s="152"/>
       <c r="P37" s="131"/>
-      <c r="Q37" s="140" t="s">
+      <c r="Q37" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="R37" s="141"/>
+      <c r="R37" s="152"/>
       <c r="S37" s="131"/>
-      <c r="T37" s="140" t="s">
+      <c r="T37" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="U37" s="141"/>
+      <c r="U37" s="152"/>
       <c r="V37" s="131"/>
-      <c r="W37" s="140" t="s">
+      <c r="W37" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="X37" s="141"/>
+      <c r="X37" s="152"/>
       <c r="Y37" s="131"/>
-      <c r="Z37" s="140" t="s">
+      <c r="Z37" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="AA37" s="141"/>
+      <c r="AA37" s="152"/>
       <c r="AB37" s="131"/>
-      <c r="AC37" s="140" t="s">
+      <c r="AC37" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="AD37" s="141"/>
+      <c r="AD37" s="152"/>
       <c r="AE37" s="131"/>
-      <c r="AF37" s="140" t="s">
+      <c r="AF37" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="AG37" s="141"/>
+      <c r="AG37" s="152"/>
       <c r="AH37" s="131"/>
-      <c r="AI37" s="140" t="s">
+      <c r="AI37" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="AJ37" s="141"/>
+      <c r="AJ37" s="152"/>
       <c r="AK37" s="131"/>
-      <c r="AL37" s="140" t="s">
+      <c r="AL37" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="AM37" s="141"/>
+      <c r="AM37" s="152"/>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="109">
@@ -7137,69 +7134,69 @@
         <v>Bubblegum</v>
       </c>
       <c r="D38" s="116"/>
-      <c r="E38" s="134" t="s">
+      <c r="E38" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="135"/>
+      <c r="F38" s="149"/>
       <c r="G38" s="132">
         <v>1</v>
       </c>
-      <c r="H38" s="134" t="s">
+      <c r="H38" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="I38" s="135"/>
+      <c r="I38" s="149"/>
       <c r="J38" s="132"/>
-      <c r="K38" s="134" t="s">
+      <c r="K38" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="L38" s="135"/>
+      <c r="L38" s="149"/>
       <c r="M38" s="132">
         <v>1</v>
       </c>
-      <c r="N38" s="134" t="s">
+      <c r="N38" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="O38" s="135"/>
+      <c r="O38" s="149"/>
       <c r="P38" s="132"/>
-      <c r="Q38" s="134" t="s">
+      <c r="Q38" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="R38" s="135"/>
+      <c r="R38" s="149"/>
       <c r="S38" s="132"/>
-      <c r="T38" s="134" t="s">
+      <c r="T38" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="U38" s="135"/>
+      <c r="U38" s="149"/>
       <c r="V38" s="132"/>
-      <c r="W38" s="134" t="s">
+      <c r="W38" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="X38" s="135"/>
+      <c r="X38" s="149"/>
       <c r="Y38" s="132"/>
-      <c r="Z38" s="134" t="s">
+      <c r="Z38" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="AA38" s="135"/>
+      <c r="AA38" s="149"/>
       <c r="AB38" s="132"/>
-      <c r="AC38" s="134" t="s">
+      <c r="AC38" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="AD38" s="135"/>
+      <c r="AD38" s="149"/>
       <c r="AE38" s="132"/>
-      <c r="AF38" s="134" t="s">
+      <c r="AF38" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="AG38" s="135"/>
+      <c r="AG38" s="149"/>
       <c r="AH38" s="132"/>
-      <c r="AI38" s="134" t="s">
+      <c r="AI38" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="AJ38" s="135"/>
+      <c r="AJ38" s="149"/>
       <c r="AK38" s="132"/>
-      <c r="AL38" s="134" t="s">
+      <c r="AL38" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="AM38" s="135"/>
+      <c r="AM38" s="149"/>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="109">
@@ -7215,167 +7212,224 @@
         <v>Stars</v>
       </c>
       <c r="D39" s="118"/>
-      <c r="E39" s="140" t="s">
+      <c r="E39" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="141"/>
+      <c r="F39" s="152"/>
       <c r="G39" s="131"/>
-      <c r="H39" s="140" t="s">
+      <c r="H39" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="I39" s="141"/>
+      <c r="I39" s="152"/>
       <c r="J39" s="131"/>
-      <c r="K39" s="140" t="s">
+      <c r="K39" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="L39" s="141"/>
+      <c r="L39" s="152"/>
       <c r="M39" s="131"/>
-      <c r="N39" s="140" t="s">
+      <c r="N39" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="O39" s="141"/>
+      <c r="O39" s="152"/>
       <c r="P39" s="131"/>
-      <c r="Q39" s="140" t="s">
+      <c r="Q39" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="R39" s="141"/>
+      <c r="R39" s="152"/>
       <c r="S39" s="131"/>
-      <c r="T39" s="140" t="s">
+      <c r="T39" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="U39" s="141"/>
+      <c r="U39" s="152"/>
       <c r="V39" s="131"/>
-      <c r="W39" s="140" t="s">
+      <c r="W39" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="X39" s="141"/>
+      <c r="X39" s="152"/>
       <c r="Y39" s="131"/>
-      <c r="Z39" s="140" t="s">
+      <c r="Z39" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="AA39" s="141"/>
+      <c r="AA39" s="152"/>
       <c r="AB39" s="131"/>
-      <c r="AC39" s="140" t="s">
+      <c r="AC39" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="AD39" s="141"/>
+      <c r="AD39" s="152"/>
       <c r="AE39" s="131"/>
-      <c r="AF39" s="140" t="s">
+      <c r="AF39" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="AG39" s="141"/>
+      <c r="AG39" s="152"/>
       <c r="AH39" s="131"/>
-      <c r="AI39" s="140" t="s">
+      <c r="AI39" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="AJ39" s="141"/>
+      <c r="AJ39" s="152"/>
       <c r="AK39" s="131"/>
-      <c r="AL39" s="140" t="s">
+      <c r="AL39" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="AM39" s="141"/>
+      <c r="AM39" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="279">
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="AF39:AG39"/>
-    <mergeCell ref="AI39:AJ39"/>
-    <mergeCell ref="AL39:AM39"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AL38:AM38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="AL37:AM37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AC38:AD38"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AL34:AM34"/>
-    <mergeCell ref="AL33:AM33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AL31:AM31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="AC32:AD32"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AL32:AM32"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="AF31:AG31"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AL29:AM29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AL30:AM30"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="AC29:AD29"/>
-    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AK13:AM13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="AK14:AM14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:AM15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AK16:AM16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="AK17:AM17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AK19:AM19"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AK18:AM18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AD19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AK20:AM20"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AD20"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="AK22:AM22"/>
+    <mergeCell ref="AK21:AM21"/>
+    <mergeCell ref="AL26:AM26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
     <mergeCell ref="AI26:AJ26"/>
     <mergeCell ref="AL27:AM27"/>
     <mergeCell ref="H28:I28"/>
@@ -7400,162 +7454,105 @@
     <mergeCell ref="T26:U26"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="AK20:AM20"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AD20"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AK22:AM22"/>
-    <mergeCell ref="AK21:AM21"/>
-    <mergeCell ref="AL26:AM26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AK19:AM19"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AK18:AM18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AB19:AD19"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="AK17:AM17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AK15:AM15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AK16:AM16"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK13:AM13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="AK14:AM14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AL29:AM29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AL30:AM30"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="AC29:AD29"/>
+    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AL31:AM31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AL32:AM32"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="AF31:AG31"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AL34:AM34"/>
+    <mergeCell ref="AL33:AM33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="AF34:AG34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="AL37:AM37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="AF39:AG39"/>
+    <mergeCell ref="AI39:AJ39"/>
+    <mergeCell ref="AL39:AM39"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AL38:AM38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="Z39:AA39"/>
   </mergeCells>
   <conditionalFormatting sqref="D16:AM16">
     <cfRule type="colorScale" priority="6">
@@ -7620,8 +7617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDA4FAA-0409-4E65-B5DA-46DD5A6F91E2}">
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="C15:I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31:O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7654,10 +7651,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="156"/>
+      <c r="B1" s="157"/>
       <c r="C1" s="70" t="s">
         <v>11</v>
       </c>
@@ -7669,39 +7666,39 @@
       <c r="G1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="166" t="s">
+      <c r="I1" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="166"/>
-      <c r="K1" s="151" t="s">
+      <c r="J1" s="164"/>
+      <c r="K1" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="151"/>
-      <c r="M1" s="166" t="s">
+      <c r="L1" s="145"/>
+      <c r="M1" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="N1" s="166"/>
-      <c r="O1" s="151" t="s">
+      <c r="N1" s="164"/>
+      <c r="O1" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="166" t="s">
+      <c r="P1" s="145"/>
+      <c r="Q1" s="164" t="s">
         <v>169</v>
       </c>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166" t="s">
+      <c r="R1" s="164"/>
+      <c r="S1" s="164" t="s">
         <v>153</v>
       </c>
-      <c r="T1" s="166"/>
+      <c r="T1" s="164"/>
       <c r="U1" s="16"/>
       <c r="V1" s="16"/>
-      <c r="W1" s="151" t="s">
+      <c r="W1" s="145" t="s">
         <v>163</v>
       </c>
-      <c r="X1" s="151"/>
+      <c r="X1" s="145"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="159" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="71" t="s">
@@ -7709,7 +7706,7 @@
       </c>
       <c r="C2" s="8">
         <f>$T$29</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" s="75" t="str" cm="1">
         <f t="array" ref="D2">_xlfn.IFS($O$10=0,"=",$O$10=1,$Q$10,$O$10="2a","=",$O$10="2b","=")</f>
@@ -7717,7 +7714,7 @@
       </c>
       <c r="E2" s="8" cm="1">
         <f t="array" ref="E2">_xlfn.IFS(D2="+",ROUNDDOWN(C2*(1+$I$2),2),D2="=",C2,D2="++",ROUNDDOWN(C2*(1+$I$2)*1.5,2),D2="-",ROUNDDOWN(C2*(1+$I$2)*0.75,2))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F2" s="75" t="str" cm="1">
         <f t="array" ref="F2">_xlfn.IFS($O$10=0,"=",$O$10=1,"=",$O$10="2a",$Q$10,$O$10="2b",$Q$10)</f>
@@ -7725,47 +7722,47 @@
       </c>
       <c r="G2" s="17" cm="1">
         <f t="array" ref="G2">_xlfn.IFS(F2="+",ROUNDDOWN(E2*(1+$I$2),2),F2="=",E2,F2="++",ROUNDDOWN(E2*(1+$I$2)*1.5,2),F2="-",ROUNDDOWN(E2*(1+$I$2)*0.75,2))</f>
-        <v>3</v>
-      </c>
-      <c r="I2" s="165">
+        <v>6</v>
+      </c>
+      <c r="I2" s="163">
         <v>0.3</v>
       </c>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165">
+      <c r="J2" s="163"/>
+      <c r="K2" s="163">
         <v>0.2</v>
       </c>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165">
+      <c r="L2" s="163"/>
+      <c r="M2" s="163">
         <v>0.5</v>
       </c>
-      <c r="N2" s="165"/>
-      <c r="O2" s="134">
+      <c r="N2" s="163"/>
+      <c r="O2" s="148">
         <v>2</v>
       </c>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="165">
+      <c r="P2" s="148"/>
+      <c r="Q2" s="163">
         <v>0.25</v>
       </c>
-      <c r="R2" s="165"/>
-      <c r="S2" s="165">
+      <c r="R2" s="163"/>
+      <c r="S2" s="163">
         <v>0.3</v>
       </c>
-      <c r="T2" s="165"/>
+      <c r="T2" s="163"/>
       <c r="U2" s="16"/>
       <c r="V2" s="16"/>
-      <c r="W2" s="161" t="s">
+      <c r="W2" s="158" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="161"/>
+      <c r="X2" s="158"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="155"/>
+      <c r="A3" s="159"/>
       <c r="B3" s="72" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="9">
         <f>$V$29</f>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D3" s="75" t="str" cm="1">
         <f t="array" ref="D3">_xlfn.IFS($O$10=0,"=",$O$10=1,$S$10,$O$10="2a","=",$O$10="2b","=")</f>
@@ -7773,7 +7770,7 @@
       </c>
       <c r="E3" s="18" cm="1">
         <f t="array" ref="E3">_xlfn.IFS(D3="+",ROUNDDOWN(C3*(1-$I$3),2),D3="=",C3,D3="++",ROUNDDOWN(C3*(1-$I$3)*1.5,2),D3="-",ROUNDDOWN(C3*(1-$I$3)*0.75,2))</f>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="F3" s="75" t="str" cm="1">
         <f t="array" ref="F3">_xlfn.IFS($O$10=0,"=",$O$10=1,"=",$O$10="2a",$S$10,$O$10="2b",$S$10)</f>
@@ -7781,37 +7778,37 @@
       </c>
       <c r="G3" s="18" cm="1">
         <f t="array" ref="G3">_xlfn.IFS(F3="+",ROUNDDOWN(C3*(1-$I$3),2),F3="=",C3,F3="++",ROUNDDOWN(C3*(1-$I$3)*0.75,2),F3="-",ROUNDDOWN(C3*(1-$I$3)*1.25,2))</f>
-        <v>0.75</v>
-      </c>
-      <c r="I3" s="158">
+        <v>1.5</v>
+      </c>
+      <c r="I3" s="165">
         <v>0.1</v>
       </c>
-      <c r="J3" s="158"/>
-      <c r="M3" s="158">
+      <c r="J3" s="165"/>
+      <c r="M3" s="165">
         <v>0.3</v>
       </c>
-      <c r="N3" s="158"/>
-      <c r="Q3" s="158">
+      <c r="N3" s="165"/>
+      <c r="Q3" s="165">
         <v>0.3</v>
       </c>
-      <c r="R3" s="158"/>
-      <c r="S3" s="158">
+      <c r="R3" s="165"/>
+      <c r="S3" s="165">
         <v>0.3</v>
       </c>
-      <c r="T3" s="158"/>
+      <c r="T3" s="165"/>
       <c r="U3" s="16"/>
       <c r="V3" s="16"/>
-      <c r="W3" s="161"/>
-      <c r="X3" s="161"/>
+      <c r="W3" s="158"/>
+      <c r="X3" s="158"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="155"/>
+      <c r="A4" s="159"/>
       <c r="B4" s="71" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="75">
         <f>$X$29</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D4" s="75" t="str" cm="1">
         <f t="array" ref="D4">_xlfn.IFS($O$10=0,"=",$O$10=1,$U$10,$O$10="2a","=",$O$10="2b","=")</f>
@@ -7819,7 +7816,7 @@
       </c>
       <c r="E4" s="75" cm="1">
         <f t="array" ref="E4">_xlfn.IFS(D4="+",ROUNDDOWN(C4*(1+$I$4),2),D4="=",C4,D4="++",ROUNDDOWN(C4*(1+$I$2)*1.5,2),D4="-",ROUNDDOWN(C4*(1+$I$2)*0.75,2))</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F4" s="75" t="str" cm="1">
         <f t="array" ref="F4">_xlfn.IFS($O$10=0,"=",$O$10=1,"=",$O$10="2a",$U$10,$O$10="2b",$U$10)</f>
@@ -7827,73 +7824,73 @@
       </c>
       <c r="G4" s="75" cm="1">
         <f t="array" ref="G4">_xlfn.IFS(F4="+",ROUNDDOWN(E4*(1+$I$4),2),F4="=",E4,F4="++",ROUNDDOWN(E4*(1+$I$4)*1.5,2),F4="-",ROUNDDOWN(E4*(1+$I$4)*0.75,2))</f>
-        <v>9</v>
-      </c>
-      <c r="I4" s="165">
+        <v>15</v>
+      </c>
+      <c r="I4" s="163">
         <v>0.2</v>
       </c>
-      <c r="J4" s="165"/>
-      <c r="M4" s="165">
+      <c r="J4" s="163"/>
+      <c r="M4" s="163">
         <v>0.2</v>
       </c>
-      <c r="N4" s="165"/>
-      <c r="Q4" s="165">
+      <c r="N4" s="163"/>
+      <c r="Q4" s="163">
         <v>0.25</v>
       </c>
-      <c r="R4" s="165"/>
-      <c r="S4" s="165">
+      <c r="R4" s="163"/>
+      <c r="S4" s="163">
         <v>0.1</v>
       </c>
-      <c r="T4" s="165"/>
+      <c r="T4" s="163"/>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="155"/>
+      <c r="A5" s="159"/>
       <c r="B5" s="72" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="25">
         <f>$X$33</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D5" s="75" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="25" cm="1">
         <f t="array" ref="E5">_xlfn.IFS(D5="+",ROUNDDOWN(C5*(1+$I$5),0),D5="=",C5)</f>
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F5" s="75" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="25" cm="1">
         <f t="array" ref="G5">_xlfn.IFS(F5="+",ROUNDDOWN(E5*(1+$I$5),0),F5="=",E5)</f>
-        <v>144</v>
-      </c>
-      <c r="I5" s="158">
+        <v>129</v>
+      </c>
+      <c r="I5" s="165">
         <v>0.2</v>
       </c>
-      <c r="J5" s="158"/>
-      <c r="M5" s="158">
+      <c r="J5" s="165"/>
+      <c r="M5" s="165">
         <v>0.5</v>
       </c>
-      <c r="N5" s="158"/>
-      <c r="Q5" s="158">
+      <c r="N5" s="165"/>
+      <c r="Q5" s="165">
         <v>0.5</v>
       </c>
-      <c r="R5" s="158"/>
-      <c r="S5" s="158">
+      <c r="R5" s="165"/>
+      <c r="S5" s="165">
         <v>0.2</v>
       </c>
-      <c r="T5" s="158"/>
+      <c r="T5" s="165"/>
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="155"/>
+      <c r="A6" s="159"/>
       <c r="B6" s="71" t="s">
         <v>78</v>
       </c>
@@ -7914,20 +7911,20 @@
         <f t="array" ref="G6">_xlfn.IFS(F6="+",ROUNDUP(E6*(1+$I$6),0),F6="=",E6)</f>
         <v>123</v>
       </c>
-      <c r="I6" s="165">
+      <c r="I6" s="163">
         <v>2.5</v>
       </c>
-      <c r="J6" s="165"/>
+      <c r="J6" s="163"/>
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="156" t="s">
+      <c r="A7" s="157" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="156"/>
+      <c r="B7" s="157"/>
       <c r="C7" s="48">
         <f>ROUNDDOWN(C2/C3,2)</f>
         <v>4</v>
@@ -7949,23 +7946,23 @@
       <c r="W7" s="16"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="157" t="s">
+      <c r="A8" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="157"/>
+      <c r="B8" s="166"/>
       <c r="C8" s="50">
         <f>ROUND(1/C3,2)</f>
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="D8" s="50"/>
       <c r="E8" s="50">
         <f>ROUND(1/E3,2)</f>
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="F8" s="50"/>
       <c r="G8" s="50">
         <f>ROUND(1/G3,2)</f>
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="N8" s="15"/>
       <c r="T8" s="16"/>
@@ -7975,82 +7972,82 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
-      <c r="C9" s="154" t="s">
+      <c r="C9" s="134" t="s">
         <v>66</v>
       </c>
       <c r="D9" s="78"/>
-      <c r="E9" s="154" t="s">
+      <c r="E9" s="134" t="s">
         <v>67</v>
       </c>
       <c r="F9" s="78"/>
-      <c r="G9" s="154" t="s">
+      <c r="G9" s="134" t="s">
         <v>68</v>
       </c>
       <c r="H9" s="78"/>
-      <c r="I9" s="154" t="s">
+      <c r="I9" s="134" t="s">
         <v>69</v>
       </c>
       <c r="J9" s="78"/>
-      <c r="K9" s="154" t="s">
+      <c r="K9" s="134" t="s">
         <v>70</v>
       </c>
       <c r="L9" s="78"/>
-      <c r="M9" s="154" t="s">
+      <c r="M9" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="O9" s="160" t="s">
+      <c r="O9" s="156" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="160"/>
-      <c r="Q9" s="160" t="s">
+      <c r="P9" s="156"/>
+      <c r="Q9" s="156" t="s">
         <v>72</v>
       </c>
-      <c r="R9" s="160"/>
-      <c r="S9" s="160" t="s">
+      <c r="R9" s="156"/>
+      <c r="S9" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="T9" s="160"/>
-      <c r="U9" s="160" t="s">
+      <c r="T9" s="156"/>
+      <c r="U9" s="156" t="s">
         <v>102</v>
       </c>
-      <c r="V9" s="160"/>
+      <c r="V9" s="156"/>
       <c r="W9" s="16"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="154"/>
+      <c r="C10" s="134"/>
       <c r="D10" s="78"/>
-      <c r="E10" s="154"/>
+      <c r="E10" s="134"/>
       <c r="F10" s="78"/>
-      <c r="G10" s="154"/>
+      <c r="G10" s="134"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="154"/>
+      <c r="I10" s="134"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="154"/>
+      <c r="K10" s="134"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="154"/>
-      <c r="O10" s="161">
+      <c r="M10" s="134"/>
+      <c r="O10" s="158">
         <v>0</v>
       </c>
-      <c r="P10" s="161"/>
-      <c r="Q10" s="162" t="str" cm="1">
+      <c r="P10" s="158"/>
+      <c r="Q10" s="168" t="str" cm="1">
         <f t="array" ref="Q10">_xlfn.IFS(O10=0, "=", O10&lt;&gt;0,HLOOKUP(Q9,UPGRADE_STAT,VLOOKUP(M22,UPGRADE_LVL,5,FALSE)+1,FALSE))</f>
         <v>=</v>
       </c>
-      <c r="R10" s="162"/>
-      <c r="S10" s="162" t="str" cm="1">
+      <c r="R10" s="168"/>
+      <c r="S10" s="168" t="str" cm="1">
         <f t="array" ref="S10">_xlfn.IFS(O10=0, "=", Q10&lt;&gt;0,HLOOKUP(S9,UPGRADE_STAT,VLOOKUP(M22,UPGRADE_LVL,5,FALSE)+1,FALSE))</f>
         <v>=</v>
       </c>
-      <c r="T10" s="162"/>
-      <c r="U10" s="162" t="str" cm="1">
+      <c r="T10" s="168"/>
+      <c r="U10" s="168" t="str" cm="1">
         <f t="array" ref="U10">_xlfn.IFS(O10=0, "=", S10&lt;&gt;0,HLOOKUP(U9,UPGRADE_STAT,VLOOKUP(M22,UPGRADE_LVL,5,FALSE)+1,FALSE))</f>
         <v>=</v>
       </c>
-      <c r="V10" s="162"/>
+      <c r="V10" s="168"/>
       <c r="W10" s="16"/>
     </row>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="155" t="s">
+      <c r="A11" s="159" t="s">
         <v>166</v>
       </c>
       <c r="B11" s="76" t="s">
@@ -8058,45 +8055,45 @@
       </c>
       <c r="C11" s="20">
         <f>T27</f>
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="D11" s="75" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="20" cm="1">
         <f t="array" ref="E11">_xlfn.IFS(D11="+",ROUNDDOWN(C11*(1+$M$2),2),D11="=",C11)</f>
-        <v>33.75</v>
+        <v>13.5</v>
       </c>
       <c r="F11" s="75" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="20" cm="1">
         <f t="array" ref="G11">_xlfn.IFS(F11="+",ROUNDDOWN(E11*(1+$M$2),2),F11="=",E11)</f>
-        <v>50.62</v>
+        <v>20.25</v>
       </c>
       <c r="H11" s="75" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="20" cm="1">
         <f t="array" ref="I11">_xlfn.IFS(H11="+",ROUNDDOWN(G11*(1+$M$2),2),H11="=",G11)</f>
-        <v>75.930000000000007</v>
+        <v>30.37</v>
       </c>
       <c r="J11" s="75" t="s">
         <v>13</v>
       </c>
       <c r="K11" s="20" cm="1">
         <f t="array" ref="K11">_xlfn.IFS(J11="+",ROUNDDOWN(I11*(1+$M$2),2),J11="=",I11)</f>
-        <v>113.89</v>
+        <v>45.55</v>
       </c>
       <c r="L11" s="75" t="s">
         <v>13</v>
       </c>
       <c r="M11" s="20" cm="1">
         <f t="array" ref="M11">_xlfn.IFS(L11="+",ROUNDDOWN(K11*(1+$M$2),2),L11="=",K11)</f>
-        <v>170.83</v>
-      </c>
-      <c r="O11" s="140"/>
-      <c r="P11" s="140"/>
+        <v>68.319999999999993</v>
+      </c>
+      <c r="O11" s="151"/>
+      <c r="P11" s="151"/>
       <c r="Q11" s="48"/>
       <c r="R11" s="48"/>
       <c r="S11" s="48"/>
@@ -8106,48 +8103,48 @@
       <c r="W11" s="16"/>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="155"/>
+      <c r="A12" s="159"/>
       <c r="B12" s="77" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21">
         <f>V27</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" s="75" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="21" cm="1">
         <f t="array" ref="E12">_xlfn.IFS(D12="+",ROUNDDOWN(C12*(1+$M$3),2),D12="=",C12)</f>
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="F12" s="75" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="21" cm="1">
         <f t="array" ref="G12">_xlfn.IFS(F12="+",ROUNDDOWN(E12*(1+$M$3),2),F12="=",E12)</f>
-        <v>3.38</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="H12" s="75" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="21" cm="1">
         <f t="array" ref="I12">_xlfn.IFS(H12="+",ROUNDDOWN(G12*(1+$M$3),2),H12="=",G12)</f>
-        <v>4.3899999999999997</v>
+        <v>10.98</v>
       </c>
       <c r="J12" s="75" t="s">
         <v>13</v>
       </c>
       <c r="K12" s="21" cm="1">
         <f t="array" ref="K12">_xlfn.IFS(J12="+",ROUNDDOWN(I12*(1+$M$3),2),J12="=",I12)</f>
-        <v>5.7</v>
+        <v>14.27</v>
       </c>
       <c r="L12" s="75" t="s">
         <v>13</v>
       </c>
       <c r="M12" s="21" cm="1">
         <f t="array" ref="M12">_xlfn.IFS(L12="+",ROUNDDOWN(K12*(1+$M$3),2),L12="=",K12)</f>
-        <v>7.41</v>
+        <v>18.55</v>
       </c>
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
@@ -8155,48 +8152,48 @@
       <c r="W12" s="16"/>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="155"/>
+      <c r="A13" s="159"/>
       <c r="B13" s="76" t="s">
         <v>72</v>
       </c>
       <c r="C13" s="20">
         <f>X27</f>
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="75" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="20" cm="1">
         <f t="array" ref="E13">_xlfn.IFS(D13="+",ROUNDUP(C13*(1+$M$4),0),D13="=",C13)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F13" s="75" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="20" cm="1">
         <f t="array" ref="G13">_xlfn.IFS(F13="+",ROUNDUP(E13*(1+$M$4),0),F13="=",E13)</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H13" s="75" t="s">
         <v>13</v>
       </c>
       <c r="I13" s="20" cm="1">
         <f t="array" ref="I13">_xlfn.IFS(H13="+",ROUNDUP(G13*(1+$M$4),0),H13="=",G13)</f>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J13" s="75" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="20" cm="1">
         <f t="array" ref="K13">_xlfn.IFS(J13="+",ROUNDUP(I13*(1+$M$4),0),J13="=",I13)</f>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="L13" s="75" t="s">
         <v>13</v>
       </c>
       <c r="M13" s="20" cm="1">
         <f t="array" ref="M13">_xlfn.IFS(L13="+",ROUNDUP(K13*(1+$M$4),0),L13="=",K13)</f>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
@@ -8204,48 +8201,48 @@
       <c r="W13" s="16"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="155"/>
+      <c r="A14" s="159"/>
       <c r="B14" s="77" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="48">
         <f>X31</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D14" s="75" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="21" cm="1">
         <f t="array" ref="E14">_xlfn.IFS(D14="+",ROUNDUP(C14*(1+$M$5),0),D14="=",C14)</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F14" s="75" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="21" cm="1">
         <f t="array" ref="G14">_xlfn.IFS(F14="+",ROUNDUP(E14*(1+$M$5),0),F14="=",E14)</f>
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H14" s="75" t="s">
         <v>13</v>
       </c>
       <c r="I14" s="21" cm="1">
         <f t="array" ref="I14">_xlfn.IFS(H14="+",ROUNDUP(G14*(1+$M$5),0),H14="=",G14)</f>
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="J14" s="75" t="s">
         <v>13</v>
       </c>
       <c r="K14" s="21" cm="1">
         <f t="array" ref="K14">_xlfn.IFS(J14="+",ROUNDUP(I14*(1+$M$5),0),J14="=",I14)</f>
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="L14" s="75" t="s">
         <v>13</v>
       </c>
       <c r="M14" s="21" cm="1">
         <f t="array" ref="M14">_xlfn.IFS(L14="+",ROUNDUP(K14*(1+$M$5),0),L14="=",K14)</f>
-        <v>153</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -8265,7 +8262,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="159" t="s">
         <v>167</v>
       </c>
       <c r="B16" s="90" t="s">
@@ -8302,16 +8299,16 @@
       <c r="M16" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="O16" s="154" t="s">
+      <c r="O16" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="P16" s="154"/>
-      <c r="Q16" s="154"/>
-      <c r="R16" s="154"/>
-      <c r="S16" s="154"/>
+      <c r="P16" s="134"/>
+      <c r="Q16" s="134"/>
+      <c r="R16" s="134"/>
+      <c r="S16" s="134"/>
     </row>
     <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="155"/>
+      <c r="A17" s="159"/>
       <c r="B17" s="91" t="s">
         <v>151</v>
       </c>
@@ -8346,29 +8343,29 @@
       <c r="M17" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="O17" s="154" t="s">
+      <c r="O17" s="134" t="s">
         <v>142</v>
       </c>
-      <c r="P17" s="154"/>
-      <c r="Q17" s="154"/>
-      <c r="R17" s="167" t="str">
+      <c r="P17" s="134"/>
+      <c r="Q17" s="134"/>
+      <c r="R17" s="160" t="str">
         <f>HLOOKUP(P29,WEAK_TOWER,VLOOKUP(P27,WEAK_ENEMY,5,FALSE)+1,FALSE)</f>
-        <v>-</v>
-      </c>
-      <c r="S17" s="167"/>
-      <c r="T17" s="154" t="s">
+        <v>=</v>
+      </c>
+      <c r="S17" s="160"/>
+      <c r="T17" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="U17" s="154"/>
-      <c r="V17" s="154"/>
-      <c r="W17" s="167" t="str" cm="1">
+      <c r="U17" s="134"/>
+      <c r="V17" s="134"/>
+      <c r="W17" s="160" t="str" cm="1">
         <f t="array" ref="W17">_xlfn.IFS(P31=P33, "+",P31&lt;&gt;P33,"-")</f>
         <v>-</v>
       </c>
-      <c r="X17" s="167"/>
+      <c r="X17" s="160"/>
     </row>
     <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="155"/>
+      <c r="A18" s="159"/>
       <c r="B18" s="90" t="s">
         <v>152</v>
       </c>
@@ -8403,54 +8400,54 @@
       </c>
       <c r="M18" s="48" cm="1">
         <f t="array" ref="M18">_xlfn.IFS(M17="LVL 0",C11,M17="LVL 1",E11,M17="LVL 2",G11,M17="LVL 3",I11,M17="LVL 4",K11,M17="LVL 5",M11)</f>
-        <v>170.83</v>
-      </c>
-      <c r="O18" s="169" t="str">
+        <v>68.319999999999993</v>
+      </c>
+      <c r="O18" s="162" t="str">
         <f>_xlfn.CONCAT(P29," ",R29," lvl ",O10)</f>
-        <v>Pizza Canon lvl 0</v>
-      </c>
-      <c r="P18" s="169"/>
-      <c r="Q18" s="169"/>
-      <c r="R18" s="167"/>
-      <c r="S18" s="167"/>
-      <c r="T18" s="168" t="str">
+        <v>Energy Snipe lvl 0</v>
+      </c>
+      <c r="P18" s="162"/>
+      <c r="Q18" s="162"/>
+      <c r="R18" s="160"/>
+      <c r="S18" s="160"/>
+      <c r="T18" s="161" t="str">
         <f>_xlfn.CONCAT(P33," Factory")</f>
         <v>Stars Factory</v>
       </c>
-      <c r="U18" s="168"/>
-      <c r="V18" s="168"/>
-      <c r="W18" s="167"/>
-      <c r="X18" s="167"/>
+      <c r="U18" s="161"/>
+      <c r="V18" s="161"/>
+      <c r="W18" s="160"/>
+      <c r="X18" s="160"/>
     </row>
     <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="155"/>
+      <c r="A19" s="159"/>
       <c r="B19" s="91" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="79">
         <f>X33</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D19" s="75" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="79" cm="1">
         <f t="array" ref="E19">_xlfn.IFS(D19="+",ROUNDUP($C$19 * (1 +Q5) ^ 1,0),D19="=",C19)</f>
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F19" s="75" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="79" cm="1">
         <f t="array" ref="G19">_xlfn.IFS(F19="+",ROUNDUP($C$19 * (1 +S5) ^ 2,0),F19="=",E19)</f>
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="H19" s="75" t="s">
         <v>111</v>
       </c>
       <c r="I19" s="79" cm="1">
         <f t="array" ref="I19">_xlfn.IFS(H19="+",ROUNDDOWN(G19*(1+$Q$5),0),H19="=",G19,H19="++",ROUNDDOWN(G19*(1+$Q$5)*1.5,0),H19="-",ROUNDDOWN(G19*(1+$Q$5)*0.75,0))</f>
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="K19" s="73" t="s">
         <v>40</v>
@@ -8458,44 +8455,44 @@
       <c r="M19" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="O19" s="169"/>
-      <c r="P19" s="169"/>
-      <c r="Q19" s="169"/>
-      <c r="R19" s="167"/>
-      <c r="S19" s="167"/>
-      <c r="T19" s="168"/>
-      <c r="U19" s="168"/>
-      <c r="V19" s="168"/>
-      <c r="W19" s="167"/>
-      <c r="X19" s="167"/>
+      <c r="O19" s="162"/>
+      <c r="P19" s="162"/>
+      <c r="Q19" s="162"/>
+      <c r="R19" s="160"/>
+      <c r="S19" s="160"/>
+      <c r="T19" s="161"/>
+      <c r="U19" s="161"/>
+      <c r="V19" s="161"/>
+      <c r="W19" s="160"/>
+      <c r="X19" s="160"/>
     </row>
     <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16"/>
       <c r="K20" s="74" cm="1">
         <f t="array" ref="K20">_xlfn.IFS(K17="Upgrade 0",C5,K17="Upgrade 1",E5,K17="Upgrade 2",G5)</f>
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="M20" s="74" cm="1">
         <f t="array" ref="M20">_xlfn.IFS(M17="LVL 0",C14,M17="LVL 1",E14,M17="LVL 2",G14,M17="LVL 3",I14,M17="LVL 4",K14,M17="LVL 5",M14)</f>
-        <v>153</v>
-      </c>
-      <c r="O20" s="154" t="s">
+        <v>80</v>
+      </c>
+      <c r="O20" s="134" t="s">
         <v>142</v>
       </c>
-      <c r="P20" s="154"/>
-      <c r="Q20" s="154"/>
-      <c r="R20" s="167"/>
-      <c r="S20" s="167"/>
-      <c r="T20" s="154" t="s">
+      <c r="P20" s="134"/>
+      <c r="Q20" s="134"/>
+      <c r="R20" s="160"/>
+      <c r="S20" s="160"/>
+      <c r="T20" s="134" t="s">
         <v>160</v>
       </c>
-      <c r="U20" s="154"/>
-      <c r="V20" s="154"/>
-      <c r="W20" s="167"/>
-      <c r="X20" s="167"/>
+      <c r="U20" s="134"/>
+      <c r="V20" s="134"/>
+      <c r="W20" s="160"/>
+      <c r="X20" s="160"/>
     </row>
     <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="155" t="s">
+      <c r="A21" s="159" t="s">
         <v>168</v>
       </c>
       <c r="B21" s="90" t="s">
@@ -8532,25 +8529,25 @@
       <c r="M21" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="O21" s="169" t="str">
+      <c r="O21" s="162" t="str">
         <f>_xlfn.CONCAT(P27," ",R27," lvl ",_xlfn.CONCAT(RIGHT(M17,1)))</f>
-        <v>Insect Saboteur lvl 5</v>
-      </c>
-      <c r="P21" s="169"/>
-      <c r="Q21" s="169"/>
-      <c r="R21" s="167"/>
-      <c r="S21" s="167"/>
-      <c r="T21" s="168" t="str">
+        <v>Insect Intangible lvl 5</v>
+      </c>
+      <c r="P21" s="162"/>
+      <c r="Q21" s="162"/>
+      <c r="R21" s="160"/>
+      <c r="S21" s="160"/>
+      <c r="T21" s="161" t="str">
         <f>_xlfn.CONCAT(P31," Car")</f>
-        <v>Bubblegum Car</v>
-      </c>
-      <c r="U21" s="168"/>
-      <c r="V21" s="168"/>
-      <c r="W21" s="167"/>
-      <c r="X21" s="167"/>
+        <v>Pizza Car</v>
+      </c>
+      <c r="U21" s="161"/>
+      <c r="V21" s="161"/>
+      <c r="W21" s="160"/>
+      <c r="X21" s="160"/>
     </row>
     <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="155"/>
+      <c r="A22" s="159"/>
       <c r="B22" s="91" t="s">
         <v>151</v>
       </c>
@@ -8581,25 +8578,25 @@
       </c>
       <c r="K22" s="74" cm="1">
         <f t="array" ref="K22">_xlfn.IFS(K17="Upgrade 0",C3,K17="Upgrade 1",E3,K17="Upgrade 2",G3)</f>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="M22" s="74" t="str">
         <f>_xlfn.CONCAT(P29," ",O10)</f>
-        <v>Pizza 0</v>
-      </c>
-      <c r="O22" s="169"/>
-      <c r="P22" s="169"/>
-      <c r="Q22" s="169"/>
-      <c r="R22" s="167"/>
-      <c r="S22" s="167"/>
-      <c r="T22" s="168"/>
-      <c r="U22" s="168"/>
-      <c r="V22" s="168"/>
-      <c r="W22" s="167"/>
-      <c r="X22" s="167"/>
+        <v>Energy 0</v>
+      </c>
+      <c r="O22" s="162"/>
+      <c r="P22" s="162"/>
+      <c r="Q22" s="162"/>
+      <c r="R22" s="160"/>
+      <c r="S22" s="160"/>
+      <c r="T22" s="161"/>
+      <c r="U22" s="161"/>
+      <c r="V22" s="161"/>
+      <c r="W22" s="160"/>
+      <c r="X22" s="160"/>
     </row>
     <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="155"/>
+      <c r="A23" s="159"/>
       <c r="B23" s="90" t="s">
         <v>152</v>
       </c>
@@ -8632,356 +8629,356 @@
         <v>81</v>
       </c>
       <c r="N23" s="15"/>
-      <c r="O23" s="154" t="s">
+      <c r="O23" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="P23" s="154"/>
-      <c r="Q23" s="154"/>
-      <c r="R23" s="154"/>
-      <c r="S23" s="154"/>
+      <c r="P23" s="134"/>
+      <c r="Q23" s="134"/>
+      <c r="R23" s="134"/>
+      <c r="S23" s="134"/>
     </row>
     <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="155"/>
+      <c r="A24" s="159"/>
       <c r="B24" s="91" t="s">
         <v>78</v>
       </c>
       <c r="C24" s="79">
         <f>X31</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D24" s="75" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="79" cm="1">
         <f t="array" ref="E24">_xlfn.IFS(D24="+",ROUNDUP($C$24 * (1 +S5) ^ 1,0),D24="=",C24)</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F24" s="75" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="79" cm="1">
         <f t="array" ref="G24">_xlfn.IFS(F24="+",ROUNDUP($C$19 * (1 +S5) ^ 2,0),F24="=",E24)</f>
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="H24" s="75" t="s">
         <v>13</v>
       </c>
       <c r="I24" s="79" cm="1">
         <f t="array" ref="I24">_xlfn.IFS(H24="+",ROUNDDOWN(G24*(1+$S$5),0),H24="=",G24,H24="++",ROUNDDOWN(G24*(1+$Q$5)*1.5,0),H24="-",ROUNDDOWN(G24*(1+$Q$5)*0.75,0))</f>
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="K24" s="74" cm="1">
         <f t="array" ref="K24">_xlfn.IFS(K17="Upgrade 0",C6,K17="Upgrade 1",E6,K17="Upgrade 2",G6,K17="Upgrade 3",#REF!,K17="Upgrade 4",K6,K17="Upgrade 5",M6)</f>
         <v>123</v>
       </c>
-      <c r="O24" s="140" cm="1">
+      <c r="O24" s="151" cm="1">
         <f t="array" ref="O24">_xlfn.IFS(R17="-", 1-K2, R17="=",1,R17="+",1+K2)</f>
-        <v>0.8</v>
-      </c>
-      <c r="P24" s="140"/>
-      <c r="Q24" s="140"/>
-      <c r="R24" s="140"/>
-      <c r="S24" s="140"/>
+        <v>1</v>
+      </c>
+      <c r="P24" s="151"/>
+      <c r="Q24" s="151"/>
+      <c r="R24" s="151"/>
+      <c r="S24" s="151"/>
     </row>
     <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="159" t="s">
+      <c r="C26" s="167" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="154" t="s">
+      <c r="D26" s="167"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="N26" s="170" t="s">
+      <c r="H26" s="134"/>
+      <c r="I26" s="134"/>
+      <c r="N26" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="O26" s="170"/>
-      <c r="P26" s="170" t="s">
+      <c r="O26" s="155"/>
+      <c r="P26" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="Q26" s="170"/>
-      <c r="R26" s="170" t="s">
+      <c r="Q26" s="155"/>
+      <c r="R26" s="155" t="s">
         <v>55</v>
       </c>
-      <c r="S26" s="170"/>
-      <c r="T26" s="170" t="s">
+      <c r="S26" s="155"/>
+      <c r="T26" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="U26" s="170"/>
-      <c r="V26" s="170" t="s">
+      <c r="U26" s="155"/>
+      <c r="V26" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="W26" s="170"/>
-      <c r="X26" s="170" t="s">
+      <c r="W26" s="155"/>
+      <c r="X26" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="Y26" s="170"/>
+      <c r="Y26" s="155"/>
     </row>
     <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="154" t="s">
+      <c r="C27" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="154"/>
-      <c r="E27" s="154" t="s">
+      <c r="D27" s="134"/>
+      <c r="E27" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="154"/>
-      <c r="G27" s="140" t="str">
+      <c r="F27" s="134"/>
+      <c r="G27" s="151" t="str">
         <f>_xlfn.CONCAT(K20*K22," s")</f>
-        <v>108 s</v>
-      </c>
-      <c r="H27" s="140"/>
-      <c r="I27" s="140"/>
-      <c r="N27" s="161" t="s">
-        <v>190</v>
-      </c>
-      <c r="O27" s="161"/>
-      <c r="P27" s="134" t="str">
+        <v>193,5 s</v>
+      </c>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="N27" s="158" t="s">
+        <v>189</v>
+      </c>
+      <c r="O27" s="158"/>
+      <c r="P27" s="148" t="str">
         <f>VLOOKUP($N$27,ENEMY,3)</f>
         <v>Insect</v>
       </c>
-      <c r="Q27" s="134"/>
-      <c r="R27" s="134" t="str">
+      <c r="Q27" s="148"/>
+      <c r="R27" s="148" t="str">
         <f>VLOOKUP($N$27,ENEMY,4)</f>
-        <v>Saboteur</v>
-      </c>
-      <c r="S27" s="134"/>
-      <c r="T27" s="134">
+        <v>Intangible</v>
+      </c>
+      <c r="S27" s="148"/>
+      <c r="T27" s="148">
         <f>VLOOKUP($N$27,ENEMY,5)</f>
-        <v>22.5</v>
-      </c>
-      <c r="U27" s="134"/>
-      <c r="V27" s="134">
+        <v>9</v>
+      </c>
+      <c r="U27" s="148"/>
+      <c r="V27" s="148">
         <f>VLOOKUP($N$27,ENEMY,6)</f>
-        <v>2</v>
-      </c>
-      <c r="W27" s="134"/>
-      <c r="X27" s="134">
+        <v>5</v>
+      </c>
+      <c r="W27" s="148"/>
+      <c r="X27" s="148">
         <f>VLOOKUP($N$27,ENEMY,7)</f>
-        <v>7.5</v>
-      </c>
-      <c r="Y27" s="134"/>
+        <v>3</v>
+      </c>
+      <c r="Y27" s="148"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" s="73" t="str">
         <f>_xlfn.CONCAT(K17," ",K16)</f>
         <v>Upgrade 2 DPS</v>
       </c>
-      <c r="C28" s="164">
+      <c r="C28" s="170">
         <f>ROUNDDOWN($M$18/B32,2)</f>
-        <v>26.69</v>
-      </c>
-      <c r="D28" s="164"/>
-      <c r="E28" s="163">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="D28" s="170"/>
+      <c r="E28" s="169">
         <f>ROUNDUP($M$18/B32,0)</f>
-        <v>27</v>
-      </c>
-      <c r="F28" s="163"/>
+        <v>9</v>
+      </c>
+      <c r="F28" s="169"/>
       <c r="G28" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="H28" s="154" t="s">
+      <c r="H28" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="I28" s="154"/>
-      <c r="N28" s="170" t="s">
+      <c r="I28" s="134"/>
+      <c r="N28" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="O28" s="170"/>
-      <c r="P28" s="170" t="s">
+      <c r="O28" s="155"/>
+      <c r="P28" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="Q28" s="170"/>
-      <c r="R28" s="170" t="s">
+      <c r="Q28" s="155"/>
+      <c r="R28" s="155" t="s">
         <v>55</v>
       </c>
-      <c r="S28" s="170"/>
-      <c r="T28" s="170" t="s">
+      <c r="S28" s="155"/>
+      <c r="T28" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="U28" s="170"/>
-      <c r="V28" s="170" t="s">
+      <c r="U28" s="155"/>
+      <c r="V28" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="W28" s="170"/>
-      <c r="X28" s="170" t="s">
+      <c r="W28" s="155"/>
+      <c r="X28" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="Y28" s="170"/>
+      <c r="Y28" s="155"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B29" s="73"/>
-      <c r="C29" s="140" t="str">
+      <c r="C29" s="151" t="str">
         <f>_xlfn.CONCAT(E28*K22," s")</f>
-        <v>20,25 s</v>
-      </c>
-      <c r="D29" s="140"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
+        <v>13,5 s</v>
+      </c>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
       <c r="G29" s="74">
         <f>E6+G6</f>
         <v>158</v>
       </c>
-      <c r="H29" s="140">
+      <c r="H29" s="151">
         <f>ROUNDUP(K24/M20,0)</f>
-        <v>1</v>
-      </c>
-      <c r="I29" s="140"/>
-      <c r="N29" s="161" t="s">
-        <v>196</v>
-      </c>
-      <c r="O29" s="161"/>
-      <c r="P29" s="134" t="str">
+        <v>2</v>
+      </c>
+      <c r="I29" s="151"/>
+      <c r="N29" s="158" t="s">
+        <v>164</v>
+      </c>
+      <c r="O29" s="158"/>
+      <c r="P29" s="148" t="str">
         <f>VLOOKUP($N$29,TOWER,3)</f>
+        <v>Energy</v>
+      </c>
+      <c r="Q29" s="148"/>
+      <c r="R29" s="148" t="str">
+        <f>VLOOKUP($N$29,TOWER,4)</f>
+        <v>Snipe</v>
+      </c>
+      <c r="S29" s="148"/>
+      <c r="T29" s="148">
+        <f>VLOOKUP($N$29,TOWER,5)</f>
+        <v>6</v>
+      </c>
+      <c r="U29" s="148"/>
+      <c r="V29" s="148">
+        <f>VLOOKUP($N$29,TOWER,6)</f>
+        <v>1.5</v>
+      </c>
+      <c r="W29" s="148"/>
+      <c r="X29" s="148">
+        <f>VLOOKUP($N$29,TOWER,7)</f>
+        <v>15</v>
+      </c>
+      <c r="Y29" s="148"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="N30" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="O30" s="155"/>
+      <c r="P30" s="155" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q30" s="155"/>
+      <c r="R30" s="155" t="s">
+        <v>150</v>
+      </c>
+      <c r="S30" s="155"/>
+      <c r="T30" s="155" t="s">
+        <v>44</v>
+      </c>
+      <c r="U30" s="155"/>
+      <c r="V30" s="155" t="s">
+        <v>157</v>
+      </c>
+      <c r="W30" s="155"/>
+      <c r="X30" s="155" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y30" s="155"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B31" s="134" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="134"/>
+      <c r="N31" s="158" t="s">
+        <v>155</v>
+      </c>
+      <c r="O31" s="158"/>
+      <c r="P31" s="148" t="str">
+        <f>VLOOKUP($N$31,TRAIN,3)</f>
         <v>Pizza</v>
       </c>
-      <c r="Q29" s="134"/>
-      <c r="R29" s="134" t="str">
-        <f>VLOOKUP($N$29,TOWER,4)</f>
-        <v>Canon</v>
-      </c>
-      <c r="S29" s="134"/>
-      <c r="T29" s="134">
-        <f>VLOOKUP($N$29,TOWER,5)</f>
-        <v>3</v>
-      </c>
-      <c r="U29" s="134"/>
-      <c r="V29" s="134">
-        <f>VLOOKUP($N$29,TOWER,6)</f>
-        <v>0.75</v>
-      </c>
-      <c r="W29" s="134"/>
-      <c r="X29" s="134">
-        <f>VLOOKUP($N$29,TOWER,7)</f>
-        <v>9</v>
-      </c>
-      <c r="Y29" s="134"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="N30" s="170" t="s">
-        <v>161</v>
-      </c>
-      <c r="O30" s="170"/>
-      <c r="P30" s="170" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q30" s="170"/>
-      <c r="R30" s="170" t="s">
-        <v>150</v>
-      </c>
-      <c r="S30" s="170"/>
-      <c r="T30" s="170" t="s">
-        <v>44</v>
-      </c>
-      <c r="U30" s="170"/>
-      <c r="V30" s="170" t="s">
-        <v>157</v>
-      </c>
-      <c r="W30" s="170"/>
-      <c r="X30" s="170" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y30" s="170"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B31" s="154" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="154"/>
-      <c r="N31" s="161" t="s">
-        <v>212</v>
-      </c>
-      <c r="O31" s="161"/>
-      <c r="P31" s="134" t="str">
-        <f>VLOOKUP($N$31,TRAIN,3)</f>
-        <v>Bubblegum</v>
-      </c>
-      <c r="Q31" s="134"/>
-      <c r="R31" s="134">
+      <c r="Q31" s="148"/>
+      <c r="R31" s="148">
         <f>VLOOKUP($N$31,TRAIN,4)</f>
         <v>50</v>
       </c>
-      <c r="S31" s="134"/>
-      <c r="T31" s="134">
+      <c r="S31" s="148"/>
+      <c r="T31" s="148">
         <f>VLOOKUP($N$31,TRAIN,5)</f>
         <v>2</v>
       </c>
-      <c r="U31" s="134"/>
-      <c r="V31" s="134">
+      <c r="U31" s="148"/>
+      <c r="V31" s="148">
         <f>VLOOKUP($N$31,TRAIN,6)</f>
         <v>5</v>
       </c>
-      <c r="W31" s="134"/>
-      <c r="X31" s="134">
+      <c r="W31" s="148"/>
+      <c r="X31" s="148">
         <f>VLOOKUP($N$27,ENEMY,8)</f>
-        <v>20</v>
-      </c>
-      <c r="Y31" s="134"/>
+        <v>10</v>
+      </c>
+      <c r="Y31" s="148"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B32" s="134">
+      <c r="B32" s="148">
         <f>ROUND(O2*K18*O24,2)</f>
-        <v>6.4</v>
-      </c>
-      <c r="C32" s="134"/>
-      <c r="N32" s="170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="148"/>
+      <c r="N32" s="155" t="s">
         <v>159</v>
       </c>
-      <c r="O32" s="170"/>
-      <c r="P32" s="170" t="s">
+      <c r="O32" s="155"/>
+      <c r="P32" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="Q32" s="170"/>
-      <c r="R32" s="170" t="s">
+      <c r="Q32" s="155"/>
+      <c r="R32" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="S32" s="170"/>
-      <c r="T32" s="170" t="s">
+      <c r="S32" s="155"/>
+      <c r="T32" s="155" t="s">
         <v>156</v>
       </c>
-      <c r="U32" s="170"/>
-      <c r="V32" s="170" t="s">
+      <c r="U32" s="155"/>
+      <c r="V32" s="155" t="s">
         <v>157</v>
       </c>
-      <c r="W32" s="170"/>
-      <c r="X32" s="170" t="s">
+      <c r="W32" s="155"/>
+      <c r="X32" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="Y32" s="170"/>
+      <c r="Y32" s="155"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="N33" s="161" t="s">
+      <c r="N33" s="158" t="s">
         <v>171</v>
       </c>
-      <c r="O33" s="161"/>
-      <c r="P33" s="134" t="str">
+      <c r="O33" s="158"/>
+      <c r="P33" s="148" t="str">
         <f>VLOOKUP($N$33,FACTORY,3)</f>
         <v>Stars</v>
       </c>
-      <c r="Q33" s="134"/>
-      <c r="R33" s="134">
+      <c r="Q33" s="148"/>
+      <c r="R33" s="148">
         <f>VLOOKUP($N$33,FACTORY,4)</f>
         <v>100</v>
       </c>
-      <c r="S33" s="134"/>
-      <c r="T33" s="134">
+      <c r="S33" s="148"/>
+      <c r="T33" s="148">
         <f>VLOOKUP($N$33,FACTORY,5)</f>
         <v>0.5</v>
       </c>
-      <c r="U33" s="134"/>
-      <c r="V33" s="134">
+      <c r="U33" s="148"/>
+      <c r="V33" s="148">
         <f>VLOOKUP($N$33,FACTORY,6)</f>
         <v>10</v>
       </c>
-      <c r="W33" s="134"/>
-      <c r="X33" s="134">
+      <c r="W33" s="148"/>
+      <c r="X33" s="148">
         <f>VLOOKUP($N$29,TOWER,9)</f>
-        <v>100</v>
-      </c>
-      <c r="Y33" s="134"/>
+        <v>90</v>
+      </c>
+      <c r="Y33" s="148"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
@@ -8990,36 +8987,74 @@
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X3"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="W17:X22"/>
+    <mergeCell ref="R17:S22"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="T18:V19"/>
+    <mergeCell ref="T21:V22"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O21:Q22"/>
+    <mergeCell ref="O16:S16"/>
+    <mergeCell ref="O18:Q19"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="O23:S23"/>
     <mergeCell ref="O24:S24"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
@@ -9044,74 +9079,36 @@
     <mergeCell ref="N30:O30"/>
     <mergeCell ref="R31:S31"/>
     <mergeCell ref="R32:S32"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="O23:S23"/>
-    <mergeCell ref="W17:X22"/>
-    <mergeCell ref="R17:S22"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="T18:V19"/>
-    <mergeCell ref="T21:V22"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="O21:Q22"/>
-    <mergeCell ref="O16:S16"/>
-    <mergeCell ref="O18:Q19"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X3"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V30:W30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C28">
@@ -10379,10 +10376,10 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C7" s="154" t="s">
+      <c r="C7" s="134" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="154"/>
+      <c r="D7" s="134"/>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="171" t="s">
@@ -10739,7 +10736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB692A4-AAE4-4AF5-8118-7C6BC2CF5B66}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -11043,10 +11040,10 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C7" s="154" t="s">
+      <c r="C7" s="134" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="154"/>
+      <c r="D7" s="134"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="171" t="s">
@@ -11360,12 +11357,12 @@
         <v>39</v>
       </c>
       <c r="I2" s="87" t="s">
-        <v>213</v>
-      </c>
-      <c r="K2" s="156" t="s">
+        <v>212</v>
+      </c>
+      <c r="K2" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="156"/>
+      <c r="L2" s="157"/>
       <c r="M2" s="73" t="s">
         <v>11</v>
       </c>
@@ -11378,10 +11375,10 @@
         <v>2</v>
       </c>
       <c r="R2" s="89"/>
-      <c r="T2" s="166" t="s">
+      <c r="T2" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="166"/>
+      <c r="U2" s="164"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
@@ -11412,7 +11409,7 @@
       <c r="I3" s="23">
         <v>90</v>
       </c>
-      <c r="K3" s="155" t="s">
+      <c r="K3" s="159" t="s">
         <v>45</v>
       </c>
       <c r="L3" s="90" t="s">
@@ -11439,10 +11436,10 @@
       <c r="R3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="165">
+      <c r="T3" s="163">
         <v>0.3</v>
       </c>
-      <c r="U3" s="165"/>
+      <c r="U3" s="163"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="str">
@@ -11473,7 +11470,7 @@
       <c r="I4" s="21">
         <v>80</v>
       </c>
-      <c r="K4" s="155"/>
+      <c r="K4" s="159"/>
       <c r="L4" s="91" t="s">
         <v>15</v>
       </c>
@@ -11498,10 +11495,10 @@
       <c r="R4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="158">
+      <c r="T4" s="165">
         <v>0.2</v>
       </c>
-      <c r="U4" s="158"/>
+      <c r="U4" s="165"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="str">
@@ -11532,7 +11529,7 @@
       <c r="I5" s="20">
         <v>100</v>
       </c>
-      <c r="K5" s="155"/>
+      <c r="K5" s="159"/>
       <c r="L5" s="90" t="s">
         <v>10</v>
       </c>
@@ -11557,10 +11554,10 @@
       <c r="R5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="165">
+      <c r="T5" s="163">
         <v>0.1</v>
       </c>
-      <c r="U5" s="165"/>
+      <c r="U5" s="163"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="str">
@@ -11596,7 +11593,7 @@
         <f>I3</f>
         <v>90</v>
       </c>
-      <c r="K6" s="155"/>
+      <c r="K6" s="159"/>
       <c r="L6" s="91" t="s">
         <v>40</v>
       </c>
@@ -11621,10 +11618,10 @@
       <c r="R6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="158">
+      <c r="T6" s="165">
         <v>0.2</v>
       </c>
-      <c r="U6" s="158"/>
+      <c r="U6" s="165"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="str">
@@ -11660,7 +11657,7 @@
         <f>I4</f>
         <v>80</v>
       </c>
-      <c r="K7" s="155"/>
+      <c r="K7" s="159"/>
       <c r="L7" s="90" t="s">
         <v>78</v>
       </c>
@@ -11685,10 +11682,10 @@
       <c r="R7" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="T7" s="165">
+      <c r="T7" s="163">
         <v>2</v>
       </c>
-      <c r="U7" s="165"/>
+      <c r="U7" s="163"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="str">
@@ -11867,79 +11864,79 @@
         <f>I5</f>
         <v>100</v>
       </c>
-      <c r="K11" s="170" t="s">
+      <c r="K11" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="170"/>
-      <c r="M11" s="170" t="s">
+      <c r="L11" s="155"/>
+      <c r="M11" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="170"/>
-      <c r="O11" s="170" t="s">
+      <c r="N11" s="155"/>
+      <c r="O11" s="155" t="s">
         <v>55</v>
       </c>
-      <c r="P11" s="170"/>
-      <c r="Q11" s="170" t="s">
+      <c r="P11" s="155"/>
+      <c r="Q11" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="R11" s="170"/>
-      <c r="S11" s="170" t="s">
+      <c r="R11" s="155"/>
+      <c r="S11" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="T11" s="170"/>
-      <c r="U11" s="170" t="s">
+      <c r="T11" s="155"/>
+      <c r="U11" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="V11" s="170"/>
-      <c r="W11" s="170" t="s">
+      <c r="V11" s="155"/>
+      <c r="W11" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="X11" s="170"/>
-      <c r="Y11" s="170" t="s">
+      <c r="X11" s="155"/>
+      <c r="Y11" s="155" t="s">
         <v>93</v>
       </c>
-      <c r="Z11" s="170"/>
+      <c r="Z11" s="155"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K12" s="161" t="s">
+      <c r="K12" s="158" t="s">
         <v>195</v>
       </c>
-      <c r="L12" s="161"/>
-      <c r="M12" s="134" t="str">
+      <c r="L12" s="158"/>
+      <c r="M12" s="148" t="str">
         <f>VLOOKUP($K$12,TOWER,3)</f>
         <v>Pizza</v>
       </c>
-      <c r="N12" s="134"/>
-      <c r="O12" s="134" t="str">
+      <c r="N12" s="148"/>
+      <c r="O12" s="148" t="str">
         <f>VLOOKUP($K$12,TOWER,4)</f>
         <v>Mortar</v>
       </c>
-      <c r="P12" s="134"/>
-      <c r="Q12" s="134">
+      <c r="P12" s="148"/>
+      <c r="Q12" s="148">
         <f>VLOOKUP($K$12,TOWER,5)</f>
         <v>4</v>
       </c>
-      <c r="R12" s="134"/>
-      <c r="S12" s="134">
+      <c r="R12" s="148"/>
+      <c r="S12" s="148">
         <f>VLOOKUP($K$12,TOWER,6)</f>
         <v>1</v>
       </c>
-      <c r="T12" s="134"/>
-      <c r="U12" s="134">
+      <c r="T12" s="148"/>
+      <c r="U12" s="148">
         <f>VLOOKUP($K$12,TOWER,7)</f>
         <v>12</v>
       </c>
-      <c r="V12" s="134"/>
-      <c r="W12" s="134">
+      <c r="V12" s="148"/>
+      <c r="W12" s="148">
         <f>VLOOKUP($K$12,TOWER,8)</f>
         <v>15</v>
       </c>
-      <c r="X12" s="134"/>
-      <c r="Y12" s="134">
+      <c r="X12" s="148"/>
+      <c r="Y12" s="148">
         <f>VLOOKUP($K$12,TOWER,9)</f>
         <v>80</v>
       </c>
-      <c r="Z12" s="134"/>
+      <c r="Z12" s="148"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C13" s="173" t="s">
@@ -11991,19 +11988,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
     <mergeCell ref="W11:X11"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="Y11:Z11"/>
@@ -12020,6 +12004,19 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T6:U6"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C11" xr:uid="{A0725771-D6FB-4BCA-A3AB-AFBEDB867F7D}">
@@ -12745,10 +12742,10 @@
       <c r="B12" s="45"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C13" s="154" t="s">
+      <c r="C13" s="134" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="154"/>
+      <c r="D13" s="134"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C14" s="171" t="s">
@@ -14010,42 +14007,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="184" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="181" t="s">
+      <c r="B1" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="181" t="s">
+      <c r="C1" s="184" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="181" t="s">
+      <c r="D1" s="184" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="181" t="s">
+      <c r="E1" s="184" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="181" t="s">
+      <c r="F1" s="184" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="182" t="s">
+      <c r="G1" s="180" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="183"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="180" t="s">
+      <c r="H1" s="181"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="183" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="181"/>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
+      <c r="A2" s="184"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
       <c r="G2" s="92" t="s">
         <v>72</v>
       </c>
@@ -14374,35 +14371,30 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F14" s="161" t="s">
+      <c r="F14" s="158" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="134" t="str">
+      <c r="G14" s="148" t="str">
         <f>VLOOKUP($F$14,TOWER_UPGRADE,7)</f>
         <v>-</v>
       </c>
-      <c r="H14" s="134" t="str">
+      <c r="H14" s="148" t="str">
         <f>VLOOKUP($F$14,TOWER_UPGRADE,8)</f>
         <v>++</v>
       </c>
-      <c r="I14" s="134" t="str">
+      <c r="I14" s="148" t="str">
         <f>VLOOKUP($F$14,TOWER_UPGRADE,9)</f>
         <v>=</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F15" s="161"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -14410,6 +14402,11 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13 F14" xr:uid="{5DD3618D-C4BE-491F-B770-27363DACB01A}">
@@ -14783,6 +14780,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100841444F490B10C45A279B0383115D26D" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="91c543cf6706f2108a45fe2b21185738">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c3a97ae1-1078-4f52-97c7-e1e75f184270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6cf98f67490a83722a01f9dfd5fe46d6" ns3:_="">
     <xsd:import namespace="c3a97ae1-1078-4f52-97c7-e1e75f184270"/>
@@ -14914,35 +14926,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02023A10-1816-44FB-8F7C-8B09E93BD20F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{382CAFBC-27A9-4D0E-A532-4CEEC1A7F497}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c3a97ae1-1078-4f52-97c7-e1e75f184270"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14964,9 +14951,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{382CAFBC-27A9-4D0E-A532-4CEEC1A7F497}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02023A10-1816-44FB-8F7C-8B09E93BD20F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c3a97ae1-1078-4f52-97c7-e1e75f184270"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documents/GameDesign/System_Design.xlsx
+++ b/Documents/GameDesign/System_Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\GameSup_GD1\Workshop\Tower_Defense\STD_Workshop\Documents\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199FA701-AC1A-471B-BBEA-D989010DB06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42D527F-27F9-4782-9E2A-4BA812A4DD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="840" windowWidth="21600" windowHeight="11295" tabRatio="754" firstSheet="3" activeTab="5" xr2:uid="{EE4EEEAB-A39E-4793-9971-E358DB8AAF6E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="754" firstSheet="3" activeTab="5" xr2:uid="{EE4EEEAB-A39E-4793-9971-E358DB8AAF6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Wave" sheetId="10" r:id="rId1"/>
@@ -1571,138 +1571,138 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1715,6 +1715,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1722,12 +1728,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5031,66 +5031,66 @@
   <sheetData>
     <row r="1" spans="1:48" s="111" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="108"/>
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="160" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="160" t="s">
+      <c r="C1" s="152" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="142" t="s">
+      <c r="D1" s="154" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="143"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="142" t="s">
+      <c r="E1" s="155"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="154" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="143"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="142" t="s">
+      <c r="H1" s="155"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="154" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="143"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="142" t="s">
+      <c r="K1" s="155"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="154" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="143"/>
-      <c r="O1" s="144"/>
-      <c r="P1" s="142" t="s">
+      <c r="N1" s="155"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="154" t="s">
         <v>177</v>
       </c>
-      <c r="Q1" s="143"/>
-      <c r="R1" s="144"/>
-      <c r="S1" s="142" t="s">
+      <c r="Q1" s="155"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="154" t="s">
         <v>178</v>
       </c>
-      <c r="T1" s="143"/>
-      <c r="U1" s="144"/>
-      <c r="V1" s="142" t="s">
+      <c r="T1" s="155"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="154" t="s">
         <v>206</v>
       </c>
-      <c r="W1" s="143"/>
-      <c r="X1" s="144"/>
-      <c r="Y1" s="142" t="s">
+      <c r="W1" s="155"/>
+      <c r="X1" s="156"/>
+      <c r="Y1" s="154" t="s">
         <v>207</v>
       </c>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="144"/>
-      <c r="AB1" s="142" t="s">
+      <c r="Z1" s="155"/>
+      <c r="AA1" s="156"/>
+      <c r="AB1" s="154" t="s">
         <v>208</v>
       </c>
-      <c r="AC1" s="143"/>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="142"/>
-      <c r="AF1" s="143"/>
-      <c r="AG1" s="144"/>
-      <c r="AH1" s="142"/>
-      <c r="AI1" s="143"/>
-      <c r="AJ1" s="144"/>
-      <c r="AK1" s="142"/>
-      <c r="AL1" s="143"/>
-      <c r="AM1" s="144"/>
+      <c r="AC1" s="155"/>
+      <c r="AD1" s="156"/>
+      <c r="AE1" s="154"/>
+      <c r="AF1" s="155"/>
+      <c r="AG1" s="156"/>
+      <c r="AH1" s="154"/>
+      <c r="AI1" s="155"/>
+      <c r="AJ1" s="156"/>
+      <c r="AK1" s="154"/>
+      <c r="AL1" s="155"/>
+      <c r="AM1" s="156"/>
       <c r="AN1" s="123"/>
       <c r="AO1" s="123"/>
       <c r="AP1" s="123"/>
@@ -5103,8 +5103,8 @@
     </row>
     <row r="2" spans="1:48" s="127" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="109"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="161"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="153"/>
       <c r="D2" s="124" t="s">
         <v>179</v>
       </c>
@@ -5728,519 +5728,519 @@
       <c r="AM11" s="113"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="D12" s="148"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="150"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="145"/>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B13" s="82" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="151">
+      <c r="D13" s="157">
         <v>100</v>
       </c>
-      <c r="E13" s="152"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="145">
+      <c r="E13" s="158"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="149">
         <f>D16</f>
         <v>100</v>
       </c>
-      <c r="H13" s="146"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="145">
+      <c r="H13" s="150"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="149">
         <f>G16</f>
         <v>99</v>
       </c>
-      <c r="K13" s="146"/>
-      <c r="L13" s="147"/>
-      <c r="M13" s="145">
+      <c r="K13" s="150"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="149">
         <f>J16</f>
         <v>95</v>
       </c>
-      <c r="N13" s="146"/>
-      <c r="O13" s="147"/>
-      <c r="P13" s="145">
+      <c r="N13" s="150"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="149">
         <f>M16</f>
         <v>94</v>
       </c>
-      <c r="Q13" s="146"/>
-      <c r="R13" s="147"/>
-      <c r="S13" s="145">
+      <c r="Q13" s="150"/>
+      <c r="R13" s="151"/>
+      <c r="S13" s="149">
         <f>P16</f>
         <v>91</v>
       </c>
-      <c r="T13" s="146"/>
-      <c r="U13" s="147"/>
-      <c r="V13" s="145"/>
-      <c r="W13" s="146"/>
-      <c r="X13" s="147"/>
-      <c r="Y13" s="145"/>
-      <c r="Z13" s="146"/>
-      <c r="AA13" s="147"/>
-      <c r="AB13" s="145"/>
-      <c r="AC13" s="146"/>
-      <c r="AD13" s="147"/>
-      <c r="AE13" s="145"/>
-      <c r="AF13" s="146"/>
-      <c r="AG13" s="147"/>
-      <c r="AH13" s="145"/>
-      <c r="AI13" s="146"/>
-      <c r="AJ13" s="147"/>
-      <c r="AK13" s="145"/>
-      <c r="AL13" s="146"/>
-      <c r="AM13" s="147"/>
+      <c r="T13" s="150"/>
+      <c r="U13" s="151"/>
+      <c r="V13" s="149"/>
+      <c r="W13" s="150"/>
+      <c r="X13" s="151"/>
+      <c r="Y13" s="149"/>
+      <c r="Z13" s="150"/>
+      <c r="AA13" s="151"/>
+      <c r="AB13" s="149"/>
+      <c r="AC13" s="150"/>
+      <c r="AD13" s="151"/>
+      <c r="AE13" s="149"/>
+      <c r="AF13" s="150"/>
+      <c r="AG13" s="151"/>
+      <c r="AH13" s="149"/>
+      <c r="AI13" s="150"/>
+      <c r="AJ13" s="151"/>
+      <c r="AK13" s="149"/>
+      <c r="AL13" s="150"/>
+      <c r="AM13" s="151"/>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B14" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="D14" s="148">
+      <c r="D14" s="143">
         <f>D3*VLOOKUP($B$3,ENEMY,7)+D4*VLOOKUP($B$4,ENEMY,7)+D5*VLOOKUP($B$5,ENEMY,7)+D6*VLOOKUP($B$6,ENEMY,7)+D7*VLOOKUP($B$7,ENEMY,7)+D8*VLOOKUP($B$8,ENEMY,7)+D9*VLOOKUP($B$9,ENEMY,7)+D10*VLOOKUP($B$10,ENEMY,7)+D11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="149"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="148">
+      <c r="E14" s="144"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="143">
         <f>G3*H3*VLOOKUP($B$3,ENEMY,7)+G4*H4*VLOOKUP($B$4,ENEMY,7)+G5*H5*VLOOKUP($B$5,ENEMY,7)+G6*H6*VLOOKUP($B$6,ENEMY,7)+G7*H7*VLOOKUP($B$7,ENEMY,7)+G8*H8*VLOOKUP($B$8,ENEMY,7)+G9*H9*VLOOKUP($B$9,ENEMY,7)+G10*H10*VLOOKUP($B$10,ENEMY,7)+G11*H11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>54</v>
       </c>
-      <c r="H14" s="149"/>
-      <c r="I14" s="150"/>
-      <c r="J14" s="148">
+      <c r="H14" s="144"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="143">
         <f>J3*K3*VLOOKUP($B$3,ENEMY,7)+J4*K4*VLOOKUP($B$4,ENEMY,7)+J5*K5*VLOOKUP($B$5,ENEMY,7)+J6*K6*VLOOKUP($B$6,ENEMY,7)+J7*K7*VLOOKUP($B$7,ENEMY,7)+J8*K8*VLOOKUP($B$8,ENEMY,7)+J9*K9*VLOOKUP($B$9,ENEMY,7)+J10*K10*VLOOKUP($B$10,ENEMY,7)+J11*K11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>150</v>
       </c>
-      <c r="K14" s="149"/>
-      <c r="L14" s="150"/>
-      <c r="M14" s="148">
+      <c r="K14" s="144"/>
+      <c r="L14" s="145"/>
+      <c r="M14" s="143">
         <f>M3*N3*VLOOKUP($B$3,ENEMY,7)+M4*N4*VLOOKUP($B$4,ENEMY,7)+M5*N5*VLOOKUP($B$5,ENEMY,7)+M6*N6*VLOOKUP($B$6,ENEMY,7)+M7*N7*VLOOKUP($B$7,ENEMY,7)+M8*N8*VLOOKUP($B$8,ENEMY,7)+M9*N9*VLOOKUP($B$9,ENEMY,7)+M10*N10*VLOOKUP($B$10,ENEMY,7)+M11*N11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>18</v>
       </c>
-      <c r="N14" s="149"/>
-      <c r="O14" s="150"/>
-      <c r="P14" s="148">
+      <c r="N14" s="144"/>
+      <c r="O14" s="145"/>
+      <c r="P14" s="143">
         <f>P3*Q3*VLOOKUP($B$3,ENEMY,7)+P4*Q4*VLOOKUP($B$4,ENEMY,7)+P5*Q5*VLOOKUP($B$5,ENEMY,7)+P6*Q6*VLOOKUP($B$6,ENEMY,7)+P7*Q7*VLOOKUP($B$7,ENEMY,7)+P8*Q8*VLOOKUP($B$8,ENEMY,7)+P9*Q9*VLOOKUP($B$9,ENEMY,7)+P10*Q10*VLOOKUP($B$10,ENEMY,7)+P11*Q11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>720</v>
       </c>
-      <c r="Q14" s="149"/>
-      <c r="R14" s="150"/>
-      <c r="S14" s="148">
+      <c r="Q14" s="144"/>
+      <c r="R14" s="145"/>
+      <c r="S14" s="143">
         <f>S3*T3*VLOOKUP($B$3,ENEMY,7)+S4*T4*VLOOKUP($B$4,ENEMY,7)+S5*T5*VLOOKUP($B$5,ENEMY,7)+S6*T6*VLOOKUP($B$6,ENEMY,7)+S7*T7*VLOOKUP($B$7,ENEMY,7)+S8*T8*VLOOKUP($B$8,ENEMY,7)+S9*T9*VLOOKUP($B$9,ENEMY,7)+S10*T10*VLOOKUP($B$10,ENEMY,7)+S11*T11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>3450</v>
       </c>
-      <c r="T14" s="149"/>
-      <c r="U14" s="150"/>
-      <c r="V14" s="148"/>
-      <c r="W14" s="149"/>
-      <c r="X14" s="150"/>
-      <c r="Y14" s="148"/>
-      <c r="Z14" s="149"/>
-      <c r="AA14" s="150"/>
-      <c r="AB14" s="148"/>
-      <c r="AC14" s="149"/>
-      <c r="AD14" s="150"/>
-      <c r="AE14" s="148"/>
-      <c r="AF14" s="149"/>
-      <c r="AG14" s="150"/>
-      <c r="AH14" s="148"/>
-      <c r="AI14" s="149"/>
-      <c r="AJ14" s="150"/>
-      <c r="AK14" s="148"/>
-      <c r="AL14" s="149"/>
-      <c r="AM14" s="150"/>
+      <c r="T14" s="144"/>
+      <c r="U14" s="145"/>
+      <c r="V14" s="143"/>
+      <c r="W14" s="144"/>
+      <c r="X14" s="145"/>
+      <c r="Y14" s="143"/>
+      <c r="Z14" s="144"/>
+      <c r="AA14" s="145"/>
+      <c r="AB14" s="143"/>
+      <c r="AC14" s="144"/>
+      <c r="AD14" s="145"/>
+      <c r="AE14" s="143"/>
+      <c r="AF14" s="144"/>
+      <c r="AG14" s="145"/>
+      <c r="AH14" s="143"/>
+      <c r="AI14" s="144"/>
+      <c r="AJ14" s="145"/>
+      <c r="AK14" s="143"/>
+      <c r="AL14" s="144"/>
+      <c r="AM14" s="145"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B15" s="86" t="s">
         <v>205</v>
       </c>
-      <c r="D15" s="148">
+      <c r="D15" s="143">
         <f>D25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+D26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+D27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+D28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+D29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+D30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+D31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+D32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+D33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
         <v>3</v>
       </c>
-      <c r="E15" s="149"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="148">
+      <c r="E15" s="144"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="143">
         <f>G25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+G26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+G27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+G28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+G29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+G30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+G31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+G32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+G33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
         <v>42</v>
       </c>
-      <c r="H15" s="149"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="148">
+      <c r="H15" s="144"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="143">
         <f>J25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+J26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+J27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+J28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+J29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+J30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+J31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+J32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+J33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
         <v>42</v>
       </c>
-      <c r="K15" s="149"/>
-      <c r="L15" s="150"/>
-      <c r="M15" s="148">
+      <c r="K15" s="144"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="143">
         <f>M25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+M26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+M27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+M28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+M29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+M30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+M31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+M32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+M33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
         <v>23.5</v>
       </c>
-      <c r="N15" s="149"/>
-      <c r="O15" s="150"/>
-      <c r="P15" s="148">
+      <c r="N15" s="144"/>
+      <c r="O15" s="145"/>
+      <c r="P15" s="143">
         <f>P25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+P26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+P27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+P28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+P29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+P30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+P31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+P32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+P33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
         <v>261</v>
       </c>
-      <c r="Q15" s="149"/>
-      <c r="R15" s="150"/>
-      <c r="S15" s="148">
+      <c r="Q15" s="144"/>
+      <c r="R15" s="145"/>
+      <c r="S15" s="143">
         <f>S25*VLOOKUP($B$25,TOWER,5)*VLOOKUP($B$25,TOWER,6)+S26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+S27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+S28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+S29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+S30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+S31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+S32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+S33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)</f>
         <v>1368.5</v>
       </c>
-      <c r="T15" s="149"/>
-      <c r="U15" s="150"/>
-      <c r="V15" s="148"/>
-      <c r="W15" s="149"/>
-      <c r="X15" s="150"/>
-      <c r="Y15" s="148"/>
-      <c r="Z15" s="149"/>
-      <c r="AA15" s="150"/>
-      <c r="AB15" s="148"/>
-      <c r="AC15" s="149"/>
-      <c r="AD15" s="150"/>
-      <c r="AE15" s="148"/>
-      <c r="AF15" s="149"/>
-      <c r="AG15" s="150"/>
-      <c r="AH15" s="148"/>
-      <c r="AI15" s="149"/>
-      <c r="AJ15" s="150"/>
-      <c r="AK15" s="148"/>
-      <c r="AL15" s="149"/>
-      <c r="AM15" s="150"/>
+      <c r="T15" s="144"/>
+      <c r="U15" s="145"/>
+      <c r="V15" s="143"/>
+      <c r="W15" s="144"/>
+      <c r="X15" s="145"/>
+      <c r="Y15" s="143"/>
+      <c r="Z15" s="144"/>
+      <c r="AA15" s="145"/>
+      <c r="AB15" s="143"/>
+      <c r="AC15" s="144"/>
+      <c r="AD15" s="145"/>
+      <c r="AE15" s="143"/>
+      <c r="AF15" s="144"/>
+      <c r="AG15" s="145"/>
+      <c r="AH15" s="143"/>
+      <c r="AI15" s="144"/>
+      <c r="AJ15" s="145"/>
+      <c r="AK15" s="143"/>
+      <c r="AL15" s="144"/>
+      <c r="AM15" s="145"/>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B16" s="86" t="s">
         <v>183</v>
       </c>
-      <c r="D16" s="145">
+      <c r="D16" s="149">
         <f>D13-D14</f>
         <v>100</v>
       </c>
-      <c r="E16" s="146"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="145">
+      <c r="E16" s="150"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="149">
         <f>ROUND(G13-(G14/G15),0)</f>
         <v>99</v>
       </c>
-      <c r="H16" s="146"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="145">
+      <c r="H16" s="150"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="149">
         <f t="shared" ref="J16" si="1">ROUND(J13-(J14/J15),0)</f>
         <v>95</v>
       </c>
-      <c r="K16" s="146"/>
-      <c r="L16" s="147"/>
-      <c r="M16" s="145">
+      <c r="K16" s="150"/>
+      <c r="L16" s="151"/>
+      <c r="M16" s="149">
         <f t="shared" ref="M16" si="2">ROUND(M13-(M14/M15),0)</f>
         <v>94</v>
       </c>
-      <c r="N16" s="146"/>
-      <c r="O16" s="147"/>
-      <c r="P16" s="145">
+      <c r="N16" s="150"/>
+      <c r="O16" s="151"/>
+      <c r="P16" s="149">
         <f t="shared" ref="P16" si="3">ROUND(P13-(P14/P15),0)</f>
         <v>91</v>
       </c>
-      <c r="Q16" s="146"/>
-      <c r="R16" s="147"/>
-      <c r="S16" s="145">
+      <c r="Q16" s="150"/>
+      <c r="R16" s="151"/>
+      <c r="S16" s="149">
         <f t="shared" ref="S16" si="4">ROUND(S13-(S14/S15),0)</f>
         <v>88</v>
       </c>
-      <c r="T16" s="146"/>
-      <c r="U16" s="147"/>
-      <c r="V16" s="145"/>
-      <c r="W16" s="146"/>
-      <c r="X16" s="147"/>
-      <c r="Y16" s="145"/>
-      <c r="Z16" s="146"/>
-      <c r="AA16" s="147"/>
-      <c r="AB16" s="145"/>
-      <c r="AC16" s="146"/>
-      <c r="AD16" s="147"/>
-      <c r="AE16" s="145"/>
-      <c r="AF16" s="146"/>
-      <c r="AG16" s="147"/>
-      <c r="AH16" s="145"/>
-      <c r="AI16" s="146"/>
-      <c r="AJ16" s="147"/>
-      <c r="AK16" s="145"/>
-      <c r="AL16" s="146"/>
-      <c r="AM16" s="147"/>
+      <c r="T16" s="150"/>
+      <c r="U16" s="151"/>
+      <c r="V16" s="149"/>
+      <c r="W16" s="150"/>
+      <c r="X16" s="151"/>
+      <c r="Y16" s="149"/>
+      <c r="Z16" s="150"/>
+      <c r="AA16" s="151"/>
+      <c r="AB16" s="149"/>
+      <c r="AC16" s="150"/>
+      <c r="AD16" s="151"/>
+      <c r="AE16" s="149"/>
+      <c r="AF16" s="150"/>
+      <c r="AG16" s="151"/>
+      <c r="AH16" s="149"/>
+      <c r="AI16" s="150"/>
+      <c r="AJ16" s="151"/>
+      <c r="AK16" s="149"/>
+      <c r="AL16" s="150"/>
+      <c r="AM16" s="151"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C17" s="31"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="148"/>
-      <c r="K17" s="149"/>
-      <c r="L17" s="150"/>
-      <c r="M17" s="148"/>
-      <c r="N17" s="149"/>
-      <c r="O17" s="150"/>
-      <c r="P17" s="148"/>
-      <c r="Q17" s="149"/>
-      <c r="R17" s="150"/>
-      <c r="S17" s="148"/>
-      <c r="T17" s="149"/>
-      <c r="U17" s="150"/>
-      <c r="V17" s="148"/>
-      <c r="W17" s="149"/>
-      <c r="X17" s="150"/>
-      <c r="Y17" s="148"/>
-      <c r="Z17" s="149"/>
-      <c r="AA17" s="150"/>
-      <c r="AB17" s="148"/>
-      <c r="AC17" s="149"/>
-      <c r="AD17" s="150"/>
-      <c r="AE17" s="148"/>
-      <c r="AF17" s="149"/>
-      <c r="AG17" s="150"/>
-      <c r="AH17" s="148"/>
-      <c r="AI17" s="149"/>
-      <c r="AJ17" s="150"/>
-      <c r="AK17" s="148"/>
-      <c r="AL17" s="149"/>
-      <c r="AM17" s="150"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="145"/>
+      <c r="M17" s="143"/>
+      <c r="N17" s="144"/>
+      <c r="O17" s="145"/>
+      <c r="P17" s="143"/>
+      <c r="Q17" s="144"/>
+      <c r="R17" s="145"/>
+      <c r="S17" s="143"/>
+      <c r="T17" s="144"/>
+      <c r="U17" s="145"/>
+      <c r="V17" s="143"/>
+      <c r="W17" s="144"/>
+      <c r="X17" s="145"/>
+      <c r="Y17" s="143"/>
+      <c r="Z17" s="144"/>
+      <c r="AA17" s="145"/>
+      <c r="AB17" s="143"/>
+      <c r="AC17" s="144"/>
+      <c r="AD17" s="145"/>
+      <c r="AE17" s="143"/>
+      <c r="AF17" s="144"/>
+      <c r="AG17" s="145"/>
+      <c r="AH17" s="143"/>
+      <c r="AI17" s="144"/>
+      <c r="AJ17" s="145"/>
+      <c r="AK17" s="143"/>
+      <c r="AL17" s="144"/>
+      <c r="AM17" s="145"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B18" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="154">
+      <c r="D18" s="140">
         <f>Tower!I3*2+Tower!I3/2</f>
         <v>225</v>
       </c>
-      <c r="E18" s="155"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="154">
+      <c r="E18" s="141"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="140">
         <f>D21</f>
         <v>25</v>
       </c>
-      <c r="H18" s="155"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="154">
+      <c r="H18" s="141"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="140">
         <f t="shared" ref="J18" si="5">G21</f>
-        <v>-181</v>
-      </c>
-      <c r="K18" s="155"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="154">
+        <v>-73</v>
+      </c>
+      <c r="K18" s="141"/>
+      <c r="L18" s="142"/>
+      <c r="M18" s="140">
         <f t="shared" ref="M18" si="6">J21</f>
-        <v>809</v>
-      </c>
-      <c r="N18" s="155"/>
-      <c r="O18" s="156"/>
-      <c r="P18" s="154">
+        <v>1167</v>
+      </c>
+      <c r="N18" s="141"/>
+      <c r="O18" s="142"/>
+      <c r="P18" s="140">
         <f t="shared" ref="P18" si="7">M21</f>
-        <v>779</v>
-      </c>
-      <c r="Q18" s="155"/>
-      <c r="R18" s="156"/>
-      <c r="S18" s="154">
+        <v>1173</v>
+      </c>
+      <c r="Q18" s="141"/>
+      <c r="R18" s="142"/>
+      <c r="S18" s="140">
         <f t="shared" ref="S18" si="8">P21</f>
-        <v>3719</v>
-      </c>
-      <c r="T18" s="155"/>
-      <c r="U18" s="156"/>
-      <c r="V18" s="154"/>
-      <c r="W18" s="155"/>
-      <c r="X18" s="156"/>
-      <c r="Y18" s="154"/>
-      <c r="Z18" s="155"/>
-      <c r="AA18" s="156"/>
-      <c r="AB18" s="154"/>
-      <c r="AC18" s="155"/>
-      <c r="AD18" s="156"/>
-      <c r="AE18" s="154"/>
-      <c r="AF18" s="155"/>
-      <c r="AG18" s="156"/>
-      <c r="AH18" s="154"/>
-      <c r="AI18" s="155"/>
-      <c r="AJ18" s="156"/>
-      <c r="AK18" s="154"/>
-      <c r="AL18" s="155"/>
-      <c r="AM18" s="156"/>
+        <v>5373</v>
+      </c>
+      <c r="T18" s="141"/>
+      <c r="U18" s="142"/>
+      <c r="V18" s="140"/>
+      <c r="W18" s="141"/>
+      <c r="X18" s="142"/>
+      <c r="Y18" s="140"/>
+      <c r="Z18" s="141"/>
+      <c r="AA18" s="142"/>
+      <c r="AB18" s="140"/>
+      <c r="AC18" s="141"/>
+      <c r="AD18" s="142"/>
+      <c r="AE18" s="140"/>
+      <c r="AF18" s="141"/>
+      <c r="AG18" s="142"/>
+      <c r="AH18" s="140"/>
+      <c r="AI18" s="141"/>
+      <c r="AJ18" s="142"/>
+      <c r="AK18" s="140"/>
+      <c r="AL18" s="141"/>
+      <c r="AM18" s="142"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B19" s="86" t="s">
         <v>185</v>
       </c>
-      <c r="D19" s="157">
+      <c r="D19" s="146">
         <f>D25*VLOOKUP($B$25,TOWER,9)+D26*VLOOKUP($B$26,TOWER,9)+D27*VLOOKUP($B$27,TOWER,9)+D28*VLOOKUP($B$28,TOWER,9)+D29*VLOOKUP($B$29,TOWER,9)+D30*VLOOKUP($B$30,TOWER,9)+D31*VLOOKUP($B$31,TOWER,9)+D32*VLOOKUP($B$32,TOWER,9)+D33*VLOOKUP($B$33,TOWER,9)</f>
         <v>200</v>
       </c>
-      <c r="E19" s="158"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="157">
+      <c r="E19" s="147"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="146">
         <f>G25*VLOOKUP($B$25,TOWER,9)+G26*VLOOKUP($B$26,TOWER,9)+G27*VLOOKUP($B$27,TOWER,9)+G28*VLOOKUP($B$28,TOWER,9)+G29*VLOOKUP($B$29,TOWER,9)+G30*VLOOKUP($B$30,TOWER,9)+G31*VLOOKUP($B$31,TOWER,9)+G32*VLOOKUP($B$32,TOWER,9)+G33*VLOOKUP($B$33,TOWER,9)</f>
         <v>710</v>
       </c>
-      <c r="H19" s="158"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="157">
+      <c r="H19" s="147"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="146">
         <f>J25*VLOOKUP($B$25,TOWER,9)+J26*VLOOKUP($B$26,TOWER,9)+J27*VLOOKUP($B$27,TOWER,9)+J28*VLOOKUP($B$28,TOWER,9)+J29*VLOOKUP($B$29,TOWER,9)+J30*VLOOKUP($B$30,TOWER,9)+J31*VLOOKUP($B$31,TOWER,9)+J32*VLOOKUP($B$32,TOWER,9)+J33*VLOOKUP($B$33,TOWER,9)</f>
         <v>710</v>
       </c>
-      <c r="K19" s="158"/>
-      <c r="L19" s="159"/>
-      <c r="M19" s="157">
+      <c r="K19" s="147"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="146">
         <f>M25*VLOOKUP($B$25,TOWER,9)+M26*VLOOKUP($B$26,TOWER,9)+M27*VLOOKUP($B$27,TOWER,9)+M28*VLOOKUP($B$28,TOWER,9)+M29*VLOOKUP($B$29,TOWER,9)+M30*VLOOKUP($B$30,TOWER,9)+M31*VLOOKUP($B$31,TOWER,9)+M32*VLOOKUP($B$32,TOWER,9)+M33*VLOOKUP($B$33,TOWER,9)</f>
         <v>360</v>
       </c>
-      <c r="N19" s="158"/>
-      <c r="O19" s="159"/>
-      <c r="P19" s="157">
+      <c r="N19" s="147"/>
+      <c r="O19" s="148"/>
+      <c r="P19" s="146">
         <f>P25*VLOOKUP($B$25,TOWER,9)+P26*VLOOKUP($B$26,TOWER,9)+P27*VLOOKUP($B$27,TOWER,9)+P28*VLOOKUP($B$28,TOWER,9)+P29*VLOOKUP($B$29,TOWER,9)+P30*VLOOKUP($B$30,TOWER,9)+P31*VLOOKUP($B$31,TOWER,9)+P32*VLOOKUP($B$32,TOWER,9)+P33*VLOOKUP($B$33,TOWER,9)</f>
         <v>4860</v>
       </c>
-      <c r="Q19" s="158"/>
-      <c r="R19" s="159"/>
-      <c r="S19" s="157">
+      <c r="Q19" s="147"/>
+      <c r="R19" s="148"/>
+      <c r="S19" s="146">
         <f>S25*VLOOKUP($B$25,TOWER,9)+S26*VLOOKUP($B$26,TOWER,9)+S27*VLOOKUP($B$27,TOWER,9)+S28*VLOOKUP($B$28,TOWER,9)+S29*VLOOKUP($B$29,TOWER,9)+S30*VLOOKUP($B$30,TOWER,9)+S31*VLOOKUP($B$31,TOWER,9)+S32*VLOOKUP($B$32,TOWER,9)+S33*VLOOKUP($B$33,TOWER,9)</f>
         <v>25560</v>
       </c>
-      <c r="T19" s="158"/>
-      <c r="U19" s="159"/>
-      <c r="V19" s="157"/>
-      <c r="W19" s="158"/>
-      <c r="X19" s="159"/>
-      <c r="Y19" s="157"/>
-      <c r="Z19" s="158"/>
-      <c r="AA19" s="159"/>
-      <c r="AB19" s="157"/>
-      <c r="AC19" s="158"/>
-      <c r="AD19" s="159"/>
-      <c r="AE19" s="157"/>
-      <c r="AF19" s="158"/>
-      <c r="AG19" s="159"/>
-      <c r="AH19" s="157"/>
-      <c r="AI19" s="158"/>
-      <c r="AJ19" s="159"/>
-      <c r="AK19" s="157"/>
-      <c r="AL19" s="158"/>
-      <c r="AM19" s="159"/>
+      <c r="T19" s="147"/>
+      <c r="U19" s="148"/>
+      <c r="V19" s="146"/>
+      <c r="W19" s="147"/>
+      <c r="X19" s="148"/>
+      <c r="Y19" s="146"/>
+      <c r="Z19" s="147"/>
+      <c r="AA19" s="148"/>
+      <c r="AB19" s="146"/>
+      <c r="AC19" s="147"/>
+      <c r="AD19" s="148"/>
+      <c r="AE19" s="146"/>
+      <c r="AF19" s="147"/>
+      <c r="AG19" s="148"/>
+      <c r="AH19" s="146"/>
+      <c r="AI19" s="147"/>
+      <c r="AJ19" s="148"/>
+      <c r="AK19" s="146"/>
+      <c r="AL19" s="147"/>
+      <c r="AM19" s="148"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B20" s="86" t="s">
         <v>186</v>
       </c>
-      <c r="D20" s="154">
+      <c r="D20" s="140">
         <f>D3*VLOOKUP($B$3,ENEMY,8)+D4*VLOOKUP($B$4,ENEMY,8)+D5*VLOOKUP($B$5,ENEMY,8)+D6*VLOOKUP($B$6,ENEMY,8)+D7*VLOOKUP($B$7,ENEMY,8)+D8*VLOOKUP($B$8,ENEMY,8)+D9*VLOOKUP($B$9,ENEMY,8)+D10*VLOOKUP($B$10,ENEMY,8)+D11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="155"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="154">
+      <c r="E20" s="141"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="140">
         <f>G3*H3*VLOOKUP($B$3,ENEMY,8)+G4*H4*VLOOKUP($B$4,ENEMY,8)+G5*H5*VLOOKUP($B$5,ENEMY,8)+G6*H6*VLOOKUP($B$6,ENEMY,8)+G7*H7*VLOOKUP($B$7,ENEMY,8)+G8*H8*VLOOKUP($B$8,ENEMY,8)+G9*H9*VLOOKUP($B$9,ENEMY,8)+G10*H10*VLOOKUP($B$10,ENEMY,8)+G11*H11*VLOOKUP($B$11,ENEMY,8)</f>
-        <v>504</v>
-      </c>
-      <c r="H20" s="155"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="154">
+        <v>612</v>
+      </c>
+      <c r="H20" s="141"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="140">
         <f>J3*K3*VLOOKUP($B$3,ENEMY,8)+J4*K4*VLOOKUP($B$4,ENEMY,8)+J5*K5*VLOOKUP($B$5,ENEMY,8)+J6*K6*VLOOKUP($B$6,ENEMY,8)+J7*K7*VLOOKUP($B$7,ENEMY,8)+J8*K8*VLOOKUP($B$8,ENEMY,8)+J9*K9*VLOOKUP($B$9,ENEMY,8)+J10*K10*VLOOKUP($B$10,ENEMY,8)+J11*K11*VLOOKUP($B$11,ENEMY,8)</f>
-        <v>1700</v>
-      </c>
-      <c r="K20" s="155"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="154">
+        <v>1950</v>
+      </c>
+      <c r="K20" s="141"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="140">
         <f>M3*N3*VLOOKUP($B$3,ENEMY,8)+M4*N4*VLOOKUP($B$4,ENEMY,8)+M5*N5*VLOOKUP($B$5,ENEMY,8)+M6*N6*VLOOKUP($B$6,ENEMY,8)+M7*N7*VLOOKUP($B$7,ENEMY,8)+M8*N8*VLOOKUP($B$8,ENEMY,8)+M9*N9*VLOOKUP($B$9,ENEMY,8)+M10*N10*VLOOKUP($B$10,ENEMY,8)+M11*N11*VLOOKUP($B$11,ENEMY,8)</f>
-        <v>330</v>
-      </c>
-      <c r="N20" s="155"/>
-      <c r="O20" s="156"/>
-      <c r="P20" s="154">
+        <v>366</v>
+      </c>
+      <c r="N20" s="141"/>
+      <c r="O20" s="142"/>
+      <c r="P20" s="140">
         <f>P3*Q3*VLOOKUP($B$3,ENEMY,8)+P4*Q4*VLOOKUP($B$4,ENEMY,8)+P5*Q5*VLOOKUP($B$5,ENEMY,8)+P6*Q6*VLOOKUP($B$6,ENEMY,8)+P7*Q7*VLOOKUP($B$7,ENEMY,8)+P8*Q8*VLOOKUP($B$8,ENEMY,8)+P9*Q9*VLOOKUP($B$9,ENEMY,8)+P10*Q10*VLOOKUP($B$10,ENEMY,8)+P11*Q11*VLOOKUP($B$11,ENEMY,8)</f>
-        <v>7800</v>
-      </c>
-      <c r="Q20" s="155"/>
-      <c r="R20" s="156"/>
-      <c r="S20" s="154">
+        <v>9060</v>
+      </c>
+      <c r="Q20" s="141"/>
+      <c r="R20" s="142"/>
+      <c r="S20" s="140">
         <f>S3*T3*VLOOKUP($B$3,ENEMY,8)+S4*T4*VLOOKUP($B$4,ENEMY,8)+S5*T5*VLOOKUP($B$5,ENEMY,8)+S6*T6*VLOOKUP($B$6,ENEMY,8)+S7*T7*VLOOKUP($B$7,ENEMY,8)+S8*T8*VLOOKUP($B$8,ENEMY,8)+S9*T9*VLOOKUP($B$9,ENEMY,8)+S10*T10*VLOOKUP($B$10,ENEMY,8)+S11*T11*VLOOKUP($B$11,ENEMY,8)</f>
-        <v>39400</v>
-      </c>
-      <c r="T20" s="155"/>
-      <c r="U20" s="156"/>
-      <c r="V20" s="154"/>
-      <c r="W20" s="155"/>
-      <c r="X20" s="156"/>
-      <c r="Y20" s="154"/>
-      <c r="Z20" s="155"/>
-      <c r="AA20" s="156"/>
-      <c r="AB20" s="154"/>
-      <c r="AC20" s="155"/>
-      <c r="AD20" s="156"/>
-      <c r="AE20" s="154"/>
-      <c r="AF20" s="155"/>
-      <c r="AG20" s="156"/>
-      <c r="AH20" s="154"/>
-      <c r="AI20" s="155"/>
-      <c r="AJ20" s="156"/>
-      <c r="AK20" s="154"/>
-      <c r="AL20" s="155"/>
-      <c r="AM20" s="156"/>
+        <v>45550</v>
+      </c>
+      <c r="T20" s="141"/>
+      <c r="U20" s="142"/>
+      <c r="V20" s="140"/>
+      <c r="W20" s="141"/>
+      <c r="X20" s="142"/>
+      <c r="Y20" s="140"/>
+      <c r="Z20" s="141"/>
+      <c r="AA20" s="142"/>
+      <c r="AB20" s="140"/>
+      <c r="AC20" s="141"/>
+      <c r="AD20" s="142"/>
+      <c r="AE20" s="140"/>
+      <c r="AF20" s="141"/>
+      <c r="AG20" s="142"/>
+      <c r="AH20" s="140"/>
+      <c r="AI20" s="141"/>
+      <c r="AJ20" s="142"/>
+      <c r="AK20" s="140"/>
+      <c r="AL20" s="141"/>
+      <c r="AM20" s="142"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B21" s="86" t="s">
         <v>187</v>
       </c>
-      <c r="D21" s="157">
+      <c r="D21" s="146">
         <f>D18-D19+D20</f>
         <v>25</v>
       </c>
-      <c r="E21" s="158"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="157">
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="146">
         <f>G18-G19+G20</f>
-        <v>-181</v>
-      </c>
-      <c r="H21" s="158"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="157">
+        <v>-73</v>
+      </c>
+      <c r="H21" s="147"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="146">
         <f t="shared" ref="J21" si="9">J18-J19+J20</f>
-        <v>809</v>
-      </c>
-      <c r="K21" s="158"/>
-      <c r="L21" s="159"/>
-      <c r="M21" s="157">
+        <v>1167</v>
+      </c>
+      <c r="K21" s="147"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="146">
         <f t="shared" ref="M21" si="10">M18-M19+M20</f>
-        <v>779</v>
-      </c>
-      <c r="N21" s="158"/>
-      <c r="O21" s="159"/>
-      <c r="P21" s="157">
+        <v>1173</v>
+      </c>
+      <c r="N21" s="147"/>
+      <c r="O21" s="148"/>
+      <c r="P21" s="146">
         <f t="shared" ref="P21" si="11">P18-P19+P20</f>
-        <v>3719</v>
-      </c>
-      <c r="Q21" s="158"/>
-      <c r="R21" s="159"/>
-      <c r="S21" s="157">
+        <v>5373</v>
+      </c>
+      <c r="Q21" s="147"/>
+      <c r="R21" s="148"/>
+      <c r="S21" s="146">
         <f t="shared" ref="S21" si="12">S18-S19+S20</f>
-        <v>17559</v>
-      </c>
-      <c r="T21" s="158"/>
-      <c r="U21" s="159"/>
-      <c r="V21" s="157"/>
-      <c r="W21" s="158"/>
-      <c r="X21" s="159"/>
-      <c r="Y21" s="157"/>
-      <c r="Z21" s="158"/>
-      <c r="AA21" s="159"/>
-      <c r="AB21" s="157"/>
-      <c r="AC21" s="158"/>
-      <c r="AD21" s="159"/>
-      <c r="AE21" s="157"/>
-      <c r="AF21" s="158"/>
-      <c r="AG21" s="159"/>
-      <c r="AH21" s="157"/>
-      <c r="AI21" s="158"/>
-      <c r="AJ21" s="159"/>
-      <c r="AK21" s="157"/>
-      <c r="AL21" s="158"/>
-      <c r="AM21" s="159"/>
+        <v>25363</v>
+      </c>
+      <c r="T21" s="147"/>
+      <c r="U21" s="148"/>
+      <c r="V21" s="146"/>
+      <c r="W21" s="147"/>
+      <c r="X21" s="148"/>
+      <c r="Y21" s="146"/>
+      <c r="Z21" s="147"/>
+      <c r="AA21" s="148"/>
+      <c r="AB21" s="146"/>
+      <c r="AC21" s="147"/>
+      <c r="AD21" s="148"/>
+      <c r="AE21" s="146"/>
+      <c r="AF21" s="147"/>
+      <c r="AG21" s="148"/>
+      <c r="AH21" s="146"/>
+      <c r="AI21" s="147"/>
+      <c r="AJ21" s="148"/>
+      <c r="AK21" s="146"/>
+      <c r="AL21" s="147"/>
+      <c r="AM21" s="148"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B24" s="105" t="s">
@@ -6262,52 +6262,52 @@
         <f t="shared" ref="C25:C33" si="13">VLOOKUP(B3,ENEMY,4)</f>
         <v>Normal</v>
       </c>
-      <c r="D25" s="154"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="154">
+      <c r="D25" s="140"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="140">
         <v>1</v>
       </c>
-      <c r="H25" s="155"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="154">
+      <c r="H25" s="141"/>
+      <c r="I25" s="142"/>
+      <c r="J25" s="140">
         <v>1</v>
       </c>
-      <c r="K25" s="155"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="154">
+      <c r="K25" s="141"/>
+      <c r="L25" s="142"/>
+      <c r="M25" s="140">
         <v>1</v>
       </c>
-      <c r="N25" s="155"/>
-      <c r="O25" s="156"/>
-      <c r="P25" s="154">
+      <c r="N25" s="141"/>
+      <c r="O25" s="142"/>
+      <c r="P25" s="140">
         <v>6</v>
       </c>
-      <c r="Q25" s="155"/>
-      <c r="R25" s="156"/>
-      <c r="S25" s="154">
+      <c r="Q25" s="141"/>
+      <c r="R25" s="142"/>
+      <c r="S25" s="140">
         <v>31</v>
       </c>
-      <c r="T25" s="155"/>
-      <c r="U25" s="156"/>
-      <c r="V25" s="154"/>
-      <c r="W25" s="155"/>
-      <c r="X25" s="156"/>
-      <c r="Y25" s="154"/>
-      <c r="Z25" s="155"/>
-      <c r="AA25" s="156"/>
-      <c r="AB25" s="154"/>
-      <c r="AC25" s="155"/>
-      <c r="AD25" s="156"/>
-      <c r="AE25" s="154"/>
-      <c r="AF25" s="155"/>
-      <c r="AG25" s="156"/>
-      <c r="AH25" s="154"/>
-      <c r="AI25" s="155"/>
-      <c r="AJ25" s="156"/>
-      <c r="AK25" s="154"/>
-      <c r="AL25" s="155"/>
-      <c r="AM25" s="156"/>
+      <c r="T25" s="141"/>
+      <c r="U25" s="142"/>
+      <c r="V25" s="140"/>
+      <c r="W25" s="141"/>
+      <c r="X25" s="142"/>
+      <c r="Y25" s="140"/>
+      <c r="Z25" s="141"/>
+      <c r="AA25" s="142"/>
+      <c r="AB25" s="140"/>
+      <c r="AC25" s="141"/>
+      <c r="AD25" s="142"/>
+      <c r="AE25" s="140"/>
+      <c r="AF25" s="141"/>
+      <c r="AG25" s="142"/>
+      <c r="AH25" s="140"/>
+      <c r="AI25" s="141"/>
+      <c r="AJ25" s="142"/>
+      <c r="AK25" s="140"/>
+      <c r="AL25" s="141"/>
+      <c r="AM25" s="142"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="109">
@@ -6321,52 +6321,52 @@
         <f t="shared" si="13"/>
         <v>Intangible</v>
       </c>
-      <c r="D26" s="157"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="157">
+      <c r="D26" s="146"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="146">
         <v>1</v>
       </c>
-      <c r="H26" s="158"/>
-      <c r="I26" s="159"/>
-      <c r="J26" s="157">
+      <c r="H26" s="147"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="146">
         <v>1</v>
       </c>
-      <c r="K26" s="158"/>
-      <c r="L26" s="159"/>
-      <c r="M26" s="157">
+      <c r="K26" s="147"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="146">
         <v>1</v>
       </c>
-      <c r="N26" s="158"/>
-      <c r="O26" s="159"/>
-      <c r="P26" s="157">
+      <c r="N26" s="147"/>
+      <c r="O26" s="148"/>
+      <c r="P26" s="146">
         <v>6</v>
       </c>
-      <c r="Q26" s="158"/>
-      <c r="R26" s="159"/>
-      <c r="S26" s="157">
+      <c r="Q26" s="147"/>
+      <c r="R26" s="148"/>
+      <c r="S26" s="146">
         <v>31</v>
       </c>
-      <c r="T26" s="158"/>
-      <c r="U26" s="159"/>
-      <c r="V26" s="157"/>
-      <c r="W26" s="158"/>
-      <c r="X26" s="159"/>
-      <c r="Y26" s="157"/>
-      <c r="Z26" s="158"/>
-      <c r="AA26" s="159"/>
-      <c r="AB26" s="157"/>
-      <c r="AC26" s="158"/>
-      <c r="AD26" s="159"/>
-      <c r="AE26" s="157"/>
-      <c r="AF26" s="158"/>
-      <c r="AG26" s="159"/>
-      <c r="AH26" s="157"/>
-      <c r="AI26" s="158"/>
-      <c r="AJ26" s="159"/>
-      <c r="AK26" s="157"/>
-      <c r="AL26" s="158"/>
-      <c r="AM26" s="159"/>
+      <c r="T26" s="147"/>
+      <c r="U26" s="148"/>
+      <c r="V26" s="146"/>
+      <c r="W26" s="147"/>
+      <c r="X26" s="148"/>
+      <c r="Y26" s="146"/>
+      <c r="Z26" s="147"/>
+      <c r="AA26" s="148"/>
+      <c r="AB26" s="146"/>
+      <c r="AC26" s="147"/>
+      <c r="AD26" s="148"/>
+      <c r="AE26" s="146"/>
+      <c r="AF26" s="147"/>
+      <c r="AG26" s="148"/>
+      <c r="AH26" s="146"/>
+      <c r="AI26" s="147"/>
+      <c r="AJ26" s="148"/>
+      <c r="AK26" s="146"/>
+      <c r="AL26" s="147"/>
+      <c r="AM26" s="148"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="109">
@@ -6380,52 +6380,52 @@
         <f t="shared" si="13"/>
         <v>Saboteur</v>
       </c>
-      <c r="D27" s="154">
+      <c r="D27" s="140">
         <v>1</v>
       </c>
-      <c r="E27" s="155"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="155"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="154">
+      <c r="E27" s="141"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="142"/>
+      <c r="J27" s="140">
         <v>1</v>
       </c>
-      <c r="K27" s="155"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="154">
+      <c r="K27" s="141"/>
+      <c r="L27" s="142"/>
+      <c r="M27" s="140">
         <v>1</v>
       </c>
-      <c r="N27" s="155"/>
-      <c r="O27" s="156"/>
-      <c r="P27" s="154">
+      <c r="N27" s="141"/>
+      <c r="O27" s="142"/>
+      <c r="P27" s="140">
         <v>6</v>
       </c>
-      <c r="Q27" s="155"/>
-      <c r="R27" s="156"/>
-      <c r="S27" s="154">
+      <c r="Q27" s="141"/>
+      <c r="R27" s="142"/>
+      <c r="S27" s="140">
         <v>31</v>
       </c>
-      <c r="T27" s="155"/>
-      <c r="U27" s="156"/>
-      <c r="V27" s="154"/>
-      <c r="W27" s="155"/>
-      <c r="X27" s="156"/>
-      <c r="Y27" s="154"/>
-      <c r="Z27" s="155"/>
-      <c r="AA27" s="156"/>
-      <c r="AB27" s="154"/>
-      <c r="AC27" s="155"/>
-      <c r="AD27" s="156"/>
-      <c r="AE27" s="154"/>
-      <c r="AF27" s="155"/>
-      <c r="AG27" s="156"/>
-      <c r="AH27" s="154"/>
-      <c r="AI27" s="155"/>
-      <c r="AJ27" s="156"/>
-      <c r="AK27" s="154"/>
-      <c r="AL27" s="155"/>
-      <c r="AM27" s="156"/>
+      <c r="T27" s="141"/>
+      <c r="U27" s="142"/>
+      <c r="V27" s="140"/>
+      <c r="W27" s="141"/>
+      <c r="X27" s="142"/>
+      <c r="Y27" s="140"/>
+      <c r="Z27" s="141"/>
+      <c r="AA27" s="142"/>
+      <c r="AB27" s="140"/>
+      <c r="AC27" s="141"/>
+      <c r="AD27" s="142"/>
+      <c r="AE27" s="140"/>
+      <c r="AF27" s="141"/>
+      <c r="AG27" s="142"/>
+      <c r="AH27" s="140"/>
+      <c r="AI27" s="141"/>
+      <c r="AJ27" s="142"/>
+      <c r="AK27" s="140"/>
+      <c r="AL27" s="141"/>
+      <c r="AM27" s="142"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="109">
@@ -6439,52 +6439,52 @@
         <f t="shared" si="13"/>
         <v>Normal</v>
       </c>
-      <c r="D28" s="157"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="157">
+      <c r="D28" s="146"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="146">
         <v>1</v>
       </c>
-      <c r="H28" s="158"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="157">
+      <c r="H28" s="147"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="146">
         <v>1</v>
       </c>
-      <c r="K28" s="158"/>
-      <c r="L28" s="159"/>
-      <c r="M28" s="157">
+      <c r="K28" s="147"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="146">
         <v>1</v>
       </c>
-      <c r="N28" s="158"/>
-      <c r="O28" s="159"/>
-      <c r="P28" s="157">
+      <c r="N28" s="147"/>
+      <c r="O28" s="148"/>
+      <c r="P28" s="146">
         <v>6</v>
       </c>
-      <c r="Q28" s="158"/>
-      <c r="R28" s="159"/>
-      <c r="S28" s="157">
+      <c r="Q28" s="147"/>
+      <c r="R28" s="148"/>
+      <c r="S28" s="146">
         <v>31</v>
       </c>
-      <c r="T28" s="158"/>
-      <c r="U28" s="159"/>
-      <c r="V28" s="157"/>
-      <c r="W28" s="158"/>
-      <c r="X28" s="159"/>
-      <c r="Y28" s="157"/>
-      <c r="Z28" s="158"/>
-      <c r="AA28" s="159"/>
-      <c r="AB28" s="157"/>
-      <c r="AC28" s="158"/>
-      <c r="AD28" s="159"/>
-      <c r="AE28" s="157"/>
-      <c r="AF28" s="158"/>
-      <c r="AG28" s="159"/>
-      <c r="AH28" s="157"/>
-      <c r="AI28" s="158"/>
-      <c r="AJ28" s="159"/>
-      <c r="AK28" s="157"/>
-      <c r="AL28" s="158"/>
-      <c r="AM28" s="159"/>
+      <c r="T28" s="147"/>
+      <c r="U28" s="148"/>
+      <c r="V28" s="146"/>
+      <c r="W28" s="147"/>
+      <c r="X28" s="148"/>
+      <c r="Y28" s="146"/>
+      <c r="Z28" s="147"/>
+      <c r="AA28" s="148"/>
+      <c r="AB28" s="146"/>
+      <c r="AC28" s="147"/>
+      <c r="AD28" s="148"/>
+      <c r="AE28" s="146"/>
+      <c r="AF28" s="147"/>
+      <c r="AG28" s="148"/>
+      <c r="AH28" s="146"/>
+      <c r="AI28" s="147"/>
+      <c r="AJ28" s="148"/>
+      <c r="AK28" s="146"/>
+      <c r="AL28" s="147"/>
+      <c r="AM28" s="148"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="109">
@@ -6498,50 +6498,50 @@
         <f t="shared" si="13"/>
         <v>Intangible</v>
       </c>
-      <c r="D29" s="154"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="154">
+      <c r="D29" s="140"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="140">
         <v>1</v>
       </c>
-      <c r="H29" s="155"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="154">
+      <c r="H29" s="141"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="140">
         <v>1</v>
       </c>
-      <c r="K29" s="155"/>
-      <c r="L29" s="156"/>
-      <c r="M29" s="154"/>
-      <c r="N29" s="155"/>
-      <c r="O29" s="156"/>
-      <c r="P29" s="154">
+      <c r="K29" s="141"/>
+      <c r="L29" s="142"/>
+      <c r="M29" s="140"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="142"/>
+      <c r="P29" s="140">
         <v>6</v>
       </c>
-      <c r="Q29" s="155"/>
-      <c r="R29" s="156"/>
-      <c r="S29" s="154">
+      <c r="Q29" s="141"/>
+      <c r="R29" s="142"/>
+      <c r="S29" s="140">
         <v>32</v>
       </c>
-      <c r="T29" s="155"/>
-      <c r="U29" s="156"/>
-      <c r="V29" s="154"/>
-      <c r="W29" s="155"/>
-      <c r="X29" s="156"/>
-      <c r="Y29" s="154"/>
-      <c r="Z29" s="155"/>
-      <c r="AA29" s="156"/>
-      <c r="AB29" s="154"/>
-      <c r="AC29" s="155"/>
-      <c r="AD29" s="156"/>
-      <c r="AE29" s="154"/>
-      <c r="AF29" s="155"/>
-      <c r="AG29" s="156"/>
-      <c r="AH29" s="154"/>
-      <c r="AI29" s="155"/>
-      <c r="AJ29" s="156"/>
-      <c r="AK29" s="154"/>
-      <c r="AL29" s="155"/>
-      <c r="AM29" s="156"/>
+      <c r="T29" s="141"/>
+      <c r="U29" s="142"/>
+      <c r="V29" s="140"/>
+      <c r="W29" s="141"/>
+      <c r="X29" s="142"/>
+      <c r="Y29" s="140"/>
+      <c r="Z29" s="141"/>
+      <c r="AA29" s="142"/>
+      <c r="AB29" s="140"/>
+      <c r="AC29" s="141"/>
+      <c r="AD29" s="142"/>
+      <c r="AE29" s="140"/>
+      <c r="AF29" s="141"/>
+      <c r="AG29" s="142"/>
+      <c r="AH29" s="140"/>
+      <c r="AI29" s="141"/>
+      <c r="AJ29" s="142"/>
+      <c r="AK29" s="140"/>
+      <c r="AL29" s="141"/>
+      <c r="AM29" s="142"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="109">
@@ -6555,50 +6555,50 @@
         <f t="shared" si="13"/>
         <v>Saboteur</v>
       </c>
-      <c r="D30" s="157">
+      <c r="D30" s="146">
         <v>1</v>
       </c>
-      <c r="E30" s="158"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="157">
+      <c r="E30" s="147"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="146">
         <v>1</v>
       </c>
-      <c r="H30" s="158"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="158"/>
-      <c r="L30" s="159"/>
-      <c r="M30" s="157"/>
-      <c r="N30" s="158"/>
-      <c r="O30" s="159"/>
-      <c r="P30" s="157">
+      <c r="H30" s="147"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="147"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="146"/>
+      <c r="N30" s="147"/>
+      <c r="O30" s="148"/>
+      <c r="P30" s="146">
         <v>6</v>
       </c>
-      <c r="Q30" s="158"/>
-      <c r="R30" s="159"/>
-      <c r="S30" s="157">
+      <c r="Q30" s="147"/>
+      <c r="R30" s="148"/>
+      <c r="S30" s="146">
         <v>32</v>
       </c>
-      <c r="T30" s="158"/>
-      <c r="U30" s="159"/>
-      <c r="V30" s="157"/>
-      <c r="W30" s="158"/>
-      <c r="X30" s="159"/>
-      <c r="Y30" s="157"/>
-      <c r="Z30" s="158"/>
-      <c r="AA30" s="159"/>
-      <c r="AB30" s="157"/>
-      <c r="AC30" s="158"/>
-      <c r="AD30" s="159"/>
-      <c r="AE30" s="157"/>
-      <c r="AF30" s="158"/>
-      <c r="AG30" s="159"/>
-      <c r="AH30" s="157"/>
-      <c r="AI30" s="158"/>
-      <c r="AJ30" s="159"/>
-      <c r="AK30" s="157"/>
-      <c r="AL30" s="158"/>
-      <c r="AM30" s="159"/>
+      <c r="T30" s="147"/>
+      <c r="U30" s="148"/>
+      <c r="V30" s="146"/>
+      <c r="W30" s="147"/>
+      <c r="X30" s="148"/>
+      <c r="Y30" s="146"/>
+      <c r="Z30" s="147"/>
+      <c r="AA30" s="148"/>
+      <c r="AB30" s="146"/>
+      <c r="AC30" s="147"/>
+      <c r="AD30" s="148"/>
+      <c r="AE30" s="146"/>
+      <c r="AF30" s="147"/>
+      <c r="AG30" s="148"/>
+      <c r="AH30" s="146"/>
+      <c r="AI30" s="147"/>
+      <c r="AJ30" s="148"/>
+      <c r="AK30" s="146"/>
+      <c r="AL30" s="147"/>
+      <c r="AM30" s="148"/>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="109">
@@ -6612,50 +6612,50 @@
         <f t="shared" si="13"/>
         <v>Normal</v>
       </c>
-      <c r="D31" s="154"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="154">
+      <c r="D31" s="140"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="140">
         <v>1</v>
       </c>
-      <c r="H31" s="155"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="154">
+      <c r="H31" s="141"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="140">
         <v>1</v>
       </c>
-      <c r="K31" s="155"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="154"/>
-      <c r="N31" s="155"/>
-      <c r="O31" s="156"/>
-      <c r="P31" s="154">
+      <c r="K31" s="141"/>
+      <c r="L31" s="142"/>
+      <c r="M31" s="140"/>
+      <c r="N31" s="141"/>
+      <c r="O31" s="142"/>
+      <c r="P31" s="140">
         <v>6</v>
       </c>
-      <c r="Q31" s="155"/>
-      <c r="R31" s="156"/>
-      <c r="S31" s="154">
+      <c r="Q31" s="141"/>
+      <c r="R31" s="142"/>
+      <c r="S31" s="140">
         <v>32</v>
       </c>
-      <c r="T31" s="155"/>
-      <c r="U31" s="156"/>
-      <c r="V31" s="154"/>
-      <c r="W31" s="155"/>
-      <c r="X31" s="156"/>
-      <c r="Y31" s="154"/>
-      <c r="Z31" s="155"/>
-      <c r="AA31" s="156"/>
-      <c r="AB31" s="154"/>
-      <c r="AC31" s="155"/>
-      <c r="AD31" s="156"/>
-      <c r="AE31" s="154"/>
-      <c r="AF31" s="155"/>
-      <c r="AG31" s="156"/>
-      <c r="AH31" s="154"/>
-      <c r="AI31" s="155"/>
-      <c r="AJ31" s="156"/>
-      <c r="AK31" s="154"/>
-      <c r="AL31" s="155"/>
-      <c r="AM31" s="156"/>
+      <c r="T31" s="141"/>
+      <c r="U31" s="142"/>
+      <c r="V31" s="140"/>
+      <c r="W31" s="141"/>
+      <c r="X31" s="142"/>
+      <c r="Y31" s="140"/>
+      <c r="Z31" s="141"/>
+      <c r="AA31" s="142"/>
+      <c r="AB31" s="140"/>
+      <c r="AC31" s="141"/>
+      <c r="AD31" s="142"/>
+      <c r="AE31" s="140"/>
+      <c r="AF31" s="141"/>
+      <c r="AG31" s="142"/>
+      <c r="AH31" s="140"/>
+      <c r="AI31" s="141"/>
+      <c r="AJ31" s="142"/>
+      <c r="AK31" s="140"/>
+      <c r="AL31" s="141"/>
+      <c r="AM31" s="142"/>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="109">
@@ -6669,50 +6669,50 @@
         <f t="shared" si="13"/>
         <v>Intangible</v>
       </c>
-      <c r="D32" s="157"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="157">
+      <c r="D32" s="146"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="146">
         <v>1</v>
       </c>
-      <c r="H32" s="158"/>
-      <c r="I32" s="159"/>
-      <c r="J32" s="157">
+      <c r="H32" s="147"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="146">
         <v>1</v>
       </c>
-      <c r="K32" s="158"/>
-      <c r="L32" s="159"/>
-      <c r="M32" s="157"/>
-      <c r="N32" s="158"/>
-      <c r="O32" s="159"/>
-      <c r="P32" s="157">
+      <c r="K32" s="147"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="147"/>
+      <c r="O32" s="148"/>
+      <c r="P32" s="146">
         <v>6</v>
       </c>
-      <c r="Q32" s="158"/>
-      <c r="R32" s="159"/>
-      <c r="S32" s="157">
+      <c r="Q32" s="147"/>
+      <c r="R32" s="148"/>
+      <c r="S32" s="146">
         <v>32</v>
       </c>
-      <c r="T32" s="158"/>
-      <c r="U32" s="159"/>
-      <c r="V32" s="157"/>
-      <c r="W32" s="158"/>
-      <c r="X32" s="159"/>
-      <c r="Y32" s="157"/>
-      <c r="Z32" s="158"/>
-      <c r="AA32" s="159"/>
-      <c r="AB32" s="157"/>
-      <c r="AC32" s="158"/>
-      <c r="AD32" s="159"/>
-      <c r="AE32" s="157"/>
-      <c r="AF32" s="158"/>
-      <c r="AG32" s="159"/>
-      <c r="AH32" s="157"/>
-      <c r="AI32" s="158"/>
-      <c r="AJ32" s="159"/>
-      <c r="AK32" s="157"/>
-      <c r="AL32" s="158"/>
-      <c r="AM32" s="159"/>
+      <c r="T32" s="147"/>
+      <c r="U32" s="148"/>
+      <c r="V32" s="146"/>
+      <c r="W32" s="147"/>
+      <c r="X32" s="148"/>
+      <c r="Y32" s="146"/>
+      <c r="Z32" s="147"/>
+      <c r="AA32" s="148"/>
+      <c r="AB32" s="146"/>
+      <c r="AC32" s="147"/>
+      <c r="AD32" s="148"/>
+      <c r="AE32" s="146"/>
+      <c r="AF32" s="147"/>
+      <c r="AG32" s="148"/>
+      <c r="AH32" s="146"/>
+      <c r="AI32" s="147"/>
+      <c r="AJ32" s="148"/>
+      <c r="AK32" s="146"/>
+      <c r="AL32" s="147"/>
+      <c r="AM32" s="148"/>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="109">
@@ -6726,225 +6726,364 @@
         <f t="shared" si="13"/>
         <v>Saboteur</v>
       </c>
-      <c r="D33" s="154"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="154">
+      <c r="D33" s="140"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="140">
         <v>1</v>
       </c>
-      <c r="H33" s="155"/>
-      <c r="I33" s="156"/>
-      <c r="J33" s="154">
+      <c r="H33" s="141"/>
+      <c r="I33" s="142"/>
+      <c r="J33" s="140">
         <v>1</v>
       </c>
-      <c r="K33" s="155"/>
-      <c r="L33" s="156"/>
-      <c r="M33" s="154"/>
-      <c r="N33" s="155"/>
-      <c r="O33" s="156"/>
-      <c r="P33" s="154">
+      <c r="K33" s="141"/>
+      <c r="L33" s="142"/>
+      <c r="M33" s="140"/>
+      <c r="N33" s="141"/>
+      <c r="O33" s="142"/>
+      <c r="P33" s="140">
         <v>6</v>
       </c>
-      <c r="Q33" s="155"/>
-      <c r="R33" s="156"/>
-      <c r="S33" s="154">
+      <c r="Q33" s="141"/>
+      <c r="R33" s="142"/>
+      <c r="S33" s="140">
         <v>32</v>
       </c>
-      <c r="T33" s="155"/>
-      <c r="U33" s="156"/>
-      <c r="V33" s="154"/>
-      <c r="W33" s="155"/>
-      <c r="X33" s="156"/>
-      <c r="Y33" s="154"/>
-      <c r="Z33" s="155"/>
-      <c r="AA33" s="156"/>
-      <c r="AB33" s="154"/>
-      <c r="AC33" s="155"/>
-      <c r="AD33" s="156"/>
-      <c r="AE33" s="154"/>
-      <c r="AF33" s="155"/>
-      <c r="AG33" s="156"/>
-      <c r="AH33" s="154"/>
-      <c r="AI33" s="155"/>
-      <c r="AJ33" s="156"/>
-      <c r="AK33" s="154"/>
-      <c r="AL33" s="155"/>
-      <c r="AM33" s="156"/>
+      <c r="T33" s="141"/>
+      <c r="U33" s="142"/>
+      <c r="V33" s="140"/>
+      <c r="W33" s="141"/>
+      <c r="X33" s="142"/>
+      <c r="Y33" s="140"/>
+      <c r="Z33" s="141"/>
+      <c r="AA33" s="142"/>
+      <c r="AB33" s="140"/>
+      <c r="AC33" s="141"/>
+      <c r="AD33" s="142"/>
+      <c r="AE33" s="140"/>
+      <c r="AF33" s="141"/>
+      <c r="AG33" s="142"/>
+      <c r="AH33" s="140"/>
+      <c r="AI33" s="141"/>
+      <c r="AJ33" s="142"/>
+      <c r="AK33" s="140"/>
+      <c r="AL33" s="141"/>
+      <c r="AM33" s="142"/>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B34" s="101"/>
       <c r="C34" s="102"/>
-      <c r="D34" s="148"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="148"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="148"/>
-      <c r="N34" s="149"/>
-      <c r="O34" s="150"/>
-      <c r="P34" s="148"/>
-      <c r="Q34" s="149"/>
-      <c r="R34" s="150"/>
-      <c r="S34" s="148"/>
-      <c r="T34" s="149"/>
-      <c r="U34" s="150"/>
-      <c r="V34" s="148"/>
-      <c r="W34" s="149"/>
-      <c r="X34" s="150"/>
-      <c r="Y34" s="148"/>
-      <c r="Z34" s="149"/>
-      <c r="AA34" s="150"/>
-      <c r="AB34" s="148"/>
-      <c r="AC34" s="149"/>
-      <c r="AD34" s="150"/>
-      <c r="AE34" s="148"/>
-      <c r="AF34" s="149"/>
-      <c r="AG34" s="150"/>
-      <c r="AH34" s="148"/>
-      <c r="AI34" s="149"/>
-      <c r="AJ34" s="150"/>
-      <c r="AK34" s="148"/>
-      <c r="AL34" s="149"/>
-      <c r="AM34" s="150"/>
+      <c r="D34" s="143"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="143"/>
+      <c r="H34" s="144"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="143"/>
+      <c r="K34" s="144"/>
+      <c r="L34" s="145"/>
+      <c r="M34" s="143"/>
+      <c r="N34" s="144"/>
+      <c r="O34" s="145"/>
+      <c r="P34" s="143"/>
+      <c r="Q34" s="144"/>
+      <c r="R34" s="145"/>
+      <c r="S34" s="143"/>
+      <c r="T34" s="144"/>
+      <c r="U34" s="145"/>
+      <c r="V34" s="143"/>
+      <c r="W34" s="144"/>
+      <c r="X34" s="145"/>
+      <c r="Y34" s="143"/>
+      <c r="Z34" s="144"/>
+      <c r="AA34" s="145"/>
+      <c r="AB34" s="143"/>
+      <c r="AC34" s="144"/>
+      <c r="AD34" s="145"/>
+      <c r="AE34" s="143"/>
+      <c r="AF34" s="144"/>
+      <c r="AG34" s="145"/>
+      <c r="AH34" s="143"/>
+      <c r="AI34" s="144"/>
+      <c r="AJ34" s="145"/>
+      <c r="AK34" s="143"/>
+      <c r="AL34" s="144"/>
+      <c r="AM34" s="145"/>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B35" s="103"/>
       <c r="C35" s="102"/>
-      <c r="D35" s="148"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="148"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="148"/>
-      <c r="N35" s="149"/>
-      <c r="O35" s="150"/>
-      <c r="P35" s="148"/>
-      <c r="Q35" s="149"/>
-      <c r="R35" s="150"/>
-      <c r="S35" s="148"/>
-      <c r="T35" s="149"/>
-      <c r="U35" s="150"/>
-      <c r="V35" s="148"/>
-      <c r="W35" s="149"/>
-      <c r="X35" s="150"/>
-      <c r="Y35" s="148"/>
-      <c r="Z35" s="149"/>
-      <c r="AA35" s="150"/>
-      <c r="AB35" s="148"/>
-      <c r="AC35" s="149"/>
-      <c r="AD35" s="150"/>
-      <c r="AE35" s="148"/>
-      <c r="AF35" s="149"/>
-      <c r="AG35" s="150"/>
-      <c r="AH35" s="148"/>
-      <c r="AI35" s="149"/>
-      <c r="AJ35" s="150"/>
-      <c r="AK35" s="148"/>
-      <c r="AL35" s="149"/>
-      <c r="AM35" s="150"/>
+      <c r="D35" s="143"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="145"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="143"/>
+      <c r="K35" s="144"/>
+      <c r="L35" s="145"/>
+      <c r="M35" s="143"/>
+      <c r="N35" s="144"/>
+      <c r="O35" s="145"/>
+      <c r="P35" s="143"/>
+      <c r="Q35" s="144"/>
+      <c r="R35" s="145"/>
+      <c r="S35" s="143"/>
+      <c r="T35" s="144"/>
+      <c r="U35" s="145"/>
+      <c r="V35" s="143"/>
+      <c r="W35" s="144"/>
+      <c r="X35" s="145"/>
+      <c r="Y35" s="143"/>
+      <c r="Z35" s="144"/>
+      <c r="AA35" s="145"/>
+      <c r="AB35" s="143"/>
+      <c r="AC35" s="144"/>
+      <c r="AD35" s="145"/>
+      <c r="AE35" s="143"/>
+      <c r="AF35" s="144"/>
+      <c r="AG35" s="145"/>
+      <c r="AH35" s="143"/>
+      <c r="AI35" s="144"/>
+      <c r="AJ35" s="145"/>
+      <c r="AK35" s="143"/>
+      <c r="AL35" s="144"/>
+      <c r="AM35" s="145"/>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B36" s="103"/>
       <c r="C36" s="102"/>
-      <c r="D36" s="148"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="148"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="148"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="148"/>
-      <c r="N36" s="149"/>
-      <c r="O36" s="150"/>
-      <c r="P36" s="148"/>
-      <c r="Q36" s="149"/>
-      <c r="R36" s="150"/>
-      <c r="S36" s="148"/>
-      <c r="T36" s="149"/>
-      <c r="U36" s="150"/>
-      <c r="V36" s="148"/>
-      <c r="W36" s="149"/>
-      <c r="X36" s="150"/>
-      <c r="Y36" s="148"/>
-      <c r="Z36" s="149"/>
-      <c r="AA36" s="150"/>
-      <c r="AB36" s="148"/>
-      <c r="AC36" s="149"/>
-      <c r="AD36" s="150"/>
-      <c r="AE36" s="148"/>
-      <c r="AF36" s="149"/>
-      <c r="AG36" s="150"/>
-      <c r="AH36" s="148"/>
-      <c r="AI36" s="149"/>
-      <c r="AJ36" s="150"/>
-      <c r="AK36" s="148"/>
-      <c r="AL36" s="149"/>
-      <c r="AM36" s="150"/>
+      <c r="D36" s="143"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="145"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="144"/>
+      <c r="I36" s="145"/>
+      <c r="J36" s="143"/>
+      <c r="K36" s="144"/>
+      <c r="L36" s="145"/>
+      <c r="M36" s="143"/>
+      <c r="N36" s="144"/>
+      <c r="O36" s="145"/>
+      <c r="P36" s="143"/>
+      <c r="Q36" s="144"/>
+      <c r="R36" s="145"/>
+      <c r="S36" s="143"/>
+      <c r="T36" s="144"/>
+      <c r="U36" s="145"/>
+      <c r="V36" s="143"/>
+      <c r="W36" s="144"/>
+      <c r="X36" s="145"/>
+      <c r="Y36" s="143"/>
+      <c r="Z36" s="144"/>
+      <c r="AA36" s="145"/>
+      <c r="AB36" s="143"/>
+      <c r="AC36" s="144"/>
+      <c r="AD36" s="145"/>
+      <c r="AE36" s="143"/>
+      <c r="AF36" s="144"/>
+      <c r="AG36" s="145"/>
+      <c r="AH36" s="143"/>
+      <c r="AI36" s="144"/>
+      <c r="AJ36" s="145"/>
+      <c r="AK36" s="143"/>
+      <c r="AL36" s="144"/>
+      <c r="AM36" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="267">
-    <mergeCell ref="AK33:AM33"/>
-    <mergeCell ref="AK34:AM34"/>
-    <mergeCell ref="AK35:AM35"/>
-    <mergeCell ref="AK36:AM36"/>
-    <mergeCell ref="AK27:AM27"/>
-    <mergeCell ref="AK28:AM28"/>
-    <mergeCell ref="AK29:AM29"/>
-    <mergeCell ref="AK30:AM30"/>
-    <mergeCell ref="AK31:AM31"/>
-    <mergeCell ref="AK32:AM32"/>
-    <mergeCell ref="AK18:AM18"/>
-    <mergeCell ref="AK19:AM19"/>
-    <mergeCell ref="AK20:AM20"/>
-    <mergeCell ref="AK21:AM21"/>
-    <mergeCell ref="AK25:AM25"/>
-    <mergeCell ref="AK26:AM26"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AK14:AM14"/>
-    <mergeCell ref="AK15:AM15"/>
-    <mergeCell ref="AK16:AM16"/>
-    <mergeCell ref="AK17:AM17"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="AK13:AM13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AD19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AE25:AG25"/>
+    <mergeCell ref="AH25:AJ25"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="AE27:AG27"/>
+    <mergeCell ref="AH27:AJ27"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AE26:AG26"/>
+    <mergeCell ref="AH26:AJ26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="AB29:AD29"/>
+    <mergeCell ref="AE29:AG29"/>
+    <mergeCell ref="AH29:AJ29"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB28:AD28"/>
+    <mergeCell ref="AE28:AG28"/>
+    <mergeCell ref="AH28:AJ28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="AE31:AG31"/>
+    <mergeCell ref="AH31:AJ31"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="AE30:AG30"/>
+    <mergeCell ref="AH30:AJ30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="AH33:AJ33"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="AB32:AD32"/>
+    <mergeCell ref="AE32:AG32"/>
+    <mergeCell ref="AH32:AJ32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="AH36:AJ36"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="AB35:AD35"/>
+    <mergeCell ref="AE35:AG35"/>
+    <mergeCell ref="AH35:AJ35"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="AB34:AD34"/>
+    <mergeCell ref="AE34:AG34"/>
+    <mergeCell ref="AH34:AJ34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="P35:R35"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="V36:X36"/>
@@ -6969,197 +7108,58 @@
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="AH36:AJ36"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="S35:U35"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="AB35:AD35"/>
-    <mergeCell ref="AE35:AG35"/>
-    <mergeCell ref="AH35:AJ35"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="AB34:AD34"/>
-    <mergeCell ref="AE34:AG34"/>
-    <mergeCell ref="AH34:AJ34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="AH33:AJ33"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="AB32:AD32"/>
-    <mergeCell ref="AE32:AG32"/>
-    <mergeCell ref="AH32:AJ32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="AE31:AG31"/>
-    <mergeCell ref="AH31:AJ31"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="AE30:AG30"/>
-    <mergeCell ref="AH30:AJ30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="AB29:AD29"/>
-    <mergeCell ref="AE29:AG29"/>
-    <mergeCell ref="AH29:AJ29"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="AB28:AD28"/>
-    <mergeCell ref="AE28:AG28"/>
-    <mergeCell ref="AH28:AJ28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="AE27:AG27"/>
-    <mergeCell ref="AH27:AJ27"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AE26:AG26"/>
-    <mergeCell ref="AH26:AJ26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AE25:AG25"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AB19:AD19"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="AK13:AM13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="AK14:AM14"/>
+    <mergeCell ref="AK15:AM15"/>
+    <mergeCell ref="AK16:AM16"/>
+    <mergeCell ref="AK17:AM17"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AK18:AM18"/>
+    <mergeCell ref="AK19:AM19"/>
+    <mergeCell ref="AK20:AM20"/>
+    <mergeCell ref="AK21:AM21"/>
+    <mergeCell ref="AK25:AM25"/>
+    <mergeCell ref="AK26:AM26"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="AK35:AM35"/>
+    <mergeCell ref="AK36:AM36"/>
+    <mergeCell ref="AK27:AM27"/>
+    <mergeCell ref="AK28:AM28"/>
+    <mergeCell ref="AK29:AM29"/>
+    <mergeCell ref="AK30:AM30"/>
+    <mergeCell ref="AK31:AM31"/>
+    <mergeCell ref="AK32:AM32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D16:AM16">
@@ -7258,66 +7258,66 @@
   <sheetData>
     <row r="1" spans="1:48" s="111" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="108"/>
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="160" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="160" t="s">
+      <c r="C1" s="152" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="142" t="s">
+      <c r="D1" s="154" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="143"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="142" t="s">
+      <c r="E1" s="155"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="154" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="143"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="142" t="s">
+      <c r="H1" s="155"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="154" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="143"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="142" t="s">
+      <c r="K1" s="155"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="154" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="143"/>
-      <c r="O1" s="144"/>
-      <c r="P1" s="142" t="s">
+      <c r="N1" s="155"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="154" t="s">
         <v>177</v>
       </c>
-      <c r="Q1" s="143"/>
-      <c r="R1" s="144"/>
-      <c r="S1" s="142" t="s">
+      <c r="Q1" s="155"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="154" t="s">
         <v>178</v>
       </c>
-      <c r="T1" s="143"/>
-      <c r="U1" s="144"/>
-      <c r="V1" s="142" t="s">
+      <c r="T1" s="155"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="154" t="s">
         <v>206</v>
       </c>
-      <c r="W1" s="143"/>
-      <c r="X1" s="144"/>
-      <c r="Y1" s="142" t="s">
+      <c r="W1" s="155"/>
+      <c r="X1" s="156"/>
+      <c r="Y1" s="154" t="s">
         <v>207</v>
       </c>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="144"/>
-      <c r="AB1" s="142" t="s">
+      <c r="Z1" s="155"/>
+      <c r="AA1" s="156"/>
+      <c r="AB1" s="154" t="s">
         <v>208</v>
       </c>
-      <c r="AC1" s="143"/>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="142"/>
-      <c r="AF1" s="143"/>
-      <c r="AG1" s="144"/>
-      <c r="AH1" s="142"/>
-      <c r="AI1" s="143"/>
-      <c r="AJ1" s="144"/>
-      <c r="AK1" s="142"/>
-      <c r="AL1" s="143"/>
-      <c r="AM1" s="144"/>
+      <c r="AC1" s="155"/>
+      <c r="AD1" s="156"/>
+      <c r="AE1" s="154"/>
+      <c r="AF1" s="155"/>
+      <c r="AG1" s="156"/>
+      <c r="AH1" s="154"/>
+      <c r="AI1" s="155"/>
+      <c r="AJ1" s="156"/>
+      <c r="AK1" s="154"/>
+      <c r="AL1" s="155"/>
+      <c r="AM1" s="156"/>
       <c r="AN1" s="123"/>
       <c r="AO1" s="123"/>
       <c r="AP1" s="123"/>
@@ -7330,8 +7330,8 @@
     </row>
     <row r="2" spans="1:48" s="127" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="109"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="161"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="153"/>
       <c r="D2" s="124" t="s">
         <v>179</v>
       </c>
@@ -7871,668 +7871,668 @@
       <c r="AM11" s="117"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="D12" s="148"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="150"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="145"/>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B13" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="151">
+      <c r="D13" s="157">
         <v>100</v>
       </c>
-      <c r="E13" s="152"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="145">
+      <c r="E13" s="158"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="149">
         <f>D16</f>
         <v>100</v>
       </c>
-      <c r="H13" s="146"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="145" t="e">
+      <c r="H13" s="150"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="149" t="e">
         <f>G16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="146"/>
-      <c r="L13" s="147"/>
-      <c r="M13" s="145" t="e">
+      <c r="K13" s="150"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="149" t="e">
         <f>J16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N13" s="146"/>
-      <c r="O13" s="147"/>
-      <c r="P13" s="145" t="e">
+      <c r="N13" s="150"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="149" t="e">
         <f>M16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q13" s="146"/>
-      <c r="R13" s="147"/>
-      <c r="S13" s="145" t="e">
+      <c r="Q13" s="150"/>
+      <c r="R13" s="151"/>
+      <c r="S13" s="149" t="e">
         <f>P16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T13" s="146"/>
-      <c r="U13" s="147"/>
-      <c r="V13" s="145"/>
-      <c r="W13" s="146"/>
-      <c r="X13" s="147"/>
-      <c r="Y13" s="145"/>
-      <c r="Z13" s="146"/>
-      <c r="AA13" s="147"/>
-      <c r="AB13" s="145"/>
-      <c r="AC13" s="146"/>
-      <c r="AD13" s="147"/>
-      <c r="AE13" s="145"/>
-      <c r="AF13" s="146"/>
-      <c r="AG13" s="147"/>
-      <c r="AH13" s="145"/>
-      <c r="AI13" s="146"/>
-      <c r="AJ13" s="147"/>
-      <c r="AK13" s="145"/>
-      <c r="AL13" s="146"/>
-      <c r="AM13" s="147"/>
+      <c r="T13" s="150"/>
+      <c r="U13" s="151"/>
+      <c r="V13" s="149"/>
+      <c r="W13" s="150"/>
+      <c r="X13" s="151"/>
+      <c r="Y13" s="149"/>
+      <c r="Z13" s="150"/>
+      <c r="AA13" s="151"/>
+      <c r="AB13" s="149"/>
+      <c r="AC13" s="150"/>
+      <c r="AD13" s="151"/>
+      <c r="AE13" s="149"/>
+      <c r="AF13" s="150"/>
+      <c r="AG13" s="151"/>
+      <c r="AH13" s="149"/>
+      <c r="AI13" s="150"/>
+      <c r="AJ13" s="151"/>
+      <c r="AK13" s="149"/>
+      <c r="AL13" s="150"/>
+      <c r="AM13" s="151"/>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B14" s="97" t="s">
         <v>182</v>
       </c>
-      <c r="D14" s="148">
+      <c r="D14" s="143">
         <f>D3*VLOOKUP($B$3,ENEMY,7)+D4*VLOOKUP($B$4,ENEMY,7)+D5*VLOOKUP($B$5,ENEMY,7)+D6*VLOOKUP($B$6,ENEMY,7)+D7*VLOOKUP($B$7,ENEMY,7)+D8*VLOOKUP($B$8,ENEMY,7)+D9*VLOOKUP($B$9,ENEMY,7)+D10*VLOOKUP($B$10,ENEMY,7)+D11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="149"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="148">
+      <c r="E14" s="144"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="143">
         <f>G3*H3*VLOOKUP($B$3,ENEMY,7)+G4*H4*VLOOKUP($B$4,ENEMY,7)+G5*H5*VLOOKUP($B$5,ENEMY,7)+G6*H6*VLOOKUP($B$6,ENEMY,7)+G7*H7*VLOOKUP($B$7,ENEMY,7)+G8*H8*VLOOKUP($B$8,ENEMY,7)+G9*H9*VLOOKUP($B$9,ENEMY,7)+G10*H10*VLOOKUP($B$10,ENEMY,7)+G11*H11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>12</v>
       </c>
-      <c r="H14" s="149"/>
-      <c r="I14" s="150"/>
-      <c r="J14" s="148">
+      <c r="H14" s="144"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="143">
         <f>J3*K3*VLOOKUP($B$3,ENEMY,7)+J4*K4*VLOOKUP($B$4,ENEMY,7)+J5*K5*VLOOKUP($B$5,ENEMY,7)+J6*K6*VLOOKUP($B$6,ENEMY,7)+J7*K7*VLOOKUP($B$7,ENEMY,7)+J8*K8*VLOOKUP($B$8,ENEMY,7)+J9*K9*VLOOKUP($B$9,ENEMY,7)+J10*K10*VLOOKUP($B$10,ENEMY,7)+J11*K11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>20</v>
       </c>
-      <c r="K14" s="149"/>
-      <c r="L14" s="150"/>
-      <c r="M14" s="148">
+      <c r="K14" s="144"/>
+      <c r="L14" s="145"/>
+      <c r="M14" s="143">
         <f>M3*N3*VLOOKUP($B$3,ENEMY,7)+M4*N4*VLOOKUP($B$4,ENEMY,7)+M5*N5*VLOOKUP($B$5,ENEMY,7)+M6*N6*VLOOKUP($B$6,ENEMY,7)+M7*N7*VLOOKUP($B$7,ENEMY,7)+M8*N8*VLOOKUP($B$8,ENEMY,7)+M9*N9*VLOOKUP($B$9,ENEMY,7)+M10*N10*VLOOKUP($B$10,ENEMY,7)+M11*N11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>15</v>
       </c>
-      <c r="N14" s="149"/>
-      <c r="O14" s="150"/>
-      <c r="P14" s="148">
+      <c r="N14" s="144"/>
+      <c r="O14" s="145"/>
+      <c r="P14" s="143">
         <f>P3*Q3*VLOOKUP($B$3,ENEMY,7)+P4*Q4*VLOOKUP($B$4,ENEMY,7)+P5*Q5*VLOOKUP($B$5,ENEMY,7)+P6*Q6*VLOOKUP($B$6,ENEMY,7)+P7*Q7*VLOOKUP($B$7,ENEMY,7)+P8*Q8*VLOOKUP($B$8,ENEMY,7)+P9*Q9*VLOOKUP($B$9,ENEMY,7)+P10*Q10*VLOOKUP($B$10,ENEMY,7)+P11*Q11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>15</v>
       </c>
-      <c r="Q14" s="149"/>
-      <c r="R14" s="150"/>
-      <c r="S14" s="148">
+      <c r="Q14" s="144"/>
+      <c r="R14" s="145"/>
+      <c r="S14" s="143">
         <f>S3*T3*VLOOKUP($B$3,ENEMY,7)+S4*T4*VLOOKUP($B$4,ENEMY,7)+S5*T5*VLOOKUP($B$5,ENEMY,7)+S6*T6*VLOOKUP($B$6,ENEMY,7)+S7*T7*VLOOKUP($B$7,ENEMY,7)+S8*T8*VLOOKUP($B$8,ENEMY,7)+S9*T9*VLOOKUP($B$9,ENEMY,7)+S10*T10*VLOOKUP($B$10,ENEMY,7)+S11*T11*VLOOKUP($B$11,ENEMY,7)</f>
         <v>1</v>
       </c>
-      <c r="T14" s="149"/>
-      <c r="U14" s="150"/>
-      <c r="V14" s="148"/>
-      <c r="W14" s="149"/>
-      <c r="X14" s="150"/>
-      <c r="Y14" s="148"/>
-      <c r="Z14" s="149"/>
-      <c r="AA14" s="150"/>
-      <c r="AB14" s="148"/>
-      <c r="AC14" s="149"/>
-      <c r="AD14" s="150"/>
-      <c r="AE14" s="148"/>
-      <c r="AF14" s="149"/>
-      <c r="AG14" s="150"/>
-      <c r="AH14" s="148"/>
-      <c r="AI14" s="149"/>
-      <c r="AJ14" s="150"/>
-      <c r="AK14" s="148"/>
-      <c r="AL14" s="149"/>
-      <c r="AM14" s="150"/>
+      <c r="T14" s="144"/>
+      <c r="U14" s="145"/>
+      <c r="V14" s="143"/>
+      <c r="W14" s="144"/>
+      <c r="X14" s="145"/>
+      <c r="Y14" s="143"/>
+      <c r="Z14" s="144"/>
+      <c r="AA14" s="145"/>
+      <c r="AB14" s="143"/>
+      <c r="AC14" s="144"/>
+      <c r="AD14" s="145"/>
+      <c r="AE14" s="143"/>
+      <c r="AF14" s="144"/>
+      <c r="AG14" s="145"/>
+      <c r="AH14" s="143"/>
+      <c r="AI14" s="144"/>
+      <c r="AJ14" s="145"/>
+      <c r="AK14" s="143"/>
+      <c r="AL14" s="144"/>
+      <c r="AM14" s="145"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B15" s="97" t="s">
         <v>205</v>
       </c>
-      <c r="D15" s="148">
+      <c r="D15" s="143">
         <f>D26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+D27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+D28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+D29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+D30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+D31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+D32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+D33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+D34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
         <v>1.5</v>
       </c>
-      <c r="E15" s="149"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="148">
+      <c r="E15" s="144"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="143">
         <f>G26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+G27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+G28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+G29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+G30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+G31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+G32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+G33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+G34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="149"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="148">
+      <c r="H15" s="144"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="143">
         <f>J26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+J27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+J28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+J29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+J30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+J31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+J32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+J33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+J34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
         <v>5.5</v>
       </c>
-      <c r="K15" s="149"/>
-      <c r="L15" s="150"/>
-      <c r="M15" s="148">
+      <c r="K15" s="144"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="143">
         <f>M26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+M27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+M28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+M29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+M30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+M31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+M32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+M33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+M34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
         <v>4</v>
       </c>
-      <c r="N15" s="149"/>
-      <c r="O15" s="150"/>
-      <c r="P15" s="148">
+      <c r="N15" s="144"/>
+      <c r="O15" s="145"/>
+      <c r="P15" s="143">
         <f>P26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+P27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+P28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+P29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+P30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+P31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+P32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+P33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+P34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
         <v>1.5</v>
       </c>
-      <c r="Q15" s="149"/>
-      <c r="R15" s="150"/>
-      <c r="S15" s="148">
+      <c r="Q15" s="144"/>
+      <c r="R15" s="145"/>
+      <c r="S15" s="143">
         <f>S26*VLOOKUP($B$26,TOWER,5)*VLOOKUP($B$26,TOWER,6)+S27*VLOOKUP($B$27,TOWER,5)*VLOOKUP($B$27,TOWER,6)+S28*VLOOKUP($B$28,TOWER,5)*VLOOKUP($B$28,TOWER,6)+S29*VLOOKUP($B$29,TOWER,5)*VLOOKUP($B$29,TOWER,6)+S30*VLOOKUP($B$30,TOWER,5)*VLOOKUP($B$30,TOWER,6)+S31*VLOOKUP($B$31,TOWER,5)*VLOOKUP($B$31,TOWER,6)+S32*VLOOKUP($B$32,TOWER,5)*VLOOKUP($B$32,TOWER,6)+S33*VLOOKUP($B$33,TOWER,5)*VLOOKUP($B$33,TOWER,6)+S34*VLOOKUP($B$34,TOWER,5)*VLOOKUP($B$34,TOWER,6)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="149"/>
-      <c r="U15" s="150"/>
-      <c r="V15" s="148"/>
-      <c r="W15" s="149"/>
-      <c r="X15" s="150"/>
-      <c r="Y15" s="148"/>
-      <c r="Z15" s="149"/>
-      <c r="AA15" s="150"/>
-      <c r="AB15" s="148"/>
-      <c r="AC15" s="149"/>
-      <c r="AD15" s="150"/>
-      <c r="AE15" s="148"/>
-      <c r="AF15" s="149"/>
-      <c r="AG15" s="150"/>
-      <c r="AH15" s="148"/>
-      <c r="AI15" s="149"/>
-      <c r="AJ15" s="150"/>
-      <c r="AK15" s="148"/>
-      <c r="AL15" s="149"/>
-      <c r="AM15" s="150"/>
+      <c r="T15" s="144"/>
+      <c r="U15" s="145"/>
+      <c r="V15" s="143"/>
+      <c r="W15" s="144"/>
+      <c r="X15" s="145"/>
+      <c r="Y15" s="143"/>
+      <c r="Z15" s="144"/>
+      <c r="AA15" s="145"/>
+      <c r="AB15" s="143"/>
+      <c r="AC15" s="144"/>
+      <c r="AD15" s="145"/>
+      <c r="AE15" s="143"/>
+      <c r="AF15" s="144"/>
+      <c r="AG15" s="145"/>
+      <c r="AH15" s="143"/>
+      <c r="AI15" s="144"/>
+      <c r="AJ15" s="145"/>
+      <c r="AK15" s="143"/>
+      <c r="AL15" s="144"/>
+      <c r="AM15" s="145"/>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B16" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="D16" s="145">
+      <c r="D16" s="149">
         <f>D13-D14</f>
         <v>100</v>
       </c>
-      <c r="E16" s="146"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="145" t="e">
+      <c r="E16" s="150"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="149" t="e">
         <f>ROUND(G13-(G14/G15),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="146"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="145" t="e">
+      <c r="H16" s="150"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="149" t="e">
         <f t="shared" ref="J16" si="1">ROUND(J13-(J14/J15),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="146"/>
-      <c r="L16" s="147"/>
-      <c r="M16" s="145" t="e">
+      <c r="K16" s="150"/>
+      <c r="L16" s="151"/>
+      <c r="M16" s="149" t="e">
         <f t="shared" ref="M16" si="2">ROUND(M13-(M14/M15),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N16" s="146"/>
-      <c r="O16" s="147"/>
-      <c r="P16" s="145" t="e">
+      <c r="N16" s="150"/>
+      <c r="O16" s="151"/>
+      <c r="P16" s="149" t="e">
         <f t="shared" ref="P16" si="3">ROUND(P13-(P14/P15),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q16" s="146"/>
-      <c r="R16" s="147"/>
-      <c r="S16" s="145" t="e">
+      <c r="Q16" s="150"/>
+      <c r="R16" s="151"/>
+      <c r="S16" s="149" t="e">
         <f t="shared" ref="S16" si="4">ROUND(S13-(S14/S15),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T16" s="146"/>
-      <c r="U16" s="147"/>
-      <c r="V16" s="145"/>
-      <c r="W16" s="146"/>
-      <c r="X16" s="147"/>
-      <c r="Y16" s="145"/>
-      <c r="Z16" s="146"/>
-      <c r="AA16" s="147"/>
-      <c r="AB16" s="145"/>
-      <c r="AC16" s="146"/>
-      <c r="AD16" s="147"/>
-      <c r="AE16" s="145"/>
-      <c r="AF16" s="146"/>
-      <c r="AG16" s="147"/>
-      <c r="AH16" s="145"/>
-      <c r="AI16" s="146"/>
-      <c r="AJ16" s="147"/>
-      <c r="AK16" s="145"/>
-      <c r="AL16" s="146"/>
-      <c r="AM16" s="147"/>
+      <c r="T16" s="150"/>
+      <c r="U16" s="151"/>
+      <c r="V16" s="149"/>
+      <c r="W16" s="150"/>
+      <c r="X16" s="151"/>
+      <c r="Y16" s="149"/>
+      <c r="Z16" s="150"/>
+      <c r="AA16" s="151"/>
+      <c r="AB16" s="149"/>
+      <c r="AC16" s="150"/>
+      <c r="AD16" s="151"/>
+      <c r="AE16" s="149"/>
+      <c r="AF16" s="150"/>
+      <c r="AG16" s="151"/>
+      <c r="AH16" s="149"/>
+      <c r="AI16" s="150"/>
+      <c r="AJ16" s="151"/>
+      <c r="AK16" s="149"/>
+      <c r="AL16" s="150"/>
+      <c r="AM16" s="151"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C17" s="31"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="148"/>
-      <c r="K17" s="149"/>
-      <c r="L17" s="150"/>
-      <c r="M17" s="148"/>
-      <c r="N17" s="149"/>
-      <c r="O17" s="150"/>
-      <c r="P17" s="148"/>
-      <c r="Q17" s="149"/>
-      <c r="R17" s="150"/>
-      <c r="S17" s="148"/>
-      <c r="T17" s="149"/>
-      <c r="U17" s="150"/>
-      <c r="V17" s="148"/>
-      <c r="W17" s="149"/>
-      <c r="X17" s="150"/>
-      <c r="Y17" s="148"/>
-      <c r="Z17" s="149"/>
-      <c r="AA17" s="150"/>
-      <c r="AB17" s="148"/>
-      <c r="AC17" s="149"/>
-      <c r="AD17" s="150"/>
-      <c r="AE17" s="148"/>
-      <c r="AF17" s="149"/>
-      <c r="AG17" s="150"/>
-      <c r="AH17" s="148"/>
-      <c r="AI17" s="149"/>
-      <c r="AJ17" s="150"/>
-      <c r="AK17" s="148"/>
-      <c r="AL17" s="149"/>
-      <c r="AM17" s="150"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="145"/>
+      <c r="M17" s="143"/>
+      <c r="N17" s="144"/>
+      <c r="O17" s="145"/>
+      <c r="P17" s="143"/>
+      <c r="Q17" s="144"/>
+      <c r="R17" s="145"/>
+      <c r="S17" s="143"/>
+      <c r="T17" s="144"/>
+      <c r="U17" s="145"/>
+      <c r="V17" s="143"/>
+      <c r="W17" s="144"/>
+      <c r="X17" s="145"/>
+      <c r="Y17" s="143"/>
+      <c r="Z17" s="144"/>
+      <c r="AA17" s="145"/>
+      <c r="AB17" s="143"/>
+      <c r="AC17" s="144"/>
+      <c r="AD17" s="145"/>
+      <c r="AE17" s="143"/>
+      <c r="AF17" s="144"/>
+      <c r="AG17" s="145"/>
+      <c r="AH17" s="143"/>
+      <c r="AI17" s="144"/>
+      <c r="AJ17" s="145"/>
+      <c r="AK17" s="143"/>
+      <c r="AL17" s="144"/>
+      <c r="AM17" s="145"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B18" s="95" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="154">
+      <c r="D18" s="140">
         <f>Tower!I3*2+Tower!I3/2</f>
         <v>225</v>
       </c>
-      <c r="E18" s="155"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="154">
+      <c r="E18" s="141"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="140">
         <f>D22</f>
         <v>35</v>
       </c>
-      <c r="H18" s="155"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="154">
+      <c r="H18" s="141"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="140">
         <f t="shared" ref="J18" si="5">G22</f>
-        <v>53</v>
-      </c>
-      <c r="K18" s="155"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="154">
+        <v>77</v>
+      </c>
+      <c r="K18" s="141"/>
+      <c r="L18" s="142"/>
+      <c r="M18" s="140">
         <f t="shared" ref="M18" si="6">J22</f>
-        <v>65</v>
-      </c>
-      <c r="N18" s="155"/>
-      <c r="O18" s="156"/>
-      <c r="P18" s="154">
+        <v>129</v>
+      </c>
+      <c r="N18" s="141"/>
+      <c r="O18" s="142"/>
+      <c r="P18" s="140">
         <f t="shared" ref="P18" si="7">M22</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="155"/>
-      <c r="R18" s="156"/>
-      <c r="S18" s="154">
+        <v>94</v>
+      </c>
+      <c r="Q18" s="141"/>
+      <c r="R18" s="142"/>
+      <c r="S18" s="140">
         <f t="shared" ref="S18" si="8">P22</f>
-        <v>45</v>
-      </c>
-      <c r="T18" s="155"/>
-      <c r="U18" s="156"/>
-      <c r="V18" s="154">
+        <v>169</v>
+      </c>
+      <c r="T18" s="141"/>
+      <c r="U18" s="142"/>
+      <c r="V18" s="140">
         <f t="shared" ref="V18" si="9">S22</f>
-        <v>63</v>
-      </c>
-      <c r="W18" s="155"/>
-      <c r="X18" s="156"/>
-      <c r="Y18" s="154">
+        <v>189</v>
+      </c>
+      <c r="W18" s="141"/>
+      <c r="X18" s="142"/>
+      <c r="Y18" s="140">
         <f t="shared" ref="Y18" si="10">V22</f>
-        <v>63</v>
-      </c>
-      <c r="Z18" s="155"/>
-      <c r="AA18" s="156"/>
-      <c r="AB18" s="154">
+        <v>189</v>
+      </c>
+      <c r="Z18" s="141"/>
+      <c r="AA18" s="142"/>
+      <c r="AB18" s="140">
         <f t="shared" ref="AB18" si="11">Y22</f>
-        <v>63</v>
-      </c>
-      <c r="AC18" s="155"/>
-      <c r="AD18" s="156"/>
-      <c r="AE18" s="154">
+        <v>189</v>
+      </c>
+      <c r="AC18" s="141"/>
+      <c r="AD18" s="142"/>
+      <c r="AE18" s="140">
         <f t="shared" ref="AE18" si="12">AB22</f>
-        <v>63</v>
-      </c>
-      <c r="AF18" s="155"/>
-      <c r="AG18" s="156"/>
-      <c r="AH18" s="154">
+        <v>189</v>
+      </c>
+      <c r="AF18" s="141"/>
+      <c r="AG18" s="142"/>
+      <c r="AH18" s="140">
         <f t="shared" ref="AH18" si="13">AE22</f>
-        <v>63</v>
-      </c>
-      <c r="AI18" s="155"/>
-      <c r="AJ18" s="156"/>
-      <c r="AK18" s="154">
+        <v>189</v>
+      </c>
+      <c r="AI18" s="141"/>
+      <c r="AJ18" s="142"/>
+      <c r="AK18" s="140">
         <f t="shared" ref="AK18" si="14">AH22</f>
-        <v>63</v>
-      </c>
-      <c r="AL18" s="155"/>
-      <c r="AM18" s="156"/>
+        <v>189</v>
+      </c>
+      <c r="AL18" s="141"/>
+      <c r="AM18" s="142"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B19" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="D19" s="157">
+      <c r="D19" s="146">
         <f>D26*VLOOKUP($B$26,TOWER,9)+D27*VLOOKUP($B$27,TOWER,9)+D28*VLOOKUP($B$28,TOWER,9)+D29*VLOOKUP($B$29,TOWER,9)+D30*VLOOKUP($B$30,TOWER,9)+D31*VLOOKUP($B$31,TOWER,9)+D32*VLOOKUP($B$32,TOWER,9)+D33*VLOOKUP($B$33,TOWER,9)+D34*VLOOKUP($B$34,TOWER,9)</f>
         <v>100</v>
       </c>
-      <c r="E19" s="158"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="157">
+      <c r="E19" s="147"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="146">
         <f>G26*VLOOKUP($B$26,TOWER,9)+G27*VLOOKUP($B$27,TOWER,9)+G28*VLOOKUP($B$28,TOWER,9)+G29*VLOOKUP($B$29,TOWER,9)+G30*VLOOKUP($B$30,TOWER,9)+G31*VLOOKUP($B$31,TOWER,9)+G32*VLOOKUP($B$32,TOWER,9)+G33*VLOOKUP($B$33,TOWER,9)+G34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="158"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="157">
+      <c r="H19" s="147"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="146">
         <f>J26*VLOOKUP($B$26,TOWER,9)+J27*VLOOKUP($B$27,TOWER,9)+J28*VLOOKUP($B$28,TOWER,9)+J29*VLOOKUP($B$29,TOWER,9)+J30*VLOOKUP($B$30,TOWER,9)+J31*VLOOKUP($B$31,TOWER,9)+J32*VLOOKUP($B$32,TOWER,9)+J33*VLOOKUP($B$33,TOWER,9)+J34*VLOOKUP($B$34,TOWER,9)</f>
         <v>180</v>
       </c>
-      <c r="K19" s="158"/>
-      <c r="L19" s="159"/>
-      <c r="M19" s="157">
+      <c r="K19" s="147"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="146">
         <f>M26*VLOOKUP($B$26,TOWER,9)+M27*VLOOKUP($B$27,TOWER,9)+M28*VLOOKUP($B$28,TOWER,9)+M29*VLOOKUP($B$29,TOWER,9)+M30*VLOOKUP($B$30,TOWER,9)+M31*VLOOKUP($B$31,TOWER,9)+M32*VLOOKUP($B$32,TOWER,9)+M33*VLOOKUP($B$33,TOWER,9)+M34*VLOOKUP($B$34,TOWER,9)</f>
         <v>80</v>
       </c>
-      <c r="N19" s="158"/>
-      <c r="O19" s="159"/>
-      <c r="P19" s="157">
+      <c r="N19" s="147"/>
+      <c r="O19" s="148"/>
+      <c r="P19" s="146">
         <f>P26*VLOOKUP($B$26,TOWER,9)+P27*VLOOKUP($B$27,TOWER,9)+P28*VLOOKUP($B$28,TOWER,9)+P29*VLOOKUP($B$29,TOWER,9)+P30*VLOOKUP($B$30,TOWER,9)+P31*VLOOKUP($B$31,TOWER,9)+P32*VLOOKUP($B$32,TOWER,9)+P33*VLOOKUP($B$33,TOWER,9)+P34*VLOOKUP($B$34,TOWER,9)</f>
         <v>100</v>
       </c>
-      <c r="Q19" s="158"/>
-      <c r="R19" s="159"/>
-      <c r="S19" s="157">
+      <c r="Q19" s="147"/>
+      <c r="R19" s="148"/>
+      <c r="S19" s="146">
         <f>S26*VLOOKUP($B$26,TOWER,9)+S27*VLOOKUP($B$27,TOWER,9)+S28*VLOOKUP($B$28,TOWER,9)+S29*VLOOKUP($B$29,TOWER,9)+S30*VLOOKUP($B$30,TOWER,9)+S31*VLOOKUP($B$31,TOWER,9)+S32*VLOOKUP($B$32,TOWER,9)+S33*VLOOKUP($B$33,TOWER,9)+S34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="T19" s="158"/>
-      <c r="U19" s="159"/>
-      <c r="V19" s="157">
+      <c r="T19" s="147"/>
+      <c r="U19" s="148"/>
+      <c r="V19" s="146">
         <f>V26*VLOOKUP($B$26,TOWER,9)+V27*VLOOKUP($B$27,TOWER,9)+V28*VLOOKUP($B$28,TOWER,9)+V29*VLOOKUP($B$29,TOWER,9)+V30*VLOOKUP($B$30,TOWER,9)+V31*VLOOKUP($B$31,TOWER,9)+V32*VLOOKUP($B$32,TOWER,9)+V33*VLOOKUP($B$33,TOWER,9)+V34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="W19" s="158"/>
-      <c r="X19" s="159"/>
-      <c r="Y19" s="157">
+      <c r="W19" s="147"/>
+      <c r="X19" s="148"/>
+      <c r="Y19" s="146">
         <f>Y26*VLOOKUP($B$26,TOWER,9)+Y27*VLOOKUP($B$27,TOWER,9)+Y28*VLOOKUP($B$28,TOWER,9)+Y29*VLOOKUP($B$29,TOWER,9)+Y30*VLOOKUP($B$30,TOWER,9)+Y31*VLOOKUP($B$31,TOWER,9)+Y32*VLOOKUP($B$32,TOWER,9)+Y33*VLOOKUP($B$33,TOWER,9)+Y34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="Z19" s="158"/>
-      <c r="AA19" s="159"/>
-      <c r="AB19" s="157">
+      <c r="Z19" s="147"/>
+      <c r="AA19" s="148"/>
+      <c r="AB19" s="146">
         <f>AB26*VLOOKUP($B$26,TOWER,9)+AB27*VLOOKUP($B$27,TOWER,9)+AB28*VLOOKUP($B$28,TOWER,9)+AB29*VLOOKUP($B$29,TOWER,9)+AB30*VLOOKUP($B$30,TOWER,9)+AB31*VLOOKUP($B$31,TOWER,9)+AB32*VLOOKUP($B$32,TOWER,9)+AB33*VLOOKUP($B$33,TOWER,9)+AB34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="AC19" s="158"/>
-      <c r="AD19" s="159"/>
-      <c r="AE19" s="157">
+      <c r="AC19" s="147"/>
+      <c r="AD19" s="148"/>
+      <c r="AE19" s="146">
         <f>AE26*VLOOKUP($B$26,TOWER,9)+AE27*VLOOKUP($B$27,TOWER,9)+AE28*VLOOKUP($B$28,TOWER,9)+AE29*VLOOKUP($B$29,TOWER,9)+AE30*VLOOKUP($B$30,TOWER,9)+AE31*VLOOKUP($B$31,TOWER,9)+AE32*VLOOKUP($B$32,TOWER,9)+AE33*VLOOKUP($B$33,TOWER,9)+AE34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="AF19" s="158"/>
-      <c r="AG19" s="159"/>
-      <c r="AH19" s="157">
+      <c r="AF19" s="147"/>
+      <c r="AG19" s="148"/>
+      <c r="AH19" s="146">
         <f>AH26*VLOOKUP($B$26,TOWER,9)+AH27*VLOOKUP($B$27,TOWER,9)+AH28*VLOOKUP($B$28,TOWER,9)+AH29*VLOOKUP($B$29,TOWER,9)+AH30*VLOOKUP($B$30,TOWER,9)+AH31*VLOOKUP($B$31,TOWER,9)+AH32*VLOOKUP($B$32,TOWER,9)+AH33*VLOOKUP($B$33,TOWER,9)+AH34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="AI19" s="158"/>
-      <c r="AJ19" s="159"/>
-      <c r="AK19" s="157">
+      <c r="AI19" s="147"/>
+      <c r="AJ19" s="148"/>
+      <c r="AK19" s="146">
         <f>AK26*VLOOKUP($B$26,TOWER,9)+AK27*VLOOKUP($B$27,TOWER,9)+AK28*VLOOKUP($B$28,TOWER,9)+AK29*VLOOKUP($B$29,TOWER,9)+AK30*VLOOKUP($B$30,TOWER,9)+AK31*VLOOKUP($B$31,TOWER,9)+AK32*VLOOKUP($B$32,TOWER,9)+AK33*VLOOKUP($B$33,TOWER,9)+AK34*VLOOKUP($B$34,TOWER,9)</f>
         <v>0</v>
       </c>
-      <c r="AL19" s="158"/>
-      <c r="AM19" s="159"/>
+      <c r="AL19" s="147"/>
+      <c r="AM19" s="148"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B20" s="97" t="s">
         <v>211</v>
       </c>
-      <c r="D20" s="154">
+      <c r="D20" s="140">
         <f>SUM(HLOOKUP(E37,FSTATS,5,FALSE)*D37,HLOOKUP(E38,FSTATS,5,FALSE)*D38,HLOOKUP(E39,FSTATS,5,FALSE)*D39)</f>
         <v>90</v>
       </c>
-      <c r="E20" s="155"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="154">
+      <c r="E20" s="141"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="140">
         <f>SUM(HLOOKUP(H37,FSTATS,5,FALSE)*G37,HLOOKUP(H38,FSTATS,5,FALSE)*G38,HLOOKUP(H39,FSTATS,5,FALSE)*G39)</f>
         <v>90</v>
       </c>
-      <c r="H20" s="155"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="154">
+      <c r="H20" s="141"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="140">
         <f>SUM(HLOOKUP(K37,FSTATS,5,FALSE)*J37,HLOOKUP(K38,FSTATS,5,FALSE)*J38,HLOOKUP(K39,FSTATS,5,FALSE)*J39)</f>
         <v>0</v>
       </c>
-      <c r="K20" s="155"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="154">
+      <c r="K20" s="141"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="140">
         <f>SUM(HLOOKUP(N37,FSTATS,5,FALSE)*M37,HLOOKUP(N38,FSTATS,5,FALSE)*M38,HLOOKUP(N39,FSTATS,5,FALSE)*M39)</f>
         <v>135</v>
       </c>
-      <c r="N20" s="155"/>
-      <c r="O20" s="156"/>
-      <c r="P20" s="154">
+      <c r="N20" s="141"/>
+      <c r="O20" s="142"/>
+      <c r="P20" s="140">
         <f>SUM(HLOOKUP(Q37,FSTATS,5,FALSE)*P37,HLOOKUP(Q38,FSTATS,5,FALSE)*P38,HLOOKUP(Q39,FSTATS,5,FALSE)*P39)</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="155"/>
-      <c r="R20" s="156"/>
-      <c r="S20" s="154">
+      <c r="Q20" s="141"/>
+      <c r="R20" s="142"/>
+      <c r="S20" s="140">
         <f>SUM(HLOOKUP(T37,FSTATS,5,FALSE)*S37,HLOOKUP(T38,FSTATS,5,FALSE)*S38,HLOOKUP(T39,FSTATS,5,FALSE)*S39)</f>
         <v>0</v>
       </c>
-      <c r="T20" s="155"/>
-      <c r="U20" s="156"/>
-      <c r="V20" s="154">
+      <c r="T20" s="141"/>
+      <c r="U20" s="142"/>
+      <c r="V20" s="140">
         <f>SUM(HLOOKUP(W37,FSTATS,5,FALSE)*V37,HLOOKUP(W38,FSTATS,5,FALSE)*V38,HLOOKUP(W39,FSTATS,5,FALSE)*V39)</f>
         <v>0</v>
       </c>
-      <c r="W20" s="155"/>
-      <c r="X20" s="156"/>
-      <c r="Y20" s="154">
+      <c r="W20" s="141"/>
+      <c r="X20" s="142"/>
+      <c r="Y20" s="140">
         <f>SUM(HLOOKUP(Z37,FSTATS,5,FALSE)*Y37,HLOOKUP(Z38,FSTATS,5,FALSE)*Y38,HLOOKUP(Z39,FSTATS,5,FALSE)*Y39)</f>
         <v>0</v>
       </c>
-      <c r="Z20" s="155"/>
-      <c r="AA20" s="156"/>
-      <c r="AB20" s="154">
+      <c r="Z20" s="141"/>
+      <c r="AA20" s="142"/>
+      <c r="AB20" s="140">
         <f>SUM(HLOOKUP(AC37,FSTATS,5,FALSE)*AB37,HLOOKUP(AC38,FSTATS,5,FALSE)*AB38,HLOOKUP(AC39,FSTATS,5,FALSE)*AB39)</f>
         <v>0</v>
       </c>
-      <c r="AC20" s="155"/>
-      <c r="AD20" s="156"/>
-      <c r="AE20" s="154">
+      <c r="AC20" s="141"/>
+      <c r="AD20" s="142"/>
+      <c r="AE20" s="140">
         <f>SUM(HLOOKUP(AF37,FSTATS,5,FALSE)*AE37,HLOOKUP(AF38,FSTATS,5,FALSE)*AE38,HLOOKUP(AF39,FSTATS,5,FALSE)*AE39)</f>
         <v>0</v>
       </c>
-      <c r="AF20" s="155"/>
-      <c r="AG20" s="156"/>
-      <c r="AH20" s="154">
+      <c r="AF20" s="141"/>
+      <c r="AG20" s="142"/>
+      <c r="AH20" s="140">
         <f>SUM(HLOOKUP(AI37,FSTATS,5,FALSE)*AH37,HLOOKUP(AI38,FSTATS,5,FALSE)*AH38,HLOOKUP(AI39,FSTATS,5,FALSE)*AH39)</f>
         <v>0</v>
       </c>
-      <c r="AI20" s="155"/>
-      <c r="AJ20" s="156"/>
-      <c r="AK20" s="154">
+      <c r="AI20" s="141"/>
+      <c r="AJ20" s="142"/>
+      <c r="AK20" s="140">
         <f>SUM(HLOOKUP(AL37,FSTATS,5,FALSE)*AK37,HLOOKUP(AL38,FSTATS,5,FALSE)*AK38,HLOOKUP(AL39,FSTATS,5,FALSE)*AK39)</f>
         <v>0</v>
       </c>
-      <c r="AL20" s="155"/>
-      <c r="AM20" s="156"/>
+      <c r="AL20" s="141"/>
+      <c r="AM20" s="142"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B21" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="D21" s="157">
+      <c r="D21" s="146">
         <f>D3*VLOOKUP($B$3,ENEMY,8)+D4*VLOOKUP($B$4,ENEMY,8)+D5*VLOOKUP($B$5,ENEMY,8)+D6*VLOOKUP($B$6,ENEMY,8)+D7*VLOOKUP($B$7,ENEMY,8)+D8*VLOOKUP($B$8,ENEMY,8)+D9*VLOOKUP($B$9,ENEMY,8)+D10*VLOOKUP($B$10,ENEMY,8)+D11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="158"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="157">
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="146">
         <f>G3*H3*VLOOKUP($B$3,ENEMY,8)+G4*H4*VLOOKUP($B$4,ENEMY,8)+G5*H5*VLOOKUP($B$5,ENEMY,8)+G6*H6*VLOOKUP($B$6,ENEMY,8)+G7*H7*VLOOKUP($B$7,ENEMY,8)+G8*H8*VLOOKUP($B$8,ENEMY,8)+G9*H9*VLOOKUP($B$9,ENEMY,8)+G10*H10*VLOOKUP($B$10,ENEMY,8)+G11*H11*VLOOKUP($B$11,ENEMY,8)</f>
-        <v>108</v>
-      </c>
-      <c r="H21" s="158"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="157">
+        <v>132</v>
+      </c>
+      <c r="H21" s="147"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="146">
         <f>J3*K3*VLOOKUP($B$3,ENEMY,8)+J4*K4*VLOOKUP($B$4,ENEMY,8)+J5*K5*VLOOKUP($B$5,ENEMY,8)+J6*K6*VLOOKUP($B$6,ENEMY,8)+J7*K7*VLOOKUP($B$7,ENEMY,8)+J8*K8*VLOOKUP($B$8,ENEMY,8)+J9*K9*VLOOKUP($B$9,ENEMY,8)+J10*K10*VLOOKUP($B$10,ENEMY,8)+J11*K11*VLOOKUP($B$11,ENEMY,8)</f>
-        <v>192</v>
-      </c>
-      <c r="K21" s="158"/>
-      <c r="L21" s="159"/>
-      <c r="M21" s="157">
+        <v>232</v>
+      </c>
+      <c r="K21" s="147"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="146">
         <f>M3*N3*VLOOKUP($B$3,ENEMY,8)+M4*N4*VLOOKUP($B$4,ENEMY,8)+M5*N5*VLOOKUP($B$5,ENEMY,8)+M6*N6*VLOOKUP($B$6,ENEMY,8)+M7*N7*VLOOKUP($B$7,ENEMY,8)+M8*N8*VLOOKUP($B$8,ENEMY,8)+M9*N9*VLOOKUP($B$9,ENEMY,8)+M10*N10*VLOOKUP($B$10,ENEMY,8)+M11*N11*VLOOKUP($B$11,ENEMY,8)</f>
-        <v>150</v>
-      </c>
-      <c r="N21" s="158"/>
-      <c r="O21" s="159"/>
-      <c r="P21" s="157">
+        <v>180</v>
+      </c>
+      <c r="N21" s="147"/>
+      <c r="O21" s="148"/>
+      <c r="P21" s="146">
         <f>P3*Q3*VLOOKUP($B$3,ENEMY,8)+P4*Q4*VLOOKUP($B$4,ENEMY,8)+P5*Q5*VLOOKUP($B$5,ENEMY,8)+P6*Q6*VLOOKUP($B$6,ENEMY,8)+P7*Q7*VLOOKUP($B$7,ENEMY,8)+P8*Q8*VLOOKUP($B$8,ENEMY,8)+P9*Q9*VLOOKUP($B$9,ENEMY,8)+P10*Q10*VLOOKUP($B$10,ENEMY,8)+P11*Q11*VLOOKUP($B$11,ENEMY,8)</f>
-        <v>145</v>
-      </c>
-      <c r="Q21" s="158"/>
-      <c r="R21" s="159"/>
-      <c r="S21" s="157">
+        <v>175</v>
+      </c>
+      <c r="Q21" s="147"/>
+      <c r="R21" s="148"/>
+      <c r="S21" s="146">
         <f>S3*T3*VLOOKUP($B$3,ENEMY,8)+S4*T4*VLOOKUP($B$4,ENEMY,8)+S5*T5*VLOOKUP($B$5,ENEMY,8)+S6*T6*VLOOKUP($B$6,ENEMY,8)+S7*T7*VLOOKUP($B$7,ENEMY,8)+S8*T8*VLOOKUP($B$8,ENEMY,8)+S9*T9*VLOOKUP($B$9,ENEMY,8)+S10*T10*VLOOKUP($B$10,ENEMY,8)+S11*T11*VLOOKUP($B$11,ENEMY,8)</f>
-        <v>18</v>
-      </c>
-      <c r="T21" s="158"/>
-      <c r="U21" s="159"/>
-      <c r="V21" s="157">
+        <v>20</v>
+      </c>
+      <c r="T21" s="147"/>
+      <c r="U21" s="148"/>
+      <c r="V21" s="146">
         <f>V3*W3*VLOOKUP($B$3,ENEMY,8)+V4*W4*VLOOKUP($B$4,ENEMY,8)+V5*W5*VLOOKUP($B$5,ENEMY,8)+V6*W6*VLOOKUP($B$6,ENEMY,8)+V7*W7*VLOOKUP($B$7,ENEMY,8)+V8*W8*VLOOKUP($B$8,ENEMY,8)+V9*W9*VLOOKUP($B$9,ENEMY,8)+V10*W10*VLOOKUP($B$10,ENEMY,8)+V11*W11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="W21" s="158"/>
-      <c r="X21" s="159"/>
-      <c r="Y21" s="157">
+      <c r="W21" s="147"/>
+      <c r="X21" s="148"/>
+      <c r="Y21" s="146">
         <f>Y3*Z3*VLOOKUP($B$3,ENEMY,8)+Y4*Z4*VLOOKUP($B$4,ENEMY,8)+Y5*Z5*VLOOKUP($B$5,ENEMY,8)+Y6*Z6*VLOOKUP($B$6,ENEMY,8)+Y7*Z7*VLOOKUP($B$7,ENEMY,8)+Y8*Z8*VLOOKUP($B$8,ENEMY,8)+Y9*Z9*VLOOKUP($B$9,ENEMY,8)+Y10*Z10*VLOOKUP($B$10,ENEMY,8)+Y11*Z11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="Z21" s="158"/>
-      <c r="AA21" s="159"/>
-      <c r="AB21" s="157">
+      <c r="Z21" s="147"/>
+      <c r="AA21" s="148"/>
+      <c r="AB21" s="146">
         <f>AB3*AC3*VLOOKUP($B$3,ENEMY,8)+AB4*AC4*VLOOKUP($B$4,ENEMY,8)+AB5*AC5*VLOOKUP($B$5,ENEMY,8)+AB6*AC6*VLOOKUP($B$6,ENEMY,8)+AB7*AC7*VLOOKUP($B$7,ENEMY,8)+AB8*AC8*VLOOKUP($B$8,ENEMY,8)+AB9*AC9*VLOOKUP($B$9,ENEMY,8)+AB10*AC10*VLOOKUP($B$10,ENEMY,8)+AB11*AC11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="AC21" s="158"/>
-      <c r="AD21" s="159"/>
-      <c r="AE21" s="157">
+      <c r="AC21" s="147"/>
+      <c r="AD21" s="148"/>
+      <c r="AE21" s="146">
         <f>AE3*AF3*VLOOKUP($B$3,ENEMY,8)+AE4*AF4*VLOOKUP($B$4,ENEMY,8)+AE5*AF5*VLOOKUP($B$5,ENEMY,8)+AE6*AF6*VLOOKUP($B$6,ENEMY,8)+AE7*AF7*VLOOKUP($B$7,ENEMY,8)+AE8*AF8*VLOOKUP($B$8,ENEMY,8)+AE9*AF9*VLOOKUP($B$9,ENEMY,8)+AE10*AF10*VLOOKUP($B$10,ENEMY,8)+AE11*AF11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="AF21" s="158"/>
-      <c r="AG21" s="159"/>
-      <c r="AH21" s="157">
+      <c r="AF21" s="147"/>
+      <c r="AG21" s="148"/>
+      <c r="AH21" s="146">
         <f>AH3*AI3*VLOOKUP($B$3,ENEMY,8)+AH4*AI4*VLOOKUP($B$4,ENEMY,8)+AH5*AI5*VLOOKUP($B$5,ENEMY,8)+AH6*AI6*VLOOKUP($B$6,ENEMY,8)+AH7*AI7*VLOOKUP($B$7,ENEMY,8)+AH8*AI8*VLOOKUP($B$8,ENEMY,8)+AH9*AI9*VLOOKUP($B$9,ENEMY,8)+AH10*AI10*VLOOKUP($B$10,ENEMY,8)+AH11*AI11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="AI21" s="158"/>
-      <c r="AJ21" s="159"/>
-      <c r="AK21" s="157">
+      <c r="AI21" s="147"/>
+      <c r="AJ21" s="148"/>
+      <c r="AK21" s="146">
         <f>AK3*AL3*VLOOKUP($B$3,ENEMY,8)+AK4*AL4*VLOOKUP($B$4,ENEMY,8)+AK5*AL5*VLOOKUP($B$5,ENEMY,8)+AK6*AL6*VLOOKUP($B$6,ENEMY,8)+AK7*AL7*VLOOKUP($B$7,ENEMY,8)+AK8*AL8*VLOOKUP($B$8,ENEMY,8)+AK9*AL9*VLOOKUP($B$9,ENEMY,8)+AK10*AL10*VLOOKUP($B$10,ENEMY,8)+AK11*AL11*VLOOKUP($B$11,ENEMY,8)</f>
         <v>0</v>
       </c>
-      <c r="AL21" s="158"/>
-      <c r="AM21" s="159"/>
+      <c r="AL21" s="147"/>
+      <c r="AM21" s="148"/>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B22" s="97" t="s">
         <v>187</v>
       </c>
-      <c r="D22" s="154">
+      <c r="D22" s="140">
         <f>D18-(D19+D20)+D21</f>
         <v>35</v>
       </c>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="154">
+      <c r="E22" s="141"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="140">
         <f>G18-(G19+G20)+G21</f>
-        <v>53</v>
-      </c>
-      <c r="H22" s="155"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="154">
+        <v>77</v>
+      </c>
+      <c r="H22" s="141"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="140">
         <f t="shared" ref="J22" si="15">J18-(J19+J20)+J21</f>
-        <v>65</v>
-      </c>
-      <c r="K22" s="155"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="154">
+        <v>129</v>
+      </c>
+      <c r="K22" s="141"/>
+      <c r="L22" s="142"/>
+      <c r="M22" s="140">
         <f t="shared" ref="M22" si="16">M18-(M19+M20)+M21</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="155"/>
-      <c r="O22" s="156"/>
-      <c r="P22" s="154">
+        <v>94</v>
+      </c>
+      <c r="N22" s="141"/>
+      <c r="O22" s="142"/>
+      <c r="P22" s="140">
         <f t="shared" ref="P22" si="17">P18-(P19+P20)+P21</f>
-        <v>45</v>
-      </c>
-      <c r="Q22" s="155"/>
-      <c r="R22" s="156"/>
-      <c r="S22" s="154">
+        <v>169</v>
+      </c>
+      <c r="Q22" s="141"/>
+      <c r="R22" s="142"/>
+      <c r="S22" s="140">
         <f t="shared" ref="S22" si="18">S18-(S19+S20)+S21</f>
-        <v>63</v>
-      </c>
-      <c r="T22" s="155"/>
-      <c r="U22" s="156"/>
-      <c r="V22" s="154">
+        <v>189</v>
+      </c>
+      <c r="T22" s="141"/>
+      <c r="U22" s="142"/>
+      <c r="V22" s="140">
         <f t="shared" ref="V22" si="19">V18-(V19+V20)+V21</f>
-        <v>63</v>
-      </c>
-      <c r="W22" s="155"/>
-      <c r="X22" s="156"/>
-      <c r="Y22" s="154">
+        <v>189</v>
+      </c>
+      <c r="W22" s="141"/>
+      <c r="X22" s="142"/>
+      <c r="Y22" s="140">
         <f t="shared" ref="Y22" si="20">Y18-(Y19+Y20)+Y21</f>
-        <v>63</v>
-      </c>
-      <c r="Z22" s="155"/>
-      <c r="AA22" s="156"/>
-      <c r="AB22" s="154">
+        <v>189</v>
+      </c>
+      <c r="Z22" s="141"/>
+      <c r="AA22" s="142"/>
+      <c r="AB22" s="140">
         <f t="shared" ref="AB22" si="21">AB18-(AB19+AB20)+AB21</f>
-        <v>63</v>
-      </c>
-      <c r="AC22" s="155"/>
-      <c r="AD22" s="156"/>
-      <c r="AE22" s="154">
+        <v>189</v>
+      </c>
+      <c r="AC22" s="141"/>
+      <c r="AD22" s="142"/>
+      <c r="AE22" s="140">
         <f t="shared" ref="AE22" si="22">AE18-(AE19+AE20)+AE21</f>
-        <v>63</v>
-      </c>
-      <c r="AF22" s="155"/>
-      <c r="AG22" s="156"/>
-      <c r="AH22" s="154">
+        <v>189</v>
+      </c>
+      <c r="AF22" s="141"/>
+      <c r="AG22" s="142"/>
+      <c r="AH22" s="140">
         <f t="shared" ref="AH22" si="23">AH18-(AH19+AH20)+AH21</f>
-        <v>63</v>
-      </c>
-      <c r="AI22" s="155"/>
-      <c r="AJ22" s="156"/>
-      <c r="AK22" s="154">
+        <v>189</v>
+      </c>
+      <c r="AI22" s="141"/>
+      <c r="AJ22" s="142"/>
+      <c r="AK22" s="140">
         <f t="shared" ref="AK22" si="24">AK18-(AK19+AK20)+AK21</f>
-        <v>63</v>
-      </c>
-      <c r="AL22" s="155"/>
-      <c r="AM22" s="156"/>
+        <v>189</v>
+      </c>
+      <c r="AL22" s="141"/>
+      <c r="AM22" s="142"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B25" s="105" t="s">
@@ -8555,41 +8555,41 @@
         <v>Normal</v>
       </c>
       <c r="D26" s="116"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="156"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="142"/>
       <c r="G26" s="132"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="156"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="142"/>
       <c r="J26" s="132"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="156"/>
+      <c r="K26" s="141"/>
+      <c r="L26" s="142"/>
       <c r="M26" s="132"/>
-      <c r="N26" s="155"/>
-      <c r="O26" s="156"/>
+      <c r="N26" s="141"/>
+      <c r="O26" s="142"/>
       <c r="P26" s="132"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="156"/>
+      <c r="Q26" s="141"/>
+      <c r="R26" s="142"/>
       <c r="S26" s="132"/>
-      <c r="T26" s="155"/>
-      <c r="U26" s="156"/>
+      <c r="T26" s="141"/>
+      <c r="U26" s="142"/>
       <c r="V26" s="132"/>
-      <c r="W26" s="155"/>
-      <c r="X26" s="156"/>
+      <c r="W26" s="141"/>
+      <c r="X26" s="142"/>
       <c r="Y26" s="132"/>
-      <c r="Z26" s="155"/>
-      <c r="AA26" s="156"/>
+      <c r="Z26" s="141"/>
+      <c r="AA26" s="142"/>
       <c r="AB26" s="132"/>
-      <c r="AC26" s="155"/>
-      <c r="AD26" s="156"/>
+      <c r="AC26" s="141"/>
+      <c r="AD26" s="142"/>
       <c r="AE26" s="132"/>
-      <c r="AF26" s="155"/>
-      <c r="AG26" s="156"/>
+      <c r="AF26" s="141"/>
+      <c r="AG26" s="142"/>
       <c r="AH26" s="132"/>
-      <c r="AI26" s="155"/>
-      <c r="AJ26" s="156"/>
+      <c r="AI26" s="141"/>
+      <c r="AJ26" s="142"/>
       <c r="AK26" s="132"/>
-      <c r="AL26" s="155"/>
-      <c r="AM26" s="156"/>
+      <c r="AL26" s="141"/>
+      <c r="AM26" s="142"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="109">
@@ -8604,41 +8604,41 @@
         <v>Intangible</v>
       </c>
       <c r="D27" s="118"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="159"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="148"/>
       <c r="G27" s="131"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="159"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="148"/>
       <c r="J27" s="131"/>
-      <c r="K27" s="158"/>
-      <c r="L27" s="159"/>
+      <c r="K27" s="147"/>
+      <c r="L27" s="148"/>
       <c r="M27" s="131"/>
-      <c r="N27" s="158"/>
-      <c r="O27" s="159"/>
+      <c r="N27" s="147"/>
+      <c r="O27" s="148"/>
       <c r="P27" s="131"/>
-      <c r="Q27" s="158"/>
-      <c r="R27" s="159"/>
+      <c r="Q27" s="147"/>
+      <c r="R27" s="148"/>
       <c r="S27" s="131"/>
-      <c r="T27" s="158"/>
-      <c r="U27" s="159"/>
+      <c r="T27" s="147"/>
+      <c r="U27" s="148"/>
       <c r="V27" s="131"/>
-      <c r="W27" s="158"/>
-      <c r="X27" s="159"/>
+      <c r="W27" s="147"/>
+      <c r="X27" s="148"/>
       <c r="Y27" s="131"/>
-      <c r="Z27" s="158"/>
-      <c r="AA27" s="159"/>
+      <c r="Z27" s="147"/>
+      <c r="AA27" s="148"/>
       <c r="AB27" s="131"/>
-      <c r="AC27" s="158"/>
-      <c r="AD27" s="159"/>
+      <c r="AC27" s="147"/>
+      <c r="AD27" s="148"/>
       <c r="AE27" s="131"/>
-      <c r="AF27" s="158"/>
-      <c r="AG27" s="159"/>
+      <c r="AF27" s="147"/>
+      <c r="AG27" s="148"/>
       <c r="AH27" s="131"/>
-      <c r="AI27" s="158"/>
-      <c r="AJ27" s="159"/>
+      <c r="AI27" s="147"/>
+      <c r="AJ27" s="148"/>
       <c r="AK27" s="131"/>
-      <c r="AL27" s="158"/>
-      <c r="AM27" s="159"/>
+      <c r="AL27" s="147"/>
+      <c r="AM27" s="148"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="109">
@@ -8655,49 +8655,49 @@
       <c r="D28" s="116">
         <v>1</v>
       </c>
-      <c r="E28" s="155" t="s">
+      <c r="E28" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="156"/>
+      <c r="F28" s="142"/>
       <c r="G28" s="132"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="156"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="142"/>
       <c r="J28" s="132">
         <v>1</v>
       </c>
-      <c r="K28" s="155" t="s">
+      <c r="K28" s="141" t="s">
         <v>67</v>
       </c>
-      <c r="L28" s="156"/>
+      <c r="L28" s="142"/>
       <c r="M28" s="132"/>
-      <c r="N28" s="155"/>
-      <c r="O28" s="156"/>
+      <c r="N28" s="141"/>
+      <c r="O28" s="142"/>
       <c r="P28" s="132">
         <v>1</v>
       </c>
-      <c r="Q28" s="155"/>
-      <c r="R28" s="156"/>
+      <c r="Q28" s="141"/>
+      <c r="R28" s="142"/>
       <c r="S28" s="132"/>
-      <c r="T28" s="155"/>
-      <c r="U28" s="156"/>
+      <c r="T28" s="141"/>
+      <c r="U28" s="142"/>
       <c r="V28" s="132"/>
-      <c r="W28" s="155"/>
-      <c r="X28" s="156"/>
+      <c r="W28" s="141"/>
+      <c r="X28" s="142"/>
       <c r="Y28" s="132"/>
-      <c r="Z28" s="155"/>
-      <c r="AA28" s="156"/>
+      <c r="Z28" s="141"/>
+      <c r="AA28" s="142"/>
       <c r="AB28" s="132"/>
-      <c r="AC28" s="155"/>
-      <c r="AD28" s="156"/>
+      <c r="AC28" s="141"/>
+      <c r="AD28" s="142"/>
       <c r="AE28" s="132"/>
-      <c r="AF28" s="155"/>
-      <c r="AG28" s="156"/>
+      <c r="AF28" s="141"/>
+      <c r="AG28" s="142"/>
       <c r="AH28" s="132"/>
-      <c r="AI28" s="155"/>
-      <c r="AJ28" s="156"/>
+      <c r="AI28" s="141"/>
+      <c r="AJ28" s="142"/>
       <c r="AK28" s="132"/>
-      <c r="AL28" s="155"/>
-      <c r="AM28" s="156"/>
+      <c r="AL28" s="141"/>
+      <c r="AM28" s="142"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="109">
@@ -8712,41 +8712,41 @@
         <v>Normal</v>
       </c>
       <c r="D29" s="118"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="159"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="148"/>
       <c r="G29" s="131"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="159"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="148"/>
       <c r="J29" s="131"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="159"/>
+      <c r="K29" s="147"/>
+      <c r="L29" s="148"/>
       <c r="M29" s="131"/>
-      <c r="N29" s="158"/>
-      <c r="O29" s="159"/>
+      <c r="N29" s="147"/>
+      <c r="O29" s="148"/>
       <c r="P29" s="131"/>
-      <c r="Q29" s="158"/>
-      <c r="R29" s="159"/>
+      <c r="Q29" s="147"/>
+      <c r="R29" s="148"/>
       <c r="S29" s="131"/>
-      <c r="T29" s="158"/>
-      <c r="U29" s="159"/>
+      <c r="T29" s="147"/>
+      <c r="U29" s="148"/>
       <c r="V29" s="131"/>
-      <c r="W29" s="158"/>
-      <c r="X29" s="159"/>
+      <c r="W29" s="147"/>
+      <c r="X29" s="148"/>
       <c r="Y29" s="131"/>
-      <c r="Z29" s="158"/>
-      <c r="AA29" s="159"/>
+      <c r="Z29" s="147"/>
+      <c r="AA29" s="148"/>
       <c r="AB29" s="131"/>
-      <c r="AC29" s="158"/>
-      <c r="AD29" s="159"/>
+      <c r="AC29" s="147"/>
+      <c r="AD29" s="148"/>
       <c r="AE29" s="131"/>
-      <c r="AF29" s="158"/>
-      <c r="AG29" s="159"/>
+      <c r="AF29" s="147"/>
+      <c r="AG29" s="148"/>
       <c r="AH29" s="131"/>
-      <c r="AI29" s="158"/>
-      <c r="AJ29" s="159"/>
+      <c r="AI29" s="147"/>
+      <c r="AJ29" s="148"/>
       <c r="AK29" s="131"/>
-      <c r="AL29" s="158"/>
-      <c r="AM29" s="159"/>
+      <c r="AL29" s="147"/>
+      <c r="AM29" s="148"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="109">
@@ -8761,49 +8761,49 @@
         <v>Intangible</v>
       </c>
       <c r="D30" s="116"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="156"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="142"/>
       <c r="G30" s="132"/>
-      <c r="H30" s="155"/>
-      <c r="I30" s="156"/>
+      <c r="H30" s="141"/>
+      <c r="I30" s="142"/>
       <c r="J30" s="132">
         <v>1</v>
       </c>
-      <c r="K30" s="155" t="s">
+      <c r="K30" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="L30" s="156"/>
+      <c r="L30" s="142"/>
       <c r="M30" s="132">
         <v>1</v>
       </c>
-      <c r="N30" s="155" t="s">
+      <c r="N30" s="141" t="s">
         <v>67</v>
       </c>
-      <c r="O30" s="156"/>
+      <c r="O30" s="142"/>
       <c r="P30" s="132"/>
-      <c r="Q30" s="155"/>
-      <c r="R30" s="156"/>
+      <c r="Q30" s="141"/>
+      <c r="R30" s="142"/>
       <c r="S30" s="132"/>
-      <c r="T30" s="155"/>
-      <c r="U30" s="156"/>
+      <c r="T30" s="141"/>
+      <c r="U30" s="142"/>
       <c r="V30" s="132"/>
-      <c r="W30" s="155"/>
-      <c r="X30" s="156"/>
+      <c r="W30" s="141"/>
+      <c r="X30" s="142"/>
       <c r="Y30" s="132"/>
-      <c r="Z30" s="155"/>
-      <c r="AA30" s="156"/>
+      <c r="Z30" s="141"/>
+      <c r="AA30" s="142"/>
       <c r="AB30" s="132"/>
-      <c r="AC30" s="155"/>
-      <c r="AD30" s="156"/>
+      <c r="AC30" s="141"/>
+      <c r="AD30" s="142"/>
       <c r="AE30" s="132"/>
-      <c r="AF30" s="155"/>
-      <c r="AG30" s="156"/>
+      <c r="AF30" s="141"/>
+      <c r="AG30" s="142"/>
       <c r="AH30" s="132"/>
-      <c r="AI30" s="155"/>
-      <c r="AJ30" s="156"/>
+      <c r="AI30" s="141"/>
+      <c r="AJ30" s="142"/>
       <c r="AK30" s="132"/>
-      <c r="AL30" s="155"/>
-      <c r="AM30" s="156"/>
+      <c r="AL30" s="141"/>
+      <c r="AM30" s="142"/>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="109">
@@ -8818,41 +8818,41 @@
         <v>Saboteur</v>
       </c>
       <c r="D31" s="118"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="159"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="148"/>
       <c r="G31" s="131"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="159"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="148"/>
       <c r="J31" s="131"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="159"/>
+      <c r="K31" s="147"/>
+      <c r="L31" s="148"/>
       <c r="M31" s="131"/>
-      <c r="N31" s="158"/>
-      <c r="O31" s="159"/>
+      <c r="N31" s="147"/>
+      <c r="O31" s="148"/>
       <c r="P31" s="131"/>
-      <c r="Q31" s="158"/>
-      <c r="R31" s="159"/>
+      <c r="Q31" s="147"/>
+      <c r="R31" s="148"/>
       <c r="S31" s="131"/>
-      <c r="T31" s="158"/>
-      <c r="U31" s="159"/>
+      <c r="T31" s="147"/>
+      <c r="U31" s="148"/>
       <c r="V31" s="131"/>
-      <c r="W31" s="158"/>
-      <c r="X31" s="159"/>
+      <c r="W31" s="147"/>
+      <c r="X31" s="148"/>
       <c r="Y31" s="131"/>
-      <c r="Z31" s="158"/>
-      <c r="AA31" s="159"/>
+      <c r="Z31" s="147"/>
+      <c r="AA31" s="148"/>
       <c r="AB31" s="131"/>
-      <c r="AC31" s="158"/>
-      <c r="AD31" s="159"/>
+      <c r="AC31" s="147"/>
+      <c r="AD31" s="148"/>
       <c r="AE31" s="131"/>
-      <c r="AF31" s="158"/>
-      <c r="AG31" s="159"/>
+      <c r="AF31" s="147"/>
+      <c r="AG31" s="148"/>
       <c r="AH31" s="131"/>
-      <c r="AI31" s="158"/>
-      <c r="AJ31" s="159"/>
+      <c r="AI31" s="147"/>
+      <c r="AJ31" s="148"/>
       <c r="AK31" s="131"/>
-      <c r="AL31" s="158"/>
-      <c r="AM31" s="159"/>
+      <c r="AL31" s="147"/>
+      <c r="AM31" s="148"/>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="109">
@@ -8867,41 +8867,41 @@
         <v>Normal</v>
       </c>
       <c r="D32" s="116"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="156"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="142"/>
       <c r="G32" s="132"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="156"/>
+      <c r="H32" s="141"/>
+      <c r="I32" s="142"/>
       <c r="J32" s="132"/>
-      <c r="K32" s="155"/>
-      <c r="L32" s="156"/>
+      <c r="K32" s="141"/>
+      <c r="L32" s="142"/>
       <c r="M32" s="132"/>
-      <c r="N32" s="155"/>
-      <c r="O32" s="156"/>
+      <c r="N32" s="141"/>
+      <c r="O32" s="142"/>
       <c r="P32" s="132"/>
-      <c r="Q32" s="155"/>
-      <c r="R32" s="156"/>
+      <c r="Q32" s="141"/>
+      <c r="R32" s="142"/>
       <c r="S32" s="132"/>
-      <c r="T32" s="155"/>
-      <c r="U32" s="156"/>
+      <c r="T32" s="141"/>
+      <c r="U32" s="142"/>
       <c r="V32" s="132"/>
-      <c r="W32" s="155"/>
-      <c r="X32" s="156"/>
+      <c r="W32" s="141"/>
+      <c r="X32" s="142"/>
       <c r="Y32" s="132"/>
-      <c r="Z32" s="155"/>
-      <c r="AA32" s="156"/>
+      <c r="Z32" s="141"/>
+      <c r="AA32" s="142"/>
       <c r="AB32" s="132"/>
-      <c r="AC32" s="155"/>
-      <c r="AD32" s="156"/>
+      <c r="AC32" s="141"/>
+      <c r="AD32" s="142"/>
       <c r="AE32" s="132"/>
-      <c r="AF32" s="155"/>
-      <c r="AG32" s="156"/>
+      <c r="AF32" s="141"/>
+      <c r="AG32" s="142"/>
       <c r="AH32" s="132"/>
-      <c r="AI32" s="155"/>
-      <c r="AJ32" s="156"/>
+      <c r="AI32" s="141"/>
+      <c r="AJ32" s="142"/>
       <c r="AK32" s="132"/>
-      <c r="AL32" s="155"/>
-      <c r="AM32" s="156"/>
+      <c r="AL32" s="141"/>
+      <c r="AM32" s="142"/>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="109">
@@ -8916,41 +8916,41 @@
         <v>Intangible</v>
       </c>
       <c r="D33" s="118"/>
-      <c r="E33" s="158"/>
-      <c r="F33" s="159"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="148"/>
       <c r="G33" s="131"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="159"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="148"/>
       <c r="J33" s="131"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="159"/>
+      <c r="K33" s="147"/>
+      <c r="L33" s="148"/>
       <c r="M33" s="131"/>
-      <c r="N33" s="158"/>
-      <c r="O33" s="159"/>
+      <c r="N33" s="147"/>
+      <c r="O33" s="148"/>
       <c r="P33" s="131"/>
-      <c r="Q33" s="158"/>
-      <c r="R33" s="159"/>
+      <c r="Q33" s="147"/>
+      <c r="R33" s="148"/>
       <c r="S33" s="131"/>
-      <c r="T33" s="158"/>
-      <c r="U33" s="159"/>
+      <c r="T33" s="147"/>
+      <c r="U33" s="148"/>
       <c r="V33" s="131"/>
-      <c r="W33" s="158"/>
-      <c r="X33" s="159"/>
+      <c r="W33" s="147"/>
+      <c r="X33" s="148"/>
       <c r="Y33" s="131"/>
-      <c r="Z33" s="158"/>
-      <c r="AA33" s="159"/>
+      <c r="Z33" s="147"/>
+      <c r="AA33" s="148"/>
       <c r="AB33" s="131"/>
-      <c r="AC33" s="158"/>
-      <c r="AD33" s="159"/>
+      <c r="AC33" s="147"/>
+      <c r="AD33" s="148"/>
       <c r="AE33" s="131"/>
-      <c r="AF33" s="158"/>
-      <c r="AG33" s="159"/>
+      <c r="AF33" s="147"/>
+      <c r="AG33" s="148"/>
       <c r="AH33" s="131"/>
-      <c r="AI33" s="158"/>
-      <c r="AJ33" s="159"/>
+      <c r="AI33" s="147"/>
+      <c r="AJ33" s="148"/>
       <c r="AK33" s="131"/>
-      <c r="AL33" s="158"/>
-      <c r="AM33" s="159"/>
+      <c r="AL33" s="147"/>
+      <c r="AM33" s="148"/>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="109">
@@ -8965,41 +8965,41 @@
         <v>Saboteur</v>
       </c>
       <c r="D34" s="116"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="156"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="142"/>
       <c r="G34" s="132"/>
-      <c r="H34" s="155"/>
-      <c r="I34" s="156"/>
+      <c r="H34" s="141"/>
+      <c r="I34" s="142"/>
       <c r="J34" s="132"/>
-      <c r="K34" s="155"/>
-      <c r="L34" s="156"/>
+      <c r="K34" s="141"/>
+      <c r="L34" s="142"/>
       <c r="M34" s="132"/>
-      <c r="N34" s="155"/>
-      <c r="O34" s="156"/>
+      <c r="N34" s="141"/>
+      <c r="O34" s="142"/>
       <c r="P34" s="132"/>
-      <c r="Q34" s="155"/>
-      <c r="R34" s="156"/>
+      <c r="Q34" s="141"/>
+      <c r="R34" s="142"/>
       <c r="S34" s="132"/>
-      <c r="T34" s="155"/>
-      <c r="U34" s="156"/>
+      <c r="T34" s="141"/>
+      <c r="U